--- a/SubRES_TMPL/SubRes_ELC_Plants2020_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_Plants2020_Trans.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mikkel\TIMES-DK\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES Modeller\TIMES-TOM\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80596783-A903-4BF4-94C1-482D308993B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16050" windowHeight="6300" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="4" r:id="rId1"/>
@@ -27,12 +28,23 @@
     <definedName name="FIXWINOFF">'[1]Adjusted O&amp;M waste and WIN '!$K$13</definedName>
     <definedName name="VARWINOFF">'[1]Adjusted O&amp;M waste and WIN '!$L$13</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>DKE</t>
   </si>
@@ -231,11 +243,23 @@
   <si>
     <t>ERWINWOF5P</t>
   </si>
+  <si>
+    <t>DKISLBH</t>
+  </si>
+  <si>
+    <t>DKISL1</t>
+  </si>
+  <si>
+    <t>DKISL2</t>
+  </si>
+  <si>
+    <t>DKISL3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -5560,4217 +5584,4217 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4211">
-    <cellStyle name="20 % - Markeringsfarve1" xfId="1"/>
-    <cellStyle name="20 % - Markeringsfarve1 2" xfId="2"/>
-    <cellStyle name="20 % - Markeringsfarve2" xfId="3"/>
-    <cellStyle name="20 % - Markeringsfarve2 2" xfId="4"/>
-    <cellStyle name="20 % - Markeringsfarve3" xfId="5"/>
-    <cellStyle name="20 % - Markeringsfarve3 2" xfId="6"/>
-    <cellStyle name="20 % - Markeringsfarve4" xfId="7"/>
-    <cellStyle name="20 % - Markeringsfarve4 2" xfId="8"/>
-    <cellStyle name="20 % - Markeringsfarve5" xfId="9"/>
-    <cellStyle name="20 % - Markeringsfarve5 2" xfId="10"/>
-    <cellStyle name="20 % - Markeringsfarve6" xfId="11"/>
-    <cellStyle name="20 % - Markeringsfarve6 2" xfId="12"/>
-    <cellStyle name="20% - Colore 1" xfId="13"/>
-    <cellStyle name="20% - Colore 1 2" xfId="14"/>
-    <cellStyle name="20% - Colore 2" xfId="15"/>
-    <cellStyle name="20% - Colore 2 2" xfId="16"/>
-    <cellStyle name="20% - Colore 3" xfId="17"/>
-    <cellStyle name="20% - Colore 3 2" xfId="18"/>
-    <cellStyle name="20% - Colore 4" xfId="19"/>
-    <cellStyle name="20% - Colore 4 2" xfId="20"/>
-    <cellStyle name="20% - Colore 5" xfId="21"/>
-    <cellStyle name="20% - Colore 5 2" xfId="22"/>
-    <cellStyle name="20% - Colore 6" xfId="23"/>
-    <cellStyle name="20% - Colore 6 2" xfId="24"/>
-    <cellStyle name="40 % - Markeringsfarve1" xfId="25"/>
-    <cellStyle name="40 % - Markeringsfarve1 2" xfId="26"/>
-    <cellStyle name="40 % - Markeringsfarve2" xfId="27"/>
-    <cellStyle name="40 % - Markeringsfarve2 2" xfId="28"/>
-    <cellStyle name="40 % - Markeringsfarve3" xfId="29"/>
-    <cellStyle name="40 % - Markeringsfarve3 2" xfId="30"/>
-    <cellStyle name="40 % - Markeringsfarve4" xfId="31"/>
-    <cellStyle name="40 % - Markeringsfarve4 2" xfId="32"/>
-    <cellStyle name="40 % - Markeringsfarve5" xfId="33"/>
-    <cellStyle name="40 % - Markeringsfarve5 2" xfId="34"/>
-    <cellStyle name="40 % - Markeringsfarve6" xfId="35"/>
-    <cellStyle name="40 % - Markeringsfarve6 2" xfId="36"/>
-    <cellStyle name="40% - Colore 1" xfId="37"/>
-    <cellStyle name="40% - Colore 1 2" xfId="38"/>
-    <cellStyle name="40% - Colore 2" xfId="39"/>
-    <cellStyle name="40% - Colore 2 2" xfId="40"/>
-    <cellStyle name="40% - Colore 3" xfId="41"/>
-    <cellStyle name="40% - Colore 3 2" xfId="42"/>
-    <cellStyle name="40% - Colore 4" xfId="43"/>
-    <cellStyle name="40% - Colore 4 2" xfId="44"/>
-    <cellStyle name="40% - Colore 5" xfId="45"/>
-    <cellStyle name="40% - Colore 5 2" xfId="46"/>
-    <cellStyle name="40% - Colore 6" xfId="47"/>
-    <cellStyle name="40% - Colore 6 2" xfId="48"/>
-    <cellStyle name="5x indented GHG Textfiels" xfId="49"/>
-    <cellStyle name="5x indented GHG Textfiels 2" xfId="2583"/>
-    <cellStyle name="60 % - Markeringsfarve1" xfId="50"/>
-    <cellStyle name="60 % - Markeringsfarve2" xfId="51"/>
-    <cellStyle name="60 % - Markeringsfarve3" xfId="52"/>
-    <cellStyle name="60 % - Markeringsfarve4" xfId="53"/>
-    <cellStyle name="60 % - Markeringsfarve5" xfId="54"/>
-    <cellStyle name="60 % - Markeringsfarve6" xfId="55"/>
-    <cellStyle name="60% - Colore 1" xfId="56"/>
-    <cellStyle name="60% - Colore 2" xfId="57"/>
-    <cellStyle name="60% - Colore 3" xfId="58"/>
-    <cellStyle name="60% - Colore 4" xfId="59"/>
-    <cellStyle name="60% - Colore 5" xfId="60"/>
-    <cellStyle name="60% - Colore 6" xfId="61"/>
-    <cellStyle name="AggOrange_CRFReport-template" xfId="62"/>
-    <cellStyle name="AggOrange9_CRFReport-template" xfId="63"/>
-    <cellStyle name="Bad 2" xfId="64"/>
-    <cellStyle name="Bad 3" xfId="65"/>
-    <cellStyle name="Bad 4" xfId="66"/>
-    <cellStyle name="Calcolo" xfId="67"/>
-    <cellStyle name="Calcolo 2" xfId="68"/>
-    <cellStyle name="Calcolo 2 2" xfId="69"/>
-    <cellStyle name="Calcolo 3" xfId="70"/>
-    <cellStyle name="Calculation 2" xfId="71"/>
-    <cellStyle name="Cella collegata" xfId="72"/>
-    <cellStyle name="Cella da controllare" xfId="73"/>
-    <cellStyle name="Colore 1" xfId="74"/>
-    <cellStyle name="Colore 2" xfId="75"/>
-    <cellStyle name="Colore 3" xfId="76"/>
-    <cellStyle name="Colore 4" xfId="77"/>
-    <cellStyle name="Colore 5" xfId="78"/>
-    <cellStyle name="Colore 6" xfId="79"/>
-    <cellStyle name="Comma 2" xfId="80"/>
-    <cellStyle name="Comma 2 2" xfId="81"/>
-    <cellStyle name="Comma 2 3" xfId="82"/>
-    <cellStyle name="Comma 2 3 2" xfId="83"/>
-    <cellStyle name="Comma 2 3 2 2" xfId="84"/>
-    <cellStyle name="Comma 2 3 2 3" xfId="2585"/>
-    <cellStyle name="Comma 2 3 3" xfId="2584"/>
-    <cellStyle name="Comma 2 4" xfId="85"/>
-    <cellStyle name="Comma 3" xfId="86"/>
-    <cellStyle name="Comma 3 2" xfId="2586"/>
-    <cellStyle name="Comma 4" xfId="87"/>
-    <cellStyle name="Comma 4 2" xfId="88"/>
-    <cellStyle name="Comma 4 2 2" xfId="2588"/>
-    <cellStyle name="Comma 4 3" xfId="2587"/>
-    <cellStyle name="Comma 5" xfId="89"/>
-    <cellStyle name="Comma 6" xfId="90"/>
-    <cellStyle name="Comma 6 2" xfId="2589"/>
-    <cellStyle name="Comma 7" xfId="2581"/>
-    <cellStyle name="Comma0 - Type3" xfId="91"/>
-    <cellStyle name="CustomizationCells" xfId="92"/>
-    <cellStyle name="CustomizationCells 2" xfId="93"/>
-    <cellStyle name="Euro" xfId="94"/>
-    <cellStyle name="Euro 10" xfId="95"/>
-    <cellStyle name="Euro 10 2" xfId="96"/>
-    <cellStyle name="Euro 10 2 2" xfId="2592"/>
-    <cellStyle name="Euro 10 3" xfId="97"/>
-    <cellStyle name="Euro 10 3 2" xfId="98"/>
-    <cellStyle name="Euro 10 3 2 2" xfId="99"/>
-    <cellStyle name="Euro 10 3 2 3" xfId="2594"/>
-    <cellStyle name="Euro 10 3 3" xfId="2593"/>
-    <cellStyle name="Euro 10 4" xfId="100"/>
-    <cellStyle name="Euro 10 4 2" xfId="101"/>
-    <cellStyle name="Euro 10 4 2 2" xfId="2596"/>
-    <cellStyle name="Euro 10 4 3" xfId="2595"/>
-    <cellStyle name="Euro 10 5" xfId="102"/>
-    <cellStyle name="Euro 10 6" xfId="2591"/>
-    <cellStyle name="Euro 11" xfId="103"/>
-    <cellStyle name="Euro 11 2" xfId="104"/>
-    <cellStyle name="Euro 11 2 2" xfId="2598"/>
-    <cellStyle name="Euro 11 3" xfId="105"/>
-    <cellStyle name="Euro 11 3 2" xfId="106"/>
-    <cellStyle name="Euro 11 3 2 2" xfId="107"/>
-    <cellStyle name="Euro 11 3 2 3" xfId="2600"/>
-    <cellStyle name="Euro 11 3 3" xfId="2599"/>
-    <cellStyle name="Euro 11 4" xfId="108"/>
-    <cellStyle name="Euro 11 4 2" xfId="109"/>
-    <cellStyle name="Euro 11 4 2 2" xfId="2602"/>
-    <cellStyle name="Euro 11 4 3" xfId="2601"/>
-    <cellStyle name="Euro 11 5" xfId="110"/>
-    <cellStyle name="Euro 11 6" xfId="2597"/>
-    <cellStyle name="Euro 12" xfId="111"/>
-    <cellStyle name="Euro 12 2" xfId="112"/>
-    <cellStyle name="Euro 12 2 2" xfId="2604"/>
-    <cellStyle name="Euro 12 3" xfId="113"/>
-    <cellStyle name="Euro 12 3 2" xfId="114"/>
-    <cellStyle name="Euro 12 3 2 2" xfId="115"/>
-    <cellStyle name="Euro 12 3 2 3" xfId="2606"/>
-    <cellStyle name="Euro 12 3 3" xfId="2605"/>
-    <cellStyle name="Euro 12 4" xfId="116"/>
-    <cellStyle name="Euro 12 4 2" xfId="117"/>
-    <cellStyle name="Euro 12 4 2 2" xfId="2608"/>
-    <cellStyle name="Euro 12 4 3" xfId="2607"/>
-    <cellStyle name="Euro 12 5" xfId="118"/>
-    <cellStyle name="Euro 12 6" xfId="2603"/>
-    <cellStyle name="Euro 13" xfId="119"/>
-    <cellStyle name="Euro 13 2" xfId="120"/>
-    <cellStyle name="Euro 13 2 2" xfId="2610"/>
-    <cellStyle name="Euro 13 3" xfId="121"/>
-    <cellStyle name="Euro 13 3 2" xfId="122"/>
-    <cellStyle name="Euro 13 3 2 2" xfId="123"/>
-    <cellStyle name="Euro 13 3 2 3" xfId="2612"/>
-    <cellStyle name="Euro 13 3 3" xfId="2611"/>
-    <cellStyle name="Euro 13 4" xfId="124"/>
-    <cellStyle name="Euro 13 4 2" xfId="125"/>
-    <cellStyle name="Euro 13 4 2 2" xfId="2614"/>
-    <cellStyle name="Euro 13 4 3" xfId="2613"/>
-    <cellStyle name="Euro 13 5" xfId="126"/>
-    <cellStyle name="Euro 13 6" xfId="2609"/>
-    <cellStyle name="Euro 14" xfId="127"/>
-    <cellStyle name="Euro 14 2" xfId="128"/>
-    <cellStyle name="Euro 14 2 2" xfId="2616"/>
-    <cellStyle name="Euro 14 3" xfId="129"/>
-    <cellStyle name="Euro 14 3 2" xfId="130"/>
-    <cellStyle name="Euro 14 3 2 2" xfId="131"/>
-    <cellStyle name="Euro 14 3 2 3" xfId="2618"/>
-    <cellStyle name="Euro 14 3 3" xfId="2617"/>
-    <cellStyle name="Euro 14 4" xfId="132"/>
-    <cellStyle name="Euro 14 4 2" xfId="133"/>
-    <cellStyle name="Euro 14 4 2 2" xfId="2620"/>
-    <cellStyle name="Euro 14 4 3" xfId="2619"/>
-    <cellStyle name="Euro 14 5" xfId="134"/>
-    <cellStyle name="Euro 14 6" xfId="2615"/>
-    <cellStyle name="Euro 15" xfId="135"/>
-    <cellStyle name="Euro 15 2" xfId="136"/>
-    <cellStyle name="Euro 15 2 2" xfId="2622"/>
-    <cellStyle name="Euro 15 3" xfId="137"/>
-    <cellStyle name="Euro 15 3 2" xfId="138"/>
-    <cellStyle name="Euro 15 3 2 2" xfId="139"/>
-    <cellStyle name="Euro 15 3 2 3" xfId="2624"/>
-    <cellStyle name="Euro 15 3 3" xfId="2623"/>
-    <cellStyle name="Euro 15 4" xfId="140"/>
-    <cellStyle name="Euro 15 4 2" xfId="141"/>
-    <cellStyle name="Euro 15 4 2 2" xfId="2626"/>
-    <cellStyle name="Euro 15 4 3" xfId="2625"/>
-    <cellStyle name="Euro 15 5" xfId="142"/>
-    <cellStyle name="Euro 15 6" xfId="2621"/>
-    <cellStyle name="Euro 16" xfId="143"/>
-    <cellStyle name="Euro 16 2" xfId="144"/>
-    <cellStyle name="Euro 16 2 2" xfId="2628"/>
-    <cellStyle name="Euro 16 3" xfId="145"/>
-    <cellStyle name="Euro 16 3 2" xfId="146"/>
-    <cellStyle name="Euro 16 3 2 2" xfId="147"/>
-    <cellStyle name="Euro 16 3 2 3" xfId="2630"/>
-    <cellStyle name="Euro 16 3 3" xfId="2629"/>
-    <cellStyle name="Euro 16 4" xfId="148"/>
-    <cellStyle name="Euro 16 4 2" xfId="149"/>
-    <cellStyle name="Euro 16 4 2 2" xfId="2632"/>
-    <cellStyle name="Euro 16 4 3" xfId="2631"/>
-    <cellStyle name="Euro 16 5" xfId="150"/>
-    <cellStyle name="Euro 16 6" xfId="2627"/>
-    <cellStyle name="Euro 17" xfId="151"/>
-    <cellStyle name="Euro 17 2" xfId="152"/>
-    <cellStyle name="Euro 17 2 2" xfId="2634"/>
-    <cellStyle name="Euro 17 3" xfId="153"/>
-    <cellStyle name="Euro 17 3 2" xfId="154"/>
-    <cellStyle name="Euro 17 3 2 2" xfId="155"/>
-    <cellStyle name="Euro 17 3 2 3" xfId="2636"/>
-    <cellStyle name="Euro 17 3 3" xfId="2635"/>
-    <cellStyle name="Euro 17 4" xfId="156"/>
-    <cellStyle name="Euro 17 4 2" xfId="157"/>
-    <cellStyle name="Euro 17 4 2 2" xfId="2638"/>
-    <cellStyle name="Euro 17 4 3" xfId="2637"/>
-    <cellStyle name="Euro 17 5" xfId="158"/>
-    <cellStyle name="Euro 17 6" xfId="2633"/>
-    <cellStyle name="Euro 18" xfId="159"/>
-    <cellStyle name="Euro 18 2" xfId="160"/>
-    <cellStyle name="Euro 18 2 2" xfId="2640"/>
-    <cellStyle name="Euro 18 3" xfId="161"/>
-    <cellStyle name="Euro 18 3 2" xfId="162"/>
-    <cellStyle name="Euro 18 3 2 2" xfId="163"/>
-    <cellStyle name="Euro 18 3 2 3" xfId="2642"/>
-    <cellStyle name="Euro 18 3 3" xfId="2641"/>
-    <cellStyle name="Euro 18 4" xfId="164"/>
-    <cellStyle name="Euro 18 4 2" xfId="165"/>
-    <cellStyle name="Euro 18 4 2 2" xfId="2644"/>
-    <cellStyle name="Euro 18 4 3" xfId="2643"/>
-    <cellStyle name="Euro 18 5" xfId="166"/>
-    <cellStyle name="Euro 18 6" xfId="2639"/>
-    <cellStyle name="Euro 19" xfId="167"/>
-    <cellStyle name="Euro 19 2" xfId="168"/>
-    <cellStyle name="Euro 19 2 2" xfId="2646"/>
-    <cellStyle name="Euro 19 3" xfId="169"/>
-    <cellStyle name="Euro 19 3 2" xfId="170"/>
-    <cellStyle name="Euro 19 3 2 2" xfId="171"/>
-    <cellStyle name="Euro 19 3 2 3" xfId="2648"/>
-    <cellStyle name="Euro 19 3 3" xfId="2647"/>
-    <cellStyle name="Euro 19 4" xfId="172"/>
-    <cellStyle name="Euro 19 4 2" xfId="173"/>
-    <cellStyle name="Euro 19 4 2 2" xfId="2650"/>
-    <cellStyle name="Euro 19 4 3" xfId="2649"/>
-    <cellStyle name="Euro 19 5" xfId="174"/>
-    <cellStyle name="Euro 19 6" xfId="2645"/>
-    <cellStyle name="Euro 2" xfId="175"/>
-    <cellStyle name="Euro 2 2" xfId="176"/>
-    <cellStyle name="Euro 2 2 2" xfId="2652"/>
-    <cellStyle name="Euro 2 3" xfId="177"/>
-    <cellStyle name="Euro 2 3 2" xfId="178"/>
-    <cellStyle name="Euro 2 3 2 2" xfId="179"/>
-    <cellStyle name="Euro 2 3 2 3" xfId="2654"/>
-    <cellStyle name="Euro 2 3 3" xfId="2653"/>
-    <cellStyle name="Euro 2 4" xfId="180"/>
-    <cellStyle name="Euro 2 4 2" xfId="181"/>
-    <cellStyle name="Euro 2 4 2 2" xfId="2656"/>
-    <cellStyle name="Euro 2 4 3" xfId="2655"/>
-    <cellStyle name="Euro 2 5" xfId="182"/>
-    <cellStyle name="Euro 2 6" xfId="2651"/>
-    <cellStyle name="Euro 20" xfId="183"/>
-    <cellStyle name="Euro 20 2" xfId="184"/>
-    <cellStyle name="Euro 20 2 2" xfId="2658"/>
-    <cellStyle name="Euro 20 3" xfId="185"/>
-    <cellStyle name="Euro 20 3 2" xfId="186"/>
-    <cellStyle name="Euro 20 3 2 2" xfId="187"/>
-    <cellStyle name="Euro 20 3 2 3" xfId="2660"/>
-    <cellStyle name="Euro 20 3 3" xfId="2659"/>
-    <cellStyle name="Euro 20 4" xfId="188"/>
-    <cellStyle name="Euro 20 4 2" xfId="189"/>
-    <cellStyle name="Euro 20 4 2 2" xfId="2662"/>
-    <cellStyle name="Euro 20 4 3" xfId="2661"/>
-    <cellStyle name="Euro 20 5" xfId="190"/>
-    <cellStyle name="Euro 20 6" xfId="2657"/>
-    <cellStyle name="Euro 21" xfId="191"/>
-    <cellStyle name="Euro 21 2" xfId="192"/>
-    <cellStyle name="Euro 21 2 2" xfId="2664"/>
-    <cellStyle name="Euro 21 3" xfId="193"/>
-    <cellStyle name="Euro 21 3 2" xfId="194"/>
-    <cellStyle name="Euro 21 3 2 2" xfId="195"/>
-    <cellStyle name="Euro 21 3 2 3" xfId="2666"/>
-    <cellStyle name="Euro 21 3 3" xfId="2665"/>
-    <cellStyle name="Euro 21 4" xfId="196"/>
-    <cellStyle name="Euro 21 4 2" xfId="197"/>
-    <cellStyle name="Euro 21 4 2 2" xfId="2668"/>
-    <cellStyle name="Euro 21 4 3" xfId="2667"/>
-    <cellStyle name="Euro 21 5" xfId="198"/>
-    <cellStyle name="Euro 21 6" xfId="2663"/>
-    <cellStyle name="Euro 22" xfId="199"/>
-    <cellStyle name="Euro 22 2" xfId="200"/>
-    <cellStyle name="Euro 22 2 2" xfId="2670"/>
-    <cellStyle name="Euro 22 3" xfId="201"/>
-    <cellStyle name="Euro 22 3 2" xfId="202"/>
-    <cellStyle name="Euro 22 3 2 2" xfId="203"/>
-    <cellStyle name="Euro 22 3 2 3" xfId="2672"/>
-    <cellStyle name="Euro 22 3 3" xfId="2671"/>
-    <cellStyle name="Euro 22 4" xfId="204"/>
-    <cellStyle name="Euro 22 4 2" xfId="205"/>
-    <cellStyle name="Euro 22 4 2 2" xfId="2674"/>
-    <cellStyle name="Euro 22 4 3" xfId="2673"/>
-    <cellStyle name="Euro 22 5" xfId="206"/>
-    <cellStyle name="Euro 22 6" xfId="2669"/>
-    <cellStyle name="Euro 23" xfId="207"/>
-    <cellStyle name="Euro 23 2" xfId="208"/>
-    <cellStyle name="Euro 23 2 2" xfId="2676"/>
-    <cellStyle name="Euro 23 3" xfId="209"/>
-    <cellStyle name="Euro 23 3 2" xfId="210"/>
-    <cellStyle name="Euro 23 3 2 2" xfId="211"/>
-    <cellStyle name="Euro 23 3 2 3" xfId="2678"/>
-    <cellStyle name="Euro 23 3 3" xfId="2677"/>
-    <cellStyle name="Euro 23 4" xfId="212"/>
-    <cellStyle name="Euro 23 4 2" xfId="213"/>
-    <cellStyle name="Euro 23 4 2 2" xfId="2680"/>
-    <cellStyle name="Euro 23 4 3" xfId="2679"/>
-    <cellStyle name="Euro 23 5" xfId="214"/>
-    <cellStyle name="Euro 23 6" xfId="2675"/>
-    <cellStyle name="Euro 24" xfId="215"/>
-    <cellStyle name="Euro 24 2" xfId="216"/>
-    <cellStyle name="Euro 24 2 2" xfId="2682"/>
-    <cellStyle name="Euro 24 3" xfId="217"/>
-    <cellStyle name="Euro 24 3 2" xfId="218"/>
-    <cellStyle name="Euro 24 3 2 2" xfId="219"/>
-    <cellStyle name="Euro 24 3 2 3" xfId="2684"/>
-    <cellStyle name="Euro 24 3 3" xfId="2683"/>
-    <cellStyle name="Euro 24 4" xfId="220"/>
-    <cellStyle name="Euro 24 4 2" xfId="221"/>
-    <cellStyle name="Euro 24 4 2 2" xfId="2686"/>
-    <cellStyle name="Euro 24 4 3" xfId="2685"/>
-    <cellStyle name="Euro 24 5" xfId="222"/>
-    <cellStyle name="Euro 24 6" xfId="2681"/>
-    <cellStyle name="Euro 25" xfId="223"/>
-    <cellStyle name="Euro 25 2" xfId="224"/>
-    <cellStyle name="Euro 25 2 2" xfId="2688"/>
-    <cellStyle name="Euro 25 3" xfId="225"/>
-    <cellStyle name="Euro 25 3 2" xfId="226"/>
-    <cellStyle name="Euro 25 3 2 2" xfId="227"/>
-    <cellStyle name="Euro 25 3 2 3" xfId="2690"/>
-    <cellStyle name="Euro 25 3 3" xfId="2689"/>
-    <cellStyle name="Euro 25 4" xfId="228"/>
-    <cellStyle name="Euro 25 4 2" xfId="229"/>
-    <cellStyle name="Euro 25 4 2 2" xfId="2692"/>
-    <cellStyle name="Euro 25 4 3" xfId="2691"/>
-    <cellStyle name="Euro 25 5" xfId="230"/>
-    <cellStyle name="Euro 25 6" xfId="2687"/>
-    <cellStyle name="Euro 26" xfId="231"/>
-    <cellStyle name="Euro 26 2" xfId="232"/>
-    <cellStyle name="Euro 26 2 2" xfId="2694"/>
-    <cellStyle name="Euro 26 3" xfId="233"/>
-    <cellStyle name="Euro 26 3 2" xfId="234"/>
-    <cellStyle name="Euro 26 3 2 2" xfId="235"/>
-    <cellStyle name="Euro 26 3 2 3" xfId="2696"/>
-    <cellStyle name="Euro 26 3 3" xfId="2695"/>
-    <cellStyle name="Euro 26 4" xfId="236"/>
-    <cellStyle name="Euro 26 4 2" xfId="237"/>
-    <cellStyle name="Euro 26 4 2 2" xfId="2698"/>
-    <cellStyle name="Euro 26 4 3" xfId="2697"/>
-    <cellStyle name="Euro 26 5" xfId="238"/>
-    <cellStyle name="Euro 26 6" xfId="2693"/>
-    <cellStyle name="Euro 27" xfId="239"/>
-    <cellStyle name="Euro 27 2" xfId="240"/>
-    <cellStyle name="Euro 27 2 2" xfId="2700"/>
-    <cellStyle name="Euro 27 3" xfId="241"/>
-    <cellStyle name="Euro 27 3 2" xfId="242"/>
-    <cellStyle name="Euro 27 3 2 2" xfId="243"/>
-    <cellStyle name="Euro 27 3 2 3" xfId="2702"/>
-    <cellStyle name="Euro 27 3 3" xfId="2701"/>
-    <cellStyle name="Euro 27 4" xfId="244"/>
-    <cellStyle name="Euro 27 4 2" xfId="245"/>
-    <cellStyle name="Euro 27 4 2 2" xfId="2704"/>
-    <cellStyle name="Euro 27 4 3" xfId="2703"/>
-    <cellStyle name="Euro 27 5" xfId="246"/>
-    <cellStyle name="Euro 27 6" xfId="2699"/>
-    <cellStyle name="Euro 28" xfId="247"/>
-    <cellStyle name="Euro 28 2" xfId="248"/>
-    <cellStyle name="Euro 28 2 2" xfId="2706"/>
-    <cellStyle name="Euro 28 3" xfId="249"/>
-    <cellStyle name="Euro 28 3 2" xfId="250"/>
-    <cellStyle name="Euro 28 3 2 2" xfId="251"/>
-    <cellStyle name="Euro 28 3 2 3" xfId="2708"/>
-    <cellStyle name="Euro 28 3 3" xfId="2707"/>
-    <cellStyle name="Euro 28 4" xfId="252"/>
-    <cellStyle name="Euro 28 4 2" xfId="253"/>
-    <cellStyle name="Euro 28 4 2 2" xfId="2710"/>
-    <cellStyle name="Euro 28 4 3" xfId="2709"/>
-    <cellStyle name="Euro 28 5" xfId="254"/>
-    <cellStyle name="Euro 28 6" xfId="2705"/>
-    <cellStyle name="Euro 29" xfId="255"/>
-    <cellStyle name="Euro 29 2" xfId="256"/>
-    <cellStyle name="Euro 29 2 2" xfId="2712"/>
-    <cellStyle name="Euro 29 3" xfId="257"/>
-    <cellStyle name="Euro 29 3 2" xfId="258"/>
-    <cellStyle name="Euro 29 3 2 2" xfId="259"/>
-    <cellStyle name="Euro 29 3 2 3" xfId="2714"/>
-    <cellStyle name="Euro 29 3 3" xfId="2713"/>
-    <cellStyle name="Euro 29 4" xfId="260"/>
-    <cellStyle name="Euro 29 4 2" xfId="261"/>
-    <cellStyle name="Euro 29 4 2 2" xfId="2716"/>
-    <cellStyle name="Euro 29 4 3" xfId="2715"/>
-    <cellStyle name="Euro 29 5" xfId="262"/>
-    <cellStyle name="Euro 29 6" xfId="2711"/>
-    <cellStyle name="Euro 3" xfId="263"/>
-    <cellStyle name="Euro 3 2" xfId="264"/>
-    <cellStyle name="Euro 3 2 2" xfId="2718"/>
-    <cellStyle name="Euro 3 3" xfId="265"/>
-    <cellStyle name="Euro 3 3 2" xfId="266"/>
-    <cellStyle name="Euro 3 3 2 2" xfId="267"/>
-    <cellStyle name="Euro 3 3 2 3" xfId="2720"/>
-    <cellStyle name="Euro 3 3 3" xfId="2719"/>
-    <cellStyle name="Euro 3 4" xfId="268"/>
-    <cellStyle name="Euro 3 4 2" xfId="269"/>
-    <cellStyle name="Euro 3 4 2 2" xfId="2722"/>
-    <cellStyle name="Euro 3 4 3" xfId="2721"/>
-    <cellStyle name="Euro 3 5" xfId="270"/>
-    <cellStyle name="Euro 3 6" xfId="2717"/>
-    <cellStyle name="Euro 30" xfId="271"/>
-    <cellStyle name="Euro 30 2" xfId="272"/>
-    <cellStyle name="Euro 30 2 2" xfId="2724"/>
-    <cellStyle name="Euro 30 3" xfId="273"/>
-    <cellStyle name="Euro 30 3 2" xfId="274"/>
-    <cellStyle name="Euro 30 3 2 2" xfId="275"/>
-    <cellStyle name="Euro 30 3 2 3" xfId="2726"/>
-    <cellStyle name="Euro 30 3 3" xfId="2725"/>
-    <cellStyle name="Euro 30 4" xfId="276"/>
-    <cellStyle name="Euro 30 4 2" xfId="277"/>
-    <cellStyle name="Euro 30 4 2 2" xfId="2728"/>
-    <cellStyle name="Euro 30 4 3" xfId="2727"/>
-    <cellStyle name="Euro 30 5" xfId="278"/>
-    <cellStyle name="Euro 30 6" xfId="2723"/>
-    <cellStyle name="Euro 31" xfId="279"/>
-    <cellStyle name="Euro 31 2" xfId="280"/>
-    <cellStyle name="Euro 31 2 2" xfId="2730"/>
-    <cellStyle name="Euro 31 3" xfId="281"/>
-    <cellStyle name="Euro 31 3 2" xfId="282"/>
-    <cellStyle name="Euro 31 3 2 2" xfId="283"/>
-    <cellStyle name="Euro 31 3 2 3" xfId="2732"/>
-    <cellStyle name="Euro 31 3 3" xfId="2731"/>
-    <cellStyle name="Euro 31 4" xfId="284"/>
-    <cellStyle name="Euro 31 4 2" xfId="285"/>
-    <cellStyle name="Euro 31 4 2 2" xfId="2734"/>
-    <cellStyle name="Euro 31 4 3" xfId="2733"/>
-    <cellStyle name="Euro 31 5" xfId="286"/>
-    <cellStyle name="Euro 31 6" xfId="2729"/>
-    <cellStyle name="Euro 32" xfId="287"/>
-    <cellStyle name="Euro 32 2" xfId="288"/>
-    <cellStyle name="Euro 32 2 2" xfId="2736"/>
-    <cellStyle name="Euro 32 3" xfId="289"/>
-    <cellStyle name="Euro 32 3 2" xfId="290"/>
-    <cellStyle name="Euro 32 3 2 2" xfId="291"/>
-    <cellStyle name="Euro 32 3 2 3" xfId="2738"/>
-    <cellStyle name="Euro 32 3 3" xfId="2737"/>
-    <cellStyle name="Euro 32 4" xfId="292"/>
-    <cellStyle name="Euro 32 4 2" xfId="293"/>
-    <cellStyle name="Euro 32 4 2 2" xfId="2740"/>
-    <cellStyle name="Euro 32 4 3" xfId="2739"/>
-    <cellStyle name="Euro 32 5" xfId="294"/>
-    <cellStyle name="Euro 32 6" xfId="2735"/>
-    <cellStyle name="Euro 33" xfId="295"/>
-    <cellStyle name="Euro 33 2" xfId="296"/>
-    <cellStyle name="Euro 33 2 2" xfId="2742"/>
-    <cellStyle name="Euro 33 3" xfId="297"/>
-    <cellStyle name="Euro 33 3 2" xfId="298"/>
-    <cellStyle name="Euro 33 3 2 2" xfId="299"/>
-    <cellStyle name="Euro 33 3 2 3" xfId="2744"/>
-    <cellStyle name="Euro 33 3 3" xfId="2743"/>
-    <cellStyle name="Euro 33 4" xfId="300"/>
-    <cellStyle name="Euro 33 4 2" xfId="301"/>
-    <cellStyle name="Euro 33 4 2 2" xfId="2746"/>
-    <cellStyle name="Euro 33 4 3" xfId="2745"/>
-    <cellStyle name="Euro 33 5" xfId="302"/>
-    <cellStyle name="Euro 33 6" xfId="2741"/>
-    <cellStyle name="Euro 34" xfId="303"/>
-    <cellStyle name="Euro 34 2" xfId="304"/>
-    <cellStyle name="Euro 34 2 2" xfId="2748"/>
-    <cellStyle name="Euro 34 3" xfId="305"/>
-    <cellStyle name="Euro 34 3 2" xfId="306"/>
-    <cellStyle name="Euro 34 3 2 2" xfId="307"/>
-    <cellStyle name="Euro 34 3 2 3" xfId="2750"/>
-    <cellStyle name="Euro 34 3 3" xfId="2749"/>
-    <cellStyle name="Euro 34 4" xfId="308"/>
-    <cellStyle name="Euro 34 4 2" xfId="309"/>
-    <cellStyle name="Euro 34 4 2 2" xfId="2752"/>
-    <cellStyle name="Euro 34 4 3" xfId="2751"/>
-    <cellStyle name="Euro 34 5" xfId="310"/>
-    <cellStyle name="Euro 34 6" xfId="2747"/>
-    <cellStyle name="Euro 35" xfId="311"/>
-    <cellStyle name="Euro 35 2" xfId="312"/>
-    <cellStyle name="Euro 35 2 2" xfId="2754"/>
-    <cellStyle name="Euro 35 3" xfId="313"/>
-    <cellStyle name="Euro 35 3 2" xfId="314"/>
-    <cellStyle name="Euro 35 3 2 2" xfId="315"/>
-    <cellStyle name="Euro 35 3 2 3" xfId="2756"/>
-    <cellStyle name="Euro 35 3 3" xfId="2755"/>
-    <cellStyle name="Euro 35 4" xfId="316"/>
-    <cellStyle name="Euro 35 4 2" xfId="317"/>
-    <cellStyle name="Euro 35 4 2 2" xfId="2758"/>
-    <cellStyle name="Euro 35 4 3" xfId="2757"/>
-    <cellStyle name="Euro 35 5" xfId="318"/>
-    <cellStyle name="Euro 35 6" xfId="2753"/>
-    <cellStyle name="Euro 36" xfId="319"/>
-    <cellStyle name="Euro 36 2" xfId="320"/>
-    <cellStyle name="Euro 36 2 2" xfId="2760"/>
-    <cellStyle name="Euro 36 3" xfId="321"/>
-    <cellStyle name="Euro 36 3 2" xfId="322"/>
-    <cellStyle name="Euro 36 3 2 2" xfId="323"/>
-    <cellStyle name="Euro 36 3 2 3" xfId="2762"/>
-    <cellStyle name="Euro 36 3 3" xfId="2761"/>
-    <cellStyle name="Euro 36 4" xfId="324"/>
-    <cellStyle name="Euro 36 4 2" xfId="325"/>
-    <cellStyle name="Euro 36 4 2 2" xfId="2764"/>
-    <cellStyle name="Euro 36 4 3" xfId="2763"/>
-    <cellStyle name="Euro 36 5" xfId="326"/>
-    <cellStyle name="Euro 36 6" xfId="2759"/>
-    <cellStyle name="Euro 37" xfId="327"/>
-    <cellStyle name="Euro 37 2" xfId="328"/>
-    <cellStyle name="Euro 37 2 2" xfId="2766"/>
-    <cellStyle name="Euro 37 3" xfId="329"/>
-    <cellStyle name="Euro 37 3 2" xfId="330"/>
-    <cellStyle name="Euro 37 3 2 2" xfId="331"/>
-    <cellStyle name="Euro 37 3 2 3" xfId="2768"/>
-    <cellStyle name="Euro 37 3 3" xfId="2767"/>
-    <cellStyle name="Euro 37 4" xfId="332"/>
-    <cellStyle name="Euro 37 4 2" xfId="333"/>
-    <cellStyle name="Euro 37 4 2 2" xfId="2770"/>
-    <cellStyle name="Euro 37 4 3" xfId="2769"/>
-    <cellStyle name="Euro 37 5" xfId="334"/>
-    <cellStyle name="Euro 37 6" xfId="2765"/>
-    <cellStyle name="Euro 38" xfId="335"/>
-    <cellStyle name="Euro 38 2" xfId="336"/>
-    <cellStyle name="Euro 38 2 2" xfId="2772"/>
-    <cellStyle name="Euro 38 3" xfId="337"/>
-    <cellStyle name="Euro 38 3 2" xfId="338"/>
-    <cellStyle name="Euro 38 3 2 2" xfId="339"/>
-    <cellStyle name="Euro 38 3 2 3" xfId="2774"/>
-    <cellStyle name="Euro 38 3 3" xfId="2773"/>
-    <cellStyle name="Euro 38 4" xfId="340"/>
-    <cellStyle name="Euro 38 4 2" xfId="341"/>
-    <cellStyle name="Euro 38 4 2 2" xfId="2776"/>
-    <cellStyle name="Euro 38 4 3" xfId="2775"/>
-    <cellStyle name="Euro 38 5" xfId="342"/>
-    <cellStyle name="Euro 38 6" xfId="2771"/>
-    <cellStyle name="Euro 39" xfId="343"/>
-    <cellStyle name="Euro 39 2" xfId="344"/>
-    <cellStyle name="Euro 39 2 2" xfId="2778"/>
-    <cellStyle name="Euro 39 3" xfId="345"/>
-    <cellStyle name="Euro 39 3 2" xfId="346"/>
-    <cellStyle name="Euro 39 3 2 2" xfId="347"/>
-    <cellStyle name="Euro 39 3 2 3" xfId="2780"/>
-    <cellStyle name="Euro 39 3 3" xfId="2779"/>
-    <cellStyle name="Euro 39 4" xfId="348"/>
-    <cellStyle name="Euro 39 4 2" xfId="349"/>
-    <cellStyle name="Euro 39 4 2 2" xfId="2782"/>
-    <cellStyle name="Euro 39 4 3" xfId="2781"/>
-    <cellStyle name="Euro 39 5" xfId="350"/>
-    <cellStyle name="Euro 39 6" xfId="2777"/>
-    <cellStyle name="Euro 4" xfId="351"/>
-    <cellStyle name="Euro 4 2" xfId="352"/>
-    <cellStyle name="Euro 4 2 2" xfId="2784"/>
-    <cellStyle name="Euro 4 3" xfId="353"/>
-    <cellStyle name="Euro 4 3 2" xfId="354"/>
-    <cellStyle name="Euro 4 3 2 2" xfId="355"/>
-    <cellStyle name="Euro 4 3 2 3" xfId="2786"/>
-    <cellStyle name="Euro 4 3 3" xfId="2785"/>
-    <cellStyle name="Euro 4 4" xfId="356"/>
-    <cellStyle name="Euro 4 4 2" xfId="357"/>
-    <cellStyle name="Euro 4 4 2 2" xfId="2788"/>
-    <cellStyle name="Euro 4 4 3" xfId="2787"/>
-    <cellStyle name="Euro 4 5" xfId="358"/>
-    <cellStyle name="Euro 4 6" xfId="2783"/>
-    <cellStyle name="Euro 40" xfId="359"/>
-    <cellStyle name="Euro 40 2" xfId="360"/>
-    <cellStyle name="Euro 40 2 2" xfId="2790"/>
-    <cellStyle name="Euro 40 3" xfId="361"/>
-    <cellStyle name="Euro 40 3 2" xfId="362"/>
-    <cellStyle name="Euro 40 3 2 2" xfId="363"/>
-    <cellStyle name="Euro 40 3 2 3" xfId="2792"/>
-    <cellStyle name="Euro 40 3 3" xfId="2791"/>
-    <cellStyle name="Euro 40 4" xfId="364"/>
-    <cellStyle name="Euro 40 4 2" xfId="365"/>
-    <cellStyle name="Euro 40 4 2 2" xfId="2794"/>
-    <cellStyle name="Euro 40 4 3" xfId="2793"/>
-    <cellStyle name="Euro 40 5" xfId="366"/>
-    <cellStyle name="Euro 40 6" xfId="2789"/>
-    <cellStyle name="Euro 41" xfId="367"/>
-    <cellStyle name="Euro 41 2" xfId="368"/>
-    <cellStyle name="Euro 41 2 2" xfId="2796"/>
-    <cellStyle name="Euro 41 3" xfId="369"/>
-    <cellStyle name="Euro 41 3 2" xfId="370"/>
-    <cellStyle name="Euro 41 3 2 2" xfId="371"/>
-    <cellStyle name="Euro 41 3 2 3" xfId="2798"/>
-    <cellStyle name="Euro 41 3 3" xfId="2797"/>
-    <cellStyle name="Euro 41 4" xfId="372"/>
-    <cellStyle name="Euro 41 4 2" xfId="373"/>
-    <cellStyle name="Euro 41 4 2 2" xfId="2800"/>
-    <cellStyle name="Euro 41 4 3" xfId="2799"/>
-    <cellStyle name="Euro 41 5" xfId="374"/>
-    <cellStyle name="Euro 41 6" xfId="2795"/>
-    <cellStyle name="Euro 42" xfId="375"/>
-    <cellStyle name="Euro 42 2" xfId="376"/>
-    <cellStyle name="Euro 42 2 2" xfId="2802"/>
-    <cellStyle name="Euro 42 3" xfId="377"/>
-    <cellStyle name="Euro 42 3 2" xfId="378"/>
-    <cellStyle name="Euro 42 3 2 2" xfId="379"/>
-    <cellStyle name="Euro 42 3 2 3" xfId="2804"/>
-    <cellStyle name="Euro 42 3 3" xfId="2803"/>
-    <cellStyle name="Euro 42 4" xfId="380"/>
-    <cellStyle name="Euro 42 4 2" xfId="381"/>
-    <cellStyle name="Euro 42 4 2 2" xfId="2806"/>
-    <cellStyle name="Euro 42 4 3" xfId="2805"/>
-    <cellStyle name="Euro 42 5" xfId="382"/>
-    <cellStyle name="Euro 42 6" xfId="2801"/>
-    <cellStyle name="Euro 43" xfId="383"/>
-    <cellStyle name="Euro 43 2" xfId="384"/>
-    <cellStyle name="Euro 43 2 2" xfId="2808"/>
-    <cellStyle name="Euro 43 3" xfId="385"/>
-    <cellStyle name="Euro 43 3 2" xfId="386"/>
-    <cellStyle name="Euro 43 3 2 2" xfId="387"/>
-    <cellStyle name="Euro 43 3 2 3" xfId="2810"/>
-    <cellStyle name="Euro 43 3 3" xfId="2809"/>
-    <cellStyle name="Euro 43 4" xfId="388"/>
-    <cellStyle name="Euro 43 4 2" xfId="389"/>
-    <cellStyle name="Euro 43 4 2 2" xfId="2812"/>
-    <cellStyle name="Euro 43 4 3" xfId="2811"/>
-    <cellStyle name="Euro 43 5" xfId="390"/>
-    <cellStyle name="Euro 43 6" xfId="2807"/>
-    <cellStyle name="Euro 44" xfId="391"/>
-    <cellStyle name="Euro 44 2" xfId="392"/>
-    <cellStyle name="Euro 44 2 2" xfId="2814"/>
-    <cellStyle name="Euro 44 3" xfId="393"/>
-    <cellStyle name="Euro 44 3 2" xfId="394"/>
-    <cellStyle name="Euro 44 3 2 2" xfId="395"/>
-    <cellStyle name="Euro 44 3 2 3" xfId="2816"/>
-    <cellStyle name="Euro 44 3 3" xfId="2815"/>
-    <cellStyle name="Euro 44 4" xfId="396"/>
-    <cellStyle name="Euro 44 4 2" xfId="397"/>
-    <cellStyle name="Euro 44 4 2 2" xfId="2818"/>
-    <cellStyle name="Euro 44 4 3" xfId="2817"/>
-    <cellStyle name="Euro 44 5" xfId="398"/>
-    <cellStyle name="Euro 44 6" xfId="2813"/>
-    <cellStyle name="Euro 45" xfId="399"/>
-    <cellStyle name="Euro 45 2" xfId="400"/>
-    <cellStyle name="Euro 45 2 2" xfId="2820"/>
-    <cellStyle name="Euro 45 3" xfId="2819"/>
-    <cellStyle name="Euro 46" xfId="401"/>
-    <cellStyle name="Euro 46 2" xfId="402"/>
-    <cellStyle name="Euro 46 2 2" xfId="2822"/>
-    <cellStyle name="Euro 46 3" xfId="2821"/>
-    <cellStyle name="Euro 47" xfId="403"/>
-    <cellStyle name="Euro 47 2" xfId="404"/>
-    <cellStyle name="Euro 47 2 2" xfId="405"/>
-    <cellStyle name="Euro 47 2 3" xfId="2824"/>
-    <cellStyle name="Euro 47 3" xfId="2823"/>
-    <cellStyle name="Euro 48" xfId="406"/>
-    <cellStyle name="Euro 48 2" xfId="2825"/>
-    <cellStyle name="Euro 49" xfId="407"/>
-    <cellStyle name="Euro 49 2" xfId="408"/>
-    <cellStyle name="Euro 49 2 2" xfId="2827"/>
-    <cellStyle name="Euro 49 3" xfId="2826"/>
-    <cellStyle name="Euro 5" xfId="409"/>
-    <cellStyle name="Euro 5 2" xfId="410"/>
-    <cellStyle name="Euro 5 2 2" xfId="2829"/>
-    <cellStyle name="Euro 5 3" xfId="411"/>
-    <cellStyle name="Euro 5 3 2" xfId="412"/>
-    <cellStyle name="Euro 5 3 2 2" xfId="413"/>
-    <cellStyle name="Euro 5 3 2 3" xfId="2831"/>
-    <cellStyle name="Euro 5 3 3" xfId="2830"/>
-    <cellStyle name="Euro 5 4" xfId="414"/>
-    <cellStyle name="Euro 5 4 2" xfId="415"/>
-    <cellStyle name="Euro 5 4 2 2" xfId="2833"/>
-    <cellStyle name="Euro 5 4 3" xfId="2832"/>
-    <cellStyle name="Euro 5 5" xfId="416"/>
-    <cellStyle name="Euro 5 6" xfId="2828"/>
-    <cellStyle name="Euro 50" xfId="417"/>
-    <cellStyle name="Euro 51" xfId="2590"/>
-    <cellStyle name="Euro 6" xfId="418"/>
-    <cellStyle name="Euro 6 2" xfId="419"/>
-    <cellStyle name="Euro 6 2 2" xfId="2835"/>
-    <cellStyle name="Euro 6 3" xfId="420"/>
-    <cellStyle name="Euro 6 3 2" xfId="421"/>
-    <cellStyle name="Euro 6 3 2 2" xfId="422"/>
-    <cellStyle name="Euro 6 3 2 3" xfId="2837"/>
-    <cellStyle name="Euro 6 3 3" xfId="2836"/>
-    <cellStyle name="Euro 6 4" xfId="423"/>
-    <cellStyle name="Euro 6 4 2" xfId="424"/>
-    <cellStyle name="Euro 6 4 2 2" xfId="2839"/>
-    <cellStyle name="Euro 6 4 3" xfId="2838"/>
-    <cellStyle name="Euro 6 5" xfId="425"/>
-    <cellStyle name="Euro 6 6" xfId="2834"/>
-    <cellStyle name="Euro 7" xfId="426"/>
-    <cellStyle name="Euro 7 2" xfId="427"/>
-    <cellStyle name="Euro 7 2 2" xfId="2841"/>
-    <cellStyle name="Euro 7 3" xfId="428"/>
-    <cellStyle name="Euro 7 3 2" xfId="429"/>
-    <cellStyle name="Euro 7 3 2 2" xfId="430"/>
-    <cellStyle name="Euro 7 3 2 3" xfId="2843"/>
-    <cellStyle name="Euro 7 3 3" xfId="2842"/>
-    <cellStyle name="Euro 7 4" xfId="431"/>
-    <cellStyle name="Euro 7 4 2" xfId="432"/>
-    <cellStyle name="Euro 7 4 2 2" xfId="2845"/>
-    <cellStyle name="Euro 7 4 3" xfId="2844"/>
-    <cellStyle name="Euro 7 5" xfId="433"/>
-    <cellStyle name="Euro 7 6" xfId="2840"/>
-    <cellStyle name="Euro 8" xfId="434"/>
-    <cellStyle name="Euro 8 2" xfId="435"/>
-    <cellStyle name="Euro 8 2 2" xfId="2847"/>
-    <cellStyle name="Euro 8 3" xfId="436"/>
-    <cellStyle name="Euro 8 3 2" xfId="437"/>
-    <cellStyle name="Euro 8 3 2 2" xfId="438"/>
-    <cellStyle name="Euro 8 3 2 3" xfId="2849"/>
-    <cellStyle name="Euro 8 3 3" xfId="2848"/>
-    <cellStyle name="Euro 8 4" xfId="439"/>
-    <cellStyle name="Euro 8 4 2" xfId="440"/>
-    <cellStyle name="Euro 8 4 2 2" xfId="2851"/>
-    <cellStyle name="Euro 8 4 3" xfId="2850"/>
-    <cellStyle name="Euro 8 5" xfId="441"/>
-    <cellStyle name="Euro 8 6" xfId="2846"/>
-    <cellStyle name="Euro 9" xfId="442"/>
-    <cellStyle name="Euro 9 2" xfId="443"/>
-    <cellStyle name="Euro 9 2 2" xfId="2853"/>
-    <cellStyle name="Euro 9 3" xfId="444"/>
-    <cellStyle name="Euro 9 3 2" xfId="445"/>
-    <cellStyle name="Euro 9 3 2 2" xfId="446"/>
-    <cellStyle name="Euro 9 3 2 3" xfId="2855"/>
-    <cellStyle name="Euro 9 3 3" xfId="2854"/>
-    <cellStyle name="Euro 9 4" xfId="447"/>
-    <cellStyle name="Euro 9 4 2" xfId="448"/>
-    <cellStyle name="Euro 9 4 2 2" xfId="2857"/>
-    <cellStyle name="Euro 9 4 3" xfId="2856"/>
-    <cellStyle name="Euro 9 5" xfId="449"/>
-    <cellStyle name="Euro 9 6" xfId="2852"/>
-    <cellStyle name="Fixed2 - Type2" xfId="450"/>
-    <cellStyle name="Good 2" xfId="451"/>
-    <cellStyle name="Hyperlink 2" xfId="452"/>
-    <cellStyle name="Input 2" xfId="453"/>
-    <cellStyle name="Input 2 2" xfId="454"/>
-    <cellStyle name="Input 2 2 2" xfId="455"/>
-    <cellStyle name="Input 2 3" xfId="456"/>
-    <cellStyle name="Input 3" xfId="457"/>
-    <cellStyle name="Input 3 2" xfId="458"/>
-    <cellStyle name="InputCells" xfId="459"/>
-    <cellStyle name="Komma 2" xfId="460"/>
-    <cellStyle name="Kontroller celle" xfId="461"/>
-    <cellStyle name="Markeringsfarve1" xfId="462"/>
-    <cellStyle name="Markeringsfarve2" xfId="463"/>
-    <cellStyle name="Markeringsfarve3" xfId="464"/>
-    <cellStyle name="Markeringsfarve4" xfId="465"/>
-    <cellStyle name="Markeringsfarve5" xfId="466"/>
-    <cellStyle name="Markeringsfarve6" xfId="467"/>
-    <cellStyle name="Migliaia [0] 10" xfId="468"/>
-    <cellStyle name="Migliaia [0] 10 2" xfId="469"/>
-    <cellStyle name="Migliaia [0] 10 2 2" xfId="470"/>
-    <cellStyle name="Migliaia [0] 10 3" xfId="471"/>
-    <cellStyle name="Migliaia [0] 11" xfId="472"/>
-    <cellStyle name="Migliaia [0] 11 2" xfId="473"/>
-    <cellStyle name="Migliaia [0] 11 2 2" xfId="474"/>
-    <cellStyle name="Migliaia [0] 11 3" xfId="475"/>
-    <cellStyle name="Migliaia [0] 12" xfId="476"/>
-    <cellStyle name="Migliaia [0] 12 2" xfId="477"/>
-    <cellStyle name="Migliaia [0] 12 2 2" xfId="478"/>
-    <cellStyle name="Migliaia [0] 12 3" xfId="479"/>
-    <cellStyle name="Migliaia [0] 13" xfId="480"/>
-    <cellStyle name="Migliaia [0] 13 2" xfId="481"/>
-    <cellStyle name="Migliaia [0] 13 2 2" xfId="482"/>
-    <cellStyle name="Migliaia [0] 13 3" xfId="483"/>
-    <cellStyle name="Migliaia [0] 14" xfId="484"/>
-    <cellStyle name="Migliaia [0] 14 2" xfId="485"/>
-    <cellStyle name="Migliaia [0] 14 2 2" xfId="486"/>
-    <cellStyle name="Migliaia [0] 14 3" xfId="487"/>
-    <cellStyle name="Migliaia [0] 15" xfId="488"/>
-    <cellStyle name="Migliaia [0] 15 2" xfId="489"/>
-    <cellStyle name="Migliaia [0] 15 2 2" xfId="490"/>
-    <cellStyle name="Migliaia [0] 15 3" xfId="491"/>
-    <cellStyle name="Migliaia [0] 16" xfId="492"/>
-    <cellStyle name="Migliaia [0] 16 2" xfId="493"/>
-    <cellStyle name="Migliaia [0] 16 2 2" xfId="494"/>
-    <cellStyle name="Migliaia [0] 16 3" xfId="495"/>
-    <cellStyle name="Migliaia [0] 17" xfId="496"/>
-    <cellStyle name="Migliaia [0] 17 2" xfId="497"/>
-    <cellStyle name="Migliaia [0] 17 2 2" xfId="498"/>
-    <cellStyle name="Migliaia [0] 17 3" xfId="499"/>
-    <cellStyle name="Migliaia [0] 18" xfId="500"/>
-    <cellStyle name="Migliaia [0] 18 2" xfId="501"/>
-    <cellStyle name="Migliaia [0] 18 2 2" xfId="502"/>
-    <cellStyle name="Migliaia [0] 18 3" xfId="503"/>
-    <cellStyle name="Migliaia [0] 19" xfId="504"/>
-    <cellStyle name="Migliaia [0] 19 2" xfId="505"/>
-    <cellStyle name="Migliaia [0] 19 2 2" xfId="506"/>
-    <cellStyle name="Migliaia [0] 19 3" xfId="507"/>
-    <cellStyle name="Migliaia [0] 2" xfId="508"/>
-    <cellStyle name="Migliaia [0] 2 2" xfId="509"/>
-    <cellStyle name="Migliaia [0] 2 2 2" xfId="510"/>
-    <cellStyle name="Migliaia [0] 2 3" xfId="511"/>
-    <cellStyle name="Migliaia [0] 20" xfId="512"/>
-    <cellStyle name="Migliaia [0] 20 2" xfId="513"/>
-    <cellStyle name="Migliaia [0] 20 2 2" xfId="514"/>
-    <cellStyle name="Migliaia [0] 20 3" xfId="515"/>
-    <cellStyle name="Migliaia [0] 21" xfId="516"/>
-    <cellStyle name="Migliaia [0] 21 2" xfId="517"/>
-    <cellStyle name="Migliaia [0] 21 2 2" xfId="518"/>
-    <cellStyle name="Migliaia [0] 21 3" xfId="519"/>
-    <cellStyle name="Migliaia [0] 22" xfId="520"/>
-    <cellStyle name="Migliaia [0] 22 2" xfId="521"/>
-    <cellStyle name="Migliaia [0] 22 2 2" xfId="522"/>
-    <cellStyle name="Migliaia [0] 22 3" xfId="523"/>
-    <cellStyle name="Migliaia [0] 23" xfId="524"/>
-    <cellStyle name="Migliaia [0] 23 2" xfId="525"/>
-    <cellStyle name="Migliaia [0] 23 2 2" xfId="526"/>
-    <cellStyle name="Migliaia [0] 23 3" xfId="527"/>
-    <cellStyle name="Migliaia [0] 24" xfId="528"/>
-    <cellStyle name="Migliaia [0] 24 2" xfId="529"/>
-    <cellStyle name="Migliaia [0] 24 2 2" xfId="530"/>
-    <cellStyle name="Migliaia [0] 24 3" xfId="531"/>
-    <cellStyle name="Migliaia [0] 25" xfId="532"/>
-    <cellStyle name="Migliaia [0] 25 2" xfId="533"/>
-    <cellStyle name="Migliaia [0] 25 2 2" xfId="534"/>
-    <cellStyle name="Migliaia [0] 25 3" xfId="535"/>
-    <cellStyle name="Migliaia [0] 26" xfId="536"/>
-    <cellStyle name="Migliaia [0] 26 2" xfId="537"/>
-    <cellStyle name="Migliaia [0] 26 2 2" xfId="538"/>
-    <cellStyle name="Migliaia [0] 26 3" xfId="539"/>
-    <cellStyle name="Migliaia [0] 27" xfId="540"/>
-    <cellStyle name="Migliaia [0] 27 2" xfId="541"/>
-    <cellStyle name="Migliaia [0] 27 2 2" xfId="542"/>
-    <cellStyle name="Migliaia [0] 27 3" xfId="543"/>
-    <cellStyle name="Migliaia [0] 28" xfId="544"/>
-    <cellStyle name="Migliaia [0] 28 2" xfId="545"/>
-    <cellStyle name="Migliaia [0] 28 2 2" xfId="546"/>
-    <cellStyle name="Migliaia [0] 28 3" xfId="547"/>
-    <cellStyle name="Migliaia [0] 29" xfId="548"/>
-    <cellStyle name="Migliaia [0] 29 2" xfId="549"/>
-    <cellStyle name="Migliaia [0] 29 2 2" xfId="550"/>
-    <cellStyle name="Migliaia [0] 29 3" xfId="551"/>
-    <cellStyle name="Migliaia [0] 3" xfId="552"/>
-    <cellStyle name="Migliaia [0] 3 2" xfId="553"/>
-    <cellStyle name="Migliaia [0] 3 2 2" xfId="554"/>
-    <cellStyle name="Migliaia [0] 3 3" xfId="555"/>
-    <cellStyle name="Migliaia [0] 30" xfId="556"/>
-    <cellStyle name="Migliaia [0] 30 2" xfId="557"/>
-    <cellStyle name="Migliaia [0] 30 2 2" xfId="558"/>
-    <cellStyle name="Migliaia [0] 30 3" xfId="559"/>
-    <cellStyle name="Migliaia [0] 31" xfId="560"/>
-    <cellStyle name="Migliaia [0] 31 2" xfId="561"/>
-    <cellStyle name="Migliaia [0] 31 2 2" xfId="562"/>
-    <cellStyle name="Migliaia [0] 31 3" xfId="563"/>
-    <cellStyle name="Migliaia [0] 32" xfId="564"/>
-    <cellStyle name="Migliaia [0] 32 2" xfId="565"/>
-    <cellStyle name="Migliaia [0] 32 2 2" xfId="566"/>
-    <cellStyle name="Migliaia [0] 32 3" xfId="567"/>
-    <cellStyle name="Migliaia [0] 33" xfId="568"/>
-    <cellStyle name="Migliaia [0] 33 2" xfId="569"/>
-    <cellStyle name="Migliaia [0] 33 2 2" xfId="570"/>
-    <cellStyle name="Migliaia [0] 33 3" xfId="571"/>
-    <cellStyle name="Migliaia [0] 34" xfId="572"/>
-    <cellStyle name="Migliaia [0] 34 2" xfId="573"/>
-    <cellStyle name="Migliaia [0] 34 2 2" xfId="574"/>
-    <cellStyle name="Migliaia [0] 34 3" xfId="575"/>
-    <cellStyle name="Migliaia [0] 35" xfId="576"/>
-    <cellStyle name="Migliaia [0] 35 2" xfId="577"/>
-    <cellStyle name="Migliaia [0] 35 2 2" xfId="578"/>
-    <cellStyle name="Migliaia [0] 35 3" xfId="579"/>
-    <cellStyle name="Migliaia [0] 36" xfId="580"/>
-    <cellStyle name="Migliaia [0] 36 2" xfId="581"/>
-    <cellStyle name="Migliaia [0] 36 2 2" xfId="582"/>
-    <cellStyle name="Migliaia [0] 36 3" xfId="583"/>
-    <cellStyle name="Migliaia [0] 37" xfId="584"/>
-    <cellStyle name="Migliaia [0] 37 2" xfId="585"/>
-    <cellStyle name="Migliaia [0] 37 2 2" xfId="586"/>
-    <cellStyle name="Migliaia [0] 37 3" xfId="587"/>
-    <cellStyle name="Migliaia [0] 38" xfId="588"/>
-    <cellStyle name="Migliaia [0] 38 2" xfId="589"/>
-    <cellStyle name="Migliaia [0] 38 2 2" xfId="590"/>
-    <cellStyle name="Migliaia [0] 38 3" xfId="591"/>
-    <cellStyle name="Migliaia [0] 39" xfId="592"/>
-    <cellStyle name="Migliaia [0] 39 2" xfId="593"/>
-    <cellStyle name="Migliaia [0] 39 2 2" xfId="594"/>
-    <cellStyle name="Migliaia [0] 39 3" xfId="595"/>
-    <cellStyle name="Migliaia [0] 4" xfId="596"/>
-    <cellStyle name="Migliaia [0] 4 2" xfId="597"/>
-    <cellStyle name="Migliaia [0] 4 2 2" xfId="598"/>
-    <cellStyle name="Migliaia [0] 4 3" xfId="599"/>
-    <cellStyle name="Migliaia [0] 40" xfId="600"/>
-    <cellStyle name="Migliaia [0] 40 2" xfId="601"/>
-    <cellStyle name="Migliaia [0] 40 2 2" xfId="602"/>
-    <cellStyle name="Migliaia [0] 40 3" xfId="603"/>
-    <cellStyle name="Migliaia [0] 41" xfId="604"/>
-    <cellStyle name="Migliaia [0] 41 2" xfId="605"/>
-    <cellStyle name="Migliaia [0] 41 2 2" xfId="606"/>
-    <cellStyle name="Migliaia [0] 41 3" xfId="607"/>
-    <cellStyle name="Migliaia [0] 42" xfId="608"/>
-    <cellStyle name="Migliaia [0] 42 2" xfId="609"/>
-    <cellStyle name="Migliaia [0] 42 2 2" xfId="610"/>
-    <cellStyle name="Migliaia [0] 42 3" xfId="611"/>
-    <cellStyle name="Migliaia [0] 43" xfId="612"/>
-    <cellStyle name="Migliaia [0] 43 2" xfId="613"/>
-    <cellStyle name="Migliaia [0] 43 2 2" xfId="614"/>
-    <cellStyle name="Migliaia [0] 43 3" xfId="615"/>
-    <cellStyle name="Migliaia [0] 44" xfId="616"/>
-    <cellStyle name="Migliaia [0] 44 2" xfId="617"/>
-    <cellStyle name="Migliaia [0] 44 2 2" xfId="618"/>
-    <cellStyle name="Migliaia [0] 44 3" xfId="619"/>
-    <cellStyle name="Migliaia [0] 45" xfId="620"/>
-    <cellStyle name="Migliaia [0] 45 2" xfId="621"/>
-    <cellStyle name="Migliaia [0] 45 2 2" xfId="622"/>
-    <cellStyle name="Migliaia [0] 45 3" xfId="623"/>
-    <cellStyle name="Migliaia [0] 46" xfId="624"/>
-    <cellStyle name="Migliaia [0] 46 2" xfId="625"/>
-    <cellStyle name="Migliaia [0] 46 2 2" xfId="626"/>
-    <cellStyle name="Migliaia [0] 46 3" xfId="627"/>
-    <cellStyle name="Migliaia [0] 47" xfId="628"/>
-    <cellStyle name="Migliaia [0] 47 2" xfId="629"/>
-    <cellStyle name="Migliaia [0] 47 2 2" xfId="630"/>
-    <cellStyle name="Migliaia [0] 47 3" xfId="631"/>
-    <cellStyle name="Migliaia [0] 48" xfId="632"/>
-    <cellStyle name="Migliaia [0] 48 2" xfId="633"/>
-    <cellStyle name="Migliaia [0] 48 2 2" xfId="634"/>
-    <cellStyle name="Migliaia [0] 48 3" xfId="635"/>
-    <cellStyle name="Migliaia [0] 49" xfId="636"/>
-    <cellStyle name="Migliaia [0] 49 2" xfId="637"/>
-    <cellStyle name="Migliaia [0] 49 2 2" xfId="638"/>
-    <cellStyle name="Migliaia [0] 49 3" xfId="639"/>
-    <cellStyle name="Migliaia [0] 5" xfId="640"/>
-    <cellStyle name="Migliaia [0] 5 2" xfId="641"/>
-    <cellStyle name="Migliaia [0] 5 2 2" xfId="642"/>
-    <cellStyle name="Migliaia [0] 5 3" xfId="643"/>
-    <cellStyle name="Migliaia [0] 50" xfId="644"/>
-    <cellStyle name="Migliaia [0] 50 2" xfId="645"/>
-    <cellStyle name="Migliaia [0] 50 2 2" xfId="646"/>
-    <cellStyle name="Migliaia [0] 50 3" xfId="647"/>
-    <cellStyle name="Migliaia [0] 51" xfId="648"/>
-    <cellStyle name="Migliaia [0] 51 2" xfId="649"/>
-    <cellStyle name="Migliaia [0] 51 2 2" xfId="650"/>
-    <cellStyle name="Migliaia [0] 51 3" xfId="651"/>
-    <cellStyle name="Migliaia [0] 52" xfId="652"/>
-    <cellStyle name="Migliaia [0] 52 2" xfId="653"/>
-    <cellStyle name="Migliaia [0] 52 2 2" xfId="654"/>
-    <cellStyle name="Migliaia [0] 52 3" xfId="655"/>
-    <cellStyle name="Migliaia [0] 53" xfId="656"/>
-    <cellStyle name="Migliaia [0] 53 2" xfId="657"/>
-    <cellStyle name="Migliaia [0] 53 2 2" xfId="658"/>
-    <cellStyle name="Migliaia [0] 53 3" xfId="659"/>
-    <cellStyle name="Migliaia [0] 54" xfId="660"/>
-    <cellStyle name="Migliaia [0] 54 2" xfId="661"/>
-    <cellStyle name="Migliaia [0] 54 2 2" xfId="662"/>
-    <cellStyle name="Migliaia [0] 54 3" xfId="663"/>
-    <cellStyle name="Migliaia [0] 55" xfId="664"/>
-    <cellStyle name="Migliaia [0] 55 2" xfId="665"/>
-    <cellStyle name="Migliaia [0] 55 2 2" xfId="666"/>
-    <cellStyle name="Migliaia [0] 55 3" xfId="667"/>
-    <cellStyle name="Migliaia [0] 56" xfId="668"/>
-    <cellStyle name="Migliaia [0] 56 2" xfId="669"/>
-    <cellStyle name="Migliaia [0] 56 2 2" xfId="670"/>
-    <cellStyle name="Migliaia [0] 56 3" xfId="671"/>
-    <cellStyle name="Migliaia [0] 57" xfId="672"/>
-    <cellStyle name="Migliaia [0] 57 2" xfId="673"/>
-    <cellStyle name="Migliaia [0] 57 2 2" xfId="674"/>
-    <cellStyle name="Migliaia [0] 57 3" xfId="675"/>
-    <cellStyle name="Migliaia [0] 58" xfId="676"/>
-    <cellStyle name="Migliaia [0] 58 2" xfId="677"/>
-    <cellStyle name="Migliaia [0] 58 2 2" xfId="678"/>
-    <cellStyle name="Migliaia [0] 58 3" xfId="679"/>
-    <cellStyle name="Migliaia [0] 59" xfId="680"/>
-    <cellStyle name="Migliaia [0] 59 2" xfId="681"/>
-    <cellStyle name="Migliaia [0] 59 2 2" xfId="682"/>
-    <cellStyle name="Migliaia [0] 59 3" xfId="683"/>
-    <cellStyle name="Migliaia [0] 6" xfId="684"/>
-    <cellStyle name="Migliaia [0] 6 2" xfId="685"/>
-    <cellStyle name="Migliaia [0] 6 2 2" xfId="686"/>
-    <cellStyle name="Migliaia [0] 6 3" xfId="687"/>
-    <cellStyle name="Migliaia [0] 7" xfId="688"/>
-    <cellStyle name="Migliaia [0] 7 2" xfId="689"/>
-    <cellStyle name="Migliaia [0] 7 2 2" xfId="690"/>
-    <cellStyle name="Migliaia [0] 7 3" xfId="691"/>
-    <cellStyle name="Migliaia [0] 8" xfId="692"/>
-    <cellStyle name="Migliaia [0] 8 2" xfId="693"/>
-    <cellStyle name="Migliaia [0] 8 2 2" xfId="694"/>
-    <cellStyle name="Migliaia [0] 8 3" xfId="695"/>
-    <cellStyle name="Migliaia [0] 9" xfId="696"/>
-    <cellStyle name="Migliaia [0] 9 2" xfId="697"/>
-    <cellStyle name="Migliaia [0] 9 2 2" xfId="698"/>
-    <cellStyle name="Migliaia [0] 9 3" xfId="699"/>
-    <cellStyle name="Migliaia 10" xfId="700"/>
-    <cellStyle name="Migliaia 10 2" xfId="701"/>
-    <cellStyle name="Migliaia 10 2 2" xfId="702"/>
-    <cellStyle name="Migliaia 10 2 2 2" xfId="2860"/>
-    <cellStyle name="Migliaia 10 2 3" xfId="2859"/>
-    <cellStyle name="Migliaia 10 3" xfId="703"/>
-    <cellStyle name="Migliaia 10 3 2" xfId="704"/>
-    <cellStyle name="Migliaia 10 3 2 2" xfId="705"/>
-    <cellStyle name="Migliaia 10 3 2 3" xfId="2862"/>
-    <cellStyle name="Migliaia 10 3 3" xfId="2861"/>
-    <cellStyle name="Migliaia 10 4" xfId="706"/>
-    <cellStyle name="Migliaia 10 4 2" xfId="707"/>
-    <cellStyle name="Migliaia 10 4 2 2" xfId="2864"/>
-    <cellStyle name="Migliaia 10 4 3" xfId="2863"/>
-    <cellStyle name="Migliaia 10 5" xfId="708"/>
-    <cellStyle name="Migliaia 10 6" xfId="2858"/>
-    <cellStyle name="Migliaia 11" xfId="709"/>
-    <cellStyle name="Migliaia 11 2" xfId="710"/>
-    <cellStyle name="Migliaia 11 2 2" xfId="711"/>
-    <cellStyle name="Migliaia 11 2 2 2" xfId="2867"/>
-    <cellStyle name="Migliaia 11 2 3" xfId="2866"/>
-    <cellStyle name="Migliaia 11 3" xfId="712"/>
-    <cellStyle name="Migliaia 11 3 2" xfId="713"/>
-    <cellStyle name="Migliaia 11 3 2 2" xfId="714"/>
-    <cellStyle name="Migliaia 11 3 2 3" xfId="2869"/>
-    <cellStyle name="Migliaia 11 3 3" xfId="2868"/>
-    <cellStyle name="Migliaia 11 4" xfId="715"/>
-    <cellStyle name="Migliaia 11 4 2" xfId="716"/>
-    <cellStyle name="Migliaia 11 4 2 2" xfId="2871"/>
-    <cellStyle name="Migliaia 11 4 3" xfId="2870"/>
-    <cellStyle name="Migliaia 11 5" xfId="717"/>
-    <cellStyle name="Migliaia 11 6" xfId="2865"/>
-    <cellStyle name="Migliaia 12" xfId="718"/>
-    <cellStyle name="Migliaia 12 2" xfId="719"/>
-    <cellStyle name="Migliaia 12 2 2" xfId="720"/>
-    <cellStyle name="Migliaia 12 2 2 2" xfId="2874"/>
-    <cellStyle name="Migliaia 12 2 3" xfId="2873"/>
-    <cellStyle name="Migliaia 12 3" xfId="721"/>
-    <cellStyle name="Migliaia 12 3 2" xfId="722"/>
-    <cellStyle name="Migliaia 12 3 2 2" xfId="723"/>
-    <cellStyle name="Migliaia 12 3 2 3" xfId="2876"/>
-    <cellStyle name="Migliaia 12 3 3" xfId="2875"/>
-    <cellStyle name="Migliaia 12 4" xfId="724"/>
-    <cellStyle name="Migliaia 12 4 2" xfId="725"/>
-    <cellStyle name="Migliaia 12 4 2 2" xfId="2878"/>
-    <cellStyle name="Migliaia 12 4 3" xfId="2877"/>
-    <cellStyle name="Migliaia 12 5" xfId="726"/>
-    <cellStyle name="Migliaia 12 6" xfId="2872"/>
-    <cellStyle name="Migliaia 13" xfId="727"/>
-    <cellStyle name="Migliaia 13 2" xfId="728"/>
-    <cellStyle name="Migliaia 13 2 2" xfId="729"/>
-    <cellStyle name="Migliaia 13 2 2 2" xfId="2881"/>
-    <cellStyle name="Migliaia 13 2 3" xfId="2880"/>
-    <cellStyle name="Migliaia 13 3" xfId="730"/>
-    <cellStyle name="Migliaia 13 3 2" xfId="731"/>
-    <cellStyle name="Migliaia 13 3 2 2" xfId="732"/>
-    <cellStyle name="Migliaia 13 3 2 3" xfId="2883"/>
-    <cellStyle name="Migliaia 13 3 3" xfId="2882"/>
-    <cellStyle name="Migliaia 13 4" xfId="733"/>
-    <cellStyle name="Migliaia 13 4 2" xfId="734"/>
-    <cellStyle name="Migliaia 13 4 2 2" xfId="2885"/>
-    <cellStyle name="Migliaia 13 4 3" xfId="2884"/>
-    <cellStyle name="Migliaia 13 5" xfId="735"/>
-    <cellStyle name="Migliaia 13 6" xfId="2879"/>
-    <cellStyle name="Migliaia 14" xfId="736"/>
-    <cellStyle name="Migliaia 14 2" xfId="737"/>
-    <cellStyle name="Migliaia 14 2 2" xfId="738"/>
-    <cellStyle name="Migliaia 14 2 2 2" xfId="2888"/>
-    <cellStyle name="Migliaia 14 2 3" xfId="2887"/>
-    <cellStyle name="Migliaia 14 3" xfId="739"/>
-    <cellStyle name="Migliaia 14 3 2" xfId="740"/>
-    <cellStyle name="Migliaia 14 3 2 2" xfId="741"/>
-    <cellStyle name="Migliaia 14 3 2 3" xfId="2890"/>
-    <cellStyle name="Migliaia 14 3 3" xfId="2889"/>
-    <cellStyle name="Migliaia 14 4" xfId="742"/>
-    <cellStyle name="Migliaia 14 4 2" xfId="743"/>
-    <cellStyle name="Migliaia 14 4 2 2" xfId="2892"/>
-    <cellStyle name="Migliaia 14 4 3" xfId="2891"/>
-    <cellStyle name="Migliaia 14 5" xfId="744"/>
-    <cellStyle name="Migliaia 14 6" xfId="2886"/>
-    <cellStyle name="Migliaia 15" xfId="745"/>
-    <cellStyle name="Migliaia 15 2" xfId="746"/>
-    <cellStyle name="Migliaia 15 2 2" xfId="747"/>
-    <cellStyle name="Migliaia 15 2 2 2" xfId="2895"/>
-    <cellStyle name="Migliaia 15 2 3" xfId="2894"/>
-    <cellStyle name="Migliaia 15 3" xfId="748"/>
-    <cellStyle name="Migliaia 15 3 2" xfId="749"/>
-    <cellStyle name="Migliaia 15 3 2 2" xfId="750"/>
-    <cellStyle name="Migliaia 15 3 2 3" xfId="2897"/>
-    <cellStyle name="Migliaia 15 3 3" xfId="2896"/>
-    <cellStyle name="Migliaia 15 4" xfId="751"/>
-    <cellStyle name="Migliaia 15 4 2" xfId="752"/>
-    <cellStyle name="Migliaia 15 4 2 2" xfId="2899"/>
-    <cellStyle name="Migliaia 15 4 3" xfId="2898"/>
-    <cellStyle name="Migliaia 15 5" xfId="753"/>
-    <cellStyle name="Migliaia 15 6" xfId="2893"/>
-    <cellStyle name="Migliaia 16" xfId="754"/>
-    <cellStyle name="Migliaia 16 2" xfId="755"/>
-    <cellStyle name="Migliaia 16 2 2" xfId="756"/>
-    <cellStyle name="Migliaia 16 2 2 2" xfId="2902"/>
-    <cellStyle name="Migliaia 16 2 3" xfId="2901"/>
-    <cellStyle name="Migliaia 16 3" xfId="757"/>
-    <cellStyle name="Migliaia 16 3 2" xfId="758"/>
-    <cellStyle name="Migliaia 16 3 2 2" xfId="759"/>
-    <cellStyle name="Migliaia 16 3 2 3" xfId="2904"/>
-    <cellStyle name="Migliaia 16 3 3" xfId="2903"/>
-    <cellStyle name="Migliaia 16 4" xfId="760"/>
-    <cellStyle name="Migliaia 16 4 2" xfId="761"/>
-    <cellStyle name="Migliaia 16 4 2 2" xfId="2906"/>
-    <cellStyle name="Migliaia 16 4 3" xfId="2905"/>
-    <cellStyle name="Migliaia 16 5" xfId="762"/>
-    <cellStyle name="Migliaia 16 6" xfId="2900"/>
-    <cellStyle name="Migliaia 17" xfId="763"/>
-    <cellStyle name="Migliaia 17 2" xfId="764"/>
-    <cellStyle name="Migliaia 17 2 2" xfId="765"/>
-    <cellStyle name="Migliaia 17 2 2 2" xfId="2909"/>
-    <cellStyle name="Migliaia 17 2 3" xfId="2908"/>
-    <cellStyle name="Migliaia 17 3" xfId="766"/>
-    <cellStyle name="Migliaia 17 3 2" xfId="767"/>
-    <cellStyle name="Migliaia 17 3 2 2" xfId="768"/>
-    <cellStyle name="Migliaia 17 3 2 3" xfId="2911"/>
-    <cellStyle name="Migliaia 17 3 3" xfId="2910"/>
-    <cellStyle name="Migliaia 17 4" xfId="769"/>
-    <cellStyle name="Migliaia 17 4 2" xfId="770"/>
-    <cellStyle name="Migliaia 17 4 2 2" xfId="2913"/>
-    <cellStyle name="Migliaia 17 4 3" xfId="2912"/>
-    <cellStyle name="Migliaia 17 5" xfId="771"/>
-    <cellStyle name="Migliaia 17 6" xfId="2907"/>
-    <cellStyle name="Migliaia 18" xfId="772"/>
-    <cellStyle name="Migliaia 18 2" xfId="773"/>
-    <cellStyle name="Migliaia 18 2 2" xfId="774"/>
-    <cellStyle name="Migliaia 18 2 2 2" xfId="2916"/>
-    <cellStyle name="Migliaia 18 2 3" xfId="2915"/>
-    <cellStyle name="Migliaia 18 3" xfId="775"/>
-    <cellStyle name="Migliaia 18 3 2" xfId="776"/>
-    <cellStyle name="Migliaia 18 3 2 2" xfId="777"/>
-    <cellStyle name="Migliaia 18 3 2 3" xfId="2918"/>
-    <cellStyle name="Migliaia 18 3 3" xfId="2917"/>
-    <cellStyle name="Migliaia 18 4" xfId="778"/>
-    <cellStyle name="Migliaia 18 4 2" xfId="779"/>
-    <cellStyle name="Migliaia 18 4 2 2" xfId="2920"/>
-    <cellStyle name="Migliaia 18 4 3" xfId="2919"/>
-    <cellStyle name="Migliaia 18 5" xfId="780"/>
-    <cellStyle name="Migliaia 18 6" xfId="2914"/>
-    <cellStyle name="Migliaia 19" xfId="781"/>
-    <cellStyle name="Migliaia 19 2" xfId="782"/>
-    <cellStyle name="Migliaia 19 2 2" xfId="783"/>
-    <cellStyle name="Migliaia 19 2 2 2" xfId="2923"/>
-    <cellStyle name="Migliaia 19 2 3" xfId="2922"/>
-    <cellStyle name="Migliaia 19 3" xfId="784"/>
-    <cellStyle name="Migliaia 19 3 2" xfId="785"/>
-    <cellStyle name="Migliaia 19 3 2 2" xfId="786"/>
-    <cellStyle name="Migliaia 19 3 2 3" xfId="2925"/>
-    <cellStyle name="Migliaia 19 3 3" xfId="2924"/>
-    <cellStyle name="Migliaia 19 4" xfId="787"/>
-    <cellStyle name="Migliaia 19 4 2" xfId="788"/>
-    <cellStyle name="Migliaia 19 4 2 2" xfId="2927"/>
-    <cellStyle name="Migliaia 19 4 3" xfId="2926"/>
-    <cellStyle name="Migliaia 19 5" xfId="789"/>
-    <cellStyle name="Migliaia 19 6" xfId="2921"/>
-    <cellStyle name="Migliaia 2" xfId="790"/>
-    <cellStyle name="Migliaia 2 2" xfId="791"/>
-    <cellStyle name="Migliaia 2 2 2" xfId="792"/>
-    <cellStyle name="Migliaia 2 2 2 2" xfId="793"/>
-    <cellStyle name="Migliaia 2 2 2 2 2" xfId="2931"/>
-    <cellStyle name="Migliaia 2 2 2 3" xfId="2930"/>
-    <cellStyle name="Migliaia 2 2 3" xfId="794"/>
-    <cellStyle name="Migliaia 2 2 3 2" xfId="2932"/>
-    <cellStyle name="Migliaia 2 2 4" xfId="2929"/>
-    <cellStyle name="Migliaia 2 3" xfId="795"/>
-    <cellStyle name="Migliaia 2 3 2" xfId="796"/>
-    <cellStyle name="Migliaia 2 3 2 2" xfId="797"/>
-    <cellStyle name="Migliaia 2 3 2 2 2" xfId="2935"/>
-    <cellStyle name="Migliaia 2 3 2 3" xfId="2934"/>
-    <cellStyle name="Migliaia 2 3 3" xfId="798"/>
-    <cellStyle name="Migliaia 2 3 3 2" xfId="2936"/>
-    <cellStyle name="Migliaia 2 3 4" xfId="2933"/>
-    <cellStyle name="Migliaia 2 4" xfId="799"/>
-    <cellStyle name="Migliaia 2 4 2" xfId="800"/>
-    <cellStyle name="Migliaia 2 4 2 2" xfId="801"/>
-    <cellStyle name="Migliaia 2 4 2 3" xfId="2938"/>
-    <cellStyle name="Migliaia 2 4 3" xfId="2937"/>
-    <cellStyle name="Migliaia 2 5" xfId="802"/>
-    <cellStyle name="Migliaia 2 5 2" xfId="803"/>
-    <cellStyle name="Migliaia 2 5 2 2" xfId="2940"/>
-    <cellStyle name="Migliaia 2 5 3" xfId="2939"/>
-    <cellStyle name="Migliaia 2 6" xfId="804"/>
-    <cellStyle name="Migliaia 2 7" xfId="2928"/>
-    <cellStyle name="Migliaia 2_Domestico_reg&amp;naz" xfId="805"/>
-    <cellStyle name="Migliaia 20" xfId="806"/>
-    <cellStyle name="Migliaia 20 2" xfId="807"/>
-    <cellStyle name="Migliaia 20 2 2" xfId="808"/>
-    <cellStyle name="Migliaia 20 2 2 2" xfId="2943"/>
-    <cellStyle name="Migliaia 20 2 3" xfId="2942"/>
-    <cellStyle name="Migliaia 20 3" xfId="809"/>
-    <cellStyle name="Migliaia 20 3 2" xfId="810"/>
-    <cellStyle name="Migliaia 20 3 2 2" xfId="811"/>
-    <cellStyle name="Migliaia 20 3 2 3" xfId="2945"/>
-    <cellStyle name="Migliaia 20 3 3" xfId="2944"/>
-    <cellStyle name="Migliaia 20 4" xfId="812"/>
-    <cellStyle name="Migliaia 20 4 2" xfId="813"/>
-    <cellStyle name="Migliaia 20 4 2 2" xfId="2947"/>
-    <cellStyle name="Migliaia 20 4 3" xfId="2946"/>
-    <cellStyle name="Migliaia 20 5" xfId="814"/>
-    <cellStyle name="Migliaia 20 6" xfId="2941"/>
-    <cellStyle name="Migliaia 21" xfId="815"/>
-    <cellStyle name="Migliaia 21 2" xfId="816"/>
-    <cellStyle name="Migliaia 21 2 2" xfId="817"/>
-    <cellStyle name="Migliaia 21 2 2 2" xfId="2950"/>
-    <cellStyle name="Migliaia 21 2 3" xfId="2949"/>
-    <cellStyle name="Migliaia 21 3" xfId="818"/>
-    <cellStyle name="Migliaia 21 3 2" xfId="819"/>
-    <cellStyle name="Migliaia 21 3 2 2" xfId="820"/>
-    <cellStyle name="Migliaia 21 3 2 3" xfId="2952"/>
-    <cellStyle name="Migliaia 21 3 3" xfId="2951"/>
-    <cellStyle name="Migliaia 21 4" xfId="821"/>
-    <cellStyle name="Migliaia 21 4 2" xfId="822"/>
-    <cellStyle name="Migliaia 21 4 2 2" xfId="2954"/>
-    <cellStyle name="Migliaia 21 4 3" xfId="2953"/>
-    <cellStyle name="Migliaia 21 5" xfId="823"/>
-    <cellStyle name="Migliaia 21 6" xfId="2948"/>
-    <cellStyle name="Migliaia 22" xfId="824"/>
-    <cellStyle name="Migliaia 22 2" xfId="825"/>
-    <cellStyle name="Migliaia 22 2 2" xfId="826"/>
-    <cellStyle name="Migliaia 22 2 2 2" xfId="2957"/>
-    <cellStyle name="Migliaia 22 2 3" xfId="2956"/>
-    <cellStyle name="Migliaia 22 3" xfId="827"/>
-    <cellStyle name="Migliaia 22 3 2" xfId="828"/>
-    <cellStyle name="Migliaia 22 3 2 2" xfId="829"/>
-    <cellStyle name="Migliaia 22 3 2 3" xfId="2959"/>
-    <cellStyle name="Migliaia 22 3 3" xfId="2958"/>
-    <cellStyle name="Migliaia 22 4" xfId="830"/>
-    <cellStyle name="Migliaia 22 4 2" xfId="831"/>
-    <cellStyle name="Migliaia 22 4 2 2" xfId="2961"/>
-    <cellStyle name="Migliaia 22 4 3" xfId="2960"/>
-    <cellStyle name="Migliaia 22 5" xfId="832"/>
-    <cellStyle name="Migliaia 22 6" xfId="2955"/>
-    <cellStyle name="Migliaia 23" xfId="833"/>
-    <cellStyle name="Migliaia 23 2" xfId="834"/>
-    <cellStyle name="Migliaia 23 2 2" xfId="835"/>
-    <cellStyle name="Migliaia 23 2 2 2" xfId="2964"/>
-    <cellStyle name="Migliaia 23 2 3" xfId="2963"/>
-    <cellStyle name="Migliaia 23 3" xfId="836"/>
-    <cellStyle name="Migliaia 23 3 2" xfId="837"/>
-    <cellStyle name="Migliaia 23 3 2 2" xfId="838"/>
-    <cellStyle name="Migliaia 23 3 2 3" xfId="2966"/>
-    <cellStyle name="Migliaia 23 3 3" xfId="2965"/>
-    <cellStyle name="Migliaia 23 4" xfId="839"/>
-    <cellStyle name="Migliaia 23 4 2" xfId="840"/>
-    <cellStyle name="Migliaia 23 4 2 2" xfId="2968"/>
-    <cellStyle name="Migliaia 23 4 3" xfId="2967"/>
-    <cellStyle name="Migliaia 23 5" xfId="841"/>
-    <cellStyle name="Migliaia 23 6" xfId="2962"/>
-    <cellStyle name="Migliaia 24" xfId="842"/>
-    <cellStyle name="Migliaia 24 2" xfId="843"/>
-    <cellStyle name="Migliaia 24 2 2" xfId="844"/>
-    <cellStyle name="Migliaia 24 2 2 2" xfId="2971"/>
-    <cellStyle name="Migliaia 24 2 3" xfId="2970"/>
-    <cellStyle name="Migliaia 24 3" xfId="845"/>
-    <cellStyle name="Migliaia 24 3 2" xfId="846"/>
-    <cellStyle name="Migliaia 24 3 2 2" xfId="847"/>
-    <cellStyle name="Migliaia 24 3 2 3" xfId="2973"/>
-    <cellStyle name="Migliaia 24 3 3" xfId="2972"/>
-    <cellStyle name="Migliaia 24 4" xfId="848"/>
-    <cellStyle name="Migliaia 24 4 2" xfId="849"/>
-    <cellStyle name="Migliaia 24 4 2 2" xfId="2975"/>
-    <cellStyle name="Migliaia 24 4 3" xfId="2974"/>
-    <cellStyle name="Migliaia 24 5" xfId="850"/>
-    <cellStyle name="Migliaia 24 6" xfId="2969"/>
-    <cellStyle name="Migliaia 25" xfId="851"/>
-    <cellStyle name="Migliaia 25 2" xfId="852"/>
-    <cellStyle name="Migliaia 25 2 2" xfId="853"/>
-    <cellStyle name="Migliaia 25 2 2 2" xfId="2978"/>
-    <cellStyle name="Migliaia 25 2 3" xfId="2977"/>
-    <cellStyle name="Migliaia 25 3" xfId="854"/>
-    <cellStyle name="Migliaia 25 3 2" xfId="855"/>
-    <cellStyle name="Migliaia 25 3 2 2" xfId="856"/>
-    <cellStyle name="Migliaia 25 3 2 3" xfId="2980"/>
-    <cellStyle name="Migliaia 25 3 3" xfId="2979"/>
-    <cellStyle name="Migliaia 25 4" xfId="857"/>
-    <cellStyle name="Migliaia 25 4 2" xfId="858"/>
-    <cellStyle name="Migliaia 25 4 2 2" xfId="2982"/>
-    <cellStyle name="Migliaia 25 4 3" xfId="2981"/>
-    <cellStyle name="Migliaia 25 5" xfId="859"/>
-    <cellStyle name="Migliaia 25 6" xfId="2976"/>
-    <cellStyle name="Migliaia 26" xfId="860"/>
-    <cellStyle name="Migliaia 26 2" xfId="861"/>
-    <cellStyle name="Migliaia 26 2 2" xfId="862"/>
-    <cellStyle name="Migliaia 26 2 2 2" xfId="2985"/>
-    <cellStyle name="Migliaia 26 2 3" xfId="2984"/>
-    <cellStyle name="Migliaia 26 3" xfId="863"/>
-    <cellStyle name="Migliaia 26 3 2" xfId="864"/>
-    <cellStyle name="Migliaia 26 3 2 2" xfId="865"/>
-    <cellStyle name="Migliaia 26 3 2 3" xfId="2987"/>
-    <cellStyle name="Migliaia 26 3 3" xfId="2986"/>
-    <cellStyle name="Migliaia 26 4" xfId="866"/>
-    <cellStyle name="Migliaia 26 4 2" xfId="867"/>
-    <cellStyle name="Migliaia 26 4 2 2" xfId="2989"/>
-    <cellStyle name="Migliaia 26 4 3" xfId="2988"/>
-    <cellStyle name="Migliaia 26 5" xfId="868"/>
-    <cellStyle name="Migliaia 26 6" xfId="2983"/>
-    <cellStyle name="Migliaia 27" xfId="869"/>
-    <cellStyle name="Migliaia 27 2" xfId="870"/>
-    <cellStyle name="Migliaia 27 2 2" xfId="871"/>
-    <cellStyle name="Migliaia 27 2 2 2" xfId="2992"/>
-    <cellStyle name="Migliaia 27 2 3" xfId="2991"/>
-    <cellStyle name="Migliaia 27 3" xfId="872"/>
-    <cellStyle name="Migliaia 27 3 2" xfId="873"/>
-    <cellStyle name="Migliaia 27 3 2 2" xfId="874"/>
-    <cellStyle name="Migliaia 27 3 2 3" xfId="2994"/>
-    <cellStyle name="Migliaia 27 3 3" xfId="2993"/>
-    <cellStyle name="Migliaia 27 4" xfId="875"/>
-    <cellStyle name="Migliaia 27 4 2" xfId="876"/>
-    <cellStyle name="Migliaia 27 4 2 2" xfId="2996"/>
-    <cellStyle name="Migliaia 27 4 3" xfId="2995"/>
-    <cellStyle name="Migliaia 27 5" xfId="877"/>
-    <cellStyle name="Migliaia 27 6" xfId="2990"/>
-    <cellStyle name="Migliaia 28" xfId="878"/>
-    <cellStyle name="Migliaia 28 2" xfId="879"/>
-    <cellStyle name="Migliaia 28 2 2" xfId="880"/>
-    <cellStyle name="Migliaia 28 2 2 2" xfId="2999"/>
-    <cellStyle name="Migliaia 28 2 3" xfId="2998"/>
-    <cellStyle name="Migliaia 28 3" xfId="881"/>
-    <cellStyle name="Migliaia 28 3 2" xfId="882"/>
-    <cellStyle name="Migliaia 28 3 2 2" xfId="883"/>
-    <cellStyle name="Migliaia 28 3 2 3" xfId="3001"/>
-    <cellStyle name="Migliaia 28 3 3" xfId="3000"/>
-    <cellStyle name="Migliaia 28 4" xfId="884"/>
-    <cellStyle name="Migliaia 28 4 2" xfId="885"/>
-    <cellStyle name="Migliaia 28 4 2 2" xfId="3003"/>
-    <cellStyle name="Migliaia 28 4 3" xfId="3002"/>
-    <cellStyle name="Migliaia 28 5" xfId="886"/>
-    <cellStyle name="Migliaia 28 6" xfId="2997"/>
-    <cellStyle name="Migliaia 29" xfId="887"/>
-    <cellStyle name="Migliaia 29 2" xfId="888"/>
-    <cellStyle name="Migliaia 29 2 2" xfId="889"/>
-    <cellStyle name="Migliaia 29 2 2 2" xfId="3006"/>
-    <cellStyle name="Migliaia 29 2 3" xfId="3005"/>
-    <cellStyle name="Migliaia 29 3" xfId="890"/>
-    <cellStyle name="Migliaia 29 3 2" xfId="891"/>
-    <cellStyle name="Migliaia 29 3 2 2" xfId="892"/>
-    <cellStyle name="Migliaia 29 3 2 3" xfId="3008"/>
-    <cellStyle name="Migliaia 29 3 3" xfId="3007"/>
-    <cellStyle name="Migliaia 29 4" xfId="893"/>
-    <cellStyle name="Migliaia 29 4 2" xfId="894"/>
-    <cellStyle name="Migliaia 29 4 2 2" xfId="3010"/>
-    <cellStyle name="Migliaia 29 4 3" xfId="3009"/>
-    <cellStyle name="Migliaia 29 5" xfId="895"/>
-    <cellStyle name="Migliaia 29 6" xfId="3004"/>
-    <cellStyle name="Migliaia 3" xfId="896"/>
-    <cellStyle name="Migliaia 3 2" xfId="897"/>
-    <cellStyle name="Migliaia 3 2 2" xfId="898"/>
-    <cellStyle name="Migliaia 3 2 2 2" xfId="3013"/>
-    <cellStyle name="Migliaia 3 2 3" xfId="3012"/>
-    <cellStyle name="Migliaia 3 3" xfId="899"/>
-    <cellStyle name="Migliaia 3 3 2" xfId="900"/>
-    <cellStyle name="Migliaia 3 3 2 2" xfId="901"/>
-    <cellStyle name="Migliaia 3 3 2 3" xfId="3015"/>
-    <cellStyle name="Migliaia 3 3 3" xfId="3014"/>
-    <cellStyle name="Migliaia 3 4" xfId="902"/>
-    <cellStyle name="Migliaia 3 4 2" xfId="903"/>
-    <cellStyle name="Migliaia 3 4 2 2" xfId="3017"/>
-    <cellStyle name="Migliaia 3 4 3" xfId="3016"/>
-    <cellStyle name="Migliaia 3 5" xfId="904"/>
-    <cellStyle name="Migliaia 3 6" xfId="3011"/>
-    <cellStyle name="Migliaia 30" xfId="905"/>
-    <cellStyle name="Migliaia 30 2" xfId="906"/>
-    <cellStyle name="Migliaia 30 2 2" xfId="907"/>
-    <cellStyle name="Migliaia 30 2 2 2" xfId="3020"/>
-    <cellStyle name="Migliaia 30 2 3" xfId="3019"/>
-    <cellStyle name="Migliaia 30 3" xfId="908"/>
-    <cellStyle name="Migliaia 30 3 2" xfId="909"/>
-    <cellStyle name="Migliaia 30 3 2 2" xfId="910"/>
-    <cellStyle name="Migliaia 30 3 2 3" xfId="3022"/>
-    <cellStyle name="Migliaia 30 3 3" xfId="3021"/>
-    <cellStyle name="Migliaia 30 4" xfId="911"/>
-    <cellStyle name="Migliaia 30 4 2" xfId="912"/>
-    <cellStyle name="Migliaia 30 4 2 2" xfId="3024"/>
-    <cellStyle name="Migliaia 30 4 3" xfId="3023"/>
-    <cellStyle name="Migliaia 30 5" xfId="913"/>
-    <cellStyle name="Migliaia 30 6" xfId="3018"/>
-    <cellStyle name="Migliaia 31" xfId="914"/>
-    <cellStyle name="Migliaia 31 2" xfId="915"/>
-    <cellStyle name="Migliaia 31 2 2" xfId="916"/>
-    <cellStyle name="Migliaia 31 2 2 2" xfId="3027"/>
-    <cellStyle name="Migliaia 31 2 3" xfId="3026"/>
-    <cellStyle name="Migliaia 31 3" xfId="917"/>
-    <cellStyle name="Migliaia 31 3 2" xfId="918"/>
-    <cellStyle name="Migliaia 31 3 2 2" xfId="919"/>
-    <cellStyle name="Migliaia 31 3 2 3" xfId="3029"/>
-    <cellStyle name="Migliaia 31 3 3" xfId="3028"/>
-    <cellStyle name="Migliaia 31 4" xfId="920"/>
-    <cellStyle name="Migliaia 31 4 2" xfId="921"/>
-    <cellStyle name="Migliaia 31 4 2 2" xfId="3031"/>
-    <cellStyle name="Migliaia 31 4 3" xfId="3030"/>
-    <cellStyle name="Migliaia 31 5" xfId="922"/>
-    <cellStyle name="Migliaia 31 6" xfId="3025"/>
-    <cellStyle name="Migliaia 32" xfId="923"/>
-    <cellStyle name="Migliaia 32 2" xfId="924"/>
-    <cellStyle name="Migliaia 32 2 2" xfId="925"/>
-    <cellStyle name="Migliaia 32 2 2 2" xfId="3034"/>
-    <cellStyle name="Migliaia 32 2 3" xfId="3033"/>
-    <cellStyle name="Migliaia 32 3" xfId="926"/>
-    <cellStyle name="Migliaia 32 3 2" xfId="927"/>
-    <cellStyle name="Migliaia 32 3 2 2" xfId="928"/>
-    <cellStyle name="Migliaia 32 3 2 3" xfId="3036"/>
-    <cellStyle name="Migliaia 32 3 3" xfId="3035"/>
-    <cellStyle name="Migliaia 32 4" xfId="929"/>
-    <cellStyle name="Migliaia 32 4 2" xfId="930"/>
-    <cellStyle name="Migliaia 32 4 2 2" xfId="3038"/>
-    <cellStyle name="Migliaia 32 4 3" xfId="3037"/>
-    <cellStyle name="Migliaia 32 5" xfId="931"/>
-    <cellStyle name="Migliaia 32 6" xfId="3032"/>
-    <cellStyle name="Migliaia 33" xfId="932"/>
-    <cellStyle name="Migliaia 33 2" xfId="933"/>
-    <cellStyle name="Migliaia 33 2 2" xfId="934"/>
-    <cellStyle name="Migliaia 33 2 2 2" xfId="3041"/>
-    <cellStyle name="Migliaia 33 2 3" xfId="3040"/>
-    <cellStyle name="Migliaia 33 3" xfId="935"/>
-    <cellStyle name="Migliaia 33 3 2" xfId="936"/>
-    <cellStyle name="Migliaia 33 3 2 2" xfId="937"/>
-    <cellStyle name="Migliaia 33 3 2 3" xfId="3043"/>
-    <cellStyle name="Migliaia 33 3 3" xfId="3042"/>
-    <cellStyle name="Migliaia 33 4" xfId="938"/>
-    <cellStyle name="Migliaia 33 4 2" xfId="939"/>
-    <cellStyle name="Migliaia 33 4 2 2" xfId="3045"/>
-    <cellStyle name="Migliaia 33 4 3" xfId="3044"/>
-    <cellStyle name="Migliaia 33 5" xfId="940"/>
-    <cellStyle name="Migliaia 33 6" xfId="3039"/>
-    <cellStyle name="Migliaia 34" xfId="941"/>
-    <cellStyle name="Migliaia 34 2" xfId="942"/>
-    <cellStyle name="Migliaia 34 2 2" xfId="943"/>
-    <cellStyle name="Migliaia 34 2 2 2" xfId="3048"/>
-    <cellStyle name="Migliaia 34 2 3" xfId="3047"/>
-    <cellStyle name="Migliaia 34 3" xfId="944"/>
-    <cellStyle name="Migliaia 34 3 2" xfId="945"/>
-    <cellStyle name="Migliaia 34 3 2 2" xfId="946"/>
-    <cellStyle name="Migliaia 34 3 2 3" xfId="3050"/>
-    <cellStyle name="Migliaia 34 3 3" xfId="3049"/>
-    <cellStyle name="Migliaia 34 4" xfId="947"/>
-    <cellStyle name="Migliaia 34 4 2" xfId="948"/>
-    <cellStyle name="Migliaia 34 4 2 2" xfId="3052"/>
-    <cellStyle name="Migliaia 34 4 3" xfId="3051"/>
-    <cellStyle name="Migliaia 34 5" xfId="949"/>
-    <cellStyle name="Migliaia 34 6" xfId="3046"/>
-    <cellStyle name="Migliaia 35" xfId="950"/>
-    <cellStyle name="Migliaia 35 2" xfId="951"/>
-    <cellStyle name="Migliaia 35 2 2" xfId="952"/>
-    <cellStyle name="Migliaia 35 2 2 2" xfId="3055"/>
-    <cellStyle name="Migliaia 35 2 3" xfId="3054"/>
-    <cellStyle name="Migliaia 35 3" xfId="953"/>
-    <cellStyle name="Migliaia 35 3 2" xfId="954"/>
-    <cellStyle name="Migliaia 35 3 2 2" xfId="955"/>
-    <cellStyle name="Migliaia 35 3 2 3" xfId="3057"/>
-    <cellStyle name="Migliaia 35 3 3" xfId="3056"/>
-    <cellStyle name="Migliaia 35 4" xfId="956"/>
-    <cellStyle name="Migliaia 35 4 2" xfId="957"/>
-    <cellStyle name="Migliaia 35 4 2 2" xfId="3059"/>
-    <cellStyle name="Migliaia 35 4 3" xfId="3058"/>
-    <cellStyle name="Migliaia 35 5" xfId="958"/>
-    <cellStyle name="Migliaia 35 6" xfId="3053"/>
-    <cellStyle name="Migliaia 36" xfId="959"/>
-    <cellStyle name="Migliaia 36 2" xfId="960"/>
-    <cellStyle name="Migliaia 36 2 2" xfId="961"/>
-    <cellStyle name="Migliaia 36 2 2 2" xfId="3062"/>
-    <cellStyle name="Migliaia 36 2 3" xfId="3061"/>
-    <cellStyle name="Migliaia 36 3" xfId="962"/>
-    <cellStyle name="Migliaia 36 3 2" xfId="963"/>
-    <cellStyle name="Migliaia 36 3 2 2" xfId="964"/>
-    <cellStyle name="Migliaia 36 3 2 3" xfId="3064"/>
-    <cellStyle name="Migliaia 36 3 3" xfId="3063"/>
-    <cellStyle name="Migliaia 36 4" xfId="965"/>
-    <cellStyle name="Migliaia 36 4 2" xfId="966"/>
-    <cellStyle name="Migliaia 36 4 2 2" xfId="3066"/>
-    <cellStyle name="Migliaia 36 4 3" xfId="3065"/>
-    <cellStyle name="Migliaia 36 5" xfId="967"/>
-    <cellStyle name="Migliaia 36 6" xfId="3060"/>
-    <cellStyle name="Migliaia 37" xfId="968"/>
-    <cellStyle name="Migliaia 37 2" xfId="969"/>
-    <cellStyle name="Migliaia 37 2 2" xfId="970"/>
-    <cellStyle name="Migliaia 37 2 2 2" xfId="3069"/>
-    <cellStyle name="Migliaia 37 2 3" xfId="3068"/>
-    <cellStyle name="Migliaia 37 3" xfId="971"/>
-    <cellStyle name="Migliaia 37 3 2" xfId="972"/>
-    <cellStyle name="Migliaia 37 3 2 2" xfId="973"/>
-    <cellStyle name="Migliaia 37 3 2 3" xfId="3071"/>
-    <cellStyle name="Migliaia 37 3 3" xfId="3070"/>
-    <cellStyle name="Migliaia 37 4" xfId="974"/>
-    <cellStyle name="Migliaia 37 4 2" xfId="975"/>
-    <cellStyle name="Migliaia 37 4 2 2" xfId="3073"/>
-    <cellStyle name="Migliaia 37 4 3" xfId="3072"/>
-    <cellStyle name="Migliaia 37 5" xfId="976"/>
-    <cellStyle name="Migliaia 37 6" xfId="3067"/>
-    <cellStyle name="Migliaia 38" xfId="977"/>
-    <cellStyle name="Migliaia 38 2" xfId="978"/>
-    <cellStyle name="Migliaia 38 2 2" xfId="979"/>
-    <cellStyle name="Migliaia 38 2 2 2" xfId="3076"/>
-    <cellStyle name="Migliaia 38 2 3" xfId="3075"/>
-    <cellStyle name="Migliaia 38 3" xfId="980"/>
-    <cellStyle name="Migliaia 38 3 2" xfId="981"/>
-    <cellStyle name="Migliaia 38 3 2 2" xfId="982"/>
-    <cellStyle name="Migliaia 38 3 2 3" xfId="3078"/>
-    <cellStyle name="Migliaia 38 3 3" xfId="3077"/>
-    <cellStyle name="Migliaia 38 4" xfId="983"/>
-    <cellStyle name="Migliaia 38 4 2" xfId="984"/>
-    <cellStyle name="Migliaia 38 4 2 2" xfId="3080"/>
-    <cellStyle name="Migliaia 38 4 3" xfId="3079"/>
-    <cellStyle name="Migliaia 38 5" xfId="985"/>
-    <cellStyle name="Migliaia 38 6" xfId="3074"/>
-    <cellStyle name="Migliaia 39" xfId="986"/>
-    <cellStyle name="Migliaia 39 2" xfId="987"/>
-    <cellStyle name="Migliaia 39 2 2" xfId="988"/>
-    <cellStyle name="Migliaia 39 2 2 2" xfId="3083"/>
-    <cellStyle name="Migliaia 39 2 3" xfId="3082"/>
-    <cellStyle name="Migliaia 39 3" xfId="989"/>
-    <cellStyle name="Migliaia 39 3 2" xfId="990"/>
-    <cellStyle name="Migliaia 39 3 2 2" xfId="991"/>
-    <cellStyle name="Migliaia 39 3 2 3" xfId="3085"/>
-    <cellStyle name="Migliaia 39 3 3" xfId="3084"/>
-    <cellStyle name="Migliaia 39 4" xfId="992"/>
-    <cellStyle name="Migliaia 39 4 2" xfId="993"/>
-    <cellStyle name="Migliaia 39 4 2 2" xfId="3087"/>
-    <cellStyle name="Migliaia 39 4 3" xfId="3086"/>
-    <cellStyle name="Migliaia 39 5" xfId="994"/>
-    <cellStyle name="Migliaia 39 6" xfId="3081"/>
-    <cellStyle name="Migliaia 4" xfId="995"/>
-    <cellStyle name="Migliaia 4 2" xfId="996"/>
-    <cellStyle name="Migliaia 4 2 2" xfId="997"/>
-    <cellStyle name="Migliaia 4 2 2 2" xfId="3090"/>
-    <cellStyle name="Migliaia 4 2 3" xfId="3089"/>
-    <cellStyle name="Migliaia 4 3" xfId="998"/>
-    <cellStyle name="Migliaia 4 3 2" xfId="999"/>
-    <cellStyle name="Migliaia 4 3 2 2" xfId="1000"/>
-    <cellStyle name="Migliaia 4 3 2 3" xfId="3092"/>
-    <cellStyle name="Migliaia 4 3 3" xfId="3091"/>
-    <cellStyle name="Migliaia 4 4" xfId="1001"/>
-    <cellStyle name="Migliaia 4 4 2" xfId="1002"/>
-    <cellStyle name="Migliaia 4 4 2 2" xfId="3094"/>
-    <cellStyle name="Migliaia 4 4 3" xfId="3093"/>
-    <cellStyle name="Migliaia 4 5" xfId="1003"/>
-    <cellStyle name="Migliaia 4 6" xfId="3088"/>
-    <cellStyle name="Migliaia 40" xfId="1004"/>
-    <cellStyle name="Migliaia 40 2" xfId="1005"/>
-    <cellStyle name="Migliaia 40 2 2" xfId="1006"/>
-    <cellStyle name="Migliaia 40 2 2 2" xfId="3097"/>
-    <cellStyle name="Migliaia 40 2 3" xfId="3096"/>
-    <cellStyle name="Migliaia 40 3" xfId="1007"/>
-    <cellStyle name="Migliaia 40 3 2" xfId="1008"/>
-    <cellStyle name="Migliaia 40 3 2 2" xfId="1009"/>
-    <cellStyle name="Migliaia 40 3 2 3" xfId="3099"/>
-    <cellStyle name="Migliaia 40 3 3" xfId="3098"/>
-    <cellStyle name="Migliaia 40 4" xfId="1010"/>
-    <cellStyle name="Migliaia 40 4 2" xfId="1011"/>
-    <cellStyle name="Migliaia 40 4 2 2" xfId="3101"/>
-    <cellStyle name="Migliaia 40 4 3" xfId="3100"/>
-    <cellStyle name="Migliaia 40 5" xfId="1012"/>
-    <cellStyle name="Migliaia 40 6" xfId="3095"/>
-    <cellStyle name="Migliaia 41" xfId="1013"/>
-    <cellStyle name="Migliaia 41 2" xfId="1014"/>
-    <cellStyle name="Migliaia 41 2 2" xfId="1015"/>
-    <cellStyle name="Migliaia 41 2 2 2" xfId="3104"/>
-    <cellStyle name="Migliaia 41 2 3" xfId="3103"/>
-    <cellStyle name="Migliaia 41 3" xfId="1016"/>
-    <cellStyle name="Migliaia 41 3 2" xfId="1017"/>
-    <cellStyle name="Migliaia 41 3 2 2" xfId="1018"/>
-    <cellStyle name="Migliaia 41 3 2 3" xfId="3106"/>
-    <cellStyle name="Migliaia 41 3 3" xfId="3105"/>
-    <cellStyle name="Migliaia 41 4" xfId="1019"/>
-    <cellStyle name="Migliaia 41 4 2" xfId="1020"/>
-    <cellStyle name="Migliaia 41 4 2 2" xfId="3108"/>
-    <cellStyle name="Migliaia 41 4 3" xfId="3107"/>
-    <cellStyle name="Migliaia 41 5" xfId="1021"/>
-    <cellStyle name="Migliaia 41 6" xfId="3102"/>
-    <cellStyle name="Migliaia 42" xfId="1022"/>
-    <cellStyle name="Migliaia 42 2" xfId="1023"/>
-    <cellStyle name="Migliaia 42 2 2" xfId="1024"/>
-    <cellStyle name="Migliaia 42 2 2 2" xfId="3111"/>
-    <cellStyle name="Migliaia 42 2 3" xfId="3110"/>
-    <cellStyle name="Migliaia 42 3" xfId="1025"/>
-    <cellStyle name="Migliaia 42 3 2" xfId="1026"/>
-    <cellStyle name="Migliaia 42 3 2 2" xfId="1027"/>
-    <cellStyle name="Migliaia 42 3 2 3" xfId="3113"/>
-    <cellStyle name="Migliaia 42 3 3" xfId="3112"/>
-    <cellStyle name="Migliaia 42 4" xfId="1028"/>
-    <cellStyle name="Migliaia 42 4 2" xfId="1029"/>
-    <cellStyle name="Migliaia 42 4 2 2" xfId="3115"/>
-    <cellStyle name="Migliaia 42 4 3" xfId="3114"/>
-    <cellStyle name="Migliaia 42 5" xfId="1030"/>
-    <cellStyle name="Migliaia 42 6" xfId="3109"/>
-    <cellStyle name="Migliaia 43" xfId="1031"/>
-    <cellStyle name="Migliaia 43 2" xfId="1032"/>
-    <cellStyle name="Migliaia 43 2 2" xfId="1033"/>
-    <cellStyle name="Migliaia 43 2 2 2" xfId="3118"/>
-    <cellStyle name="Migliaia 43 2 3" xfId="3117"/>
-    <cellStyle name="Migliaia 43 3" xfId="1034"/>
-    <cellStyle name="Migliaia 43 3 2" xfId="1035"/>
-    <cellStyle name="Migliaia 43 3 2 2" xfId="1036"/>
-    <cellStyle name="Migliaia 43 3 2 3" xfId="3120"/>
-    <cellStyle name="Migliaia 43 3 3" xfId="3119"/>
-    <cellStyle name="Migliaia 43 4" xfId="1037"/>
-    <cellStyle name="Migliaia 43 4 2" xfId="1038"/>
-    <cellStyle name="Migliaia 43 4 2 2" xfId="3122"/>
-    <cellStyle name="Migliaia 43 4 3" xfId="3121"/>
-    <cellStyle name="Migliaia 43 5" xfId="1039"/>
-    <cellStyle name="Migliaia 43 6" xfId="3116"/>
-    <cellStyle name="Migliaia 44" xfId="1040"/>
-    <cellStyle name="Migliaia 44 2" xfId="1041"/>
-    <cellStyle name="Migliaia 44 2 2" xfId="1042"/>
-    <cellStyle name="Migliaia 44 2 2 2" xfId="3125"/>
-    <cellStyle name="Migliaia 44 2 3" xfId="3124"/>
-    <cellStyle name="Migliaia 44 3" xfId="1043"/>
-    <cellStyle name="Migliaia 44 3 2" xfId="1044"/>
-    <cellStyle name="Migliaia 44 3 2 2" xfId="1045"/>
-    <cellStyle name="Migliaia 44 3 2 3" xfId="3127"/>
-    <cellStyle name="Migliaia 44 3 3" xfId="3126"/>
-    <cellStyle name="Migliaia 44 4" xfId="1046"/>
-    <cellStyle name="Migliaia 44 4 2" xfId="1047"/>
-    <cellStyle name="Migliaia 44 4 2 2" xfId="3129"/>
-    <cellStyle name="Migliaia 44 4 3" xfId="3128"/>
-    <cellStyle name="Migliaia 44 5" xfId="1048"/>
-    <cellStyle name="Migliaia 44 6" xfId="3123"/>
-    <cellStyle name="Migliaia 45" xfId="1049"/>
-    <cellStyle name="Migliaia 45 2" xfId="1050"/>
-    <cellStyle name="Migliaia 45 2 2" xfId="1051"/>
-    <cellStyle name="Migliaia 45 2 2 2" xfId="3132"/>
-    <cellStyle name="Migliaia 45 2 3" xfId="3131"/>
-    <cellStyle name="Migliaia 45 3" xfId="1052"/>
-    <cellStyle name="Migliaia 45 3 2" xfId="1053"/>
-    <cellStyle name="Migliaia 45 3 2 2" xfId="1054"/>
-    <cellStyle name="Migliaia 45 3 2 3" xfId="3134"/>
-    <cellStyle name="Migliaia 45 3 3" xfId="3133"/>
-    <cellStyle name="Migliaia 45 4" xfId="1055"/>
-    <cellStyle name="Migliaia 45 4 2" xfId="1056"/>
-    <cellStyle name="Migliaia 45 4 2 2" xfId="3136"/>
-    <cellStyle name="Migliaia 45 4 3" xfId="3135"/>
-    <cellStyle name="Migliaia 45 5" xfId="1057"/>
-    <cellStyle name="Migliaia 45 6" xfId="3130"/>
-    <cellStyle name="Migliaia 46" xfId="1058"/>
-    <cellStyle name="Migliaia 46 2" xfId="1059"/>
-    <cellStyle name="Migliaia 46 2 2" xfId="1060"/>
-    <cellStyle name="Migliaia 46 2 2 2" xfId="3139"/>
-    <cellStyle name="Migliaia 46 2 3" xfId="3138"/>
-    <cellStyle name="Migliaia 46 3" xfId="1061"/>
-    <cellStyle name="Migliaia 46 3 2" xfId="1062"/>
-    <cellStyle name="Migliaia 46 3 2 2" xfId="1063"/>
-    <cellStyle name="Migliaia 46 3 2 3" xfId="3141"/>
-    <cellStyle name="Migliaia 46 3 3" xfId="3140"/>
-    <cellStyle name="Migliaia 46 4" xfId="1064"/>
-    <cellStyle name="Migliaia 46 4 2" xfId="1065"/>
-    <cellStyle name="Migliaia 46 4 2 2" xfId="3143"/>
-    <cellStyle name="Migliaia 46 4 3" xfId="3142"/>
-    <cellStyle name="Migliaia 46 5" xfId="1066"/>
-    <cellStyle name="Migliaia 46 6" xfId="3137"/>
-    <cellStyle name="Migliaia 47" xfId="1067"/>
-    <cellStyle name="Migliaia 47 2" xfId="1068"/>
-    <cellStyle name="Migliaia 47 2 2" xfId="1069"/>
-    <cellStyle name="Migliaia 47 2 2 2" xfId="3146"/>
-    <cellStyle name="Migliaia 47 2 3" xfId="3145"/>
-    <cellStyle name="Migliaia 47 3" xfId="1070"/>
-    <cellStyle name="Migliaia 47 3 2" xfId="1071"/>
-    <cellStyle name="Migliaia 47 3 2 2" xfId="1072"/>
-    <cellStyle name="Migliaia 47 3 2 3" xfId="3148"/>
-    <cellStyle name="Migliaia 47 3 3" xfId="3147"/>
-    <cellStyle name="Migliaia 47 4" xfId="1073"/>
-    <cellStyle name="Migliaia 47 4 2" xfId="1074"/>
-    <cellStyle name="Migliaia 47 4 2 2" xfId="3150"/>
-    <cellStyle name="Migliaia 47 4 3" xfId="3149"/>
-    <cellStyle name="Migliaia 47 5" xfId="1075"/>
-    <cellStyle name="Migliaia 47 6" xfId="3144"/>
-    <cellStyle name="Migliaia 48" xfId="1076"/>
-    <cellStyle name="Migliaia 48 2" xfId="1077"/>
-    <cellStyle name="Migliaia 48 2 2" xfId="1078"/>
-    <cellStyle name="Migliaia 48 2 2 2" xfId="3153"/>
-    <cellStyle name="Migliaia 48 2 3" xfId="3152"/>
-    <cellStyle name="Migliaia 48 3" xfId="1079"/>
-    <cellStyle name="Migliaia 48 3 2" xfId="1080"/>
-    <cellStyle name="Migliaia 48 3 2 2" xfId="1081"/>
-    <cellStyle name="Migliaia 48 3 2 3" xfId="3155"/>
-    <cellStyle name="Migliaia 48 3 3" xfId="3154"/>
-    <cellStyle name="Migliaia 48 4" xfId="1082"/>
-    <cellStyle name="Migliaia 48 4 2" xfId="1083"/>
-    <cellStyle name="Migliaia 48 4 2 2" xfId="3157"/>
-    <cellStyle name="Migliaia 48 4 3" xfId="3156"/>
-    <cellStyle name="Migliaia 48 5" xfId="1084"/>
-    <cellStyle name="Migliaia 48 6" xfId="3151"/>
-    <cellStyle name="Migliaia 49" xfId="1085"/>
-    <cellStyle name="Migliaia 49 2" xfId="1086"/>
-    <cellStyle name="Migliaia 49 2 2" xfId="1087"/>
-    <cellStyle name="Migliaia 49 2 2 2" xfId="3160"/>
-    <cellStyle name="Migliaia 49 2 3" xfId="3159"/>
-    <cellStyle name="Migliaia 49 3" xfId="1088"/>
-    <cellStyle name="Migliaia 49 3 2" xfId="1089"/>
-    <cellStyle name="Migliaia 49 3 2 2" xfId="1090"/>
-    <cellStyle name="Migliaia 49 3 2 3" xfId="3162"/>
-    <cellStyle name="Migliaia 49 3 3" xfId="3161"/>
-    <cellStyle name="Migliaia 49 4" xfId="1091"/>
-    <cellStyle name="Migliaia 49 4 2" xfId="1092"/>
-    <cellStyle name="Migliaia 49 4 2 2" xfId="3164"/>
-    <cellStyle name="Migliaia 49 4 3" xfId="3163"/>
-    <cellStyle name="Migliaia 49 5" xfId="1093"/>
-    <cellStyle name="Migliaia 49 6" xfId="3158"/>
-    <cellStyle name="Migliaia 5" xfId="1094"/>
-    <cellStyle name="Migliaia 5 2" xfId="1095"/>
-    <cellStyle name="Migliaia 5 2 2" xfId="1096"/>
-    <cellStyle name="Migliaia 5 2 2 2" xfId="3167"/>
-    <cellStyle name="Migliaia 5 2 3" xfId="3166"/>
-    <cellStyle name="Migliaia 5 3" xfId="1097"/>
-    <cellStyle name="Migliaia 5 3 2" xfId="1098"/>
-    <cellStyle name="Migliaia 5 3 2 2" xfId="1099"/>
-    <cellStyle name="Migliaia 5 3 2 3" xfId="3169"/>
-    <cellStyle name="Migliaia 5 3 3" xfId="3168"/>
-    <cellStyle name="Migliaia 5 4" xfId="1100"/>
-    <cellStyle name="Migliaia 5 4 2" xfId="1101"/>
-    <cellStyle name="Migliaia 5 4 2 2" xfId="3171"/>
-    <cellStyle name="Migliaia 5 4 3" xfId="3170"/>
-    <cellStyle name="Migliaia 5 5" xfId="1102"/>
-    <cellStyle name="Migliaia 5 6" xfId="3165"/>
-    <cellStyle name="Migliaia 50" xfId="1103"/>
-    <cellStyle name="Migliaia 50 2" xfId="1104"/>
-    <cellStyle name="Migliaia 50 2 2" xfId="1105"/>
-    <cellStyle name="Migliaia 50 2 2 2" xfId="3174"/>
-    <cellStyle name="Migliaia 50 2 3" xfId="3173"/>
-    <cellStyle name="Migliaia 50 3" xfId="1106"/>
-    <cellStyle name="Migliaia 50 3 2" xfId="1107"/>
-    <cellStyle name="Migliaia 50 3 2 2" xfId="1108"/>
-    <cellStyle name="Migliaia 50 3 2 3" xfId="3176"/>
-    <cellStyle name="Migliaia 50 3 3" xfId="3175"/>
-    <cellStyle name="Migliaia 50 4" xfId="1109"/>
-    <cellStyle name="Migliaia 50 4 2" xfId="1110"/>
-    <cellStyle name="Migliaia 50 4 2 2" xfId="3178"/>
-    <cellStyle name="Migliaia 50 4 3" xfId="3177"/>
-    <cellStyle name="Migliaia 50 5" xfId="1111"/>
-    <cellStyle name="Migliaia 50 6" xfId="3172"/>
-    <cellStyle name="Migliaia 51" xfId="1112"/>
-    <cellStyle name="Migliaia 51 2" xfId="1113"/>
-    <cellStyle name="Migliaia 51 2 2" xfId="1114"/>
-    <cellStyle name="Migliaia 51 2 2 2" xfId="3181"/>
-    <cellStyle name="Migliaia 51 2 3" xfId="3180"/>
-    <cellStyle name="Migliaia 51 3" xfId="1115"/>
-    <cellStyle name="Migliaia 51 3 2" xfId="1116"/>
-    <cellStyle name="Migliaia 51 3 2 2" xfId="1117"/>
-    <cellStyle name="Migliaia 51 3 2 3" xfId="3183"/>
-    <cellStyle name="Migliaia 51 3 3" xfId="3182"/>
-    <cellStyle name="Migliaia 51 4" xfId="1118"/>
-    <cellStyle name="Migliaia 51 4 2" xfId="1119"/>
-    <cellStyle name="Migliaia 51 4 2 2" xfId="3185"/>
-    <cellStyle name="Migliaia 51 4 3" xfId="3184"/>
-    <cellStyle name="Migliaia 51 5" xfId="1120"/>
-    <cellStyle name="Migliaia 51 6" xfId="3179"/>
-    <cellStyle name="Migliaia 52" xfId="1121"/>
-    <cellStyle name="Migliaia 52 2" xfId="1122"/>
-    <cellStyle name="Migliaia 52 2 2" xfId="1123"/>
-    <cellStyle name="Migliaia 52 2 2 2" xfId="3188"/>
-    <cellStyle name="Migliaia 52 2 3" xfId="3187"/>
-    <cellStyle name="Migliaia 52 3" xfId="1124"/>
-    <cellStyle name="Migliaia 52 3 2" xfId="1125"/>
-    <cellStyle name="Migliaia 52 3 2 2" xfId="1126"/>
-    <cellStyle name="Migliaia 52 3 2 3" xfId="3190"/>
-    <cellStyle name="Migliaia 52 3 3" xfId="3189"/>
-    <cellStyle name="Migliaia 52 4" xfId="1127"/>
-    <cellStyle name="Migliaia 52 4 2" xfId="1128"/>
-    <cellStyle name="Migliaia 52 4 2 2" xfId="3192"/>
-    <cellStyle name="Migliaia 52 4 3" xfId="3191"/>
-    <cellStyle name="Migliaia 52 5" xfId="1129"/>
-    <cellStyle name="Migliaia 52 6" xfId="3186"/>
-    <cellStyle name="Migliaia 53" xfId="1130"/>
-    <cellStyle name="Migliaia 53 2" xfId="1131"/>
-    <cellStyle name="Migliaia 53 2 2" xfId="1132"/>
-    <cellStyle name="Migliaia 53 2 2 2" xfId="3195"/>
-    <cellStyle name="Migliaia 53 2 3" xfId="3194"/>
-    <cellStyle name="Migliaia 53 3" xfId="1133"/>
-    <cellStyle name="Migliaia 53 3 2" xfId="1134"/>
-    <cellStyle name="Migliaia 53 3 2 2" xfId="1135"/>
-    <cellStyle name="Migliaia 53 3 2 3" xfId="3197"/>
-    <cellStyle name="Migliaia 53 3 3" xfId="3196"/>
-    <cellStyle name="Migliaia 53 4" xfId="1136"/>
-    <cellStyle name="Migliaia 53 4 2" xfId="1137"/>
-    <cellStyle name="Migliaia 53 4 2 2" xfId="3199"/>
-    <cellStyle name="Migliaia 53 4 3" xfId="3198"/>
-    <cellStyle name="Migliaia 53 5" xfId="1138"/>
-    <cellStyle name="Migliaia 53 6" xfId="3193"/>
-    <cellStyle name="Migliaia 54" xfId="1139"/>
-    <cellStyle name="Migliaia 54 2" xfId="1140"/>
-    <cellStyle name="Migliaia 54 2 2" xfId="1141"/>
-    <cellStyle name="Migliaia 54 2 2 2" xfId="3202"/>
-    <cellStyle name="Migliaia 54 2 3" xfId="3201"/>
-    <cellStyle name="Migliaia 54 3" xfId="1142"/>
-    <cellStyle name="Migliaia 54 3 2" xfId="1143"/>
-    <cellStyle name="Migliaia 54 3 2 2" xfId="1144"/>
-    <cellStyle name="Migliaia 54 3 2 3" xfId="3204"/>
-    <cellStyle name="Migliaia 54 3 3" xfId="3203"/>
-    <cellStyle name="Migliaia 54 4" xfId="1145"/>
-    <cellStyle name="Migliaia 54 4 2" xfId="1146"/>
-    <cellStyle name="Migliaia 54 4 2 2" xfId="3206"/>
-    <cellStyle name="Migliaia 54 4 3" xfId="3205"/>
-    <cellStyle name="Migliaia 54 5" xfId="1147"/>
-    <cellStyle name="Migliaia 54 6" xfId="3200"/>
-    <cellStyle name="Migliaia 55" xfId="1148"/>
-    <cellStyle name="Migliaia 55 2" xfId="1149"/>
-    <cellStyle name="Migliaia 55 2 2" xfId="1150"/>
-    <cellStyle name="Migliaia 55 2 2 2" xfId="3209"/>
-    <cellStyle name="Migliaia 55 2 3" xfId="3208"/>
-    <cellStyle name="Migliaia 55 3" xfId="1151"/>
-    <cellStyle name="Migliaia 55 3 2" xfId="1152"/>
-    <cellStyle name="Migliaia 55 3 2 2" xfId="1153"/>
-    <cellStyle name="Migliaia 55 3 2 3" xfId="3211"/>
-    <cellStyle name="Migliaia 55 3 3" xfId="3210"/>
-    <cellStyle name="Migliaia 55 4" xfId="1154"/>
-    <cellStyle name="Migliaia 55 4 2" xfId="1155"/>
-    <cellStyle name="Migliaia 55 4 2 2" xfId="3213"/>
-    <cellStyle name="Migliaia 55 4 3" xfId="3212"/>
-    <cellStyle name="Migliaia 55 5" xfId="1156"/>
-    <cellStyle name="Migliaia 55 6" xfId="3207"/>
-    <cellStyle name="Migliaia 56" xfId="1157"/>
-    <cellStyle name="Migliaia 56 2" xfId="1158"/>
-    <cellStyle name="Migliaia 56 2 2" xfId="1159"/>
-    <cellStyle name="Migliaia 56 2 2 2" xfId="3216"/>
-    <cellStyle name="Migliaia 56 2 3" xfId="3215"/>
-    <cellStyle name="Migliaia 56 3" xfId="1160"/>
-    <cellStyle name="Migliaia 56 3 2" xfId="1161"/>
-    <cellStyle name="Migliaia 56 3 2 2" xfId="1162"/>
-    <cellStyle name="Migliaia 56 3 2 3" xfId="3218"/>
-    <cellStyle name="Migliaia 56 3 3" xfId="3217"/>
-    <cellStyle name="Migliaia 56 4" xfId="1163"/>
-    <cellStyle name="Migliaia 56 4 2" xfId="1164"/>
-    <cellStyle name="Migliaia 56 4 2 2" xfId="3220"/>
-    <cellStyle name="Migliaia 56 4 3" xfId="3219"/>
-    <cellStyle name="Migliaia 56 5" xfId="1165"/>
-    <cellStyle name="Migliaia 56 6" xfId="3214"/>
-    <cellStyle name="Migliaia 57" xfId="1166"/>
-    <cellStyle name="Migliaia 57 2" xfId="1167"/>
-    <cellStyle name="Migliaia 57 2 2" xfId="1168"/>
-    <cellStyle name="Migliaia 57 2 2 2" xfId="3223"/>
-    <cellStyle name="Migliaia 57 2 3" xfId="3222"/>
-    <cellStyle name="Migliaia 57 3" xfId="1169"/>
-    <cellStyle name="Migliaia 57 3 2" xfId="1170"/>
-    <cellStyle name="Migliaia 57 3 2 2" xfId="1171"/>
-    <cellStyle name="Migliaia 57 3 2 3" xfId="3225"/>
-    <cellStyle name="Migliaia 57 3 3" xfId="3224"/>
-    <cellStyle name="Migliaia 57 4" xfId="1172"/>
-    <cellStyle name="Migliaia 57 4 2" xfId="1173"/>
-    <cellStyle name="Migliaia 57 4 2 2" xfId="3227"/>
-    <cellStyle name="Migliaia 57 4 3" xfId="3226"/>
-    <cellStyle name="Migliaia 57 5" xfId="1174"/>
-    <cellStyle name="Migliaia 57 6" xfId="3221"/>
-    <cellStyle name="Migliaia 58" xfId="1175"/>
-    <cellStyle name="Migliaia 58 2" xfId="1176"/>
-    <cellStyle name="Migliaia 58 2 2" xfId="1177"/>
-    <cellStyle name="Migliaia 58 2 2 2" xfId="3230"/>
-    <cellStyle name="Migliaia 58 2 3" xfId="3229"/>
-    <cellStyle name="Migliaia 58 3" xfId="1178"/>
-    <cellStyle name="Migliaia 58 3 2" xfId="1179"/>
-    <cellStyle name="Migliaia 58 3 2 2" xfId="1180"/>
-    <cellStyle name="Migliaia 58 3 2 3" xfId="3232"/>
-    <cellStyle name="Migliaia 58 3 3" xfId="3231"/>
-    <cellStyle name="Migliaia 58 4" xfId="1181"/>
-    <cellStyle name="Migliaia 58 4 2" xfId="1182"/>
-    <cellStyle name="Migliaia 58 4 2 2" xfId="3234"/>
-    <cellStyle name="Migliaia 58 4 3" xfId="3233"/>
-    <cellStyle name="Migliaia 58 5" xfId="1183"/>
-    <cellStyle name="Migliaia 58 6" xfId="3228"/>
-    <cellStyle name="Migliaia 59" xfId="1184"/>
-    <cellStyle name="Migliaia 59 2" xfId="1185"/>
-    <cellStyle name="Migliaia 59 2 2" xfId="1186"/>
-    <cellStyle name="Migliaia 59 2 2 2" xfId="3237"/>
-    <cellStyle name="Migliaia 59 2 3" xfId="3236"/>
-    <cellStyle name="Migliaia 59 3" xfId="1187"/>
-    <cellStyle name="Migliaia 59 3 2" xfId="1188"/>
-    <cellStyle name="Migliaia 59 3 2 2" xfId="1189"/>
-    <cellStyle name="Migliaia 59 3 2 3" xfId="3239"/>
-    <cellStyle name="Migliaia 59 3 3" xfId="3238"/>
-    <cellStyle name="Migliaia 59 4" xfId="1190"/>
-    <cellStyle name="Migliaia 59 4 2" xfId="1191"/>
-    <cellStyle name="Migliaia 59 4 2 2" xfId="3241"/>
-    <cellStyle name="Migliaia 59 4 3" xfId="3240"/>
-    <cellStyle name="Migliaia 59 5" xfId="1192"/>
-    <cellStyle name="Migliaia 59 6" xfId="3235"/>
-    <cellStyle name="Migliaia 6" xfId="1193"/>
-    <cellStyle name="Migliaia 6 2" xfId="1194"/>
-    <cellStyle name="Migliaia 6 2 2" xfId="1195"/>
-    <cellStyle name="Migliaia 6 2 2 2" xfId="3244"/>
-    <cellStyle name="Migliaia 6 2 3" xfId="3243"/>
-    <cellStyle name="Migliaia 6 3" xfId="1196"/>
-    <cellStyle name="Migliaia 6 3 2" xfId="1197"/>
-    <cellStyle name="Migliaia 6 3 2 2" xfId="1198"/>
-    <cellStyle name="Migliaia 6 3 2 3" xfId="3246"/>
-    <cellStyle name="Migliaia 6 3 3" xfId="3245"/>
-    <cellStyle name="Migliaia 6 4" xfId="1199"/>
-    <cellStyle name="Migliaia 6 4 2" xfId="1200"/>
-    <cellStyle name="Migliaia 6 4 2 2" xfId="3248"/>
-    <cellStyle name="Migliaia 6 4 3" xfId="3247"/>
-    <cellStyle name="Migliaia 6 5" xfId="1201"/>
-    <cellStyle name="Migliaia 6 6" xfId="3242"/>
-    <cellStyle name="Migliaia 60" xfId="1202"/>
-    <cellStyle name="Migliaia 60 2" xfId="1203"/>
-    <cellStyle name="Migliaia 60 2 2" xfId="1204"/>
-    <cellStyle name="Migliaia 60 2 2 2" xfId="3251"/>
-    <cellStyle name="Migliaia 60 2 3" xfId="3250"/>
-    <cellStyle name="Migliaia 60 3" xfId="1205"/>
-    <cellStyle name="Migliaia 60 3 2" xfId="1206"/>
-    <cellStyle name="Migliaia 60 3 2 2" xfId="1207"/>
-    <cellStyle name="Migliaia 60 3 2 3" xfId="3253"/>
-    <cellStyle name="Migliaia 60 3 3" xfId="3252"/>
-    <cellStyle name="Migliaia 60 4" xfId="1208"/>
-    <cellStyle name="Migliaia 60 4 2" xfId="1209"/>
-    <cellStyle name="Migliaia 60 4 2 2" xfId="3255"/>
-    <cellStyle name="Migliaia 60 4 3" xfId="3254"/>
-    <cellStyle name="Migliaia 60 5" xfId="1210"/>
-    <cellStyle name="Migliaia 60 6" xfId="3249"/>
-    <cellStyle name="Migliaia 61" xfId="1211"/>
-    <cellStyle name="Migliaia 61 2" xfId="1212"/>
-    <cellStyle name="Migliaia 61 2 2" xfId="1213"/>
-    <cellStyle name="Migliaia 61 2 2 2" xfId="3258"/>
-    <cellStyle name="Migliaia 61 2 3" xfId="3257"/>
-    <cellStyle name="Migliaia 61 3" xfId="1214"/>
-    <cellStyle name="Migliaia 61 3 2" xfId="1215"/>
-    <cellStyle name="Migliaia 61 3 2 2" xfId="1216"/>
-    <cellStyle name="Migliaia 61 3 2 3" xfId="3260"/>
-    <cellStyle name="Migliaia 61 3 3" xfId="3259"/>
-    <cellStyle name="Migliaia 61 4" xfId="1217"/>
-    <cellStyle name="Migliaia 61 4 2" xfId="1218"/>
-    <cellStyle name="Migliaia 61 4 2 2" xfId="3262"/>
-    <cellStyle name="Migliaia 61 4 3" xfId="3261"/>
-    <cellStyle name="Migliaia 61 5" xfId="1219"/>
-    <cellStyle name="Migliaia 61 6" xfId="3256"/>
-    <cellStyle name="Migliaia 7" xfId="1220"/>
-    <cellStyle name="Migliaia 7 2" xfId="1221"/>
-    <cellStyle name="Migliaia 7 2 2" xfId="1222"/>
-    <cellStyle name="Migliaia 7 2 2 2" xfId="3265"/>
-    <cellStyle name="Migliaia 7 2 3" xfId="3264"/>
-    <cellStyle name="Migliaia 7 3" xfId="1223"/>
-    <cellStyle name="Migliaia 7 3 2" xfId="1224"/>
-    <cellStyle name="Migliaia 7 3 2 2" xfId="1225"/>
-    <cellStyle name="Migliaia 7 3 2 3" xfId="3267"/>
-    <cellStyle name="Migliaia 7 3 3" xfId="3266"/>
-    <cellStyle name="Migliaia 7 4" xfId="1226"/>
-    <cellStyle name="Migliaia 7 4 2" xfId="1227"/>
-    <cellStyle name="Migliaia 7 4 2 2" xfId="3269"/>
-    <cellStyle name="Migliaia 7 4 3" xfId="3268"/>
-    <cellStyle name="Migliaia 7 5" xfId="1228"/>
-    <cellStyle name="Migliaia 7 6" xfId="3263"/>
-    <cellStyle name="Migliaia 8" xfId="1229"/>
-    <cellStyle name="Migliaia 8 2" xfId="1230"/>
-    <cellStyle name="Migliaia 8 2 2" xfId="1231"/>
-    <cellStyle name="Migliaia 8 2 2 2" xfId="3272"/>
-    <cellStyle name="Migliaia 8 2 3" xfId="3271"/>
-    <cellStyle name="Migliaia 8 3" xfId="1232"/>
-    <cellStyle name="Migliaia 8 3 2" xfId="1233"/>
-    <cellStyle name="Migliaia 8 3 2 2" xfId="1234"/>
-    <cellStyle name="Migliaia 8 3 2 3" xfId="3274"/>
-    <cellStyle name="Migliaia 8 3 3" xfId="3273"/>
-    <cellStyle name="Migliaia 8 4" xfId="1235"/>
-    <cellStyle name="Migliaia 8 4 2" xfId="1236"/>
-    <cellStyle name="Migliaia 8 4 2 2" xfId="3276"/>
-    <cellStyle name="Migliaia 8 4 3" xfId="3275"/>
-    <cellStyle name="Migliaia 8 5" xfId="1237"/>
-    <cellStyle name="Migliaia 8 6" xfId="3270"/>
-    <cellStyle name="Migliaia 9" xfId="1238"/>
-    <cellStyle name="Migliaia 9 2" xfId="1239"/>
-    <cellStyle name="Migliaia 9 2 2" xfId="1240"/>
-    <cellStyle name="Migliaia 9 2 2 2" xfId="3279"/>
-    <cellStyle name="Migliaia 9 2 3" xfId="3278"/>
-    <cellStyle name="Migliaia 9 3" xfId="1241"/>
-    <cellStyle name="Migliaia 9 3 2" xfId="1242"/>
-    <cellStyle name="Migliaia 9 3 2 2" xfId="1243"/>
-    <cellStyle name="Migliaia 9 3 2 3" xfId="3281"/>
-    <cellStyle name="Migliaia 9 3 3" xfId="3280"/>
-    <cellStyle name="Migliaia 9 4" xfId="1244"/>
-    <cellStyle name="Migliaia 9 4 2" xfId="1245"/>
-    <cellStyle name="Migliaia 9 4 2 2" xfId="3283"/>
-    <cellStyle name="Migliaia 9 4 3" xfId="3282"/>
-    <cellStyle name="Migliaia 9 5" xfId="1246"/>
-    <cellStyle name="Migliaia 9 6" xfId="3277"/>
-    <cellStyle name="Neutral 2" xfId="1247"/>
-    <cellStyle name="Neutrale" xfId="1248"/>
+    <cellStyle name="20 % - Markeringsfarve1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20 % - Markeringsfarve1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20 % - Markeringsfarve2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20 % - Markeringsfarve2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20 % - Markeringsfarve3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20 % - Markeringsfarve3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20 % - Markeringsfarve4" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20 % - Markeringsfarve4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20 % - Markeringsfarve5" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20 % - Markeringsfarve5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20 % - Markeringsfarve6" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20 % - Markeringsfarve6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Colore 1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Colore 1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Colore 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Colore 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Colore 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Colore 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Colore 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Colore 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Colore 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Colore 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Colore 6" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Colore 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40 % - Markeringsfarve1" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40 % - Markeringsfarve1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40 % - Markeringsfarve2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40 % - Markeringsfarve2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40 % - Markeringsfarve3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40 % - Markeringsfarve3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40 % - Markeringsfarve4" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40 % - Markeringsfarve4 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40 % - Markeringsfarve5" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40 % - Markeringsfarve5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40 % - Markeringsfarve6" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40 % - Markeringsfarve6 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - Colore 1" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="40% - Colore 1 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - Colore 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - Colore 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - Colore 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - Colore 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - Colore 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - Colore 4 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - Colore 5" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - Colore 5 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - Colore 6" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="40% - Colore 6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="5x indented GHG Textfiels 2" xfId="2583" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60 % - Markeringsfarve1" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60 % - Markeringsfarve2" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60 % - Markeringsfarve3" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="60 % - Markeringsfarve4" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="60 % - Markeringsfarve5" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="60 % - Markeringsfarve6" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="60% - Colore 1" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="60% - Colore 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="60% - Colore 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="60% - Colore 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="60% - Colore 5" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="60% - Colore 6" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="AggOrange_CRFReport-template" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="AggOrange9_CRFReport-template" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Bad 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Bad 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Bad 4" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Calcolo" xfId="67" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Calcolo 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Calcolo 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Calcolo 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Calculation 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Cella collegata" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Cella da controllare" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Colore 1" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Colore 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Colore 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Colore 4" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Colore 5" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Colore 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Comma 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Comma 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Comma 2 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Comma 2 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Comma 2 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Comma 2 3 2 3" xfId="2585" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Comma 2 3 3" xfId="2584" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Comma 2 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Comma 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Comma 3 2" xfId="2586" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Comma 4" xfId="87" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Comma 4 2" xfId="88" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Comma 4 2 2" xfId="2588" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Comma 4 3" xfId="2587" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Comma 5" xfId="89" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Comma 6" xfId="90" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Comma 6 2" xfId="2589" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Comma 7" xfId="2581" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Comma0 - Type3" xfId="91" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="CustomizationCells" xfId="92" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="CustomizationCells 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Euro" xfId="94" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Euro 10" xfId="95" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Euro 10 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Euro 10 2 2" xfId="2592" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Euro 10 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Euro 10 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Euro 10 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Euro 10 3 2 3" xfId="2594" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Euro 10 3 3" xfId="2593" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Euro 10 4" xfId="100" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Euro 10 4 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Euro 10 4 2 2" xfId="2596" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Euro 10 4 3" xfId="2595" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Euro 10 5" xfId="102" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Euro 10 6" xfId="2591" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Euro 11" xfId="103" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Euro 11 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Euro 11 2 2" xfId="2598" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Euro 11 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Euro 11 3 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Euro 11 3 2 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Euro 11 3 2 3" xfId="2600" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Euro 11 3 3" xfId="2599" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Euro 11 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Euro 11 4 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Euro 11 4 2 2" xfId="2602" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Euro 11 4 3" xfId="2601" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Euro 11 5" xfId="110" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Euro 11 6" xfId="2597" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Euro 12" xfId="111" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Euro 12 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Euro 12 2 2" xfId="2604" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Euro 12 3" xfId="113" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Euro 12 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Euro 12 3 2 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Euro 12 3 2 3" xfId="2606" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Euro 12 3 3" xfId="2605" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Euro 12 4" xfId="116" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Euro 12 4 2" xfId="117" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Euro 12 4 2 2" xfId="2608" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Euro 12 4 3" xfId="2607" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Euro 12 5" xfId="118" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Euro 12 6" xfId="2603" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Euro 13" xfId="119" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Euro 13 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Euro 13 2 2" xfId="2610" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Euro 13 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Euro 13 3 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Euro 13 3 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Euro 13 3 2 3" xfId="2612" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Euro 13 3 3" xfId="2611" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Euro 13 4" xfId="124" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Euro 13 4 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Euro 13 4 2 2" xfId="2614" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Euro 13 4 3" xfId="2613" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Euro 13 5" xfId="126" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Euro 13 6" xfId="2609" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Euro 14" xfId="127" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Euro 14 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Euro 14 2 2" xfId="2616" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Euro 14 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Euro 14 3 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Euro 14 3 2 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Euro 14 3 2 3" xfId="2618" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Euro 14 3 3" xfId="2617" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Euro 14 4" xfId="132" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Euro 14 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Euro 14 4 2 2" xfId="2620" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Euro 14 4 3" xfId="2619" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Euro 14 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Euro 14 6" xfId="2615" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Euro 15" xfId="135" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Euro 15 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Euro 15 2 2" xfId="2622" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Euro 15 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Euro 15 3 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Euro 15 3 2 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Euro 15 3 2 3" xfId="2624" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Euro 15 3 3" xfId="2623" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Euro 15 4" xfId="140" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Euro 15 4 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Euro 15 4 2 2" xfId="2626" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Euro 15 4 3" xfId="2625" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Euro 15 5" xfId="142" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Euro 15 6" xfId="2621" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Euro 16" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Euro 16 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Euro 16 2 2" xfId="2628" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Euro 16 3" xfId="145" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Euro 16 3 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Euro 16 3 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Euro 16 3 2 3" xfId="2630" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Euro 16 3 3" xfId="2629" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Euro 16 4" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Euro 16 4 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Euro 16 4 2 2" xfId="2632" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Euro 16 4 3" xfId="2631" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Euro 16 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Euro 16 6" xfId="2627" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Euro 17" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Euro 17 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Euro 17 2 2" xfId="2634" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Euro 17 3" xfId="153" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Euro 17 3 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Euro 17 3 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Euro 17 3 2 3" xfId="2636" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Euro 17 3 3" xfId="2635" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Euro 17 4" xfId="156" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Euro 17 4 2" xfId="157" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Euro 17 4 2 2" xfId="2638" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Euro 17 4 3" xfId="2637" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Euro 17 5" xfId="158" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Euro 17 6" xfId="2633" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Euro 18" xfId="159" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Euro 18 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Euro 18 2 2" xfId="2640" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Euro 18 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Euro 18 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Euro 18 3 2 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Euro 18 3 2 3" xfId="2642" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Euro 18 3 3" xfId="2641" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Euro 18 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Euro 18 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Euro 18 4 2 2" xfId="2644" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Euro 18 4 3" xfId="2643" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Euro 18 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Euro 18 6" xfId="2639" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Euro 19" xfId="167" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Euro 19 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Euro 19 2 2" xfId="2646" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Euro 19 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Euro 19 3 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Euro 19 3 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Euro 19 3 2 3" xfId="2648" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Euro 19 3 3" xfId="2647" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Euro 19 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Euro 19 4 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Euro 19 4 2 2" xfId="2650" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Euro 19 4 3" xfId="2649" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Euro 19 5" xfId="174" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Euro 19 6" xfId="2645" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Euro 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Euro 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Euro 2 2 2" xfId="2652" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Euro 2 3" xfId="177" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Euro 2 3 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Euro 2 3 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Euro 2 3 2 3" xfId="2654" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Euro 2 3 3" xfId="2653" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Euro 2 4" xfId="180" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Euro 2 4 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Euro 2 4 2 2" xfId="2656" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Euro 2 4 3" xfId="2655" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Euro 2 5" xfId="182" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Euro 2 6" xfId="2651" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Euro 20" xfId="183" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Euro 20 2" xfId="184" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Euro 20 2 2" xfId="2658" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Euro 20 3" xfId="185" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Euro 20 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Euro 20 3 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Euro 20 3 2 3" xfId="2660" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Euro 20 3 3" xfId="2659" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Euro 20 4" xfId="188" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Euro 20 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Euro 20 4 2 2" xfId="2662" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Euro 20 4 3" xfId="2661" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Euro 20 5" xfId="190" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Euro 20 6" xfId="2657" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Euro 21" xfId="191" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Euro 21 2" xfId="192" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Euro 21 2 2" xfId="2664" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Euro 21 3" xfId="193" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Euro 21 3 2" xfId="194" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Euro 21 3 2 2" xfId="195" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Euro 21 3 2 3" xfId="2666" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Euro 21 3 3" xfId="2665" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Euro 21 4" xfId="196" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Euro 21 4 2" xfId="197" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="Euro 21 4 2 2" xfId="2668" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Euro 21 4 3" xfId="2667" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Euro 21 5" xfId="198" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Euro 21 6" xfId="2663" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Euro 22" xfId="199" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Euro 22 2" xfId="200" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Euro 22 2 2" xfId="2670" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Euro 22 3" xfId="201" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Euro 22 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Euro 22 3 2 2" xfId="203" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Euro 22 3 2 3" xfId="2672" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Euro 22 3 3" xfId="2671" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Euro 22 4" xfId="204" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Euro 22 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Euro 22 4 2 2" xfId="2674" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Euro 22 4 3" xfId="2673" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Euro 22 5" xfId="206" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Euro 22 6" xfId="2669" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Euro 23" xfId="207" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Euro 23 2" xfId="208" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Euro 23 2 2" xfId="2676" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Euro 23 3" xfId="209" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Euro 23 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Euro 23 3 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Euro 23 3 2 3" xfId="2678" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Euro 23 3 3" xfId="2677" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Euro 23 4" xfId="212" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Euro 23 4 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Euro 23 4 2 2" xfId="2680" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Euro 23 4 3" xfId="2679" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Euro 23 5" xfId="214" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Euro 23 6" xfId="2675" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Euro 24" xfId="215" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Euro 24 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Euro 24 2 2" xfId="2682" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Euro 24 3" xfId="217" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Euro 24 3 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Euro 24 3 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Euro 24 3 2 3" xfId="2684" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Euro 24 3 3" xfId="2683" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Euro 24 4" xfId="220" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Euro 24 4 2" xfId="221" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Euro 24 4 2 2" xfId="2686" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Euro 24 4 3" xfId="2685" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Euro 24 5" xfId="222" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Euro 24 6" xfId="2681" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Euro 25" xfId="223" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Euro 25 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Euro 25 2 2" xfId="2688" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Euro 25 3" xfId="225" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Euro 25 3 2" xfId="226" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Euro 25 3 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Euro 25 3 2 3" xfId="2690" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Euro 25 3 3" xfId="2689" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Euro 25 4" xfId="228" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Euro 25 4 2" xfId="229" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Euro 25 4 2 2" xfId="2692" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Euro 25 4 3" xfId="2691" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Euro 25 5" xfId="230" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Euro 25 6" xfId="2687" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Euro 26" xfId="231" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Euro 26 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Euro 26 2 2" xfId="2694" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Euro 26 3" xfId="233" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Euro 26 3 2" xfId="234" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Euro 26 3 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Euro 26 3 2 3" xfId="2696" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Euro 26 3 3" xfId="2695" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Euro 26 4" xfId="236" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Euro 26 4 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Euro 26 4 2 2" xfId="2698" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Euro 26 4 3" xfId="2697" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Euro 26 5" xfId="238" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Euro 26 6" xfId="2693" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Euro 27" xfId="239" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Euro 27 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Euro 27 2 2" xfId="2700" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Euro 27 3" xfId="241" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Euro 27 3 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Euro 27 3 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Euro 27 3 2 3" xfId="2702" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Euro 27 3 3" xfId="2701" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Euro 27 4" xfId="244" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Euro 27 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Euro 27 4 2 2" xfId="2704" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Euro 27 4 3" xfId="2703" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Euro 27 5" xfId="246" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Euro 27 6" xfId="2699" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Euro 28" xfId="247" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Euro 28 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Euro 28 2 2" xfId="2706" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Euro 28 3" xfId="249" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Euro 28 3 2" xfId="250" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Euro 28 3 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Euro 28 3 2 3" xfId="2708" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Euro 28 3 3" xfId="2707" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Euro 28 4" xfId="252" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Euro 28 4 2" xfId="253" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Euro 28 4 2 2" xfId="2710" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Euro 28 4 3" xfId="2709" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Euro 28 5" xfId="254" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Euro 28 6" xfId="2705" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Euro 29" xfId="255" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Euro 29 2" xfId="256" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Euro 29 2 2" xfId="2712" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Euro 29 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Euro 29 3 2" xfId="258" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Euro 29 3 2 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Euro 29 3 2 3" xfId="2714" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Euro 29 3 3" xfId="2713" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Euro 29 4" xfId="260" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Euro 29 4 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Euro 29 4 2 2" xfId="2716" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Euro 29 4 3" xfId="2715" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Euro 29 5" xfId="262" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Euro 29 6" xfId="2711" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Euro 3" xfId="263" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Euro 3 2" xfId="264" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Euro 3 2 2" xfId="2718" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Euro 3 3" xfId="265" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="Euro 3 3 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Euro 3 3 2 2" xfId="267" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Euro 3 3 2 3" xfId="2720" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Euro 3 3 3" xfId="2719" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Euro 3 4" xfId="268" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Euro 3 4 2" xfId="269" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Euro 3 4 2 2" xfId="2722" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Euro 3 4 3" xfId="2721" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Euro 3 5" xfId="270" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Euro 3 6" xfId="2717" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Euro 30" xfId="271" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Euro 30 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Euro 30 2 2" xfId="2724" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Euro 30 3" xfId="273" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Euro 30 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Euro 30 3 2 2" xfId="275" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Euro 30 3 2 3" xfId="2726" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Euro 30 3 3" xfId="2725" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Euro 30 4" xfId="276" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Euro 30 4 2" xfId="277" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Euro 30 4 2 2" xfId="2728" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Euro 30 4 3" xfId="2727" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Euro 30 5" xfId="278" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Euro 30 6" xfId="2723" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Euro 31" xfId="279" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="Euro 31 2" xfId="280" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="Euro 31 2 2" xfId="2730" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Euro 31 3" xfId="281" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Euro 31 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Euro 31 3 2 2" xfId="283" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Euro 31 3 2 3" xfId="2732" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Euro 31 3 3" xfId="2731" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="Euro 31 4" xfId="284" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="Euro 31 4 2" xfId="285" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="Euro 31 4 2 2" xfId="2734" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Euro 31 4 3" xfId="2733" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Euro 31 5" xfId="286" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Euro 31 6" xfId="2729" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Euro 32" xfId="287" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Euro 32 2" xfId="288" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Euro 32 2 2" xfId="2736" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Euro 32 3" xfId="289" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="Euro 32 3 2" xfId="290" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="Euro 32 3 2 2" xfId="291" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="Euro 32 3 2 3" xfId="2738" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Euro 32 3 3" xfId="2737" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Euro 32 4" xfId="292" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="Euro 32 4 2" xfId="293" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="Euro 32 4 2 2" xfId="2740" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Euro 32 4 3" xfId="2739" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Euro 32 5" xfId="294" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="Euro 32 6" xfId="2735" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Euro 33" xfId="295" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="Euro 33 2" xfId="296" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Euro 33 2 2" xfId="2742" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Euro 33 3" xfId="297" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Euro 33 3 2" xfId="298" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Euro 33 3 2 2" xfId="299" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="Euro 33 3 2 3" xfId="2744" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Euro 33 3 3" xfId="2743" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Euro 33 4" xfId="300" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Euro 33 4 2" xfId="301" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Euro 33 4 2 2" xfId="2746" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Euro 33 4 3" xfId="2745" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Euro 33 5" xfId="302" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Euro 33 6" xfId="2741" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Euro 34" xfId="303" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="Euro 34 2" xfId="304" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Euro 34 2 2" xfId="2748" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Euro 34 3" xfId="305" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Euro 34 3 2" xfId="306" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Euro 34 3 2 2" xfId="307" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Euro 34 3 2 3" xfId="2750" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Euro 34 3 3" xfId="2749" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Euro 34 4" xfId="308" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Euro 34 4 2" xfId="309" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Euro 34 4 2 2" xfId="2752" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Euro 34 4 3" xfId="2751" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Euro 34 5" xfId="310" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Euro 34 6" xfId="2747" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Euro 35" xfId="311" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Euro 35 2" xfId="312" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Euro 35 2 2" xfId="2754" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Euro 35 3" xfId="313" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Euro 35 3 2" xfId="314" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Euro 35 3 2 2" xfId="315" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Euro 35 3 2 3" xfId="2756" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Euro 35 3 3" xfId="2755" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Euro 35 4" xfId="316" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Euro 35 4 2" xfId="317" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Euro 35 4 2 2" xfId="2758" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Euro 35 4 3" xfId="2757" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Euro 35 5" xfId="318" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Euro 35 6" xfId="2753" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Euro 36" xfId="319" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Euro 36 2" xfId="320" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Euro 36 2 2" xfId="2760" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Euro 36 3" xfId="321" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Euro 36 3 2" xfId="322" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Euro 36 3 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Euro 36 3 2 3" xfId="2762" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Euro 36 3 3" xfId="2761" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Euro 36 4" xfId="324" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Euro 36 4 2" xfId="325" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Euro 36 4 2 2" xfId="2764" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Euro 36 4 3" xfId="2763" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Euro 36 5" xfId="326" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Euro 36 6" xfId="2759" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Euro 37" xfId="327" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Euro 37 2" xfId="328" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Euro 37 2 2" xfId="2766" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Euro 37 3" xfId="329" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Euro 37 3 2" xfId="330" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Euro 37 3 2 2" xfId="331" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Euro 37 3 2 3" xfId="2768" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Euro 37 3 3" xfId="2767" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Euro 37 4" xfId="332" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Euro 37 4 2" xfId="333" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Euro 37 4 2 2" xfId="2770" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Euro 37 4 3" xfId="2769" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Euro 37 5" xfId="334" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Euro 37 6" xfId="2765" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Euro 38" xfId="335" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Euro 38 2" xfId="336" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Euro 38 2 2" xfId="2772" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Euro 38 3" xfId="337" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Euro 38 3 2" xfId="338" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Euro 38 3 2 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Euro 38 3 2 3" xfId="2774" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Euro 38 3 3" xfId="2773" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Euro 38 4" xfId="340" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Euro 38 4 2" xfId="341" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Euro 38 4 2 2" xfId="2776" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Euro 38 4 3" xfId="2775" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Euro 38 5" xfId="342" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Euro 38 6" xfId="2771" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Euro 39" xfId="343" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Euro 39 2" xfId="344" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Euro 39 2 2" xfId="2778" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Euro 39 3" xfId="345" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Euro 39 3 2" xfId="346" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Euro 39 3 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Euro 39 3 2 3" xfId="2780" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Euro 39 3 3" xfId="2779" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Euro 39 4" xfId="348" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Euro 39 4 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="Euro 39 4 2 2" xfId="2782" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Euro 39 4 3" xfId="2781" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Euro 39 5" xfId="350" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Euro 39 6" xfId="2777" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Euro 4" xfId="351" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Euro 4 2" xfId="352" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="Euro 4 2 2" xfId="2784" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Euro 4 3" xfId="353" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="Euro 4 3 2" xfId="354" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="Euro 4 3 2 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="Euro 4 3 2 3" xfId="2786" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Euro 4 3 3" xfId="2785" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Euro 4 4" xfId="356" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="Euro 4 4 2" xfId="357" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Euro 4 4 2 2" xfId="2788" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Euro 4 4 3" xfId="2787" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Euro 4 5" xfId="358" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="Euro 4 6" xfId="2783" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Euro 40" xfId="359" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Euro 40 2" xfId="360" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Euro 40 2 2" xfId="2790" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Euro 40 3" xfId="361" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Euro 40 3 2" xfId="362" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Euro 40 3 2 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Euro 40 3 2 3" xfId="2792" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Euro 40 3 3" xfId="2791" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="Euro 40 4" xfId="364" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="Euro 40 4 2" xfId="365" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="Euro 40 4 2 2" xfId="2794" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Euro 40 4 3" xfId="2793" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Euro 40 5" xfId="366" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Euro 40 6" xfId="2789" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Euro 41" xfId="367" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="Euro 41 2" xfId="368" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Euro 41 2 2" xfId="2796" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Euro 41 3" xfId="369" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Euro 41 3 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="Euro 41 3 2 2" xfId="371" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Euro 41 3 2 3" xfId="2798" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Euro 41 3 3" xfId="2797" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Euro 41 4" xfId="372" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="Euro 41 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="Euro 41 4 2 2" xfId="2800" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Euro 41 4 3" xfId="2799" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Euro 41 5" xfId="374" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="Euro 41 6" xfId="2795" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Euro 42" xfId="375" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Euro 42 2" xfId="376" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Euro 42 2 2" xfId="2802" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Euro 42 3" xfId="377" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Euro 42 3 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Euro 42 3 2 2" xfId="379" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="Euro 42 3 2 3" xfId="2804" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="Euro 42 3 3" xfId="2803" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Euro 42 4" xfId="380" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Euro 42 4 2" xfId="381" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Euro 42 4 2 2" xfId="2806" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Euro 42 4 3" xfId="2805" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Euro 42 5" xfId="382" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Euro 42 6" xfId="2801" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Euro 43" xfId="383" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="Euro 43 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Euro 43 2 2" xfId="2808" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Euro 43 3" xfId="385" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Euro 43 3 2" xfId="386" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Euro 43 3 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Euro 43 3 2 3" xfId="2810" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Euro 43 3 3" xfId="2809" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Euro 43 4" xfId="388" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Euro 43 4 2" xfId="389" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Euro 43 4 2 2" xfId="2812" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Euro 43 4 3" xfId="2811" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Euro 43 5" xfId="390" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="Euro 43 6" xfId="2807" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Euro 44" xfId="391" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Euro 44 2" xfId="392" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Euro 44 2 2" xfId="2814" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Euro 44 3" xfId="393" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Euro 44 3 2" xfId="394" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Euro 44 3 2 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Euro 44 3 2 3" xfId="2816" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Euro 44 3 3" xfId="2815" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Euro 44 4" xfId="396" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Euro 44 4 2" xfId="397" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Euro 44 4 2 2" xfId="2818" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Euro 44 4 3" xfId="2817" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Euro 44 5" xfId="398" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Euro 44 6" xfId="2813" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Euro 45" xfId="399" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="Euro 45 2" xfId="400" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Euro 45 2 2" xfId="2820" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Euro 45 3" xfId="2819" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Euro 46" xfId="401" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="Euro 46 2" xfId="402" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Euro 46 2 2" xfId="2822" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Euro 46 3" xfId="2821" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Euro 47" xfId="403" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="Euro 47 2" xfId="404" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Euro 47 2 2" xfId="405" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Euro 47 2 3" xfId="2824" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Euro 47 3" xfId="2823" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="Euro 48" xfId="406" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Euro 48 2" xfId="2825" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Euro 49" xfId="407" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Euro 49 2" xfId="408" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Euro 49 2 2" xfId="2827" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Euro 49 3" xfId="2826" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Euro 5" xfId="409" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Euro 5 2" xfId="410" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Euro 5 2 2" xfId="2829" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Euro 5 3" xfId="411" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Euro 5 3 2" xfId="412" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Euro 5 3 2 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="Euro 5 3 2 3" xfId="2831" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Euro 5 3 3" xfId="2830" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Euro 5 4" xfId="414" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Euro 5 4 2" xfId="415" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="Euro 5 4 2 2" xfId="2833" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Euro 5 4 3" xfId="2832" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Euro 5 5" xfId="416" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Euro 5 6" xfId="2828" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Euro 50" xfId="417" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Euro 51" xfId="2590" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Euro 6" xfId="418" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Euro 6 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="Euro 6 2 2" xfId="2835" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Euro 6 3" xfId="420" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="Euro 6 3 2" xfId="421" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="Euro 6 3 2 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="Euro 6 3 2 3" xfId="2837" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Euro 6 3 3" xfId="2836" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Euro 6 4" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Euro 6 4 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="Euro 6 4 2 2" xfId="2839" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Euro 6 4 3" xfId="2838" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Euro 6 5" xfId="425" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Euro 6 6" xfId="2834" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Euro 7" xfId="426" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Euro 7 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Euro 7 2 2" xfId="2841" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Euro 7 3" xfId="428" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="Euro 7 3 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Euro 7 3 2 2" xfId="430" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Euro 7 3 2 3" xfId="2843" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Euro 7 3 3" xfId="2842" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Euro 7 4" xfId="431" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Euro 7 4 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Euro 7 4 2 2" xfId="2845" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Euro 7 4 3" xfId="2844" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Euro 7 5" xfId="433" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Euro 7 6" xfId="2840" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Euro 8" xfId="434" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Euro 8 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="Euro 8 2 2" xfId="2847" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Euro 8 3" xfId="436" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Euro 8 3 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Euro 8 3 2 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Euro 8 3 2 3" xfId="2849" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Euro 8 3 3" xfId="2848" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Euro 8 4" xfId="439" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Euro 8 4 2" xfId="440" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Euro 8 4 2 2" xfId="2851" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Euro 8 4 3" xfId="2850" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Euro 8 5" xfId="441" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Euro 8 6" xfId="2846" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Euro 9" xfId="442" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Euro 9 2" xfId="443" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Euro 9 2 2" xfId="2853" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Euro 9 3" xfId="444" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Euro 9 3 2" xfId="445" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Euro 9 3 2 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="Euro 9 3 2 3" xfId="2855" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Euro 9 3 3" xfId="2854" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Euro 9 4" xfId="447" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="Euro 9 4 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Euro 9 4 2 2" xfId="2857" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Euro 9 4 3" xfId="2856" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Euro 9 5" xfId="449" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Euro 9 6" xfId="2852" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Fixed2 - Type2" xfId="450" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Good 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="Hyperlink 2" xfId="452" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Input 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="Input 2 2" xfId="454" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="Input 2 2 2" xfId="455" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Input 2 3" xfId="456" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="Input 3" xfId="457" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Input 3 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="InputCells" xfId="459" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="Komma 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Kontroller celle" xfId="461" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Markeringsfarve1" xfId="462" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Markeringsfarve2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Markeringsfarve3" xfId="464" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Markeringsfarve4" xfId="465" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Markeringsfarve5" xfId="466" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Markeringsfarve6" xfId="467" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Migliaia [0] 10" xfId="468" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Migliaia [0] 10 2" xfId="469" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Migliaia [0] 10 2 2" xfId="470" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Migliaia [0] 10 3" xfId="471" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Migliaia [0] 11" xfId="472" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Migliaia [0] 11 2" xfId="473" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Migliaia [0] 11 2 2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Migliaia [0] 11 3" xfId="475" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Migliaia [0] 12" xfId="476" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Migliaia [0] 12 2" xfId="477" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Migliaia [0] 12 2 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Migliaia [0] 12 3" xfId="479" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Migliaia [0] 13" xfId="480" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Migliaia [0] 13 2" xfId="481" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Migliaia [0] 13 2 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Migliaia [0] 13 3" xfId="483" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Migliaia [0] 14" xfId="484" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Migliaia [0] 14 2" xfId="485" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Migliaia [0] 14 2 2" xfId="486" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Migliaia [0] 14 3" xfId="487" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Migliaia [0] 15" xfId="488" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Migliaia [0] 15 2" xfId="489" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Migliaia [0] 15 2 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="Migliaia [0] 15 3" xfId="491" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Migliaia [0] 16" xfId="492" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="Migliaia [0] 16 2" xfId="493" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Migliaia [0] 16 2 2" xfId="494" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Migliaia [0] 16 3" xfId="495" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="Migliaia [0] 17" xfId="496" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="Migliaia [0] 17 2" xfId="497" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Migliaia [0] 17 2 2" xfId="498" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Migliaia [0] 17 3" xfId="499" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Migliaia [0] 18" xfId="500" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Migliaia [0] 18 2" xfId="501" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Migliaia [0] 18 2 2" xfId="502" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Migliaia [0] 18 3" xfId="503" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Migliaia [0] 19" xfId="504" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="Migliaia [0] 19 2" xfId="505" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="Migliaia [0] 19 2 2" xfId="506" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Migliaia [0] 19 3" xfId="507" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="Migliaia [0] 2" xfId="508" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="Migliaia [0] 2 2" xfId="509" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Migliaia [0] 2 2 2" xfId="510" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="Migliaia [0] 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Migliaia [0] 20" xfId="512" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Migliaia [0] 20 2" xfId="513" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Migliaia [0] 20 2 2" xfId="514" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="Migliaia [0] 20 3" xfId="515" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Migliaia [0] 21" xfId="516" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Migliaia [0] 21 2" xfId="517" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Migliaia [0] 21 2 2" xfId="518" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Migliaia [0] 21 3" xfId="519" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Migliaia [0] 22" xfId="520" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Migliaia [0] 22 2" xfId="521" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Migliaia [0] 22 2 2" xfId="522" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="Migliaia [0] 22 3" xfId="523" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Migliaia [0] 23" xfId="524" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Migliaia [0] 23 2" xfId="525" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="Migliaia [0] 23 2 2" xfId="526" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Migliaia [0] 23 3" xfId="527" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="Migliaia [0] 24" xfId="528" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Migliaia [0] 24 2" xfId="529" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Migliaia [0] 24 2 2" xfId="530" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Migliaia [0] 24 3" xfId="531" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Migliaia [0] 25" xfId="532" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Migliaia [0] 25 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Migliaia [0] 25 2 2" xfId="534" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Migliaia [0] 25 3" xfId="535" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Migliaia [0] 26" xfId="536" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Migliaia [0] 26 2" xfId="537" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Migliaia [0] 26 2 2" xfId="538" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Migliaia [0] 26 3" xfId="539" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Migliaia [0] 27" xfId="540" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Migliaia [0] 27 2" xfId="541" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Migliaia [0] 27 2 2" xfId="542" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Migliaia [0] 27 3" xfId="543" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Migliaia [0] 28" xfId="544" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Migliaia [0] 28 2" xfId="545" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Migliaia [0] 28 2 2" xfId="546" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Migliaia [0] 28 3" xfId="547" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Migliaia [0] 29" xfId="548" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Migliaia [0] 29 2" xfId="549" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Migliaia [0] 29 2 2" xfId="550" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Migliaia [0] 29 3" xfId="551" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Migliaia [0] 3" xfId="552" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Migliaia [0] 3 2" xfId="553" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Migliaia [0] 3 2 2" xfId="554" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Migliaia [0] 3 3" xfId="555" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Migliaia [0] 30" xfId="556" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Migliaia [0] 30 2" xfId="557" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Migliaia [0] 30 2 2" xfId="558" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Migliaia [0] 30 3" xfId="559" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Migliaia [0] 31" xfId="560" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Migliaia [0] 31 2" xfId="561" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Migliaia [0] 31 2 2" xfId="562" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Migliaia [0] 31 3" xfId="563" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Migliaia [0] 32" xfId="564" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Migliaia [0] 32 2" xfId="565" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Migliaia [0] 32 2 2" xfId="566" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Migliaia [0] 32 3" xfId="567" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Migliaia [0] 33" xfId="568" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Migliaia [0] 33 2" xfId="569" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Migliaia [0] 33 2 2" xfId="570" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Migliaia [0] 33 3" xfId="571" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Migliaia [0] 34" xfId="572" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Migliaia [0] 34 2" xfId="573" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Migliaia [0] 34 2 2" xfId="574" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Migliaia [0] 34 3" xfId="575" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Migliaia [0] 35" xfId="576" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Migliaia [0] 35 2" xfId="577" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Migliaia [0] 35 2 2" xfId="578" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Migliaia [0] 35 3" xfId="579" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Migliaia [0] 36" xfId="580" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Migliaia [0] 36 2" xfId="581" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Migliaia [0] 36 2 2" xfId="582" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Migliaia [0] 36 3" xfId="583" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Migliaia [0] 37" xfId="584" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Migliaia [0] 37 2" xfId="585" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Migliaia [0] 37 2 2" xfId="586" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Migliaia [0] 37 3" xfId="587" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Migliaia [0] 38" xfId="588" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Migliaia [0] 38 2" xfId="589" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Migliaia [0] 38 2 2" xfId="590" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Migliaia [0] 38 3" xfId="591" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Migliaia [0] 39" xfId="592" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Migliaia [0] 39 2" xfId="593" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Migliaia [0] 39 2 2" xfId="594" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Migliaia [0] 39 3" xfId="595" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Migliaia [0] 4" xfId="596" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Migliaia [0] 4 2" xfId="597" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Migliaia [0] 4 2 2" xfId="598" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Migliaia [0] 4 3" xfId="599" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Migliaia [0] 40" xfId="600" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Migliaia [0] 40 2" xfId="601" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Migliaia [0] 40 2 2" xfId="602" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Migliaia [0] 40 3" xfId="603" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Migliaia [0] 41" xfId="604" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Migliaia [0] 41 2" xfId="605" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Migliaia [0] 41 2 2" xfId="606" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Migliaia [0] 41 3" xfId="607" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Migliaia [0] 42" xfId="608" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Migliaia [0] 42 2" xfId="609" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Migliaia [0] 42 2 2" xfId="610" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Migliaia [0] 42 3" xfId="611" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Migliaia [0] 43" xfId="612" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Migliaia [0] 43 2" xfId="613" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Migliaia [0] 43 2 2" xfId="614" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Migliaia [0] 43 3" xfId="615" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Migliaia [0] 44" xfId="616" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Migliaia [0] 44 2" xfId="617" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Migliaia [0] 44 2 2" xfId="618" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Migliaia [0] 44 3" xfId="619" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Migliaia [0] 45" xfId="620" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Migliaia [0] 45 2" xfId="621" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Migliaia [0] 45 2 2" xfId="622" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Migliaia [0] 45 3" xfId="623" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Migliaia [0] 46" xfId="624" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Migliaia [0] 46 2" xfId="625" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Migliaia [0] 46 2 2" xfId="626" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Migliaia [0] 46 3" xfId="627" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Migliaia [0] 47" xfId="628" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Migliaia [0] 47 2" xfId="629" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Migliaia [0] 47 2 2" xfId="630" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Migliaia [0] 47 3" xfId="631" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Migliaia [0] 48" xfId="632" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Migliaia [0] 48 2" xfId="633" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Migliaia [0] 48 2 2" xfId="634" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Migliaia [0] 48 3" xfId="635" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Migliaia [0] 49" xfId="636" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Migliaia [0] 49 2" xfId="637" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Migliaia [0] 49 2 2" xfId="638" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Migliaia [0] 49 3" xfId="639" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Migliaia [0] 5" xfId="640" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Migliaia [0] 5 2" xfId="641" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Migliaia [0] 5 2 2" xfId="642" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Migliaia [0] 5 3" xfId="643" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Migliaia [0] 50" xfId="644" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Migliaia [0] 50 2" xfId="645" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Migliaia [0] 50 2 2" xfId="646" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Migliaia [0] 50 3" xfId="647" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Migliaia [0] 51" xfId="648" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Migliaia [0] 51 2" xfId="649" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Migliaia [0] 51 2 2" xfId="650" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Migliaia [0] 51 3" xfId="651" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Migliaia [0] 52" xfId="652" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Migliaia [0] 52 2" xfId="653" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Migliaia [0] 52 2 2" xfId="654" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Migliaia [0] 52 3" xfId="655" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Migliaia [0] 53" xfId="656" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Migliaia [0] 53 2" xfId="657" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Migliaia [0] 53 2 2" xfId="658" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Migliaia [0] 53 3" xfId="659" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Migliaia [0] 54" xfId="660" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Migliaia [0] 54 2" xfId="661" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Migliaia [0] 54 2 2" xfId="662" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Migliaia [0] 54 3" xfId="663" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Migliaia [0] 55" xfId="664" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Migliaia [0] 55 2" xfId="665" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Migliaia [0] 55 2 2" xfId="666" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Migliaia [0] 55 3" xfId="667" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Migliaia [0] 56" xfId="668" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Migliaia [0] 56 2" xfId="669" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Migliaia [0] 56 2 2" xfId="670" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Migliaia [0] 56 3" xfId="671" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Migliaia [0] 57" xfId="672" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Migliaia [0] 57 2" xfId="673" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Migliaia [0] 57 2 2" xfId="674" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Migliaia [0] 57 3" xfId="675" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Migliaia [0] 58" xfId="676" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Migliaia [0] 58 2" xfId="677" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Migliaia [0] 58 2 2" xfId="678" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Migliaia [0] 58 3" xfId="679" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Migliaia [0] 59" xfId="680" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Migliaia [0] 59 2" xfId="681" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Migliaia [0] 59 2 2" xfId="682" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Migliaia [0] 59 3" xfId="683" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Migliaia [0] 6" xfId="684" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Migliaia [0] 6 2" xfId="685" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Migliaia [0] 6 2 2" xfId="686" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Migliaia [0] 6 3" xfId="687" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Migliaia [0] 7" xfId="688" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Migliaia [0] 7 2" xfId="689" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Migliaia [0] 7 2 2" xfId="690" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Migliaia [0] 7 3" xfId="691" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Migliaia [0] 8" xfId="692" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Migliaia [0] 8 2" xfId="693" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Migliaia [0] 8 2 2" xfId="694" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Migliaia [0] 8 3" xfId="695" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Migliaia [0] 9" xfId="696" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Migliaia [0] 9 2" xfId="697" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Migliaia [0] 9 2 2" xfId="698" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Migliaia [0] 9 3" xfId="699" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Migliaia 10" xfId="700" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Migliaia 10 2" xfId="701" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Migliaia 10 2 2" xfId="702" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Migliaia 10 2 2 2" xfId="2860" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Migliaia 10 2 3" xfId="2859" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Migliaia 10 3" xfId="703" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Migliaia 10 3 2" xfId="704" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Migliaia 10 3 2 2" xfId="705" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Migliaia 10 3 2 3" xfId="2862" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Migliaia 10 3 3" xfId="2861" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Migliaia 10 4" xfId="706" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Migliaia 10 4 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Migliaia 10 4 2 2" xfId="2864" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Migliaia 10 4 3" xfId="2863" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Migliaia 10 5" xfId="708" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Migliaia 10 6" xfId="2858" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Migliaia 11" xfId="709" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Migliaia 11 2" xfId="710" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Migliaia 11 2 2" xfId="711" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Migliaia 11 2 2 2" xfId="2867" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Migliaia 11 2 3" xfId="2866" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Migliaia 11 3" xfId="712" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Migliaia 11 3 2" xfId="713" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Migliaia 11 3 2 2" xfId="714" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Migliaia 11 3 2 3" xfId="2869" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Migliaia 11 3 3" xfId="2868" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Migliaia 11 4" xfId="715" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Migliaia 11 4 2" xfId="716" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Migliaia 11 4 2 2" xfId="2871" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Migliaia 11 4 3" xfId="2870" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Migliaia 11 5" xfId="717" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Migliaia 11 6" xfId="2865" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Migliaia 12" xfId="718" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Migliaia 12 2" xfId="719" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Migliaia 12 2 2" xfId="720" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Migliaia 12 2 2 2" xfId="2874" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Migliaia 12 2 3" xfId="2873" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Migliaia 12 3" xfId="721" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Migliaia 12 3 2" xfId="722" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Migliaia 12 3 2 2" xfId="723" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Migliaia 12 3 2 3" xfId="2876" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Migliaia 12 3 3" xfId="2875" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Migliaia 12 4" xfId="724" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Migliaia 12 4 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Migliaia 12 4 2 2" xfId="2878" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Migliaia 12 4 3" xfId="2877" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Migliaia 12 5" xfId="726" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Migliaia 12 6" xfId="2872" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Migliaia 13" xfId="727" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Migliaia 13 2" xfId="728" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Migliaia 13 2 2" xfId="729" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Migliaia 13 2 2 2" xfId="2881" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Migliaia 13 2 3" xfId="2880" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Migliaia 13 3" xfId="730" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Migliaia 13 3 2" xfId="731" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Migliaia 13 3 2 2" xfId="732" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Migliaia 13 3 2 3" xfId="2883" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Migliaia 13 3 3" xfId="2882" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Migliaia 13 4" xfId="733" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Migliaia 13 4 2" xfId="734" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Migliaia 13 4 2 2" xfId="2885" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Migliaia 13 4 3" xfId="2884" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Migliaia 13 5" xfId="735" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Migliaia 13 6" xfId="2879" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Migliaia 14" xfId="736" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Migliaia 14 2" xfId="737" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Migliaia 14 2 2" xfId="738" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Migliaia 14 2 2 2" xfId="2888" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Migliaia 14 2 3" xfId="2887" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Migliaia 14 3" xfId="739" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Migliaia 14 3 2" xfId="740" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Migliaia 14 3 2 2" xfId="741" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Migliaia 14 3 2 3" xfId="2890" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Migliaia 14 3 3" xfId="2889" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Migliaia 14 4" xfId="742" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Migliaia 14 4 2" xfId="743" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Migliaia 14 4 2 2" xfId="2892" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Migliaia 14 4 3" xfId="2891" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Migliaia 14 5" xfId="744" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Migliaia 14 6" xfId="2886" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Migliaia 15" xfId="745" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Migliaia 15 2" xfId="746" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Migliaia 15 2 2" xfId="747" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Migliaia 15 2 2 2" xfId="2895" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Migliaia 15 2 3" xfId="2894" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Migliaia 15 3" xfId="748" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Migliaia 15 3 2" xfId="749" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Migliaia 15 3 2 2" xfId="750" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Migliaia 15 3 2 3" xfId="2897" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Migliaia 15 3 3" xfId="2896" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Migliaia 15 4" xfId="751" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Migliaia 15 4 2" xfId="752" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Migliaia 15 4 2 2" xfId="2899" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Migliaia 15 4 3" xfId="2898" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Migliaia 15 5" xfId="753" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Migliaia 15 6" xfId="2893" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Migliaia 16" xfId="754" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Migliaia 16 2" xfId="755" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Migliaia 16 2 2" xfId="756" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Migliaia 16 2 2 2" xfId="2902" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Migliaia 16 2 3" xfId="2901" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Migliaia 16 3" xfId="757" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Migliaia 16 3 2" xfId="758" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Migliaia 16 3 2 2" xfId="759" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Migliaia 16 3 2 3" xfId="2904" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Migliaia 16 3 3" xfId="2903" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Migliaia 16 4" xfId="760" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Migliaia 16 4 2" xfId="761" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Migliaia 16 4 2 2" xfId="2906" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Migliaia 16 4 3" xfId="2905" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Migliaia 16 5" xfId="762" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Migliaia 16 6" xfId="2900" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Migliaia 17" xfId="763" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Migliaia 17 2" xfId="764" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Migliaia 17 2 2" xfId="765" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Migliaia 17 2 2 2" xfId="2909" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Migliaia 17 2 3" xfId="2908" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Migliaia 17 3" xfId="766" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Migliaia 17 3 2" xfId="767" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Migliaia 17 3 2 2" xfId="768" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Migliaia 17 3 2 3" xfId="2911" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Migliaia 17 3 3" xfId="2910" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Migliaia 17 4" xfId="769" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Migliaia 17 4 2" xfId="770" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Migliaia 17 4 2 2" xfId="2913" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Migliaia 17 4 3" xfId="2912" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Migliaia 17 5" xfId="771" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Migliaia 17 6" xfId="2907" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Migliaia 18" xfId="772" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Migliaia 18 2" xfId="773" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Migliaia 18 2 2" xfId="774" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Migliaia 18 2 2 2" xfId="2916" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Migliaia 18 2 3" xfId="2915" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Migliaia 18 3" xfId="775" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Migliaia 18 3 2" xfId="776" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Migliaia 18 3 2 2" xfId="777" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Migliaia 18 3 2 3" xfId="2918" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Migliaia 18 3 3" xfId="2917" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Migliaia 18 4" xfId="778" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Migliaia 18 4 2" xfId="779" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Migliaia 18 4 2 2" xfId="2920" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Migliaia 18 4 3" xfId="2919" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Migliaia 18 5" xfId="780" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Migliaia 18 6" xfId="2914" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Migliaia 19" xfId="781" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Migliaia 19 2" xfId="782" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Migliaia 19 2 2" xfId="783" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Migliaia 19 2 2 2" xfId="2923" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Migliaia 19 2 3" xfId="2922" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Migliaia 19 3" xfId="784" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Migliaia 19 3 2" xfId="785" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Migliaia 19 3 2 2" xfId="786" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Migliaia 19 3 2 3" xfId="2925" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Migliaia 19 3 3" xfId="2924" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Migliaia 19 4" xfId="787" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Migliaia 19 4 2" xfId="788" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Migliaia 19 4 2 2" xfId="2927" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Migliaia 19 4 3" xfId="2926" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Migliaia 19 5" xfId="789" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Migliaia 19 6" xfId="2921" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Migliaia 2" xfId="790" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Migliaia 2 2" xfId="791" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Migliaia 2 2 2" xfId="792" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Migliaia 2 2 2 2" xfId="793" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Migliaia 2 2 2 2 2" xfId="2931" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Migliaia 2 2 2 3" xfId="2930" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Migliaia 2 2 3" xfId="794" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Migliaia 2 2 3 2" xfId="2932" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Migliaia 2 2 4" xfId="2929" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Migliaia 2 3" xfId="795" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Migliaia 2 3 2" xfId="796" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Migliaia 2 3 2 2" xfId="797" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Migliaia 2 3 2 2 2" xfId="2935" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Migliaia 2 3 2 3" xfId="2934" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Migliaia 2 3 3" xfId="798" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Migliaia 2 3 3 2" xfId="2936" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Migliaia 2 3 4" xfId="2933" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Migliaia 2 4" xfId="799" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Migliaia 2 4 2" xfId="800" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Migliaia 2 4 2 2" xfId="801" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Migliaia 2 4 2 3" xfId="2938" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Migliaia 2 4 3" xfId="2937" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Migliaia 2 5" xfId="802" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Migliaia 2 5 2" xfId="803" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Migliaia 2 5 2 2" xfId="2940" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Migliaia 2 5 3" xfId="2939" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Migliaia 2 6" xfId="804" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Migliaia 2 7" xfId="2928" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Migliaia 2_Domestico_reg&amp;naz" xfId="805" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Migliaia 20" xfId="806" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Migliaia 20 2" xfId="807" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Migliaia 20 2 2" xfId="808" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Migliaia 20 2 2 2" xfId="2943" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Migliaia 20 2 3" xfId="2942" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Migliaia 20 3" xfId="809" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Migliaia 20 3 2" xfId="810" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Migliaia 20 3 2 2" xfId="811" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Migliaia 20 3 2 3" xfId="2945" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Migliaia 20 3 3" xfId="2944" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Migliaia 20 4" xfId="812" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Migliaia 20 4 2" xfId="813" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Migliaia 20 4 2 2" xfId="2947" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Migliaia 20 4 3" xfId="2946" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Migliaia 20 5" xfId="814" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Migliaia 20 6" xfId="2941" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Migliaia 21" xfId="815" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Migliaia 21 2" xfId="816" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="Migliaia 21 2 2" xfId="817" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="Migliaia 21 2 2 2" xfId="2950" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Migliaia 21 2 3" xfId="2949" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Migliaia 21 3" xfId="818" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Migliaia 21 3 2" xfId="819" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Migliaia 21 3 2 2" xfId="820" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Migliaia 21 3 2 3" xfId="2952" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Migliaia 21 3 3" xfId="2951" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Migliaia 21 4" xfId="821" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Migliaia 21 4 2" xfId="822" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="Migliaia 21 4 2 2" xfId="2954" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Migliaia 21 4 3" xfId="2953" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Migliaia 21 5" xfId="823" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Migliaia 21 6" xfId="2948" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Migliaia 22" xfId="824" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Migliaia 22 2" xfId="825" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Migliaia 22 2 2" xfId="826" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Migliaia 22 2 2 2" xfId="2957" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Migliaia 22 2 3" xfId="2956" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Migliaia 22 3" xfId="827" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Migliaia 22 3 2" xfId="828" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Migliaia 22 3 2 2" xfId="829" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Migliaia 22 3 2 3" xfId="2959" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Migliaia 22 3 3" xfId="2958" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Migliaia 22 4" xfId="830" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Migliaia 22 4 2" xfId="831" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Migliaia 22 4 2 2" xfId="2961" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Migliaia 22 4 3" xfId="2960" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Migliaia 22 5" xfId="832" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="Migliaia 22 6" xfId="2955" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Migliaia 23" xfId="833" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="Migliaia 23 2" xfId="834" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="Migliaia 23 2 2" xfId="835" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Migliaia 23 2 2 2" xfId="2964" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Migliaia 23 2 3" xfId="2963" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Migliaia 23 3" xfId="836" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="Migliaia 23 3 2" xfId="837" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="Migliaia 23 3 2 2" xfId="838" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="Migliaia 23 3 2 3" xfId="2966" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Migliaia 23 3 3" xfId="2965" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Migliaia 23 4" xfId="839" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="Migliaia 23 4 2" xfId="840" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Migliaia 23 4 2 2" xfId="2968" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Migliaia 23 4 3" xfId="2967" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Migliaia 23 5" xfId="841" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="Migliaia 23 6" xfId="2962" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Migliaia 24" xfId="842" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Migliaia 24 2" xfId="843" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Migliaia 24 2 2" xfId="844" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Migliaia 24 2 2 2" xfId="2971" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Migliaia 24 2 3" xfId="2970" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Migliaia 24 3" xfId="845" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Migliaia 24 3 2" xfId="846" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Migliaia 24 3 2 2" xfId="847" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="Migliaia 24 3 2 3" xfId="2973" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Migliaia 24 3 3" xfId="2972" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Migliaia 24 4" xfId="848" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Migliaia 24 4 2" xfId="849" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Migliaia 24 4 2 2" xfId="2975" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Migliaia 24 4 3" xfId="2974" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Migliaia 24 5" xfId="850" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="Migliaia 24 6" xfId="2969" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Migliaia 25" xfId="851" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="Migliaia 25 2" xfId="852" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Migliaia 25 2 2" xfId="853" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Migliaia 25 2 2 2" xfId="2978" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="Migliaia 25 2 3" xfId="2977" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="Migliaia 25 3" xfId="854" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="Migliaia 25 3 2" xfId="855" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="Migliaia 25 3 2 2" xfId="856" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="Migliaia 25 3 2 3" xfId="2980" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Migliaia 25 3 3" xfId="2979" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Migliaia 25 4" xfId="857" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Migliaia 25 4 2" xfId="858" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="Migliaia 25 4 2 2" xfId="2982" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Migliaia 25 4 3" xfId="2981" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Migliaia 25 5" xfId="859" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="Migliaia 25 6" xfId="2976" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Migliaia 26" xfId="860" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Migliaia 26 2" xfId="861" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Migliaia 26 2 2" xfId="862" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Migliaia 26 2 2 2" xfId="2985" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Migliaia 26 2 3" xfId="2984" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Migliaia 26 3" xfId="863" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Migliaia 26 3 2" xfId="864" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
+    <cellStyle name="Migliaia 26 3 2 2" xfId="865" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
+    <cellStyle name="Migliaia 26 3 2 3" xfId="2987" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Migliaia 26 3 3" xfId="2986" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Migliaia 26 4" xfId="866" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="Migliaia 26 4 2" xfId="867" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Migliaia 26 4 2 2" xfId="2989" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Migliaia 26 4 3" xfId="2988" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Migliaia 26 5" xfId="868" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Migliaia 26 6" xfId="2983" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Migliaia 27" xfId="869" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Migliaia 27 2" xfId="870" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Migliaia 27 2 2" xfId="871" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Migliaia 27 2 2 2" xfId="2992" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Migliaia 27 2 3" xfId="2991" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Migliaia 27 3" xfId="872" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
+    <cellStyle name="Migliaia 27 3 2" xfId="873" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Migliaia 27 3 2 2" xfId="874" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Migliaia 27 3 2 3" xfId="2994" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Migliaia 27 3 3" xfId="2993" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Migliaia 27 4" xfId="875" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Migliaia 27 4 2" xfId="876" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Migliaia 27 4 2 2" xfId="2996" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Migliaia 27 4 3" xfId="2995" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Migliaia 27 5" xfId="877" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="Migliaia 27 6" xfId="2990" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Migliaia 28" xfId="878" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
+    <cellStyle name="Migliaia 28 2" xfId="879" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
+    <cellStyle name="Migliaia 28 2 2" xfId="880" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
+    <cellStyle name="Migliaia 28 2 2 2" xfId="2999" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Migliaia 28 2 3" xfId="2998" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Migliaia 28 3" xfId="881" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
+    <cellStyle name="Migliaia 28 3 2" xfId="882" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
+    <cellStyle name="Migliaia 28 3 2 2" xfId="883" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
+    <cellStyle name="Migliaia 28 3 2 3" xfId="3001" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Migliaia 28 3 3" xfId="3000" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Migliaia 28 4" xfId="884" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
+    <cellStyle name="Migliaia 28 4 2" xfId="885" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
+    <cellStyle name="Migliaia 28 4 2 2" xfId="3003" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Migliaia 28 4 3" xfId="3002" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Migliaia 28 5" xfId="886" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
+    <cellStyle name="Migliaia 28 6" xfId="2997" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Migliaia 29" xfId="887" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Migliaia 29 2" xfId="888" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
+    <cellStyle name="Migliaia 29 2 2" xfId="889" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
+    <cellStyle name="Migliaia 29 2 2 2" xfId="3006" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Migliaia 29 2 3" xfId="3005" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Migliaia 29 3" xfId="890" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
+    <cellStyle name="Migliaia 29 3 2" xfId="891" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
+    <cellStyle name="Migliaia 29 3 2 2" xfId="892" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
+    <cellStyle name="Migliaia 29 3 2 3" xfId="3008" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Migliaia 29 3 3" xfId="3007" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Migliaia 29 4" xfId="893" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
+    <cellStyle name="Migliaia 29 4 2" xfId="894" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
+    <cellStyle name="Migliaia 29 4 2 2" xfId="3010" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Migliaia 29 4 3" xfId="3009" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Migliaia 29 5" xfId="895" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
+    <cellStyle name="Migliaia 29 6" xfId="3004" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Migliaia 3" xfId="896" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
+    <cellStyle name="Migliaia 3 2" xfId="897" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
+    <cellStyle name="Migliaia 3 2 2" xfId="898" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
+    <cellStyle name="Migliaia 3 2 2 2" xfId="3013" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Migliaia 3 2 3" xfId="3012" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Migliaia 3 3" xfId="899" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
+    <cellStyle name="Migliaia 3 3 2" xfId="900" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
+    <cellStyle name="Migliaia 3 3 2 2" xfId="901" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
+    <cellStyle name="Migliaia 3 3 2 3" xfId="3015" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Migliaia 3 3 3" xfId="3014" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Migliaia 3 4" xfId="902" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
+    <cellStyle name="Migliaia 3 4 2" xfId="903" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
+    <cellStyle name="Migliaia 3 4 2 2" xfId="3017" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Migliaia 3 4 3" xfId="3016" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Migliaia 3 5" xfId="904" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
+    <cellStyle name="Migliaia 3 6" xfId="3011" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
+    <cellStyle name="Migliaia 30" xfId="905" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
+    <cellStyle name="Migliaia 30 2" xfId="906" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
+    <cellStyle name="Migliaia 30 2 2" xfId="907" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
+    <cellStyle name="Migliaia 30 2 2 2" xfId="3020" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Migliaia 30 2 3" xfId="3019" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Migliaia 30 3" xfId="908" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
+    <cellStyle name="Migliaia 30 3 2" xfId="909" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
+    <cellStyle name="Migliaia 30 3 2 2" xfId="910" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
+    <cellStyle name="Migliaia 30 3 2 3" xfId="3022" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Migliaia 30 3 3" xfId="3021" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Migliaia 30 4" xfId="911" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
+    <cellStyle name="Migliaia 30 4 2" xfId="912" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
+    <cellStyle name="Migliaia 30 4 2 2" xfId="3024" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Migliaia 30 4 3" xfId="3023" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Migliaia 30 5" xfId="913" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
+    <cellStyle name="Migliaia 30 6" xfId="3018" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Migliaia 31" xfId="914" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
+    <cellStyle name="Migliaia 31 2" xfId="915" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
+    <cellStyle name="Migliaia 31 2 2" xfId="916" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
+    <cellStyle name="Migliaia 31 2 2 2" xfId="3027" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Migliaia 31 2 3" xfId="3026" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Migliaia 31 3" xfId="917" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
+    <cellStyle name="Migliaia 31 3 2" xfId="918" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
+    <cellStyle name="Migliaia 31 3 2 2" xfId="919" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
+    <cellStyle name="Migliaia 31 3 2 3" xfId="3029" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Migliaia 31 3 3" xfId="3028" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Migliaia 31 4" xfId="920" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
+    <cellStyle name="Migliaia 31 4 2" xfId="921" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
+    <cellStyle name="Migliaia 31 4 2 2" xfId="3031" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Migliaia 31 4 3" xfId="3030" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Migliaia 31 5" xfId="922" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
+    <cellStyle name="Migliaia 31 6" xfId="3025" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Migliaia 32" xfId="923" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
+    <cellStyle name="Migliaia 32 2" xfId="924" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
+    <cellStyle name="Migliaia 32 2 2" xfId="925" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
+    <cellStyle name="Migliaia 32 2 2 2" xfId="3034" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Migliaia 32 2 3" xfId="3033" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
+    <cellStyle name="Migliaia 32 3" xfId="926" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
+    <cellStyle name="Migliaia 32 3 2" xfId="927" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
+    <cellStyle name="Migliaia 32 3 2 2" xfId="928" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
+    <cellStyle name="Migliaia 32 3 2 3" xfId="3036" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Migliaia 32 3 3" xfId="3035" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Migliaia 32 4" xfId="929" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
+    <cellStyle name="Migliaia 32 4 2" xfId="930" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
+    <cellStyle name="Migliaia 32 4 2 2" xfId="3038" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Migliaia 32 4 3" xfId="3037" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Migliaia 32 5" xfId="931" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
+    <cellStyle name="Migliaia 32 6" xfId="3032" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Migliaia 33" xfId="932" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
+    <cellStyle name="Migliaia 33 2" xfId="933" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
+    <cellStyle name="Migliaia 33 2 2" xfId="934" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
+    <cellStyle name="Migliaia 33 2 2 2" xfId="3041" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Migliaia 33 2 3" xfId="3040" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
+    <cellStyle name="Migliaia 33 3" xfId="935" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
+    <cellStyle name="Migliaia 33 3 2" xfId="936" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
+    <cellStyle name="Migliaia 33 3 2 2" xfId="937" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
+    <cellStyle name="Migliaia 33 3 2 3" xfId="3043" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
+    <cellStyle name="Migliaia 33 3 3" xfId="3042" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
+    <cellStyle name="Migliaia 33 4" xfId="938" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
+    <cellStyle name="Migliaia 33 4 2" xfId="939" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
+    <cellStyle name="Migliaia 33 4 2 2" xfId="3045" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
+    <cellStyle name="Migliaia 33 4 3" xfId="3044" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Migliaia 33 5" xfId="940" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
+    <cellStyle name="Migliaia 33 6" xfId="3039" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
+    <cellStyle name="Migliaia 34" xfId="941" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
+    <cellStyle name="Migliaia 34 2" xfId="942" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
+    <cellStyle name="Migliaia 34 2 2" xfId="943" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
+    <cellStyle name="Migliaia 34 2 2 2" xfId="3048" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
+    <cellStyle name="Migliaia 34 2 3" xfId="3047" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Migliaia 34 3" xfId="944" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
+    <cellStyle name="Migliaia 34 3 2" xfId="945" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
+    <cellStyle name="Migliaia 34 3 2 2" xfId="946" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
+    <cellStyle name="Migliaia 34 3 2 3" xfId="3050" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
+    <cellStyle name="Migliaia 34 3 3" xfId="3049" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Migliaia 34 4" xfId="947" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
+    <cellStyle name="Migliaia 34 4 2" xfId="948" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
+    <cellStyle name="Migliaia 34 4 2 2" xfId="3052" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Migliaia 34 4 3" xfId="3051" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
+    <cellStyle name="Migliaia 34 5" xfId="949" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
+    <cellStyle name="Migliaia 34 6" xfId="3046" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
+    <cellStyle name="Migliaia 35" xfId="950" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
+    <cellStyle name="Migliaia 35 2" xfId="951" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
+    <cellStyle name="Migliaia 35 2 2" xfId="952" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Migliaia 35 2 2 2" xfId="3055" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Migliaia 35 2 3" xfId="3054" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
+    <cellStyle name="Migliaia 35 3" xfId="953" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
+    <cellStyle name="Migliaia 35 3 2" xfId="954" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
+    <cellStyle name="Migliaia 35 3 2 2" xfId="955" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
+    <cellStyle name="Migliaia 35 3 2 3" xfId="3057" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
+    <cellStyle name="Migliaia 35 3 3" xfId="3056" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Migliaia 35 4" xfId="956" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
+    <cellStyle name="Migliaia 35 4 2" xfId="957" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
+    <cellStyle name="Migliaia 35 4 2 2" xfId="3059" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
+    <cellStyle name="Migliaia 35 4 3" xfId="3058" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
+    <cellStyle name="Migliaia 35 5" xfId="958" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
+    <cellStyle name="Migliaia 35 6" xfId="3053" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
+    <cellStyle name="Migliaia 36" xfId="959" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
+    <cellStyle name="Migliaia 36 2" xfId="960" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
+    <cellStyle name="Migliaia 36 2 2" xfId="961" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
+    <cellStyle name="Migliaia 36 2 2 2" xfId="3062" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
+    <cellStyle name="Migliaia 36 2 3" xfId="3061" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Migliaia 36 3" xfId="962" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
+    <cellStyle name="Migliaia 36 3 2" xfId="963" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
+    <cellStyle name="Migliaia 36 3 2 2" xfId="964" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
+    <cellStyle name="Migliaia 36 3 2 3" xfId="3064" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
+    <cellStyle name="Migliaia 36 3 3" xfId="3063" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
+    <cellStyle name="Migliaia 36 4" xfId="965" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Migliaia 36 4 2" xfId="966" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Migliaia 36 4 2 2" xfId="3066" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
+    <cellStyle name="Migliaia 36 4 3" xfId="3065" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Migliaia 36 5" xfId="967" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
+    <cellStyle name="Migliaia 36 6" xfId="3060" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
+    <cellStyle name="Migliaia 37" xfId="968" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
+    <cellStyle name="Migliaia 37 2" xfId="969" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
+    <cellStyle name="Migliaia 37 2 2" xfId="970" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
+    <cellStyle name="Migliaia 37 2 2 2" xfId="3069" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Migliaia 37 2 3" xfId="3068" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
+    <cellStyle name="Migliaia 37 3" xfId="971" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
+    <cellStyle name="Migliaia 37 3 2" xfId="972" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
+    <cellStyle name="Migliaia 37 3 2 2" xfId="973" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
+    <cellStyle name="Migliaia 37 3 2 3" xfId="3071" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
+    <cellStyle name="Migliaia 37 3 3" xfId="3070" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Migliaia 37 4" xfId="974" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
+    <cellStyle name="Migliaia 37 4 2" xfId="975" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
+    <cellStyle name="Migliaia 37 4 2 2" xfId="3073" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
+    <cellStyle name="Migliaia 37 4 3" xfId="3072" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Migliaia 37 5" xfId="976" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
+    <cellStyle name="Migliaia 37 6" xfId="3067" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Migliaia 38" xfId="977" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
+    <cellStyle name="Migliaia 38 2" xfId="978" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
+    <cellStyle name="Migliaia 38 2 2" xfId="979" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
+    <cellStyle name="Migliaia 38 2 2 2" xfId="3076" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Migliaia 38 2 3" xfId="3075" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
+    <cellStyle name="Migliaia 38 3" xfId="980" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
+    <cellStyle name="Migliaia 38 3 2" xfId="981" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
+    <cellStyle name="Migliaia 38 3 2 2" xfId="982" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
+    <cellStyle name="Migliaia 38 3 2 3" xfId="3078" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Migliaia 38 3 3" xfId="3077" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Migliaia 38 4" xfId="983" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
+    <cellStyle name="Migliaia 38 4 2" xfId="984" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
+    <cellStyle name="Migliaia 38 4 2 2" xfId="3080" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Migliaia 38 4 3" xfId="3079" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
+    <cellStyle name="Migliaia 38 5" xfId="985" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
+    <cellStyle name="Migliaia 38 6" xfId="3074" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
+    <cellStyle name="Migliaia 39" xfId="986" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
+    <cellStyle name="Migliaia 39 2" xfId="987" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
+    <cellStyle name="Migliaia 39 2 2" xfId="988" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
+    <cellStyle name="Migliaia 39 2 2 2" xfId="3083" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
+    <cellStyle name="Migliaia 39 2 3" xfId="3082" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Migliaia 39 3" xfId="989" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
+    <cellStyle name="Migliaia 39 3 2" xfId="990" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
+    <cellStyle name="Migliaia 39 3 2 2" xfId="991" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
+    <cellStyle name="Migliaia 39 3 2 3" xfId="3085" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
+    <cellStyle name="Migliaia 39 3 3" xfId="3084" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
+    <cellStyle name="Migliaia 39 4" xfId="992" xr:uid="{00000000-0005-0000-0000-0000D6050000}"/>
+    <cellStyle name="Migliaia 39 4 2" xfId="993" xr:uid="{00000000-0005-0000-0000-0000D7050000}"/>
+    <cellStyle name="Migliaia 39 4 2 2" xfId="3087" xr:uid="{00000000-0005-0000-0000-0000D8050000}"/>
+    <cellStyle name="Migliaia 39 4 3" xfId="3086" xr:uid="{00000000-0005-0000-0000-0000D9050000}"/>
+    <cellStyle name="Migliaia 39 5" xfId="994" xr:uid="{00000000-0005-0000-0000-0000DA050000}"/>
+    <cellStyle name="Migliaia 39 6" xfId="3081" xr:uid="{00000000-0005-0000-0000-0000DB050000}"/>
+    <cellStyle name="Migliaia 4" xfId="995" xr:uid="{00000000-0005-0000-0000-0000DC050000}"/>
+    <cellStyle name="Migliaia 4 2" xfId="996" xr:uid="{00000000-0005-0000-0000-0000DD050000}"/>
+    <cellStyle name="Migliaia 4 2 2" xfId="997" xr:uid="{00000000-0005-0000-0000-0000DE050000}"/>
+    <cellStyle name="Migliaia 4 2 2 2" xfId="3090" xr:uid="{00000000-0005-0000-0000-0000DF050000}"/>
+    <cellStyle name="Migliaia 4 2 3" xfId="3089" xr:uid="{00000000-0005-0000-0000-0000E0050000}"/>
+    <cellStyle name="Migliaia 4 3" xfId="998" xr:uid="{00000000-0005-0000-0000-0000E1050000}"/>
+    <cellStyle name="Migliaia 4 3 2" xfId="999" xr:uid="{00000000-0005-0000-0000-0000E2050000}"/>
+    <cellStyle name="Migliaia 4 3 2 2" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000E3050000}"/>
+    <cellStyle name="Migliaia 4 3 2 3" xfId="3092" xr:uid="{00000000-0005-0000-0000-0000E4050000}"/>
+    <cellStyle name="Migliaia 4 3 3" xfId="3091" xr:uid="{00000000-0005-0000-0000-0000E5050000}"/>
+    <cellStyle name="Migliaia 4 4" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000E6050000}"/>
+    <cellStyle name="Migliaia 4 4 2" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000E7050000}"/>
+    <cellStyle name="Migliaia 4 4 2 2" xfId="3094" xr:uid="{00000000-0005-0000-0000-0000E8050000}"/>
+    <cellStyle name="Migliaia 4 4 3" xfId="3093" xr:uid="{00000000-0005-0000-0000-0000E9050000}"/>
+    <cellStyle name="Migliaia 4 5" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000EA050000}"/>
+    <cellStyle name="Migliaia 4 6" xfId="3088" xr:uid="{00000000-0005-0000-0000-0000EB050000}"/>
+    <cellStyle name="Migliaia 40" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000EC050000}"/>
+    <cellStyle name="Migliaia 40 2" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000ED050000}"/>
+    <cellStyle name="Migliaia 40 2 2" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000EE050000}"/>
+    <cellStyle name="Migliaia 40 2 2 2" xfId="3097" xr:uid="{00000000-0005-0000-0000-0000EF050000}"/>
+    <cellStyle name="Migliaia 40 2 3" xfId="3096" xr:uid="{00000000-0005-0000-0000-0000F0050000}"/>
+    <cellStyle name="Migliaia 40 3" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000F1050000}"/>
+    <cellStyle name="Migliaia 40 3 2" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000F2050000}"/>
+    <cellStyle name="Migliaia 40 3 2 2" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000F3050000}"/>
+    <cellStyle name="Migliaia 40 3 2 3" xfId="3099" xr:uid="{00000000-0005-0000-0000-0000F4050000}"/>
+    <cellStyle name="Migliaia 40 3 3" xfId="3098" xr:uid="{00000000-0005-0000-0000-0000F5050000}"/>
+    <cellStyle name="Migliaia 40 4" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000F6050000}"/>
+    <cellStyle name="Migliaia 40 4 2" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000F7050000}"/>
+    <cellStyle name="Migliaia 40 4 2 2" xfId="3101" xr:uid="{00000000-0005-0000-0000-0000F8050000}"/>
+    <cellStyle name="Migliaia 40 4 3" xfId="3100" xr:uid="{00000000-0005-0000-0000-0000F9050000}"/>
+    <cellStyle name="Migliaia 40 5" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000FA050000}"/>
+    <cellStyle name="Migliaia 40 6" xfId="3095" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
+    <cellStyle name="Migliaia 41" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000FC050000}"/>
+    <cellStyle name="Migliaia 41 2" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000FD050000}"/>
+    <cellStyle name="Migliaia 41 2 2" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000FE050000}"/>
+    <cellStyle name="Migliaia 41 2 2 2" xfId="3104" xr:uid="{00000000-0005-0000-0000-0000FF050000}"/>
+    <cellStyle name="Migliaia 41 2 3" xfId="3103" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
+    <cellStyle name="Migliaia 41 3" xfId="1016" xr:uid="{00000000-0005-0000-0000-000001060000}"/>
+    <cellStyle name="Migliaia 41 3 2" xfId="1017" xr:uid="{00000000-0005-0000-0000-000002060000}"/>
+    <cellStyle name="Migliaia 41 3 2 2" xfId="1018" xr:uid="{00000000-0005-0000-0000-000003060000}"/>
+    <cellStyle name="Migliaia 41 3 2 3" xfId="3106" xr:uid="{00000000-0005-0000-0000-000004060000}"/>
+    <cellStyle name="Migliaia 41 3 3" xfId="3105" xr:uid="{00000000-0005-0000-0000-000005060000}"/>
+    <cellStyle name="Migliaia 41 4" xfId="1019" xr:uid="{00000000-0005-0000-0000-000006060000}"/>
+    <cellStyle name="Migliaia 41 4 2" xfId="1020" xr:uid="{00000000-0005-0000-0000-000007060000}"/>
+    <cellStyle name="Migliaia 41 4 2 2" xfId="3108" xr:uid="{00000000-0005-0000-0000-000008060000}"/>
+    <cellStyle name="Migliaia 41 4 3" xfId="3107" xr:uid="{00000000-0005-0000-0000-000009060000}"/>
+    <cellStyle name="Migliaia 41 5" xfId="1021" xr:uid="{00000000-0005-0000-0000-00000A060000}"/>
+    <cellStyle name="Migliaia 41 6" xfId="3102" xr:uid="{00000000-0005-0000-0000-00000B060000}"/>
+    <cellStyle name="Migliaia 42" xfId="1022" xr:uid="{00000000-0005-0000-0000-00000C060000}"/>
+    <cellStyle name="Migliaia 42 2" xfId="1023" xr:uid="{00000000-0005-0000-0000-00000D060000}"/>
+    <cellStyle name="Migliaia 42 2 2" xfId="1024" xr:uid="{00000000-0005-0000-0000-00000E060000}"/>
+    <cellStyle name="Migliaia 42 2 2 2" xfId="3111" xr:uid="{00000000-0005-0000-0000-00000F060000}"/>
+    <cellStyle name="Migliaia 42 2 3" xfId="3110" xr:uid="{00000000-0005-0000-0000-000010060000}"/>
+    <cellStyle name="Migliaia 42 3" xfId="1025" xr:uid="{00000000-0005-0000-0000-000011060000}"/>
+    <cellStyle name="Migliaia 42 3 2" xfId="1026" xr:uid="{00000000-0005-0000-0000-000012060000}"/>
+    <cellStyle name="Migliaia 42 3 2 2" xfId="1027" xr:uid="{00000000-0005-0000-0000-000013060000}"/>
+    <cellStyle name="Migliaia 42 3 2 3" xfId="3113" xr:uid="{00000000-0005-0000-0000-000014060000}"/>
+    <cellStyle name="Migliaia 42 3 3" xfId="3112" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
+    <cellStyle name="Migliaia 42 4" xfId="1028" xr:uid="{00000000-0005-0000-0000-000016060000}"/>
+    <cellStyle name="Migliaia 42 4 2" xfId="1029" xr:uid="{00000000-0005-0000-0000-000017060000}"/>
+    <cellStyle name="Migliaia 42 4 2 2" xfId="3115" xr:uid="{00000000-0005-0000-0000-000018060000}"/>
+    <cellStyle name="Migliaia 42 4 3" xfId="3114" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
+    <cellStyle name="Migliaia 42 5" xfId="1030" xr:uid="{00000000-0005-0000-0000-00001A060000}"/>
+    <cellStyle name="Migliaia 42 6" xfId="3109" xr:uid="{00000000-0005-0000-0000-00001B060000}"/>
+    <cellStyle name="Migliaia 43" xfId="1031" xr:uid="{00000000-0005-0000-0000-00001C060000}"/>
+    <cellStyle name="Migliaia 43 2" xfId="1032" xr:uid="{00000000-0005-0000-0000-00001D060000}"/>
+    <cellStyle name="Migliaia 43 2 2" xfId="1033" xr:uid="{00000000-0005-0000-0000-00001E060000}"/>
+    <cellStyle name="Migliaia 43 2 2 2" xfId="3118" xr:uid="{00000000-0005-0000-0000-00001F060000}"/>
+    <cellStyle name="Migliaia 43 2 3" xfId="3117" xr:uid="{00000000-0005-0000-0000-000020060000}"/>
+    <cellStyle name="Migliaia 43 3" xfId="1034" xr:uid="{00000000-0005-0000-0000-000021060000}"/>
+    <cellStyle name="Migliaia 43 3 2" xfId="1035" xr:uid="{00000000-0005-0000-0000-000022060000}"/>
+    <cellStyle name="Migliaia 43 3 2 2" xfId="1036" xr:uid="{00000000-0005-0000-0000-000023060000}"/>
+    <cellStyle name="Migliaia 43 3 2 3" xfId="3120" xr:uid="{00000000-0005-0000-0000-000024060000}"/>
+    <cellStyle name="Migliaia 43 3 3" xfId="3119" xr:uid="{00000000-0005-0000-0000-000025060000}"/>
+    <cellStyle name="Migliaia 43 4" xfId="1037" xr:uid="{00000000-0005-0000-0000-000026060000}"/>
+    <cellStyle name="Migliaia 43 4 2" xfId="1038" xr:uid="{00000000-0005-0000-0000-000027060000}"/>
+    <cellStyle name="Migliaia 43 4 2 2" xfId="3122" xr:uid="{00000000-0005-0000-0000-000028060000}"/>
+    <cellStyle name="Migliaia 43 4 3" xfId="3121" xr:uid="{00000000-0005-0000-0000-000029060000}"/>
+    <cellStyle name="Migliaia 43 5" xfId="1039" xr:uid="{00000000-0005-0000-0000-00002A060000}"/>
+    <cellStyle name="Migliaia 43 6" xfId="3116" xr:uid="{00000000-0005-0000-0000-00002B060000}"/>
+    <cellStyle name="Migliaia 44" xfId="1040" xr:uid="{00000000-0005-0000-0000-00002C060000}"/>
+    <cellStyle name="Migliaia 44 2" xfId="1041" xr:uid="{00000000-0005-0000-0000-00002D060000}"/>
+    <cellStyle name="Migliaia 44 2 2" xfId="1042" xr:uid="{00000000-0005-0000-0000-00002E060000}"/>
+    <cellStyle name="Migliaia 44 2 2 2" xfId="3125" xr:uid="{00000000-0005-0000-0000-00002F060000}"/>
+    <cellStyle name="Migliaia 44 2 3" xfId="3124" xr:uid="{00000000-0005-0000-0000-000030060000}"/>
+    <cellStyle name="Migliaia 44 3" xfId="1043" xr:uid="{00000000-0005-0000-0000-000031060000}"/>
+    <cellStyle name="Migliaia 44 3 2" xfId="1044" xr:uid="{00000000-0005-0000-0000-000032060000}"/>
+    <cellStyle name="Migliaia 44 3 2 2" xfId="1045" xr:uid="{00000000-0005-0000-0000-000033060000}"/>
+    <cellStyle name="Migliaia 44 3 2 3" xfId="3127" xr:uid="{00000000-0005-0000-0000-000034060000}"/>
+    <cellStyle name="Migliaia 44 3 3" xfId="3126" xr:uid="{00000000-0005-0000-0000-000035060000}"/>
+    <cellStyle name="Migliaia 44 4" xfId="1046" xr:uid="{00000000-0005-0000-0000-000036060000}"/>
+    <cellStyle name="Migliaia 44 4 2" xfId="1047" xr:uid="{00000000-0005-0000-0000-000037060000}"/>
+    <cellStyle name="Migliaia 44 4 2 2" xfId="3129" xr:uid="{00000000-0005-0000-0000-000038060000}"/>
+    <cellStyle name="Migliaia 44 4 3" xfId="3128" xr:uid="{00000000-0005-0000-0000-000039060000}"/>
+    <cellStyle name="Migliaia 44 5" xfId="1048" xr:uid="{00000000-0005-0000-0000-00003A060000}"/>
+    <cellStyle name="Migliaia 44 6" xfId="3123" xr:uid="{00000000-0005-0000-0000-00003B060000}"/>
+    <cellStyle name="Migliaia 45" xfId="1049" xr:uid="{00000000-0005-0000-0000-00003C060000}"/>
+    <cellStyle name="Migliaia 45 2" xfId="1050" xr:uid="{00000000-0005-0000-0000-00003D060000}"/>
+    <cellStyle name="Migliaia 45 2 2" xfId="1051" xr:uid="{00000000-0005-0000-0000-00003E060000}"/>
+    <cellStyle name="Migliaia 45 2 2 2" xfId="3132" xr:uid="{00000000-0005-0000-0000-00003F060000}"/>
+    <cellStyle name="Migliaia 45 2 3" xfId="3131" xr:uid="{00000000-0005-0000-0000-000040060000}"/>
+    <cellStyle name="Migliaia 45 3" xfId="1052" xr:uid="{00000000-0005-0000-0000-000041060000}"/>
+    <cellStyle name="Migliaia 45 3 2" xfId="1053" xr:uid="{00000000-0005-0000-0000-000042060000}"/>
+    <cellStyle name="Migliaia 45 3 2 2" xfId="1054" xr:uid="{00000000-0005-0000-0000-000043060000}"/>
+    <cellStyle name="Migliaia 45 3 2 3" xfId="3134" xr:uid="{00000000-0005-0000-0000-000044060000}"/>
+    <cellStyle name="Migliaia 45 3 3" xfId="3133" xr:uid="{00000000-0005-0000-0000-000045060000}"/>
+    <cellStyle name="Migliaia 45 4" xfId="1055" xr:uid="{00000000-0005-0000-0000-000046060000}"/>
+    <cellStyle name="Migliaia 45 4 2" xfId="1056" xr:uid="{00000000-0005-0000-0000-000047060000}"/>
+    <cellStyle name="Migliaia 45 4 2 2" xfId="3136" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
+    <cellStyle name="Migliaia 45 4 3" xfId="3135" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
+    <cellStyle name="Migliaia 45 5" xfId="1057" xr:uid="{00000000-0005-0000-0000-00004A060000}"/>
+    <cellStyle name="Migliaia 45 6" xfId="3130" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
+    <cellStyle name="Migliaia 46" xfId="1058" xr:uid="{00000000-0005-0000-0000-00004C060000}"/>
+    <cellStyle name="Migliaia 46 2" xfId="1059" xr:uid="{00000000-0005-0000-0000-00004D060000}"/>
+    <cellStyle name="Migliaia 46 2 2" xfId="1060" xr:uid="{00000000-0005-0000-0000-00004E060000}"/>
+    <cellStyle name="Migliaia 46 2 2 2" xfId="3139" xr:uid="{00000000-0005-0000-0000-00004F060000}"/>
+    <cellStyle name="Migliaia 46 2 3" xfId="3138" xr:uid="{00000000-0005-0000-0000-000050060000}"/>
+    <cellStyle name="Migliaia 46 3" xfId="1061" xr:uid="{00000000-0005-0000-0000-000051060000}"/>
+    <cellStyle name="Migliaia 46 3 2" xfId="1062" xr:uid="{00000000-0005-0000-0000-000052060000}"/>
+    <cellStyle name="Migliaia 46 3 2 2" xfId="1063" xr:uid="{00000000-0005-0000-0000-000053060000}"/>
+    <cellStyle name="Migliaia 46 3 2 3" xfId="3141" xr:uid="{00000000-0005-0000-0000-000054060000}"/>
+    <cellStyle name="Migliaia 46 3 3" xfId="3140" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
+    <cellStyle name="Migliaia 46 4" xfId="1064" xr:uid="{00000000-0005-0000-0000-000056060000}"/>
+    <cellStyle name="Migliaia 46 4 2" xfId="1065" xr:uid="{00000000-0005-0000-0000-000057060000}"/>
+    <cellStyle name="Migliaia 46 4 2 2" xfId="3143" xr:uid="{00000000-0005-0000-0000-000058060000}"/>
+    <cellStyle name="Migliaia 46 4 3" xfId="3142" xr:uid="{00000000-0005-0000-0000-000059060000}"/>
+    <cellStyle name="Migliaia 46 5" xfId="1066" xr:uid="{00000000-0005-0000-0000-00005A060000}"/>
+    <cellStyle name="Migliaia 46 6" xfId="3137" xr:uid="{00000000-0005-0000-0000-00005B060000}"/>
+    <cellStyle name="Migliaia 47" xfId="1067" xr:uid="{00000000-0005-0000-0000-00005C060000}"/>
+    <cellStyle name="Migliaia 47 2" xfId="1068" xr:uid="{00000000-0005-0000-0000-00005D060000}"/>
+    <cellStyle name="Migliaia 47 2 2" xfId="1069" xr:uid="{00000000-0005-0000-0000-00005E060000}"/>
+    <cellStyle name="Migliaia 47 2 2 2" xfId="3146" xr:uid="{00000000-0005-0000-0000-00005F060000}"/>
+    <cellStyle name="Migliaia 47 2 3" xfId="3145" xr:uid="{00000000-0005-0000-0000-000060060000}"/>
+    <cellStyle name="Migliaia 47 3" xfId="1070" xr:uid="{00000000-0005-0000-0000-000061060000}"/>
+    <cellStyle name="Migliaia 47 3 2" xfId="1071" xr:uid="{00000000-0005-0000-0000-000062060000}"/>
+    <cellStyle name="Migliaia 47 3 2 2" xfId="1072" xr:uid="{00000000-0005-0000-0000-000063060000}"/>
+    <cellStyle name="Migliaia 47 3 2 3" xfId="3148" xr:uid="{00000000-0005-0000-0000-000064060000}"/>
+    <cellStyle name="Migliaia 47 3 3" xfId="3147" xr:uid="{00000000-0005-0000-0000-000065060000}"/>
+    <cellStyle name="Migliaia 47 4" xfId="1073" xr:uid="{00000000-0005-0000-0000-000066060000}"/>
+    <cellStyle name="Migliaia 47 4 2" xfId="1074" xr:uid="{00000000-0005-0000-0000-000067060000}"/>
+    <cellStyle name="Migliaia 47 4 2 2" xfId="3150" xr:uid="{00000000-0005-0000-0000-000068060000}"/>
+    <cellStyle name="Migliaia 47 4 3" xfId="3149" xr:uid="{00000000-0005-0000-0000-000069060000}"/>
+    <cellStyle name="Migliaia 47 5" xfId="1075" xr:uid="{00000000-0005-0000-0000-00006A060000}"/>
+    <cellStyle name="Migliaia 47 6" xfId="3144" xr:uid="{00000000-0005-0000-0000-00006B060000}"/>
+    <cellStyle name="Migliaia 48" xfId="1076" xr:uid="{00000000-0005-0000-0000-00006C060000}"/>
+    <cellStyle name="Migliaia 48 2" xfId="1077" xr:uid="{00000000-0005-0000-0000-00006D060000}"/>
+    <cellStyle name="Migliaia 48 2 2" xfId="1078" xr:uid="{00000000-0005-0000-0000-00006E060000}"/>
+    <cellStyle name="Migliaia 48 2 2 2" xfId="3153" xr:uid="{00000000-0005-0000-0000-00006F060000}"/>
+    <cellStyle name="Migliaia 48 2 3" xfId="3152" xr:uid="{00000000-0005-0000-0000-000070060000}"/>
+    <cellStyle name="Migliaia 48 3" xfId="1079" xr:uid="{00000000-0005-0000-0000-000071060000}"/>
+    <cellStyle name="Migliaia 48 3 2" xfId="1080" xr:uid="{00000000-0005-0000-0000-000072060000}"/>
+    <cellStyle name="Migliaia 48 3 2 2" xfId="1081" xr:uid="{00000000-0005-0000-0000-000073060000}"/>
+    <cellStyle name="Migliaia 48 3 2 3" xfId="3155" xr:uid="{00000000-0005-0000-0000-000074060000}"/>
+    <cellStyle name="Migliaia 48 3 3" xfId="3154" xr:uid="{00000000-0005-0000-0000-000075060000}"/>
+    <cellStyle name="Migliaia 48 4" xfId="1082" xr:uid="{00000000-0005-0000-0000-000076060000}"/>
+    <cellStyle name="Migliaia 48 4 2" xfId="1083" xr:uid="{00000000-0005-0000-0000-000077060000}"/>
+    <cellStyle name="Migliaia 48 4 2 2" xfId="3157" xr:uid="{00000000-0005-0000-0000-000078060000}"/>
+    <cellStyle name="Migliaia 48 4 3" xfId="3156" xr:uid="{00000000-0005-0000-0000-000079060000}"/>
+    <cellStyle name="Migliaia 48 5" xfId="1084" xr:uid="{00000000-0005-0000-0000-00007A060000}"/>
+    <cellStyle name="Migliaia 48 6" xfId="3151" xr:uid="{00000000-0005-0000-0000-00007B060000}"/>
+    <cellStyle name="Migliaia 49" xfId="1085" xr:uid="{00000000-0005-0000-0000-00007C060000}"/>
+    <cellStyle name="Migliaia 49 2" xfId="1086" xr:uid="{00000000-0005-0000-0000-00007D060000}"/>
+    <cellStyle name="Migliaia 49 2 2" xfId="1087" xr:uid="{00000000-0005-0000-0000-00007E060000}"/>
+    <cellStyle name="Migliaia 49 2 2 2" xfId="3160" xr:uid="{00000000-0005-0000-0000-00007F060000}"/>
+    <cellStyle name="Migliaia 49 2 3" xfId="3159" xr:uid="{00000000-0005-0000-0000-000080060000}"/>
+    <cellStyle name="Migliaia 49 3" xfId="1088" xr:uid="{00000000-0005-0000-0000-000081060000}"/>
+    <cellStyle name="Migliaia 49 3 2" xfId="1089" xr:uid="{00000000-0005-0000-0000-000082060000}"/>
+    <cellStyle name="Migliaia 49 3 2 2" xfId="1090" xr:uid="{00000000-0005-0000-0000-000083060000}"/>
+    <cellStyle name="Migliaia 49 3 2 3" xfId="3162" xr:uid="{00000000-0005-0000-0000-000084060000}"/>
+    <cellStyle name="Migliaia 49 3 3" xfId="3161" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
+    <cellStyle name="Migliaia 49 4" xfId="1091" xr:uid="{00000000-0005-0000-0000-000086060000}"/>
+    <cellStyle name="Migliaia 49 4 2" xfId="1092" xr:uid="{00000000-0005-0000-0000-000087060000}"/>
+    <cellStyle name="Migliaia 49 4 2 2" xfId="3164" xr:uid="{00000000-0005-0000-0000-000088060000}"/>
+    <cellStyle name="Migliaia 49 4 3" xfId="3163" xr:uid="{00000000-0005-0000-0000-000089060000}"/>
+    <cellStyle name="Migliaia 49 5" xfId="1093" xr:uid="{00000000-0005-0000-0000-00008A060000}"/>
+    <cellStyle name="Migliaia 49 6" xfId="3158" xr:uid="{00000000-0005-0000-0000-00008B060000}"/>
+    <cellStyle name="Migliaia 5" xfId="1094" xr:uid="{00000000-0005-0000-0000-00008C060000}"/>
+    <cellStyle name="Migliaia 5 2" xfId="1095" xr:uid="{00000000-0005-0000-0000-00008D060000}"/>
+    <cellStyle name="Migliaia 5 2 2" xfId="1096" xr:uid="{00000000-0005-0000-0000-00008E060000}"/>
+    <cellStyle name="Migliaia 5 2 2 2" xfId="3167" xr:uid="{00000000-0005-0000-0000-00008F060000}"/>
+    <cellStyle name="Migliaia 5 2 3" xfId="3166" xr:uid="{00000000-0005-0000-0000-000090060000}"/>
+    <cellStyle name="Migliaia 5 3" xfId="1097" xr:uid="{00000000-0005-0000-0000-000091060000}"/>
+    <cellStyle name="Migliaia 5 3 2" xfId="1098" xr:uid="{00000000-0005-0000-0000-000092060000}"/>
+    <cellStyle name="Migliaia 5 3 2 2" xfId="1099" xr:uid="{00000000-0005-0000-0000-000093060000}"/>
+    <cellStyle name="Migliaia 5 3 2 3" xfId="3169" xr:uid="{00000000-0005-0000-0000-000094060000}"/>
+    <cellStyle name="Migliaia 5 3 3" xfId="3168" xr:uid="{00000000-0005-0000-0000-000095060000}"/>
+    <cellStyle name="Migliaia 5 4" xfId="1100" xr:uid="{00000000-0005-0000-0000-000096060000}"/>
+    <cellStyle name="Migliaia 5 4 2" xfId="1101" xr:uid="{00000000-0005-0000-0000-000097060000}"/>
+    <cellStyle name="Migliaia 5 4 2 2" xfId="3171" xr:uid="{00000000-0005-0000-0000-000098060000}"/>
+    <cellStyle name="Migliaia 5 4 3" xfId="3170" xr:uid="{00000000-0005-0000-0000-000099060000}"/>
+    <cellStyle name="Migliaia 5 5" xfId="1102" xr:uid="{00000000-0005-0000-0000-00009A060000}"/>
+    <cellStyle name="Migliaia 5 6" xfId="3165" xr:uid="{00000000-0005-0000-0000-00009B060000}"/>
+    <cellStyle name="Migliaia 50" xfId="1103" xr:uid="{00000000-0005-0000-0000-00009C060000}"/>
+    <cellStyle name="Migliaia 50 2" xfId="1104" xr:uid="{00000000-0005-0000-0000-00009D060000}"/>
+    <cellStyle name="Migliaia 50 2 2" xfId="1105" xr:uid="{00000000-0005-0000-0000-00009E060000}"/>
+    <cellStyle name="Migliaia 50 2 2 2" xfId="3174" xr:uid="{00000000-0005-0000-0000-00009F060000}"/>
+    <cellStyle name="Migliaia 50 2 3" xfId="3173" xr:uid="{00000000-0005-0000-0000-0000A0060000}"/>
+    <cellStyle name="Migliaia 50 3" xfId="1106" xr:uid="{00000000-0005-0000-0000-0000A1060000}"/>
+    <cellStyle name="Migliaia 50 3 2" xfId="1107" xr:uid="{00000000-0005-0000-0000-0000A2060000}"/>
+    <cellStyle name="Migliaia 50 3 2 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-0000A3060000}"/>
+    <cellStyle name="Migliaia 50 3 2 3" xfId="3176" xr:uid="{00000000-0005-0000-0000-0000A4060000}"/>
+    <cellStyle name="Migliaia 50 3 3" xfId="3175" xr:uid="{00000000-0005-0000-0000-0000A5060000}"/>
+    <cellStyle name="Migliaia 50 4" xfId="1109" xr:uid="{00000000-0005-0000-0000-0000A6060000}"/>
+    <cellStyle name="Migliaia 50 4 2" xfId="1110" xr:uid="{00000000-0005-0000-0000-0000A7060000}"/>
+    <cellStyle name="Migliaia 50 4 2 2" xfId="3178" xr:uid="{00000000-0005-0000-0000-0000A8060000}"/>
+    <cellStyle name="Migliaia 50 4 3" xfId="3177" xr:uid="{00000000-0005-0000-0000-0000A9060000}"/>
+    <cellStyle name="Migliaia 50 5" xfId="1111" xr:uid="{00000000-0005-0000-0000-0000AA060000}"/>
+    <cellStyle name="Migliaia 50 6" xfId="3172" xr:uid="{00000000-0005-0000-0000-0000AB060000}"/>
+    <cellStyle name="Migliaia 51" xfId="1112" xr:uid="{00000000-0005-0000-0000-0000AC060000}"/>
+    <cellStyle name="Migliaia 51 2" xfId="1113" xr:uid="{00000000-0005-0000-0000-0000AD060000}"/>
+    <cellStyle name="Migliaia 51 2 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-0000AE060000}"/>
+    <cellStyle name="Migliaia 51 2 2 2" xfId="3181" xr:uid="{00000000-0005-0000-0000-0000AF060000}"/>
+    <cellStyle name="Migliaia 51 2 3" xfId="3180" xr:uid="{00000000-0005-0000-0000-0000B0060000}"/>
+    <cellStyle name="Migliaia 51 3" xfId="1115" xr:uid="{00000000-0005-0000-0000-0000B1060000}"/>
+    <cellStyle name="Migliaia 51 3 2" xfId="1116" xr:uid="{00000000-0005-0000-0000-0000B2060000}"/>
+    <cellStyle name="Migliaia 51 3 2 2" xfId="1117" xr:uid="{00000000-0005-0000-0000-0000B3060000}"/>
+    <cellStyle name="Migliaia 51 3 2 3" xfId="3183" xr:uid="{00000000-0005-0000-0000-0000B4060000}"/>
+    <cellStyle name="Migliaia 51 3 3" xfId="3182" xr:uid="{00000000-0005-0000-0000-0000B5060000}"/>
+    <cellStyle name="Migliaia 51 4" xfId="1118" xr:uid="{00000000-0005-0000-0000-0000B6060000}"/>
+    <cellStyle name="Migliaia 51 4 2" xfId="1119" xr:uid="{00000000-0005-0000-0000-0000B7060000}"/>
+    <cellStyle name="Migliaia 51 4 2 2" xfId="3185" xr:uid="{00000000-0005-0000-0000-0000B8060000}"/>
+    <cellStyle name="Migliaia 51 4 3" xfId="3184" xr:uid="{00000000-0005-0000-0000-0000B9060000}"/>
+    <cellStyle name="Migliaia 51 5" xfId="1120" xr:uid="{00000000-0005-0000-0000-0000BA060000}"/>
+    <cellStyle name="Migliaia 51 6" xfId="3179" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
+    <cellStyle name="Migliaia 52" xfId="1121" xr:uid="{00000000-0005-0000-0000-0000BC060000}"/>
+    <cellStyle name="Migliaia 52 2" xfId="1122" xr:uid="{00000000-0005-0000-0000-0000BD060000}"/>
+    <cellStyle name="Migliaia 52 2 2" xfId="1123" xr:uid="{00000000-0005-0000-0000-0000BE060000}"/>
+    <cellStyle name="Migliaia 52 2 2 2" xfId="3188" xr:uid="{00000000-0005-0000-0000-0000BF060000}"/>
+    <cellStyle name="Migliaia 52 2 3" xfId="3187" xr:uid="{00000000-0005-0000-0000-0000C0060000}"/>
+    <cellStyle name="Migliaia 52 3" xfId="1124" xr:uid="{00000000-0005-0000-0000-0000C1060000}"/>
+    <cellStyle name="Migliaia 52 3 2" xfId="1125" xr:uid="{00000000-0005-0000-0000-0000C2060000}"/>
+    <cellStyle name="Migliaia 52 3 2 2" xfId="1126" xr:uid="{00000000-0005-0000-0000-0000C3060000}"/>
+    <cellStyle name="Migliaia 52 3 2 3" xfId="3190" xr:uid="{00000000-0005-0000-0000-0000C4060000}"/>
+    <cellStyle name="Migliaia 52 3 3" xfId="3189" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
+    <cellStyle name="Migliaia 52 4" xfId="1127" xr:uid="{00000000-0005-0000-0000-0000C6060000}"/>
+    <cellStyle name="Migliaia 52 4 2" xfId="1128" xr:uid="{00000000-0005-0000-0000-0000C7060000}"/>
+    <cellStyle name="Migliaia 52 4 2 2" xfId="3192" xr:uid="{00000000-0005-0000-0000-0000C8060000}"/>
+    <cellStyle name="Migliaia 52 4 3" xfId="3191" xr:uid="{00000000-0005-0000-0000-0000C9060000}"/>
+    <cellStyle name="Migliaia 52 5" xfId="1129" xr:uid="{00000000-0005-0000-0000-0000CA060000}"/>
+    <cellStyle name="Migliaia 52 6" xfId="3186" xr:uid="{00000000-0005-0000-0000-0000CB060000}"/>
+    <cellStyle name="Migliaia 53" xfId="1130" xr:uid="{00000000-0005-0000-0000-0000CC060000}"/>
+    <cellStyle name="Migliaia 53 2" xfId="1131" xr:uid="{00000000-0005-0000-0000-0000CD060000}"/>
+    <cellStyle name="Migliaia 53 2 2" xfId="1132" xr:uid="{00000000-0005-0000-0000-0000CE060000}"/>
+    <cellStyle name="Migliaia 53 2 2 2" xfId="3195" xr:uid="{00000000-0005-0000-0000-0000CF060000}"/>
+    <cellStyle name="Migliaia 53 2 3" xfId="3194" xr:uid="{00000000-0005-0000-0000-0000D0060000}"/>
+    <cellStyle name="Migliaia 53 3" xfId="1133" xr:uid="{00000000-0005-0000-0000-0000D1060000}"/>
+    <cellStyle name="Migliaia 53 3 2" xfId="1134" xr:uid="{00000000-0005-0000-0000-0000D2060000}"/>
+    <cellStyle name="Migliaia 53 3 2 2" xfId="1135" xr:uid="{00000000-0005-0000-0000-0000D3060000}"/>
+    <cellStyle name="Migliaia 53 3 2 3" xfId="3197" xr:uid="{00000000-0005-0000-0000-0000D4060000}"/>
+    <cellStyle name="Migliaia 53 3 3" xfId="3196" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
+    <cellStyle name="Migliaia 53 4" xfId="1136" xr:uid="{00000000-0005-0000-0000-0000D6060000}"/>
+    <cellStyle name="Migliaia 53 4 2" xfId="1137" xr:uid="{00000000-0005-0000-0000-0000D7060000}"/>
+    <cellStyle name="Migliaia 53 4 2 2" xfId="3199" xr:uid="{00000000-0005-0000-0000-0000D8060000}"/>
+    <cellStyle name="Migliaia 53 4 3" xfId="3198" xr:uid="{00000000-0005-0000-0000-0000D9060000}"/>
+    <cellStyle name="Migliaia 53 5" xfId="1138" xr:uid="{00000000-0005-0000-0000-0000DA060000}"/>
+    <cellStyle name="Migliaia 53 6" xfId="3193" xr:uid="{00000000-0005-0000-0000-0000DB060000}"/>
+    <cellStyle name="Migliaia 54" xfId="1139" xr:uid="{00000000-0005-0000-0000-0000DC060000}"/>
+    <cellStyle name="Migliaia 54 2" xfId="1140" xr:uid="{00000000-0005-0000-0000-0000DD060000}"/>
+    <cellStyle name="Migliaia 54 2 2" xfId="1141" xr:uid="{00000000-0005-0000-0000-0000DE060000}"/>
+    <cellStyle name="Migliaia 54 2 2 2" xfId="3202" xr:uid="{00000000-0005-0000-0000-0000DF060000}"/>
+    <cellStyle name="Migliaia 54 2 3" xfId="3201" xr:uid="{00000000-0005-0000-0000-0000E0060000}"/>
+    <cellStyle name="Migliaia 54 3" xfId="1142" xr:uid="{00000000-0005-0000-0000-0000E1060000}"/>
+    <cellStyle name="Migliaia 54 3 2" xfId="1143" xr:uid="{00000000-0005-0000-0000-0000E2060000}"/>
+    <cellStyle name="Migliaia 54 3 2 2" xfId="1144" xr:uid="{00000000-0005-0000-0000-0000E3060000}"/>
+    <cellStyle name="Migliaia 54 3 2 3" xfId="3204" xr:uid="{00000000-0005-0000-0000-0000E4060000}"/>
+    <cellStyle name="Migliaia 54 3 3" xfId="3203" xr:uid="{00000000-0005-0000-0000-0000E5060000}"/>
+    <cellStyle name="Migliaia 54 4" xfId="1145" xr:uid="{00000000-0005-0000-0000-0000E6060000}"/>
+    <cellStyle name="Migliaia 54 4 2" xfId="1146" xr:uid="{00000000-0005-0000-0000-0000E7060000}"/>
+    <cellStyle name="Migliaia 54 4 2 2" xfId="3206" xr:uid="{00000000-0005-0000-0000-0000E8060000}"/>
+    <cellStyle name="Migliaia 54 4 3" xfId="3205" xr:uid="{00000000-0005-0000-0000-0000E9060000}"/>
+    <cellStyle name="Migliaia 54 5" xfId="1147" xr:uid="{00000000-0005-0000-0000-0000EA060000}"/>
+    <cellStyle name="Migliaia 54 6" xfId="3200" xr:uid="{00000000-0005-0000-0000-0000EB060000}"/>
+    <cellStyle name="Migliaia 55" xfId="1148" xr:uid="{00000000-0005-0000-0000-0000EC060000}"/>
+    <cellStyle name="Migliaia 55 2" xfId="1149" xr:uid="{00000000-0005-0000-0000-0000ED060000}"/>
+    <cellStyle name="Migliaia 55 2 2" xfId="1150" xr:uid="{00000000-0005-0000-0000-0000EE060000}"/>
+    <cellStyle name="Migliaia 55 2 2 2" xfId="3209" xr:uid="{00000000-0005-0000-0000-0000EF060000}"/>
+    <cellStyle name="Migliaia 55 2 3" xfId="3208" xr:uid="{00000000-0005-0000-0000-0000F0060000}"/>
+    <cellStyle name="Migliaia 55 3" xfId="1151" xr:uid="{00000000-0005-0000-0000-0000F1060000}"/>
+    <cellStyle name="Migliaia 55 3 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-0000F2060000}"/>
+    <cellStyle name="Migliaia 55 3 2 2" xfId="1153" xr:uid="{00000000-0005-0000-0000-0000F3060000}"/>
+    <cellStyle name="Migliaia 55 3 2 3" xfId="3211" xr:uid="{00000000-0005-0000-0000-0000F4060000}"/>
+    <cellStyle name="Migliaia 55 3 3" xfId="3210" xr:uid="{00000000-0005-0000-0000-0000F5060000}"/>
+    <cellStyle name="Migliaia 55 4" xfId="1154" xr:uid="{00000000-0005-0000-0000-0000F6060000}"/>
+    <cellStyle name="Migliaia 55 4 2" xfId="1155" xr:uid="{00000000-0005-0000-0000-0000F7060000}"/>
+    <cellStyle name="Migliaia 55 4 2 2" xfId="3213" xr:uid="{00000000-0005-0000-0000-0000F8060000}"/>
+    <cellStyle name="Migliaia 55 4 3" xfId="3212" xr:uid="{00000000-0005-0000-0000-0000F9060000}"/>
+    <cellStyle name="Migliaia 55 5" xfId="1156" xr:uid="{00000000-0005-0000-0000-0000FA060000}"/>
+    <cellStyle name="Migliaia 55 6" xfId="3207" xr:uid="{00000000-0005-0000-0000-0000FB060000}"/>
+    <cellStyle name="Migliaia 56" xfId="1157" xr:uid="{00000000-0005-0000-0000-0000FC060000}"/>
+    <cellStyle name="Migliaia 56 2" xfId="1158" xr:uid="{00000000-0005-0000-0000-0000FD060000}"/>
+    <cellStyle name="Migliaia 56 2 2" xfId="1159" xr:uid="{00000000-0005-0000-0000-0000FE060000}"/>
+    <cellStyle name="Migliaia 56 2 2 2" xfId="3216" xr:uid="{00000000-0005-0000-0000-0000FF060000}"/>
+    <cellStyle name="Migliaia 56 2 3" xfId="3215" xr:uid="{00000000-0005-0000-0000-000000070000}"/>
+    <cellStyle name="Migliaia 56 3" xfId="1160" xr:uid="{00000000-0005-0000-0000-000001070000}"/>
+    <cellStyle name="Migliaia 56 3 2" xfId="1161" xr:uid="{00000000-0005-0000-0000-000002070000}"/>
+    <cellStyle name="Migliaia 56 3 2 2" xfId="1162" xr:uid="{00000000-0005-0000-0000-000003070000}"/>
+    <cellStyle name="Migliaia 56 3 2 3" xfId="3218" xr:uid="{00000000-0005-0000-0000-000004070000}"/>
+    <cellStyle name="Migliaia 56 3 3" xfId="3217" xr:uid="{00000000-0005-0000-0000-000005070000}"/>
+    <cellStyle name="Migliaia 56 4" xfId="1163" xr:uid="{00000000-0005-0000-0000-000006070000}"/>
+    <cellStyle name="Migliaia 56 4 2" xfId="1164" xr:uid="{00000000-0005-0000-0000-000007070000}"/>
+    <cellStyle name="Migliaia 56 4 2 2" xfId="3220" xr:uid="{00000000-0005-0000-0000-000008070000}"/>
+    <cellStyle name="Migliaia 56 4 3" xfId="3219" xr:uid="{00000000-0005-0000-0000-000009070000}"/>
+    <cellStyle name="Migliaia 56 5" xfId="1165" xr:uid="{00000000-0005-0000-0000-00000A070000}"/>
+    <cellStyle name="Migliaia 56 6" xfId="3214" xr:uid="{00000000-0005-0000-0000-00000B070000}"/>
+    <cellStyle name="Migliaia 57" xfId="1166" xr:uid="{00000000-0005-0000-0000-00000C070000}"/>
+    <cellStyle name="Migliaia 57 2" xfId="1167" xr:uid="{00000000-0005-0000-0000-00000D070000}"/>
+    <cellStyle name="Migliaia 57 2 2" xfId="1168" xr:uid="{00000000-0005-0000-0000-00000E070000}"/>
+    <cellStyle name="Migliaia 57 2 2 2" xfId="3223" xr:uid="{00000000-0005-0000-0000-00000F070000}"/>
+    <cellStyle name="Migliaia 57 2 3" xfId="3222" xr:uid="{00000000-0005-0000-0000-000010070000}"/>
+    <cellStyle name="Migliaia 57 3" xfId="1169" xr:uid="{00000000-0005-0000-0000-000011070000}"/>
+    <cellStyle name="Migliaia 57 3 2" xfId="1170" xr:uid="{00000000-0005-0000-0000-000012070000}"/>
+    <cellStyle name="Migliaia 57 3 2 2" xfId="1171" xr:uid="{00000000-0005-0000-0000-000013070000}"/>
+    <cellStyle name="Migliaia 57 3 2 3" xfId="3225" xr:uid="{00000000-0005-0000-0000-000014070000}"/>
+    <cellStyle name="Migliaia 57 3 3" xfId="3224" xr:uid="{00000000-0005-0000-0000-000015070000}"/>
+    <cellStyle name="Migliaia 57 4" xfId="1172" xr:uid="{00000000-0005-0000-0000-000016070000}"/>
+    <cellStyle name="Migliaia 57 4 2" xfId="1173" xr:uid="{00000000-0005-0000-0000-000017070000}"/>
+    <cellStyle name="Migliaia 57 4 2 2" xfId="3227" xr:uid="{00000000-0005-0000-0000-000018070000}"/>
+    <cellStyle name="Migliaia 57 4 3" xfId="3226" xr:uid="{00000000-0005-0000-0000-000019070000}"/>
+    <cellStyle name="Migliaia 57 5" xfId="1174" xr:uid="{00000000-0005-0000-0000-00001A070000}"/>
+    <cellStyle name="Migliaia 57 6" xfId="3221" xr:uid="{00000000-0005-0000-0000-00001B070000}"/>
+    <cellStyle name="Migliaia 58" xfId="1175" xr:uid="{00000000-0005-0000-0000-00001C070000}"/>
+    <cellStyle name="Migliaia 58 2" xfId="1176" xr:uid="{00000000-0005-0000-0000-00001D070000}"/>
+    <cellStyle name="Migliaia 58 2 2" xfId="1177" xr:uid="{00000000-0005-0000-0000-00001E070000}"/>
+    <cellStyle name="Migliaia 58 2 2 2" xfId="3230" xr:uid="{00000000-0005-0000-0000-00001F070000}"/>
+    <cellStyle name="Migliaia 58 2 3" xfId="3229" xr:uid="{00000000-0005-0000-0000-000020070000}"/>
+    <cellStyle name="Migliaia 58 3" xfId="1178" xr:uid="{00000000-0005-0000-0000-000021070000}"/>
+    <cellStyle name="Migliaia 58 3 2" xfId="1179" xr:uid="{00000000-0005-0000-0000-000022070000}"/>
+    <cellStyle name="Migliaia 58 3 2 2" xfId="1180" xr:uid="{00000000-0005-0000-0000-000023070000}"/>
+    <cellStyle name="Migliaia 58 3 2 3" xfId="3232" xr:uid="{00000000-0005-0000-0000-000024070000}"/>
+    <cellStyle name="Migliaia 58 3 3" xfId="3231" xr:uid="{00000000-0005-0000-0000-000025070000}"/>
+    <cellStyle name="Migliaia 58 4" xfId="1181" xr:uid="{00000000-0005-0000-0000-000026070000}"/>
+    <cellStyle name="Migliaia 58 4 2" xfId="1182" xr:uid="{00000000-0005-0000-0000-000027070000}"/>
+    <cellStyle name="Migliaia 58 4 2 2" xfId="3234" xr:uid="{00000000-0005-0000-0000-000028070000}"/>
+    <cellStyle name="Migliaia 58 4 3" xfId="3233" xr:uid="{00000000-0005-0000-0000-000029070000}"/>
+    <cellStyle name="Migliaia 58 5" xfId="1183" xr:uid="{00000000-0005-0000-0000-00002A070000}"/>
+    <cellStyle name="Migliaia 58 6" xfId="3228" xr:uid="{00000000-0005-0000-0000-00002B070000}"/>
+    <cellStyle name="Migliaia 59" xfId="1184" xr:uid="{00000000-0005-0000-0000-00002C070000}"/>
+    <cellStyle name="Migliaia 59 2" xfId="1185" xr:uid="{00000000-0005-0000-0000-00002D070000}"/>
+    <cellStyle name="Migliaia 59 2 2" xfId="1186" xr:uid="{00000000-0005-0000-0000-00002E070000}"/>
+    <cellStyle name="Migliaia 59 2 2 2" xfId="3237" xr:uid="{00000000-0005-0000-0000-00002F070000}"/>
+    <cellStyle name="Migliaia 59 2 3" xfId="3236" xr:uid="{00000000-0005-0000-0000-000030070000}"/>
+    <cellStyle name="Migliaia 59 3" xfId="1187" xr:uid="{00000000-0005-0000-0000-000031070000}"/>
+    <cellStyle name="Migliaia 59 3 2" xfId="1188" xr:uid="{00000000-0005-0000-0000-000032070000}"/>
+    <cellStyle name="Migliaia 59 3 2 2" xfId="1189" xr:uid="{00000000-0005-0000-0000-000033070000}"/>
+    <cellStyle name="Migliaia 59 3 2 3" xfId="3239" xr:uid="{00000000-0005-0000-0000-000034070000}"/>
+    <cellStyle name="Migliaia 59 3 3" xfId="3238" xr:uid="{00000000-0005-0000-0000-000035070000}"/>
+    <cellStyle name="Migliaia 59 4" xfId="1190" xr:uid="{00000000-0005-0000-0000-000036070000}"/>
+    <cellStyle name="Migliaia 59 4 2" xfId="1191" xr:uid="{00000000-0005-0000-0000-000037070000}"/>
+    <cellStyle name="Migliaia 59 4 2 2" xfId="3241" xr:uid="{00000000-0005-0000-0000-000038070000}"/>
+    <cellStyle name="Migliaia 59 4 3" xfId="3240" xr:uid="{00000000-0005-0000-0000-000039070000}"/>
+    <cellStyle name="Migliaia 59 5" xfId="1192" xr:uid="{00000000-0005-0000-0000-00003A070000}"/>
+    <cellStyle name="Migliaia 59 6" xfId="3235" xr:uid="{00000000-0005-0000-0000-00003B070000}"/>
+    <cellStyle name="Migliaia 6" xfId="1193" xr:uid="{00000000-0005-0000-0000-00003C070000}"/>
+    <cellStyle name="Migliaia 6 2" xfId="1194" xr:uid="{00000000-0005-0000-0000-00003D070000}"/>
+    <cellStyle name="Migliaia 6 2 2" xfId="1195" xr:uid="{00000000-0005-0000-0000-00003E070000}"/>
+    <cellStyle name="Migliaia 6 2 2 2" xfId="3244" xr:uid="{00000000-0005-0000-0000-00003F070000}"/>
+    <cellStyle name="Migliaia 6 2 3" xfId="3243" xr:uid="{00000000-0005-0000-0000-000040070000}"/>
+    <cellStyle name="Migliaia 6 3" xfId="1196" xr:uid="{00000000-0005-0000-0000-000041070000}"/>
+    <cellStyle name="Migliaia 6 3 2" xfId="1197" xr:uid="{00000000-0005-0000-0000-000042070000}"/>
+    <cellStyle name="Migliaia 6 3 2 2" xfId="1198" xr:uid="{00000000-0005-0000-0000-000043070000}"/>
+    <cellStyle name="Migliaia 6 3 2 3" xfId="3246" xr:uid="{00000000-0005-0000-0000-000044070000}"/>
+    <cellStyle name="Migliaia 6 3 3" xfId="3245" xr:uid="{00000000-0005-0000-0000-000045070000}"/>
+    <cellStyle name="Migliaia 6 4" xfId="1199" xr:uid="{00000000-0005-0000-0000-000046070000}"/>
+    <cellStyle name="Migliaia 6 4 2" xfId="1200" xr:uid="{00000000-0005-0000-0000-000047070000}"/>
+    <cellStyle name="Migliaia 6 4 2 2" xfId="3248" xr:uid="{00000000-0005-0000-0000-000048070000}"/>
+    <cellStyle name="Migliaia 6 4 3" xfId="3247" xr:uid="{00000000-0005-0000-0000-000049070000}"/>
+    <cellStyle name="Migliaia 6 5" xfId="1201" xr:uid="{00000000-0005-0000-0000-00004A070000}"/>
+    <cellStyle name="Migliaia 6 6" xfId="3242" xr:uid="{00000000-0005-0000-0000-00004B070000}"/>
+    <cellStyle name="Migliaia 60" xfId="1202" xr:uid="{00000000-0005-0000-0000-00004C070000}"/>
+    <cellStyle name="Migliaia 60 2" xfId="1203" xr:uid="{00000000-0005-0000-0000-00004D070000}"/>
+    <cellStyle name="Migliaia 60 2 2" xfId="1204" xr:uid="{00000000-0005-0000-0000-00004E070000}"/>
+    <cellStyle name="Migliaia 60 2 2 2" xfId="3251" xr:uid="{00000000-0005-0000-0000-00004F070000}"/>
+    <cellStyle name="Migliaia 60 2 3" xfId="3250" xr:uid="{00000000-0005-0000-0000-000050070000}"/>
+    <cellStyle name="Migliaia 60 3" xfId="1205" xr:uid="{00000000-0005-0000-0000-000051070000}"/>
+    <cellStyle name="Migliaia 60 3 2" xfId="1206" xr:uid="{00000000-0005-0000-0000-000052070000}"/>
+    <cellStyle name="Migliaia 60 3 2 2" xfId="1207" xr:uid="{00000000-0005-0000-0000-000053070000}"/>
+    <cellStyle name="Migliaia 60 3 2 3" xfId="3253" xr:uid="{00000000-0005-0000-0000-000054070000}"/>
+    <cellStyle name="Migliaia 60 3 3" xfId="3252" xr:uid="{00000000-0005-0000-0000-000055070000}"/>
+    <cellStyle name="Migliaia 60 4" xfId="1208" xr:uid="{00000000-0005-0000-0000-000056070000}"/>
+    <cellStyle name="Migliaia 60 4 2" xfId="1209" xr:uid="{00000000-0005-0000-0000-000057070000}"/>
+    <cellStyle name="Migliaia 60 4 2 2" xfId="3255" xr:uid="{00000000-0005-0000-0000-000058070000}"/>
+    <cellStyle name="Migliaia 60 4 3" xfId="3254" xr:uid="{00000000-0005-0000-0000-000059070000}"/>
+    <cellStyle name="Migliaia 60 5" xfId="1210" xr:uid="{00000000-0005-0000-0000-00005A070000}"/>
+    <cellStyle name="Migliaia 60 6" xfId="3249" xr:uid="{00000000-0005-0000-0000-00005B070000}"/>
+    <cellStyle name="Migliaia 61" xfId="1211" xr:uid="{00000000-0005-0000-0000-00005C070000}"/>
+    <cellStyle name="Migliaia 61 2" xfId="1212" xr:uid="{00000000-0005-0000-0000-00005D070000}"/>
+    <cellStyle name="Migliaia 61 2 2" xfId="1213" xr:uid="{00000000-0005-0000-0000-00005E070000}"/>
+    <cellStyle name="Migliaia 61 2 2 2" xfId="3258" xr:uid="{00000000-0005-0000-0000-00005F070000}"/>
+    <cellStyle name="Migliaia 61 2 3" xfId="3257" xr:uid="{00000000-0005-0000-0000-000060070000}"/>
+    <cellStyle name="Migliaia 61 3" xfId="1214" xr:uid="{00000000-0005-0000-0000-000061070000}"/>
+    <cellStyle name="Migliaia 61 3 2" xfId="1215" xr:uid="{00000000-0005-0000-0000-000062070000}"/>
+    <cellStyle name="Migliaia 61 3 2 2" xfId="1216" xr:uid="{00000000-0005-0000-0000-000063070000}"/>
+    <cellStyle name="Migliaia 61 3 2 3" xfId="3260" xr:uid="{00000000-0005-0000-0000-000064070000}"/>
+    <cellStyle name="Migliaia 61 3 3" xfId="3259" xr:uid="{00000000-0005-0000-0000-000065070000}"/>
+    <cellStyle name="Migliaia 61 4" xfId="1217" xr:uid="{00000000-0005-0000-0000-000066070000}"/>
+    <cellStyle name="Migliaia 61 4 2" xfId="1218" xr:uid="{00000000-0005-0000-0000-000067070000}"/>
+    <cellStyle name="Migliaia 61 4 2 2" xfId="3262" xr:uid="{00000000-0005-0000-0000-000068070000}"/>
+    <cellStyle name="Migliaia 61 4 3" xfId="3261" xr:uid="{00000000-0005-0000-0000-000069070000}"/>
+    <cellStyle name="Migliaia 61 5" xfId="1219" xr:uid="{00000000-0005-0000-0000-00006A070000}"/>
+    <cellStyle name="Migliaia 61 6" xfId="3256" xr:uid="{00000000-0005-0000-0000-00006B070000}"/>
+    <cellStyle name="Migliaia 7" xfId="1220" xr:uid="{00000000-0005-0000-0000-00006C070000}"/>
+    <cellStyle name="Migliaia 7 2" xfId="1221" xr:uid="{00000000-0005-0000-0000-00006D070000}"/>
+    <cellStyle name="Migliaia 7 2 2" xfId="1222" xr:uid="{00000000-0005-0000-0000-00006E070000}"/>
+    <cellStyle name="Migliaia 7 2 2 2" xfId="3265" xr:uid="{00000000-0005-0000-0000-00006F070000}"/>
+    <cellStyle name="Migliaia 7 2 3" xfId="3264" xr:uid="{00000000-0005-0000-0000-000070070000}"/>
+    <cellStyle name="Migliaia 7 3" xfId="1223" xr:uid="{00000000-0005-0000-0000-000071070000}"/>
+    <cellStyle name="Migliaia 7 3 2" xfId="1224" xr:uid="{00000000-0005-0000-0000-000072070000}"/>
+    <cellStyle name="Migliaia 7 3 2 2" xfId="1225" xr:uid="{00000000-0005-0000-0000-000073070000}"/>
+    <cellStyle name="Migliaia 7 3 2 3" xfId="3267" xr:uid="{00000000-0005-0000-0000-000074070000}"/>
+    <cellStyle name="Migliaia 7 3 3" xfId="3266" xr:uid="{00000000-0005-0000-0000-000075070000}"/>
+    <cellStyle name="Migliaia 7 4" xfId="1226" xr:uid="{00000000-0005-0000-0000-000076070000}"/>
+    <cellStyle name="Migliaia 7 4 2" xfId="1227" xr:uid="{00000000-0005-0000-0000-000077070000}"/>
+    <cellStyle name="Migliaia 7 4 2 2" xfId="3269" xr:uid="{00000000-0005-0000-0000-000078070000}"/>
+    <cellStyle name="Migliaia 7 4 3" xfId="3268" xr:uid="{00000000-0005-0000-0000-000079070000}"/>
+    <cellStyle name="Migliaia 7 5" xfId="1228" xr:uid="{00000000-0005-0000-0000-00007A070000}"/>
+    <cellStyle name="Migliaia 7 6" xfId="3263" xr:uid="{00000000-0005-0000-0000-00007B070000}"/>
+    <cellStyle name="Migliaia 8" xfId="1229" xr:uid="{00000000-0005-0000-0000-00007C070000}"/>
+    <cellStyle name="Migliaia 8 2" xfId="1230" xr:uid="{00000000-0005-0000-0000-00007D070000}"/>
+    <cellStyle name="Migliaia 8 2 2" xfId="1231" xr:uid="{00000000-0005-0000-0000-00007E070000}"/>
+    <cellStyle name="Migliaia 8 2 2 2" xfId="3272" xr:uid="{00000000-0005-0000-0000-00007F070000}"/>
+    <cellStyle name="Migliaia 8 2 3" xfId="3271" xr:uid="{00000000-0005-0000-0000-000080070000}"/>
+    <cellStyle name="Migliaia 8 3" xfId="1232" xr:uid="{00000000-0005-0000-0000-000081070000}"/>
+    <cellStyle name="Migliaia 8 3 2" xfId="1233" xr:uid="{00000000-0005-0000-0000-000082070000}"/>
+    <cellStyle name="Migliaia 8 3 2 2" xfId="1234" xr:uid="{00000000-0005-0000-0000-000083070000}"/>
+    <cellStyle name="Migliaia 8 3 2 3" xfId="3274" xr:uid="{00000000-0005-0000-0000-000084070000}"/>
+    <cellStyle name="Migliaia 8 3 3" xfId="3273" xr:uid="{00000000-0005-0000-0000-000085070000}"/>
+    <cellStyle name="Migliaia 8 4" xfId="1235" xr:uid="{00000000-0005-0000-0000-000086070000}"/>
+    <cellStyle name="Migliaia 8 4 2" xfId="1236" xr:uid="{00000000-0005-0000-0000-000087070000}"/>
+    <cellStyle name="Migliaia 8 4 2 2" xfId="3276" xr:uid="{00000000-0005-0000-0000-000088070000}"/>
+    <cellStyle name="Migliaia 8 4 3" xfId="3275" xr:uid="{00000000-0005-0000-0000-000089070000}"/>
+    <cellStyle name="Migliaia 8 5" xfId="1237" xr:uid="{00000000-0005-0000-0000-00008A070000}"/>
+    <cellStyle name="Migliaia 8 6" xfId="3270" xr:uid="{00000000-0005-0000-0000-00008B070000}"/>
+    <cellStyle name="Migliaia 9" xfId="1238" xr:uid="{00000000-0005-0000-0000-00008C070000}"/>
+    <cellStyle name="Migliaia 9 2" xfId="1239" xr:uid="{00000000-0005-0000-0000-00008D070000}"/>
+    <cellStyle name="Migliaia 9 2 2" xfId="1240" xr:uid="{00000000-0005-0000-0000-00008E070000}"/>
+    <cellStyle name="Migliaia 9 2 2 2" xfId="3279" xr:uid="{00000000-0005-0000-0000-00008F070000}"/>
+    <cellStyle name="Migliaia 9 2 3" xfId="3278" xr:uid="{00000000-0005-0000-0000-000090070000}"/>
+    <cellStyle name="Migliaia 9 3" xfId="1241" xr:uid="{00000000-0005-0000-0000-000091070000}"/>
+    <cellStyle name="Migliaia 9 3 2" xfId="1242" xr:uid="{00000000-0005-0000-0000-000092070000}"/>
+    <cellStyle name="Migliaia 9 3 2 2" xfId="1243" xr:uid="{00000000-0005-0000-0000-000093070000}"/>
+    <cellStyle name="Migliaia 9 3 2 3" xfId="3281" xr:uid="{00000000-0005-0000-0000-000094070000}"/>
+    <cellStyle name="Migliaia 9 3 3" xfId="3280" xr:uid="{00000000-0005-0000-0000-000095070000}"/>
+    <cellStyle name="Migliaia 9 4" xfId="1244" xr:uid="{00000000-0005-0000-0000-000096070000}"/>
+    <cellStyle name="Migliaia 9 4 2" xfId="1245" xr:uid="{00000000-0005-0000-0000-000097070000}"/>
+    <cellStyle name="Migliaia 9 4 2 2" xfId="3283" xr:uid="{00000000-0005-0000-0000-000098070000}"/>
+    <cellStyle name="Migliaia 9 4 3" xfId="3282" xr:uid="{00000000-0005-0000-0000-000099070000}"/>
+    <cellStyle name="Migliaia 9 5" xfId="1246" xr:uid="{00000000-0005-0000-0000-00009A070000}"/>
+    <cellStyle name="Migliaia 9 6" xfId="3277" xr:uid="{00000000-0005-0000-0000-00009B070000}"/>
+    <cellStyle name="Neutral 2" xfId="1247" xr:uid="{00000000-0005-0000-0000-00009C070000}"/>
+    <cellStyle name="Neutrale" xfId="1248" xr:uid="{00000000-0005-0000-0000-00009D070000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1249"/>
-    <cellStyle name="Normal 10 2" xfId="1250"/>
-    <cellStyle name="Normal 10 2 2" xfId="3285"/>
-    <cellStyle name="Normal 10 3" xfId="3284"/>
-    <cellStyle name="Normal 11" xfId="1251"/>
-    <cellStyle name="Normal 11 3" xfId="2582"/>
-    <cellStyle name="Normal 12" xfId="1252"/>
-    <cellStyle name="Normal 12 2" xfId="1253"/>
-    <cellStyle name="Normal 13" xfId="1254"/>
-    <cellStyle name="Normal 13 2" xfId="3286"/>
-    <cellStyle name="Normal 14" xfId="1255"/>
-    <cellStyle name="Normal 14 2" xfId="3287"/>
-    <cellStyle name="Normal 15" xfId="1256"/>
-    <cellStyle name="Normal 15 2" xfId="3288"/>
-    <cellStyle name="Normal 16" xfId="1257"/>
-    <cellStyle name="Normal 16 2" xfId="1258"/>
-    <cellStyle name="Normal 16 2 2" xfId="3289"/>
-    <cellStyle name="Normal 16 3" xfId="1259"/>
-    <cellStyle name="Normal 17" xfId="1260"/>
-    <cellStyle name="Normal 17 2" xfId="1261"/>
-    <cellStyle name="Normal 17 2 2" xfId="3291"/>
-    <cellStyle name="Normal 17 3" xfId="3290"/>
-    <cellStyle name="Normal 18" xfId="1262"/>
-    <cellStyle name="Normal 18 2" xfId="1263"/>
-    <cellStyle name="Normal 18 2 2" xfId="3293"/>
-    <cellStyle name="Normal 18 3" xfId="3292"/>
-    <cellStyle name="Normal 19" xfId="1264"/>
-    <cellStyle name="Normal 19 2" xfId="1265"/>
-    <cellStyle name="Normal 19 2 2" xfId="3294"/>
-    <cellStyle name="Normal 19 3" xfId="1266"/>
-    <cellStyle name="Normal 2" xfId="1267"/>
-    <cellStyle name="Normal 2 2" xfId="1268"/>
-    <cellStyle name="Normal 2 2 2" xfId="1269"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="1270"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="1271"/>
-    <cellStyle name="Normal 2 2 2 2 2 2" xfId="1272"/>
-    <cellStyle name="Normal 2 2 2 2 3" xfId="1273"/>
-    <cellStyle name="Normal 2 2 3" xfId="1274"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="1275"/>
-    <cellStyle name="Normal 2 2 3 2 2" xfId="1276"/>
-    <cellStyle name="Normal 2 2 3 3" xfId="1277"/>
-    <cellStyle name="Normal 2 2 4" xfId="1278"/>
-    <cellStyle name="Normal 2 2 4 2" xfId="1279"/>
-    <cellStyle name="Normal 2 2 5" xfId="1280"/>
-    <cellStyle name="Normal 2 3" xfId="1281"/>
-    <cellStyle name="Normal 2 4" xfId="1282"/>
-    <cellStyle name="Normal 2 4 2" xfId="1283"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="1284"/>
-    <cellStyle name="Normal 2 4 3" xfId="1285"/>
-    <cellStyle name="Normal 2 5" xfId="1286"/>
-    <cellStyle name="Normal 2 5 2" xfId="3295"/>
-    <cellStyle name="Normal 2_Plants" xfId="1287"/>
-    <cellStyle name="Normal 20" xfId="1288"/>
-    <cellStyle name="Normal 20 2" xfId="3296"/>
-    <cellStyle name="Normal 21" xfId="1289"/>
-    <cellStyle name="Normal 21 2" xfId="3297"/>
-    <cellStyle name="Normal 22" xfId="1290"/>
-    <cellStyle name="Normal 22 2" xfId="3298"/>
-    <cellStyle name="Normal 23" xfId="1291"/>
-    <cellStyle name="Normal 23 2" xfId="3299"/>
-    <cellStyle name="Normal 24" xfId="1292"/>
-    <cellStyle name="Normal 24 2" xfId="3300"/>
-    <cellStyle name="Normal 25" xfId="1293"/>
-    <cellStyle name="Normal 25 2" xfId="3301"/>
-    <cellStyle name="Normal 26" xfId="1294"/>
-    <cellStyle name="Normal 26 2" xfId="3302"/>
-    <cellStyle name="Normal 27" xfId="1295"/>
-    <cellStyle name="Normal 27 2" xfId="3303"/>
-    <cellStyle name="Normal 28" xfId="1296"/>
-    <cellStyle name="Normal 28 2" xfId="3304"/>
-    <cellStyle name="Normal 29" xfId="1297"/>
-    <cellStyle name="Normal 29 2" xfId="1298"/>
-    <cellStyle name="Normal 3" xfId="1299"/>
-    <cellStyle name="Normal 3 10" xfId="1300"/>
-    <cellStyle name="Normal 3 10 2" xfId="3305"/>
-    <cellStyle name="Normal 3 11" xfId="1301"/>
-    <cellStyle name="Normal 3 11 2" xfId="3306"/>
-    <cellStyle name="Normal 3 12" xfId="1302"/>
-    <cellStyle name="Normal 3 12 2" xfId="3307"/>
-    <cellStyle name="Normal 3 13" xfId="1303"/>
-    <cellStyle name="Normal 3 13 2" xfId="3308"/>
-    <cellStyle name="Normal 3 14" xfId="1304"/>
-    <cellStyle name="Normal 3 14 2" xfId="3309"/>
-    <cellStyle name="Normal 3 15" xfId="1305"/>
-    <cellStyle name="Normal 3 15 2" xfId="3310"/>
-    <cellStyle name="Normal 3 16" xfId="1306"/>
-    <cellStyle name="Normal 3 2" xfId="1307"/>
-    <cellStyle name="Normal 3 2 2" xfId="1308"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="1309"/>
-    <cellStyle name="Normal 3 2 2 2 2" xfId="3311"/>
-    <cellStyle name="Normal 3 2 2 3" xfId="1310"/>
-    <cellStyle name="Normal 3 2 2 3 2" xfId="1311"/>
-    <cellStyle name="Normal 3 2 2 4" xfId="1312"/>
-    <cellStyle name="Normal 3 2 3" xfId="1313"/>
-    <cellStyle name="Normal 3 2 3 2" xfId="1314"/>
-    <cellStyle name="Normal 3 2 3 2 2" xfId="1315"/>
-    <cellStyle name="Normal 3 2 3 3" xfId="1316"/>
-    <cellStyle name="Normal 3 2 4" xfId="1317"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="1318"/>
-    <cellStyle name="Normal 3 2 5" xfId="1319"/>
-    <cellStyle name="Normal 3 3" xfId="1320"/>
-    <cellStyle name="Normal 3 3 2" xfId="1321"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="1322"/>
-    <cellStyle name="Normal 3 3 2 2 2" xfId="1323"/>
-    <cellStyle name="Normal 3 3 2 3" xfId="1324"/>
-    <cellStyle name="Normal 3 3 3" xfId="1325"/>
-    <cellStyle name="Normal 3 3 3 2" xfId="1326"/>
-    <cellStyle name="Normal 3 3 4" xfId="1327"/>
-    <cellStyle name="Normal 3 4" xfId="1328"/>
-    <cellStyle name="Normal 3 4 2" xfId="1329"/>
-    <cellStyle name="Normal 3 4 2 2" xfId="3312"/>
-    <cellStyle name="Normal 3 5" xfId="1330"/>
-    <cellStyle name="Normal 3 6" xfId="1331"/>
-    <cellStyle name="Normal 3 6 2" xfId="1332"/>
-    <cellStyle name="Normal 3 7" xfId="1333"/>
-    <cellStyle name="Normal 3 7 2" xfId="3313"/>
-    <cellStyle name="Normal 3 8" xfId="1334"/>
-    <cellStyle name="Normal 3 8 2" xfId="3314"/>
-    <cellStyle name="Normal 3 9" xfId="1335"/>
-    <cellStyle name="Normal 3 9 2" xfId="3315"/>
-    <cellStyle name="Normal 30" xfId="1336"/>
-    <cellStyle name="Normal 31" xfId="1337"/>
-    <cellStyle name="Normal 31 2" xfId="3316"/>
-    <cellStyle name="Normal 32" xfId="1338"/>
-    <cellStyle name="Normal 32 2" xfId="3317"/>
-    <cellStyle name="Normal 33" xfId="1339"/>
-    <cellStyle name="Normal 33 2" xfId="3318"/>
-    <cellStyle name="Normal 34" xfId="1340"/>
-    <cellStyle name="Normal 34 2" xfId="3319"/>
-    <cellStyle name="Normal 35" xfId="1341"/>
-    <cellStyle name="Normal 4" xfId="1342"/>
-    <cellStyle name="Normal 4 10" xfId="1343"/>
-    <cellStyle name="Normal 4 10 2" xfId="3320"/>
-    <cellStyle name="Normal 4 11" xfId="1344"/>
-    <cellStyle name="Normal 4 11 2" xfId="3321"/>
-    <cellStyle name="Normal 4 12" xfId="1345"/>
-    <cellStyle name="Normal 4 12 2" xfId="3322"/>
-    <cellStyle name="Normal 4 13" xfId="1346"/>
-    <cellStyle name="Normal 4 13 2" xfId="3323"/>
-    <cellStyle name="Normal 4 14" xfId="1347"/>
-    <cellStyle name="Normal 4 14 2" xfId="3324"/>
-    <cellStyle name="Normal 4 15" xfId="1348"/>
-    <cellStyle name="Normal 4 15 2" xfId="3325"/>
-    <cellStyle name="Normal 4 2" xfId="1349"/>
-    <cellStyle name="Normal 4 2 2" xfId="3326"/>
-    <cellStyle name="Normal 4 3" xfId="1350"/>
-    <cellStyle name="Normal 4 4" xfId="1351"/>
-    <cellStyle name="Normal 4 4 2" xfId="3327"/>
-    <cellStyle name="Normal 4 5" xfId="1352"/>
-    <cellStyle name="Normal 4 5 2" xfId="3328"/>
-    <cellStyle name="Normal 4 6" xfId="1353"/>
-    <cellStyle name="Normal 4 6 2" xfId="3329"/>
-    <cellStyle name="Normal 4 7" xfId="1354"/>
-    <cellStyle name="Normal 4 7 2" xfId="3330"/>
-    <cellStyle name="Normal 4 8" xfId="1355"/>
-    <cellStyle name="Normal 4 8 2" xfId="3331"/>
-    <cellStyle name="Normal 4 9" xfId="1356"/>
-    <cellStyle name="Normal 4 9 2" xfId="3332"/>
-    <cellStyle name="Normal 5" xfId="1357"/>
-    <cellStyle name="Normal 5 2" xfId="1358"/>
-    <cellStyle name="Normal 5 2 2" xfId="1359"/>
-    <cellStyle name="Normal 5 2 2 2" xfId="1360"/>
-    <cellStyle name="Normal 5 2 2 3" xfId="1361"/>
-    <cellStyle name="Normal 5 2 3" xfId="1362"/>
-    <cellStyle name="Normal 5 2 3 2" xfId="1363"/>
-    <cellStyle name="Normal 5 3" xfId="1364"/>
-    <cellStyle name="Normal 6" xfId="1365"/>
-    <cellStyle name="Normal 6 2" xfId="1366"/>
-    <cellStyle name="Normal 6 2 2" xfId="1367"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="3333"/>
-    <cellStyle name="Normal 6 2 3" xfId="1368"/>
-    <cellStyle name="Normal 6 2 3 2" xfId="1369"/>
-    <cellStyle name="Normal 6 2 4" xfId="1370"/>
-    <cellStyle name="Normal 6 3" xfId="1371"/>
-    <cellStyle name="Normal 6 3 2" xfId="1372"/>
-    <cellStyle name="Normal 6 3 2 2" xfId="1373"/>
-    <cellStyle name="Normal 6 3 2 2 2" xfId="1374"/>
-    <cellStyle name="Normal 6 3 2 3" xfId="1375"/>
-    <cellStyle name="Normal 6 3 3" xfId="3334"/>
-    <cellStyle name="Normal 6 4" xfId="1376"/>
-    <cellStyle name="Normal 6 4 2" xfId="1377"/>
-    <cellStyle name="Normal 6 5" xfId="1378"/>
-    <cellStyle name="Normal 7" xfId="1379"/>
-    <cellStyle name="Normal 7 2" xfId="1380"/>
-    <cellStyle name="Normal 7 3" xfId="1381"/>
-    <cellStyle name="Normal 7 3 2" xfId="1382"/>
-    <cellStyle name="Normal 7 3 2 2" xfId="1383"/>
-    <cellStyle name="Normal 7 3 3" xfId="1384"/>
-    <cellStyle name="Normal 8" xfId="1385"/>
-    <cellStyle name="Normal 8 2" xfId="1386"/>
-    <cellStyle name="Normal 8 2 2" xfId="1387"/>
-    <cellStyle name="Normal 8 2 2 2" xfId="1388"/>
-    <cellStyle name="Normal 8 2 2 2 2" xfId="1389"/>
-    <cellStyle name="Normal 8 2 2 3" xfId="1390"/>
-    <cellStyle name="Normal 8 2 3" xfId="3336"/>
-    <cellStyle name="Normal 8 3" xfId="1391"/>
-    <cellStyle name="Normal 8 4" xfId="3335"/>
-    <cellStyle name="Normal 9" xfId="1392"/>
-    <cellStyle name="Normal 9 2" xfId="1393"/>
-    <cellStyle name="Normal 9 2 2" xfId="1394"/>
-    <cellStyle name="Normal GHG Numbers (0.00)" xfId="1395"/>
-    <cellStyle name="Normal GHG Numbers (0.00) 2" xfId="1396"/>
-    <cellStyle name="Normal GHG Numbers (0.00) 3" xfId="1397"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="1398"/>
-    <cellStyle name="Normal GHG-Shade" xfId="1399"/>
-    <cellStyle name="Normal GHG-Shade 2" xfId="3337"/>
-    <cellStyle name="Normale 10" xfId="1400"/>
-    <cellStyle name="Normale 10 2" xfId="1401"/>
-    <cellStyle name="Normale 10 2 2" xfId="1402"/>
-    <cellStyle name="Normale 10 2 2 2" xfId="3340"/>
-    <cellStyle name="Normale 10 2 3" xfId="3339"/>
-    <cellStyle name="Normale 10 3" xfId="1403"/>
-    <cellStyle name="Normale 10 3 2" xfId="1404"/>
-    <cellStyle name="Normale 10 3 2 2" xfId="3342"/>
-    <cellStyle name="Normale 10 3 3" xfId="3341"/>
-    <cellStyle name="Normale 10 4" xfId="1405"/>
-    <cellStyle name="Normale 10 4 2" xfId="3343"/>
-    <cellStyle name="Normale 10 5" xfId="3338"/>
-    <cellStyle name="Normale 10_EDEN industria 2008 rev" xfId="1406"/>
-    <cellStyle name="Normale 11" xfId="1407"/>
-    <cellStyle name="Normale 11 2" xfId="1408"/>
-    <cellStyle name="Normale 11 2 2" xfId="1409"/>
-    <cellStyle name="Normale 11 2 2 2" xfId="3346"/>
-    <cellStyle name="Normale 11 2 3" xfId="3345"/>
-    <cellStyle name="Normale 11 3" xfId="1410"/>
-    <cellStyle name="Normale 11 3 2" xfId="1411"/>
-    <cellStyle name="Normale 11 3 2 2" xfId="3348"/>
-    <cellStyle name="Normale 11 3 3" xfId="3347"/>
-    <cellStyle name="Normale 11 4" xfId="1412"/>
-    <cellStyle name="Normale 11 4 2" xfId="3349"/>
-    <cellStyle name="Normale 11 5" xfId="3344"/>
-    <cellStyle name="Normale 11_EDEN industria 2008 rev" xfId="1413"/>
-    <cellStyle name="Normale 12" xfId="1414"/>
-    <cellStyle name="Normale 12 2" xfId="1415"/>
-    <cellStyle name="Normale 12 2 2" xfId="1416"/>
-    <cellStyle name="Normale 12 2 2 2" xfId="3352"/>
-    <cellStyle name="Normale 12 2 3" xfId="3351"/>
-    <cellStyle name="Normale 12 3" xfId="1417"/>
-    <cellStyle name="Normale 12 3 2" xfId="1418"/>
-    <cellStyle name="Normale 12 3 2 2" xfId="3354"/>
-    <cellStyle name="Normale 12 3 3" xfId="3353"/>
-    <cellStyle name="Normale 12 4" xfId="1419"/>
-    <cellStyle name="Normale 12 4 2" xfId="3355"/>
-    <cellStyle name="Normale 12 5" xfId="3350"/>
-    <cellStyle name="Normale 12_EDEN industria 2008 rev" xfId="1420"/>
-    <cellStyle name="Normale 13" xfId="1421"/>
-    <cellStyle name="Normale 13 2" xfId="1422"/>
-    <cellStyle name="Normale 13 2 2" xfId="1423"/>
-    <cellStyle name="Normale 13 2 2 2" xfId="3358"/>
-    <cellStyle name="Normale 13 2 3" xfId="3357"/>
-    <cellStyle name="Normale 13 3" xfId="1424"/>
-    <cellStyle name="Normale 13 3 2" xfId="1425"/>
-    <cellStyle name="Normale 13 3 2 2" xfId="3360"/>
-    <cellStyle name="Normale 13 3 3" xfId="3359"/>
-    <cellStyle name="Normale 13 4" xfId="1426"/>
-    <cellStyle name="Normale 13 4 2" xfId="3361"/>
-    <cellStyle name="Normale 13 5" xfId="3356"/>
-    <cellStyle name="Normale 13_EDEN industria 2008 rev" xfId="1427"/>
-    <cellStyle name="Normale 14" xfId="1428"/>
-    <cellStyle name="Normale 14 2" xfId="1429"/>
-    <cellStyle name="Normale 14 2 2" xfId="1430"/>
-    <cellStyle name="Normale 14 2 2 2" xfId="3364"/>
-    <cellStyle name="Normale 14 2 3" xfId="3363"/>
-    <cellStyle name="Normale 14 3" xfId="1431"/>
-    <cellStyle name="Normale 14 3 2" xfId="1432"/>
-    <cellStyle name="Normale 14 3 2 2" xfId="3366"/>
-    <cellStyle name="Normale 14 3 3" xfId="3365"/>
-    <cellStyle name="Normale 14 4" xfId="1433"/>
-    <cellStyle name="Normale 14 4 2" xfId="3367"/>
-    <cellStyle name="Normale 14 5" xfId="3362"/>
-    <cellStyle name="Normale 14_EDEN industria 2008 rev" xfId="1434"/>
-    <cellStyle name="Normale 15" xfId="1435"/>
-    <cellStyle name="Normale 15 2" xfId="1436"/>
-    <cellStyle name="Normale 15 2 2" xfId="1437"/>
-    <cellStyle name="Normale 15 2 2 2" xfId="3370"/>
-    <cellStyle name="Normale 15 2 3" xfId="3369"/>
-    <cellStyle name="Normale 15 3" xfId="1438"/>
-    <cellStyle name="Normale 15 3 2" xfId="1439"/>
-    <cellStyle name="Normale 15 3 2 2" xfId="3372"/>
-    <cellStyle name="Normale 15 3 3" xfId="3371"/>
-    <cellStyle name="Normale 15 4" xfId="1440"/>
-    <cellStyle name="Normale 15 4 2" xfId="3373"/>
-    <cellStyle name="Normale 15 5" xfId="3368"/>
-    <cellStyle name="Normale 15_EDEN industria 2008 rev" xfId="1441"/>
-    <cellStyle name="Normale 16" xfId="1442"/>
-    <cellStyle name="Normale 16 2" xfId="1443"/>
-    <cellStyle name="Normale 16 2 2" xfId="3375"/>
-    <cellStyle name="Normale 16 3" xfId="3374"/>
-    <cellStyle name="Normale 17" xfId="1444"/>
-    <cellStyle name="Normale 17 2" xfId="1445"/>
-    <cellStyle name="Normale 17 2 2" xfId="3377"/>
-    <cellStyle name="Normale 17 3" xfId="3376"/>
-    <cellStyle name="Normale 18" xfId="1446"/>
-    <cellStyle name="Normale 18 2" xfId="1447"/>
-    <cellStyle name="Normale 19" xfId="1448"/>
-    <cellStyle name="Normale 19 2" xfId="1449"/>
-    <cellStyle name="Normale 2" xfId="1450"/>
-    <cellStyle name="Normale 2 2" xfId="1451"/>
-    <cellStyle name="Normale 2 2 2" xfId="1452"/>
-    <cellStyle name="Normale 2 2 2 2" xfId="3380"/>
-    <cellStyle name="Normale 2 2 3" xfId="3379"/>
-    <cellStyle name="Normale 2 3" xfId="1453"/>
-    <cellStyle name="Normale 2 3 2" xfId="3381"/>
-    <cellStyle name="Normale 2 4" xfId="3378"/>
-    <cellStyle name="Normale 2_EDEN industria 2008 rev" xfId="1454"/>
-    <cellStyle name="Normale 20" xfId="1455"/>
-    <cellStyle name="Normale 20 2" xfId="1456"/>
-    <cellStyle name="Normale 20 2 2" xfId="3383"/>
-    <cellStyle name="Normale 20 3" xfId="3382"/>
-    <cellStyle name="Normale 21" xfId="1457"/>
-    <cellStyle name="Normale 21 2" xfId="1458"/>
-    <cellStyle name="Normale 21 2 2" xfId="3385"/>
-    <cellStyle name="Normale 21 3" xfId="3384"/>
-    <cellStyle name="Normale 22" xfId="1459"/>
-    <cellStyle name="Normale 22 2" xfId="1460"/>
-    <cellStyle name="Normale 22 2 2" xfId="3387"/>
-    <cellStyle name="Normale 22 3" xfId="3386"/>
-    <cellStyle name="Normale 23" xfId="1461"/>
-    <cellStyle name="Normale 23 2" xfId="1462"/>
-    <cellStyle name="Normale 23 2 2" xfId="3389"/>
-    <cellStyle name="Normale 23 3" xfId="3388"/>
-    <cellStyle name="Normale 24" xfId="1463"/>
-    <cellStyle name="Normale 24 2" xfId="1464"/>
-    <cellStyle name="Normale 24 2 2" xfId="3391"/>
-    <cellStyle name="Normale 24 3" xfId="3390"/>
-    <cellStyle name="Normale 25" xfId="1465"/>
-    <cellStyle name="Normale 25 2" xfId="1466"/>
-    <cellStyle name="Normale 25 2 2" xfId="3393"/>
-    <cellStyle name="Normale 25 3" xfId="3392"/>
-    <cellStyle name="Normale 26" xfId="1467"/>
-    <cellStyle name="Normale 26 2" xfId="1468"/>
-    <cellStyle name="Normale 26 2 2" xfId="3395"/>
-    <cellStyle name="Normale 26 3" xfId="3394"/>
-    <cellStyle name="Normale 27" xfId="1469"/>
-    <cellStyle name="Normale 27 2" xfId="1470"/>
-    <cellStyle name="Normale 27 2 2" xfId="3397"/>
-    <cellStyle name="Normale 27 3" xfId="3396"/>
-    <cellStyle name="Normale 28" xfId="1471"/>
-    <cellStyle name="Normale 28 2" xfId="1472"/>
-    <cellStyle name="Normale 28 2 2" xfId="3399"/>
-    <cellStyle name="Normale 28 3" xfId="3398"/>
-    <cellStyle name="Normale 29" xfId="1473"/>
-    <cellStyle name="Normale 29 2" xfId="1474"/>
-    <cellStyle name="Normale 29 2 2" xfId="3401"/>
-    <cellStyle name="Normale 29 3" xfId="3400"/>
-    <cellStyle name="Normale 3" xfId="1475"/>
-    <cellStyle name="Normale 3 2" xfId="1476"/>
-    <cellStyle name="Normale 3 2 2" xfId="1477"/>
-    <cellStyle name="Normale 3 2 2 2" xfId="3404"/>
-    <cellStyle name="Normale 3 2 3" xfId="3403"/>
-    <cellStyle name="Normale 3 3" xfId="1478"/>
-    <cellStyle name="Normale 3 3 2" xfId="1479"/>
-    <cellStyle name="Normale 3 3 2 2" xfId="3406"/>
-    <cellStyle name="Normale 3 3 3" xfId="3405"/>
-    <cellStyle name="Normale 3 4" xfId="1480"/>
-    <cellStyle name="Normale 3 4 2" xfId="3407"/>
-    <cellStyle name="Normale 3 5" xfId="3402"/>
-    <cellStyle name="Normale 3_EDEN industria 2008 rev" xfId="1481"/>
-    <cellStyle name="Normale 30" xfId="1482"/>
-    <cellStyle name="Normale 30 2" xfId="1483"/>
-    <cellStyle name="Normale 30 2 2" xfId="3409"/>
-    <cellStyle name="Normale 30 3" xfId="3408"/>
-    <cellStyle name="Normale 31" xfId="1484"/>
-    <cellStyle name="Normale 31 2" xfId="1485"/>
-    <cellStyle name="Normale 31 2 2" xfId="3411"/>
-    <cellStyle name="Normale 31 3" xfId="3410"/>
-    <cellStyle name="Normale 32" xfId="1486"/>
-    <cellStyle name="Normale 32 2" xfId="1487"/>
-    <cellStyle name="Normale 32 2 2" xfId="3413"/>
-    <cellStyle name="Normale 32 3" xfId="3412"/>
-    <cellStyle name="Normale 33" xfId="1488"/>
-    <cellStyle name="Normale 33 2" xfId="1489"/>
-    <cellStyle name="Normale 33 2 2" xfId="3415"/>
-    <cellStyle name="Normale 33 3" xfId="3414"/>
-    <cellStyle name="Normale 34" xfId="1490"/>
-    <cellStyle name="Normale 34 2" xfId="1491"/>
-    <cellStyle name="Normale 34 2 2" xfId="3417"/>
-    <cellStyle name="Normale 34 3" xfId="3416"/>
-    <cellStyle name="Normale 35" xfId="1492"/>
-    <cellStyle name="Normale 35 2" xfId="1493"/>
-    <cellStyle name="Normale 35 2 2" xfId="3419"/>
-    <cellStyle name="Normale 35 3" xfId="3418"/>
-    <cellStyle name="Normale 36" xfId="1494"/>
-    <cellStyle name="Normale 36 2" xfId="1495"/>
-    <cellStyle name="Normale 36 2 2" xfId="3421"/>
-    <cellStyle name="Normale 36 3" xfId="3420"/>
-    <cellStyle name="Normale 37" xfId="1496"/>
-    <cellStyle name="Normale 37 2" xfId="1497"/>
-    <cellStyle name="Normale 37 2 2" xfId="3423"/>
-    <cellStyle name="Normale 37 3" xfId="3422"/>
-    <cellStyle name="Normale 38" xfId="1498"/>
-    <cellStyle name="Normale 38 2" xfId="1499"/>
-    <cellStyle name="Normale 38 2 2" xfId="3425"/>
-    <cellStyle name="Normale 38 3" xfId="3424"/>
-    <cellStyle name="Normale 39" xfId="1500"/>
-    <cellStyle name="Normale 39 2" xfId="1501"/>
-    <cellStyle name="Normale 39 2 2" xfId="3427"/>
-    <cellStyle name="Normale 39 3" xfId="3426"/>
-    <cellStyle name="Normale 4" xfId="1502"/>
-    <cellStyle name="Normale 4 2" xfId="1503"/>
-    <cellStyle name="Normale 4 2 2" xfId="1504"/>
-    <cellStyle name="Normale 4 2 2 2" xfId="3430"/>
-    <cellStyle name="Normale 4 2 3" xfId="3429"/>
-    <cellStyle name="Normale 4 3" xfId="1505"/>
-    <cellStyle name="Normale 4 3 2" xfId="1506"/>
-    <cellStyle name="Normale 4 3 2 2" xfId="3432"/>
-    <cellStyle name="Normale 4 3 3" xfId="3431"/>
-    <cellStyle name="Normale 4 4" xfId="1507"/>
-    <cellStyle name="Normale 4 4 2" xfId="3433"/>
-    <cellStyle name="Normale 4 5" xfId="3428"/>
-    <cellStyle name="Normale 4_EDEN industria 2008 rev" xfId="1508"/>
-    <cellStyle name="Normale 40" xfId="1509"/>
-    <cellStyle name="Normale 40 2" xfId="1510"/>
-    <cellStyle name="Normale 40 2 2" xfId="3435"/>
-    <cellStyle name="Normale 40 3" xfId="3434"/>
-    <cellStyle name="Normale 41" xfId="1511"/>
-    <cellStyle name="Normale 41 2" xfId="1512"/>
-    <cellStyle name="Normale 41 2 2" xfId="3437"/>
-    <cellStyle name="Normale 41 3" xfId="3436"/>
-    <cellStyle name="Normale 42" xfId="1513"/>
-    <cellStyle name="Normale 42 2" xfId="1514"/>
-    <cellStyle name="Normale 42 2 2" xfId="3439"/>
-    <cellStyle name="Normale 42 3" xfId="3438"/>
-    <cellStyle name="Normale 43" xfId="1515"/>
-    <cellStyle name="Normale 43 2" xfId="1516"/>
-    <cellStyle name="Normale 43 2 2" xfId="3441"/>
-    <cellStyle name="Normale 43 3" xfId="3440"/>
-    <cellStyle name="Normale 44" xfId="1517"/>
-    <cellStyle name="Normale 44 2" xfId="1518"/>
-    <cellStyle name="Normale 44 2 2" xfId="3443"/>
-    <cellStyle name="Normale 44 3" xfId="3442"/>
-    <cellStyle name="Normale 45" xfId="1519"/>
-    <cellStyle name="Normale 45 2" xfId="1520"/>
-    <cellStyle name="Normale 45 2 2" xfId="3445"/>
-    <cellStyle name="Normale 45 3" xfId="3444"/>
-    <cellStyle name="Normale 46" xfId="1521"/>
-    <cellStyle name="Normale 46 2" xfId="1522"/>
-    <cellStyle name="Normale 46 2 2" xfId="3447"/>
-    <cellStyle name="Normale 46 3" xfId="3446"/>
-    <cellStyle name="Normale 47" xfId="1523"/>
-    <cellStyle name="Normale 47 2" xfId="1524"/>
-    <cellStyle name="Normale 47 2 2" xfId="3449"/>
-    <cellStyle name="Normale 47 3" xfId="3448"/>
-    <cellStyle name="Normale 48" xfId="1525"/>
-    <cellStyle name="Normale 48 2" xfId="1526"/>
-    <cellStyle name="Normale 48 2 2" xfId="3451"/>
-    <cellStyle name="Normale 48 3" xfId="3450"/>
-    <cellStyle name="Normale 49" xfId="1527"/>
-    <cellStyle name="Normale 49 2" xfId="1528"/>
-    <cellStyle name="Normale 49 2 2" xfId="3453"/>
-    <cellStyle name="Normale 49 3" xfId="3452"/>
-    <cellStyle name="Normale 5" xfId="1529"/>
-    <cellStyle name="Normale 5 2" xfId="1530"/>
-    <cellStyle name="Normale 5 2 2" xfId="1531"/>
-    <cellStyle name="Normale 5 2 2 2" xfId="3456"/>
-    <cellStyle name="Normale 5 2 3" xfId="3455"/>
-    <cellStyle name="Normale 5 3" xfId="1532"/>
-    <cellStyle name="Normale 5 3 2" xfId="1533"/>
-    <cellStyle name="Normale 5 3 2 2" xfId="3458"/>
-    <cellStyle name="Normale 5 3 3" xfId="3457"/>
-    <cellStyle name="Normale 5 4" xfId="1534"/>
-    <cellStyle name="Normale 5 4 2" xfId="3459"/>
-    <cellStyle name="Normale 5 5" xfId="3454"/>
-    <cellStyle name="Normale 5_EDEN industria 2008 rev" xfId="1535"/>
-    <cellStyle name="Normale 50" xfId="1536"/>
-    <cellStyle name="Normale 50 2" xfId="1537"/>
-    <cellStyle name="Normale 50 2 2" xfId="3461"/>
-    <cellStyle name="Normale 50 3" xfId="3460"/>
-    <cellStyle name="Normale 51" xfId="1538"/>
-    <cellStyle name="Normale 51 2" xfId="1539"/>
-    <cellStyle name="Normale 51 2 2" xfId="3463"/>
-    <cellStyle name="Normale 51 3" xfId="3462"/>
-    <cellStyle name="Normale 52" xfId="1540"/>
-    <cellStyle name="Normale 52 2" xfId="1541"/>
-    <cellStyle name="Normale 52 2 2" xfId="3465"/>
-    <cellStyle name="Normale 52 3" xfId="3464"/>
-    <cellStyle name="Normale 53" xfId="1542"/>
-    <cellStyle name="Normale 53 2" xfId="1543"/>
-    <cellStyle name="Normale 53 2 2" xfId="3467"/>
-    <cellStyle name="Normale 53 3" xfId="3466"/>
-    <cellStyle name="Normale 54" xfId="1544"/>
-    <cellStyle name="Normale 54 2" xfId="1545"/>
-    <cellStyle name="Normale 54 2 2" xfId="3469"/>
-    <cellStyle name="Normale 54 3" xfId="3468"/>
-    <cellStyle name="Normale 55" xfId="1546"/>
-    <cellStyle name="Normale 55 2" xfId="1547"/>
-    <cellStyle name="Normale 55 2 2" xfId="3471"/>
-    <cellStyle name="Normale 55 3" xfId="3470"/>
-    <cellStyle name="Normale 56" xfId="1548"/>
-    <cellStyle name="Normale 56 2" xfId="1549"/>
-    <cellStyle name="Normale 56 2 2" xfId="3473"/>
-    <cellStyle name="Normale 56 3" xfId="3472"/>
-    <cellStyle name="Normale 57" xfId="1550"/>
-    <cellStyle name="Normale 57 2" xfId="1551"/>
-    <cellStyle name="Normale 57 2 2" xfId="3475"/>
-    <cellStyle name="Normale 57 3" xfId="3474"/>
-    <cellStyle name="Normale 58" xfId="1552"/>
-    <cellStyle name="Normale 58 2" xfId="1553"/>
-    <cellStyle name="Normale 58 2 2" xfId="3477"/>
-    <cellStyle name="Normale 58 3" xfId="3476"/>
-    <cellStyle name="Normale 59" xfId="1554"/>
-    <cellStyle name="Normale 59 2" xfId="1555"/>
-    <cellStyle name="Normale 59 2 2" xfId="3479"/>
-    <cellStyle name="Normale 59 3" xfId="3478"/>
-    <cellStyle name="Normale 6" xfId="1556"/>
-    <cellStyle name="Normale 6 2" xfId="1557"/>
-    <cellStyle name="Normale 6 2 2" xfId="1558"/>
-    <cellStyle name="Normale 6 2 2 2" xfId="3482"/>
-    <cellStyle name="Normale 6 2 3" xfId="3481"/>
-    <cellStyle name="Normale 6 3" xfId="1559"/>
-    <cellStyle name="Normale 6 3 2" xfId="1560"/>
-    <cellStyle name="Normale 6 3 2 2" xfId="3484"/>
-    <cellStyle name="Normale 6 3 3" xfId="3483"/>
-    <cellStyle name="Normale 6 4" xfId="1561"/>
-    <cellStyle name="Normale 6 4 2" xfId="3485"/>
-    <cellStyle name="Normale 6 5" xfId="3480"/>
-    <cellStyle name="Normale 6_EDEN industria 2008 rev" xfId="1562"/>
-    <cellStyle name="Normale 60" xfId="1563"/>
-    <cellStyle name="Normale 60 2" xfId="1564"/>
-    <cellStyle name="Normale 60 2 2" xfId="3487"/>
-    <cellStyle name="Normale 60 3" xfId="3486"/>
-    <cellStyle name="Normale 61" xfId="1565"/>
-    <cellStyle name="Normale 61 2" xfId="1566"/>
-    <cellStyle name="Normale 61 2 2" xfId="3489"/>
-    <cellStyle name="Normale 61 3" xfId="3488"/>
-    <cellStyle name="Normale 62" xfId="1567"/>
-    <cellStyle name="Normale 62 2" xfId="1568"/>
-    <cellStyle name="Normale 62 2 2" xfId="3491"/>
-    <cellStyle name="Normale 62 3" xfId="3490"/>
-    <cellStyle name="Normale 63" xfId="1569"/>
-    <cellStyle name="Normale 63 2" xfId="1570"/>
-    <cellStyle name="Normale 63 2 2" xfId="3493"/>
-    <cellStyle name="Normale 63 3" xfId="3492"/>
-    <cellStyle name="Normale 64" xfId="1571"/>
-    <cellStyle name="Normale 64 2" xfId="1572"/>
-    <cellStyle name="Normale 64 2 2" xfId="3495"/>
-    <cellStyle name="Normale 64 3" xfId="3494"/>
-    <cellStyle name="Normale 65" xfId="1573"/>
-    <cellStyle name="Normale 65 2" xfId="1574"/>
-    <cellStyle name="Normale 65 2 2" xfId="3497"/>
-    <cellStyle name="Normale 65 3" xfId="3496"/>
-    <cellStyle name="Normale 7" xfId="1575"/>
-    <cellStyle name="Normale 7 2" xfId="1576"/>
-    <cellStyle name="Normale 7 2 2" xfId="1577"/>
-    <cellStyle name="Normale 7 2 2 2" xfId="3500"/>
-    <cellStyle name="Normale 7 2 3" xfId="3499"/>
-    <cellStyle name="Normale 7 3" xfId="1578"/>
-    <cellStyle name="Normale 7 3 2" xfId="1579"/>
-    <cellStyle name="Normale 7 3 2 2" xfId="3502"/>
-    <cellStyle name="Normale 7 3 3" xfId="3501"/>
-    <cellStyle name="Normale 7 4" xfId="1580"/>
-    <cellStyle name="Normale 7 4 2" xfId="3503"/>
-    <cellStyle name="Normale 7 5" xfId="3498"/>
-    <cellStyle name="Normale 7_EDEN industria 2008 rev" xfId="1581"/>
-    <cellStyle name="Normale 8" xfId="1582"/>
-    <cellStyle name="Normale 8 2" xfId="1583"/>
-    <cellStyle name="Normale 8 2 2" xfId="1584"/>
-    <cellStyle name="Normale 8 2 2 2" xfId="3506"/>
-    <cellStyle name="Normale 8 2 3" xfId="3505"/>
-    <cellStyle name="Normale 8 3" xfId="1585"/>
-    <cellStyle name="Normale 8 3 2" xfId="1586"/>
-    <cellStyle name="Normale 8 3 2 2" xfId="3508"/>
-    <cellStyle name="Normale 8 3 3" xfId="3507"/>
-    <cellStyle name="Normale 8 4" xfId="1587"/>
-    <cellStyle name="Normale 8 4 2" xfId="3509"/>
-    <cellStyle name="Normale 8 5" xfId="3504"/>
-    <cellStyle name="Normale 8_EDEN industria 2008 rev" xfId="1588"/>
-    <cellStyle name="Normale 9" xfId="1589"/>
-    <cellStyle name="Normale 9 2" xfId="1590"/>
-    <cellStyle name="Normale 9 2 2" xfId="1591"/>
-    <cellStyle name="Normale 9 2 2 2" xfId="3512"/>
-    <cellStyle name="Normale 9 2 3" xfId="3511"/>
-    <cellStyle name="Normale 9 3" xfId="1592"/>
-    <cellStyle name="Normale 9 3 2" xfId="1593"/>
-    <cellStyle name="Normale 9 3 2 2" xfId="3514"/>
-    <cellStyle name="Normale 9 3 3" xfId="3513"/>
-    <cellStyle name="Normale 9 4" xfId="1594"/>
-    <cellStyle name="Normale 9 4 2" xfId="3515"/>
-    <cellStyle name="Normale 9 5" xfId="3510"/>
-    <cellStyle name="Normale 9_EDEN industria 2008 rev" xfId="1595"/>
-    <cellStyle name="Normale_B2020" xfId="1596"/>
-    <cellStyle name="Nota" xfId="1597"/>
-    <cellStyle name="Nota 2" xfId="1598"/>
-    <cellStyle name="Nota 2 2" xfId="1599"/>
-    <cellStyle name="Nota 2 2 2" xfId="3518"/>
-    <cellStyle name="Nota 2 3" xfId="3517"/>
-    <cellStyle name="Nota 3" xfId="1600"/>
-    <cellStyle name="Nota 3 2" xfId="1601"/>
-    <cellStyle name="Nota 3 2 2" xfId="1602"/>
-    <cellStyle name="Nota 3 2 2 2" xfId="1603"/>
-    <cellStyle name="Nota 3 2 3" xfId="1604"/>
-    <cellStyle name="Nota 3 2 3 2" xfId="3521"/>
-    <cellStyle name="Nota 3 2 4" xfId="3520"/>
-    <cellStyle name="Nota 3 3" xfId="1605"/>
-    <cellStyle name="Nota 3 3 2" xfId="3522"/>
-    <cellStyle name="Nota 3 4" xfId="3519"/>
-    <cellStyle name="Nota 4" xfId="1606"/>
-    <cellStyle name="Nota 4 2" xfId="1607"/>
-    <cellStyle name="Nota 4 2 2" xfId="1608"/>
-    <cellStyle name="Nota 4 2 2 2" xfId="3525"/>
-    <cellStyle name="Nota 4 2 3" xfId="3524"/>
-    <cellStyle name="Nota 4 3" xfId="1609"/>
-    <cellStyle name="Nota 4 3 2" xfId="3526"/>
-    <cellStyle name="Nota 4 4" xfId="3523"/>
-    <cellStyle name="Nota 5" xfId="1610"/>
-    <cellStyle name="Nota 5 2" xfId="1611"/>
-    <cellStyle name="Nota 6" xfId="1612"/>
-    <cellStyle name="Nota 6 2" xfId="3527"/>
-    <cellStyle name="Nota 7" xfId="3516"/>
-    <cellStyle name="Note 2" xfId="1613"/>
-    <cellStyle name="Note 2 2" xfId="1614"/>
-    <cellStyle name="Note 2 2 2" xfId="1615"/>
-    <cellStyle name="Note 2 3" xfId="1616"/>
-    <cellStyle name="Nuovo" xfId="1617"/>
-    <cellStyle name="Nuovo 10" xfId="1618"/>
-    <cellStyle name="Nuovo 10 2" xfId="1619"/>
-    <cellStyle name="Nuovo 10 2 2" xfId="3530"/>
-    <cellStyle name="Nuovo 10 3" xfId="1620"/>
-    <cellStyle name="Nuovo 10 3 2" xfId="1621"/>
-    <cellStyle name="Nuovo 10 3 2 2" xfId="1622"/>
-    <cellStyle name="Nuovo 10 3 2 3" xfId="3532"/>
-    <cellStyle name="Nuovo 10 3 3" xfId="3531"/>
-    <cellStyle name="Nuovo 10 4" xfId="1623"/>
-    <cellStyle name="Nuovo 10 4 2" xfId="1624"/>
-    <cellStyle name="Nuovo 10 4 2 2" xfId="3534"/>
-    <cellStyle name="Nuovo 10 4 3" xfId="3533"/>
-    <cellStyle name="Nuovo 10 5" xfId="1625"/>
-    <cellStyle name="Nuovo 10 6" xfId="3529"/>
-    <cellStyle name="Nuovo 11" xfId="1626"/>
-    <cellStyle name="Nuovo 11 2" xfId="1627"/>
-    <cellStyle name="Nuovo 11 2 2" xfId="3536"/>
-    <cellStyle name="Nuovo 11 3" xfId="1628"/>
-    <cellStyle name="Nuovo 11 3 2" xfId="1629"/>
-    <cellStyle name="Nuovo 11 3 2 2" xfId="1630"/>
-    <cellStyle name="Nuovo 11 3 2 3" xfId="3538"/>
-    <cellStyle name="Nuovo 11 3 3" xfId="3537"/>
-    <cellStyle name="Nuovo 11 4" xfId="1631"/>
-    <cellStyle name="Nuovo 11 4 2" xfId="1632"/>
-    <cellStyle name="Nuovo 11 4 2 2" xfId="3540"/>
-    <cellStyle name="Nuovo 11 4 3" xfId="3539"/>
-    <cellStyle name="Nuovo 11 5" xfId="1633"/>
-    <cellStyle name="Nuovo 11 6" xfId="3535"/>
-    <cellStyle name="Nuovo 12" xfId="1634"/>
-    <cellStyle name="Nuovo 12 2" xfId="1635"/>
-    <cellStyle name="Nuovo 12 2 2" xfId="3542"/>
-    <cellStyle name="Nuovo 12 3" xfId="1636"/>
-    <cellStyle name="Nuovo 12 3 2" xfId="1637"/>
-    <cellStyle name="Nuovo 12 3 2 2" xfId="1638"/>
-    <cellStyle name="Nuovo 12 3 2 3" xfId="3544"/>
-    <cellStyle name="Nuovo 12 3 3" xfId="3543"/>
-    <cellStyle name="Nuovo 12 4" xfId="1639"/>
-    <cellStyle name="Nuovo 12 4 2" xfId="1640"/>
-    <cellStyle name="Nuovo 12 4 2 2" xfId="3546"/>
-    <cellStyle name="Nuovo 12 4 3" xfId="3545"/>
-    <cellStyle name="Nuovo 12 5" xfId="1641"/>
-    <cellStyle name="Nuovo 12 6" xfId="3541"/>
-    <cellStyle name="Nuovo 13" xfId="1642"/>
-    <cellStyle name="Nuovo 13 2" xfId="1643"/>
-    <cellStyle name="Nuovo 13 2 2" xfId="3548"/>
-    <cellStyle name="Nuovo 13 3" xfId="1644"/>
-    <cellStyle name="Nuovo 13 3 2" xfId="1645"/>
-    <cellStyle name="Nuovo 13 3 2 2" xfId="1646"/>
-    <cellStyle name="Nuovo 13 3 2 3" xfId="3550"/>
-    <cellStyle name="Nuovo 13 3 3" xfId="3549"/>
-    <cellStyle name="Nuovo 13 4" xfId="1647"/>
-    <cellStyle name="Nuovo 13 4 2" xfId="1648"/>
-    <cellStyle name="Nuovo 13 4 2 2" xfId="3552"/>
-    <cellStyle name="Nuovo 13 4 3" xfId="3551"/>
-    <cellStyle name="Nuovo 13 5" xfId="1649"/>
-    <cellStyle name="Nuovo 13 6" xfId="3547"/>
-    <cellStyle name="Nuovo 14" xfId="1650"/>
-    <cellStyle name="Nuovo 14 2" xfId="1651"/>
-    <cellStyle name="Nuovo 14 2 2" xfId="3554"/>
-    <cellStyle name="Nuovo 14 3" xfId="1652"/>
-    <cellStyle name="Nuovo 14 3 2" xfId="1653"/>
-    <cellStyle name="Nuovo 14 3 2 2" xfId="1654"/>
-    <cellStyle name="Nuovo 14 3 2 3" xfId="3556"/>
-    <cellStyle name="Nuovo 14 3 3" xfId="3555"/>
-    <cellStyle name="Nuovo 14 4" xfId="1655"/>
-    <cellStyle name="Nuovo 14 4 2" xfId="1656"/>
-    <cellStyle name="Nuovo 14 4 2 2" xfId="3558"/>
-    <cellStyle name="Nuovo 14 4 3" xfId="3557"/>
-    <cellStyle name="Nuovo 14 5" xfId="1657"/>
-    <cellStyle name="Nuovo 14 6" xfId="3553"/>
-    <cellStyle name="Nuovo 15" xfId="1658"/>
-    <cellStyle name="Nuovo 15 2" xfId="1659"/>
-    <cellStyle name="Nuovo 15 2 2" xfId="3560"/>
-    <cellStyle name="Nuovo 15 3" xfId="1660"/>
-    <cellStyle name="Nuovo 15 3 2" xfId="1661"/>
-    <cellStyle name="Nuovo 15 3 2 2" xfId="1662"/>
-    <cellStyle name="Nuovo 15 3 2 3" xfId="3562"/>
-    <cellStyle name="Nuovo 15 3 3" xfId="3561"/>
-    <cellStyle name="Nuovo 15 4" xfId="1663"/>
-    <cellStyle name="Nuovo 15 4 2" xfId="1664"/>
-    <cellStyle name="Nuovo 15 4 2 2" xfId="3564"/>
-    <cellStyle name="Nuovo 15 4 3" xfId="3563"/>
-    <cellStyle name="Nuovo 15 5" xfId="1665"/>
-    <cellStyle name="Nuovo 15 6" xfId="3559"/>
-    <cellStyle name="Nuovo 16" xfId="1666"/>
-    <cellStyle name="Nuovo 16 2" xfId="1667"/>
-    <cellStyle name="Nuovo 16 2 2" xfId="3566"/>
-    <cellStyle name="Nuovo 16 3" xfId="1668"/>
-    <cellStyle name="Nuovo 16 3 2" xfId="1669"/>
-    <cellStyle name="Nuovo 16 3 2 2" xfId="1670"/>
-    <cellStyle name="Nuovo 16 3 2 3" xfId="3568"/>
-    <cellStyle name="Nuovo 16 3 3" xfId="3567"/>
-    <cellStyle name="Nuovo 16 4" xfId="1671"/>
-    <cellStyle name="Nuovo 16 4 2" xfId="1672"/>
-    <cellStyle name="Nuovo 16 4 2 2" xfId="3570"/>
-    <cellStyle name="Nuovo 16 4 3" xfId="3569"/>
-    <cellStyle name="Nuovo 16 5" xfId="1673"/>
-    <cellStyle name="Nuovo 16 6" xfId="3565"/>
-    <cellStyle name="Nuovo 17" xfId="1674"/>
-    <cellStyle name="Nuovo 17 2" xfId="1675"/>
-    <cellStyle name="Nuovo 17 2 2" xfId="3572"/>
-    <cellStyle name="Nuovo 17 3" xfId="1676"/>
-    <cellStyle name="Nuovo 17 3 2" xfId="1677"/>
-    <cellStyle name="Nuovo 17 3 2 2" xfId="1678"/>
-    <cellStyle name="Nuovo 17 3 2 3" xfId="3574"/>
-    <cellStyle name="Nuovo 17 3 3" xfId="3573"/>
-    <cellStyle name="Nuovo 17 4" xfId="1679"/>
-    <cellStyle name="Nuovo 17 4 2" xfId="1680"/>
-    <cellStyle name="Nuovo 17 4 2 2" xfId="3576"/>
-    <cellStyle name="Nuovo 17 4 3" xfId="3575"/>
-    <cellStyle name="Nuovo 17 5" xfId="1681"/>
-    <cellStyle name="Nuovo 17 6" xfId="3571"/>
-    <cellStyle name="Nuovo 18" xfId="1682"/>
-    <cellStyle name="Nuovo 18 2" xfId="1683"/>
-    <cellStyle name="Nuovo 18 2 2" xfId="3578"/>
-    <cellStyle name="Nuovo 18 3" xfId="1684"/>
-    <cellStyle name="Nuovo 18 3 2" xfId="1685"/>
-    <cellStyle name="Nuovo 18 3 2 2" xfId="1686"/>
-    <cellStyle name="Nuovo 18 3 2 3" xfId="3580"/>
-    <cellStyle name="Nuovo 18 3 3" xfId="3579"/>
-    <cellStyle name="Nuovo 18 4" xfId="1687"/>
-    <cellStyle name="Nuovo 18 4 2" xfId="1688"/>
-    <cellStyle name="Nuovo 18 4 2 2" xfId="3582"/>
-    <cellStyle name="Nuovo 18 4 3" xfId="3581"/>
-    <cellStyle name="Nuovo 18 5" xfId="1689"/>
-    <cellStyle name="Nuovo 18 6" xfId="3577"/>
-    <cellStyle name="Nuovo 19" xfId="1690"/>
-    <cellStyle name="Nuovo 19 2" xfId="1691"/>
-    <cellStyle name="Nuovo 19 2 2" xfId="3584"/>
-    <cellStyle name="Nuovo 19 3" xfId="1692"/>
-    <cellStyle name="Nuovo 19 3 2" xfId="1693"/>
-    <cellStyle name="Nuovo 19 3 2 2" xfId="1694"/>
-    <cellStyle name="Nuovo 19 3 2 3" xfId="3586"/>
-    <cellStyle name="Nuovo 19 3 3" xfId="3585"/>
-    <cellStyle name="Nuovo 19 4" xfId="1695"/>
-    <cellStyle name="Nuovo 19 4 2" xfId="1696"/>
-    <cellStyle name="Nuovo 19 4 2 2" xfId="3588"/>
-    <cellStyle name="Nuovo 19 4 3" xfId="3587"/>
-    <cellStyle name="Nuovo 19 5" xfId="1697"/>
-    <cellStyle name="Nuovo 19 6" xfId="3583"/>
-    <cellStyle name="Nuovo 2" xfId="1698"/>
-    <cellStyle name="Nuovo 2 2" xfId="1699"/>
-    <cellStyle name="Nuovo 2 2 2" xfId="3590"/>
-    <cellStyle name="Nuovo 2 3" xfId="1700"/>
-    <cellStyle name="Nuovo 2 3 2" xfId="1701"/>
-    <cellStyle name="Nuovo 2 3 2 2" xfId="1702"/>
-    <cellStyle name="Nuovo 2 3 2 3" xfId="3592"/>
-    <cellStyle name="Nuovo 2 3 3" xfId="3591"/>
-    <cellStyle name="Nuovo 2 4" xfId="1703"/>
-    <cellStyle name="Nuovo 2 4 2" xfId="1704"/>
-    <cellStyle name="Nuovo 2 4 2 2" xfId="3594"/>
-    <cellStyle name="Nuovo 2 4 3" xfId="3593"/>
-    <cellStyle name="Nuovo 2 5" xfId="1705"/>
-    <cellStyle name="Nuovo 2 6" xfId="3589"/>
-    <cellStyle name="Nuovo 20" xfId="1706"/>
-    <cellStyle name="Nuovo 20 2" xfId="1707"/>
-    <cellStyle name="Nuovo 20 2 2" xfId="3596"/>
-    <cellStyle name="Nuovo 20 3" xfId="1708"/>
-    <cellStyle name="Nuovo 20 3 2" xfId="1709"/>
-    <cellStyle name="Nuovo 20 3 2 2" xfId="1710"/>
-    <cellStyle name="Nuovo 20 3 2 3" xfId="3598"/>
-    <cellStyle name="Nuovo 20 3 3" xfId="3597"/>
-    <cellStyle name="Nuovo 20 4" xfId="1711"/>
-    <cellStyle name="Nuovo 20 4 2" xfId="1712"/>
-    <cellStyle name="Nuovo 20 4 2 2" xfId="3600"/>
-    <cellStyle name="Nuovo 20 4 3" xfId="3599"/>
-    <cellStyle name="Nuovo 20 5" xfId="1713"/>
-    <cellStyle name="Nuovo 20 6" xfId="3595"/>
-    <cellStyle name="Nuovo 21" xfId="1714"/>
-    <cellStyle name="Nuovo 21 2" xfId="1715"/>
-    <cellStyle name="Nuovo 21 2 2" xfId="3602"/>
-    <cellStyle name="Nuovo 21 3" xfId="1716"/>
-    <cellStyle name="Nuovo 21 3 2" xfId="1717"/>
-    <cellStyle name="Nuovo 21 3 2 2" xfId="1718"/>
-    <cellStyle name="Nuovo 21 3 2 3" xfId="3604"/>
-    <cellStyle name="Nuovo 21 3 3" xfId="3603"/>
-    <cellStyle name="Nuovo 21 4" xfId="1719"/>
-    <cellStyle name="Nuovo 21 4 2" xfId="1720"/>
-    <cellStyle name="Nuovo 21 4 2 2" xfId="3606"/>
-    <cellStyle name="Nuovo 21 4 3" xfId="3605"/>
-    <cellStyle name="Nuovo 21 5" xfId="1721"/>
-    <cellStyle name="Nuovo 21 6" xfId="3601"/>
-    <cellStyle name="Nuovo 22" xfId="1722"/>
-    <cellStyle name="Nuovo 22 2" xfId="1723"/>
-    <cellStyle name="Nuovo 22 2 2" xfId="3608"/>
-    <cellStyle name="Nuovo 22 3" xfId="1724"/>
-    <cellStyle name="Nuovo 22 3 2" xfId="1725"/>
-    <cellStyle name="Nuovo 22 3 2 2" xfId="1726"/>
-    <cellStyle name="Nuovo 22 3 2 3" xfId="3610"/>
-    <cellStyle name="Nuovo 22 3 3" xfId="3609"/>
-    <cellStyle name="Nuovo 22 4" xfId="1727"/>
-    <cellStyle name="Nuovo 22 4 2" xfId="1728"/>
-    <cellStyle name="Nuovo 22 4 2 2" xfId="3612"/>
-    <cellStyle name="Nuovo 22 4 3" xfId="3611"/>
-    <cellStyle name="Nuovo 22 5" xfId="1729"/>
-    <cellStyle name="Nuovo 22 6" xfId="3607"/>
-    <cellStyle name="Nuovo 23" xfId="1730"/>
-    <cellStyle name="Nuovo 23 2" xfId="1731"/>
-    <cellStyle name="Nuovo 23 2 2" xfId="3614"/>
-    <cellStyle name="Nuovo 23 3" xfId="1732"/>
-    <cellStyle name="Nuovo 23 3 2" xfId="1733"/>
-    <cellStyle name="Nuovo 23 3 2 2" xfId="1734"/>
-    <cellStyle name="Nuovo 23 3 2 3" xfId="3616"/>
-    <cellStyle name="Nuovo 23 3 3" xfId="3615"/>
-    <cellStyle name="Nuovo 23 4" xfId="1735"/>
-    <cellStyle name="Nuovo 23 4 2" xfId="1736"/>
-    <cellStyle name="Nuovo 23 4 2 2" xfId="3618"/>
-    <cellStyle name="Nuovo 23 4 3" xfId="3617"/>
-    <cellStyle name="Nuovo 23 5" xfId="1737"/>
-    <cellStyle name="Nuovo 23 6" xfId="3613"/>
-    <cellStyle name="Nuovo 24" xfId="1738"/>
-    <cellStyle name="Nuovo 24 2" xfId="1739"/>
-    <cellStyle name="Nuovo 24 2 2" xfId="3620"/>
-    <cellStyle name="Nuovo 24 3" xfId="1740"/>
-    <cellStyle name="Nuovo 24 3 2" xfId="1741"/>
-    <cellStyle name="Nuovo 24 3 2 2" xfId="1742"/>
-    <cellStyle name="Nuovo 24 3 2 3" xfId="3622"/>
-    <cellStyle name="Nuovo 24 3 3" xfId="3621"/>
-    <cellStyle name="Nuovo 24 4" xfId="1743"/>
-    <cellStyle name="Nuovo 24 4 2" xfId="1744"/>
-    <cellStyle name="Nuovo 24 4 2 2" xfId="3624"/>
-    <cellStyle name="Nuovo 24 4 3" xfId="3623"/>
-    <cellStyle name="Nuovo 24 5" xfId="1745"/>
-    <cellStyle name="Nuovo 24 6" xfId="3619"/>
-    <cellStyle name="Nuovo 25" xfId="1746"/>
-    <cellStyle name="Nuovo 25 2" xfId="1747"/>
-    <cellStyle name="Nuovo 25 2 2" xfId="3626"/>
-    <cellStyle name="Nuovo 25 3" xfId="1748"/>
-    <cellStyle name="Nuovo 25 3 2" xfId="1749"/>
-    <cellStyle name="Nuovo 25 3 2 2" xfId="1750"/>
-    <cellStyle name="Nuovo 25 3 2 3" xfId="3628"/>
-    <cellStyle name="Nuovo 25 3 3" xfId="3627"/>
-    <cellStyle name="Nuovo 25 4" xfId="1751"/>
-    <cellStyle name="Nuovo 25 4 2" xfId="1752"/>
-    <cellStyle name="Nuovo 25 4 2 2" xfId="3630"/>
-    <cellStyle name="Nuovo 25 4 3" xfId="3629"/>
-    <cellStyle name="Nuovo 25 5" xfId="1753"/>
-    <cellStyle name="Nuovo 25 6" xfId="3625"/>
-    <cellStyle name="Nuovo 26" xfId="1754"/>
-    <cellStyle name="Nuovo 26 2" xfId="1755"/>
-    <cellStyle name="Nuovo 26 2 2" xfId="3632"/>
-    <cellStyle name="Nuovo 26 3" xfId="1756"/>
-    <cellStyle name="Nuovo 26 3 2" xfId="1757"/>
-    <cellStyle name="Nuovo 26 3 2 2" xfId="1758"/>
-    <cellStyle name="Nuovo 26 3 2 3" xfId="3634"/>
-    <cellStyle name="Nuovo 26 3 3" xfId="3633"/>
-    <cellStyle name="Nuovo 26 4" xfId="1759"/>
-    <cellStyle name="Nuovo 26 4 2" xfId="1760"/>
-    <cellStyle name="Nuovo 26 4 2 2" xfId="3636"/>
-    <cellStyle name="Nuovo 26 4 3" xfId="3635"/>
-    <cellStyle name="Nuovo 26 5" xfId="1761"/>
-    <cellStyle name="Nuovo 26 6" xfId="3631"/>
-    <cellStyle name="Nuovo 27" xfId="1762"/>
-    <cellStyle name="Nuovo 27 2" xfId="1763"/>
-    <cellStyle name="Nuovo 27 2 2" xfId="3638"/>
-    <cellStyle name="Nuovo 27 3" xfId="1764"/>
-    <cellStyle name="Nuovo 27 3 2" xfId="1765"/>
-    <cellStyle name="Nuovo 27 3 2 2" xfId="1766"/>
-    <cellStyle name="Nuovo 27 3 2 3" xfId="3640"/>
-    <cellStyle name="Nuovo 27 3 3" xfId="3639"/>
-    <cellStyle name="Nuovo 27 4" xfId="1767"/>
-    <cellStyle name="Nuovo 27 4 2" xfId="1768"/>
-    <cellStyle name="Nuovo 27 4 2 2" xfId="3642"/>
-    <cellStyle name="Nuovo 27 4 3" xfId="3641"/>
-    <cellStyle name="Nuovo 27 5" xfId="1769"/>
-    <cellStyle name="Nuovo 27 6" xfId="3637"/>
-    <cellStyle name="Nuovo 28" xfId="1770"/>
-    <cellStyle name="Nuovo 28 2" xfId="1771"/>
-    <cellStyle name="Nuovo 28 2 2" xfId="3644"/>
-    <cellStyle name="Nuovo 28 3" xfId="1772"/>
-    <cellStyle name="Nuovo 28 3 2" xfId="1773"/>
-    <cellStyle name="Nuovo 28 3 2 2" xfId="1774"/>
-    <cellStyle name="Nuovo 28 3 2 3" xfId="3646"/>
-    <cellStyle name="Nuovo 28 3 3" xfId="3645"/>
-    <cellStyle name="Nuovo 28 4" xfId="1775"/>
-    <cellStyle name="Nuovo 28 4 2" xfId="1776"/>
-    <cellStyle name="Nuovo 28 4 2 2" xfId="3648"/>
-    <cellStyle name="Nuovo 28 4 3" xfId="3647"/>
-    <cellStyle name="Nuovo 28 5" xfId="1777"/>
-    <cellStyle name="Nuovo 28 6" xfId="3643"/>
-    <cellStyle name="Nuovo 29" xfId="1778"/>
-    <cellStyle name="Nuovo 29 2" xfId="1779"/>
-    <cellStyle name="Nuovo 29 2 2" xfId="3650"/>
-    <cellStyle name="Nuovo 29 3" xfId="1780"/>
-    <cellStyle name="Nuovo 29 3 2" xfId="1781"/>
-    <cellStyle name="Nuovo 29 3 2 2" xfId="1782"/>
-    <cellStyle name="Nuovo 29 3 2 3" xfId="3652"/>
-    <cellStyle name="Nuovo 29 3 3" xfId="3651"/>
-    <cellStyle name="Nuovo 29 4" xfId="1783"/>
-    <cellStyle name="Nuovo 29 4 2" xfId="1784"/>
-    <cellStyle name="Nuovo 29 4 2 2" xfId="3654"/>
-    <cellStyle name="Nuovo 29 4 3" xfId="3653"/>
-    <cellStyle name="Nuovo 29 5" xfId="1785"/>
-    <cellStyle name="Nuovo 29 6" xfId="3649"/>
-    <cellStyle name="Nuovo 3" xfId="1786"/>
-    <cellStyle name="Nuovo 3 2" xfId="1787"/>
-    <cellStyle name="Nuovo 3 2 2" xfId="3656"/>
-    <cellStyle name="Nuovo 3 3" xfId="1788"/>
-    <cellStyle name="Nuovo 3 3 2" xfId="1789"/>
-    <cellStyle name="Nuovo 3 3 2 2" xfId="1790"/>
-    <cellStyle name="Nuovo 3 3 2 3" xfId="3658"/>
-    <cellStyle name="Nuovo 3 3 3" xfId="3657"/>
-    <cellStyle name="Nuovo 3 4" xfId="1791"/>
-    <cellStyle name="Nuovo 3 4 2" xfId="1792"/>
-    <cellStyle name="Nuovo 3 4 2 2" xfId="3660"/>
-    <cellStyle name="Nuovo 3 4 3" xfId="3659"/>
-    <cellStyle name="Nuovo 3 5" xfId="1793"/>
-    <cellStyle name="Nuovo 3 6" xfId="3655"/>
-    <cellStyle name="Nuovo 30" xfId="1794"/>
-    <cellStyle name="Nuovo 30 2" xfId="1795"/>
-    <cellStyle name="Nuovo 30 2 2" xfId="3662"/>
-    <cellStyle name="Nuovo 30 3" xfId="1796"/>
-    <cellStyle name="Nuovo 30 3 2" xfId="1797"/>
-    <cellStyle name="Nuovo 30 3 2 2" xfId="1798"/>
-    <cellStyle name="Nuovo 30 3 2 3" xfId="3664"/>
-    <cellStyle name="Nuovo 30 3 3" xfId="3663"/>
-    <cellStyle name="Nuovo 30 4" xfId="1799"/>
-    <cellStyle name="Nuovo 30 4 2" xfId="1800"/>
-    <cellStyle name="Nuovo 30 4 2 2" xfId="3666"/>
-    <cellStyle name="Nuovo 30 4 3" xfId="3665"/>
-    <cellStyle name="Nuovo 30 5" xfId="1801"/>
-    <cellStyle name="Nuovo 30 6" xfId="3661"/>
-    <cellStyle name="Nuovo 31" xfId="1802"/>
-    <cellStyle name="Nuovo 31 2" xfId="1803"/>
-    <cellStyle name="Nuovo 31 2 2" xfId="3668"/>
-    <cellStyle name="Nuovo 31 3" xfId="1804"/>
-    <cellStyle name="Nuovo 31 3 2" xfId="1805"/>
-    <cellStyle name="Nuovo 31 3 2 2" xfId="1806"/>
-    <cellStyle name="Nuovo 31 3 2 3" xfId="3670"/>
-    <cellStyle name="Nuovo 31 3 3" xfId="3669"/>
-    <cellStyle name="Nuovo 31 4" xfId="1807"/>
-    <cellStyle name="Nuovo 31 4 2" xfId="1808"/>
-    <cellStyle name="Nuovo 31 4 2 2" xfId="3672"/>
-    <cellStyle name="Nuovo 31 4 3" xfId="3671"/>
-    <cellStyle name="Nuovo 31 5" xfId="1809"/>
-    <cellStyle name="Nuovo 31 6" xfId="3667"/>
-    <cellStyle name="Nuovo 32" xfId="1810"/>
-    <cellStyle name="Nuovo 32 2" xfId="1811"/>
-    <cellStyle name="Nuovo 32 2 2" xfId="3674"/>
-    <cellStyle name="Nuovo 32 3" xfId="1812"/>
-    <cellStyle name="Nuovo 32 3 2" xfId="1813"/>
-    <cellStyle name="Nuovo 32 3 2 2" xfId="1814"/>
-    <cellStyle name="Nuovo 32 3 2 3" xfId="3676"/>
-    <cellStyle name="Nuovo 32 3 3" xfId="3675"/>
-    <cellStyle name="Nuovo 32 4" xfId="1815"/>
-    <cellStyle name="Nuovo 32 4 2" xfId="1816"/>
-    <cellStyle name="Nuovo 32 4 2 2" xfId="3678"/>
-    <cellStyle name="Nuovo 32 4 3" xfId="3677"/>
-    <cellStyle name="Nuovo 32 5" xfId="1817"/>
-    <cellStyle name="Nuovo 32 6" xfId="3673"/>
-    <cellStyle name="Nuovo 33" xfId="1818"/>
-    <cellStyle name="Nuovo 33 2" xfId="1819"/>
-    <cellStyle name="Nuovo 33 2 2" xfId="3680"/>
-    <cellStyle name="Nuovo 33 3" xfId="1820"/>
-    <cellStyle name="Nuovo 33 3 2" xfId="1821"/>
-    <cellStyle name="Nuovo 33 3 2 2" xfId="1822"/>
-    <cellStyle name="Nuovo 33 3 2 3" xfId="3682"/>
-    <cellStyle name="Nuovo 33 3 3" xfId="3681"/>
-    <cellStyle name="Nuovo 33 4" xfId="1823"/>
-    <cellStyle name="Nuovo 33 4 2" xfId="1824"/>
-    <cellStyle name="Nuovo 33 4 2 2" xfId="3684"/>
-    <cellStyle name="Nuovo 33 4 3" xfId="3683"/>
-    <cellStyle name="Nuovo 33 5" xfId="1825"/>
-    <cellStyle name="Nuovo 33 6" xfId="3679"/>
-    <cellStyle name="Nuovo 34" xfId="1826"/>
-    <cellStyle name="Nuovo 34 2" xfId="1827"/>
-    <cellStyle name="Nuovo 34 2 2" xfId="3686"/>
-    <cellStyle name="Nuovo 34 3" xfId="1828"/>
-    <cellStyle name="Nuovo 34 3 2" xfId="1829"/>
-    <cellStyle name="Nuovo 34 3 2 2" xfId="1830"/>
-    <cellStyle name="Nuovo 34 3 2 3" xfId="3688"/>
-    <cellStyle name="Nuovo 34 3 3" xfId="3687"/>
-    <cellStyle name="Nuovo 34 4" xfId="1831"/>
-    <cellStyle name="Nuovo 34 4 2" xfId="1832"/>
-    <cellStyle name="Nuovo 34 4 2 2" xfId="3690"/>
-    <cellStyle name="Nuovo 34 4 3" xfId="3689"/>
-    <cellStyle name="Nuovo 34 5" xfId="1833"/>
-    <cellStyle name="Nuovo 34 6" xfId="3685"/>
-    <cellStyle name="Nuovo 35" xfId="1834"/>
-    <cellStyle name="Nuovo 35 2" xfId="1835"/>
-    <cellStyle name="Nuovo 35 2 2" xfId="3692"/>
-    <cellStyle name="Nuovo 35 3" xfId="1836"/>
-    <cellStyle name="Nuovo 35 3 2" xfId="1837"/>
-    <cellStyle name="Nuovo 35 3 2 2" xfId="1838"/>
-    <cellStyle name="Nuovo 35 3 2 3" xfId="3694"/>
-    <cellStyle name="Nuovo 35 3 3" xfId="3693"/>
-    <cellStyle name="Nuovo 35 4" xfId="1839"/>
-    <cellStyle name="Nuovo 35 4 2" xfId="1840"/>
-    <cellStyle name="Nuovo 35 4 2 2" xfId="3696"/>
-    <cellStyle name="Nuovo 35 4 3" xfId="3695"/>
-    <cellStyle name="Nuovo 35 5" xfId="1841"/>
-    <cellStyle name="Nuovo 35 6" xfId="3691"/>
-    <cellStyle name="Nuovo 36" xfId="1842"/>
-    <cellStyle name="Nuovo 36 2" xfId="1843"/>
-    <cellStyle name="Nuovo 36 2 2" xfId="3698"/>
-    <cellStyle name="Nuovo 36 3" xfId="1844"/>
-    <cellStyle name="Nuovo 36 3 2" xfId="1845"/>
-    <cellStyle name="Nuovo 36 3 2 2" xfId="1846"/>
-    <cellStyle name="Nuovo 36 3 2 3" xfId="3700"/>
-    <cellStyle name="Nuovo 36 3 3" xfId="3699"/>
-    <cellStyle name="Nuovo 36 4" xfId="1847"/>
-    <cellStyle name="Nuovo 36 4 2" xfId="1848"/>
-    <cellStyle name="Nuovo 36 4 2 2" xfId="3702"/>
-    <cellStyle name="Nuovo 36 4 3" xfId="3701"/>
-    <cellStyle name="Nuovo 36 5" xfId="1849"/>
-    <cellStyle name="Nuovo 36 6" xfId="3697"/>
-    <cellStyle name="Nuovo 37" xfId="1850"/>
-    <cellStyle name="Nuovo 37 2" xfId="1851"/>
-    <cellStyle name="Nuovo 37 2 2" xfId="3704"/>
-    <cellStyle name="Nuovo 37 3" xfId="1852"/>
-    <cellStyle name="Nuovo 37 3 2" xfId="1853"/>
-    <cellStyle name="Nuovo 37 3 2 2" xfId="1854"/>
-    <cellStyle name="Nuovo 37 3 2 3" xfId="3706"/>
-    <cellStyle name="Nuovo 37 3 3" xfId="3705"/>
-    <cellStyle name="Nuovo 37 4" xfId="1855"/>
-    <cellStyle name="Nuovo 37 4 2" xfId="1856"/>
-    <cellStyle name="Nuovo 37 4 2 2" xfId="3708"/>
-    <cellStyle name="Nuovo 37 4 3" xfId="3707"/>
-    <cellStyle name="Nuovo 37 5" xfId="1857"/>
-    <cellStyle name="Nuovo 37 6" xfId="3703"/>
-    <cellStyle name="Nuovo 38" xfId="1858"/>
-    <cellStyle name="Nuovo 38 2" xfId="1859"/>
-    <cellStyle name="Nuovo 38 2 2" xfId="3710"/>
-    <cellStyle name="Nuovo 38 3" xfId="1860"/>
-    <cellStyle name="Nuovo 38 3 2" xfId="1861"/>
-    <cellStyle name="Nuovo 38 3 2 2" xfId="1862"/>
-    <cellStyle name="Nuovo 38 3 2 3" xfId="3712"/>
-    <cellStyle name="Nuovo 38 3 3" xfId="3711"/>
-    <cellStyle name="Nuovo 38 4" xfId="1863"/>
-    <cellStyle name="Nuovo 38 4 2" xfId="1864"/>
-    <cellStyle name="Nuovo 38 4 2 2" xfId="3714"/>
-    <cellStyle name="Nuovo 38 4 3" xfId="3713"/>
-    <cellStyle name="Nuovo 38 5" xfId="1865"/>
-    <cellStyle name="Nuovo 38 6" xfId="3709"/>
-    <cellStyle name="Nuovo 39" xfId="1866"/>
-    <cellStyle name="Nuovo 39 2" xfId="1867"/>
-    <cellStyle name="Nuovo 39 2 2" xfId="3716"/>
-    <cellStyle name="Nuovo 39 3" xfId="1868"/>
-    <cellStyle name="Nuovo 39 3 2" xfId="1869"/>
-    <cellStyle name="Nuovo 39 3 2 2" xfId="1870"/>
-    <cellStyle name="Nuovo 39 3 2 3" xfId="3718"/>
-    <cellStyle name="Nuovo 39 3 3" xfId="3717"/>
-    <cellStyle name="Nuovo 39 4" xfId="1871"/>
-    <cellStyle name="Nuovo 39 4 2" xfId="1872"/>
-    <cellStyle name="Nuovo 39 4 2 2" xfId="3720"/>
-    <cellStyle name="Nuovo 39 4 3" xfId="3719"/>
-    <cellStyle name="Nuovo 39 5" xfId="1873"/>
-    <cellStyle name="Nuovo 39 6" xfId="3715"/>
-    <cellStyle name="Nuovo 4" xfId="1874"/>
-    <cellStyle name="Nuovo 4 2" xfId="1875"/>
-    <cellStyle name="Nuovo 4 2 2" xfId="3722"/>
-    <cellStyle name="Nuovo 4 3" xfId="1876"/>
-    <cellStyle name="Nuovo 4 3 2" xfId="1877"/>
-    <cellStyle name="Nuovo 4 3 2 2" xfId="1878"/>
-    <cellStyle name="Nuovo 4 3 2 3" xfId="3724"/>
-    <cellStyle name="Nuovo 4 3 3" xfId="3723"/>
-    <cellStyle name="Nuovo 4 4" xfId="1879"/>
-    <cellStyle name="Nuovo 4 4 2" xfId="1880"/>
-    <cellStyle name="Nuovo 4 4 2 2" xfId="3726"/>
-    <cellStyle name="Nuovo 4 4 3" xfId="3725"/>
-    <cellStyle name="Nuovo 4 5" xfId="1881"/>
-    <cellStyle name="Nuovo 4 6" xfId="3721"/>
-    <cellStyle name="Nuovo 40" xfId="1882"/>
-    <cellStyle name="Nuovo 40 2" xfId="1883"/>
-    <cellStyle name="Nuovo 40 2 2" xfId="3728"/>
-    <cellStyle name="Nuovo 40 3" xfId="1884"/>
-    <cellStyle name="Nuovo 40 3 2" xfId="1885"/>
-    <cellStyle name="Nuovo 40 3 2 2" xfId="1886"/>
-    <cellStyle name="Nuovo 40 3 2 3" xfId="3730"/>
-    <cellStyle name="Nuovo 40 3 3" xfId="3729"/>
-    <cellStyle name="Nuovo 40 4" xfId="1887"/>
-    <cellStyle name="Nuovo 40 4 2" xfId="1888"/>
-    <cellStyle name="Nuovo 40 4 2 2" xfId="3732"/>
-    <cellStyle name="Nuovo 40 4 3" xfId="3731"/>
-    <cellStyle name="Nuovo 40 5" xfId="1889"/>
-    <cellStyle name="Nuovo 40 6" xfId="3727"/>
-    <cellStyle name="Nuovo 41" xfId="1890"/>
-    <cellStyle name="Nuovo 41 2" xfId="1891"/>
-    <cellStyle name="Nuovo 41 2 2" xfId="3734"/>
-    <cellStyle name="Nuovo 41 3" xfId="1892"/>
-    <cellStyle name="Nuovo 41 3 2" xfId="1893"/>
-    <cellStyle name="Nuovo 41 3 2 2" xfId="1894"/>
-    <cellStyle name="Nuovo 41 3 2 3" xfId="3736"/>
-    <cellStyle name="Nuovo 41 3 3" xfId="3735"/>
-    <cellStyle name="Nuovo 41 4" xfId="1895"/>
-    <cellStyle name="Nuovo 41 4 2" xfId="1896"/>
-    <cellStyle name="Nuovo 41 4 2 2" xfId="3738"/>
-    <cellStyle name="Nuovo 41 4 3" xfId="3737"/>
-    <cellStyle name="Nuovo 41 5" xfId="1897"/>
-    <cellStyle name="Nuovo 41 6" xfId="3733"/>
-    <cellStyle name="Nuovo 42" xfId="1898"/>
-    <cellStyle name="Nuovo 42 2" xfId="1899"/>
-    <cellStyle name="Nuovo 42 2 2" xfId="3740"/>
-    <cellStyle name="Nuovo 42 3" xfId="1900"/>
-    <cellStyle name="Nuovo 42 3 2" xfId="1901"/>
-    <cellStyle name="Nuovo 42 3 2 2" xfId="1902"/>
-    <cellStyle name="Nuovo 42 3 2 3" xfId="3742"/>
-    <cellStyle name="Nuovo 42 3 3" xfId="3741"/>
-    <cellStyle name="Nuovo 42 4" xfId="1903"/>
-    <cellStyle name="Nuovo 42 4 2" xfId="1904"/>
-    <cellStyle name="Nuovo 42 4 2 2" xfId="3744"/>
-    <cellStyle name="Nuovo 42 4 3" xfId="3743"/>
-    <cellStyle name="Nuovo 42 5" xfId="1905"/>
-    <cellStyle name="Nuovo 42 6" xfId="3739"/>
-    <cellStyle name="Nuovo 43" xfId="1906"/>
-    <cellStyle name="Nuovo 43 2" xfId="1907"/>
-    <cellStyle name="Nuovo 43 2 2" xfId="3746"/>
-    <cellStyle name="Nuovo 43 3" xfId="1908"/>
-    <cellStyle name="Nuovo 43 3 2" xfId="1909"/>
-    <cellStyle name="Nuovo 43 3 2 2" xfId="1910"/>
-    <cellStyle name="Nuovo 43 3 2 3" xfId="3748"/>
-    <cellStyle name="Nuovo 43 3 3" xfId="3747"/>
-    <cellStyle name="Nuovo 43 4" xfId="1911"/>
-    <cellStyle name="Nuovo 43 4 2" xfId="1912"/>
-    <cellStyle name="Nuovo 43 4 2 2" xfId="3750"/>
-    <cellStyle name="Nuovo 43 4 3" xfId="3749"/>
-    <cellStyle name="Nuovo 43 5" xfId="1913"/>
-    <cellStyle name="Nuovo 43 6" xfId="3745"/>
-    <cellStyle name="Nuovo 44" xfId="1914"/>
-    <cellStyle name="Nuovo 44 2" xfId="1915"/>
-    <cellStyle name="Nuovo 44 2 2" xfId="3752"/>
-    <cellStyle name="Nuovo 44 3" xfId="1916"/>
-    <cellStyle name="Nuovo 44 3 2" xfId="1917"/>
-    <cellStyle name="Nuovo 44 3 2 2" xfId="1918"/>
-    <cellStyle name="Nuovo 44 3 2 3" xfId="3754"/>
-    <cellStyle name="Nuovo 44 3 3" xfId="3753"/>
-    <cellStyle name="Nuovo 44 4" xfId="1919"/>
-    <cellStyle name="Nuovo 44 4 2" xfId="1920"/>
-    <cellStyle name="Nuovo 44 4 2 2" xfId="3756"/>
-    <cellStyle name="Nuovo 44 4 3" xfId="3755"/>
-    <cellStyle name="Nuovo 44 5" xfId="1921"/>
-    <cellStyle name="Nuovo 44 6" xfId="3751"/>
-    <cellStyle name="Nuovo 45" xfId="1922"/>
-    <cellStyle name="Nuovo 45 2" xfId="3757"/>
-    <cellStyle name="Nuovo 46" xfId="1923"/>
-    <cellStyle name="Nuovo 46 2" xfId="1924"/>
-    <cellStyle name="Nuovo 46 2 2" xfId="1925"/>
-    <cellStyle name="Nuovo 46 2 3" xfId="3759"/>
-    <cellStyle name="Nuovo 46 3" xfId="3758"/>
-    <cellStyle name="Nuovo 47" xfId="1926"/>
-    <cellStyle name="Nuovo 47 2" xfId="1927"/>
-    <cellStyle name="Nuovo 47 2 2" xfId="3761"/>
-    <cellStyle name="Nuovo 47 3" xfId="3760"/>
-    <cellStyle name="Nuovo 48" xfId="1928"/>
-    <cellStyle name="Nuovo 49" xfId="3528"/>
-    <cellStyle name="Nuovo 5" xfId="1929"/>
-    <cellStyle name="Nuovo 5 2" xfId="1930"/>
-    <cellStyle name="Nuovo 5 2 2" xfId="3763"/>
-    <cellStyle name="Nuovo 5 3" xfId="1931"/>
-    <cellStyle name="Nuovo 5 3 2" xfId="1932"/>
-    <cellStyle name="Nuovo 5 3 2 2" xfId="1933"/>
-    <cellStyle name="Nuovo 5 3 2 3" xfId="3765"/>
-    <cellStyle name="Nuovo 5 3 3" xfId="3764"/>
-    <cellStyle name="Nuovo 5 4" xfId="1934"/>
-    <cellStyle name="Nuovo 5 4 2" xfId="1935"/>
-    <cellStyle name="Nuovo 5 4 2 2" xfId="3767"/>
-    <cellStyle name="Nuovo 5 4 3" xfId="3766"/>
-    <cellStyle name="Nuovo 5 5" xfId="1936"/>
-    <cellStyle name="Nuovo 5 6" xfId="3762"/>
-    <cellStyle name="Nuovo 6" xfId="1937"/>
-    <cellStyle name="Nuovo 6 2" xfId="1938"/>
-    <cellStyle name="Nuovo 6 2 2" xfId="3769"/>
-    <cellStyle name="Nuovo 6 3" xfId="1939"/>
-    <cellStyle name="Nuovo 6 3 2" xfId="1940"/>
-    <cellStyle name="Nuovo 6 3 2 2" xfId="1941"/>
-    <cellStyle name="Nuovo 6 3 2 3" xfId="3771"/>
-    <cellStyle name="Nuovo 6 3 3" xfId="3770"/>
-    <cellStyle name="Nuovo 6 4" xfId="1942"/>
-    <cellStyle name="Nuovo 6 4 2" xfId="1943"/>
-    <cellStyle name="Nuovo 6 4 2 2" xfId="3773"/>
-    <cellStyle name="Nuovo 6 4 3" xfId="3772"/>
-    <cellStyle name="Nuovo 6 5" xfId="1944"/>
-    <cellStyle name="Nuovo 6 6" xfId="3768"/>
-    <cellStyle name="Nuovo 7" xfId="1945"/>
-    <cellStyle name="Nuovo 7 2" xfId="1946"/>
-    <cellStyle name="Nuovo 7 2 2" xfId="3775"/>
-    <cellStyle name="Nuovo 7 3" xfId="1947"/>
-    <cellStyle name="Nuovo 7 3 2" xfId="1948"/>
-    <cellStyle name="Nuovo 7 3 2 2" xfId="1949"/>
-    <cellStyle name="Nuovo 7 3 2 3" xfId="3777"/>
-    <cellStyle name="Nuovo 7 3 3" xfId="3776"/>
-    <cellStyle name="Nuovo 7 4" xfId="1950"/>
-    <cellStyle name="Nuovo 7 4 2" xfId="1951"/>
-    <cellStyle name="Nuovo 7 4 2 2" xfId="3779"/>
-    <cellStyle name="Nuovo 7 4 3" xfId="3778"/>
-    <cellStyle name="Nuovo 7 5" xfId="1952"/>
-    <cellStyle name="Nuovo 7 6" xfId="3774"/>
-    <cellStyle name="Nuovo 8" xfId="1953"/>
-    <cellStyle name="Nuovo 8 2" xfId="1954"/>
-    <cellStyle name="Nuovo 8 2 2" xfId="3781"/>
-    <cellStyle name="Nuovo 8 3" xfId="1955"/>
-    <cellStyle name="Nuovo 8 3 2" xfId="1956"/>
-    <cellStyle name="Nuovo 8 3 2 2" xfId="1957"/>
-    <cellStyle name="Nuovo 8 3 2 3" xfId="3783"/>
-    <cellStyle name="Nuovo 8 3 3" xfId="3782"/>
-    <cellStyle name="Nuovo 8 4" xfId="1958"/>
-    <cellStyle name="Nuovo 8 4 2" xfId="1959"/>
-    <cellStyle name="Nuovo 8 4 2 2" xfId="3785"/>
-    <cellStyle name="Nuovo 8 4 3" xfId="3784"/>
-    <cellStyle name="Nuovo 8 5" xfId="1960"/>
-    <cellStyle name="Nuovo 8 6" xfId="3780"/>
-    <cellStyle name="Nuovo 9" xfId="1961"/>
-    <cellStyle name="Nuovo 9 2" xfId="1962"/>
-    <cellStyle name="Nuovo 9 2 2" xfId="3787"/>
-    <cellStyle name="Nuovo 9 3" xfId="1963"/>
-    <cellStyle name="Nuovo 9 3 2" xfId="1964"/>
-    <cellStyle name="Nuovo 9 3 2 2" xfId="1965"/>
-    <cellStyle name="Nuovo 9 3 2 3" xfId="3789"/>
-    <cellStyle name="Nuovo 9 3 3" xfId="3788"/>
-    <cellStyle name="Nuovo 9 4" xfId="1966"/>
-    <cellStyle name="Nuovo 9 4 2" xfId="1967"/>
-    <cellStyle name="Nuovo 9 4 2 2" xfId="3791"/>
-    <cellStyle name="Nuovo 9 4 3" xfId="3790"/>
-    <cellStyle name="Nuovo 9 5" xfId="1968"/>
-    <cellStyle name="Nuovo 9 6" xfId="3786"/>
-    <cellStyle name="Output 2" xfId="1969"/>
-    <cellStyle name="Output 2 2" xfId="1970"/>
-    <cellStyle name="Output 2 2 2" xfId="1971"/>
-    <cellStyle name="Output 2 3" xfId="1972"/>
-    <cellStyle name="Output 3" xfId="1973"/>
-    <cellStyle name="Output 3 2" xfId="1974"/>
-    <cellStyle name="Percen - Type1" xfId="1975"/>
-    <cellStyle name="Percent 2" xfId="1976"/>
-    <cellStyle name="Percent 2 2" xfId="1977"/>
-    <cellStyle name="Percent 2 2 2" xfId="1978"/>
-    <cellStyle name="Percent 2 2 2 2" xfId="3793"/>
-    <cellStyle name="Percent 2 2 3" xfId="1979"/>
-    <cellStyle name="Percent 2 2 3 2" xfId="1980"/>
-    <cellStyle name="Percent 2 2 4" xfId="1981"/>
-    <cellStyle name="Percent 2 3" xfId="1982"/>
-    <cellStyle name="Percent 2 3 2" xfId="1983"/>
-    <cellStyle name="Percent 2 4" xfId="3792"/>
-    <cellStyle name="Percent 3" xfId="1984"/>
-    <cellStyle name="Percent 3 2" xfId="1985"/>
-    <cellStyle name="Percent 3 3" xfId="1986"/>
-    <cellStyle name="Percent 3 3 2" xfId="1987"/>
-    <cellStyle name="Percent 3 3 2 2" xfId="1988"/>
-    <cellStyle name="Percent 3 3 2 3" xfId="3796"/>
-    <cellStyle name="Percent 3 3 3" xfId="3795"/>
-    <cellStyle name="Percent 3 4" xfId="1989"/>
-    <cellStyle name="Percent 3 4 2" xfId="1990"/>
-    <cellStyle name="Percent 3 4 3" xfId="3797"/>
-    <cellStyle name="Percent 3 5" xfId="3794"/>
-    <cellStyle name="Percent 4" xfId="1991"/>
-    <cellStyle name="Percent 4 2" xfId="3798"/>
-    <cellStyle name="Percent 5" xfId="1992"/>
-    <cellStyle name="Percent 6" xfId="1993"/>
-    <cellStyle name="Percentuale 10" xfId="1994"/>
-    <cellStyle name="Percentuale 10 2" xfId="1995"/>
-    <cellStyle name="Percentuale 10 2 2" xfId="3800"/>
-    <cellStyle name="Percentuale 10 3" xfId="1996"/>
-    <cellStyle name="Percentuale 10 3 2" xfId="1997"/>
-    <cellStyle name="Percentuale 10 3 2 2" xfId="1998"/>
-    <cellStyle name="Percentuale 10 3 2 3" xfId="3802"/>
-    <cellStyle name="Percentuale 10 3 3" xfId="3801"/>
-    <cellStyle name="Percentuale 10 4" xfId="1999"/>
-    <cellStyle name="Percentuale 10 4 2" xfId="2000"/>
-    <cellStyle name="Percentuale 10 4 2 2" xfId="3804"/>
-    <cellStyle name="Percentuale 10 4 3" xfId="3803"/>
-    <cellStyle name="Percentuale 10 5" xfId="2001"/>
-    <cellStyle name="Percentuale 10 6" xfId="3799"/>
-    <cellStyle name="Percentuale 11" xfId="2002"/>
-    <cellStyle name="Percentuale 11 2" xfId="2003"/>
-    <cellStyle name="Percentuale 11 2 2" xfId="3806"/>
-    <cellStyle name="Percentuale 11 3" xfId="2004"/>
-    <cellStyle name="Percentuale 11 3 2" xfId="2005"/>
-    <cellStyle name="Percentuale 11 3 2 2" xfId="2006"/>
-    <cellStyle name="Percentuale 11 3 2 3" xfId="3808"/>
-    <cellStyle name="Percentuale 11 3 3" xfId="3807"/>
-    <cellStyle name="Percentuale 11 4" xfId="2007"/>
-    <cellStyle name="Percentuale 11 4 2" xfId="2008"/>
-    <cellStyle name="Percentuale 11 4 2 2" xfId="3810"/>
-    <cellStyle name="Percentuale 11 4 3" xfId="3809"/>
-    <cellStyle name="Percentuale 11 5" xfId="2009"/>
-    <cellStyle name="Percentuale 11 6" xfId="3805"/>
-    <cellStyle name="Percentuale 12" xfId="2010"/>
-    <cellStyle name="Percentuale 12 2" xfId="2011"/>
-    <cellStyle name="Percentuale 12 2 2" xfId="3812"/>
-    <cellStyle name="Percentuale 12 3" xfId="2012"/>
-    <cellStyle name="Percentuale 12 3 2" xfId="2013"/>
-    <cellStyle name="Percentuale 12 3 2 2" xfId="2014"/>
-    <cellStyle name="Percentuale 12 3 2 3" xfId="3814"/>
-    <cellStyle name="Percentuale 12 3 3" xfId="3813"/>
-    <cellStyle name="Percentuale 12 4" xfId="2015"/>
-    <cellStyle name="Percentuale 12 4 2" xfId="2016"/>
-    <cellStyle name="Percentuale 12 4 2 2" xfId="3816"/>
-    <cellStyle name="Percentuale 12 4 3" xfId="3815"/>
-    <cellStyle name="Percentuale 12 5" xfId="2017"/>
-    <cellStyle name="Percentuale 12 6" xfId="3811"/>
-    <cellStyle name="Percentuale 13" xfId="2018"/>
-    <cellStyle name="Percentuale 13 2" xfId="2019"/>
-    <cellStyle name="Percentuale 13 2 2" xfId="3818"/>
-    <cellStyle name="Percentuale 13 3" xfId="2020"/>
-    <cellStyle name="Percentuale 13 3 2" xfId="2021"/>
-    <cellStyle name="Percentuale 13 3 2 2" xfId="2022"/>
-    <cellStyle name="Percentuale 13 3 2 3" xfId="3820"/>
-    <cellStyle name="Percentuale 13 3 3" xfId="3819"/>
-    <cellStyle name="Percentuale 13 4" xfId="2023"/>
-    <cellStyle name="Percentuale 13 4 2" xfId="2024"/>
-    <cellStyle name="Percentuale 13 4 2 2" xfId="3822"/>
-    <cellStyle name="Percentuale 13 4 3" xfId="3821"/>
-    <cellStyle name="Percentuale 13 5" xfId="2025"/>
-    <cellStyle name="Percentuale 13 6" xfId="3817"/>
-    <cellStyle name="Percentuale 14" xfId="2026"/>
-    <cellStyle name="Percentuale 14 2" xfId="2027"/>
-    <cellStyle name="Percentuale 14 2 2" xfId="3824"/>
-    <cellStyle name="Percentuale 14 3" xfId="2028"/>
-    <cellStyle name="Percentuale 14 3 2" xfId="2029"/>
-    <cellStyle name="Percentuale 14 3 2 2" xfId="2030"/>
-    <cellStyle name="Percentuale 14 3 2 3" xfId="3826"/>
-    <cellStyle name="Percentuale 14 3 3" xfId="3825"/>
-    <cellStyle name="Percentuale 14 4" xfId="2031"/>
-    <cellStyle name="Percentuale 14 4 2" xfId="2032"/>
-    <cellStyle name="Percentuale 14 4 2 2" xfId="3828"/>
-    <cellStyle name="Percentuale 14 4 3" xfId="3827"/>
-    <cellStyle name="Percentuale 14 5" xfId="2033"/>
-    <cellStyle name="Percentuale 14 6" xfId="3823"/>
-    <cellStyle name="Percentuale 15" xfId="2034"/>
-    <cellStyle name="Percentuale 15 2" xfId="2035"/>
-    <cellStyle name="Percentuale 15 2 2" xfId="3830"/>
-    <cellStyle name="Percentuale 15 3" xfId="2036"/>
-    <cellStyle name="Percentuale 15 3 2" xfId="2037"/>
-    <cellStyle name="Percentuale 15 3 2 2" xfId="2038"/>
-    <cellStyle name="Percentuale 15 3 2 3" xfId="3832"/>
-    <cellStyle name="Percentuale 15 3 3" xfId="3831"/>
-    <cellStyle name="Percentuale 15 4" xfId="2039"/>
-    <cellStyle name="Percentuale 15 4 2" xfId="2040"/>
-    <cellStyle name="Percentuale 15 4 2 2" xfId="3834"/>
-    <cellStyle name="Percentuale 15 4 3" xfId="3833"/>
-    <cellStyle name="Percentuale 15 5" xfId="2041"/>
-    <cellStyle name="Percentuale 15 6" xfId="3829"/>
-    <cellStyle name="Percentuale 16" xfId="2042"/>
-    <cellStyle name="Percentuale 16 2" xfId="2043"/>
-    <cellStyle name="Percentuale 16 2 2" xfId="3836"/>
-    <cellStyle name="Percentuale 16 3" xfId="2044"/>
-    <cellStyle name="Percentuale 16 3 2" xfId="2045"/>
-    <cellStyle name="Percentuale 16 3 2 2" xfId="2046"/>
-    <cellStyle name="Percentuale 16 3 2 3" xfId="3838"/>
-    <cellStyle name="Percentuale 16 3 3" xfId="3837"/>
-    <cellStyle name="Percentuale 16 4" xfId="2047"/>
-    <cellStyle name="Percentuale 16 4 2" xfId="2048"/>
-    <cellStyle name="Percentuale 16 4 2 2" xfId="3840"/>
-    <cellStyle name="Percentuale 16 4 3" xfId="3839"/>
-    <cellStyle name="Percentuale 16 5" xfId="2049"/>
-    <cellStyle name="Percentuale 16 6" xfId="3835"/>
-    <cellStyle name="Percentuale 17" xfId="2050"/>
-    <cellStyle name="Percentuale 17 2" xfId="2051"/>
-    <cellStyle name="Percentuale 17 2 2" xfId="3842"/>
-    <cellStyle name="Percentuale 17 3" xfId="2052"/>
-    <cellStyle name="Percentuale 17 3 2" xfId="2053"/>
-    <cellStyle name="Percentuale 17 3 2 2" xfId="2054"/>
-    <cellStyle name="Percentuale 17 3 2 3" xfId="3844"/>
-    <cellStyle name="Percentuale 17 3 3" xfId="3843"/>
-    <cellStyle name="Percentuale 17 4" xfId="2055"/>
-    <cellStyle name="Percentuale 17 4 2" xfId="2056"/>
-    <cellStyle name="Percentuale 17 4 2 2" xfId="3846"/>
-    <cellStyle name="Percentuale 17 4 3" xfId="3845"/>
-    <cellStyle name="Percentuale 17 5" xfId="2057"/>
-    <cellStyle name="Percentuale 17 6" xfId="3841"/>
-    <cellStyle name="Percentuale 18" xfId="2058"/>
-    <cellStyle name="Percentuale 18 2" xfId="2059"/>
-    <cellStyle name="Percentuale 18 2 2" xfId="3848"/>
-    <cellStyle name="Percentuale 18 3" xfId="2060"/>
-    <cellStyle name="Percentuale 18 3 2" xfId="2061"/>
-    <cellStyle name="Percentuale 18 3 2 2" xfId="2062"/>
-    <cellStyle name="Percentuale 18 3 2 3" xfId="3850"/>
-    <cellStyle name="Percentuale 18 3 3" xfId="3849"/>
-    <cellStyle name="Percentuale 18 4" xfId="2063"/>
-    <cellStyle name="Percentuale 18 4 2" xfId="2064"/>
-    <cellStyle name="Percentuale 18 4 2 2" xfId="3852"/>
-    <cellStyle name="Percentuale 18 4 3" xfId="3851"/>
-    <cellStyle name="Percentuale 18 5" xfId="2065"/>
-    <cellStyle name="Percentuale 18 6" xfId="3847"/>
-    <cellStyle name="Percentuale 19" xfId="2066"/>
-    <cellStyle name="Percentuale 19 2" xfId="2067"/>
-    <cellStyle name="Percentuale 19 2 2" xfId="3854"/>
-    <cellStyle name="Percentuale 19 3" xfId="2068"/>
-    <cellStyle name="Percentuale 19 3 2" xfId="2069"/>
-    <cellStyle name="Percentuale 19 3 2 2" xfId="2070"/>
-    <cellStyle name="Percentuale 19 3 2 3" xfId="3856"/>
-    <cellStyle name="Percentuale 19 3 3" xfId="3855"/>
-    <cellStyle name="Percentuale 19 4" xfId="2071"/>
-    <cellStyle name="Percentuale 19 4 2" xfId="2072"/>
-    <cellStyle name="Percentuale 19 4 2 2" xfId="3858"/>
-    <cellStyle name="Percentuale 19 4 3" xfId="3857"/>
-    <cellStyle name="Percentuale 19 5" xfId="2073"/>
-    <cellStyle name="Percentuale 19 6" xfId="3853"/>
-    <cellStyle name="Percentuale 2" xfId="2074"/>
-    <cellStyle name="Percentuale 2 2" xfId="2075"/>
-    <cellStyle name="Percentuale 2 2 2" xfId="3860"/>
-    <cellStyle name="Percentuale 2 3" xfId="2076"/>
-    <cellStyle name="Percentuale 2 3 2" xfId="2077"/>
-    <cellStyle name="Percentuale 2 3 2 2" xfId="2078"/>
-    <cellStyle name="Percentuale 2 3 2 3" xfId="3862"/>
-    <cellStyle name="Percentuale 2 3 3" xfId="3861"/>
-    <cellStyle name="Percentuale 2 4" xfId="2079"/>
-    <cellStyle name="Percentuale 2 4 2" xfId="2080"/>
-    <cellStyle name="Percentuale 2 4 2 2" xfId="3864"/>
-    <cellStyle name="Percentuale 2 4 3" xfId="3863"/>
-    <cellStyle name="Percentuale 2 5" xfId="2081"/>
-    <cellStyle name="Percentuale 2 6" xfId="3859"/>
-    <cellStyle name="Percentuale 20" xfId="2082"/>
-    <cellStyle name="Percentuale 20 2" xfId="2083"/>
-    <cellStyle name="Percentuale 20 2 2" xfId="3866"/>
-    <cellStyle name="Percentuale 20 3" xfId="2084"/>
-    <cellStyle name="Percentuale 20 3 2" xfId="2085"/>
-    <cellStyle name="Percentuale 20 3 2 2" xfId="2086"/>
-    <cellStyle name="Percentuale 20 3 2 3" xfId="3868"/>
-    <cellStyle name="Percentuale 20 3 3" xfId="3867"/>
-    <cellStyle name="Percentuale 20 4" xfId="2087"/>
-    <cellStyle name="Percentuale 20 4 2" xfId="2088"/>
-    <cellStyle name="Percentuale 20 4 2 2" xfId="3870"/>
-    <cellStyle name="Percentuale 20 4 3" xfId="3869"/>
-    <cellStyle name="Percentuale 20 5" xfId="2089"/>
-    <cellStyle name="Percentuale 20 6" xfId="3865"/>
-    <cellStyle name="Percentuale 21" xfId="2090"/>
-    <cellStyle name="Percentuale 21 2" xfId="2091"/>
-    <cellStyle name="Percentuale 21 2 2" xfId="3872"/>
-    <cellStyle name="Percentuale 21 3" xfId="2092"/>
-    <cellStyle name="Percentuale 21 3 2" xfId="2093"/>
-    <cellStyle name="Percentuale 21 3 2 2" xfId="2094"/>
-    <cellStyle name="Percentuale 21 3 2 3" xfId="3874"/>
-    <cellStyle name="Percentuale 21 3 3" xfId="3873"/>
-    <cellStyle name="Percentuale 21 4" xfId="2095"/>
-    <cellStyle name="Percentuale 21 4 2" xfId="2096"/>
-    <cellStyle name="Percentuale 21 4 2 2" xfId="3876"/>
-    <cellStyle name="Percentuale 21 4 3" xfId="3875"/>
-    <cellStyle name="Percentuale 21 5" xfId="2097"/>
-    <cellStyle name="Percentuale 21 6" xfId="3871"/>
-    <cellStyle name="Percentuale 22" xfId="2098"/>
-    <cellStyle name="Percentuale 22 2" xfId="2099"/>
-    <cellStyle name="Percentuale 22 2 2" xfId="3878"/>
-    <cellStyle name="Percentuale 22 3" xfId="2100"/>
-    <cellStyle name="Percentuale 22 3 2" xfId="2101"/>
-    <cellStyle name="Percentuale 22 3 2 2" xfId="2102"/>
-    <cellStyle name="Percentuale 22 3 2 3" xfId="3880"/>
-    <cellStyle name="Percentuale 22 3 3" xfId="3879"/>
-    <cellStyle name="Percentuale 22 4" xfId="2103"/>
-    <cellStyle name="Percentuale 22 4 2" xfId="2104"/>
-    <cellStyle name="Percentuale 22 4 2 2" xfId="3882"/>
-    <cellStyle name="Percentuale 22 4 3" xfId="3881"/>
-    <cellStyle name="Percentuale 22 5" xfId="2105"/>
-    <cellStyle name="Percentuale 22 6" xfId="3877"/>
-    <cellStyle name="Percentuale 23" xfId="2106"/>
-    <cellStyle name="Percentuale 23 2" xfId="2107"/>
-    <cellStyle name="Percentuale 23 2 2" xfId="3884"/>
-    <cellStyle name="Percentuale 23 3" xfId="2108"/>
-    <cellStyle name="Percentuale 23 3 2" xfId="2109"/>
-    <cellStyle name="Percentuale 23 3 2 2" xfId="2110"/>
-    <cellStyle name="Percentuale 23 3 2 3" xfId="3886"/>
-    <cellStyle name="Percentuale 23 3 3" xfId="3885"/>
-    <cellStyle name="Percentuale 23 4" xfId="2111"/>
-    <cellStyle name="Percentuale 23 4 2" xfId="2112"/>
-    <cellStyle name="Percentuale 23 4 2 2" xfId="3888"/>
-    <cellStyle name="Percentuale 23 4 3" xfId="3887"/>
-    <cellStyle name="Percentuale 23 5" xfId="2113"/>
-    <cellStyle name="Percentuale 23 6" xfId="3883"/>
-    <cellStyle name="Percentuale 24" xfId="2114"/>
-    <cellStyle name="Percentuale 24 2" xfId="2115"/>
-    <cellStyle name="Percentuale 24 2 2" xfId="3890"/>
-    <cellStyle name="Percentuale 24 3" xfId="2116"/>
-    <cellStyle name="Percentuale 24 3 2" xfId="2117"/>
-    <cellStyle name="Percentuale 24 3 2 2" xfId="2118"/>
-    <cellStyle name="Percentuale 24 3 2 3" xfId="3892"/>
-    <cellStyle name="Percentuale 24 3 3" xfId="3891"/>
-    <cellStyle name="Percentuale 24 4" xfId="2119"/>
-    <cellStyle name="Percentuale 24 4 2" xfId="2120"/>
-    <cellStyle name="Percentuale 24 4 2 2" xfId="3894"/>
-    <cellStyle name="Percentuale 24 4 3" xfId="3893"/>
-    <cellStyle name="Percentuale 24 5" xfId="2121"/>
-    <cellStyle name="Percentuale 24 6" xfId="3889"/>
-    <cellStyle name="Percentuale 25" xfId="2122"/>
-    <cellStyle name="Percentuale 25 2" xfId="2123"/>
-    <cellStyle name="Percentuale 25 2 2" xfId="3896"/>
-    <cellStyle name="Percentuale 25 3" xfId="2124"/>
-    <cellStyle name="Percentuale 25 3 2" xfId="2125"/>
-    <cellStyle name="Percentuale 25 3 2 2" xfId="2126"/>
-    <cellStyle name="Percentuale 25 3 2 3" xfId="3898"/>
-    <cellStyle name="Percentuale 25 3 3" xfId="3897"/>
-    <cellStyle name="Percentuale 25 4" xfId="2127"/>
-    <cellStyle name="Percentuale 25 4 2" xfId="2128"/>
-    <cellStyle name="Percentuale 25 4 2 2" xfId="3900"/>
-    <cellStyle name="Percentuale 25 4 3" xfId="3899"/>
-    <cellStyle name="Percentuale 25 5" xfId="2129"/>
-    <cellStyle name="Percentuale 25 6" xfId="3895"/>
-    <cellStyle name="Percentuale 26" xfId="2130"/>
-    <cellStyle name="Percentuale 26 2" xfId="2131"/>
-    <cellStyle name="Percentuale 26 2 2" xfId="3902"/>
-    <cellStyle name="Percentuale 26 3" xfId="2132"/>
-    <cellStyle name="Percentuale 26 3 2" xfId="2133"/>
-    <cellStyle name="Percentuale 26 3 2 2" xfId="2134"/>
-    <cellStyle name="Percentuale 26 3 2 3" xfId="3904"/>
-    <cellStyle name="Percentuale 26 3 3" xfId="3903"/>
-    <cellStyle name="Percentuale 26 4" xfId="2135"/>
-    <cellStyle name="Percentuale 26 4 2" xfId="2136"/>
-    <cellStyle name="Percentuale 26 4 2 2" xfId="3906"/>
-    <cellStyle name="Percentuale 26 4 3" xfId="3905"/>
-    <cellStyle name="Percentuale 26 5" xfId="2137"/>
-    <cellStyle name="Percentuale 26 6" xfId="3901"/>
-    <cellStyle name="Percentuale 27" xfId="2138"/>
-    <cellStyle name="Percentuale 27 2" xfId="2139"/>
-    <cellStyle name="Percentuale 27 2 2" xfId="3908"/>
-    <cellStyle name="Percentuale 27 3" xfId="2140"/>
-    <cellStyle name="Percentuale 27 3 2" xfId="2141"/>
-    <cellStyle name="Percentuale 27 3 2 2" xfId="2142"/>
-    <cellStyle name="Percentuale 27 3 2 3" xfId="3910"/>
-    <cellStyle name="Percentuale 27 3 3" xfId="3909"/>
-    <cellStyle name="Percentuale 27 4" xfId="2143"/>
-    <cellStyle name="Percentuale 27 4 2" xfId="2144"/>
-    <cellStyle name="Percentuale 27 4 2 2" xfId="3912"/>
-    <cellStyle name="Percentuale 27 4 3" xfId="3911"/>
-    <cellStyle name="Percentuale 27 5" xfId="2145"/>
-    <cellStyle name="Percentuale 27 6" xfId="3907"/>
-    <cellStyle name="Percentuale 28" xfId="2146"/>
-    <cellStyle name="Percentuale 28 2" xfId="2147"/>
-    <cellStyle name="Percentuale 28 2 2" xfId="3914"/>
-    <cellStyle name="Percentuale 28 3" xfId="2148"/>
-    <cellStyle name="Percentuale 28 3 2" xfId="2149"/>
-    <cellStyle name="Percentuale 28 3 2 2" xfId="2150"/>
-    <cellStyle name="Percentuale 28 3 2 3" xfId="3916"/>
-    <cellStyle name="Percentuale 28 3 3" xfId="3915"/>
-    <cellStyle name="Percentuale 28 4" xfId="2151"/>
-    <cellStyle name="Percentuale 28 4 2" xfId="2152"/>
-    <cellStyle name="Percentuale 28 4 2 2" xfId="3918"/>
-    <cellStyle name="Percentuale 28 4 3" xfId="3917"/>
-    <cellStyle name="Percentuale 28 5" xfId="2153"/>
-    <cellStyle name="Percentuale 28 6" xfId="3913"/>
-    <cellStyle name="Percentuale 29" xfId="2154"/>
-    <cellStyle name="Percentuale 29 2" xfId="2155"/>
-    <cellStyle name="Percentuale 29 2 2" xfId="3920"/>
-    <cellStyle name="Percentuale 29 3" xfId="2156"/>
-    <cellStyle name="Percentuale 29 3 2" xfId="2157"/>
-    <cellStyle name="Percentuale 29 3 2 2" xfId="2158"/>
-    <cellStyle name="Percentuale 29 3 2 3" xfId="3922"/>
-    <cellStyle name="Percentuale 29 3 3" xfId="3921"/>
-    <cellStyle name="Percentuale 29 4" xfId="2159"/>
-    <cellStyle name="Percentuale 29 4 2" xfId="2160"/>
-    <cellStyle name="Percentuale 29 4 2 2" xfId="3924"/>
-    <cellStyle name="Percentuale 29 4 3" xfId="3923"/>
-    <cellStyle name="Percentuale 29 5" xfId="2161"/>
-    <cellStyle name="Percentuale 29 6" xfId="3919"/>
-    <cellStyle name="Percentuale 3" xfId="2162"/>
-    <cellStyle name="Percentuale 3 2" xfId="2163"/>
-    <cellStyle name="Percentuale 3 2 2" xfId="3926"/>
-    <cellStyle name="Percentuale 3 3" xfId="2164"/>
-    <cellStyle name="Percentuale 3 3 2" xfId="2165"/>
-    <cellStyle name="Percentuale 3 3 2 2" xfId="2166"/>
-    <cellStyle name="Percentuale 3 3 2 3" xfId="3928"/>
-    <cellStyle name="Percentuale 3 3 3" xfId="3927"/>
-    <cellStyle name="Percentuale 3 4" xfId="2167"/>
-    <cellStyle name="Percentuale 3 4 2" xfId="2168"/>
-    <cellStyle name="Percentuale 3 4 2 2" xfId="3930"/>
-    <cellStyle name="Percentuale 3 4 3" xfId="3929"/>
-    <cellStyle name="Percentuale 3 5" xfId="2169"/>
-    <cellStyle name="Percentuale 3 6" xfId="3925"/>
-    <cellStyle name="Percentuale 30" xfId="2170"/>
-    <cellStyle name="Percentuale 30 2" xfId="2171"/>
-    <cellStyle name="Percentuale 30 2 2" xfId="3932"/>
-    <cellStyle name="Percentuale 30 3" xfId="2172"/>
-    <cellStyle name="Percentuale 30 3 2" xfId="2173"/>
-    <cellStyle name="Percentuale 30 3 2 2" xfId="2174"/>
-    <cellStyle name="Percentuale 30 3 2 3" xfId="3934"/>
-    <cellStyle name="Percentuale 30 3 3" xfId="3933"/>
-    <cellStyle name="Percentuale 30 4" xfId="2175"/>
-    <cellStyle name="Percentuale 30 4 2" xfId="2176"/>
-    <cellStyle name="Percentuale 30 4 2 2" xfId="3936"/>
-    <cellStyle name="Percentuale 30 4 3" xfId="3935"/>
-    <cellStyle name="Percentuale 30 5" xfId="2177"/>
-    <cellStyle name="Percentuale 30 6" xfId="3931"/>
-    <cellStyle name="Percentuale 31" xfId="2178"/>
-    <cellStyle name="Percentuale 31 2" xfId="2179"/>
-    <cellStyle name="Percentuale 31 2 2" xfId="3938"/>
-    <cellStyle name="Percentuale 31 3" xfId="2180"/>
-    <cellStyle name="Percentuale 31 3 2" xfId="2181"/>
-    <cellStyle name="Percentuale 31 3 2 2" xfId="2182"/>
-    <cellStyle name="Percentuale 31 3 2 3" xfId="3940"/>
-    <cellStyle name="Percentuale 31 3 3" xfId="3939"/>
-    <cellStyle name="Percentuale 31 4" xfId="2183"/>
-    <cellStyle name="Percentuale 31 4 2" xfId="2184"/>
-    <cellStyle name="Percentuale 31 4 2 2" xfId="3942"/>
-    <cellStyle name="Percentuale 31 4 3" xfId="3941"/>
-    <cellStyle name="Percentuale 31 5" xfId="2185"/>
-    <cellStyle name="Percentuale 31 6" xfId="3937"/>
-    <cellStyle name="Percentuale 32" xfId="2186"/>
-    <cellStyle name="Percentuale 32 2" xfId="2187"/>
-    <cellStyle name="Percentuale 32 2 2" xfId="3944"/>
-    <cellStyle name="Percentuale 32 3" xfId="2188"/>
-    <cellStyle name="Percentuale 32 3 2" xfId="2189"/>
-    <cellStyle name="Percentuale 32 3 2 2" xfId="2190"/>
-    <cellStyle name="Percentuale 32 3 2 3" xfId="3946"/>
-    <cellStyle name="Percentuale 32 3 3" xfId="3945"/>
-    <cellStyle name="Percentuale 32 4" xfId="2191"/>
-    <cellStyle name="Percentuale 32 4 2" xfId="2192"/>
-    <cellStyle name="Percentuale 32 4 2 2" xfId="3948"/>
-    <cellStyle name="Percentuale 32 4 3" xfId="3947"/>
-    <cellStyle name="Percentuale 32 5" xfId="2193"/>
-    <cellStyle name="Percentuale 32 6" xfId="3943"/>
-    <cellStyle name="Percentuale 33" xfId="2194"/>
-    <cellStyle name="Percentuale 33 2" xfId="2195"/>
-    <cellStyle name="Percentuale 33 2 2" xfId="3950"/>
-    <cellStyle name="Percentuale 33 3" xfId="2196"/>
-    <cellStyle name="Percentuale 33 3 2" xfId="2197"/>
-    <cellStyle name="Percentuale 33 3 2 2" xfId="2198"/>
-    <cellStyle name="Percentuale 33 3 2 3" xfId="3952"/>
-    <cellStyle name="Percentuale 33 3 3" xfId="3951"/>
-    <cellStyle name="Percentuale 33 4" xfId="2199"/>
-    <cellStyle name="Percentuale 33 4 2" xfId="2200"/>
-    <cellStyle name="Percentuale 33 4 2 2" xfId="3954"/>
-    <cellStyle name="Percentuale 33 4 3" xfId="3953"/>
-    <cellStyle name="Percentuale 33 5" xfId="2201"/>
-    <cellStyle name="Percentuale 33 6" xfId="3949"/>
-    <cellStyle name="Percentuale 34" xfId="2202"/>
-    <cellStyle name="Percentuale 34 2" xfId="2203"/>
-    <cellStyle name="Percentuale 34 2 2" xfId="3956"/>
-    <cellStyle name="Percentuale 34 3" xfId="2204"/>
-    <cellStyle name="Percentuale 34 3 2" xfId="2205"/>
-    <cellStyle name="Percentuale 34 3 2 2" xfId="2206"/>
-    <cellStyle name="Percentuale 34 3 2 3" xfId="3958"/>
-    <cellStyle name="Percentuale 34 3 3" xfId="3957"/>
-    <cellStyle name="Percentuale 34 4" xfId="2207"/>
-    <cellStyle name="Percentuale 34 4 2" xfId="2208"/>
-    <cellStyle name="Percentuale 34 4 2 2" xfId="3960"/>
-    <cellStyle name="Percentuale 34 4 3" xfId="3959"/>
-    <cellStyle name="Percentuale 34 5" xfId="2209"/>
-    <cellStyle name="Percentuale 34 6" xfId="3955"/>
-    <cellStyle name="Percentuale 35" xfId="2210"/>
-    <cellStyle name="Percentuale 35 2" xfId="2211"/>
-    <cellStyle name="Percentuale 35 2 2" xfId="3962"/>
-    <cellStyle name="Percentuale 35 3" xfId="2212"/>
-    <cellStyle name="Percentuale 35 3 2" xfId="2213"/>
-    <cellStyle name="Percentuale 35 3 2 2" xfId="2214"/>
-    <cellStyle name="Percentuale 35 3 2 3" xfId="3964"/>
-    <cellStyle name="Percentuale 35 3 3" xfId="3963"/>
-    <cellStyle name="Percentuale 35 4" xfId="2215"/>
-    <cellStyle name="Percentuale 35 4 2" xfId="2216"/>
-    <cellStyle name="Percentuale 35 4 2 2" xfId="3966"/>
-    <cellStyle name="Percentuale 35 4 3" xfId="3965"/>
-    <cellStyle name="Percentuale 35 5" xfId="2217"/>
-    <cellStyle name="Percentuale 35 6" xfId="3961"/>
-    <cellStyle name="Percentuale 36" xfId="2218"/>
-    <cellStyle name="Percentuale 36 2" xfId="2219"/>
-    <cellStyle name="Percentuale 36 2 2" xfId="3968"/>
-    <cellStyle name="Percentuale 36 3" xfId="2220"/>
-    <cellStyle name="Percentuale 36 3 2" xfId="2221"/>
-    <cellStyle name="Percentuale 36 3 2 2" xfId="2222"/>
-    <cellStyle name="Percentuale 36 3 2 3" xfId="3970"/>
-    <cellStyle name="Percentuale 36 3 3" xfId="3969"/>
-    <cellStyle name="Percentuale 36 4" xfId="2223"/>
-    <cellStyle name="Percentuale 36 4 2" xfId="2224"/>
-    <cellStyle name="Percentuale 36 4 2 2" xfId="3972"/>
-    <cellStyle name="Percentuale 36 4 3" xfId="3971"/>
-    <cellStyle name="Percentuale 36 5" xfId="2225"/>
-    <cellStyle name="Percentuale 36 6" xfId="3967"/>
-    <cellStyle name="Percentuale 37" xfId="2226"/>
-    <cellStyle name="Percentuale 37 2" xfId="2227"/>
-    <cellStyle name="Percentuale 37 2 2" xfId="3974"/>
-    <cellStyle name="Percentuale 37 3" xfId="2228"/>
-    <cellStyle name="Percentuale 37 3 2" xfId="2229"/>
-    <cellStyle name="Percentuale 37 3 2 2" xfId="2230"/>
-    <cellStyle name="Percentuale 37 3 2 3" xfId="3976"/>
-    <cellStyle name="Percentuale 37 3 3" xfId="3975"/>
-    <cellStyle name="Percentuale 37 4" xfId="2231"/>
-    <cellStyle name="Percentuale 37 4 2" xfId="2232"/>
-    <cellStyle name="Percentuale 37 4 2 2" xfId="3978"/>
-    <cellStyle name="Percentuale 37 4 3" xfId="3977"/>
-    <cellStyle name="Percentuale 37 5" xfId="2233"/>
-    <cellStyle name="Percentuale 37 6" xfId="3973"/>
-    <cellStyle name="Percentuale 38" xfId="2234"/>
-    <cellStyle name="Percentuale 38 2" xfId="2235"/>
-    <cellStyle name="Percentuale 38 2 2" xfId="3980"/>
-    <cellStyle name="Percentuale 38 3" xfId="2236"/>
-    <cellStyle name="Percentuale 38 3 2" xfId="2237"/>
-    <cellStyle name="Percentuale 38 3 2 2" xfId="2238"/>
-    <cellStyle name="Percentuale 38 3 2 3" xfId="3982"/>
-    <cellStyle name="Percentuale 38 3 3" xfId="3981"/>
-    <cellStyle name="Percentuale 38 4" xfId="2239"/>
-    <cellStyle name="Percentuale 38 4 2" xfId="2240"/>
-    <cellStyle name="Percentuale 38 4 2 2" xfId="3984"/>
-    <cellStyle name="Percentuale 38 4 3" xfId="3983"/>
-    <cellStyle name="Percentuale 38 5" xfId="2241"/>
-    <cellStyle name="Percentuale 38 6" xfId="3979"/>
-    <cellStyle name="Percentuale 39" xfId="2242"/>
-    <cellStyle name="Percentuale 39 2" xfId="2243"/>
-    <cellStyle name="Percentuale 39 2 2" xfId="3986"/>
-    <cellStyle name="Percentuale 39 3" xfId="2244"/>
-    <cellStyle name="Percentuale 39 3 2" xfId="2245"/>
-    <cellStyle name="Percentuale 39 3 2 2" xfId="2246"/>
-    <cellStyle name="Percentuale 39 3 2 3" xfId="3988"/>
-    <cellStyle name="Percentuale 39 3 3" xfId="3987"/>
-    <cellStyle name="Percentuale 39 4" xfId="2247"/>
-    <cellStyle name="Percentuale 39 4 2" xfId="2248"/>
-    <cellStyle name="Percentuale 39 4 2 2" xfId="3990"/>
-    <cellStyle name="Percentuale 39 4 3" xfId="3989"/>
-    <cellStyle name="Percentuale 39 5" xfId="2249"/>
-    <cellStyle name="Percentuale 39 6" xfId="3985"/>
-    <cellStyle name="Percentuale 4" xfId="2250"/>
-    <cellStyle name="Percentuale 4 2" xfId="2251"/>
-    <cellStyle name="Percentuale 4 2 2" xfId="3992"/>
-    <cellStyle name="Percentuale 4 3" xfId="2252"/>
-    <cellStyle name="Percentuale 4 3 2" xfId="2253"/>
-    <cellStyle name="Percentuale 4 3 2 2" xfId="2254"/>
-    <cellStyle name="Percentuale 4 3 2 3" xfId="3994"/>
-    <cellStyle name="Percentuale 4 3 3" xfId="3993"/>
-    <cellStyle name="Percentuale 4 4" xfId="2255"/>
-    <cellStyle name="Percentuale 4 4 2" xfId="2256"/>
-    <cellStyle name="Percentuale 4 4 2 2" xfId="3996"/>
-    <cellStyle name="Percentuale 4 4 3" xfId="3995"/>
-    <cellStyle name="Percentuale 4 5" xfId="2257"/>
-    <cellStyle name="Percentuale 4 6" xfId="3991"/>
-    <cellStyle name="Percentuale 40" xfId="2258"/>
-    <cellStyle name="Percentuale 40 2" xfId="2259"/>
-    <cellStyle name="Percentuale 40 2 2" xfId="3998"/>
-    <cellStyle name="Percentuale 40 3" xfId="2260"/>
-    <cellStyle name="Percentuale 40 3 2" xfId="2261"/>
-    <cellStyle name="Percentuale 40 3 2 2" xfId="2262"/>
-    <cellStyle name="Percentuale 40 3 2 3" xfId="4000"/>
-    <cellStyle name="Percentuale 40 3 3" xfId="3999"/>
-    <cellStyle name="Percentuale 40 4" xfId="2263"/>
-    <cellStyle name="Percentuale 40 4 2" xfId="2264"/>
-    <cellStyle name="Percentuale 40 4 2 2" xfId="4002"/>
-    <cellStyle name="Percentuale 40 4 3" xfId="4001"/>
-    <cellStyle name="Percentuale 40 5" xfId="2265"/>
-    <cellStyle name="Percentuale 40 6" xfId="3997"/>
-    <cellStyle name="Percentuale 41" xfId="2266"/>
-    <cellStyle name="Percentuale 41 2" xfId="2267"/>
-    <cellStyle name="Percentuale 41 2 2" xfId="4004"/>
-    <cellStyle name="Percentuale 41 3" xfId="2268"/>
-    <cellStyle name="Percentuale 41 3 2" xfId="2269"/>
-    <cellStyle name="Percentuale 41 3 2 2" xfId="2270"/>
-    <cellStyle name="Percentuale 41 3 2 3" xfId="4006"/>
-    <cellStyle name="Percentuale 41 3 3" xfId="4005"/>
-    <cellStyle name="Percentuale 41 4" xfId="2271"/>
-    <cellStyle name="Percentuale 41 4 2" xfId="2272"/>
-    <cellStyle name="Percentuale 41 4 2 2" xfId="4008"/>
-    <cellStyle name="Percentuale 41 4 3" xfId="4007"/>
-    <cellStyle name="Percentuale 41 5" xfId="2273"/>
-    <cellStyle name="Percentuale 41 6" xfId="4003"/>
-    <cellStyle name="Percentuale 42" xfId="2274"/>
-    <cellStyle name="Percentuale 42 2" xfId="2275"/>
-    <cellStyle name="Percentuale 42 2 2" xfId="4010"/>
-    <cellStyle name="Percentuale 42 3" xfId="2276"/>
-    <cellStyle name="Percentuale 42 3 2" xfId="2277"/>
-    <cellStyle name="Percentuale 42 3 2 2" xfId="2278"/>
-    <cellStyle name="Percentuale 42 3 2 3" xfId="4012"/>
-    <cellStyle name="Percentuale 42 3 3" xfId="4011"/>
-    <cellStyle name="Percentuale 42 4" xfId="2279"/>
-    <cellStyle name="Percentuale 42 4 2" xfId="2280"/>
-    <cellStyle name="Percentuale 42 4 2 2" xfId="4014"/>
-    <cellStyle name="Percentuale 42 4 3" xfId="4013"/>
-    <cellStyle name="Percentuale 42 5" xfId="2281"/>
-    <cellStyle name="Percentuale 42 6" xfId="4009"/>
-    <cellStyle name="Percentuale 43" xfId="2282"/>
-    <cellStyle name="Percentuale 43 2" xfId="2283"/>
-    <cellStyle name="Percentuale 43 2 2" xfId="4016"/>
-    <cellStyle name="Percentuale 43 3" xfId="2284"/>
-    <cellStyle name="Percentuale 43 3 2" xfId="2285"/>
-    <cellStyle name="Percentuale 43 3 2 2" xfId="2286"/>
-    <cellStyle name="Percentuale 43 3 2 3" xfId="4018"/>
-    <cellStyle name="Percentuale 43 3 3" xfId="4017"/>
-    <cellStyle name="Percentuale 43 4" xfId="2287"/>
-    <cellStyle name="Percentuale 43 4 2" xfId="2288"/>
-    <cellStyle name="Percentuale 43 4 2 2" xfId="4020"/>
-    <cellStyle name="Percentuale 43 4 3" xfId="4019"/>
-    <cellStyle name="Percentuale 43 5" xfId="2289"/>
-    <cellStyle name="Percentuale 43 6" xfId="4015"/>
-    <cellStyle name="Percentuale 44" xfId="2290"/>
-    <cellStyle name="Percentuale 44 2" xfId="2291"/>
-    <cellStyle name="Percentuale 44 2 2" xfId="4022"/>
-    <cellStyle name="Percentuale 44 3" xfId="2292"/>
-    <cellStyle name="Percentuale 44 3 2" xfId="2293"/>
-    <cellStyle name="Percentuale 44 3 2 2" xfId="2294"/>
-    <cellStyle name="Percentuale 44 3 2 3" xfId="4024"/>
-    <cellStyle name="Percentuale 44 3 3" xfId="4023"/>
-    <cellStyle name="Percentuale 44 4" xfId="2295"/>
-    <cellStyle name="Percentuale 44 4 2" xfId="2296"/>
-    <cellStyle name="Percentuale 44 4 2 2" xfId="4026"/>
-    <cellStyle name="Percentuale 44 4 3" xfId="4025"/>
-    <cellStyle name="Percentuale 44 5" xfId="2297"/>
-    <cellStyle name="Percentuale 44 6" xfId="4021"/>
-    <cellStyle name="Percentuale 45" xfId="2298"/>
-    <cellStyle name="Percentuale 45 2" xfId="2299"/>
-    <cellStyle name="Percentuale 45 2 2" xfId="4028"/>
-    <cellStyle name="Percentuale 45 3" xfId="2300"/>
-    <cellStyle name="Percentuale 45 3 2" xfId="2301"/>
-    <cellStyle name="Percentuale 45 3 2 2" xfId="2302"/>
-    <cellStyle name="Percentuale 45 3 2 3" xfId="4030"/>
-    <cellStyle name="Percentuale 45 3 3" xfId="4029"/>
-    <cellStyle name="Percentuale 45 4" xfId="2303"/>
-    <cellStyle name="Percentuale 45 4 2" xfId="2304"/>
-    <cellStyle name="Percentuale 45 4 2 2" xfId="4032"/>
-    <cellStyle name="Percentuale 45 4 3" xfId="4031"/>
-    <cellStyle name="Percentuale 45 5" xfId="2305"/>
-    <cellStyle name="Percentuale 45 6" xfId="4027"/>
-    <cellStyle name="Percentuale 46" xfId="2306"/>
-    <cellStyle name="Percentuale 46 2" xfId="2307"/>
-    <cellStyle name="Percentuale 46 2 2" xfId="4034"/>
-    <cellStyle name="Percentuale 46 3" xfId="2308"/>
-    <cellStyle name="Percentuale 46 3 2" xfId="2309"/>
-    <cellStyle name="Percentuale 46 3 2 2" xfId="2310"/>
-    <cellStyle name="Percentuale 46 3 2 3" xfId="4036"/>
-    <cellStyle name="Percentuale 46 3 3" xfId="4035"/>
-    <cellStyle name="Percentuale 46 4" xfId="2311"/>
-    <cellStyle name="Percentuale 46 4 2" xfId="2312"/>
-    <cellStyle name="Percentuale 46 4 2 2" xfId="4038"/>
-    <cellStyle name="Percentuale 46 4 3" xfId="4037"/>
-    <cellStyle name="Percentuale 46 5" xfId="2313"/>
-    <cellStyle name="Percentuale 46 6" xfId="4033"/>
-    <cellStyle name="Percentuale 47" xfId="2314"/>
-    <cellStyle name="Percentuale 47 2" xfId="2315"/>
-    <cellStyle name="Percentuale 47 2 2" xfId="4040"/>
-    <cellStyle name="Percentuale 47 3" xfId="2316"/>
-    <cellStyle name="Percentuale 47 3 2" xfId="2317"/>
-    <cellStyle name="Percentuale 47 3 2 2" xfId="2318"/>
-    <cellStyle name="Percentuale 47 3 2 3" xfId="4042"/>
-    <cellStyle name="Percentuale 47 3 3" xfId="4041"/>
-    <cellStyle name="Percentuale 47 4" xfId="2319"/>
-    <cellStyle name="Percentuale 47 4 2" xfId="2320"/>
-    <cellStyle name="Percentuale 47 4 2 2" xfId="4044"/>
-    <cellStyle name="Percentuale 47 4 3" xfId="4043"/>
-    <cellStyle name="Percentuale 47 5" xfId="2321"/>
-    <cellStyle name="Percentuale 47 6" xfId="4039"/>
-    <cellStyle name="Percentuale 48" xfId="2322"/>
-    <cellStyle name="Percentuale 48 2" xfId="2323"/>
-    <cellStyle name="Percentuale 48 2 2" xfId="4046"/>
-    <cellStyle name="Percentuale 48 3" xfId="2324"/>
-    <cellStyle name="Percentuale 48 3 2" xfId="2325"/>
-    <cellStyle name="Percentuale 48 3 2 2" xfId="2326"/>
-    <cellStyle name="Percentuale 48 3 2 3" xfId="4048"/>
-    <cellStyle name="Percentuale 48 3 3" xfId="4047"/>
-    <cellStyle name="Percentuale 48 4" xfId="2327"/>
-    <cellStyle name="Percentuale 48 4 2" xfId="2328"/>
-    <cellStyle name="Percentuale 48 4 2 2" xfId="4050"/>
-    <cellStyle name="Percentuale 48 4 3" xfId="4049"/>
-    <cellStyle name="Percentuale 48 5" xfId="2329"/>
-    <cellStyle name="Percentuale 48 6" xfId="4045"/>
-    <cellStyle name="Percentuale 49" xfId="2330"/>
-    <cellStyle name="Percentuale 49 2" xfId="2331"/>
-    <cellStyle name="Percentuale 49 2 2" xfId="4052"/>
-    <cellStyle name="Percentuale 49 3" xfId="2332"/>
-    <cellStyle name="Percentuale 49 3 2" xfId="2333"/>
-    <cellStyle name="Percentuale 49 3 2 2" xfId="2334"/>
-    <cellStyle name="Percentuale 49 3 2 3" xfId="4054"/>
-    <cellStyle name="Percentuale 49 3 3" xfId="4053"/>
-    <cellStyle name="Percentuale 49 4" xfId="2335"/>
-    <cellStyle name="Percentuale 49 4 2" xfId="2336"/>
-    <cellStyle name="Percentuale 49 4 2 2" xfId="4056"/>
-    <cellStyle name="Percentuale 49 4 3" xfId="4055"/>
-    <cellStyle name="Percentuale 49 5" xfId="2337"/>
-    <cellStyle name="Percentuale 49 6" xfId="4051"/>
-    <cellStyle name="Percentuale 5" xfId="2338"/>
-    <cellStyle name="Percentuale 5 2" xfId="2339"/>
-    <cellStyle name="Percentuale 5 2 2" xfId="4058"/>
-    <cellStyle name="Percentuale 5 3" xfId="2340"/>
-    <cellStyle name="Percentuale 5 3 2" xfId="2341"/>
-    <cellStyle name="Percentuale 5 3 2 2" xfId="2342"/>
-    <cellStyle name="Percentuale 5 3 2 3" xfId="4060"/>
-    <cellStyle name="Percentuale 5 3 3" xfId="4059"/>
-    <cellStyle name="Percentuale 5 4" xfId="2343"/>
-    <cellStyle name="Percentuale 5 4 2" xfId="2344"/>
-    <cellStyle name="Percentuale 5 4 2 2" xfId="4062"/>
-    <cellStyle name="Percentuale 5 4 3" xfId="4061"/>
-    <cellStyle name="Percentuale 5 5" xfId="2345"/>
-    <cellStyle name="Percentuale 5 6" xfId="4057"/>
-    <cellStyle name="Percentuale 50" xfId="2346"/>
-    <cellStyle name="Percentuale 50 2" xfId="2347"/>
-    <cellStyle name="Percentuale 50 2 2" xfId="4064"/>
-    <cellStyle name="Percentuale 50 3" xfId="2348"/>
-    <cellStyle name="Percentuale 50 3 2" xfId="2349"/>
-    <cellStyle name="Percentuale 50 3 2 2" xfId="2350"/>
-    <cellStyle name="Percentuale 50 3 2 3" xfId="4066"/>
-    <cellStyle name="Percentuale 50 3 3" xfId="4065"/>
-    <cellStyle name="Percentuale 50 4" xfId="2351"/>
-    <cellStyle name="Percentuale 50 4 2" xfId="2352"/>
-    <cellStyle name="Percentuale 50 4 2 2" xfId="4068"/>
-    <cellStyle name="Percentuale 50 4 3" xfId="4067"/>
-    <cellStyle name="Percentuale 50 5" xfId="2353"/>
-    <cellStyle name="Percentuale 50 6" xfId="4063"/>
-    <cellStyle name="Percentuale 51" xfId="2354"/>
-    <cellStyle name="Percentuale 51 2" xfId="2355"/>
-    <cellStyle name="Percentuale 51 2 2" xfId="4070"/>
-    <cellStyle name="Percentuale 51 3" xfId="2356"/>
-    <cellStyle name="Percentuale 51 3 2" xfId="2357"/>
-    <cellStyle name="Percentuale 51 3 2 2" xfId="2358"/>
-    <cellStyle name="Percentuale 51 3 2 3" xfId="4072"/>
-    <cellStyle name="Percentuale 51 3 3" xfId="4071"/>
-    <cellStyle name="Percentuale 51 4" xfId="2359"/>
-    <cellStyle name="Percentuale 51 4 2" xfId="2360"/>
-    <cellStyle name="Percentuale 51 4 2 2" xfId="4074"/>
-    <cellStyle name="Percentuale 51 4 3" xfId="4073"/>
-    <cellStyle name="Percentuale 51 5" xfId="2361"/>
-    <cellStyle name="Percentuale 51 6" xfId="4069"/>
-    <cellStyle name="Percentuale 52" xfId="2362"/>
-    <cellStyle name="Percentuale 52 2" xfId="2363"/>
-    <cellStyle name="Percentuale 52 2 2" xfId="4076"/>
-    <cellStyle name="Percentuale 52 3" xfId="2364"/>
-    <cellStyle name="Percentuale 52 3 2" xfId="2365"/>
-    <cellStyle name="Percentuale 52 3 2 2" xfId="2366"/>
-    <cellStyle name="Percentuale 52 3 2 3" xfId="4078"/>
-    <cellStyle name="Percentuale 52 3 3" xfId="4077"/>
-    <cellStyle name="Percentuale 52 4" xfId="2367"/>
-    <cellStyle name="Percentuale 52 4 2" xfId="2368"/>
-    <cellStyle name="Percentuale 52 4 2 2" xfId="4080"/>
-    <cellStyle name="Percentuale 52 4 3" xfId="4079"/>
-    <cellStyle name="Percentuale 52 5" xfId="2369"/>
-    <cellStyle name="Percentuale 52 6" xfId="4075"/>
-    <cellStyle name="Percentuale 53" xfId="2370"/>
-    <cellStyle name="Percentuale 53 2" xfId="2371"/>
-    <cellStyle name="Percentuale 53 2 2" xfId="4082"/>
-    <cellStyle name="Percentuale 53 3" xfId="2372"/>
-    <cellStyle name="Percentuale 53 3 2" xfId="2373"/>
-    <cellStyle name="Percentuale 53 3 2 2" xfId="2374"/>
-    <cellStyle name="Percentuale 53 3 2 3" xfId="4084"/>
-    <cellStyle name="Percentuale 53 3 3" xfId="4083"/>
-    <cellStyle name="Percentuale 53 4" xfId="2375"/>
-    <cellStyle name="Percentuale 53 4 2" xfId="2376"/>
-    <cellStyle name="Percentuale 53 4 2 2" xfId="4086"/>
-    <cellStyle name="Percentuale 53 4 3" xfId="4085"/>
-    <cellStyle name="Percentuale 53 5" xfId="2377"/>
-    <cellStyle name="Percentuale 53 6" xfId="4081"/>
-    <cellStyle name="Percentuale 54" xfId="2378"/>
-    <cellStyle name="Percentuale 54 2" xfId="2379"/>
-    <cellStyle name="Percentuale 54 2 2" xfId="4088"/>
-    <cellStyle name="Percentuale 54 3" xfId="2380"/>
-    <cellStyle name="Percentuale 54 3 2" xfId="2381"/>
-    <cellStyle name="Percentuale 54 3 2 2" xfId="2382"/>
-    <cellStyle name="Percentuale 54 3 2 3" xfId="4090"/>
-    <cellStyle name="Percentuale 54 3 3" xfId="4089"/>
-    <cellStyle name="Percentuale 54 4" xfId="2383"/>
-    <cellStyle name="Percentuale 54 4 2" xfId="2384"/>
-    <cellStyle name="Percentuale 54 4 2 2" xfId="4092"/>
-    <cellStyle name="Percentuale 54 4 3" xfId="4091"/>
-    <cellStyle name="Percentuale 54 5" xfId="2385"/>
-    <cellStyle name="Percentuale 54 6" xfId="4087"/>
-    <cellStyle name="Percentuale 55" xfId="2386"/>
-    <cellStyle name="Percentuale 55 2" xfId="2387"/>
-    <cellStyle name="Percentuale 55 2 2" xfId="4094"/>
-    <cellStyle name="Percentuale 55 3" xfId="2388"/>
-    <cellStyle name="Percentuale 55 3 2" xfId="2389"/>
-    <cellStyle name="Percentuale 55 3 2 2" xfId="2390"/>
-    <cellStyle name="Percentuale 55 3 2 3" xfId="4096"/>
-    <cellStyle name="Percentuale 55 3 3" xfId="4095"/>
-    <cellStyle name="Percentuale 55 4" xfId="2391"/>
-    <cellStyle name="Percentuale 55 4 2" xfId="2392"/>
-    <cellStyle name="Percentuale 55 4 2 2" xfId="4098"/>
-    <cellStyle name="Percentuale 55 4 3" xfId="4097"/>
-    <cellStyle name="Percentuale 55 5" xfId="2393"/>
-    <cellStyle name="Percentuale 55 6" xfId="4093"/>
-    <cellStyle name="Percentuale 56" xfId="2394"/>
-    <cellStyle name="Percentuale 56 2" xfId="2395"/>
-    <cellStyle name="Percentuale 56 2 2" xfId="4100"/>
-    <cellStyle name="Percentuale 56 3" xfId="2396"/>
-    <cellStyle name="Percentuale 56 3 2" xfId="2397"/>
-    <cellStyle name="Percentuale 56 3 2 2" xfId="2398"/>
-    <cellStyle name="Percentuale 56 3 2 3" xfId="4102"/>
-    <cellStyle name="Percentuale 56 3 3" xfId="4101"/>
-    <cellStyle name="Percentuale 56 4" xfId="2399"/>
-    <cellStyle name="Percentuale 56 4 2" xfId="2400"/>
-    <cellStyle name="Percentuale 56 4 2 2" xfId="4104"/>
-    <cellStyle name="Percentuale 56 4 3" xfId="4103"/>
-    <cellStyle name="Percentuale 56 5" xfId="2401"/>
-    <cellStyle name="Percentuale 56 6" xfId="4099"/>
-    <cellStyle name="Percentuale 57" xfId="2402"/>
-    <cellStyle name="Percentuale 57 2" xfId="2403"/>
-    <cellStyle name="Percentuale 57 2 2" xfId="4106"/>
-    <cellStyle name="Percentuale 57 3" xfId="2404"/>
-    <cellStyle name="Percentuale 57 3 2" xfId="2405"/>
-    <cellStyle name="Percentuale 57 3 2 2" xfId="2406"/>
-    <cellStyle name="Percentuale 57 3 2 3" xfId="4108"/>
-    <cellStyle name="Percentuale 57 3 3" xfId="4107"/>
-    <cellStyle name="Percentuale 57 4" xfId="2407"/>
-    <cellStyle name="Percentuale 57 4 2" xfId="2408"/>
-    <cellStyle name="Percentuale 57 4 2 2" xfId="4110"/>
-    <cellStyle name="Percentuale 57 4 3" xfId="4109"/>
-    <cellStyle name="Percentuale 57 5" xfId="2409"/>
-    <cellStyle name="Percentuale 57 6" xfId="4105"/>
-    <cellStyle name="Percentuale 58" xfId="2410"/>
-    <cellStyle name="Percentuale 58 2" xfId="2411"/>
-    <cellStyle name="Percentuale 58 2 2" xfId="4112"/>
-    <cellStyle name="Percentuale 58 3" xfId="2412"/>
-    <cellStyle name="Percentuale 58 3 2" xfId="2413"/>
-    <cellStyle name="Percentuale 58 3 2 2" xfId="2414"/>
-    <cellStyle name="Percentuale 58 3 2 3" xfId="4114"/>
-    <cellStyle name="Percentuale 58 3 3" xfId="4113"/>
-    <cellStyle name="Percentuale 58 4" xfId="2415"/>
-    <cellStyle name="Percentuale 58 4 2" xfId="2416"/>
-    <cellStyle name="Percentuale 58 4 2 2" xfId="4116"/>
-    <cellStyle name="Percentuale 58 4 3" xfId="4115"/>
-    <cellStyle name="Percentuale 58 5" xfId="2417"/>
-    <cellStyle name="Percentuale 58 6" xfId="4111"/>
-    <cellStyle name="Percentuale 59" xfId="2418"/>
-    <cellStyle name="Percentuale 59 2" xfId="2419"/>
-    <cellStyle name="Percentuale 59 2 2" xfId="4118"/>
-    <cellStyle name="Percentuale 59 3" xfId="2420"/>
-    <cellStyle name="Percentuale 59 3 2" xfId="2421"/>
-    <cellStyle name="Percentuale 59 3 2 2" xfId="2422"/>
-    <cellStyle name="Percentuale 59 3 2 3" xfId="4120"/>
-    <cellStyle name="Percentuale 59 3 3" xfId="4119"/>
-    <cellStyle name="Percentuale 59 4" xfId="2423"/>
-    <cellStyle name="Percentuale 59 4 2" xfId="2424"/>
-    <cellStyle name="Percentuale 59 4 2 2" xfId="4122"/>
-    <cellStyle name="Percentuale 59 4 3" xfId="4121"/>
-    <cellStyle name="Percentuale 59 5" xfId="2425"/>
-    <cellStyle name="Percentuale 59 6" xfId="4117"/>
-    <cellStyle name="Percentuale 6" xfId="2426"/>
-    <cellStyle name="Percentuale 6 2" xfId="2427"/>
-    <cellStyle name="Percentuale 6 2 2" xfId="4124"/>
-    <cellStyle name="Percentuale 6 3" xfId="2428"/>
-    <cellStyle name="Percentuale 6 3 2" xfId="2429"/>
-    <cellStyle name="Percentuale 6 3 2 2" xfId="2430"/>
-    <cellStyle name="Percentuale 6 3 2 3" xfId="4126"/>
-    <cellStyle name="Percentuale 6 3 3" xfId="4125"/>
-    <cellStyle name="Percentuale 6 4" xfId="2431"/>
-    <cellStyle name="Percentuale 6 4 2" xfId="2432"/>
-    <cellStyle name="Percentuale 6 4 2 2" xfId="4128"/>
-    <cellStyle name="Percentuale 6 4 3" xfId="4127"/>
-    <cellStyle name="Percentuale 6 5" xfId="2433"/>
-    <cellStyle name="Percentuale 6 6" xfId="4123"/>
-    <cellStyle name="Percentuale 60" xfId="2434"/>
-    <cellStyle name="Percentuale 60 2" xfId="2435"/>
-    <cellStyle name="Percentuale 60 2 2" xfId="4130"/>
-    <cellStyle name="Percentuale 60 3" xfId="2436"/>
-    <cellStyle name="Percentuale 60 3 2" xfId="2437"/>
-    <cellStyle name="Percentuale 60 3 2 2" xfId="2438"/>
-    <cellStyle name="Percentuale 60 3 2 3" xfId="4132"/>
-    <cellStyle name="Percentuale 60 3 3" xfId="4131"/>
-    <cellStyle name="Percentuale 60 4" xfId="2439"/>
-    <cellStyle name="Percentuale 60 4 2" xfId="2440"/>
-    <cellStyle name="Percentuale 60 4 2 2" xfId="4134"/>
-    <cellStyle name="Percentuale 60 4 3" xfId="4133"/>
-    <cellStyle name="Percentuale 60 5" xfId="2441"/>
-    <cellStyle name="Percentuale 60 6" xfId="4129"/>
-    <cellStyle name="Percentuale 61" xfId="2442"/>
-    <cellStyle name="Percentuale 61 2" xfId="2443"/>
-    <cellStyle name="Percentuale 61 2 2" xfId="4136"/>
-    <cellStyle name="Percentuale 61 3" xfId="2444"/>
-    <cellStyle name="Percentuale 61 3 2" xfId="2445"/>
-    <cellStyle name="Percentuale 61 3 2 2" xfId="2446"/>
-    <cellStyle name="Percentuale 61 3 2 3" xfId="4138"/>
-    <cellStyle name="Percentuale 61 3 3" xfId="4137"/>
-    <cellStyle name="Percentuale 61 4" xfId="2447"/>
-    <cellStyle name="Percentuale 61 4 2" xfId="2448"/>
-    <cellStyle name="Percentuale 61 4 2 2" xfId="4140"/>
-    <cellStyle name="Percentuale 61 4 3" xfId="4139"/>
-    <cellStyle name="Percentuale 61 5" xfId="2449"/>
-    <cellStyle name="Percentuale 61 6" xfId="4135"/>
-    <cellStyle name="Percentuale 62" xfId="2450"/>
-    <cellStyle name="Percentuale 62 2" xfId="2451"/>
-    <cellStyle name="Percentuale 62 2 2" xfId="4142"/>
-    <cellStyle name="Percentuale 62 3" xfId="4141"/>
-    <cellStyle name="Percentuale 63" xfId="2452"/>
-    <cellStyle name="Percentuale 63 2" xfId="2453"/>
-    <cellStyle name="Percentuale 63 2 2" xfId="4144"/>
-    <cellStyle name="Percentuale 63 3" xfId="4143"/>
-    <cellStyle name="Percentuale 64" xfId="2454"/>
-    <cellStyle name="Percentuale 64 2" xfId="2455"/>
-    <cellStyle name="Percentuale 64 2 2" xfId="4146"/>
-    <cellStyle name="Percentuale 64 3" xfId="4145"/>
-    <cellStyle name="Percentuale 65" xfId="2456"/>
-    <cellStyle name="Percentuale 65 2" xfId="2457"/>
-    <cellStyle name="Percentuale 65 2 2" xfId="4148"/>
-    <cellStyle name="Percentuale 65 3" xfId="4147"/>
-    <cellStyle name="Percentuale 66" xfId="2458"/>
-    <cellStyle name="Percentuale 66 2" xfId="2459"/>
-    <cellStyle name="Percentuale 66 2 2" xfId="4150"/>
-    <cellStyle name="Percentuale 66 3" xfId="4149"/>
-    <cellStyle name="Percentuale 67" xfId="2460"/>
-    <cellStyle name="Percentuale 67 2" xfId="2461"/>
-    <cellStyle name="Percentuale 67 2 2" xfId="4152"/>
-    <cellStyle name="Percentuale 67 3" xfId="4151"/>
-    <cellStyle name="Percentuale 68" xfId="2462"/>
-    <cellStyle name="Percentuale 68 2" xfId="2463"/>
-    <cellStyle name="Percentuale 68 2 2" xfId="4154"/>
-    <cellStyle name="Percentuale 68 3" xfId="2464"/>
-    <cellStyle name="Percentuale 68 3 2" xfId="2465"/>
-    <cellStyle name="Percentuale 68 3 2 2" xfId="2466"/>
-    <cellStyle name="Percentuale 68 3 2 3" xfId="4156"/>
-    <cellStyle name="Percentuale 68 3 3" xfId="4155"/>
-    <cellStyle name="Percentuale 68 4" xfId="2467"/>
-    <cellStyle name="Percentuale 68 4 2" xfId="2468"/>
-    <cellStyle name="Percentuale 68 4 2 2" xfId="4158"/>
-    <cellStyle name="Percentuale 68 4 3" xfId="4157"/>
-    <cellStyle name="Percentuale 68 5" xfId="2469"/>
-    <cellStyle name="Percentuale 68 6" xfId="4153"/>
-    <cellStyle name="Percentuale 69" xfId="2470"/>
-    <cellStyle name="Percentuale 69 2" xfId="2471"/>
-    <cellStyle name="Percentuale 69 2 2" xfId="4160"/>
-    <cellStyle name="Percentuale 69 3" xfId="2472"/>
-    <cellStyle name="Percentuale 69 3 2" xfId="2473"/>
-    <cellStyle name="Percentuale 69 3 2 2" xfId="2474"/>
-    <cellStyle name="Percentuale 69 3 2 3" xfId="4162"/>
-    <cellStyle name="Percentuale 69 3 3" xfId="4161"/>
-    <cellStyle name="Percentuale 69 4" xfId="2475"/>
-    <cellStyle name="Percentuale 69 4 2" xfId="2476"/>
-    <cellStyle name="Percentuale 69 4 2 2" xfId="4164"/>
-    <cellStyle name="Percentuale 69 4 3" xfId="4163"/>
-    <cellStyle name="Percentuale 69 5" xfId="2477"/>
-    <cellStyle name="Percentuale 69 6" xfId="4159"/>
-    <cellStyle name="Percentuale 7" xfId="2478"/>
-    <cellStyle name="Percentuale 7 2" xfId="2479"/>
-    <cellStyle name="Percentuale 7 2 2" xfId="4166"/>
-    <cellStyle name="Percentuale 7 3" xfId="2480"/>
-    <cellStyle name="Percentuale 7 3 2" xfId="2481"/>
-    <cellStyle name="Percentuale 7 3 2 2" xfId="2482"/>
-    <cellStyle name="Percentuale 7 3 2 3" xfId="4168"/>
-    <cellStyle name="Percentuale 7 3 3" xfId="4167"/>
-    <cellStyle name="Percentuale 7 4" xfId="2483"/>
-    <cellStyle name="Percentuale 7 4 2" xfId="2484"/>
-    <cellStyle name="Percentuale 7 4 2 2" xfId="4170"/>
-    <cellStyle name="Percentuale 7 4 3" xfId="4169"/>
-    <cellStyle name="Percentuale 7 5" xfId="2485"/>
-    <cellStyle name="Percentuale 7 6" xfId="4165"/>
-    <cellStyle name="Percentuale 8" xfId="2486"/>
-    <cellStyle name="Percentuale 8 2" xfId="2487"/>
-    <cellStyle name="Percentuale 8 2 2" xfId="4172"/>
-    <cellStyle name="Percentuale 8 3" xfId="2488"/>
-    <cellStyle name="Percentuale 8 3 2" xfId="2489"/>
-    <cellStyle name="Percentuale 8 3 2 2" xfId="2490"/>
-    <cellStyle name="Percentuale 8 3 2 3" xfId="4174"/>
-    <cellStyle name="Percentuale 8 3 3" xfId="4173"/>
-    <cellStyle name="Percentuale 8 4" xfId="2491"/>
-    <cellStyle name="Percentuale 8 4 2" xfId="2492"/>
-    <cellStyle name="Percentuale 8 4 2 2" xfId="4176"/>
-    <cellStyle name="Percentuale 8 4 3" xfId="4175"/>
-    <cellStyle name="Percentuale 8 5" xfId="2493"/>
-    <cellStyle name="Percentuale 8 6" xfId="4171"/>
-    <cellStyle name="Percentuale 9" xfId="2494"/>
-    <cellStyle name="Percentuale 9 2" xfId="2495"/>
-    <cellStyle name="Percentuale 9 2 2" xfId="4178"/>
-    <cellStyle name="Percentuale 9 3" xfId="2496"/>
-    <cellStyle name="Percentuale 9 3 2" xfId="2497"/>
-    <cellStyle name="Percentuale 9 3 2 2" xfId="2498"/>
-    <cellStyle name="Percentuale 9 3 2 3" xfId="4180"/>
-    <cellStyle name="Percentuale 9 3 3" xfId="4179"/>
-    <cellStyle name="Percentuale 9 4" xfId="2499"/>
-    <cellStyle name="Percentuale 9 4 2" xfId="2500"/>
-    <cellStyle name="Percentuale 9 4 2 2" xfId="4182"/>
-    <cellStyle name="Percentuale 9 4 3" xfId="4181"/>
-    <cellStyle name="Percentuale 9 5" xfId="2501"/>
-    <cellStyle name="Percentuale 9 6" xfId="4177"/>
-    <cellStyle name="Procent 2" xfId="2502"/>
-    <cellStyle name="Procent 2 2" xfId="2503"/>
-    <cellStyle name="Procent 2 2 2" xfId="2504"/>
-    <cellStyle name="Procent 2 3" xfId="4183"/>
-    <cellStyle name="Procent 3" xfId="2505"/>
-    <cellStyle name="Procent 3 2" xfId="2506"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="2507"/>
-    <cellStyle name="Style 155" xfId="2508"/>
-    <cellStyle name="Style 156" xfId="2509"/>
-    <cellStyle name="Style 157" xfId="2510"/>
-    <cellStyle name="Style 158" xfId="2511"/>
-    <cellStyle name="Style 158 2" xfId="4184"/>
-    <cellStyle name="Style 159" xfId="2512"/>
-    <cellStyle name="Style 161" xfId="2513"/>
-    <cellStyle name="Style 161 2" xfId="4185"/>
-    <cellStyle name="Style 162" xfId="2514"/>
-    <cellStyle name="Style 162 2" xfId="4186"/>
-    <cellStyle name="Style 163" xfId="2515"/>
-    <cellStyle name="Style 163 2" xfId="4187"/>
-    <cellStyle name="Style 223" xfId="2516"/>
-    <cellStyle name="Style 224" xfId="2517"/>
-    <cellStyle name="Style 225" xfId="2518"/>
-    <cellStyle name="Style 226" xfId="2519"/>
-    <cellStyle name="Style 226 2" xfId="4188"/>
-    <cellStyle name="Style 227" xfId="2520"/>
-    <cellStyle name="Style 229" xfId="2521"/>
-    <cellStyle name="Style 229 2" xfId="4189"/>
-    <cellStyle name="Style 230" xfId="2522"/>
-    <cellStyle name="Style 230 2" xfId="4190"/>
-    <cellStyle name="Style 231" xfId="2523"/>
-    <cellStyle name="Style 231 2" xfId="4191"/>
-    <cellStyle name="Style 257" xfId="2524"/>
-    <cellStyle name="Style 258" xfId="2525"/>
-    <cellStyle name="Style 259" xfId="2526"/>
-    <cellStyle name="Style 260" xfId="2527"/>
-    <cellStyle name="Style 260 2" xfId="4192"/>
-    <cellStyle name="Style 261" xfId="2528"/>
-    <cellStyle name="Style 263" xfId="2529"/>
-    <cellStyle name="Style 263 2" xfId="4193"/>
-    <cellStyle name="Style 264" xfId="2530"/>
-    <cellStyle name="Style 264 2" xfId="4194"/>
-    <cellStyle name="Style 265" xfId="2531"/>
-    <cellStyle name="Style 265 2" xfId="4195"/>
-    <cellStyle name="Style 461" xfId="2532"/>
-    <cellStyle name="Style 467" xfId="2533"/>
-    <cellStyle name="Style 467 2" xfId="4196"/>
-    <cellStyle name="Style 468" xfId="2534"/>
-    <cellStyle name="Style 468 2" xfId="4197"/>
-    <cellStyle name="Style 469" xfId="2535"/>
-    <cellStyle name="Style 469 2" xfId="4198"/>
-    <cellStyle name="Style 478" xfId="2536"/>
-    <cellStyle name="Style 479" xfId="2537"/>
-    <cellStyle name="Style 480" xfId="2538"/>
-    <cellStyle name="Style 481" xfId="2539"/>
-    <cellStyle name="Style 481 2" xfId="4199"/>
-    <cellStyle name="Style 482" xfId="2540"/>
-    <cellStyle name="Style 484" xfId="2541"/>
-    <cellStyle name="Style 484 2" xfId="4200"/>
-    <cellStyle name="Style 485" xfId="2542"/>
-    <cellStyle name="Style 485 2" xfId="4201"/>
-    <cellStyle name="Style 486" xfId="2543"/>
-    <cellStyle name="Style 486 2" xfId="4202"/>
-    <cellStyle name="Style 495" xfId="2544"/>
-    <cellStyle name="Style 496" xfId="2545"/>
-    <cellStyle name="Style 497" xfId="2546"/>
-    <cellStyle name="Style 498" xfId="2547"/>
-    <cellStyle name="Style 498 2" xfId="4203"/>
-    <cellStyle name="Style 499" xfId="2548"/>
-    <cellStyle name="Style 501" xfId="2549"/>
-    <cellStyle name="Style 501 2" xfId="4204"/>
-    <cellStyle name="Style 502" xfId="2550"/>
-    <cellStyle name="Style 502 2" xfId="4205"/>
-    <cellStyle name="Style 503" xfId="2551"/>
-    <cellStyle name="Style 503 2" xfId="4206"/>
-    <cellStyle name="Style 580" xfId="2552"/>
-    <cellStyle name="Style 581" xfId="2553"/>
-    <cellStyle name="Style 582" xfId="2554"/>
-    <cellStyle name="Style 583" xfId="2555"/>
-    <cellStyle name="Style 583 2" xfId="4207"/>
-    <cellStyle name="Style 584" xfId="2556"/>
-    <cellStyle name="Style 586" xfId="2557"/>
-    <cellStyle name="Style 586 2" xfId="4208"/>
-    <cellStyle name="Style 587" xfId="2558"/>
-    <cellStyle name="Style 587 2" xfId="4209"/>
-    <cellStyle name="Style 588" xfId="2559"/>
-    <cellStyle name="Style 588 2" xfId="4210"/>
-    <cellStyle name="Testo avviso" xfId="2560"/>
-    <cellStyle name="Testo descrittivo" xfId="2561"/>
-    <cellStyle name="Titolo" xfId="2562"/>
-    <cellStyle name="Titolo 1" xfId="2563"/>
-    <cellStyle name="Titolo 1 2" xfId="2564"/>
-    <cellStyle name="Titolo 2" xfId="2565"/>
-    <cellStyle name="Titolo 2 2" xfId="2566"/>
-    <cellStyle name="Titolo 3" xfId="2567"/>
-    <cellStyle name="Titolo 3 2" xfId="2568"/>
-    <cellStyle name="Titolo 4" xfId="2569"/>
-    <cellStyle name="Total 2" xfId="2570"/>
-    <cellStyle name="Total 2 2" xfId="2571"/>
-    <cellStyle name="Totale" xfId="2572"/>
-    <cellStyle name="Totale 2" xfId="2573"/>
-    <cellStyle name="Totale 2 2" xfId="2574"/>
-    <cellStyle name="Totale 3" xfId="2575"/>
-    <cellStyle name="Totale 3 2" xfId="2576"/>
-    <cellStyle name="Totale 4" xfId="2577"/>
-    <cellStyle name="Valore non valido" xfId="2578"/>
-    <cellStyle name="Valore valido" xfId="2579"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="2580"/>
+    <cellStyle name="Normal 10" xfId="1249" xr:uid="{00000000-0005-0000-0000-00009F070000}"/>
+    <cellStyle name="Normal 10 2" xfId="1250" xr:uid="{00000000-0005-0000-0000-0000A0070000}"/>
+    <cellStyle name="Normal 10 2 2" xfId="3285" xr:uid="{00000000-0005-0000-0000-0000A1070000}"/>
+    <cellStyle name="Normal 10 3" xfId="3284" xr:uid="{00000000-0005-0000-0000-0000A2070000}"/>
+    <cellStyle name="Normal 11" xfId="1251" xr:uid="{00000000-0005-0000-0000-0000A3070000}"/>
+    <cellStyle name="Normal 11 3" xfId="2582" xr:uid="{00000000-0005-0000-0000-0000A4070000}"/>
+    <cellStyle name="Normal 12" xfId="1252" xr:uid="{00000000-0005-0000-0000-0000A5070000}"/>
+    <cellStyle name="Normal 12 2" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000A6070000}"/>
+    <cellStyle name="Normal 13" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000A7070000}"/>
+    <cellStyle name="Normal 13 2" xfId="3286" xr:uid="{00000000-0005-0000-0000-0000A8070000}"/>
+    <cellStyle name="Normal 14" xfId="1255" xr:uid="{00000000-0005-0000-0000-0000A9070000}"/>
+    <cellStyle name="Normal 14 2" xfId="3287" xr:uid="{00000000-0005-0000-0000-0000AA070000}"/>
+    <cellStyle name="Normal 15" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000AB070000}"/>
+    <cellStyle name="Normal 15 2" xfId="3288" xr:uid="{00000000-0005-0000-0000-0000AC070000}"/>
+    <cellStyle name="Normal 16" xfId="1257" xr:uid="{00000000-0005-0000-0000-0000AD070000}"/>
+    <cellStyle name="Normal 16 2" xfId="1258" xr:uid="{00000000-0005-0000-0000-0000AE070000}"/>
+    <cellStyle name="Normal 16 2 2" xfId="3289" xr:uid="{00000000-0005-0000-0000-0000AF070000}"/>
+    <cellStyle name="Normal 16 3" xfId="1259" xr:uid="{00000000-0005-0000-0000-0000B0070000}"/>
+    <cellStyle name="Normal 17" xfId="1260" xr:uid="{00000000-0005-0000-0000-0000B1070000}"/>
+    <cellStyle name="Normal 17 2" xfId="1261" xr:uid="{00000000-0005-0000-0000-0000B2070000}"/>
+    <cellStyle name="Normal 17 2 2" xfId="3291" xr:uid="{00000000-0005-0000-0000-0000B3070000}"/>
+    <cellStyle name="Normal 17 3" xfId="3290" xr:uid="{00000000-0005-0000-0000-0000B4070000}"/>
+    <cellStyle name="Normal 18" xfId="1262" xr:uid="{00000000-0005-0000-0000-0000B5070000}"/>
+    <cellStyle name="Normal 18 2" xfId="1263" xr:uid="{00000000-0005-0000-0000-0000B6070000}"/>
+    <cellStyle name="Normal 18 2 2" xfId="3293" xr:uid="{00000000-0005-0000-0000-0000B7070000}"/>
+    <cellStyle name="Normal 18 3" xfId="3292" xr:uid="{00000000-0005-0000-0000-0000B8070000}"/>
+    <cellStyle name="Normal 19" xfId="1264" xr:uid="{00000000-0005-0000-0000-0000B9070000}"/>
+    <cellStyle name="Normal 19 2" xfId="1265" xr:uid="{00000000-0005-0000-0000-0000BA070000}"/>
+    <cellStyle name="Normal 19 2 2" xfId="3294" xr:uid="{00000000-0005-0000-0000-0000BB070000}"/>
+    <cellStyle name="Normal 19 3" xfId="1266" xr:uid="{00000000-0005-0000-0000-0000BC070000}"/>
+    <cellStyle name="Normal 2" xfId="1267" xr:uid="{00000000-0005-0000-0000-0000BD070000}"/>
+    <cellStyle name="Normal 2 2" xfId="1268" xr:uid="{00000000-0005-0000-0000-0000BE070000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="1269" xr:uid="{00000000-0005-0000-0000-0000BF070000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="1270" xr:uid="{00000000-0005-0000-0000-0000C0070000}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="1271" xr:uid="{00000000-0005-0000-0000-0000C1070000}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="1272" xr:uid="{00000000-0005-0000-0000-0000C2070000}"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="1273" xr:uid="{00000000-0005-0000-0000-0000C3070000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="1274" xr:uid="{00000000-0005-0000-0000-0000C4070000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="1275" xr:uid="{00000000-0005-0000-0000-0000C5070000}"/>
+    <cellStyle name="Normal 2 2 3 2 2" xfId="1276" xr:uid="{00000000-0005-0000-0000-0000C6070000}"/>
+    <cellStyle name="Normal 2 2 3 3" xfId="1277" xr:uid="{00000000-0005-0000-0000-0000C7070000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="1278" xr:uid="{00000000-0005-0000-0000-0000C8070000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="1279" xr:uid="{00000000-0005-0000-0000-0000C9070000}"/>
+    <cellStyle name="Normal 2 2 5" xfId="1280" xr:uid="{00000000-0005-0000-0000-0000CA070000}"/>
+    <cellStyle name="Normal 2 3" xfId="1281" xr:uid="{00000000-0005-0000-0000-0000CB070000}"/>
+    <cellStyle name="Normal 2 4" xfId="1282" xr:uid="{00000000-0005-0000-0000-0000CC070000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="1283" xr:uid="{00000000-0005-0000-0000-0000CD070000}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="1284" xr:uid="{00000000-0005-0000-0000-0000CE070000}"/>
+    <cellStyle name="Normal 2 4 3" xfId="1285" xr:uid="{00000000-0005-0000-0000-0000CF070000}"/>
+    <cellStyle name="Normal 2 5" xfId="1286" xr:uid="{00000000-0005-0000-0000-0000D0070000}"/>
+    <cellStyle name="Normal 2 5 2" xfId="3295" xr:uid="{00000000-0005-0000-0000-0000D1070000}"/>
+    <cellStyle name="Normal 2_Plants" xfId="1287" xr:uid="{00000000-0005-0000-0000-0000D2070000}"/>
+    <cellStyle name="Normal 20" xfId="1288" xr:uid="{00000000-0005-0000-0000-0000D3070000}"/>
+    <cellStyle name="Normal 20 2" xfId="3296" xr:uid="{00000000-0005-0000-0000-0000D4070000}"/>
+    <cellStyle name="Normal 21" xfId="1289" xr:uid="{00000000-0005-0000-0000-0000D5070000}"/>
+    <cellStyle name="Normal 21 2" xfId="3297" xr:uid="{00000000-0005-0000-0000-0000D6070000}"/>
+    <cellStyle name="Normal 22" xfId="1290" xr:uid="{00000000-0005-0000-0000-0000D7070000}"/>
+    <cellStyle name="Normal 22 2" xfId="3298" xr:uid="{00000000-0005-0000-0000-0000D8070000}"/>
+    <cellStyle name="Normal 23" xfId="1291" xr:uid="{00000000-0005-0000-0000-0000D9070000}"/>
+    <cellStyle name="Normal 23 2" xfId="3299" xr:uid="{00000000-0005-0000-0000-0000DA070000}"/>
+    <cellStyle name="Normal 24" xfId="1292" xr:uid="{00000000-0005-0000-0000-0000DB070000}"/>
+    <cellStyle name="Normal 24 2" xfId="3300" xr:uid="{00000000-0005-0000-0000-0000DC070000}"/>
+    <cellStyle name="Normal 25" xfId="1293" xr:uid="{00000000-0005-0000-0000-0000DD070000}"/>
+    <cellStyle name="Normal 25 2" xfId="3301" xr:uid="{00000000-0005-0000-0000-0000DE070000}"/>
+    <cellStyle name="Normal 26" xfId="1294" xr:uid="{00000000-0005-0000-0000-0000DF070000}"/>
+    <cellStyle name="Normal 26 2" xfId="3302" xr:uid="{00000000-0005-0000-0000-0000E0070000}"/>
+    <cellStyle name="Normal 27" xfId="1295" xr:uid="{00000000-0005-0000-0000-0000E1070000}"/>
+    <cellStyle name="Normal 27 2" xfId="3303" xr:uid="{00000000-0005-0000-0000-0000E2070000}"/>
+    <cellStyle name="Normal 28" xfId="1296" xr:uid="{00000000-0005-0000-0000-0000E3070000}"/>
+    <cellStyle name="Normal 28 2" xfId="3304" xr:uid="{00000000-0005-0000-0000-0000E4070000}"/>
+    <cellStyle name="Normal 29" xfId="1297" xr:uid="{00000000-0005-0000-0000-0000E5070000}"/>
+    <cellStyle name="Normal 29 2" xfId="1298" xr:uid="{00000000-0005-0000-0000-0000E6070000}"/>
+    <cellStyle name="Normal 3" xfId="1299" xr:uid="{00000000-0005-0000-0000-0000E7070000}"/>
+    <cellStyle name="Normal 3 10" xfId="1300" xr:uid="{00000000-0005-0000-0000-0000E8070000}"/>
+    <cellStyle name="Normal 3 10 2" xfId="3305" xr:uid="{00000000-0005-0000-0000-0000E9070000}"/>
+    <cellStyle name="Normal 3 11" xfId="1301" xr:uid="{00000000-0005-0000-0000-0000EA070000}"/>
+    <cellStyle name="Normal 3 11 2" xfId="3306" xr:uid="{00000000-0005-0000-0000-0000EB070000}"/>
+    <cellStyle name="Normal 3 12" xfId="1302" xr:uid="{00000000-0005-0000-0000-0000EC070000}"/>
+    <cellStyle name="Normal 3 12 2" xfId="3307" xr:uid="{00000000-0005-0000-0000-0000ED070000}"/>
+    <cellStyle name="Normal 3 13" xfId="1303" xr:uid="{00000000-0005-0000-0000-0000EE070000}"/>
+    <cellStyle name="Normal 3 13 2" xfId="3308" xr:uid="{00000000-0005-0000-0000-0000EF070000}"/>
+    <cellStyle name="Normal 3 14" xfId="1304" xr:uid="{00000000-0005-0000-0000-0000F0070000}"/>
+    <cellStyle name="Normal 3 14 2" xfId="3309" xr:uid="{00000000-0005-0000-0000-0000F1070000}"/>
+    <cellStyle name="Normal 3 15" xfId="1305" xr:uid="{00000000-0005-0000-0000-0000F2070000}"/>
+    <cellStyle name="Normal 3 15 2" xfId="3310" xr:uid="{00000000-0005-0000-0000-0000F3070000}"/>
+    <cellStyle name="Normal 3 16" xfId="1306" xr:uid="{00000000-0005-0000-0000-0000F4070000}"/>
+    <cellStyle name="Normal 3 2" xfId="1307" xr:uid="{00000000-0005-0000-0000-0000F5070000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="1308" xr:uid="{00000000-0005-0000-0000-0000F6070000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="1309" xr:uid="{00000000-0005-0000-0000-0000F7070000}"/>
+    <cellStyle name="Normal 3 2 2 2 2" xfId="3311" xr:uid="{00000000-0005-0000-0000-0000F8070000}"/>
+    <cellStyle name="Normal 3 2 2 3" xfId="1310" xr:uid="{00000000-0005-0000-0000-0000F9070000}"/>
+    <cellStyle name="Normal 3 2 2 3 2" xfId="1311" xr:uid="{00000000-0005-0000-0000-0000FA070000}"/>
+    <cellStyle name="Normal 3 2 2 4" xfId="1312" xr:uid="{00000000-0005-0000-0000-0000FB070000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="1313" xr:uid="{00000000-0005-0000-0000-0000FC070000}"/>
+    <cellStyle name="Normal 3 2 3 2" xfId="1314" xr:uid="{00000000-0005-0000-0000-0000FD070000}"/>
+    <cellStyle name="Normal 3 2 3 2 2" xfId="1315" xr:uid="{00000000-0005-0000-0000-0000FE070000}"/>
+    <cellStyle name="Normal 3 2 3 3" xfId="1316" xr:uid="{00000000-0005-0000-0000-0000FF070000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="1317" xr:uid="{00000000-0005-0000-0000-000000080000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="1318" xr:uid="{00000000-0005-0000-0000-000001080000}"/>
+    <cellStyle name="Normal 3 2 5" xfId="1319" xr:uid="{00000000-0005-0000-0000-000002080000}"/>
+    <cellStyle name="Normal 3 3" xfId="1320" xr:uid="{00000000-0005-0000-0000-000003080000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="1321" xr:uid="{00000000-0005-0000-0000-000004080000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="1322" xr:uid="{00000000-0005-0000-0000-000005080000}"/>
+    <cellStyle name="Normal 3 3 2 2 2" xfId="1323" xr:uid="{00000000-0005-0000-0000-000006080000}"/>
+    <cellStyle name="Normal 3 3 2 3" xfId="1324" xr:uid="{00000000-0005-0000-0000-000007080000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="1325" xr:uid="{00000000-0005-0000-0000-000008080000}"/>
+    <cellStyle name="Normal 3 3 3 2" xfId="1326" xr:uid="{00000000-0005-0000-0000-000009080000}"/>
+    <cellStyle name="Normal 3 3 4" xfId="1327" xr:uid="{00000000-0005-0000-0000-00000A080000}"/>
+    <cellStyle name="Normal 3 4" xfId="1328" xr:uid="{00000000-0005-0000-0000-00000B080000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="1329" xr:uid="{00000000-0005-0000-0000-00000C080000}"/>
+    <cellStyle name="Normal 3 4 2 2" xfId="3312" xr:uid="{00000000-0005-0000-0000-00000D080000}"/>
+    <cellStyle name="Normal 3 5" xfId="1330" xr:uid="{00000000-0005-0000-0000-00000E080000}"/>
+    <cellStyle name="Normal 3 6" xfId="1331" xr:uid="{00000000-0005-0000-0000-00000F080000}"/>
+    <cellStyle name="Normal 3 6 2" xfId="1332" xr:uid="{00000000-0005-0000-0000-000010080000}"/>
+    <cellStyle name="Normal 3 7" xfId="1333" xr:uid="{00000000-0005-0000-0000-000011080000}"/>
+    <cellStyle name="Normal 3 7 2" xfId="3313" xr:uid="{00000000-0005-0000-0000-000012080000}"/>
+    <cellStyle name="Normal 3 8" xfId="1334" xr:uid="{00000000-0005-0000-0000-000013080000}"/>
+    <cellStyle name="Normal 3 8 2" xfId="3314" xr:uid="{00000000-0005-0000-0000-000014080000}"/>
+    <cellStyle name="Normal 3 9" xfId="1335" xr:uid="{00000000-0005-0000-0000-000015080000}"/>
+    <cellStyle name="Normal 3 9 2" xfId="3315" xr:uid="{00000000-0005-0000-0000-000016080000}"/>
+    <cellStyle name="Normal 30" xfId="1336" xr:uid="{00000000-0005-0000-0000-000017080000}"/>
+    <cellStyle name="Normal 31" xfId="1337" xr:uid="{00000000-0005-0000-0000-000018080000}"/>
+    <cellStyle name="Normal 31 2" xfId="3316" xr:uid="{00000000-0005-0000-0000-000019080000}"/>
+    <cellStyle name="Normal 32" xfId="1338" xr:uid="{00000000-0005-0000-0000-00001A080000}"/>
+    <cellStyle name="Normal 32 2" xfId="3317" xr:uid="{00000000-0005-0000-0000-00001B080000}"/>
+    <cellStyle name="Normal 33" xfId="1339" xr:uid="{00000000-0005-0000-0000-00001C080000}"/>
+    <cellStyle name="Normal 33 2" xfId="3318" xr:uid="{00000000-0005-0000-0000-00001D080000}"/>
+    <cellStyle name="Normal 34" xfId="1340" xr:uid="{00000000-0005-0000-0000-00001E080000}"/>
+    <cellStyle name="Normal 34 2" xfId="3319" xr:uid="{00000000-0005-0000-0000-00001F080000}"/>
+    <cellStyle name="Normal 35" xfId="1341" xr:uid="{00000000-0005-0000-0000-000020080000}"/>
+    <cellStyle name="Normal 4" xfId="1342" xr:uid="{00000000-0005-0000-0000-000021080000}"/>
+    <cellStyle name="Normal 4 10" xfId="1343" xr:uid="{00000000-0005-0000-0000-000022080000}"/>
+    <cellStyle name="Normal 4 10 2" xfId="3320" xr:uid="{00000000-0005-0000-0000-000023080000}"/>
+    <cellStyle name="Normal 4 11" xfId="1344" xr:uid="{00000000-0005-0000-0000-000024080000}"/>
+    <cellStyle name="Normal 4 11 2" xfId="3321" xr:uid="{00000000-0005-0000-0000-000025080000}"/>
+    <cellStyle name="Normal 4 12" xfId="1345" xr:uid="{00000000-0005-0000-0000-000026080000}"/>
+    <cellStyle name="Normal 4 12 2" xfId="3322" xr:uid="{00000000-0005-0000-0000-000027080000}"/>
+    <cellStyle name="Normal 4 13" xfId="1346" xr:uid="{00000000-0005-0000-0000-000028080000}"/>
+    <cellStyle name="Normal 4 13 2" xfId="3323" xr:uid="{00000000-0005-0000-0000-000029080000}"/>
+    <cellStyle name="Normal 4 14" xfId="1347" xr:uid="{00000000-0005-0000-0000-00002A080000}"/>
+    <cellStyle name="Normal 4 14 2" xfId="3324" xr:uid="{00000000-0005-0000-0000-00002B080000}"/>
+    <cellStyle name="Normal 4 15" xfId="1348" xr:uid="{00000000-0005-0000-0000-00002C080000}"/>
+    <cellStyle name="Normal 4 15 2" xfId="3325" xr:uid="{00000000-0005-0000-0000-00002D080000}"/>
+    <cellStyle name="Normal 4 2" xfId="1349" xr:uid="{00000000-0005-0000-0000-00002E080000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="3326" xr:uid="{00000000-0005-0000-0000-00002F080000}"/>
+    <cellStyle name="Normal 4 3" xfId="1350" xr:uid="{00000000-0005-0000-0000-000030080000}"/>
+    <cellStyle name="Normal 4 4" xfId="1351" xr:uid="{00000000-0005-0000-0000-000031080000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="3327" xr:uid="{00000000-0005-0000-0000-000032080000}"/>
+    <cellStyle name="Normal 4 5" xfId="1352" xr:uid="{00000000-0005-0000-0000-000033080000}"/>
+    <cellStyle name="Normal 4 5 2" xfId="3328" xr:uid="{00000000-0005-0000-0000-000034080000}"/>
+    <cellStyle name="Normal 4 6" xfId="1353" xr:uid="{00000000-0005-0000-0000-000035080000}"/>
+    <cellStyle name="Normal 4 6 2" xfId="3329" xr:uid="{00000000-0005-0000-0000-000036080000}"/>
+    <cellStyle name="Normal 4 7" xfId="1354" xr:uid="{00000000-0005-0000-0000-000037080000}"/>
+    <cellStyle name="Normal 4 7 2" xfId="3330" xr:uid="{00000000-0005-0000-0000-000038080000}"/>
+    <cellStyle name="Normal 4 8" xfId="1355" xr:uid="{00000000-0005-0000-0000-000039080000}"/>
+    <cellStyle name="Normal 4 8 2" xfId="3331" xr:uid="{00000000-0005-0000-0000-00003A080000}"/>
+    <cellStyle name="Normal 4 9" xfId="1356" xr:uid="{00000000-0005-0000-0000-00003B080000}"/>
+    <cellStyle name="Normal 4 9 2" xfId="3332" xr:uid="{00000000-0005-0000-0000-00003C080000}"/>
+    <cellStyle name="Normal 5" xfId="1357" xr:uid="{00000000-0005-0000-0000-00003D080000}"/>
+    <cellStyle name="Normal 5 2" xfId="1358" xr:uid="{00000000-0005-0000-0000-00003E080000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="1359" xr:uid="{00000000-0005-0000-0000-00003F080000}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="1360" xr:uid="{00000000-0005-0000-0000-000040080000}"/>
+    <cellStyle name="Normal 5 2 2 3" xfId="1361" xr:uid="{00000000-0005-0000-0000-000041080000}"/>
+    <cellStyle name="Normal 5 2 3" xfId="1362" xr:uid="{00000000-0005-0000-0000-000042080000}"/>
+    <cellStyle name="Normal 5 2 3 2" xfId="1363" xr:uid="{00000000-0005-0000-0000-000043080000}"/>
+    <cellStyle name="Normal 5 3" xfId="1364" xr:uid="{00000000-0005-0000-0000-000044080000}"/>
+    <cellStyle name="Normal 6" xfId="1365" xr:uid="{00000000-0005-0000-0000-000045080000}"/>
+    <cellStyle name="Normal 6 2" xfId="1366" xr:uid="{00000000-0005-0000-0000-000046080000}"/>
+    <cellStyle name="Normal 6 2 2" xfId="1367" xr:uid="{00000000-0005-0000-0000-000047080000}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="3333" xr:uid="{00000000-0005-0000-0000-000048080000}"/>
+    <cellStyle name="Normal 6 2 3" xfId="1368" xr:uid="{00000000-0005-0000-0000-000049080000}"/>
+    <cellStyle name="Normal 6 2 3 2" xfId="1369" xr:uid="{00000000-0005-0000-0000-00004A080000}"/>
+    <cellStyle name="Normal 6 2 4" xfId="1370" xr:uid="{00000000-0005-0000-0000-00004B080000}"/>
+    <cellStyle name="Normal 6 3" xfId="1371" xr:uid="{00000000-0005-0000-0000-00004C080000}"/>
+    <cellStyle name="Normal 6 3 2" xfId="1372" xr:uid="{00000000-0005-0000-0000-00004D080000}"/>
+    <cellStyle name="Normal 6 3 2 2" xfId="1373" xr:uid="{00000000-0005-0000-0000-00004E080000}"/>
+    <cellStyle name="Normal 6 3 2 2 2" xfId="1374" xr:uid="{00000000-0005-0000-0000-00004F080000}"/>
+    <cellStyle name="Normal 6 3 2 3" xfId="1375" xr:uid="{00000000-0005-0000-0000-000050080000}"/>
+    <cellStyle name="Normal 6 3 3" xfId="3334" xr:uid="{00000000-0005-0000-0000-000051080000}"/>
+    <cellStyle name="Normal 6 4" xfId="1376" xr:uid="{00000000-0005-0000-0000-000052080000}"/>
+    <cellStyle name="Normal 6 4 2" xfId="1377" xr:uid="{00000000-0005-0000-0000-000053080000}"/>
+    <cellStyle name="Normal 6 5" xfId="1378" xr:uid="{00000000-0005-0000-0000-000054080000}"/>
+    <cellStyle name="Normal 7" xfId="1379" xr:uid="{00000000-0005-0000-0000-000055080000}"/>
+    <cellStyle name="Normal 7 2" xfId="1380" xr:uid="{00000000-0005-0000-0000-000056080000}"/>
+    <cellStyle name="Normal 7 3" xfId="1381" xr:uid="{00000000-0005-0000-0000-000057080000}"/>
+    <cellStyle name="Normal 7 3 2" xfId="1382" xr:uid="{00000000-0005-0000-0000-000058080000}"/>
+    <cellStyle name="Normal 7 3 2 2" xfId="1383" xr:uid="{00000000-0005-0000-0000-000059080000}"/>
+    <cellStyle name="Normal 7 3 3" xfId="1384" xr:uid="{00000000-0005-0000-0000-00005A080000}"/>
+    <cellStyle name="Normal 8" xfId="1385" xr:uid="{00000000-0005-0000-0000-00005B080000}"/>
+    <cellStyle name="Normal 8 2" xfId="1386" xr:uid="{00000000-0005-0000-0000-00005C080000}"/>
+    <cellStyle name="Normal 8 2 2" xfId="1387" xr:uid="{00000000-0005-0000-0000-00005D080000}"/>
+    <cellStyle name="Normal 8 2 2 2" xfId="1388" xr:uid="{00000000-0005-0000-0000-00005E080000}"/>
+    <cellStyle name="Normal 8 2 2 2 2" xfId="1389" xr:uid="{00000000-0005-0000-0000-00005F080000}"/>
+    <cellStyle name="Normal 8 2 2 3" xfId="1390" xr:uid="{00000000-0005-0000-0000-000060080000}"/>
+    <cellStyle name="Normal 8 2 3" xfId="3336" xr:uid="{00000000-0005-0000-0000-000061080000}"/>
+    <cellStyle name="Normal 8 3" xfId="1391" xr:uid="{00000000-0005-0000-0000-000062080000}"/>
+    <cellStyle name="Normal 8 4" xfId="3335" xr:uid="{00000000-0005-0000-0000-000063080000}"/>
+    <cellStyle name="Normal 9" xfId="1392" xr:uid="{00000000-0005-0000-0000-000064080000}"/>
+    <cellStyle name="Normal 9 2" xfId="1393" xr:uid="{00000000-0005-0000-0000-000065080000}"/>
+    <cellStyle name="Normal 9 2 2" xfId="1394" xr:uid="{00000000-0005-0000-0000-000066080000}"/>
+    <cellStyle name="Normal GHG Numbers (0.00)" xfId="1395" xr:uid="{00000000-0005-0000-0000-000067080000}"/>
+    <cellStyle name="Normal GHG Numbers (0.00) 2" xfId="1396" xr:uid="{00000000-0005-0000-0000-000068080000}"/>
+    <cellStyle name="Normal GHG Numbers (0.00) 3" xfId="1397" xr:uid="{00000000-0005-0000-0000-000069080000}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="1398" xr:uid="{00000000-0005-0000-0000-00006A080000}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="1399" xr:uid="{00000000-0005-0000-0000-00006B080000}"/>
+    <cellStyle name="Normal GHG-Shade 2" xfId="3337" xr:uid="{00000000-0005-0000-0000-00006C080000}"/>
+    <cellStyle name="Normale 10" xfId="1400" xr:uid="{00000000-0005-0000-0000-00006D080000}"/>
+    <cellStyle name="Normale 10 2" xfId="1401" xr:uid="{00000000-0005-0000-0000-00006E080000}"/>
+    <cellStyle name="Normale 10 2 2" xfId="1402" xr:uid="{00000000-0005-0000-0000-00006F080000}"/>
+    <cellStyle name="Normale 10 2 2 2" xfId="3340" xr:uid="{00000000-0005-0000-0000-000070080000}"/>
+    <cellStyle name="Normale 10 2 3" xfId="3339" xr:uid="{00000000-0005-0000-0000-000071080000}"/>
+    <cellStyle name="Normale 10 3" xfId="1403" xr:uid="{00000000-0005-0000-0000-000072080000}"/>
+    <cellStyle name="Normale 10 3 2" xfId="1404" xr:uid="{00000000-0005-0000-0000-000073080000}"/>
+    <cellStyle name="Normale 10 3 2 2" xfId="3342" xr:uid="{00000000-0005-0000-0000-000074080000}"/>
+    <cellStyle name="Normale 10 3 3" xfId="3341" xr:uid="{00000000-0005-0000-0000-000075080000}"/>
+    <cellStyle name="Normale 10 4" xfId="1405" xr:uid="{00000000-0005-0000-0000-000076080000}"/>
+    <cellStyle name="Normale 10 4 2" xfId="3343" xr:uid="{00000000-0005-0000-0000-000077080000}"/>
+    <cellStyle name="Normale 10 5" xfId="3338" xr:uid="{00000000-0005-0000-0000-000078080000}"/>
+    <cellStyle name="Normale 10_EDEN industria 2008 rev" xfId="1406" xr:uid="{00000000-0005-0000-0000-000079080000}"/>
+    <cellStyle name="Normale 11" xfId="1407" xr:uid="{00000000-0005-0000-0000-00007A080000}"/>
+    <cellStyle name="Normale 11 2" xfId="1408" xr:uid="{00000000-0005-0000-0000-00007B080000}"/>
+    <cellStyle name="Normale 11 2 2" xfId="1409" xr:uid="{00000000-0005-0000-0000-00007C080000}"/>
+    <cellStyle name="Normale 11 2 2 2" xfId="3346" xr:uid="{00000000-0005-0000-0000-00007D080000}"/>
+    <cellStyle name="Normale 11 2 3" xfId="3345" xr:uid="{00000000-0005-0000-0000-00007E080000}"/>
+    <cellStyle name="Normale 11 3" xfId="1410" xr:uid="{00000000-0005-0000-0000-00007F080000}"/>
+    <cellStyle name="Normale 11 3 2" xfId="1411" xr:uid="{00000000-0005-0000-0000-000080080000}"/>
+    <cellStyle name="Normale 11 3 2 2" xfId="3348" xr:uid="{00000000-0005-0000-0000-000081080000}"/>
+    <cellStyle name="Normale 11 3 3" xfId="3347" xr:uid="{00000000-0005-0000-0000-000082080000}"/>
+    <cellStyle name="Normale 11 4" xfId="1412" xr:uid="{00000000-0005-0000-0000-000083080000}"/>
+    <cellStyle name="Normale 11 4 2" xfId="3349" xr:uid="{00000000-0005-0000-0000-000084080000}"/>
+    <cellStyle name="Normale 11 5" xfId="3344" xr:uid="{00000000-0005-0000-0000-000085080000}"/>
+    <cellStyle name="Normale 11_EDEN industria 2008 rev" xfId="1413" xr:uid="{00000000-0005-0000-0000-000086080000}"/>
+    <cellStyle name="Normale 12" xfId="1414" xr:uid="{00000000-0005-0000-0000-000087080000}"/>
+    <cellStyle name="Normale 12 2" xfId="1415" xr:uid="{00000000-0005-0000-0000-000088080000}"/>
+    <cellStyle name="Normale 12 2 2" xfId="1416" xr:uid="{00000000-0005-0000-0000-000089080000}"/>
+    <cellStyle name="Normale 12 2 2 2" xfId="3352" xr:uid="{00000000-0005-0000-0000-00008A080000}"/>
+    <cellStyle name="Normale 12 2 3" xfId="3351" xr:uid="{00000000-0005-0000-0000-00008B080000}"/>
+    <cellStyle name="Normale 12 3" xfId="1417" xr:uid="{00000000-0005-0000-0000-00008C080000}"/>
+    <cellStyle name="Normale 12 3 2" xfId="1418" xr:uid="{00000000-0005-0000-0000-00008D080000}"/>
+    <cellStyle name="Normale 12 3 2 2" xfId="3354" xr:uid="{00000000-0005-0000-0000-00008E080000}"/>
+    <cellStyle name="Normale 12 3 3" xfId="3353" xr:uid="{00000000-0005-0000-0000-00008F080000}"/>
+    <cellStyle name="Normale 12 4" xfId="1419" xr:uid="{00000000-0005-0000-0000-000090080000}"/>
+    <cellStyle name="Normale 12 4 2" xfId="3355" xr:uid="{00000000-0005-0000-0000-000091080000}"/>
+    <cellStyle name="Normale 12 5" xfId="3350" xr:uid="{00000000-0005-0000-0000-000092080000}"/>
+    <cellStyle name="Normale 12_EDEN industria 2008 rev" xfId="1420" xr:uid="{00000000-0005-0000-0000-000093080000}"/>
+    <cellStyle name="Normale 13" xfId="1421" xr:uid="{00000000-0005-0000-0000-000094080000}"/>
+    <cellStyle name="Normale 13 2" xfId="1422" xr:uid="{00000000-0005-0000-0000-000095080000}"/>
+    <cellStyle name="Normale 13 2 2" xfId="1423" xr:uid="{00000000-0005-0000-0000-000096080000}"/>
+    <cellStyle name="Normale 13 2 2 2" xfId="3358" xr:uid="{00000000-0005-0000-0000-000097080000}"/>
+    <cellStyle name="Normale 13 2 3" xfId="3357" xr:uid="{00000000-0005-0000-0000-000098080000}"/>
+    <cellStyle name="Normale 13 3" xfId="1424" xr:uid="{00000000-0005-0000-0000-000099080000}"/>
+    <cellStyle name="Normale 13 3 2" xfId="1425" xr:uid="{00000000-0005-0000-0000-00009A080000}"/>
+    <cellStyle name="Normale 13 3 2 2" xfId="3360" xr:uid="{00000000-0005-0000-0000-00009B080000}"/>
+    <cellStyle name="Normale 13 3 3" xfId="3359" xr:uid="{00000000-0005-0000-0000-00009C080000}"/>
+    <cellStyle name="Normale 13 4" xfId="1426" xr:uid="{00000000-0005-0000-0000-00009D080000}"/>
+    <cellStyle name="Normale 13 4 2" xfId="3361" xr:uid="{00000000-0005-0000-0000-00009E080000}"/>
+    <cellStyle name="Normale 13 5" xfId="3356" xr:uid="{00000000-0005-0000-0000-00009F080000}"/>
+    <cellStyle name="Normale 13_EDEN industria 2008 rev" xfId="1427" xr:uid="{00000000-0005-0000-0000-0000A0080000}"/>
+    <cellStyle name="Normale 14" xfId="1428" xr:uid="{00000000-0005-0000-0000-0000A1080000}"/>
+    <cellStyle name="Normale 14 2" xfId="1429" xr:uid="{00000000-0005-0000-0000-0000A2080000}"/>
+    <cellStyle name="Normale 14 2 2" xfId="1430" xr:uid="{00000000-0005-0000-0000-0000A3080000}"/>
+    <cellStyle name="Normale 14 2 2 2" xfId="3364" xr:uid="{00000000-0005-0000-0000-0000A4080000}"/>
+    <cellStyle name="Normale 14 2 3" xfId="3363" xr:uid="{00000000-0005-0000-0000-0000A5080000}"/>
+    <cellStyle name="Normale 14 3" xfId="1431" xr:uid="{00000000-0005-0000-0000-0000A6080000}"/>
+    <cellStyle name="Normale 14 3 2" xfId="1432" xr:uid="{00000000-0005-0000-0000-0000A7080000}"/>
+    <cellStyle name="Normale 14 3 2 2" xfId="3366" xr:uid="{00000000-0005-0000-0000-0000A8080000}"/>
+    <cellStyle name="Normale 14 3 3" xfId="3365" xr:uid="{00000000-0005-0000-0000-0000A9080000}"/>
+    <cellStyle name="Normale 14 4" xfId="1433" xr:uid="{00000000-0005-0000-0000-0000AA080000}"/>
+    <cellStyle name="Normale 14 4 2" xfId="3367" xr:uid="{00000000-0005-0000-0000-0000AB080000}"/>
+    <cellStyle name="Normale 14 5" xfId="3362" xr:uid="{00000000-0005-0000-0000-0000AC080000}"/>
+    <cellStyle name="Normale 14_EDEN industria 2008 rev" xfId="1434" xr:uid="{00000000-0005-0000-0000-0000AD080000}"/>
+    <cellStyle name="Normale 15" xfId="1435" xr:uid="{00000000-0005-0000-0000-0000AE080000}"/>
+    <cellStyle name="Normale 15 2" xfId="1436" xr:uid="{00000000-0005-0000-0000-0000AF080000}"/>
+    <cellStyle name="Normale 15 2 2" xfId="1437" xr:uid="{00000000-0005-0000-0000-0000B0080000}"/>
+    <cellStyle name="Normale 15 2 2 2" xfId="3370" xr:uid="{00000000-0005-0000-0000-0000B1080000}"/>
+    <cellStyle name="Normale 15 2 3" xfId="3369" xr:uid="{00000000-0005-0000-0000-0000B2080000}"/>
+    <cellStyle name="Normale 15 3" xfId="1438" xr:uid="{00000000-0005-0000-0000-0000B3080000}"/>
+    <cellStyle name="Normale 15 3 2" xfId="1439" xr:uid="{00000000-0005-0000-0000-0000B4080000}"/>
+    <cellStyle name="Normale 15 3 2 2" xfId="3372" xr:uid="{00000000-0005-0000-0000-0000B5080000}"/>
+    <cellStyle name="Normale 15 3 3" xfId="3371" xr:uid="{00000000-0005-0000-0000-0000B6080000}"/>
+    <cellStyle name="Normale 15 4" xfId="1440" xr:uid="{00000000-0005-0000-0000-0000B7080000}"/>
+    <cellStyle name="Normale 15 4 2" xfId="3373" xr:uid="{00000000-0005-0000-0000-0000B8080000}"/>
+    <cellStyle name="Normale 15 5" xfId="3368" xr:uid="{00000000-0005-0000-0000-0000B9080000}"/>
+    <cellStyle name="Normale 15_EDEN industria 2008 rev" xfId="1441" xr:uid="{00000000-0005-0000-0000-0000BA080000}"/>
+    <cellStyle name="Normale 16" xfId="1442" xr:uid="{00000000-0005-0000-0000-0000BB080000}"/>
+    <cellStyle name="Normale 16 2" xfId="1443" xr:uid="{00000000-0005-0000-0000-0000BC080000}"/>
+    <cellStyle name="Normale 16 2 2" xfId="3375" xr:uid="{00000000-0005-0000-0000-0000BD080000}"/>
+    <cellStyle name="Normale 16 3" xfId="3374" xr:uid="{00000000-0005-0000-0000-0000BE080000}"/>
+    <cellStyle name="Normale 17" xfId="1444" xr:uid="{00000000-0005-0000-0000-0000BF080000}"/>
+    <cellStyle name="Normale 17 2" xfId="1445" xr:uid="{00000000-0005-0000-0000-0000C0080000}"/>
+    <cellStyle name="Normale 17 2 2" xfId="3377" xr:uid="{00000000-0005-0000-0000-0000C1080000}"/>
+    <cellStyle name="Normale 17 3" xfId="3376" xr:uid="{00000000-0005-0000-0000-0000C2080000}"/>
+    <cellStyle name="Normale 18" xfId="1446" xr:uid="{00000000-0005-0000-0000-0000C3080000}"/>
+    <cellStyle name="Normale 18 2" xfId="1447" xr:uid="{00000000-0005-0000-0000-0000C4080000}"/>
+    <cellStyle name="Normale 19" xfId="1448" xr:uid="{00000000-0005-0000-0000-0000C5080000}"/>
+    <cellStyle name="Normale 19 2" xfId="1449" xr:uid="{00000000-0005-0000-0000-0000C6080000}"/>
+    <cellStyle name="Normale 2" xfId="1450" xr:uid="{00000000-0005-0000-0000-0000C7080000}"/>
+    <cellStyle name="Normale 2 2" xfId="1451" xr:uid="{00000000-0005-0000-0000-0000C8080000}"/>
+    <cellStyle name="Normale 2 2 2" xfId="1452" xr:uid="{00000000-0005-0000-0000-0000C9080000}"/>
+    <cellStyle name="Normale 2 2 2 2" xfId="3380" xr:uid="{00000000-0005-0000-0000-0000CA080000}"/>
+    <cellStyle name="Normale 2 2 3" xfId="3379" xr:uid="{00000000-0005-0000-0000-0000CB080000}"/>
+    <cellStyle name="Normale 2 3" xfId="1453" xr:uid="{00000000-0005-0000-0000-0000CC080000}"/>
+    <cellStyle name="Normale 2 3 2" xfId="3381" xr:uid="{00000000-0005-0000-0000-0000CD080000}"/>
+    <cellStyle name="Normale 2 4" xfId="3378" xr:uid="{00000000-0005-0000-0000-0000CE080000}"/>
+    <cellStyle name="Normale 2_EDEN industria 2008 rev" xfId="1454" xr:uid="{00000000-0005-0000-0000-0000CF080000}"/>
+    <cellStyle name="Normale 20" xfId="1455" xr:uid="{00000000-0005-0000-0000-0000D0080000}"/>
+    <cellStyle name="Normale 20 2" xfId="1456" xr:uid="{00000000-0005-0000-0000-0000D1080000}"/>
+    <cellStyle name="Normale 20 2 2" xfId="3383" xr:uid="{00000000-0005-0000-0000-0000D2080000}"/>
+    <cellStyle name="Normale 20 3" xfId="3382" xr:uid="{00000000-0005-0000-0000-0000D3080000}"/>
+    <cellStyle name="Normale 21" xfId="1457" xr:uid="{00000000-0005-0000-0000-0000D4080000}"/>
+    <cellStyle name="Normale 21 2" xfId="1458" xr:uid="{00000000-0005-0000-0000-0000D5080000}"/>
+    <cellStyle name="Normale 21 2 2" xfId="3385" xr:uid="{00000000-0005-0000-0000-0000D6080000}"/>
+    <cellStyle name="Normale 21 3" xfId="3384" xr:uid="{00000000-0005-0000-0000-0000D7080000}"/>
+    <cellStyle name="Normale 22" xfId="1459" xr:uid="{00000000-0005-0000-0000-0000D8080000}"/>
+    <cellStyle name="Normale 22 2" xfId="1460" xr:uid="{00000000-0005-0000-0000-0000D9080000}"/>
+    <cellStyle name="Normale 22 2 2" xfId="3387" xr:uid="{00000000-0005-0000-0000-0000DA080000}"/>
+    <cellStyle name="Normale 22 3" xfId="3386" xr:uid="{00000000-0005-0000-0000-0000DB080000}"/>
+    <cellStyle name="Normale 23" xfId="1461" xr:uid="{00000000-0005-0000-0000-0000DC080000}"/>
+    <cellStyle name="Normale 23 2" xfId="1462" xr:uid="{00000000-0005-0000-0000-0000DD080000}"/>
+    <cellStyle name="Normale 23 2 2" xfId="3389" xr:uid="{00000000-0005-0000-0000-0000DE080000}"/>
+    <cellStyle name="Normale 23 3" xfId="3388" xr:uid="{00000000-0005-0000-0000-0000DF080000}"/>
+    <cellStyle name="Normale 24" xfId="1463" xr:uid="{00000000-0005-0000-0000-0000E0080000}"/>
+    <cellStyle name="Normale 24 2" xfId="1464" xr:uid="{00000000-0005-0000-0000-0000E1080000}"/>
+    <cellStyle name="Normale 24 2 2" xfId="3391" xr:uid="{00000000-0005-0000-0000-0000E2080000}"/>
+    <cellStyle name="Normale 24 3" xfId="3390" xr:uid="{00000000-0005-0000-0000-0000E3080000}"/>
+    <cellStyle name="Normale 25" xfId="1465" xr:uid="{00000000-0005-0000-0000-0000E4080000}"/>
+    <cellStyle name="Normale 25 2" xfId="1466" xr:uid="{00000000-0005-0000-0000-0000E5080000}"/>
+    <cellStyle name="Normale 25 2 2" xfId="3393" xr:uid="{00000000-0005-0000-0000-0000E6080000}"/>
+    <cellStyle name="Normale 25 3" xfId="3392" xr:uid="{00000000-0005-0000-0000-0000E7080000}"/>
+    <cellStyle name="Normale 26" xfId="1467" xr:uid="{00000000-0005-0000-0000-0000E8080000}"/>
+    <cellStyle name="Normale 26 2" xfId="1468" xr:uid="{00000000-0005-0000-0000-0000E9080000}"/>
+    <cellStyle name="Normale 26 2 2" xfId="3395" xr:uid="{00000000-0005-0000-0000-0000EA080000}"/>
+    <cellStyle name="Normale 26 3" xfId="3394" xr:uid="{00000000-0005-0000-0000-0000EB080000}"/>
+    <cellStyle name="Normale 27" xfId="1469" xr:uid="{00000000-0005-0000-0000-0000EC080000}"/>
+    <cellStyle name="Normale 27 2" xfId="1470" xr:uid="{00000000-0005-0000-0000-0000ED080000}"/>
+    <cellStyle name="Normale 27 2 2" xfId="3397" xr:uid="{00000000-0005-0000-0000-0000EE080000}"/>
+    <cellStyle name="Normale 27 3" xfId="3396" xr:uid="{00000000-0005-0000-0000-0000EF080000}"/>
+    <cellStyle name="Normale 28" xfId="1471" xr:uid="{00000000-0005-0000-0000-0000F0080000}"/>
+    <cellStyle name="Normale 28 2" xfId="1472" xr:uid="{00000000-0005-0000-0000-0000F1080000}"/>
+    <cellStyle name="Normale 28 2 2" xfId="3399" xr:uid="{00000000-0005-0000-0000-0000F2080000}"/>
+    <cellStyle name="Normale 28 3" xfId="3398" xr:uid="{00000000-0005-0000-0000-0000F3080000}"/>
+    <cellStyle name="Normale 29" xfId="1473" xr:uid="{00000000-0005-0000-0000-0000F4080000}"/>
+    <cellStyle name="Normale 29 2" xfId="1474" xr:uid="{00000000-0005-0000-0000-0000F5080000}"/>
+    <cellStyle name="Normale 29 2 2" xfId="3401" xr:uid="{00000000-0005-0000-0000-0000F6080000}"/>
+    <cellStyle name="Normale 29 3" xfId="3400" xr:uid="{00000000-0005-0000-0000-0000F7080000}"/>
+    <cellStyle name="Normale 3" xfId="1475" xr:uid="{00000000-0005-0000-0000-0000F8080000}"/>
+    <cellStyle name="Normale 3 2" xfId="1476" xr:uid="{00000000-0005-0000-0000-0000F9080000}"/>
+    <cellStyle name="Normale 3 2 2" xfId="1477" xr:uid="{00000000-0005-0000-0000-0000FA080000}"/>
+    <cellStyle name="Normale 3 2 2 2" xfId="3404" xr:uid="{00000000-0005-0000-0000-0000FB080000}"/>
+    <cellStyle name="Normale 3 2 3" xfId="3403" xr:uid="{00000000-0005-0000-0000-0000FC080000}"/>
+    <cellStyle name="Normale 3 3" xfId="1478" xr:uid="{00000000-0005-0000-0000-0000FD080000}"/>
+    <cellStyle name="Normale 3 3 2" xfId="1479" xr:uid="{00000000-0005-0000-0000-0000FE080000}"/>
+    <cellStyle name="Normale 3 3 2 2" xfId="3406" xr:uid="{00000000-0005-0000-0000-0000FF080000}"/>
+    <cellStyle name="Normale 3 3 3" xfId="3405" xr:uid="{00000000-0005-0000-0000-000000090000}"/>
+    <cellStyle name="Normale 3 4" xfId="1480" xr:uid="{00000000-0005-0000-0000-000001090000}"/>
+    <cellStyle name="Normale 3 4 2" xfId="3407" xr:uid="{00000000-0005-0000-0000-000002090000}"/>
+    <cellStyle name="Normale 3 5" xfId="3402" xr:uid="{00000000-0005-0000-0000-000003090000}"/>
+    <cellStyle name="Normale 3_EDEN industria 2008 rev" xfId="1481" xr:uid="{00000000-0005-0000-0000-000004090000}"/>
+    <cellStyle name="Normale 30" xfId="1482" xr:uid="{00000000-0005-0000-0000-000005090000}"/>
+    <cellStyle name="Normale 30 2" xfId="1483" xr:uid="{00000000-0005-0000-0000-000006090000}"/>
+    <cellStyle name="Normale 30 2 2" xfId="3409" xr:uid="{00000000-0005-0000-0000-000007090000}"/>
+    <cellStyle name="Normale 30 3" xfId="3408" xr:uid="{00000000-0005-0000-0000-000008090000}"/>
+    <cellStyle name="Normale 31" xfId="1484" xr:uid="{00000000-0005-0000-0000-000009090000}"/>
+    <cellStyle name="Normale 31 2" xfId="1485" xr:uid="{00000000-0005-0000-0000-00000A090000}"/>
+    <cellStyle name="Normale 31 2 2" xfId="3411" xr:uid="{00000000-0005-0000-0000-00000B090000}"/>
+    <cellStyle name="Normale 31 3" xfId="3410" xr:uid="{00000000-0005-0000-0000-00000C090000}"/>
+    <cellStyle name="Normale 32" xfId="1486" xr:uid="{00000000-0005-0000-0000-00000D090000}"/>
+    <cellStyle name="Normale 32 2" xfId="1487" xr:uid="{00000000-0005-0000-0000-00000E090000}"/>
+    <cellStyle name="Normale 32 2 2" xfId="3413" xr:uid="{00000000-0005-0000-0000-00000F090000}"/>
+    <cellStyle name="Normale 32 3" xfId="3412" xr:uid="{00000000-0005-0000-0000-000010090000}"/>
+    <cellStyle name="Normale 33" xfId="1488" xr:uid="{00000000-0005-0000-0000-000011090000}"/>
+    <cellStyle name="Normale 33 2" xfId="1489" xr:uid="{00000000-0005-0000-0000-000012090000}"/>
+    <cellStyle name="Normale 33 2 2" xfId="3415" xr:uid="{00000000-0005-0000-0000-000013090000}"/>
+    <cellStyle name="Normale 33 3" xfId="3414" xr:uid="{00000000-0005-0000-0000-000014090000}"/>
+    <cellStyle name="Normale 34" xfId="1490" xr:uid="{00000000-0005-0000-0000-000015090000}"/>
+    <cellStyle name="Normale 34 2" xfId="1491" xr:uid="{00000000-0005-0000-0000-000016090000}"/>
+    <cellStyle name="Normale 34 2 2" xfId="3417" xr:uid="{00000000-0005-0000-0000-000017090000}"/>
+    <cellStyle name="Normale 34 3" xfId="3416" xr:uid="{00000000-0005-0000-0000-000018090000}"/>
+    <cellStyle name="Normale 35" xfId="1492" xr:uid="{00000000-0005-0000-0000-000019090000}"/>
+    <cellStyle name="Normale 35 2" xfId="1493" xr:uid="{00000000-0005-0000-0000-00001A090000}"/>
+    <cellStyle name="Normale 35 2 2" xfId="3419" xr:uid="{00000000-0005-0000-0000-00001B090000}"/>
+    <cellStyle name="Normale 35 3" xfId="3418" xr:uid="{00000000-0005-0000-0000-00001C090000}"/>
+    <cellStyle name="Normale 36" xfId="1494" xr:uid="{00000000-0005-0000-0000-00001D090000}"/>
+    <cellStyle name="Normale 36 2" xfId="1495" xr:uid="{00000000-0005-0000-0000-00001E090000}"/>
+    <cellStyle name="Normale 36 2 2" xfId="3421" xr:uid="{00000000-0005-0000-0000-00001F090000}"/>
+    <cellStyle name="Normale 36 3" xfId="3420" xr:uid="{00000000-0005-0000-0000-000020090000}"/>
+    <cellStyle name="Normale 37" xfId="1496" xr:uid="{00000000-0005-0000-0000-000021090000}"/>
+    <cellStyle name="Normale 37 2" xfId="1497" xr:uid="{00000000-0005-0000-0000-000022090000}"/>
+    <cellStyle name="Normale 37 2 2" xfId="3423" xr:uid="{00000000-0005-0000-0000-000023090000}"/>
+    <cellStyle name="Normale 37 3" xfId="3422" xr:uid="{00000000-0005-0000-0000-000024090000}"/>
+    <cellStyle name="Normale 38" xfId="1498" xr:uid="{00000000-0005-0000-0000-000025090000}"/>
+    <cellStyle name="Normale 38 2" xfId="1499" xr:uid="{00000000-0005-0000-0000-000026090000}"/>
+    <cellStyle name="Normale 38 2 2" xfId="3425" xr:uid="{00000000-0005-0000-0000-000027090000}"/>
+    <cellStyle name="Normale 38 3" xfId="3424" xr:uid="{00000000-0005-0000-0000-000028090000}"/>
+    <cellStyle name="Normale 39" xfId="1500" xr:uid="{00000000-0005-0000-0000-000029090000}"/>
+    <cellStyle name="Normale 39 2" xfId="1501" xr:uid="{00000000-0005-0000-0000-00002A090000}"/>
+    <cellStyle name="Normale 39 2 2" xfId="3427" xr:uid="{00000000-0005-0000-0000-00002B090000}"/>
+    <cellStyle name="Normale 39 3" xfId="3426" xr:uid="{00000000-0005-0000-0000-00002C090000}"/>
+    <cellStyle name="Normale 4" xfId="1502" xr:uid="{00000000-0005-0000-0000-00002D090000}"/>
+    <cellStyle name="Normale 4 2" xfId="1503" xr:uid="{00000000-0005-0000-0000-00002E090000}"/>
+    <cellStyle name="Normale 4 2 2" xfId="1504" xr:uid="{00000000-0005-0000-0000-00002F090000}"/>
+    <cellStyle name="Normale 4 2 2 2" xfId="3430" xr:uid="{00000000-0005-0000-0000-000030090000}"/>
+    <cellStyle name="Normale 4 2 3" xfId="3429" xr:uid="{00000000-0005-0000-0000-000031090000}"/>
+    <cellStyle name="Normale 4 3" xfId="1505" xr:uid="{00000000-0005-0000-0000-000032090000}"/>
+    <cellStyle name="Normale 4 3 2" xfId="1506" xr:uid="{00000000-0005-0000-0000-000033090000}"/>
+    <cellStyle name="Normale 4 3 2 2" xfId="3432" xr:uid="{00000000-0005-0000-0000-000034090000}"/>
+    <cellStyle name="Normale 4 3 3" xfId="3431" xr:uid="{00000000-0005-0000-0000-000035090000}"/>
+    <cellStyle name="Normale 4 4" xfId="1507" xr:uid="{00000000-0005-0000-0000-000036090000}"/>
+    <cellStyle name="Normale 4 4 2" xfId="3433" xr:uid="{00000000-0005-0000-0000-000037090000}"/>
+    <cellStyle name="Normale 4 5" xfId="3428" xr:uid="{00000000-0005-0000-0000-000038090000}"/>
+    <cellStyle name="Normale 4_EDEN industria 2008 rev" xfId="1508" xr:uid="{00000000-0005-0000-0000-000039090000}"/>
+    <cellStyle name="Normale 40" xfId="1509" xr:uid="{00000000-0005-0000-0000-00003A090000}"/>
+    <cellStyle name="Normale 40 2" xfId="1510" xr:uid="{00000000-0005-0000-0000-00003B090000}"/>
+    <cellStyle name="Normale 40 2 2" xfId="3435" xr:uid="{00000000-0005-0000-0000-00003C090000}"/>
+    <cellStyle name="Normale 40 3" xfId="3434" xr:uid="{00000000-0005-0000-0000-00003D090000}"/>
+    <cellStyle name="Normale 41" xfId="1511" xr:uid="{00000000-0005-0000-0000-00003E090000}"/>
+    <cellStyle name="Normale 41 2" xfId="1512" xr:uid="{00000000-0005-0000-0000-00003F090000}"/>
+    <cellStyle name="Normale 41 2 2" xfId="3437" xr:uid="{00000000-0005-0000-0000-000040090000}"/>
+    <cellStyle name="Normale 41 3" xfId="3436" xr:uid="{00000000-0005-0000-0000-000041090000}"/>
+    <cellStyle name="Normale 42" xfId="1513" xr:uid="{00000000-0005-0000-0000-000042090000}"/>
+    <cellStyle name="Normale 42 2" xfId="1514" xr:uid="{00000000-0005-0000-0000-000043090000}"/>
+    <cellStyle name="Normale 42 2 2" xfId="3439" xr:uid="{00000000-0005-0000-0000-000044090000}"/>
+    <cellStyle name="Normale 42 3" xfId="3438" xr:uid="{00000000-0005-0000-0000-000045090000}"/>
+    <cellStyle name="Normale 43" xfId="1515" xr:uid="{00000000-0005-0000-0000-000046090000}"/>
+    <cellStyle name="Normale 43 2" xfId="1516" xr:uid="{00000000-0005-0000-0000-000047090000}"/>
+    <cellStyle name="Normale 43 2 2" xfId="3441" xr:uid="{00000000-0005-0000-0000-000048090000}"/>
+    <cellStyle name="Normale 43 3" xfId="3440" xr:uid="{00000000-0005-0000-0000-000049090000}"/>
+    <cellStyle name="Normale 44" xfId="1517" xr:uid="{00000000-0005-0000-0000-00004A090000}"/>
+    <cellStyle name="Normale 44 2" xfId="1518" xr:uid="{00000000-0005-0000-0000-00004B090000}"/>
+    <cellStyle name="Normale 44 2 2" xfId="3443" xr:uid="{00000000-0005-0000-0000-00004C090000}"/>
+    <cellStyle name="Normale 44 3" xfId="3442" xr:uid="{00000000-0005-0000-0000-00004D090000}"/>
+    <cellStyle name="Normale 45" xfId="1519" xr:uid="{00000000-0005-0000-0000-00004E090000}"/>
+    <cellStyle name="Normale 45 2" xfId="1520" xr:uid="{00000000-0005-0000-0000-00004F090000}"/>
+    <cellStyle name="Normale 45 2 2" xfId="3445" xr:uid="{00000000-0005-0000-0000-000050090000}"/>
+    <cellStyle name="Normale 45 3" xfId="3444" xr:uid="{00000000-0005-0000-0000-000051090000}"/>
+    <cellStyle name="Normale 46" xfId="1521" xr:uid="{00000000-0005-0000-0000-000052090000}"/>
+    <cellStyle name="Normale 46 2" xfId="1522" xr:uid="{00000000-0005-0000-0000-000053090000}"/>
+    <cellStyle name="Normale 46 2 2" xfId="3447" xr:uid="{00000000-0005-0000-0000-000054090000}"/>
+    <cellStyle name="Normale 46 3" xfId="3446" xr:uid="{00000000-0005-0000-0000-000055090000}"/>
+    <cellStyle name="Normale 47" xfId="1523" xr:uid="{00000000-0005-0000-0000-000056090000}"/>
+    <cellStyle name="Normale 47 2" xfId="1524" xr:uid="{00000000-0005-0000-0000-000057090000}"/>
+    <cellStyle name="Normale 47 2 2" xfId="3449" xr:uid="{00000000-0005-0000-0000-000058090000}"/>
+    <cellStyle name="Normale 47 3" xfId="3448" xr:uid="{00000000-0005-0000-0000-000059090000}"/>
+    <cellStyle name="Normale 48" xfId="1525" xr:uid="{00000000-0005-0000-0000-00005A090000}"/>
+    <cellStyle name="Normale 48 2" xfId="1526" xr:uid="{00000000-0005-0000-0000-00005B090000}"/>
+    <cellStyle name="Normale 48 2 2" xfId="3451" xr:uid="{00000000-0005-0000-0000-00005C090000}"/>
+    <cellStyle name="Normale 48 3" xfId="3450" xr:uid="{00000000-0005-0000-0000-00005D090000}"/>
+    <cellStyle name="Normale 49" xfId="1527" xr:uid="{00000000-0005-0000-0000-00005E090000}"/>
+    <cellStyle name="Normale 49 2" xfId="1528" xr:uid="{00000000-0005-0000-0000-00005F090000}"/>
+    <cellStyle name="Normale 49 2 2" xfId="3453" xr:uid="{00000000-0005-0000-0000-000060090000}"/>
+    <cellStyle name="Normale 49 3" xfId="3452" xr:uid="{00000000-0005-0000-0000-000061090000}"/>
+    <cellStyle name="Normale 5" xfId="1529" xr:uid="{00000000-0005-0000-0000-000062090000}"/>
+    <cellStyle name="Normale 5 2" xfId="1530" xr:uid="{00000000-0005-0000-0000-000063090000}"/>
+    <cellStyle name="Normale 5 2 2" xfId="1531" xr:uid="{00000000-0005-0000-0000-000064090000}"/>
+    <cellStyle name="Normale 5 2 2 2" xfId="3456" xr:uid="{00000000-0005-0000-0000-000065090000}"/>
+    <cellStyle name="Normale 5 2 3" xfId="3455" xr:uid="{00000000-0005-0000-0000-000066090000}"/>
+    <cellStyle name="Normale 5 3" xfId="1532" xr:uid="{00000000-0005-0000-0000-000067090000}"/>
+    <cellStyle name="Normale 5 3 2" xfId="1533" xr:uid="{00000000-0005-0000-0000-000068090000}"/>
+    <cellStyle name="Normale 5 3 2 2" xfId="3458" xr:uid="{00000000-0005-0000-0000-000069090000}"/>
+    <cellStyle name="Normale 5 3 3" xfId="3457" xr:uid="{00000000-0005-0000-0000-00006A090000}"/>
+    <cellStyle name="Normale 5 4" xfId="1534" xr:uid="{00000000-0005-0000-0000-00006B090000}"/>
+    <cellStyle name="Normale 5 4 2" xfId="3459" xr:uid="{00000000-0005-0000-0000-00006C090000}"/>
+    <cellStyle name="Normale 5 5" xfId="3454" xr:uid="{00000000-0005-0000-0000-00006D090000}"/>
+    <cellStyle name="Normale 5_EDEN industria 2008 rev" xfId="1535" xr:uid="{00000000-0005-0000-0000-00006E090000}"/>
+    <cellStyle name="Normale 50" xfId="1536" xr:uid="{00000000-0005-0000-0000-00006F090000}"/>
+    <cellStyle name="Normale 50 2" xfId="1537" xr:uid="{00000000-0005-0000-0000-000070090000}"/>
+    <cellStyle name="Normale 50 2 2" xfId="3461" xr:uid="{00000000-0005-0000-0000-000071090000}"/>
+    <cellStyle name="Normale 50 3" xfId="3460" xr:uid="{00000000-0005-0000-0000-000072090000}"/>
+    <cellStyle name="Normale 51" xfId="1538" xr:uid="{00000000-0005-0000-0000-000073090000}"/>
+    <cellStyle name="Normale 51 2" xfId="1539" xr:uid="{00000000-0005-0000-0000-000074090000}"/>
+    <cellStyle name="Normale 51 2 2" xfId="3463" xr:uid="{00000000-0005-0000-0000-000075090000}"/>
+    <cellStyle name="Normale 51 3" xfId="3462" xr:uid="{00000000-0005-0000-0000-000076090000}"/>
+    <cellStyle name="Normale 52" xfId="1540" xr:uid="{00000000-0005-0000-0000-000077090000}"/>
+    <cellStyle name="Normale 52 2" xfId="1541" xr:uid="{00000000-0005-0000-0000-000078090000}"/>
+    <cellStyle name="Normale 52 2 2" xfId="3465" xr:uid="{00000000-0005-0000-0000-000079090000}"/>
+    <cellStyle name="Normale 52 3" xfId="3464" xr:uid="{00000000-0005-0000-0000-00007A090000}"/>
+    <cellStyle name="Normale 53" xfId="1542" xr:uid="{00000000-0005-0000-0000-00007B090000}"/>
+    <cellStyle name="Normale 53 2" xfId="1543" xr:uid="{00000000-0005-0000-0000-00007C090000}"/>
+    <cellStyle name="Normale 53 2 2" xfId="3467" xr:uid="{00000000-0005-0000-0000-00007D090000}"/>
+    <cellStyle name="Normale 53 3" xfId="3466" xr:uid="{00000000-0005-0000-0000-00007E090000}"/>
+    <cellStyle name="Normale 54" xfId="1544" xr:uid="{00000000-0005-0000-0000-00007F090000}"/>
+    <cellStyle name="Normale 54 2" xfId="1545" xr:uid="{00000000-0005-0000-0000-000080090000}"/>
+    <cellStyle name="Normale 54 2 2" xfId="3469" xr:uid="{00000000-0005-0000-0000-000081090000}"/>
+    <cellStyle name="Normale 54 3" xfId="3468" xr:uid="{00000000-0005-0000-0000-000082090000}"/>
+    <cellStyle name="Normale 55" xfId="1546" xr:uid="{00000000-0005-0000-0000-000083090000}"/>
+    <cellStyle name="Normale 55 2" xfId="1547" xr:uid="{00000000-0005-0000-0000-000084090000}"/>
+    <cellStyle name="Normale 55 2 2" xfId="3471" xr:uid="{00000000-0005-0000-0000-000085090000}"/>
+    <cellStyle name="Normale 55 3" xfId="3470" xr:uid="{00000000-0005-0000-0000-000086090000}"/>
+    <cellStyle name="Normale 56" xfId="1548" xr:uid="{00000000-0005-0000-0000-000087090000}"/>
+    <cellStyle name="Normale 56 2" xfId="1549" xr:uid="{00000000-0005-0000-0000-000088090000}"/>
+    <cellStyle name="Normale 56 2 2" xfId="3473" xr:uid="{00000000-0005-0000-0000-000089090000}"/>
+    <cellStyle name="Normale 56 3" xfId="3472" xr:uid="{00000000-0005-0000-0000-00008A090000}"/>
+    <cellStyle name="Normale 57" xfId="1550" xr:uid="{00000000-0005-0000-0000-00008B090000}"/>
+    <cellStyle name="Normale 57 2" xfId="1551" xr:uid="{00000000-0005-0000-0000-00008C090000}"/>
+    <cellStyle name="Normale 57 2 2" xfId="3475" xr:uid="{00000000-0005-0000-0000-00008D090000}"/>
+    <cellStyle name="Normale 57 3" xfId="3474" xr:uid="{00000000-0005-0000-0000-00008E090000}"/>
+    <cellStyle name="Normale 58" xfId="1552" xr:uid="{00000000-0005-0000-0000-00008F090000}"/>
+    <cellStyle name="Normale 58 2" xfId="1553" xr:uid="{00000000-0005-0000-0000-000090090000}"/>
+    <cellStyle name="Normale 58 2 2" xfId="3477" xr:uid="{00000000-0005-0000-0000-000091090000}"/>
+    <cellStyle name="Normale 58 3" xfId="3476" xr:uid="{00000000-0005-0000-0000-000092090000}"/>
+    <cellStyle name="Normale 59" xfId="1554" xr:uid="{00000000-0005-0000-0000-000093090000}"/>
+    <cellStyle name="Normale 59 2" xfId="1555" xr:uid="{00000000-0005-0000-0000-000094090000}"/>
+    <cellStyle name="Normale 59 2 2" xfId="3479" xr:uid="{00000000-0005-0000-0000-000095090000}"/>
+    <cellStyle name="Normale 59 3" xfId="3478" xr:uid="{00000000-0005-0000-0000-000096090000}"/>
+    <cellStyle name="Normale 6" xfId="1556" xr:uid="{00000000-0005-0000-0000-000097090000}"/>
+    <cellStyle name="Normale 6 2" xfId="1557" xr:uid="{00000000-0005-0000-0000-000098090000}"/>
+    <cellStyle name="Normale 6 2 2" xfId="1558" xr:uid="{00000000-0005-0000-0000-000099090000}"/>
+    <cellStyle name="Normale 6 2 2 2" xfId="3482" xr:uid="{00000000-0005-0000-0000-00009A090000}"/>
+    <cellStyle name="Normale 6 2 3" xfId="3481" xr:uid="{00000000-0005-0000-0000-00009B090000}"/>
+    <cellStyle name="Normale 6 3" xfId="1559" xr:uid="{00000000-0005-0000-0000-00009C090000}"/>
+    <cellStyle name="Normale 6 3 2" xfId="1560" xr:uid="{00000000-0005-0000-0000-00009D090000}"/>
+    <cellStyle name="Normale 6 3 2 2" xfId="3484" xr:uid="{00000000-0005-0000-0000-00009E090000}"/>
+    <cellStyle name="Normale 6 3 3" xfId="3483" xr:uid="{00000000-0005-0000-0000-00009F090000}"/>
+    <cellStyle name="Normale 6 4" xfId="1561" xr:uid="{00000000-0005-0000-0000-0000A0090000}"/>
+    <cellStyle name="Normale 6 4 2" xfId="3485" xr:uid="{00000000-0005-0000-0000-0000A1090000}"/>
+    <cellStyle name="Normale 6 5" xfId="3480" xr:uid="{00000000-0005-0000-0000-0000A2090000}"/>
+    <cellStyle name="Normale 6_EDEN industria 2008 rev" xfId="1562" xr:uid="{00000000-0005-0000-0000-0000A3090000}"/>
+    <cellStyle name="Normale 60" xfId="1563" xr:uid="{00000000-0005-0000-0000-0000A4090000}"/>
+    <cellStyle name="Normale 60 2" xfId="1564" xr:uid="{00000000-0005-0000-0000-0000A5090000}"/>
+    <cellStyle name="Normale 60 2 2" xfId="3487" xr:uid="{00000000-0005-0000-0000-0000A6090000}"/>
+    <cellStyle name="Normale 60 3" xfId="3486" xr:uid="{00000000-0005-0000-0000-0000A7090000}"/>
+    <cellStyle name="Normale 61" xfId="1565" xr:uid="{00000000-0005-0000-0000-0000A8090000}"/>
+    <cellStyle name="Normale 61 2" xfId="1566" xr:uid="{00000000-0005-0000-0000-0000A9090000}"/>
+    <cellStyle name="Normale 61 2 2" xfId="3489" xr:uid="{00000000-0005-0000-0000-0000AA090000}"/>
+    <cellStyle name="Normale 61 3" xfId="3488" xr:uid="{00000000-0005-0000-0000-0000AB090000}"/>
+    <cellStyle name="Normale 62" xfId="1567" xr:uid="{00000000-0005-0000-0000-0000AC090000}"/>
+    <cellStyle name="Normale 62 2" xfId="1568" xr:uid="{00000000-0005-0000-0000-0000AD090000}"/>
+    <cellStyle name="Normale 62 2 2" xfId="3491" xr:uid="{00000000-0005-0000-0000-0000AE090000}"/>
+    <cellStyle name="Normale 62 3" xfId="3490" xr:uid="{00000000-0005-0000-0000-0000AF090000}"/>
+    <cellStyle name="Normale 63" xfId="1569" xr:uid="{00000000-0005-0000-0000-0000B0090000}"/>
+    <cellStyle name="Normale 63 2" xfId="1570" xr:uid="{00000000-0005-0000-0000-0000B1090000}"/>
+    <cellStyle name="Normale 63 2 2" xfId="3493" xr:uid="{00000000-0005-0000-0000-0000B2090000}"/>
+    <cellStyle name="Normale 63 3" xfId="3492" xr:uid="{00000000-0005-0000-0000-0000B3090000}"/>
+    <cellStyle name="Normale 64" xfId="1571" xr:uid="{00000000-0005-0000-0000-0000B4090000}"/>
+    <cellStyle name="Normale 64 2" xfId="1572" xr:uid="{00000000-0005-0000-0000-0000B5090000}"/>
+    <cellStyle name="Normale 64 2 2" xfId="3495" xr:uid="{00000000-0005-0000-0000-0000B6090000}"/>
+    <cellStyle name="Normale 64 3" xfId="3494" xr:uid="{00000000-0005-0000-0000-0000B7090000}"/>
+    <cellStyle name="Normale 65" xfId="1573" xr:uid="{00000000-0005-0000-0000-0000B8090000}"/>
+    <cellStyle name="Normale 65 2" xfId="1574" xr:uid="{00000000-0005-0000-0000-0000B9090000}"/>
+    <cellStyle name="Normale 65 2 2" xfId="3497" xr:uid="{00000000-0005-0000-0000-0000BA090000}"/>
+    <cellStyle name="Normale 65 3" xfId="3496" xr:uid="{00000000-0005-0000-0000-0000BB090000}"/>
+    <cellStyle name="Normale 7" xfId="1575" xr:uid="{00000000-0005-0000-0000-0000BC090000}"/>
+    <cellStyle name="Normale 7 2" xfId="1576" xr:uid="{00000000-0005-0000-0000-0000BD090000}"/>
+    <cellStyle name="Normale 7 2 2" xfId="1577" xr:uid="{00000000-0005-0000-0000-0000BE090000}"/>
+    <cellStyle name="Normale 7 2 2 2" xfId="3500" xr:uid="{00000000-0005-0000-0000-0000BF090000}"/>
+    <cellStyle name="Normale 7 2 3" xfId="3499" xr:uid="{00000000-0005-0000-0000-0000C0090000}"/>
+    <cellStyle name="Normale 7 3" xfId="1578" xr:uid="{00000000-0005-0000-0000-0000C1090000}"/>
+    <cellStyle name="Normale 7 3 2" xfId="1579" xr:uid="{00000000-0005-0000-0000-0000C2090000}"/>
+    <cellStyle name="Normale 7 3 2 2" xfId="3502" xr:uid="{00000000-0005-0000-0000-0000C3090000}"/>
+    <cellStyle name="Normale 7 3 3" xfId="3501" xr:uid="{00000000-0005-0000-0000-0000C4090000}"/>
+    <cellStyle name="Normale 7 4" xfId="1580" xr:uid="{00000000-0005-0000-0000-0000C5090000}"/>
+    <cellStyle name="Normale 7 4 2" xfId="3503" xr:uid="{00000000-0005-0000-0000-0000C6090000}"/>
+    <cellStyle name="Normale 7 5" xfId="3498" xr:uid="{00000000-0005-0000-0000-0000C7090000}"/>
+    <cellStyle name="Normale 7_EDEN industria 2008 rev" xfId="1581" xr:uid="{00000000-0005-0000-0000-0000C8090000}"/>
+    <cellStyle name="Normale 8" xfId="1582" xr:uid="{00000000-0005-0000-0000-0000C9090000}"/>
+    <cellStyle name="Normale 8 2" xfId="1583" xr:uid="{00000000-0005-0000-0000-0000CA090000}"/>
+    <cellStyle name="Normale 8 2 2" xfId="1584" xr:uid="{00000000-0005-0000-0000-0000CB090000}"/>
+    <cellStyle name="Normale 8 2 2 2" xfId="3506" xr:uid="{00000000-0005-0000-0000-0000CC090000}"/>
+    <cellStyle name="Normale 8 2 3" xfId="3505" xr:uid="{00000000-0005-0000-0000-0000CD090000}"/>
+    <cellStyle name="Normale 8 3" xfId="1585" xr:uid="{00000000-0005-0000-0000-0000CE090000}"/>
+    <cellStyle name="Normale 8 3 2" xfId="1586" xr:uid="{00000000-0005-0000-0000-0000CF090000}"/>
+    <cellStyle name="Normale 8 3 2 2" xfId="3508" xr:uid="{00000000-0005-0000-0000-0000D0090000}"/>
+    <cellStyle name="Normale 8 3 3" xfId="3507" xr:uid="{00000000-0005-0000-0000-0000D1090000}"/>
+    <cellStyle name="Normale 8 4" xfId="1587" xr:uid="{00000000-0005-0000-0000-0000D2090000}"/>
+    <cellStyle name="Normale 8 4 2" xfId="3509" xr:uid="{00000000-0005-0000-0000-0000D3090000}"/>
+    <cellStyle name="Normale 8 5" xfId="3504" xr:uid="{00000000-0005-0000-0000-0000D4090000}"/>
+    <cellStyle name="Normale 8_EDEN industria 2008 rev" xfId="1588" xr:uid="{00000000-0005-0000-0000-0000D5090000}"/>
+    <cellStyle name="Normale 9" xfId="1589" xr:uid="{00000000-0005-0000-0000-0000D6090000}"/>
+    <cellStyle name="Normale 9 2" xfId="1590" xr:uid="{00000000-0005-0000-0000-0000D7090000}"/>
+    <cellStyle name="Normale 9 2 2" xfId="1591" xr:uid="{00000000-0005-0000-0000-0000D8090000}"/>
+    <cellStyle name="Normale 9 2 2 2" xfId="3512" xr:uid="{00000000-0005-0000-0000-0000D9090000}"/>
+    <cellStyle name="Normale 9 2 3" xfId="3511" xr:uid="{00000000-0005-0000-0000-0000DA090000}"/>
+    <cellStyle name="Normale 9 3" xfId="1592" xr:uid="{00000000-0005-0000-0000-0000DB090000}"/>
+    <cellStyle name="Normale 9 3 2" xfId="1593" xr:uid="{00000000-0005-0000-0000-0000DC090000}"/>
+    <cellStyle name="Normale 9 3 2 2" xfId="3514" xr:uid="{00000000-0005-0000-0000-0000DD090000}"/>
+    <cellStyle name="Normale 9 3 3" xfId="3513" xr:uid="{00000000-0005-0000-0000-0000DE090000}"/>
+    <cellStyle name="Normale 9 4" xfId="1594" xr:uid="{00000000-0005-0000-0000-0000DF090000}"/>
+    <cellStyle name="Normale 9 4 2" xfId="3515" xr:uid="{00000000-0005-0000-0000-0000E0090000}"/>
+    <cellStyle name="Normale 9 5" xfId="3510" xr:uid="{00000000-0005-0000-0000-0000E1090000}"/>
+    <cellStyle name="Normale 9_EDEN industria 2008 rev" xfId="1595" xr:uid="{00000000-0005-0000-0000-0000E2090000}"/>
+    <cellStyle name="Normale_B2020" xfId="1596" xr:uid="{00000000-0005-0000-0000-0000E3090000}"/>
+    <cellStyle name="Nota" xfId="1597" xr:uid="{00000000-0005-0000-0000-0000E4090000}"/>
+    <cellStyle name="Nota 2" xfId="1598" xr:uid="{00000000-0005-0000-0000-0000E5090000}"/>
+    <cellStyle name="Nota 2 2" xfId="1599" xr:uid="{00000000-0005-0000-0000-0000E6090000}"/>
+    <cellStyle name="Nota 2 2 2" xfId="3518" xr:uid="{00000000-0005-0000-0000-0000E7090000}"/>
+    <cellStyle name="Nota 2 3" xfId="3517" xr:uid="{00000000-0005-0000-0000-0000E8090000}"/>
+    <cellStyle name="Nota 3" xfId="1600" xr:uid="{00000000-0005-0000-0000-0000E9090000}"/>
+    <cellStyle name="Nota 3 2" xfId="1601" xr:uid="{00000000-0005-0000-0000-0000EA090000}"/>
+    <cellStyle name="Nota 3 2 2" xfId="1602" xr:uid="{00000000-0005-0000-0000-0000EB090000}"/>
+    <cellStyle name="Nota 3 2 2 2" xfId="1603" xr:uid="{00000000-0005-0000-0000-0000EC090000}"/>
+    <cellStyle name="Nota 3 2 3" xfId="1604" xr:uid="{00000000-0005-0000-0000-0000ED090000}"/>
+    <cellStyle name="Nota 3 2 3 2" xfId="3521" xr:uid="{00000000-0005-0000-0000-0000EE090000}"/>
+    <cellStyle name="Nota 3 2 4" xfId="3520" xr:uid="{00000000-0005-0000-0000-0000EF090000}"/>
+    <cellStyle name="Nota 3 3" xfId="1605" xr:uid="{00000000-0005-0000-0000-0000F0090000}"/>
+    <cellStyle name="Nota 3 3 2" xfId="3522" xr:uid="{00000000-0005-0000-0000-0000F1090000}"/>
+    <cellStyle name="Nota 3 4" xfId="3519" xr:uid="{00000000-0005-0000-0000-0000F2090000}"/>
+    <cellStyle name="Nota 4" xfId="1606" xr:uid="{00000000-0005-0000-0000-0000F3090000}"/>
+    <cellStyle name="Nota 4 2" xfId="1607" xr:uid="{00000000-0005-0000-0000-0000F4090000}"/>
+    <cellStyle name="Nota 4 2 2" xfId="1608" xr:uid="{00000000-0005-0000-0000-0000F5090000}"/>
+    <cellStyle name="Nota 4 2 2 2" xfId="3525" xr:uid="{00000000-0005-0000-0000-0000F6090000}"/>
+    <cellStyle name="Nota 4 2 3" xfId="3524" xr:uid="{00000000-0005-0000-0000-0000F7090000}"/>
+    <cellStyle name="Nota 4 3" xfId="1609" xr:uid="{00000000-0005-0000-0000-0000F8090000}"/>
+    <cellStyle name="Nota 4 3 2" xfId="3526" xr:uid="{00000000-0005-0000-0000-0000F9090000}"/>
+    <cellStyle name="Nota 4 4" xfId="3523" xr:uid="{00000000-0005-0000-0000-0000FA090000}"/>
+    <cellStyle name="Nota 5" xfId="1610" xr:uid="{00000000-0005-0000-0000-0000FB090000}"/>
+    <cellStyle name="Nota 5 2" xfId="1611" xr:uid="{00000000-0005-0000-0000-0000FC090000}"/>
+    <cellStyle name="Nota 6" xfId="1612" xr:uid="{00000000-0005-0000-0000-0000FD090000}"/>
+    <cellStyle name="Nota 6 2" xfId="3527" xr:uid="{00000000-0005-0000-0000-0000FE090000}"/>
+    <cellStyle name="Nota 7" xfId="3516" xr:uid="{00000000-0005-0000-0000-0000FF090000}"/>
+    <cellStyle name="Note 2" xfId="1613" xr:uid="{00000000-0005-0000-0000-0000000A0000}"/>
+    <cellStyle name="Note 2 2" xfId="1614" xr:uid="{00000000-0005-0000-0000-0000010A0000}"/>
+    <cellStyle name="Note 2 2 2" xfId="1615" xr:uid="{00000000-0005-0000-0000-0000020A0000}"/>
+    <cellStyle name="Note 2 3" xfId="1616" xr:uid="{00000000-0005-0000-0000-0000030A0000}"/>
+    <cellStyle name="Nuovo" xfId="1617" xr:uid="{00000000-0005-0000-0000-0000040A0000}"/>
+    <cellStyle name="Nuovo 10" xfId="1618" xr:uid="{00000000-0005-0000-0000-0000050A0000}"/>
+    <cellStyle name="Nuovo 10 2" xfId="1619" xr:uid="{00000000-0005-0000-0000-0000060A0000}"/>
+    <cellStyle name="Nuovo 10 2 2" xfId="3530" xr:uid="{00000000-0005-0000-0000-0000070A0000}"/>
+    <cellStyle name="Nuovo 10 3" xfId="1620" xr:uid="{00000000-0005-0000-0000-0000080A0000}"/>
+    <cellStyle name="Nuovo 10 3 2" xfId="1621" xr:uid="{00000000-0005-0000-0000-0000090A0000}"/>
+    <cellStyle name="Nuovo 10 3 2 2" xfId="1622" xr:uid="{00000000-0005-0000-0000-00000A0A0000}"/>
+    <cellStyle name="Nuovo 10 3 2 3" xfId="3532" xr:uid="{00000000-0005-0000-0000-00000B0A0000}"/>
+    <cellStyle name="Nuovo 10 3 3" xfId="3531" xr:uid="{00000000-0005-0000-0000-00000C0A0000}"/>
+    <cellStyle name="Nuovo 10 4" xfId="1623" xr:uid="{00000000-0005-0000-0000-00000D0A0000}"/>
+    <cellStyle name="Nuovo 10 4 2" xfId="1624" xr:uid="{00000000-0005-0000-0000-00000E0A0000}"/>
+    <cellStyle name="Nuovo 10 4 2 2" xfId="3534" xr:uid="{00000000-0005-0000-0000-00000F0A0000}"/>
+    <cellStyle name="Nuovo 10 4 3" xfId="3533" xr:uid="{00000000-0005-0000-0000-0000100A0000}"/>
+    <cellStyle name="Nuovo 10 5" xfId="1625" xr:uid="{00000000-0005-0000-0000-0000110A0000}"/>
+    <cellStyle name="Nuovo 10 6" xfId="3529" xr:uid="{00000000-0005-0000-0000-0000120A0000}"/>
+    <cellStyle name="Nuovo 11" xfId="1626" xr:uid="{00000000-0005-0000-0000-0000130A0000}"/>
+    <cellStyle name="Nuovo 11 2" xfId="1627" xr:uid="{00000000-0005-0000-0000-0000140A0000}"/>
+    <cellStyle name="Nuovo 11 2 2" xfId="3536" xr:uid="{00000000-0005-0000-0000-0000150A0000}"/>
+    <cellStyle name="Nuovo 11 3" xfId="1628" xr:uid="{00000000-0005-0000-0000-0000160A0000}"/>
+    <cellStyle name="Nuovo 11 3 2" xfId="1629" xr:uid="{00000000-0005-0000-0000-0000170A0000}"/>
+    <cellStyle name="Nuovo 11 3 2 2" xfId="1630" xr:uid="{00000000-0005-0000-0000-0000180A0000}"/>
+    <cellStyle name="Nuovo 11 3 2 3" xfId="3538" xr:uid="{00000000-0005-0000-0000-0000190A0000}"/>
+    <cellStyle name="Nuovo 11 3 3" xfId="3537" xr:uid="{00000000-0005-0000-0000-00001A0A0000}"/>
+    <cellStyle name="Nuovo 11 4" xfId="1631" xr:uid="{00000000-0005-0000-0000-00001B0A0000}"/>
+    <cellStyle name="Nuovo 11 4 2" xfId="1632" xr:uid="{00000000-0005-0000-0000-00001C0A0000}"/>
+    <cellStyle name="Nuovo 11 4 2 2" xfId="3540" xr:uid="{00000000-0005-0000-0000-00001D0A0000}"/>
+    <cellStyle name="Nuovo 11 4 3" xfId="3539" xr:uid="{00000000-0005-0000-0000-00001E0A0000}"/>
+    <cellStyle name="Nuovo 11 5" xfId="1633" xr:uid="{00000000-0005-0000-0000-00001F0A0000}"/>
+    <cellStyle name="Nuovo 11 6" xfId="3535" xr:uid="{00000000-0005-0000-0000-0000200A0000}"/>
+    <cellStyle name="Nuovo 12" xfId="1634" xr:uid="{00000000-0005-0000-0000-0000210A0000}"/>
+    <cellStyle name="Nuovo 12 2" xfId="1635" xr:uid="{00000000-0005-0000-0000-0000220A0000}"/>
+    <cellStyle name="Nuovo 12 2 2" xfId="3542" xr:uid="{00000000-0005-0000-0000-0000230A0000}"/>
+    <cellStyle name="Nuovo 12 3" xfId="1636" xr:uid="{00000000-0005-0000-0000-0000240A0000}"/>
+    <cellStyle name="Nuovo 12 3 2" xfId="1637" xr:uid="{00000000-0005-0000-0000-0000250A0000}"/>
+    <cellStyle name="Nuovo 12 3 2 2" xfId="1638" xr:uid="{00000000-0005-0000-0000-0000260A0000}"/>
+    <cellStyle name="Nuovo 12 3 2 3" xfId="3544" xr:uid="{00000000-0005-0000-0000-0000270A0000}"/>
+    <cellStyle name="Nuovo 12 3 3" xfId="3543" xr:uid="{00000000-0005-0000-0000-0000280A0000}"/>
+    <cellStyle name="Nuovo 12 4" xfId="1639" xr:uid="{00000000-0005-0000-0000-0000290A0000}"/>
+    <cellStyle name="Nuovo 12 4 2" xfId="1640" xr:uid="{00000000-0005-0000-0000-00002A0A0000}"/>
+    <cellStyle name="Nuovo 12 4 2 2" xfId="3546" xr:uid="{00000000-0005-0000-0000-00002B0A0000}"/>
+    <cellStyle name="Nuovo 12 4 3" xfId="3545" xr:uid="{00000000-0005-0000-0000-00002C0A0000}"/>
+    <cellStyle name="Nuovo 12 5" xfId="1641" xr:uid="{00000000-0005-0000-0000-00002D0A0000}"/>
+    <cellStyle name="Nuovo 12 6" xfId="3541" xr:uid="{00000000-0005-0000-0000-00002E0A0000}"/>
+    <cellStyle name="Nuovo 13" xfId="1642" xr:uid="{00000000-0005-0000-0000-00002F0A0000}"/>
+    <cellStyle name="Nuovo 13 2" xfId="1643" xr:uid="{00000000-0005-0000-0000-0000300A0000}"/>
+    <cellStyle name="Nuovo 13 2 2" xfId="3548" xr:uid="{00000000-0005-0000-0000-0000310A0000}"/>
+    <cellStyle name="Nuovo 13 3" xfId="1644" xr:uid="{00000000-0005-0000-0000-0000320A0000}"/>
+    <cellStyle name="Nuovo 13 3 2" xfId="1645" xr:uid="{00000000-0005-0000-0000-0000330A0000}"/>
+    <cellStyle name="Nuovo 13 3 2 2" xfId="1646" xr:uid="{00000000-0005-0000-0000-0000340A0000}"/>
+    <cellStyle name="Nuovo 13 3 2 3" xfId="3550" xr:uid="{00000000-0005-0000-0000-0000350A0000}"/>
+    <cellStyle name="Nuovo 13 3 3" xfId="3549" xr:uid="{00000000-0005-0000-0000-0000360A0000}"/>
+    <cellStyle name="Nuovo 13 4" xfId="1647" xr:uid="{00000000-0005-0000-0000-0000370A0000}"/>
+    <cellStyle name="Nuovo 13 4 2" xfId="1648" xr:uid="{00000000-0005-0000-0000-0000380A0000}"/>
+    <cellStyle name="Nuovo 13 4 2 2" xfId="3552" xr:uid="{00000000-0005-0000-0000-0000390A0000}"/>
+    <cellStyle name="Nuovo 13 4 3" xfId="3551" xr:uid="{00000000-0005-0000-0000-00003A0A0000}"/>
+    <cellStyle name="Nuovo 13 5" xfId="1649" xr:uid="{00000000-0005-0000-0000-00003B0A0000}"/>
+    <cellStyle name="Nuovo 13 6" xfId="3547" xr:uid="{00000000-0005-0000-0000-00003C0A0000}"/>
+    <cellStyle name="Nuovo 14" xfId="1650" xr:uid="{00000000-0005-0000-0000-00003D0A0000}"/>
+    <cellStyle name="Nuovo 14 2" xfId="1651" xr:uid="{00000000-0005-0000-0000-00003E0A0000}"/>
+    <cellStyle name="Nuovo 14 2 2" xfId="3554" xr:uid="{00000000-0005-0000-0000-00003F0A0000}"/>
+    <cellStyle name="Nuovo 14 3" xfId="1652" xr:uid="{00000000-0005-0000-0000-0000400A0000}"/>
+    <cellStyle name="Nuovo 14 3 2" xfId="1653" xr:uid="{00000000-0005-0000-0000-0000410A0000}"/>
+    <cellStyle name="Nuovo 14 3 2 2" xfId="1654" xr:uid="{00000000-0005-0000-0000-0000420A0000}"/>
+    <cellStyle name="Nuovo 14 3 2 3" xfId="3556" xr:uid="{00000000-0005-0000-0000-0000430A0000}"/>
+    <cellStyle name="Nuovo 14 3 3" xfId="3555" xr:uid="{00000000-0005-0000-0000-0000440A0000}"/>
+    <cellStyle name="Nuovo 14 4" xfId="1655" xr:uid="{00000000-0005-0000-0000-0000450A0000}"/>
+    <cellStyle name="Nuovo 14 4 2" xfId="1656" xr:uid="{00000000-0005-0000-0000-0000460A0000}"/>
+    <cellStyle name="Nuovo 14 4 2 2" xfId="3558" xr:uid="{00000000-0005-0000-0000-0000470A0000}"/>
+    <cellStyle name="Nuovo 14 4 3" xfId="3557" xr:uid="{00000000-0005-0000-0000-0000480A0000}"/>
+    <cellStyle name="Nuovo 14 5" xfId="1657" xr:uid="{00000000-0005-0000-0000-0000490A0000}"/>
+    <cellStyle name="Nuovo 14 6" xfId="3553" xr:uid="{00000000-0005-0000-0000-00004A0A0000}"/>
+    <cellStyle name="Nuovo 15" xfId="1658" xr:uid="{00000000-0005-0000-0000-00004B0A0000}"/>
+    <cellStyle name="Nuovo 15 2" xfId="1659" xr:uid="{00000000-0005-0000-0000-00004C0A0000}"/>
+    <cellStyle name="Nuovo 15 2 2" xfId="3560" xr:uid="{00000000-0005-0000-0000-00004D0A0000}"/>
+    <cellStyle name="Nuovo 15 3" xfId="1660" xr:uid="{00000000-0005-0000-0000-00004E0A0000}"/>
+    <cellStyle name="Nuovo 15 3 2" xfId="1661" xr:uid="{00000000-0005-0000-0000-00004F0A0000}"/>
+    <cellStyle name="Nuovo 15 3 2 2" xfId="1662" xr:uid="{00000000-0005-0000-0000-0000500A0000}"/>
+    <cellStyle name="Nuovo 15 3 2 3" xfId="3562" xr:uid="{00000000-0005-0000-0000-0000510A0000}"/>
+    <cellStyle name="Nuovo 15 3 3" xfId="3561" xr:uid="{00000000-0005-0000-0000-0000520A0000}"/>
+    <cellStyle name="Nuovo 15 4" xfId="1663" xr:uid="{00000000-0005-0000-0000-0000530A0000}"/>
+    <cellStyle name="Nuovo 15 4 2" xfId="1664" xr:uid="{00000000-0005-0000-0000-0000540A0000}"/>
+    <cellStyle name="Nuovo 15 4 2 2" xfId="3564" xr:uid="{00000000-0005-0000-0000-0000550A0000}"/>
+    <cellStyle name="Nuovo 15 4 3" xfId="3563" xr:uid="{00000000-0005-0000-0000-0000560A0000}"/>
+    <cellStyle name="Nuovo 15 5" xfId="1665" xr:uid="{00000000-0005-0000-0000-0000570A0000}"/>
+    <cellStyle name="Nuovo 15 6" xfId="3559" xr:uid="{00000000-0005-0000-0000-0000580A0000}"/>
+    <cellStyle name="Nuovo 16" xfId="1666" xr:uid="{00000000-0005-0000-0000-0000590A0000}"/>
+    <cellStyle name="Nuovo 16 2" xfId="1667" xr:uid="{00000000-0005-0000-0000-00005A0A0000}"/>
+    <cellStyle name="Nuovo 16 2 2" xfId="3566" xr:uid="{00000000-0005-0000-0000-00005B0A0000}"/>
+    <cellStyle name="Nuovo 16 3" xfId="1668" xr:uid="{00000000-0005-0000-0000-00005C0A0000}"/>
+    <cellStyle name="Nuovo 16 3 2" xfId="1669" xr:uid="{00000000-0005-0000-0000-00005D0A0000}"/>
+    <cellStyle name="Nuovo 16 3 2 2" xfId="1670" xr:uid="{00000000-0005-0000-0000-00005E0A0000}"/>
+    <cellStyle name="Nuovo 16 3 2 3" xfId="3568" xr:uid="{00000000-0005-0000-0000-00005F0A0000}"/>
+    <cellStyle name="Nuovo 16 3 3" xfId="3567" xr:uid="{00000000-0005-0000-0000-0000600A0000}"/>
+    <cellStyle name="Nuovo 16 4" xfId="1671" xr:uid="{00000000-0005-0000-0000-0000610A0000}"/>
+    <cellStyle name="Nuovo 16 4 2" xfId="1672" xr:uid="{00000000-0005-0000-0000-0000620A0000}"/>
+    <cellStyle name="Nuovo 16 4 2 2" xfId="3570" xr:uid="{00000000-0005-0000-0000-0000630A0000}"/>
+    <cellStyle name="Nuovo 16 4 3" xfId="3569" xr:uid="{00000000-0005-0000-0000-0000640A0000}"/>
+    <cellStyle name="Nuovo 16 5" xfId="1673" xr:uid="{00000000-0005-0000-0000-0000650A0000}"/>
+    <cellStyle name="Nuovo 16 6" xfId="3565" xr:uid="{00000000-0005-0000-0000-0000660A0000}"/>
+    <cellStyle name="Nuovo 17" xfId="1674" xr:uid="{00000000-0005-0000-0000-0000670A0000}"/>
+    <cellStyle name="Nuovo 17 2" xfId="1675" xr:uid="{00000000-0005-0000-0000-0000680A0000}"/>
+    <cellStyle name="Nuovo 17 2 2" xfId="3572" xr:uid="{00000000-0005-0000-0000-0000690A0000}"/>
+    <cellStyle name="Nuovo 17 3" xfId="1676" xr:uid="{00000000-0005-0000-0000-00006A0A0000}"/>
+    <cellStyle name="Nuovo 17 3 2" xfId="1677" xr:uid="{00000000-0005-0000-0000-00006B0A0000}"/>
+    <cellStyle name="Nuovo 17 3 2 2" xfId="1678" xr:uid="{00000000-0005-0000-0000-00006C0A0000}"/>
+    <cellStyle name="Nuovo 17 3 2 3" xfId="3574" xr:uid="{00000000-0005-0000-0000-00006D0A0000}"/>
+    <cellStyle name="Nuovo 17 3 3" xfId="3573" xr:uid="{00000000-0005-0000-0000-00006E0A0000}"/>
+    <cellStyle name="Nuovo 17 4" xfId="1679" xr:uid="{00000000-0005-0000-0000-00006F0A0000}"/>
+    <cellStyle name="Nuovo 17 4 2" xfId="1680" xr:uid="{00000000-0005-0000-0000-0000700A0000}"/>
+    <cellStyle name="Nuovo 17 4 2 2" xfId="3576" xr:uid="{00000000-0005-0000-0000-0000710A0000}"/>
+    <cellStyle name="Nuovo 17 4 3" xfId="3575" xr:uid="{00000000-0005-0000-0000-0000720A0000}"/>
+    <cellStyle name="Nuovo 17 5" xfId="1681" xr:uid="{00000000-0005-0000-0000-0000730A0000}"/>
+    <cellStyle name="Nuovo 17 6" xfId="3571" xr:uid="{00000000-0005-0000-0000-0000740A0000}"/>
+    <cellStyle name="Nuovo 18" xfId="1682" xr:uid="{00000000-0005-0000-0000-0000750A0000}"/>
+    <cellStyle name="Nuovo 18 2" xfId="1683" xr:uid="{00000000-0005-0000-0000-0000760A0000}"/>
+    <cellStyle name="Nuovo 18 2 2" xfId="3578" xr:uid="{00000000-0005-0000-0000-0000770A0000}"/>
+    <cellStyle name="Nuovo 18 3" xfId="1684" xr:uid="{00000000-0005-0000-0000-0000780A0000}"/>
+    <cellStyle name="Nuovo 18 3 2" xfId="1685" xr:uid="{00000000-0005-0000-0000-0000790A0000}"/>
+    <cellStyle name="Nuovo 18 3 2 2" xfId="1686" xr:uid="{00000000-0005-0000-0000-00007A0A0000}"/>
+    <cellStyle name="Nuovo 18 3 2 3" xfId="3580" xr:uid="{00000000-0005-0000-0000-00007B0A0000}"/>
+    <cellStyle name="Nuovo 18 3 3" xfId="3579" xr:uid="{00000000-0005-0000-0000-00007C0A0000}"/>
+    <cellStyle name="Nuovo 18 4" xfId="1687" xr:uid="{00000000-0005-0000-0000-00007D0A0000}"/>
+    <cellStyle name="Nuovo 18 4 2" xfId="1688" xr:uid="{00000000-0005-0000-0000-00007E0A0000}"/>
+    <cellStyle name="Nuovo 18 4 2 2" xfId="3582" xr:uid="{00000000-0005-0000-0000-00007F0A0000}"/>
+    <cellStyle name="Nuovo 18 4 3" xfId="3581" xr:uid="{00000000-0005-0000-0000-0000800A0000}"/>
+    <cellStyle name="Nuovo 18 5" xfId="1689" xr:uid="{00000000-0005-0000-0000-0000810A0000}"/>
+    <cellStyle name="Nuovo 18 6" xfId="3577" xr:uid="{00000000-0005-0000-0000-0000820A0000}"/>
+    <cellStyle name="Nuovo 19" xfId="1690" xr:uid="{00000000-0005-0000-0000-0000830A0000}"/>
+    <cellStyle name="Nuovo 19 2" xfId="1691" xr:uid="{00000000-0005-0000-0000-0000840A0000}"/>
+    <cellStyle name="Nuovo 19 2 2" xfId="3584" xr:uid="{00000000-0005-0000-0000-0000850A0000}"/>
+    <cellStyle name="Nuovo 19 3" xfId="1692" xr:uid="{00000000-0005-0000-0000-0000860A0000}"/>
+    <cellStyle name="Nuovo 19 3 2" xfId="1693" xr:uid="{00000000-0005-0000-0000-0000870A0000}"/>
+    <cellStyle name="Nuovo 19 3 2 2" xfId="1694" xr:uid="{00000000-0005-0000-0000-0000880A0000}"/>
+    <cellStyle name="Nuovo 19 3 2 3" xfId="3586" xr:uid="{00000000-0005-0000-0000-0000890A0000}"/>
+    <cellStyle name="Nuovo 19 3 3" xfId="3585" xr:uid="{00000000-0005-0000-0000-00008A0A0000}"/>
+    <cellStyle name="Nuovo 19 4" xfId="1695" xr:uid="{00000000-0005-0000-0000-00008B0A0000}"/>
+    <cellStyle name="Nuovo 19 4 2" xfId="1696" xr:uid="{00000000-0005-0000-0000-00008C0A0000}"/>
+    <cellStyle name="Nuovo 19 4 2 2" xfId="3588" xr:uid="{00000000-0005-0000-0000-00008D0A0000}"/>
+    <cellStyle name="Nuovo 19 4 3" xfId="3587" xr:uid="{00000000-0005-0000-0000-00008E0A0000}"/>
+    <cellStyle name="Nuovo 19 5" xfId="1697" xr:uid="{00000000-0005-0000-0000-00008F0A0000}"/>
+    <cellStyle name="Nuovo 19 6" xfId="3583" xr:uid="{00000000-0005-0000-0000-0000900A0000}"/>
+    <cellStyle name="Nuovo 2" xfId="1698" xr:uid="{00000000-0005-0000-0000-0000910A0000}"/>
+    <cellStyle name="Nuovo 2 2" xfId="1699" xr:uid="{00000000-0005-0000-0000-0000920A0000}"/>
+    <cellStyle name="Nuovo 2 2 2" xfId="3590" xr:uid="{00000000-0005-0000-0000-0000930A0000}"/>
+    <cellStyle name="Nuovo 2 3" xfId="1700" xr:uid="{00000000-0005-0000-0000-0000940A0000}"/>
+    <cellStyle name="Nuovo 2 3 2" xfId="1701" xr:uid="{00000000-0005-0000-0000-0000950A0000}"/>
+    <cellStyle name="Nuovo 2 3 2 2" xfId="1702" xr:uid="{00000000-0005-0000-0000-0000960A0000}"/>
+    <cellStyle name="Nuovo 2 3 2 3" xfId="3592" xr:uid="{00000000-0005-0000-0000-0000970A0000}"/>
+    <cellStyle name="Nuovo 2 3 3" xfId="3591" xr:uid="{00000000-0005-0000-0000-0000980A0000}"/>
+    <cellStyle name="Nuovo 2 4" xfId="1703" xr:uid="{00000000-0005-0000-0000-0000990A0000}"/>
+    <cellStyle name="Nuovo 2 4 2" xfId="1704" xr:uid="{00000000-0005-0000-0000-00009A0A0000}"/>
+    <cellStyle name="Nuovo 2 4 2 2" xfId="3594" xr:uid="{00000000-0005-0000-0000-00009B0A0000}"/>
+    <cellStyle name="Nuovo 2 4 3" xfId="3593" xr:uid="{00000000-0005-0000-0000-00009C0A0000}"/>
+    <cellStyle name="Nuovo 2 5" xfId="1705" xr:uid="{00000000-0005-0000-0000-00009D0A0000}"/>
+    <cellStyle name="Nuovo 2 6" xfId="3589" xr:uid="{00000000-0005-0000-0000-00009E0A0000}"/>
+    <cellStyle name="Nuovo 20" xfId="1706" xr:uid="{00000000-0005-0000-0000-00009F0A0000}"/>
+    <cellStyle name="Nuovo 20 2" xfId="1707" xr:uid="{00000000-0005-0000-0000-0000A00A0000}"/>
+    <cellStyle name="Nuovo 20 2 2" xfId="3596" xr:uid="{00000000-0005-0000-0000-0000A10A0000}"/>
+    <cellStyle name="Nuovo 20 3" xfId="1708" xr:uid="{00000000-0005-0000-0000-0000A20A0000}"/>
+    <cellStyle name="Nuovo 20 3 2" xfId="1709" xr:uid="{00000000-0005-0000-0000-0000A30A0000}"/>
+    <cellStyle name="Nuovo 20 3 2 2" xfId="1710" xr:uid="{00000000-0005-0000-0000-0000A40A0000}"/>
+    <cellStyle name="Nuovo 20 3 2 3" xfId="3598" xr:uid="{00000000-0005-0000-0000-0000A50A0000}"/>
+    <cellStyle name="Nuovo 20 3 3" xfId="3597" xr:uid="{00000000-0005-0000-0000-0000A60A0000}"/>
+    <cellStyle name="Nuovo 20 4" xfId="1711" xr:uid="{00000000-0005-0000-0000-0000A70A0000}"/>
+    <cellStyle name="Nuovo 20 4 2" xfId="1712" xr:uid="{00000000-0005-0000-0000-0000A80A0000}"/>
+    <cellStyle name="Nuovo 20 4 2 2" xfId="3600" xr:uid="{00000000-0005-0000-0000-0000A90A0000}"/>
+    <cellStyle name="Nuovo 20 4 3" xfId="3599" xr:uid="{00000000-0005-0000-0000-0000AA0A0000}"/>
+    <cellStyle name="Nuovo 20 5" xfId="1713" xr:uid="{00000000-0005-0000-0000-0000AB0A0000}"/>
+    <cellStyle name="Nuovo 20 6" xfId="3595" xr:uid="{00000000-0005-0000-0000-0000AC0A0000}"/>
+    <cellStyle name="Nuovo 21" xfId="1714" xr:uid="{00000000-0005-0000-0000-0000AD0A0000}"/>
+    <cellStyle name="Nuovo 21 2" xfId="1715" xr:uid="{00000000-0005-0000-0000-0000AE0A0000}"/>
+    <cellStyle name="Nuovo 21 2 2" xfId="3602" xr:uid="{00000000-0005-0000-0000-0000AF0A0000}"/>
+    <cellStyle name="Nuovo 21 3" xfId="1716" xr:uid="{00000000-0005-0000-0000-0000B00A0000}"/>
+    <cellStyle name="Nuovo 21 3 2" xfId="1717" xr:uid="{00000000-0005-0000-0000-0000B10A0000}"/>
+    <cellStyle name="Nuovo 21 3 2 2" xfId="1718" xr:uid="{00000000-0005-0000-0000-0000B20A0000}"/>
+    <cellStyle name="Nuovo 21 3 2 3" xfId="3604" xr:uid="{00000000-0005-0000-0000-0000B30A0000}"/>
+    <cellStyle name="Nuovo 21 3 3" xfId="3603" xr:uid="{00000000-0005-0000-0000-0000B40A0000}"/>
+    <cellStyle name="Nuovo 21 4" xfId="1719" xr:uid="{00000000-0005-0000-0000-0000B50A0000}"/>
+    <cellStyle name="Nuovo 21 4 2" xfId="1720" xr:uid="{00000000-0005-0000-0000-0000B60A0000}"/>
+    <cellStyle name="Nuovo 21 4 2 2" xfId="3606" xr:uid="{00000000-0005-0000-0000-0000B70A0000}"/>
+    <cellStyle name="Nuovo 21 4 3" xfId="3605" xr:uid="{00000000-0005-0000-0000-0000B80A0000}"/>
+    <cellStyle name="Nuovo 21 5" xfId="1721" xr:uid="{00000000-0005-0000-0000-0000B90A0000}"/>
+    <cellStyle name="Nuovo 21 6" xfId="3601" xr:uid="{00000000-0005-0000-0000-0000BA0A0000}"/>
+    <cellStyle name="Nuovo 22" xfId="1722" xr:uid="{00000000-0005-0000-0000-0000BB0A0000}"/>
+    <cellStyle name="Nuovo 22 2" xfId="1723" xr:uid="{00000000-0005-0000-0000-0000BC0A0000}"/>
+    <cellStyle name="Nuovo 22 2 2" xfId="3608" xr:uid="{00000000-0005-0000-0000-0000BD0A0000}"/>
+    <cellStyle name="Nuovo 22 3" xfId="1724" xr:uid="{00000000-0005-0000-0000-0000BE0A0000}"/>
+    <cellStyle name="Nuovo 22 3 2" xfId="1725" xr:uid="{00000000-0005-0000-0000-0000BF0A0000}"/>
+    <cellStyle name="Nuovo 22 3 2 2" xfId="1726" xr:uid="{00000000-0005-0000-0000-0000C00A0000}"/>
+    <cellStyle name="Nuovo 22 3 2 3" xfId="3610" xr:uid="{00000000-0005-0000-0000-0000C10A0000}"/>
+    <cellStyle name="Nuovo 22 3 3" xfId="3609" xr:uid="{00000000-0005-0000-0000-0000C20A0000}"/>
+    <cellStyle name="Nuovo 22 4" xfId="1727" xr:uid="{00000000-0005-0000-0000-0000C30A0000}"/>
+    <cellStyle name="Nuovo 22 4 2" xfId="1728" xr:uid="{00000000-0005-0000-0000-0000C40A0000}"/>
+    <cellStyle name="Nuovo 22 4 2 2" xfId="3612" xr:uid="{00000000-0005-0000-0000-0000C50A0000}"/>
+    <cellStyle name="Nuovo 22 4 3" xfId="3611" xr:uid="{00000000-0005-0000-0000-0000C60A0000}"/>
+    <cellStyle name="Nuovo 22 5" xfId="1729" xr:uid="{00000000-0005-0000-0000-0000C70A0000}"/>
+    <cellStyle name="Nuovo 22 6" xfId="3607" xr:uid="{00000000-0005-0000-0000-0000C80A0000}"/>
+    <cellStyle name="Nuovo 23" xfId="1730" xr:uid="{00000000-0005-0000-0000-0000C90A0000}"/>
+    <cellStyle name="Nuovo 23 2" xfId="1731" xr:uid="{00000000-0005-0000-0000-0000CA0A0000}"/>
+    <cellStyle name="Nuovo 23 2 2" xfId="3614" xr:uid="{00000000-0005-0000-0000-0000CB0A0000}"/>
+    <cellStyle name="Nuovo 23 3" xfId="1732" xr:uid="{00000000-0005-0000-0000-0000CC0A0000}"/>
+    <cellStyle name="Nuovo 23 3 2" xfId="1733" xr:uid="{00000000-0005-0000-0000-0000CD0A0000}"/>
+    <cellStyle name="Nuovo 23 3 2 2" xfId="1734" xr:uid="{00000000-0005-0000-0000-0000CE0A0000}"/>
+    <cellStyle name="Nuovo 23 3 2 3" xfId="3616" xr:uid="{00000000-0005-0000-0000-0000CF0A0000}"/>
+    <cellStyle name="Nuovo 23 3 3" xfId="3615" xr:uid="{00000000-0005-0000-0000-0000D00A0000}"/>
+    <cellStyle name="Nuovo 23 4" xfId="1735" xr:uid="{00000000-0005-0000-0000-0000D10A0000}"/>
+    <cellStyle name="Nuovo 23 4 2" xfId="1736" xr:uid="{00000000-0005-0000-0000-0000D20A0000}"/>
+    <cellStyle name="Nuovo 23 4 2 2" xfId="3618" xr:uid="{00000000-0005-0000-0000-0000D30A0000}"/>
+    <cellStyle name="Nuovo 23 4 3" xfId="3617" xr:uid="{00000000-0005-0000-0000-0000D40A0000}"/>
+    <cellStyle name="Nuovo 23 5" xfId="1737" xr:uid="{00000000-0005-0000-0000-0000D50A0000}"/>
+    <cellStyle name="Nuovo 23 6" xfId="3613" xr:uid="{00000000-0005-0000-0000-0000D60A0000}"/>
+    <cellStyle name="Nuovo 24" xfId="1738" xr:uid="{00000000-0005-0000-0000-0000D70A0000}"/>
+    <cellStyle name="Nuovo 24 2" xfId="1739" xr:uid="{00000000-0005-0000-0000-0000D80A0000}"/>
+    <cellStyle name="Nuovo 24 2 2" xfId="3620" xr:uid="{00000000-0005-0000-0000-0000D90A0000}"/>
+    <cellStyle name="Nuovo 24 3" xfId="1740" xr:uid="{00000000-0005-0000-0000-0000DA0A0000}"/>
+    <cellStyle name="Nuovo 24 3 2" xfId="1741" xr:uid="{00000000-0005-0000-0000-0000DB0A0000}"/>
+    <cellStyle name="Nuovo 24 3 2 2" xfId="1742" xr:uid="{00000000-0005-0000-0000-0000DC0A0000}"/>
+    <cellStyle name="Nuovo 24 3 2 3" xfId="3622" xr:uid="{00000000-0005-0000-0000-0000DD0A0000}"/>
+    <cellStyle name="Nuovo 24 3 3" xfId="3621" xr:uid="{00000000-0005-0000-0000-0000DE0A0000}"/>
+    <cellStyle name="Nuovo 24 4" xfId="1743" xr:uid="{00000000-0005-0000-0000-0000DF0A0000}"/>
+    <cellStyle name="Nuovo 24 4 2" xfId="1744" xr:uid="{00000000-0005-0000-0000-0000E00A0000}"/>
+    <cellStyle name="Nuovo 24 4 2 2" xfId="3624" xr:uid="{00000000-0005-0000-0000-0000E10A0000}"/>
+    <cellStyle name="Nuovo 24 4 3" xfId="3623" xr:uid="{00000000-0005-0000-0000-0000E20A0000}"/>
+    <cellStyle name="Nuovo 24 5" xfId="1745" xr:uid="{00000000-0005-0000-0000-0000E30A0000}"/>
+    <cellStyle name="Nuovo 24 6" xfId="3619" xr:uid="{00000000-0005-0000-0000-0000E40A0000}"/>
+    <cellStyle name="Nuovo 25" xfId="1746" xr:uid="{00000000-0005-0000-0000-0000E50A0000}"/>
+    <cellStyle name="Nuovo 25 2" xfId="1747" xr:uid="{00000000-0005-0000-0000-0000E60A0000}"/>
+    <cellStyle name="Nuovo 25 2 2" xfId="3626" xr:uid="{00000000-0005-0000-0000-0000E70A0000}"/>
+    <cellStyle name="Nuovo 25 3" xfId="1748" xr:uid="{00000000-0005-0000-0000-0000E80A0000}"/>
+    <cellStyle name="Nuovo 25 3 2" xfId="1749" xr:uid="{00000000-0005-0000-0000-0000E90A0000}"/>
+    <cellStyle name="Nuovo 25 3 2 2" xfId="1750" xr:uid="{00000000-0005-0000-0000-0000EA0A0000}"/>
+    <cellStyle name="Nuovo 25 3 2 3" xfId="3628" xr:uid="{00000000-0005-0000-0000-0000EB0A0000}"/>
+    <cellStyle name="Nuovo 25 3 3" xfId="3627" xr:uid="{00000000-0005-0000-0000-0000EC0A0000}"/>
+    <cellStyle name="Nuovo 25 4" xfId="1751" xr:uid="{00000000-0005-0000-0000-0000ED0A0000}"/>
+    <cellStyle name="Nuovo 25 4 2" xfId="1752" xr:uid="{00000000-0005-0000-0000-0000EE0A0000}"/>
+    <cellStyle name="Nuovo 25 4 2 2" xfId="3630" xr:uid="{00000000-0005-0000-0000-0000EF0A0000}"/>
+    <cellStyle name="Nuovo 25 4 3" xfId="3629" xr:uid="{00000000-0005-0000-0000-0000F00A0000}"/>
+    <cellStyle name="Nuovo 25 5" xfId="1753" xr:uid="{00000000-0005-0000-0000-0000F10A0000}"/>
+    <cellStyle name="Nuovo 25 6" xfId="3625" xr:uid="{00000000-0005-0000-0000-0000F20A0000}"/>
+    <cellStyle name="Nuovo 26" xfId="1754" xr:uid="{00000000-0005-0000-0000-0000F30A0000}"/>
+    <cellStyle name="Nuovo 26 2" xfId="1755" xr:uid="{00000000-0005-0000-0000-0000F40A0000}"/>
+    <cellStyle name="Nuovo 26 2 2" xfId="3632" xr:uid="{00000000-0005-0000-0000-0000F50A0000}"/>
+    <cellStyle name="Nuovo 26 3" xfId="1756" xr:uid="{00000000-0005-0000-0000-0000F60A0000}"/>
+    <cellStyle name="Nuovo 26 3 2" xfId="1757" xr:uid="{00000000-0005-0000-0000-0000F70A0000}"/>
+    <cellStyle name="Nuovo 26 3 2 2" xfId="1758" xr:uid="{00000000-0005-0000-0000-0000F80A0000}"/>
+    <cellStyle name="Nuovo 26 3 2 3" xfId="3634" xr:uid="{00000000-0005-0000-0000-0000F90A0000}"/>
+    <cellStyle name="Nuovo 26 3 3" xfId="3633" xr:uid="{00000000-0005-0000-0000-0000FA0A0000}"/>
+    <cellStyle name="Nuovo 26 4" xfId="1759" xr:uid="{00000000-0005-0000-0000-0000FB0A0000}"/>
+    <cellStyle name="Nuovo 26 4 2" xfId="1760" xr:uid="{00000000-0005-0000-0000-0000FC0A0000}"/>
+    <cellStyle name="Nuovo 26 4 2 2" xfId="3636" xr:uid="{00000000-0005-0000-0000-0000FD0A0000}"/>
+    <cellStyle name="Nuovo 26 4 3" xfId="3635" xr:uid="{00000000-0005-0000-0000-0000FE0A0000}"/>
+    <cellStyle name="Nuovo 26 5" xfId="1761" xr:uid="{00000000-0005-0000-0000-0000FF0A0000}"/>
+    <cellStyle name="Nuovo 26 6" xfId="3631" xr:uid="{00000000-0005-0000-0000-0000000B0000}"/>
+    <cellStyle name="Nuovo 27" xfId="1762" xr:uid="{00000000-0005-0000-0000-0000010B0000}"/>
+    <cellStyle name="Nuovo 27 2" xfId="1763" xr:uid="{00000000-0005-0000-0000-0000020B0000}"/>
+    <cellStyle name="Nuovo 27 2 2" xfId="3638" xr:uid="{00000000-0005-0000-0000-0000030B0000}"/>
+    <cellStyle name="Nuovo 27 3" xfId="1764" xr:uid="{00000000-0005-0000-0000-0000040B0000}"/>
+    <cellStyle name="Nuovo 27 3 2" xfId="1765" xr:uid="{00000000-0005-0000-0000-0000050B0000}"/>
+    <cellStyle name="Nuovo 27 3 2 2" xfId="1766" xr:uid="{00000000-0005-0000-0000-0000060B0000}"/>
+    <cellStyle name="Nuovo 27 3 2 3" xfId="3640" xr:uid="{00000000-0005-0000-0000-0000070B0000}"/>
+    <cellStyle name="Nuovo 27 3 3" xfId="3639" xr:uid="{00000000-0005-0000-0000-0000080B0000}"/>
+    <cellStyle name="Nuovo 27 4" xfId="1767" xr:uid="{00000000-0005-0000-0000-0000090B0000}"/>
+    <cellStyle name="Nuovo 27 4 2" xfId="1768" xr:uid="{00000000-0005-0000-0000-00000A0B0000}"/>
+    <cellStyle name="Nuovo 27 4 2 2" xfId="3642" xr:uid="{00000000-0005-0000-0000-00000B0B0000}"/>
+    <cellStyle name="Nuovo 27 4 3" xfId="3641" xr:uid="{00000000-0005-0000-0000-00000C0B0000}"/>
+    <cellStyle name="Nuovo 27 5" xfId="1769" xr:uid="{00000000-0005-0000-0000-00000D0B0000}"/>
+    <cellStyle name="Nuovo 27 6" xfId="3637" xr:uid="{00000000-0005-0000-0000-00000E0B0000}"/>
+    <cellStyle name="Nuovo 28" xfId="1770" xr:uid="{00000000-0005-0000-0000-00000F0B0000}"/>
+    <cellStyle name="Nuovo 28 2" xfId="1771" xr:uid="{00000000-0005-0000-0000-0000100B0000}"/>
+    <cellStyle name="Nuovo 28 2 2" xfId="3644" xr:uid="{00000000-0005-0000-0000-0000110B0000}"/>
+    <cellStyle name="Nuovo 28 3" xfId="1772" xr:uid="{00000000-0005-0000-0000-0000120B0000}"/>
+    <cellStyle name="Nuovo 28 3 2" xfId="1773" xr:uid="{00000000-0005-0000-0000-0000130B0000}"/>
+    <cellStyle name="Nuovo 28 3 2 2" xfId="1774" xr:uid="{00000000-0005-0000-0000-0000140B0000}"/>
+    <cellStyle name="Nuovo 28 3 2 3" xfId="3646" xr:uid="{00000000-0005-0000-0000-0000150B0000}"/>
+    <cellStyle name="Nuovo 28 3 3" xfId="3645" xr:uid="{00000000-0005-0000-0000-0000160B0000}"/>
+    <cellStyle name="Nuovo 28 4" xfId="1775" xr:uid="{00000000-0005-0000-0000-0000170B0000}"/>
+    <cellStyle name="Nuovo 28 4 2" xfId="1776" xr:uid="{00000000-0005-0000-0000-0000180B0000}"/>
+    <cellStyle name="Nuovo 28 4 2 2" xfId="3648" xr:uid="{00000000-0005-0000-0000-0000190B0000}"/>
+    <cellStyle name="Nuovo 28 4 3" xfId="3647" xr:uid="{00000000-0005-0000-0000-00001A0B0000}"/>
+    <cellStyle name="Nuovo 28 5" xfId="1777" xr:uid="{00000000-0005-0000-0000-00001B0B0000}"/>
+    <cellStyle name="Nuovo 28 6" xfId="3643" xr:uid="{00000000-0005-0000-0000-00001C0B0000}"/>
+    <cellStyle name="Nuovo 29" xfId="1778" xr:uid="{00000000-0005-0000-0000-00001D0B0000}"/>
+    <cellStyle name="Nuovo 29 2" xfId="1779" xr:uid="{00000000-0005-0000-0000-00001E0B0000}"/>
+    <cellStyle name="Nuovo 29 2 2" xfId="3650" xr:uid="{00000000-0005-0000-0000-00001F0B0000}"/>
+    <cellStyle name="Nuovo 29 3" xfId="1780" xr:uid="{00000000-0005-0000-0000-0000200B0000}"/>
+    <cellStyle name="Nuovo 29 3 2" xfId="1781" xr:uid="{00000000-0005-0000-0000-0000210B0000}"/>
+    <cellStyle name="Nuovo 29 3 2 2" xfId="1782" xr:uid="{00000000-0005-0000-0000-0000220B0000}"/>
+    <cellStyle name="Nuovo 29 3 2 3" xfId="3652" xr:uid="{00000000-0005-0000-0000-0000230B0000}"/>
+    <cellStyle name="Nuovo 29 3 3" xfId="3651" xr:uid="{00000000-0005-0000-0000-0000240B0000}"/>
+    <cellStyle name="Nuovo 29 4" xfId="1783" xr:uid="{00000000-0005-0000-0000-0000250B0000}"/>
+    <cellStyle name="Nuovo 29 4 2" xfId="1784" xr:uid="{00000000-0005-0000-0000-0000260B0000}"/>
+    <cellStyle name="Nuovo 29 4 2 2" xfId="3654" xr:uid="{00000000-0005-0000-0000-0000270B0000}"/>
+    <cellStyle name="Nuovo 29 4 3" xfId="3653" xr:uid="{00000000-0005-0000-0000-0000280B0000}"/>
+    <cellStyle name="Nuovo 29 5" xfId="1785" xr:uid="{00000000-0005-0000-0000-0000290B0000}"/>
+    <cellStyle name="Nuovo 29 6" xfId="3649" xr:uid="{00000000-0005-0000-0000-00002A0B0000}"/>
+    <cellStyle name="Nuovo 3" xfId="1786" xr:uid="{00000000-0005-0000-0000-00002B0B0000}"/>
+    <cellStyle name="Nuovo 3 2" xfId="1787" xr:uid="{00000000-0005-0000-0000-00002C0B0000}"/>
+    <cellStyle name="Nuovo 3 2 2" xfId="3656" xr:uid="{00000000-0005-0000-0000-00002D0B0000}"/>
+    <cellStyle name="Nuovo 3 3" xfId="1788" xr:uid="{00000000-0005-0000-0000-00002E0B0000}"/>
+    <cellStyle name="Nuovo 3 3 2" xfId="1789" xr:uid="{00000000-0005-0000-0000-00002F0B0000}"/>
+    <cellStyle name="Nuovo 3 3 2 2" xfId="1790" xr:uid="{00000000-0005-0000-0000-0000300B0000}"/>
+    <cellStyle name="Nuovo 3 3 2 3" xfId="3658" xr:uid="{00000000-0005-0000-0000-0000310B0000}"/>
+    <cellStyle name="Nuovo 3 3 3" xfId="3657" xr:uid="{00000000-0005-0000-0000-0000320B0000}"/>
+    <cellStyle name="Nuovo 3 4" xfId="1791" xr:uid="{00000000-0005-0000-0000-0000330B0000}"/>
+    <cellStyle name="Nuovo 3 4 2" xfId="1792" xr:uid="{00000000-0005-0000-0000-0000340B0000}"/>
+    <cellStyle name="Nuovo 3 4 2 2" xfId="3660" xr:uid="{00000000-0005-0000-0000-0000350B0000}"/>
+    <cellStyle name="Nuovo 3 4 3" xfId="3659" xr:uid="{00000000-0005-0000-0000-0000360B0000}"/>
+    <cellStyle name="Nuovo 3 5" xfId="1793" xr:uid="{00000000-0005-0000-0000-0000370B0000}"/>
+    <cellStyle name="Nuovo 3 6" xfId="3655" xr:uid="{00000000-0005-0000-0000-0000380B0000}"/>
+    <cellStyle name="Nuovo 30" xfId="1794" xr:uid="{00000000-0005-0000-0000-0000390B0000}"/>
+    <cellStyle name="Nuovo 30 2" xfId="1795" xr:uid="{00000000-0005-0000-0000-00003A0B0000}"/>
+    <cellStyle name="Nuovo 30 2 2" xfId="3662" xr:uid="{00000000-0005-0000-0000-00003B0B0000}"/>
+    <cellStyle name="Nuovo 30 3" xfId="1796" xr:uid="{00000000-0005-0000-0000-00003C0B0000}"/>
+    <cellStyle name="Nuovo 30 3 2" xfId="1797" xr:uid="{00000000-0005-0000-0000-00003D0B0000}"/>
+    <cellStyle name="Nuovo 30 3 2 2" xfId="1798" xr:uid="{00000000-0005-0000-0000-00003E0B0000}"/>
+    <cellStyle name="Nuovo 30 3 2 3" xfId="3664" xr:uid="{00000000-0005-0000-0000-00003F0B0000}"/>
+    <cellStyle name="Nuovo 30 3 3" xfId="3663" xr:uid="{00000000-0005-0000-0000-0000400B0000}"/>
+    <cellStyle name="Nuovo 30 4" xfId="1799" xr:uid="{00000000-0005-0000-0000-0000410B0000}"/>
+    <cellStyle name="Nuovo 30 4 2" xfId="1800" xr:uid="{00000000-0005-0000-0000-0000420B0000}"/>
+    <cellStyle name="Nuovo 30 4 2 2" xfId="3666" xr:uid="{00000000-0005-0000-0000-0000430B0000}"/>
+    <cellStyle name="Nuovo 30 4 3" xfId="3665" xr:uid="{00000000-0005-0000-0000-0000440B0000}"/>
+    <cellStyle name="Nuovo 30 5" xfId="1801" xr:uid="{00000000-0005-0000-0000-0000450B0000}"/>
+    <cellStyle name="Nuovo 30 6" xfId="3661" xr:uid="{00000000-0005-0000-0000-0000460B0000}"/>
+    <cellStyle name="Nuovo 31" xfId="1802" xr:uid="{00000000-0005-0000-0000-0000470B0000}"/>
+    <cellStyle name="Nuovo 31 2" xfId="1803" xr:uid="{00000000-0005-0000-0000-0000480B0000}"/>
+    <cellStyle name="Nuovo 31 2 2" xfId="3668" xr:uid="{00000000-0005-0000-0000-0000490B0000}"/>
+    <cellStyle name="Nuovo 31 3" xfId="1804" xr:uid="{00000000-0005-0000-0000-00004A0B0000}"/>
+    <cellStyle name="Nuovo 31 3 2" xfId="1805" xr:uid="{00000000-0005-0000-0000-00004B0B0000}"/>
+    <cellStyle name="Nuovo 31 3 2 2" xfId="1806" xr:uid="{00000000-0005-0000-0000-00004C0B0000}"/>
+    <cellStyle name="Nuovo 31 3 2 3" xfId="3670" xr:uid="{00000000-0005-0000-0000-00004D0B0000}"/>
+    <cellStyle name="Nuovo 31 3 3" xfId="3669" xr:uid="{00000000-0005-0000-0000-00004E0B0000}"/>
+    <cellStyle name="Nuovo 31 4" xfId="1807" xr:uid="{00000000-0005-0000-0000-00004F0B0000}"/>
+    <cellStyle name="Nuovo 31 4 2" xfId="1808" xr:uid="{00000000-0005-0000-0000-0000500B0000}"/>
+    <cellStyle name="Nuovo 31 4 2 2" xfId="3672" xr:uid="{00000000-0005-0000-0000-0000510B0000}"/>
+    <cellStyle name="Nuovo 31 4 3" xfId="3671" xr:uid="{00000000-0005-0000-0000-0000520B0000}"/>
+    <cellStyle name="Nuovo 31 5" xfId="1809" xr:uid="{00000000-0005-0000-0000-0000530B0000}"/>
+    <cellStyle name="Nuovo 31 6" xfId="3667" xr:uid="{00000000-0005-0000-0000-0000540B0000}"/>
+    <cellStyle name="Nuovo 32" xfId="1810" xr:uid="{00000000-0005-0000-0000-0000550B0000}"/>
+    <cellStyle name="Nuovo 32 2" xfId="1811" xr:uid="{00000000-0005-0000-0000-0000560B0000}"/>
+    <cellStyle name="Nuovo 32 2 2" xfId="3674" xr:uid="{00000000-0005-0000-0000-0000570B0000}"/>
+    <cellStyle name="Nuovo 32 3" xfId="1812" xr:uid="{00000000-0005-0000-0000-0000580B0000}"/>
+    <cellStyle name="Nuovo 32 3 2" xfId="1813" xr:uid="{00000000-0005-0000-0000-0000590B0000}"/>
+    <cellStyle name="Nuovo 32 3 2 2" xfId="1814" xr:uid="{00000000-0005-0000-0000-00005A0B0000}"/>
+    <cellStyle name="Nuovo 32 3 2 3" xfId="3676" xr:uid="{00000000-0005-0000-0000-00005B0B0000}"/>
+    <cellStyle name="Nuovo 32 3 3" xfId="3675" xr:uid="{00000000-0005-0000-0000-00005C0B0000}"/>
+    <cellStyle name="Nuovo 32 4" xfId="1815" xr:uid="{00000000-0005-0000-0000-00005D0B0000}"/>
+    <cellStyle name="Nuovo 32 4 2" xfId="1816" xr:uid="{00000000-0005-0000-0000-00005E0B0000}"/>
+    <cellStyle name="Nuovo 32 4 2 2" xfId="3678" xr:uid="{00000000-0005-0000-0000-00005F0B0000}"/>
+    <cellStyle name="Nuovo 32 4 3" xfId="3677" xr:uid="{00000000-0005-0000-0000-0000600B0000}"/>
+    <cellStyle name="Nuovo 32 5" xfId="1817" xr:uid="{00000000-0005-0000-0000-0000610B0000}"/>
+    <cellStyle name="Nuovo 32 6" xfId="3673" xr:uid="{00000000-0005-0000-0000-0000620B0000}"/>
+    <cellStyle name="Nuovo 33" xfId="1818" xr:uid="{00000000-0005-0000-0000-0000630B0000}"/>
+    <cellStyle name="Nuovo 33 2" xfId="1819" xr:uid="{00000000-0005-0000-0000-0000640B0000}"/>
+    <cellStyle name="Nuovo 33 2 2" xfId="3680" xr:uid="{00000000-0005-0000-0000-0000650B0000}"/>
+    <cellStyle name="Nuovo 33 3" xfId="1820" xr:uid="{00000000-0005-0000-0000-0000660B0000}"/>
+    <cellStyle name="Nuovo 33 3 2" xfId="1821" xr:uid="{00000000-0005-0000-0000-0000670B0000}"/>
+    <cellStyle name="Nuovo 33 3 2 2" xfId="1822" xr:uid="{00000000-0005-0000-0000-0000680B0000}"/>
+    <cellStyle name="Nuovo 33 3 2 3" xfId="3682" xr:uid="{00000000-0005-0000-0000-0000690B0000}"/>
+    <cellStyle name="Nuovo 33 3 3" xfId="3681" xr:uid="{00000000-0005-0000-0000-00006A0B0000}"/>
+    <cellStyle name="Nuovo 33 4" xfId="1823" xr:uid="{00000000-0005-0000-0000-00006B0B0000}"/>
+    <cellStyle name="Nuovo 33 4 2" xfId="1824" xr:uid="{00000000-0005-0000-0000-00006C0B0000}"/>
+    <cellStyle name="Nuovo 33 4 2 2" xfId="3684" xr:uid="{00000000-0005-0000-0000-00006D0B0000}"/>
+    <cellStyle name="Nuovo 33 4 3" xfId="3683" xr:uid="{00000000-0005-0000-0000-00006E0B0000}"/>
+    <cellStyle name="Nuovo 33 5" xfId="1825" xr:uid="{00000000-0005-0000-0000-00006F0B0000}"/>
+    <cellStyle name="Nuovo 33 6" xfId="3679" xr:uid="{00000000-0005-0000-0000-0000700B0000}"/>
+    <cellStyle name="Nuovo 34" xfId="1826" xr:uid="{00000000-0005-0000-0000-0000710B0000}"/>
+    <cellStyle name="Nuovo 34 2" xfId="1827" xr:uid="{00000000-0005-0000-0000-0000720B0000}"/>
+    <cellStyle name="Nuovo 34 2 2" xfId="3686" xr:uid="{00000000-0005-0000-0000-0000730B0000}"/>
+    <cellStyle name="Nuovo 34 3" xfId="1828" xr:uid="{00000000-0005-0000-0000-0000740B0000}"/>
+    <cellStyle name="Nuovo 34 3 2" xfId="1829" xr:uid="{00000000-0005-0000-0000-0000750B0000}"/>
+    <cellStyle name="Nuovo 34 3 2 2" xfId="1830" xr:uid="{00000000-0005-0000-0000-0000760B0000}"/>
+    <cellStyle name="Nuovo 34 3 2 3" xfId="3688" xr:uid="{00000000-0005-0000-0000-0000770B0000}"/>
+    <cellStyle name="Nuovo 34 3 3" xfId="3687" xr:uid="{00000000-0005-0000-0000-0000780B0000}"/>
+    <cellStyle name="Nuovo 34 4" xfId="1831" xr:uid="{00000000-0005-0000-0000-0000790B0000}"/>
+    <cellStyle name="Nuovo 34 4 2" xfId="1832" xr:uid="{00000000-0005-0000-0000-00007A0B0000}"/>
+    <cellStyle name="Nuovo 34 4 2 2" xfId="3690" xr:uid="{00000000-0005-0000-0000-00007B0B0000}"/>
+    <cellStyle name="Nuovo 34 4 3" xfId="3689" xr:uid="{00000000-0005-0000-0000-00007C0B0000}"/>
+    <cellStyle name="Nuovo 34 5" xfId="1833" xr:uid="{00000000-0005-0000-0000-00007D0B0000}"/>
+    <cellStyle name="Nuovo 34 6" xfId="3685" xr:uid="{00000000-0005-0000-0000-00007E0B0000}"/>
+    <cellStyle name="Nuovo 35" xfId="1834" xr:uid="{00000000-0005-0000-0000-00007F0B0000}"/>
+    <cellStyle name="Nuovo 35 2" xfId="1835" xr:uid="{00000000-0005-0000-0000-0000800B0000}"/>
+    <cellStyle name="Nuovo 35 2 2" xfId="3692" xr:uid="{00000000-0005-0000-0000-0000810B0000}"/>
+    <cellStyle name="Nuovo 35 3" xfId="1836" xr:uid="{00000000-0005-0000-0000-0000820B0000}"/>
+    <cellStyle name="Nuovo 35 3 2" xfId="1837" xr:uid="{00000000-0005-0000-0000-0000830B0000}"/>
+    <cellStyle name="Nuovo 35 3 2 2" xfId="1838" xr:uid="{00000000-0005-0000-0000-0000840B0000}"/>
+    <cellStyle name="Nuovo 35 3 2 3" xfId="3694" xr:uid="{00000000-0005-0000-0000-0000850B0000}"/>
+    <cellStyle name="Nuovo 35 3 3" xfId="3693" xr:uid="{00000000-0005-0000-0000-0000860B0000}"/>
+    <cellStyle name="Nuovo 35 4" xfId="1839" xr:uid="{00000000-0005-0000-0000-0000870B0000}"/>
+    <cellStyle name="Nuovo 35 4 2" xfId="1840" xr:uid="{00000000-0005-0000-0000-0000880B0000}"/>
+    <cellStyle name="Nuovo 35 4 2 2" xfId="3696" xr:uid="{00000000-0005-0000-0000-0000890B0000}"/>
+    <cellStyle name="Nuovo 35 4 3" xfId="3695" xr:uid="{00000000-0005-0000-0000-00008A0B0000}"/>
+    <cellStyle name="Nuovo 35 5" xfId="1841" xr:uid="{00000000-0005-0000-0000-00008B0B0000}"/>
+    <cellStyle name="Nuovo 35 6" xfId="3691" xr:uid="{00000000-0005-0000-0000-00008C0B0000}"/>
+    <cellStyle name="Nuovo 36" xfId="1842" xr:uid="{00000000-0005-0000-0000-00008D0B0000}"/>
+    <cellStyle name="Nuovo 36 2" xfId="1843" xr:uid="{00000000-0005-0000-0000-00008E0B0000}"/>
+    <cellStyle name="Nuovo 36 2 2" xfId="3698" xr:uid="{00000000-0005-0000-0000-00008F0B0000}"/>
+    <cellStyle name="Nuovo 36 3" xfId="1844" xr:uid="{00000000-0005-0000-0000-0000900B0000}"/>
+    <cellStyle name="Nuovo 36 3 2" xfId="1845" xr:uid="{00000000-0005-0000-0000-0000910B0000}"/>
+    <cellStyle name="Nuovo 36 3 2 2" xfId="1846" xr:uid="{00000000-0005-0000-0000-0000920B0000}"/>
+    <cellStyle name="Nuovo 36 3 2 3" xfId="3700" xr:uid="{00000000-0005-0000-0000-0000930B0000}"/>
+    <cellStyle name="Nuovo 36 3 3" xfId="3699" xr:uid="{00000000-0005-0000-0000-0000940B0000}"/>
+    <cellStyle name="Nuovo 36 4" xfId="1847" xr:uid="{00000000-0005-0000-0000-0000950B0000}"/>
+    <cellStyle name="Nuovo 36 4 2" xfId="1848" xr:uid="{00000000-0005-0000-0000-0000960B0000}"/>
+    <cellStyle name="Nuovo 36 4 2 2" xfId="3702" xr:uid="{00000000-0005-0000-0000-0000970B0000}"/>
+    <cellStyle name="Nuovo 36 4 3" xfId="3701" xr:uid="{00000000-0005-0000-0000-0000980B0000}"/>
+    <cellStyle name="Nuovo 36 5" xfId="1849" xr:uid="{00000000-0005-0000-0000-0000990B0000}"/>
+    <cellStyle name="Nuovo 36 6" xfId="3697" xr:uid="{00000000-0005-0000-0000-00009A0B0000}"/>
+    <cellStyle name="Nuovo 37" xfId="1850" xr:uid="{00000000-0005-0000-0000-00009B0B0000}"/>
+    <cellStyle name="Nuovo 37 2" xfId="1851" xr:uid="{00000000-0005-0000-0000-00009C0B0000}"/>
+    <cellStyle name="Nuovo 37 2 2" xfId="3704" xr:uid="{00000000-0005-0000-0000-00009D0B0000}"/>
+    <cellStyle name="Nuovo 37 3" xfId="1852" xr:uid="{00000000-0005-0000-0000-00009E0B0000}"/>
+    <cellStyle name="Nuovo 37 3 2" xfId="1853" xr:uid="{00000000-0005-0000-0000-00009F0B0000}"/>
+    <cellStyle name="Nuovo 37 3 2 2" xfId="1854" xr:uid="{00000000-0005-0000-0000-0000A00B0000}"/>
+    <cellStyle name="Nuovo 37 3 2 3" xfId="3706" xr:uid="{00000000-0005-0000-0000-0000A10B0000}"/>
+    <cellStyle name="Nuovo 37 3 3" xfId="3705" xr:uid="{00000000-0005-0000-0000-0000A20B0000}"/>
+    <cellStyle name="Nuovo 37 4" xfId="1855" xr:uid="{00000000-0005-0000-0000-0000A30B0000}"/>
+    <cellStyle name="Nuovo 37 4 2" xfId="1856" xr:uid="{00000000-0005-0000-0000-0000A40B0000}"/>
+    <cellStyle name="Nuovo 37 4 2 2" xfId="3708" xr:uid="{00000000-0005-0000-0000-0000A50B0000}"/>
+    <cellStyle name="Nuovo 37 4 3" xfId="3707" xr:uid="{00000000-0005-0000-0000-0000A60B0000}"/>
+    <cellStyle name="Nuovo 37 5" xfId="1857" xr:uid="{00000000-0005-0000-0000-0000A70B0000}"/>
+    <cellStyle name="Nuovo 37 6" xfId="3703" xr:uid="{00000000-0005-0000-0000-0000A80B0000}"/>
+    <cellStyle name="Nuovo 38" xfId="1858" xr:uid="{00000000-0005-0000-0000-0000A90B0000}"/>
+    <cellStyle name="Nuovo 38 2" xfId="1859" xr:uid="{00000000-0005-0000-0000-0000AA0B0000}"/>
+    <cellStyle name="Nuovo 38 2 2" xfId="3710" xr:uid="{00000000-0005-0000-0000-0000AB0B0000}"/>
+    <cellStyle name="Nuovo 38 3" xfId="1860" xr:uid="{00000000-0005-0000-0000-0000AC0B0000}"/>
+    <cellStyle name="Nuovo 38 3 2" xfId="1861" xr:uid="{00000000-0005-0000-0000-0000AD0B0000}"/>
+    <cellStyle name="Nuovo 38 3 2 2" xfId="1862" xr:uid="{00000000-0005-0000-0000-0000AE0B0000}"/>
+    <cellStyle name="Nuovo 38 3 2 3" xfId="3712" xr:uid="{00000000-0005-0000-0000-0000AF0B0000}"/>
+    <cellStyle name="Nuovo 38 3 3" xfId="3711" xr:uid="{00000000-0005-0000-0000-0000B00B0000}"/>
+    <cellStyle name="Nuovo 38 4" xfId="1863" xr:uid="{00000000-0005-0000-0000-0000B10B0000}"/>
+    <cellStyle name="Nuovo 38 4 2" xfId="1864" xr:uid="{00000000-0005-0000-0000-0000B20B0000}"/>
+    <cellStyle name="Nuovo 38 4 2 2" xfId="3714" xr:uid="{00000000-0005-0000-0000-0000B30B0000}"/>
+    <cellStyle name="Nuovo 38 4 3" xfId="3713" xr:uid="{00000000-0005-0000-0000-0000B40B0000}"/>
+    <cellStyle name="Nuovo 38 5" xfId="1865" xr:uid="{00000000-0005-0000-0000-0000B50B0000}"/>
+    <cellStyle name="Nuovo 38 6" xfId="3709" xr:uid="{00000000-0005-0000-0000-0000B60B0000}"/>
+    <cellStyle name="Nuovo 39" xfId="1866" xr:uid="{00000000-0005-0000-0000-0000B70B0000}"/>
+    <cellStyle name="Nuovo 39 2" xfId="1867" xr:uid="{00000000-0005-0000-0000-0000B80B0000}"/>
+    <cellStyle name="Nuovo 39 2 2" xfId="3716" xr:uid="{00000000-0005-0000-0000-0000B90B0000}"/>
+    <cellStyle name="Nuovo 39 3" xfId="1868" xr:uid="{00000000-0005-0000-0000-0000BA0B0000}"/>
+    <cellStyle name="Nuovo 39 3 2" xfId="1869" xr:uid="{00000000-0005-0000-0000-0000BB0B0000}"/>
+    <cellStyle name="Nuovo 39 3 2 2" xfId="1870" xr:uid="{00000000-0005-0000-0000-0000BC0B0000}"/>
+    <cellStyle name="Nuovo 39 3 2 3" xfId="3718" xr:uid="{00000000-0005-0000-0000-0000BD0B0000}"/>
+    <cellStyle name="Nuovo 39 3 3" xfId="3717" xr:uid="{00000000-0005-0000-0000-0000BE0B0000}"/>
+    <cellStyle name="Nuovo 39 4" xfId="1871" xr:uid="{00000000-0005-0000-0000-0000BF0B0000}"/>
+    <cellStyle name="Nuovo 39 4 2" xfId="1872" xr:uid="{00000000-0005-0000-0000-0000C00B0000}"/>
+    <cellStyle name="Nuovo 39 4 2 2" xfId="3720" xr:uid="{00000000-0005-0000-0000-0000C10B0000}"/>
+    <cellStyle name="Nuovo 39 4 3" xfId="3719" xr:uid="{00000000-0005-0000-0000-0000C20B0000}"/>
+    <cellStyle name="Nuovo 39 5" xfId="1873" xr:uid="{00000000-0005-0000-0000-0000C30B0000}"/>
+    <cellStyle name="Nuovo 39 6" xfId="3715" xr:uid="{00000000-0005-0000-0000-0000C40B0000}"/>
+    <cellStyle name="Nuovo 4" xfId="1874" xr:uid="{00000000-0005-0000-0000-0000C50B0000}"/>
+    <cellStyle name="Nuovo 4 2" xfId="1875" xr:uid="{00000000-0005-0000-0000-0000C60B0000}"/>
+    <cellStyle name="Nuovo 4 2 2" xfId="3722" xr:uid="{00000000-0005-0000-0000-0000C70B0000}"/>
+    <cellStyle name="Nuovo 4 3" xfId="1876" xr:uid="{00000000-0005-0000-0000-0000C80B0000}"/>
+    <cellStyle name="Nuovo 4 3 2" xfId="1877" xr:uid="{00000000-0005-0000-0000-0000C90B0000}"/>
+    <cellStyle name="Nuovo 4 3 2 2" xfId="1878" xr:uid="{00000000-0005-0000-0000-0000CA0B0000}"/>
+    <cellStyle name="Nuovo 4 3 2 3" xfId="3724" xr:uid="{00000000-0005-0000-0000-0000CB0B0000}"/>
+    <cellStyle name="Nuovo 4 3 3" xfId="3723" xr:uid="{00000000-0005-0000-0000-0000CC0B0000}"/>
+    <cellStyle name="Nuovo 4 4" xfId="1879" xr:uid="{00000000-0005-0000-0000-0000CD0B0000}"/>
+    <cellStyle name="Nuovo 4 4 2" xfId="1880" xr:uid="{00000000-0005-0000-0000-0000CE0B0000}"/>
+    <cellStyle name="Nuovo 4 4 2 2" xfId="3726" xr:uid="{00000000-0005-0000-0000-0000CF0B0000}"/>
+    <cellStyle name="Nuovo 4 4 3" xfId="3725" xr:uid="{00000000-0005-0000-0000-0000D00B0000}"/>
+    <cellStyle name="Nuovo 4 5" xfId="1881" xr:uid="{00000000-0005-0000-0000-0000D10B0000}"/>
+    <cellStyle name="Nuovo 4 6" xfId="3721" xr:uid="{00000000-0005-0000-0000-0000D20B0000}"/>
+    <cellStyle name="Nuovo 40" xfId="1882" xr:uid="{00000000-0005-0000-0000-0000D30B0000}"/>
+    <cellStyle name="Nuovo 40 2" xfId="1883" xr:uid="{00000000-0005-0000-0000-0000D40B0000}"/>
+    <cellStyle name="Nuovo 40 2 2" xfId="3728" xr:uid="{00000000-0005-0000-0000-0000D50B0000}"/>
+    <cellStyle name="Nuovo 40 3" xfId="1884" xr:uid="{00000000-0005-0000-0000-0000D60B0000}"/>
+    <cellStyle name="Nuovo 40 3 2" xfId="1885" xr:uid="{00000000-0005-0000-0000-0000D70B0000}"/>
+    <cellStyle name="Nuovo 40 3 2 2" xfId="1886" xr:uid="{00000000-0005-0000-0000-0000D80B0000}"/>
+    <cellStyle name="Nuovo 40 3 2 3" xfId="3730" xr:uid="{00000000-0005-0000-0000-0000D90B0000}"/>
+    <cellStyle name="Nuovo 40 3 3" xfId="3729" xr:uid="{00000000-0005-0000-0000-0000DA0B0000}"/>
+    <cellStyle name="Nuovo 40 4" xfId="1887" xr:uid="{00000000-0005-0000-0000-0000DB0B0000}"/>
+    <cellStyle name="Nuovo 40 4 2" xfId="1888" xr:uid="{00000000-0005-0000-0000-0000DC0B0000}"/>
+    <cellStyle name="Nuovo 40 4 2 2" xfId="3732" xr:uid="{00000000-0005-0000-0000-0000DD0B0000}"/>
+    <cellStyle name="Nuovo 40 4 3" xfId="3731" xr:uid="{00000000-0005-0000-0000-0000DE0B0000}"/>
+    <cellStyle name="Nuovo 40 5" xfId="1889" xr:uid="{00000000-0005-0000-0000-0000DF0B0000}"/>
+    <cellStyle name="Nuovo 40 6" xfId="3727" xr:uid="{00000000-0005-0000-0000-0000E00B0000}"/>
+    <cellStyle name="Nuovo 41" xfId="1890" xr:uid="{00000000-0005-0000-0000-0000E10B0000}"/>
+    <cellStyle name="Nuovo 41 2" xfId="1891" xr:uid="{00000000-0005-0000-0000-0000E20B0000}"/>
+    <cellStyle name="Nuovo 41 2 2" xfId="3734" xr:uid="{00000000-0005-0000-0000-0000E30B0000}"/>
+    <cellStyle name="Nuovo 41 3" xfId="1892" xr:uid="{00000000-0005-0000-0000-0000E40B0000}"/>
+    <cellStyle name="Nuovo 41 3 2" xfId="1893" xr:uid="{00000000-0005-0000-0000-0000E50B0000}"/>
+    <cellStyle name="Nuovo 41 3 2 2" xfId="1894" xr:uid="{00000000-0005-0000-0000-0000E60B0000}"/>
+    <cellStyle name="Nuovo 41 3 2 3" xfId="3736" xr:uid="{00000000-0005-0000-0000-0000E70B0000}"/>
+    <cellStyle name="Nuovo 41 3 3" xfId="3735" xr:uid="{00000000-0005-0000-0000-0000E80B0000}"/>
+    <cellStyle name="Nuovo 41 4" xfId="1895" xr:uid="{00000000-0005-0000-0000-0000E90B0000}"/>
+    <cellStyle name="Nuovo 41 4 2" xfId="1896" xr:uid="{00000000-0005-0000-0000-0000EA0B0000}"/>
+    <cellStyle name="Nuovo 41 4 2 2" xfId="3738" xr:uid="{00000000-0005-0000-0000-0000EB0B0000}"/>
+    <cellStyle name="Nuovo 41 4 3" xfId="3737" xr:uid="{00000000-0005-0000-0000-0000EC0B0000}"/>
+    <cellStyle name="Nuovo 41 5" xfId="1897" xr:uid="{00000000-0005-0000-0000-0000ED0B0000}"/>
+    <cellStyle name="Nuovo 41 6" xfId="3733" xr:uid="{00000000-0005-0000-0000-0000EE0B0000}"/>
+    <cellStyle name="Nuovo 42" xfId="1898" xr:uid="{00000000-0005-0000-0000-0000EF0B0000}"/>
+    <cellStyle name="Nuovo 42 2" xfId="1899" xr:uid="{00000000-0005-0000-0000-0000F00B0000}"/>
+    <cellStyle name="Nuovo 42 2 2" xfId="3740" xr:uid="{00000000-0005-0000-0000-0000F10B0000}"/>
+    <cellStyle name="Nuovo 42 3" xfId="1900" xr:uid="{00000000-0005-0000-0000-0000F20B0000}"/>
+    <cellStyle name="Nuovo 42 3 2" xfId="1901" xr:uid="{00000000-0005-0000-0000-0000F30B0000}"/>
+    <cellStyle name="Nuovo 42 3 2 2" xfId="1902" xr:uid="{00000000-0005-0000-0000-0000F40B0000}"/>
+    <cellStyle name="Nuovo 42 3 2 3" xfId="3742" xr:uid="{00000000-0005-0000-0000-0000F50B0000}"/>
+    <cellStyle name="Nuovo 42 3 3" xfId="3741" xr:uid="{00000000-0005-0000-0000-0000F60B0000}"/>
+    <cellStyle name="Nuovo 42 4" xfId="1903" xr:uid="{00000000-0005-0000-0000-0000F70B0000}"/>
+    <cellStyle name="Nuovo 42 4 2" xfId="1904" xr:uid="{00000000-0005-0000-0000-0000F80B0000}"/>
+    <cellStyle name="Nuovo 42 4 2 2" xfId="3744" xr:uid="{00000000-0005-0000-0000-0000F90B0000}"/>
+    <cellStyle name="Nuovo 42 4 3" xfId="3743" xr:uid="{00000000-0005-0000-0000-0000FA0B0000}"/>
+    <cellStyle name="Nuovo 42 5" xfId="1905" xr:uid="{00000000-0005-0000-0000-0000FB0B0000}"/>
+    <cellStyle name="Nuovo 42 6" xfId="3739" xr:uid="{00000000-0005-0000-0000-0000FC0B0000}"/>
+    <cellStyle name="Nuovo 43" xfId="1906" xr:uid="{00000000-0005-0000-0000-0000FD0B0000}"/>
+    <cellStyle name="Nuovo 43 2" xfId="1907" xr:uid="{00000000-0005-0000-0000-0000FE0B0000}"/>
+    <cellStyle name="Nuovo 43 2 2" xfId="3746" xr:uid="{00000000-0005-0000-0000-0000FF0B0000}"/>
+    <cellStyle name="Nuovo 43 3" xfId="1908" xr:uid="{00000000-0005-0000-0000-0000000C0000}"/>
+    <cellStyle name="Nuovo 43 3 2" xfId="1909" xr:uid="{00000000-0005-0000-0000-0000010C0000}"/>
+    <cellStyle name="Nuovo 43 3 2 2" xfId="1910" xr:uid="{00000000-0005-0000-0000-0000020C0000}"/>
+    <cellStyle name="Nuovo 43 3 2 3" xfId="3748" xr:uid="{00000000-0005-0000-0000-0000030C0000}"/>
+    <cellStyle name="Nuovo 43 3 3" xfId="3747" xr:uid="{00000000-0005-0000-0000-0000040C0000}"/>
+    <cellStyle name="Nuovo 43 4" xfId="1911" xr:uid="{00000000-0005-0000-0000-0000050C0000}"/>
+    <cellStyle name="Nuovo 43 4 2" xfId="1912" xr:uid="{00000000-0005-0000-0000-0000060C0000}"/>
+    <cellStyle name="Nuovo 43 4 2 2" xfId="3750" xr:uid="{00000000-0005-0000-0000-0000070C0000}"/>
+    <cellStyle name="Nuovo 43 4 3" xfId="3749" xr:uid="{00000000-0005-0000-0000-0000080C0000}"/>
+    <cellStyle name="Nuovo 43 5" xfId="1913" xr:uid="{00000000-0005-0000-0000-0000090C0000}"/>
+    <cellStyle name="Nuovo 43 6" xfId="3745" xr:uid="{00000000-0005-0000-0000-00000A0C0000}"/>
+    <cellStyle name="Nuovo 44" xfId="1914" xr:uid="{00000000-0005-0000-0000-00000B0C0000}"/>
+    <cellStyle name="Nuovo 44 2" xfId="1915" xr:uid="{00000000-0005-0000-0000-00000C0C0000}"/>
+    <cellStyle name="Nuovo 44 2 2" xfId="3752" xr:uid="{00000000-0005-0000-0000-00000D0C0000}"/>
+    <cellStyle name="Nuovo 44 3" xfId="1916" xr:uid="{00000000-0005-0000-0000-00000E0C0000}"/>
+    <cellStyle name="Nuovo 44 3 2" xfId="1917" xr:uid="{00000000-0005-0000-0000-00000F0C0000}"/>
+    <cellStyle name="Nuovo 44 3 2 2" xfId="1918" xr:uid="{00000000-0005-0000-0000-0000100C0000}"/>
+    <cellStyle name="Nuovo 44 3 2 3" xfId="3754" xr:uid="{00000000-0005-0000-0000-0000110C0000}"/>
+    <cellStyle name="Nuovo 44 3 3" xfId="3753" xr:uid="{00000000-0005-0000-0000-0000120C0000}"/>
+    <cellStyle name="Nuovo 44 4" xfId="1919" xr:uid="{00000000-0005-0000-0000-0000130C0000}"/>
+    <cellStyle name="Nuovo 44 4 2" xfId="1920" xr:uid="{00000000-0005-0000-0000-0000140C0000}"/>
+    <cellStyle name="Nuovo 44 4 2 2" xfId="3756" xr:uid="{00000000-0005-0000-0000-0000150C0000}"/>
+    <cellStyle name="Nuovo 44 4 3" xfId="3755" xr:uid="{00000000-0005-0000-0000-0000160C0000}"/>
+    <cellStyle name="Nuovo 44 5" xfId="1921" xr:uid="{00000000-0005-0000-0000-0000170C0000}"/>
+    <cellStyle name="Nuovo 44 6" xfId="3751" xr:uid="{00000000-0005-0000-0000-0000180C0000}"/>
+    <cellStyle name="Nuovo 45" xfId="1922" xr:uid="{00000000-0005-0000-0000-0000190C0000}"/>
+    <cellStyle name="Nuovo 45 2" xfId="3757" xr:uid="{00000000-0005-0000-0000-00001A0C0000}"/>
+    <cellStyle name="Nuovo 46" xfId="1923" xr:uid="{00000000-0005-0000-0000-00001B0C0000}"/>
+    <cellStyle name="Nuovo 46 2" xfId="1924" xr:uid="{00000000-0005-0000-0000-00001C0C0000}"/>
+    <cellStyle name="Nuovo 46 2 2" xfId="1925" xr:uid="{00000000-0005-0000-0000-00001D0C0000}"/>
+    <cellStyle name="Nuovo 46 2 3" xfId="3759" xr:uid="{00000000-0005-0000-0000-00001E0C0000}"/>
+    <cellStyle name="Nuovo 46 3" xfId="3758" xr:uid="{00000000-0005-0000-0000-00001F0C0000}"/>
+    <cellStyle name="Nuovo 47" xfId="1926" xr:uid="{00000000-0005-0000-0000-0000200C0000}"/>
+    <cellStyle name="Nuovo 47 2" xfId="1927" xr:uid="{00000000-0005-0000-0000-0000210C0000}"/>
+    <cellStyle name="Nuovo 47 2 2" xfId="3761" xr:uid="{00000000-0005-0000-0000-0000220C0000}"/>
+    <cellStyle name="Nuovo 47 3" xfId="3760" xr:uid="{00000000-0005-0000-0000-0000230C0000}"/>
+    <cellStyle name="Nuovo 48" xfId="1928" xr:uid="{00000000-0005-0000-0000-0000240C0000}"/>
+    <cellStyle name="Nuovo 49" xfId="3528" xr:uid="{00000000-0005-0000-0000-0000250C0000}"/>
+    <cellStyle name="Nuovo 5" xfId="1929" xr:uid="{00000000-0005-0000-0000-0000260C0000}"/>
+    <cellStyle name="Nuovo 5 2" xfId="1930" xr:uid="{00000000-0005-0000-0000-0000270C0000}"/>
+    <cellStyle name="Nuovo 5 2 2" xfId="3763" xr:uid="{00000000-0005-0000-0000-0000280C0000}"/>
+    <cellStyle name="Nuovo 5 3" xfId="1931" xr:uid="{00000000-0005-0000-0000-0000290C0000}"/>
+    <cellStyle name="Nuovo 5 3 2" xfId="1932" xr:uid="{00000000-0005-0000-0000-00002A0C0000}"/>
+    <cellStyle name="Nuovo 5 3 2 2" xfId="1933" xr:uid="{00000000-0005-0000-0000-00002B0C0000}"/>
+    <cellStyle name="Nuovo 5 3 2 3" xfId="3765" xr:uid="{00000000-0005-0000-0000-00002C0C0000}"/>
+    <cellStyle name="Nuovo 5 3 3" xfId="3764" xr:uid="{00000000-0005-0000-0000-00002D0C0000}"/>
+    <cellStyle name="Nuovo 5 4" xfId="1934" xr:uid="{00000000-0005-0000-0000-00002E0C0000}"/>
+    <cellStyle name="Nuovo 5 4 2" xfId="1935" xr:uid="{00000000-0005-0000-0000-00002F0C0000}"/>
+    <cellStyle name="Nuovo 5 4 2 2" xfId="3767" xr:uid="{00000000-0005-0000-0000-0000300C0000}"/>
+    <cellStyle name="Nuovo 5 4 3" xfId="3766" xr:uid="{00000000-0005-0000-0000-0000310C0000}"/>
+    <cellStyle name="Nuovo 5 5" xfId="1936" xr:uid="{00000000-0005-0000-0000-0000320C0000}"/>
+    <cellStyle name="Nuovo 5 6" xfId="3762" xr:uid="{00000000-0005-0000-0000-0000330C0000}"/>
+    <cellStyle name="Nuovo 6" xfId="1937" xr:uid="{00000000-0005-0000-0000-0000340C0000}"/>
+    <cellStyle name="Nuovo 6 2" xfId="1938" xr:uid="{00000000-0005-0000-0000-0000350C0000}"/>
+    <cellStyle name="Nuovo 6 2 2" xfId="3769" xr:uid="{00000000-0005-0000-0000-0000360C0000}"/>
+    <cellStyle name="Nuovo 6 3" xfId="1939" xr:uid="{00000000-0005-0000-0000-0000370C0000}"/>
+    <cellStyle name="Nuovo 6 3 2" xfId="1940" xr:uid="{00000000-0005-0000-0000-0000380C0000}"/>
+    <cellStyle name="Nuovo 6 3 2 2" xfId="1941" xr:uid="{00000000-0005-0000-0000-0000390C0000}"/>
+    <cellStyle name="Nuovo 6 3 2 3" xfId="3771" xr:uid="{00000000-0005-0000-0000-00003A0C0000}"/>
+    <cellStyle name="Nuovo 6 3 3" xfId="3770" xr:uid="{00000000-0005-0000-0000-00003B0C0000}"/>
+    <cellStyle name="Nuovo 6 4" xfId="1942" xr:uid="{00000000-0005-0000-0000-00003C0C0000}"/>
+    <cellStyle name="Nuovo 6 4 2" xfId="1943" xr:uid="{00000000-0005-0000-0000-00003D0C0000}"/>
+    <cellStyle name="Nuovo 6 4 2 2" xfId="3773" xr:uid="{00000000-0005-0000-0000-00003E0C0000}"/>
+    <cellStyle name="Nuovo 6 4 3" xfId="3772" xr:uid="{00000000-0005-0000-0000-00003F0C0000}"/>
+    <cellStyle name="Nuovo 6 5" xfId="1944" xr:uid="{00000000-0005-0000-0000-0000400C0000}"/>
+    <cellStyle name="Nuovo 6 6" xfId="3768" xr:uid="{00000000-0005-0000-0000-0000410C0000}"/>
+    <cellStyle name="Nuovo 7" xfId="1945" xr:uid="{00000000-0005-0000-0000-0000420C0000}"/>
+    <cellStyle name="Nuovo 7 2" xfId="1946" xr:uid="{00000000-0005-0000-0000-0000430C0000}"/>
+    <cellStyle name="Nuovo 7 2 2" xfId="3775" xr:uid="{00000000-0005-0000-0000-0000440C0000}"/>
+    <cellStyle name="Nuovo 7 3" xfId="1947" xr:uid="{00000000-0005-0000-0000-0000450C0000}"/>
+    <cellStyle name="Nuovo 7 3 2" xfId="1948" xr:uid="{00000000-0005-0000-0000-0000460C0000}"/>
+    <cellStyle name="Nuovo 7 3 2 2" xfId="1949" xr:uid="{00000000-0005-0000-0000-0000470C0000}"/>
+    <cellStyle name="Nuovo 7 3 2 3" xfId="3777" xr:uid="{00000000-0005-0000-0000-0000480C0000}"/>
+    <cellStyle name="Nuovo 7 3 3" xfId="3776" xr:uid="{00000000-0005-0000-0000-0000490C0000}"/>
+    <cellStyle name="Nuovo 7 4" xfId="1950" xr:uid="{00000000-0005-0000-0000-00004A0C0000}"/>
+    <cellStyle name="Nuovo 7 4 2" xfId="1951" xr:uid="{00000000-0005-0000-0000-00004B0C0000}"/>
+    <cellStyle name="Nuovo 7 4 2 2" xfId="3779" xr:uid="{00000000-0005-0000-0000-00004C0C0000}"/>
+    <cellStyle name="Nuovo 7 4 3" xfId="3778" xr:uid="{00000000-0005-0000-0000-00004D0C0000}"/>
+    <cellStyle name="Nuovo 7 5" xfId="1952" xr:uid="{00000000-0005-0000-0000-00004E0C0000}"/>
+    <cellStyle name="Nuovo 7 6" xfId="3774" xr:uid="{00000000-0005-0000-0000-00004F0C0000}"/>
+    <cellStyle name="Nuovo 8" xfId="1953" xr:uid="{00000000-0005-0000-0000-0000500C0000}"/>
+    <cellStyle name="Nuovo 8 2" xfId="1954" xr:uid="{00000000-0005-0000-0000-0000510C0000}"/>
+    <cellStyle name="Nuovo 8 2 2" xfId="3781" xr:uid="{00000000-0005-0000-0000-0000520C0000}"/>
+    <cellStyle name="Nuovo 8 3" xfId="1955" xr:uid="{00000000-0005-0000-0000-0000530C0000}"/>
+    <cellStyle name="Nuovo 8 3 2" xfId="1956" xr:uid="{00000000-0005-0000-0000-0000540C0000}"/>
+    <cellStyle name="Nuovo 8 3 2 2" xfId="1957" xr:uid="{00000000-0005-0000-0000-0000550C0000}"/>
+    <cellStyle name="Nuovo 8 3 2 3" xfId="3783" xr:uid="{00000000-0005-0000-0000-0000560C0000}"/>
+    <cellStyle name="Nuovo 8 3 3" xfId="3782" xr:uid="{00000000-0005-0000-0000-0000570C0000}"/>
+    <cellStyle name="Nuovo 8 4" xfId="1958" xr:uid="{00000000-0005-0000-0000-0000580C0000}"/>
+    <cellStyle name="Nuovo 8 4 2" xfId="1959" xr:uid="{00000000-0005-0000-0000-0000590C0000}"/>
+    <cellStyle name="Nuovo 8 4 2 2" xfId="3785" xr:uid="{00000000-0005-0000-0000-00005A0C0000}"/>
+    <cellStyle name="Nuovo 8 4 3" xfId="3784" xr:uid="{00000000-0005-0000-0000-00005B0C0000}"/>
+    <cellStyle name="Nuovo 8 5" xfId="1960" xr:uid="{00000000-0005-0000-0000-00005C0C0000}"/>
+    <cellStyle name="Nuovo 8 6" xfId="3780" xr:uid="{00000000-0005-0000-0000-00005D0C0000}"/>
+    <cellStyle name="Nuovo 9" xfId="1961" xr:uid="{00000000-0005-0000-0000-00005E0C0000}"/>
+    <cellStyle name="Nuovo 9 2" xfId="1962" xr:uid="{00000000-0005-0000-0000-00005F0C0000}"/>
+    <cellStyle name="Nuovo 9 2 2" xfId="3787" xr:uid="{00000000-0005-0000-0000-0000600C0000}"/>
+    <cellStyle name="Nuovo 9 3" xfId="1963" xr:uid="{00000000-0005-0000-0000-0000610C0000}"/>
+    <cellStyle name="Nuovo 9 3 2" xfId="1964" xr:uid="{00000000-0005-0000-0000-0000620C0000}"/>
+    <cellStyle name="Nuovo 9 3 2 2" xfId="1965" xr:uid="{00000000-0005-0000-0000-0000630C0000}"/>
+    <cellStyle name="Nuovo 9 3 2 3" xfId="3789" xr:uid="{00000000-0005-0000-0000-0000640C0000}"/>
+    <cellStyle name="Nuovo 9 3 3" xfId="3788" xr:uid="{00000000-0005-0000-0000-0000650C0000}"/>
+    <cellStyle name="Nuovo 9 4" xfId="1966" xr:uid="{00000000-0005-0000-0000-0000660C0000}"/>
+    <cellStyle name="Nuovo 9 4 2" xfId="1967" xr:uid="{00000000-0005-0000-0000-0000670C0000}"/>
+    <cellStyle name="Nuovo 9 4 2 2" xfId="3791" xr:uid="{00000000-0005-0000-0000-0000680C0000}"/>
+    <cellStyle name="Nuovo 9 4 3" xfId="3790" xr:uid="{00000000-0005-0000-0000-0000690C0000}"/>
+    <cellStyle name="Nuovo 9 5" xfId="1968" xr:uid="{00000000-0005-0000-0000-00006A0C0000}"/>
+    <cellStyle name="Nuovo 9 6" xfId="3786" xr:uid="{00000000-0005-0000-0000-00006B0C0000}"/>
+    <cellStyle name="Output 2" xfId="1969" xr:uid="{00000000-0005-0000-0000-00006C0C0000}"/>
+    <cellStyle name="Output 2 2" xfId="1970" xr:uid="{00000000-0005-0000-0000-00006D0C0000}"/>
+    <cellStyle name="Output 2 2 2" xfId="1971" xr:uid="{00000000-0005-0000-0000-00006E0C0000}"/>
+    <cellStyle name="Output 2 3" xfId="1972" xr:uid="{00000000-0005-0000-0000-00006F0C0000}"/>
+    <cellStyle name="Output 3" xfId="1973" xr:uid="{00000000-0005-0000-0000-0000700C0000}"/>
+    <cellStyle name="Output 3 2" xfId="1974" xr:uid="{00000000-0005-0000-0000-0000710C0000}"/>
+    <cellStyle name="Percen - Type1" xfId="1975" xr:uid="{00000000-0005-0000-0000-0000720C0000}"/>
+    <cellStyle name="Percent 2" xfId="1976" xr:uid="{00000000-0005-0000-0000-0000730C0000}"/>
+    <cellStyle name="Percent 2 2" xfId="1977" xr:uid="{00000000-0005-0000-0000-0000740C0000}"/>
+    <cellStyle name="Percent 2 2 2" xfId="1978" xr:uid="{00000000-0005-0000-0000-0000750C0000}"/>
+    <cellStyle name="Percent 2 2 2 2" xfId="3793" xr:uid="{00000000-0005-0000-0000-0000760C0000}"/>
+    <cellStyle name="Percent 2 2 3" xfId="1979" xr:uid="{00000000-0005-0000-0000-0000770C0000}"/>
+    <cellStyle name="Percent 2 2 3 2" xfId="1980" xr:uid="{00000000-0005-0000-0000-0000780C0000}"/>
+    <cellStyle name="Percent 2 2 4" xfId="1981" xr:uid="{00000000-0005-0000-0000-0000790C0000}"/>
+    <cellStyle name="Percent 2 3" xfId="1982" xr:uid="{00000000-0005-0000-0000-00007A0C0000}"/>
+    <cellStyle name="Percent 2 3 2" xfId="1983" xr:uid="{00000000-0005-0000-0000-00007B0C0000}"/>
+    <cellStyle name="Percent 2 4" xfId="3792" xr:uid="{00000000-0005-0000-0000-00007C0C0000}"/>
+    <cellStyle name="Percent 3" xfId="1984" xr:uid="{00000000-0005-0000-0000-00007D0C0000}"/>
+    <cellStyle name="Percent 3 2" xfId="1985" xr:uid="{00000000-0005-0000-0000-00007E0C0000}"/>
+    <cellStyle name="Percent 3 3" xfId="1986" xr:uid="{00000000-0005-0000-0000-00007F0C0000}"/>
+    <cellStyle name="Percent 3 3 2" xfId="1987" xr:uid="{00000000-0005-0000-0000-0000800C0000}"/>
+    <cellStyle name="Percent 3 3 2 2" xfId="1988" xr:uid="{00000000-0005-0000-0000-0000810C0000}"/>
+    <cellStyle name="Percent 3 3 2 3" xfId="3796" xr:uid="{00000000-0005-0000-0000-0000820C0000}"/>
+    <cellStyle name="Percent 3 3 3" xfId="3795" xr:uid="{00000000-0005-0000-0000-0000830C0000}"/>
+    <cellStyle name="Percent 3 4" xfId="1989" xr:uid="{00000000-0005-0000-0000-0000840C0000}"/>
+    <cellStyle name="Percent 3 4 2" xfId="1990" xr:uid="{00000000-0005-0000-0000-0000850C0000}"/>
+    <cellStyle name="Percent 3 4 3" xfId="3797" xr:uid="{00000000-0005-0000-0000-0000860C0000}"/>
+    <cellStyle name="Percent 3 5" xfId="3794" xr:uid="{00000000-0005-0000-0000-0000870C0000}"/>
+    <cellStyle name="Percent 4" xfId="1991" xr:uid="{00000000-0005-0000-0000-0000880C0000}"/>
+    <cellStyle name="Percent 4 2" xfId="3798" xr:uid="{00000000-0005-0000-0000-0000890C0000}"/>
+    <cellStyle name="Percent 5" xfId="1992" xr:uid="{00000000-0005-0000-0000-00008A0C0000}"/>
+    <cellStyle name="Percent 6" xfId="1993" xr:uid="{00000000-0005-0000-0000-00008B0C0000}"/>
+    <cellStyle name="Percentuale 10" xfId="1994" xr:uid="{00000000-0005-0000-0000-00008C0C0000}"/>
+    <cellStyle name="Percentuale 10 2" xfId="1995" xr:uid="{00000000-0005-0000-0000-00008D0C0000}"/>
+    <cellStyle name="Percentuale 10 2 2" xfId="3800" xr:uid="{00000000-0005-0000-0000-00008E0C0000}"/>
+    <cellStyle name="Percentuale 10 3" xfId="1996" xr:uid="{00000000-0005-0000-0000-00008F0C0000}"/>
+    <cellStyle name="Percentuale 10 3 2" xfId="1997" xr:uid="{00000000-0005-0000-0000-0000900C0000}"/>
+    <cellStyle name="Percentuale 10 3 2 2" xfId="1998" xr:uid="{00000000-0005-0000-0000-0000910C0000}"/>
+    <cellStyle name="Percentuale 10 3 2 3" xfId="3802" xr:uid="{00000000-0005-0000-0000-0000920C0000}"/>
+    <cellStyle name="Percentuale 10 3 3" xfId="3801" xr:uid="{00000000-0005-0000-0000-0000930C0000}"/>
+    <cellStyle name="Percentuale 10 4" xfId="1999" xr:uid="{00000000-0005-0000-0000-0000940C0000}"/>
+    <cellStyle name="Percentuale 10 4 2" xfId="2000" xr:uid="{00000000-0005-0000-0000-0000950C0000}"/>
+    <cellStyle name="Percentuale 10 4 2 2" xfId="3804" xr:uid="{00000000-0005-0000-0000-0000960C0000}"/>
+    <cellStyle name="Percentuale 10 4 3" xfId="3803" xr:uid="{00000000-0005-0000-0000-0000970C0000}"/>
+    <cellStyle name="Percentuale 10 5" xfId="2001" xr:uid="{00000000-0005-0000-0000-0000980C0000}"/>
+    <cellStyle name="Percentuale 10 6" xfId="3799" xr:uid="{00000000-0005-0000-0000-0000990C0000}"/>
+    <cellStyle name="Percentuale 11" xfId="2002" xr:uid="{00000000-0005-0000-0000-00009A0C0000}"/>
+    <cellStyle name="Percentuale 11 2" xfId="2003" xr:uid="{00000000-0005-0000-0000-00009B0C0000}"/>
+    <cellStyle name="Percentuale 11 2 2" xfId="3806" xr:uid="{00000000-0005-0000-0000-00009C0C0000}"/>
+    <cellStyle name="Percentuale 11 3" xfId="2004" xr:uid="{00000000-0005-0000-0000-00009D0C0000}"/>
+    <cellStyle name="Percentuale 11 3 2" xfId="2005" xr:uid="{00000000-0005-0000-0000-00009E0C0000}"/>
+    <cellStyle name="Percentuale 11 3 2 2" xfId="2006" xr:uid="{00000000-0005-0000-0000-00009F0C0000}"/>
+    <cellStyle name="Percentuale 11 3 2 3" xfId="3808" xr:uid="{00000000-0005-0000-0000-0000A00C0000}"/>
+    <cellStyle name="Percentuale 11 3 3" xfId="3807" xr:uid="{00000000-0005-0000-0000-0000A10C0000}"/>
+    <cellStyle name="Percentuale 11 4" xfId="2007" xr:uid="{00000000-0005-0000-0000-0000A20C0000}"/>
+    <cellStyle name="Percentuale 11 4 2" xfId="2008" xr:uid="{00000000-0005-0000-0000-0000A30C0000}"/>
+    <cellStyle name="Percentuale 11 4 2 2" xfId="3810" xr:uid="{00000000-0005-0000-0000-0000A40C0000}"/>
+    <cellStyle name="Percentuale 11 4 3" xfId="3809" xr:uid="{00000000-0005-0000-0000-0000A50C0000}"/>
+    <cellStyle name="Percentuale 11 5" xfId="2009" xr:uid="{00000000-0005-0000-0000-0000A60C0000}"/>
+    <cellStyle name="Percentuale 11 6" xfId="3805" xr:uid="{00000000-0005-0000-0000-0000A70C0000}"/>
+    <cellStyle name="Percentuale 12" xfId="2010" xr:uid="{00000000-0005-0000-0000-0000A80C0000}"/>
+    <cellStyle name="Percentuale 12 2" xfId="2011" xr:uid="{00000000-0005-0000-0000-0000A90C0000}"/>
+    <cellStyle name="Percentuale 12 2 2" xfId="3812" xr:uid="{00000000-0005-0000-0000-0000AA0C0000}"/>
+    <cellStyle name="Percentuale 12 3" xfId="2012" xr:uid="{00000000-0005-0000-0000-0000AB0C0000}"/>
+    <cellStyle name="Percentuale 12 3 2" xfId="2013" xr:uid="{00000000-0005-0000-0000-0000AC0C0000}"/>
+    <cellStyle name="Percentuale 12 3 2 2" xfId="2014" xr:uid="{00000000-0005-0000-0000-0000AD0C0000}"/>
+    <cellStyle name="Percentuale 12 3 2 3" xfId="3814" xr:uid="{00000000-0005-0000-0000-0000AE0C0000}"/>
+    <cellStyle name="Percentuale 12 3 3" xfId="3813" xr:uid="{00000000-0005-0000-0000-0000AF0C0000}"/>
+    <cellStyle name="Percentuale 12 4" xfId="2015" xr:uid="{00000000-0005-0000-0000-0000B00C0000}"/>
+    <cellStyle name="Percentuale 12 4 2" xfId="2016" xr:uid="{00000000-0005-0000-0000-0000B10C0000}"/>
+    <cellStyle name="Percentuale 12 4 2 2" xfId="3816" xr:uid="{00000000-0005-0000-0000-0000B20C0000}"/>
+    <cellStyle name="Percentuale 12 4 3" xfId="3815" xr:uid="{00000000-0005-0000-0000-0000B30C0000}"/>
+    <cellStyle name="Percentuale 12 5" xfId="2017" xr:uid="{00000000-0005-0000-0000-0000B40C0000}"/>
+    <cellStyle name="Percentuale 12 6" xfId="3811" xr:uid="{00000000-0005-0000-0000-0000B50C0000}"/>
+    <cellStyle name="Percentuale 13" xfId="2018" xr:uid="{00000000-0005-0000-0000-0000B60C0000}"/>
+    <cellStyle name="Percentuale 13 2" xfId="2019" xr:uid="{00000000-0005-0000-0000-0000B70C0000}"/>
+    <cellStyle name="Percentuale 13 2 2" xfId="3818" xr:uid="{00000000-0005-0000-0000-0000B80C0000}"/>
+    <cellStyle name="Percentuale 13 3" xfId="2020" xr:uid="{00000000-0005-0000-0000-0000B90C0000}"/>
+    <cellStyle name="Percentuale 13 3 2" xfId="2021" xr:uid="{00000000-0005-0000-0000-0000BA0C0000}"/>
+    <cellStyle name="Percentuale 13 3 2 2" xfId="2022" xr:uid="{00000000-0005-0000-0000-0000BB0C0000}"/>
+    <cellStyle name="Percentuale 13 3 2 3" xfId="3820" xr:uid="{00000000-0005-0000-0000-0000BC0C0000}"/>
+    <cellStyle name="Percentuale 13 3 3" xfId="3819" xr:uid="{00000000-0005-0000-0000-0000BD0C0000}"/>
+    <cellStyle name="Percentuale 13 4" xfId="2023" xr:uid="{00000000-0005-0000-0000-0000BE0C0000}"/>
+    <cellStyle name="Percentuale 13 4 2" xfId="2024" xr:uid="{00000000-0005-0000-0000-0000BF0C0000}"/>
+    <cellStyle name="Percentuale 13 4 2 2" xfId="3822" xr:uid="{00000000-0005-0000-0000-0000C00C0000}"/>
+    <cellStyle name="Percentuale 13 4 3" xfId="3821" xr:uid="{00000000-0005-0000-0000-0000C10C0000}"/>
+    <cellStyle name="Percentuale 13 5" xfId="2025" xr:uid="{00000000-0005-0000-0000-0000C20C0000}"/>
+    <cellStyle name="Percentuale 13 6" xfId="3817" xr:uid="{00000000-0005-0000-0000-0000C30C0000}"/>
+    <cellStyle name="Percentuale 14" xfId="2026" xr:uid="{00000000-0005-0000-0000-0000C40C0000}"/>
+    <cellStyle name="Percentuale 14 2" xfId="2027" xr:uid="{00000000-0005-0000-0000-0000C50C0000}"/>
+    <cellStyle name="Percentuale 14 2 2" xfId="3824" xr:uid="{00000000-0005-0000-0000-0000C60C0000}"/>
+    <cellStyle name="Percentuale 14 3" xfId="2028" xr:uid="{00000000-0005-0000-0000-0000C70C0000}"/>
+    <cellStyle name="Percentuale 14 3 2" xfId="2029" xr:uid="{00000000-0005-0000-0000-0000C80C0000}"/>
+    <cellStyle name="Percentuale 14 3 2 2" xfId="2030" xr:uid="{00000000-0005-0000-0000-0000C90C0000}"/>
+    <cellStyle name="Percentuale 14 3 2 3" xfId="3826" xr:uid="{00000000-0005-0000-0000-0000CA0C0000}"/>
+    <cellStyle name="Percentuale 14 3 3" xfId="3825" xr:uid="{00000000-0005-0000-0000-0000CB0C0000}"/>
+    <cellStyle name="Percentuale 14 4" xfId="2031" xr:uid="{00000000-0005-0000-0000-0000CC0C0000}"/>
+    <cellStyle name="Percentuale 14 4 2" xfId="2032" xr:uid="{00000000-0005-0000-0000-0000CD0C0000}"/>
+    <cellStyle name="Percentuale 14 4 2 2" xfId="3828" xr:uid="{00000000-0005-0000-0000-0000CE0C0000}"/>
+    <cellStyle name="Percentuale 14 4 3" xfId="3827" xr:uid="{00000000-0005-0000-0000-0000CF0C0000}"/>
+    <cellStyle name="Percentuale 14 5" xfId="2033" xr:uid="{00000000-0005-0000-0000-0000D00C0000}"/>
+    <cellStyle name="Percentuale 14 6" xfId="3823" xr:uid="{00000000-0005-0000-0000-0000D10C0000}"/>
+    <cellStyle name="Percentuale 15" xfId="2034" xr:uid="{00000000-0005-0000-0000-0000D20C0000}"/>
+    <cellStyle name="Percentuale 15 2" xfId="2035" xr:uid="{00000000-0005-0000-0000-0000D30C0000}"/>
+    <cellStyle name="Percentuale 15 2 2" xfId="3830" xr:uid="{00000000-0005-0000-0000-0000D40C0000}"/>
+    <cellStyle name="Percentuale 15 3" xfId="2036" xr:uid="{00000000-0005-0000-0000-0000D50C0000}"/>
+    <cellStyle name="Percentuale 15 3 2" xfId="2037" xr:uid="{00000000-0005-0000-0000-0000D60C0000}"/>
+    <cellStyle name="Percentuale 15 3 2 2" xfId="2038" xr:uid="{00000000-0005-0000-0000-0000D70C0000}"/>
+    <cellStyle name="Percentuale 15 3 2 3" xfId="3832" xr:uid="{00000000-0005-0000-0000-0000D80C0000}"/>
+    <cellStyle name="Percentuale 15 3 3" xfId="3831" xr:uid="{00000000-0005-0000-0000-0000D90C0000}"/>
+    <cellStyle name="Percentuale 15 4" xfId="2039" xr:uid="{00000000-0005-0000-0000-0000DA0C0000}"/>
+    <cellStyle name="Percentuale 15 4 2" xfId="2040" xr:uid="{00000000-0005-0000-0000-0000DB0C0000}"/>
+    <cellStyle name="Percentuale 15 4 2 2" xfId="3834" xr:uid="{00000000-0005-0000-0000-0000DC0C0000}"/>
+    <cellStyle name="Percentuale 15 4 3" xfId="3833" xr:uid="{00000000-0005-0000-0000-0000DD0C0000}"/>
+    <cellStyle name="Percentuale 15 5" xfId="2041" xr:uid="{00000000-0005-0000-0000-0000DE0C0000}"/>
+    <cellStyle name="Percentuale 15 6" xfId="3829" xr:uid="{00000000-0005-0000-0000-0000DF0C0000}"/>
+    <cellStyle name="Percentuale 16" xfId="2042" xr:uid="{00000000-0005-0000-0000-0000E00C0000}"/>
+    <cellStyle name="Percentuale 16 2" xfId="2043" xr:uid="{00000000-0005-0000-0000-0000E10C0000}"/>
+    <cellStyle name="Percentuale 16 2 2" xfId="3836" xr:uid="{00000000-0005-0000-0000-0000E20C0000}"/>
+    <cellStyle name="Percentuale 16 3" xfId="2044" xr:uid="{00000000-0005-0000-0000-0000E30C0000}"/>
+    <cellStyle name="Percentuale 16 3 2" xfId="2045" xr:uid="{00000000-0005-0000-0000-0000E40C0000}"/>
+    <cellStyle name="Percentuale 16 3 2 2" xfId="2046" xr:uid="{00000000-0005-0000-0000-0000E50C0000}"/>
+    <cellStyle name="Percentuale 16 3 2 3" xfId="3838" xr:uid="{00000000-0005-0000-0000-0000E60C0000}"/>
+    <cellStyle name="Percentuale 16 3 3" xfId="3837" xr:uid="{00000000-0005-0000-0000-0000E70C0000}"/>
+    <cellStyle name="Percentuale 16 4" xfId="2047" xr:uid="{00000000-0005-0000-0000-0000E80C0000}"/>
+    <cellStyle name="Percentuale 16 4 2" xfId="2048" xr:uid="{00000000-0005-0000-0000-0000E90C0000}"/>
+    <cellStyle name="Percentuale 16 4 2 2" xfId="3840" xr:uid="{00000000-0005-0000-0000-0000EA0C0000}"/>
+    <cellStyle name="Percentuale 16 4 3" xfId="3839" xr:uid="{00000000-0005-0000-0000-0000EB0C0000}"/>
+    <cellStyle name="Percentuale 16 5" xfId="2049" xr:uid="{00000000-0005-0000-0000-0000EC0C0000}"/>
+    <cellStyle name="Percentuale 16 6" xfId="3835" xr:uid="{00000000-0005-0000-0000-0000ED0C0000}"/>
+    <cellStyle name="Percentuale 17" xfId="2050" xr:uid="{00000000-0005-0000-0000-0000EE0C0000}"/>
+    <cellStyle name="Percentuale 17 2" xfId="2051" xr:uid="{00000000-0005-0000-0000-0000EF0C0000}"/>
+    <cellStyle name="Percentuale 17 2 2" xfId="3842" xr:uid="{00000000-0005-0000-0000-0000F00C0000}"/>
+    <cellStyle name="Percentuale 17 3" xfId="2052" xr:uid="{00000000-0005-0000-0000-0000F10C0000}"/>
+    <cellStyle name="Percentuale 17 3 2" xfId="2053" xr:uid="{00000000-0005-0000-0000-0000F20C0000}"/>
+    <cellStyle name="Percentuale 17 3 2 2" xfId="2054" xr:uid="{00000000-0005-0000-0000-0000F30C0000}"/>
+    <cellStyle name="Percentuale 17 3 2 3" xfId="3844" xr:uid="{00000000-0005-0000-0000-0000F40C0000}"/>
+    <cellStyle name="Percentuale 17 3 3" xfId="3843" xr:uid="{00000000-0005-0000-0000-0000F50C0000}"/>
+    <cellStyle name="Percentuale 17 4" xfId="2055" xr:uid="{00000000-0005-0000-0000-0000F60C0000}"/>
+    <cellStyle name="Percentuale 17 4 2" xfId="2056" xr:uid="{00000000-0005-0000-0000-0000F70C0000}"/>
+    <cellStyle name="Percentuale 17 4 2 2" xfId="3846" xr:uid="{00000000-0005-0000-0000-0000F80C0000}"/>
+    <cellStyle name="Percentuale 17 4 3" xfId="3845" xr:uid="{00000000-0005-0000-0000-0000F90C0000}"/>
+    <cellStyle name="Percentuale 17 5" xfId="2057" xr:uid="{00000000-0005-0000-0000-0000FA0C0000}"/>
+    <cellStyle name="Percentuale 17 6" xfId="3841" xr:uid="{00000000-0005-0000-0000-0000FB0C0000}"/>
+    <cellStyle name="Percentuale 18" xfId="2058" xr:uid="{00000000-0005-0000-0000-0000FC0C0000}"/>
+    <cellStyle name="Percentuale 18 2" xfId="2059" xr:uid="{00000000-0005-0000-0000-0000FD0C0000}"/>
+    <cellStyle name="Percentuale 18 2 2" xfId="3848" xr:uid="{00000000-0005-0000-0000-0000FE0C0000}"/>
+    <cellStyle name="Percentuale 18 3" xfId="2060" xr:uid="{00000000-0005-0000-0000-0000FF0C0000}"/>
+    <cellStyle name="Percentuale 18 3 2" xfId="2061" xr:uid="{00000000-0005-0000-0000-0000000D0000}"/>
+    <cellStyle name="Percentuale 18 3 2 2" xfId="2062" xr:uid="{00000000-0005-0000-0000-0000010D0000}"/>
+    <cellStyle name="Percentuale 18 3 2 3" xfId="3850" xr:uid="{00000000-0005-0000-0000-0000020D0000}"/>
+    <cellStyle name="Percentuale 18 3 3" xfId="3849" xr:uid="{00000000-0005-0000-0000-0000030D0000}"/>
+    <cellStyle name="Percentuale 18 4" xfId="2063" xr:uid="{00000000-0005-0000-0000-0000040D0000}"/>
+    <cellStyle name="Percentuale 18 4 2" xfId="2064" xr:uid="{00000000-0005-0000-0000-0000050D0000}"/>
+    <cellStyle name="Percentuale 18 4 2 2" xfId="3852" xr:uid="{00000000-0005-0000-0000-0000060D0000}"/>
+    <cellStyle name="Percentuale 18 4 3" xfId="3851" xr:uid="{00000000-0005-0000-0000-0000070D0000}"/>
+    <cellStyle name="Percentuale 18 5" xfId="2065" xr:uid="{00000000-0005-0000-0000-0000080D0000}"/>
+    <cellStyle name="Percentuale 18 6" xfId="3847" xr:uid="{00000000-0005-0000-0000-0000090D0000}"/>
+    <cellStyle name="Percentuale 19" xfId="2066" xr:uid="{00000000-0005-0000-0000-00000A0D0000}"/>
+    <cellStyle name="Percentuale 19 2" xfId="2067" xr:uid="{00000000-0005-0000-0000-00000B0D0000}"/>
+    <cellStyle name="Percentuale 19 2 2" xfId="3854" xr:uid="{00000000-0005-0000-0000-00000C0D0000}"/>
+    <cellStyle name="Percentuale 19 3" xfId="2068" xr:uid="{00000000-0005-0000-0000-00000D0D0000}"/>
+    <cellStyle name="Percentuale 19 3 2" xfId="2069" xr:uid="{00000000-0005-0000-0000-00000E0D0000}"/>
+    <cellStyle name="Percentuale 19 3 2 2" xfId="2070" xr:uid="{00000000-0005-0000-0000-00000F0D0000}"/>
+    <cellStyle name="Percentuale 19 3 2 3" xfId="3856" xr:uid="{00000000-0005-0000-0000-0000100D0000}"/>
+    <cellStyle name="Percentuale 19 3 3" xfId="3855" xr:uid="{00000000-0005-0000-0000-0000110D0000}"/>
+    <cellStyle name="Percentuale 19 4" xfId="2071" xr:uid="{00000000-0005-0000-0000-0000120D0000}"/>
+    <cellStyle name="Percentuale 19 4 2" xfId="2072" xr:uid="{00000000-0005-0000-0000-0000130D0000}"/>
+    <cellStyle name="Percentuale 19 4 2 2" xfId="3858" xr:uid="{00000000-0005-0000-0000-0000140D0000}"/>
+    <cellStyle name="Percentuale 19 4 3" xfId="3857" xr:uid="{00000000-0005-0000-0000-0000150D0000}"/>
+    <cellStyle name="Percentuale 19 5" xfId="2073" xr:uid="{00000000-0005-0000-0000-0000160D0000}"/>
+    <cellStyle name="Percentuale 19 6" xfId="3853" xr:uid="{00000000-0005-0000-0000-0000170D0000}"/>
+    <cellStyle name="Percentuale 2" xfId="2074" xr:uid="{00000000-0005-0000-0000-0000180D0000}"/>
+    <cellStyle name="Percentuale 2 2" xfId="2075" xr:uid="{00000000-0005-0000-0000-0000190D0000}"/>
+    <cellStyle name="Percentuale 2 2 2" xfId="3860" xr:uid="{00000000-0005-0000-0000-00001A0D0000}"/>
+    <cellStyle name="Percentuale 2 3" xfId="2076" xr:uid="{00000000-0005-0000-0000-00001B0D0000}"/>
+    <cellStyle name="Percentuale 2 3 2" xfId="2077" xr:uid="{00000000-0005-0000-0000-00001C0D0000}"/>
+    <cellStyle name="Percentuale 2 3 2 2" xfId="2078" xr:uid="{00000000-0005-0000-0000-00001D0D0000}"/>
+    <cellStyle name="Percentuale 2 3 2 3" xfId="3862" xr:uid="{00000000-0005-0000-0000-00001E0D0000}"/>
+    <cellStyle name="Percentuale 2 3 3" xfId="3861" xr:uid="{00000000-0005-0000-0000-00001F0D0000}"/>
+    <cellStyle name="Percentuale 2 4" xfId="2079" xr:uid="{00000000-0005-0000-0000-0000200D0000}"/>
+    <cellStyle name="Percentuale 2 4 2" xfId="2080" xr:uid="{00000000-0005-0000-0000-0000210D0000}"/>
+    <cellStyle name="Percentuale 2 4 2 2" xfId="3864" xr:uid="{00000000-0005-0000-0000-0000220D0000}"/>
+    <cellStyle name="Percentuale 2 4 3" xfId="3863" xr:uid="{00000000-0005-0000-0000-0000230D0000}"/>
+    <cellStyle name="Percentuale 2 5" xfId="2081" xr:uid="{00000000-0005-0000-0000-0000240D0000}"/>
+    <cellStyle name="Percentuale 2 6" xfId="3859" xr:uid="{00000000-0005-0000-0000-0000250D0000}"/>
+    <cellStyle name="Percentuale 20" xfId="2082" xr:uid="{00000000-0005-0000-0000-0000260D0000}"/>
+    <cellStyle name="Percentuale 20 2" xfId="2083" xr:uid="{00000000-0005-0000-0000-0000270D0000}"/>
+    <cellStyle name="Percentuale 20 2 2" xfId="3866" xr:uid="{00000000-0005-0000-0000-0000280D0000}"/>
+    <cellStyle name="Percentuale 20 3" xfId="2084" xr:uid="{00000000-0005-0000-0000-0000290D0000}"/>
+    <cellStyle name="Percentuale 20 3 2" xfId="2085" xr:uid="{00000000-0005-0000-0000-00002A0D0000}"/>
+    <cellStyle name="Percentuale 20 3 2 2" xfId="2086" xr:uid="{00000000-0005-0000-0000-00002B0D0000}"/>
+    <cellStyle name="Percentuale 20 3 2 3" xfId="3868" xr:uid="{00000000-0005-0000-0000-00002C0D0000}"/>
+    <cellStyle name="Percentuale 20 3 3" xfId="3867" xr:uid="{00000000-0005-0000-0000-00002D0D0000}"/>
+    <cellStyle name="Percentuale 20 4" xfId="2087" xr:uid="{00000000-0005-0000-0000-00002E0D0000}"/>
+    <cellStyle name="Percentuale 20 4 2" xfId="2088" xr:uid="{00000000-0005-0000-0000-00002F0D0000}"/>
+    <cellStyle name="Percentuale 20 4 2 2" xfId="3870" xr:uid="{00000000-0005-0000-0000-0000300D0000}"/>
+    <cellStyle name="Percentuale 20 4 3" xfId="3869" xr:uid="{00000000-0005-0000-0000-0000310D0000}"/>
+    <cellStyle name="Percentuale 20 5" xfId="2089" xr:uid="{00000000-0005-0000-0000-0000320D0000}"/>
+    <cellStyle name="Percentuale 20 6" xfId="3865" xr:uid="{00000000-0005-0000-0000-0000330D0000}"/>
+    <cellStyle name="Percentuale 21" xfId="2090" xr:uid="{00000000-0005-0000-0000-0000340D0000}"/>
+    <cellStyle name="Percentuale 21 2" xfId="2091" xr:uid="{00000000-0005-0000-0000-0000350D0000}"/>
+    <cellStyle name="Percentuale 21 2 2" xfId="3872" xr:uid="{00000000-0005-0000-0000-0000360D0000}"/>
+    <cellStyle name="Percentuale 21 3" xfId="2092" xr:uid="{00000000-0005-0000-0000-0000370D0000}"/>
+    <cellStyle name="Percentuale 21 3 2" xfId="2093" xr:uid="{00000000-0005-0000-0000-0000380D0000}"/>
+    <cellStyle name="Percentuale 21 3 2 2" xfId="2094" xr:uid="{00000000-0005-0000-0000-0000390D0000}"/>
+    <cellStyle name="Percentuale 21 3 2 3" xfId="3874" xr:uid="{00000000-0005-0000-0000-00003A0D0000}"/>
+    <cellStyle name="Percentuale 21 3 3" xfId="3873" xr:uid="{00000000-0005-0000-0000-00003B0D0000}"/>
+    <cellStyle name="Percentuale 21 4" xfId="2095" xr:uid="{00000000-0005-0000-0000-00003C0D0000}"/>
+    <cellStyle name="Percentuale 21 4 2" xfId="2096" xr:uid="{00000000-0005-0000-0000-00003D0D0000}"/>
+    <cellStyle name="Percentuale 21 4 2 2" xfId="3876" xr:uid="{00000000-0005-0000-0000-00003E0D0000}"/>
+    <cellStyle name="Percentuale 21 4 3" xfId="3875" xr:uid="{00000000-0005-0000-0000-00003F0D0000}"/>
+    <cellStyle name="Percentuale 21 5" xfId="2097" xr:uid="{00000000-0005-0000-0000-0000400D0000}"/>
+    <cellStyle name="Percentuale 21 6" xfId="3871" xr:uid="{00000000-0005-0000-0000-0000410D0000}"/>
+    <cellStyle name="Percentuale 22" xfId="2098" xr:uid="{00000000-0005-0000-0000-0000420D0000}"/>
+    <cellStyle name="Percentuale 22 2" xfId="2099" xr:uid="{00000000-0005-0000-0000-0000430D0000}"/>
+    <cellStyle name="Percentuale 22 2 2" xfId="3878" xr:uid="{00000000-0005-0000-0000-0000440D0000}"/>
+    <cellStyle name="Percentuale 22 3" xfId="2100" xr:uid="{00000000-0005-0000-0000-0000450D0000}"/>
+    <cellStyle name="Percentuale 22 3 2" xfId="2101" xr:uid="{00000000-0005-0000-0000-0000460D0000}"/>
+    <cellStyle name="Percentuale 22 3 2 2" xfId="2102" xr:uid="{00000000-0005-0000-0000-0000470D0000}"/>
+    <cellStyle name="Percentuale 22 3 2 3" xfId="3880" xr:uid="{00000000-0005-0000-0000-0000480D0000}"/>
+    <cellStyle name="Percentuale 22 3 3" xfId="3879" xr:uid="{00000000-0005-0000-0000-0000490D0000}"/>
+    <cellStyle name="Percentuale 22 4" xfId="2103" xr:uid="{00000000-0005-0000-0000-00004A0D0000}"/>
+    <cellStyle name="Percentuale 22 4 2" xfId="2104" xr:uid="{00000000-0005-0000-0000-00004B0D0000}"/>
+    <cellStyle name="Percentuale 22 4 2 2" xfId="3882" xr:uid="{00000000-0005-0000-0000-00004C0D0000}"/>
+    <cellStyle name="Percentuale 22 4 3" xfId="3881" xr:uid="{00000000-0005-0000-0000-00004D0D0000}"/>
+    <cellStyle name="Percentuale 22 5" xfId="2105" xr:uid="{00000000-0005-0000-0000-00004E0D0000}"/>
+    <cellStyle name="Percentuale 22 6" xfId="3877" xr:uid="{00000000-0005-0000-0000-00004F0D0000}"/>
+    <cellStyle name="Percentuale 23" xfId="2106" xr:uid="{00000000-0005-0000-0000-0000500D0000}"/>
+    <cellStyle name="Percentuale 23 2" xfId="2107" xr:uid="{00000000-0005-0000-0000-0000510D0000}"/>
+    <cellStyle name="Percentuale 23 2 2" xfId="3884" xr:uid="{00000000-0005-0000-0000-0000520D0000}"/>
+    <cellStyle name="Percentuale 23 3" xfId="2108" xr:uid="{00000000-0005-0000-0000-0000530D0000}"/>
+    <cellStyle name="Percentuale 23 3 2" xfId="2109" xr:uid="{00000000-0005-0000-0000-0000540D0000}"/>
+    <cellStyle name="Percentuale 23 3 2 2" xfId="2110" xr:uid="{00000000-0005-0000-0000-0000550D0000}"/>
+    <cellStyle name="Percentuale 23 3 2 3" xfId="3886" xr:uid="{00000000-0005-0000-0000-0000560D0000}"/>
+    <cellStyle name="Percentuale 23 3 3" xfId="3885" xr:uid="{00000000-0005-0000-0000-0000570D0000}"/>
+    <cellStyle name="Percentuale 23 4" xfId="2111" xr:uid="{00000000-0005-0000-0000-0000580D0000}"/>
+    <cellStyle name="Percentuale 23 4 2" xfId="2112" xr:uid="{00000000-0005-0000-0000-0000590D0000}"/>
+    <cellStyle name="Percentuale 23 4 2 2" xfId="3888" xr:uid="{00000000-0005-0000-0000-00005A0D0000}"/>
+    <cellStyle name="Percentuale 23 4 3" xfId="3887" xr:uid="{00000000-0005-0000-0000-00005B0D0000}"/>
+    <cellStyle name="Percentuale 23 5" xfId="2113" xr:uid="{00000000-0005-0000-0000-00005C0D0000}"/>
+    <cellStyle name="Percentuale 23 6" xfId="3883" xr:uid="{00000000-0005-0000-0000-00005D0D0000}"/>
+    <cellStyle name="Percentuale 24" xfId="2114" xr:uid="{00000000-0005-0000-0000-00005E0D0000}"/>
+    <cellStyle name="Percentuale 24 2" xfId="2115" xr:uid="{00000000-0005-0000-0000-00005F0D0000}"/>
+    <cellStyle name="Percentuale 24 2 2" xfId="3890" xr:uid="{00000000-0005-0000-0000-0000600D0000}"/>
+    <cellStyle name="Percentuale 24 3" xfId="2116" xr:uid="{00000000-0005-0000-0000-0000610D0000}"/>
+    <cellStyle name="Percentuale 24 3 2" xfId="2117" xr:uid="{00000000-0005-0000-0000-0000620D0000}"/>
+    <cellStyle name="Percentuale 24 3 2 2" xfId="2118" xr:uid="{00000000-0005-0000-0000-0000630D0000}"/>
+    <cellStyle name="Percentuale 24 3 2 3" xfId="3892" xr:uid="{00000000-0005-0000-0000-0000640D0000}"/>
+    <cellStyle name="Percentuale 24 3 3" xfId="3891" xr:uid="{00000000-0005-0000-0000-0000650D0000}"/>
+    <cellStyle name="Percentuale 24 4" xfId="2119" xr:uid="{00000000-0005-0000-0000-0000660D0000}"/>
+    <cellStyle name="Percentuale 24 4 2" xfId="2120" xr:uid="{00000000-0005-0000-0000-0000670D0000}"/>
+    <cellStyle name="Percentuale 24 4 2 2" xfId="3894" xr:uid="{00000000-0005-0000-0000-0000680D0000}"/>
+    <cellStyle name="Percentuale 24 4 3" xfId="3893" xr:uid="{00000000-0005-0000-0000-0000690D0000}"/>
+    <cellStyle name="Percentuale 24 5" xfId="2121" xr:uid="{00000000-0005-0000-0000-00006A0D0000}"/>
+    <cellStyle name="Percentuale 24 6" xfId="3889" xr:uid="{00000000-0005-0000-0000-00006B0D0000}"/>
+    <cellStyle name="Percentuale 25" xfId="2122" xr:uid="{00000000-0005-0000-0000-00006C0D0000}"/>
+    <cellStyle name="Percentuale 25 2" xfId="2123" xr:uid="{00000000-0005-0000-0000-00006D0D0000}"/>
+    <cellStyle name="Percentuale 25 2 2" xfId="3896" xr:uid="{00000000-0005-0000-0000-00006E0D0000}"/>
+    <cellStyle name="Percentuale 25 3" xfId="2124" xr:uid="{00000000-0005-0000-0000-00006F0D0000}"/>
+    <cellStyle name="Percentuale 25 3 2" xfId="2125" xr:uid="{00000000-0005-0000-0000-0000700D0000}"/>
+    <cellStyle name="Percentuale 25 3 2 2" xfId="2126" xr:uid="{00000000-0005-0000-0000-0000710D0000}"/>
+    <cellStyle name="Percentuale 25 3 2 3" xfId="3898" xr:uid="{00000000-0005-0000-0000-0000720D0000}"/>
+    <cellStyle name="Percentuale 25 3 3" xfId="3897" xr:uid="{00000000-0005-0000-0000-0000730D0000}"/>
+    <cellStyle name="Percentuale 25 4" xfId="2127" xr:uid="{00000000-0005-0000-0000-0000740D0000}"/>
+    <cellStyle name="Percentuale 25 4 2" xfId="2128" xr:uid="{00000000-0005-0000-0000-0000750D0000}"/>
+    <cellStyle name="Percentuale 25 4 2 2" xfId="3900" xr:uid="{00000000-0005-0000-0000-0000760D0000}"/>
+    <cellStyle name="Percentuale 25 4 3" xfId="3899" xr:uid="{00000000-0005-0000-0000-0000770D0000}"/>
+    <cellStyle name="Percentuale 25 5" xfId="2129" xr:uid="{00000000-0005-0000-0000-0000780D0000}"/>
+    <cellStyle name="Percentuale 25 6" xfId="3895" xr:uid="{00000000-0005-0000-0000-0000790D0000}"/>
+    <cellStyle name="Percentuale 26" xfId="2130" xr:uid="{00000000-0005-0000-0000-00007A0D0000}"/>
+    <cellStyle name="Percentuale 26 2" xfId="2131" xr:uid="{00000000-0005-0000-0000-00007B0D0000}"/>
+    <cellStyle name="Percentuale 26 2 2" xfId="3902" xr:uid="{00000000-0005-0000-0000-00007C0D0000}"/>
+    <cellStyle name="Percentuale 26 3" xfId="2132" xr:uid="{00000000-0005-0000-0000-00007D0D0000}"/>
+    <cellStyle name="Percentuale 26 3 2" xfId="2133" xr:uid="{00000000-0005-0000-0000-00007E0D0000}"/>
+    <cellStyle name="Percentuale 26 3 2 2" xfId="2134" xr:uid="{00000000-0005-0000-0000-00007F0D0000}"/>
+    <cellStyle name="Percentuale 26 3 2 3" xfId="3904" xr:uid="{00000000-0005-0000-0000-0000800D0000}"/>
+    <cellStyle name="Percentuale 26 3 3" xfId="3903" xr:uid="{00000000-0005-0000-0000-0000810D0000}"/>
+    <cellStyle name="Percentuale 26 4" xfId="2135" xr:uid="{00000000-0005-0000-0000-0000820D0000}"/>
+    <cellStyle name="Percentuale 26 4 2" xfId="2136" xr:uid="{00000000-0005-0000-0000-0000830D0000}"/>
+    <cellStyle name="Percentuale 26 4 2 2" xfId="3906" xr:uid="{00000000-0005-0000-0000-0000840D0000}"/>
+    <cellStyle name="Percentuale 26 4 3" xfId="3905" xr:uid="{00000000-0005-0000-0000-0000850D0000}"/>
+    <cellStyle name="Percentuale 26 5" xfId="2137" xr:uid="{00000000-0005-0000-0000-0000860D0000}"/>
+    <cellStyle name="Percentuale 26 6" xfId="3901" xr:uid="{00000000-0005-0000-0000-0000870D0000}"/>
+    <cellStyle name="Percentuale 27" xfId="2138" xr:uid="{00000000-0005-0000-0000-0000880D0000}"/>
+    <cellStyle name="Percentuale 27 2" xfId="2139" xr:uid="{00000000-0005-0000-0000-0000890D0000}"/>
+    <cellStyle name="Percentuale 27 2 2" xfId="3908" xr:uid="{00000000-0005-0000-0000-00008A0D0000}"/>
+    <cellStyle name="Percentuale 27 3" xfId="2140" xr:uid="{00000000-0005-0000-0000-00008B0D0000}"/>
+    <cellStyle name="Percentuale 27 3 2" xfId="2141" xr:uid="{00000000-0005-0000-0000-00008C0D0000}"/>
+    <cellStyle name="Percentuale 27 3 2 2" xfId="2142" xr:uid="{00000000-0005-0000-0000-00008D0D0000}"/>
+    <cellStyle name="Percentuale 27 3 2 3" xfId="3910" xr:uid="{00000000-0005-0000-0000-00008E0D0000}"/>
+    <cellStyle name="Percentuale 27 3 3" xfId="3909" xr:uid="{00000000-0005-0000-0000-00008F0D0000}"/>
+    <cellStyle name="Percentuale 27 4" xfId="2143" xr:uid="{00000000-0005-0000-0000-0000900D0000}"/>
+    <cellStyle name="Percentuale 27 4 2" xfId="2144" xr:uid="{00000000-0005-0000-0000-0000910D0000}"/>
+    <cellStyle name="Percentuale 27 4 2 2" xfId="3912" xr:uid="{00000000-0005-0000-0000-0000920D0000}"/>
+    <cellStyle name="Percentuale 27 4 3" xfId="3911" xr:uid="{00000000-0005-0000-0000-0000930D0000}"/>
+    <cellStyle name="Percentuale 27 5" xfId="2145" xr:uid="{00000000-0005-0000-0000-0000940D0000}"/>
+    <cellStyle name="Percentuale 27 6" xfId="3907" xr:uid="{00000000-0005-0000-0000-0000950D0000}"/>
+    <cellStyle name="Percentuale 28" xfId="2146" xr:uid="{00000000-0005-0000-0000-0000960D0000}"/>
+    <cellStyle name="Percentuale 28 2" xfId="2147" xr:uid="{00000000-0005-0000-0000-0000970D0000}"/>
+    <cellStyle name="Percentuale 28 2 2" xfId="3914" xr:uid="{00000000-0005-0000-0000-0000980D0000}"/>
+    <cellStyle name="Percentuale 28 3" xfId="2148" xr:uid="{00000000-0005-0000-0000-0000990D0000}"/>
+    <cellStyle name="Percentuale 28 3 2" xfId="2149" xr:uid="{00000000-0005-0000-0000-00009A0D0000}"/>
+    <cellStyle name="Percentuale 28 3 2 2" xfId="2150" xr:uid="{00000000-0005-0000-0000-00009B0D0000}"/>
+    <cellStyle name="Percentuale 28 3 2 3" xfId="3916" xr:uid="{00000000-0005-0000-0000-00009C0D0000}"/>
+    <cellStyle name="Percentuale 28 3 3" xfId="3915" xr:uid="{00000000-0005-0000-0000-00009D0D0000}"/>
+    <cellStyle name="Percentuale 28 4" xfId="2151" xr:uid="{00000000-0005-0000-0000-00009E0D0000}"/>
+    <cellStyle name="Percentuale 28 4 2" xfId="2152" xr:uid="{00000000-0005-0000-0000-00009F0D0000}"/>
+    <cellStyle name="Percentuale 28 4 2 2" xfId="3918" xr:uid="{00000000-0005-0000-0000-0000A00D0000}"/>
+    <cellStyle name="Percentuale 28 4 3" xfId="3917" xr:uid="{00000000-0005-0000-0000-0000A10D0000}"/>
+    <cellStyle name="Percentuale 28 5" xfId="2153" xr:uid="{00000000-0005-0000-0000-0000A20D0000}"/>
+    <cellStyle name="Percentuale 28 6" xfId="3913" xr:uid="{00000000-0005-0000-0000-0000A30D0000}"/>
+    <cellStyle name="Percentuale 29" xfId="2154" xr:uid="{00000000-0005-0000-0000-0000A40D0000}"/>
+    <cellStyle name="Percentuale 29 2" xfId="2155" xr:uid="{00000000-0005-0000-0000-0000A50D0000}"/>
+    <cellStyle name="Percentuale 29 2 2" xfId="3920" xr:uid="{00000000-0005-0000-0000-0000A60D0000}"/>
+    <cellStyle name="Percentuale 29 3" xfId="2156" xr:uid="{00000000-0005-0000-0000-0000A70D0000}"/>
+    <cellStyle name="Percentuale 29 3 2" xfId="2157" xr:uid="{00000000-0005-0000-0000-0000A80D0000}"/>
+    <cellStyle name="Percentuale 29 3 2 2" xfId="2158" xr:uid="{00000000-0005-0000-0000-0000A90D0000}"/>
+    <cellStyle name="Percentuale 29 3 2 3" xfId="3922" xr:uid="{00000000-0005-0000-0000-0000AA0D0000}"/>
+    <cellStyle name="Percentuale 29 3 3" xfId="3921" xr:uid="{00000000-0005-0000-0000-0000AB0D0000}"/>
+    <cellStyle name="Percentuale 29 4" xfId="2159" xr:uid="{00000000-0005-0000-0000-0000AC0D0000}"/>
+    <cellStyle name="Percentuale 29 4 2" xfId="2160" xr:uid="{00000000-0005-0000-0000-0000AD0D0000}"/>
+    <cellStyle name="Percentuale 29 4 2 2" xfId="3924" xr:uid="{00000000-0005-0000-0000-0000AE0D0000}"/>
+    <cellStyle name="Percentuale 29 4 3" xfId="3923" xr:uid="{00000000-0005-0000-0000-0000AF0D0000}"/>
+    <cellStyle name="Percentuale 29 5" xfId="2161" xr:uid="{00000000-0005-0000-0000-0000B00D0000}"/>
+    <cellStyle name="Percentuale 29 6" xfId="3919" xr:uid="{00000000-0005-0000-0000-0000B10D0000}"/>
+    <cellStyle name="Percentuale 3" xfId="2162" xr:uid="{00000000-0005-0000-0000-0000B20D0000}"/>
+    <cellStyle name="Percentuale 3 2" xfId="2163" xr:uid="{00000000-0005-0000-0000-0000B30D0000}"/>
+    <cellStyle name="Percentuale 3 2 2" xfId="3926" xr:uid="{00000000-0005-0000-0000-0000B40D0000}"/>
+    <cellStyle name="Percentuale 3 3" xfId="2164" xr:uid="{00000000-0005-0000-0000-0000B50D0000}"/>
+    <cellStyle name="Percentuale 3 3 2" xfId="2165" xr:uid="{00000000-0005-0000-0000-0000B60D0000}"/>
+    <cellStyle name="Percentuale 3 3 2 2" xfId="2166" xr:uid="{00000000-0005-0000-0000-0000B70D0000}"/>
+    <cellStyle name="Percentuale 3 3 2 3" xfId="3928" xr:uid="{00000000-0005-0000-0000-0000B80D0000}"/>
+    <cellStyle name="Percentuale 3 3 3" xfId="3927" xr:uid="{00000000-0005-0000-0000-0000B90D0000}"/>
+    <cellStyle name="Percentuale 3 4" xfId="2167" xr:uid="{00000000-0005-0000-0000-0000BA0D0000}"/>
+    <cellStyle name="Percentuale 3 4 2" xfId="2168" xr:uid="{00000000-0005-0000-0000-0000BB0D0000}"/>
+    <cellStyle name="Percentuale 3 4 2 2" xfId="3930" xr:uid="{00000000-0005-0000-0000-0000BC0D0000}"/>
+    <cellStyle name="Percentuale 3 4 3" xfId="3929" xr:uid="{00000000-0005-0000-0000-0000BD0D0000}"/>
+    <cellStyle name="Percentuale 3 5" xfId="2169" xr:uid="{00000000-0005-0000-0000-0000BE0D0000}"/>
+    <cellStyle name="Percentuale 3 6" xfId="3925" xr:uid="{00000000-0005-0000-0000-0000BF0D0000}"/>
+    <cellStyle name="Percentuale 30" xfId="2170" xr:uid="{00000000-0005-0000-0000-0000C00D0000}"/>
+    <cellStyle name="Percentuale 30 2" xfId="2171" xr:uid="{00000000-0005-0000-0000-0000C10D0000}"/>
+    <cellStyle name="Percentuale 30 2 2" xfId="3932" xr:uid="{00000000-0005-0000-0000-0000C20D0000}"/>
+    <cellStyle name="Percentuale 30 3" xfId="2172" xr:uid="{00000000-0005-0000-0000-0000C30D0000}"/>
+    <cellStyle name="Percentuale 30 3 2" xfId="2173" xr:uid="{00000000-0005-0000-0000-0000C40D0000}"/>
+    <cellStyle name="Percentuale 30 3 2 2" xfId="2174" xr:uid="{00000000-0005-0000-0000-0000C50D0000}"/>
+    <cellStyle name="Percentuale 30 3 2 3" xfId="3934" xr:uid="{00000000-0005-0000-0000-0000C60D0000}"/>
+    <cellStyle name="Percentuale 30 3 3" xfId="3933" xr:uid="{00000000-0005-0000-0000-0000C70D0000}"/>
+    <cellStyle name="Percentuale 30 4" xfId="2175" xr:uid="{00000000-0005-0000-0000-0000C80D0000}"/>
+    <cellStyle name="Percentuale 30 4 2" xfId="2176" xr:uid="{00000000-0005-0000-0000-0000C90D0000}"/>
+    <cellStyle name="Percentuale 30 4 2 2" xfId="3936" xr:uid="{00000000-0005-0000-0000-0000CA0D0000}"/>
+    <cellStyle name="Percentuale 30 4 3" xfId="3935" xr:uid="{00000000-0005-0000-0000-0000CB0D0000}"/>
+    <cellStyle name="Percentuale 30 5" xfId="2177" xr:uid="{00000000-0005-0000-0000-0000CC0D0000}"/>
+    <cellStyle name="Percentuale 30 6" xfId="3931" xr:uid="{00000000-0005-0000-0000-0000CD0D0000}"/>
+    <cellStyle name="Percentuale 31" xfId="2178" xr:uid="{00000000-0005-0000-0000-0000CE0D0000}"/>
+    <cellStyle name="Percentuale 31 2" xfId="2179" xr:uid="{00000000-0005-0000-0000-0000CF0D0000}"/>
+    <cellStyle name="Percentuale 31 2 2" xfId="3938" xr:uid="{00000000-0005-0000-0000-0000D00D0000}"/>
+    <cellStyle name="Percentuale 31 3" xfId="2180" xr:uid="{00000000-0005-0000-0000-0000D10D0000}"/>
+    <cellStyle name="Percentuale 31 3 2" xfId="2181" xr:uid="{00000000-0005-0000-0000-0000D20D0000}"/>
+    <cellStyle name="Percentuale 31 3 2 2" xfId="2182" xr:uid="{00000000-0005-0000-0000-0000D30D0000}"/>
+    <cellStyle name="Percentuale 31 3 2 3" xfId="3940" xr:uid="{00000000-0005-0000-0000-0000D40D0000}"/>
+    <cellStyle name="Percentuale 31 3 3" xfId="3939" xr:uid="{00000000-0005-0000-0000-0000D50D0000}"/>
+    <cellStyle name="Percentuale 31 4" xfId="2183" xr:uid="{00000000-0005-0000-0000-0000D60D0000}"/>
+    <cellStyle name="Percentuale 31 4 2" xfId="2184" xr:uid="{00000000-0005-0000-0000-0000D70D0000}"/>
+    <cellStyle name="Percentuale 31 4 2 2" xfId="3942" xr:uid="{00000000-0005-0000-0000-0000D80D0000}"/>
+    <cellStyle name="Percentuale 31 4 3" xfId="3941" xr:uid="{00000000-0005-0000-0000-0000D90D0000}"/>
+    <cellStyle name="Percentuale 31 5" xfId="2185" xr:uid="{00000000-0005-0000-0000-0000DA0D0000}"/>
+    <cellStyle name="Percentuale 31 6" xfId="3937" xr:uid="{00000000-0005-0000-0000-0000DB0D0000}"/>
+    <cellStyle name="Percentuale 32" xfId="2186" xr:uid="{00000000-0005-0000-0000-0000DC0D0000}"/>
+    <cellStyle name="Percentuale 32 2" xfId="2187" xr:uid="{00000000-0005-0000-0000-0000DD0D0000}"/>
+    <cellStyle name="Percentuale 32 2 2" xfId="3944" xr:uid="{00000000-0005-0000-0000-0000DE0D0000}"/>
+    <cellStyle name="Percentuale 32 3" xfId="2188" xr:uid="{00000000-0005-0000-0000-0000DF0D0000}"/>
+    <cellStyle name="Percentuale 32 3 2" xfId="2189" xr:uid="{00000000-0005-0000-0000-0000E00D0000}"/>
+    <cellStyle name="Percentuale 32 3 2 2" xfId="2190" xr:uid="{00000000-0005-0000-0000-0000E10D0000}"/>
+    <cellStyle name="Percentuale 32 3 2 3" xfId="3946" xr:uid="{00000000-0005-0000-0000-0000E20D0000}"/>
+    <cellStyle name="Percentuale 32 3 3" xfId="3945" xr:uid="{00000000-0005-0000-0000-0000E30D0000}"/>
+    <cellStyle name="Percentuale 32 4" xfId="2191" xr:uid="{00000000-0005-0000-0000-0000E40D0000}"/>
+    <cellStyle name="Percentuale 32 4 2" xfId="2192" xr:uid="{00000000-0005-0000-0000-0000E50D0000}"/>
+    <cellStyle name="Percentuale 32 4 2 2" xfId="3948" xr:uid="{00000000-0005-0000-0000-0000E60D0000}"/>
+    <cellStyle name="Percentuale 32 4 3" xfId="3947" xr:uid="{00000000-0005-0000-0000-0000E70D0000}"/>
+    <cellStyle name="Percentuale 32 5" xfId="2193" xr:uid="{00000000-0005-0000-0000-0000E80D0000}"/>
+    <cellStyle name="Percentuale 32 6" xfId="3943" xr:uid="{00000000-0005-0000-0000-0000E90D0000}"/>
+    <cellStyle name="Percentuale 33" xfId="2194" xr:uid="{00000000-0005-0000-0000-0000EA0D0000}"/>
+    <cellStyle name="Percentuale 33 2" xfId="2195" xr:uid="{00000000-0005-0000-0000-0000EB0D0000}"/>
+    <cellStyle name="Percentuale 33 2 2" xfId="3950" xr:uid="{00000000-0005-0000-0000-0000EC0D0000}"/>
+    <cellStyle name="Percentuale 33 3" xfId="2196" xr:uid="{00000000-0005-0000-0000-0000ED0D0000}"/>
+    <cellStyle name="Percentuale 33 3 2" xfId="2197" xr:uid="{00000000-0005-0000-0000-0000EE0D0000}"/>
+    <cellStyle name="Percentuale 33 3 2 2" xfId="2198" xr:uid="{00000000-0005-0000-0000-0000EF0D0000}"/>
+    <cellStyle name="Percentuale 33 3 2 3" xfId="3952" xr:uid="{00000000-0005-0000-0000-0000F00D0000}"/>
+    <cellStyle name="Percentuale 33 3 3" xfId="3951" xr:uid="{00000000-0005-0000-0000-0000F10D0000}"/>
+    <cellStyle name="Percentuale 33 4" xfId="2199" xr:uid="{00000000-0005-0000-0000-0000F20D0000}"/>
+    <cellStyle name="Percentuale 33 4 2" xfId="2200" xr:uid="{00000000-0005-0000-0000-0000F30D0000}"/>
+    <cellStyle name="Percentuale 33 4 2 2" xfId="3954" xr:uid="{00000000-0005-0000-0000-0000F40D0000}"/>
+    <cellStyle name="Percentuale 33 4 3" xfId="3953" xr:uid="{00000000-0005-0000-0000-0000F50D0000}"/>
+    <cellStyle name="Percentuale 33 5" xfId="2201" xr:uid="{00000000-0005-0000-0000-0000F60D0000}"/>
+    <cellStyle name="Percentuale 33 6" xfId="3949" xr:uid="{00000000-0005-0000-0000-0000F70D0000}"/>
+    <cellStyle name="Percentuale 34" xfId="2202" xr:uid="{00000000-0005-0000-0000-0000F80D0000}"/>
+    <cellStyle name="Percentuale 34 2" xfId="2203" xr:uid="{00000000-0005-0000-0000-0000F90D0000}"/>
+    <cellStyle name="Percentuale 34 2 2" xfId="3956" xr:uid="{00000000-0005-0000-0000-0000FA0D0000}"/>
+    <cellStyle name="Percentuale 34 3" xfId="2204" xr:uid="{00000000-0005-0000-0000-0000FB0D0000}"/>
+    <cellStyle name="Percentuale 34 3 2" xfId="2205" xr:uid="{00000000-0005-0000-0000-0000FC0D0000}"/>
+    <cellStyle name="Percentuale 34 3 2 2" xfId="2206" xr:uid="{00000000-0005-0000-0000-0000FD0D0000}"/>
+    <cellStyle name="Percentuale 34 3 2 3" xfId="3958" xr:uid="{00000000-0005-0000-0000-0000FE0D0000}"/>
+    <cellStyle name="Percentuale 34 3 3" xfId="3957" xr:uid="{00000000-0005-0000-0000-0000FF0D0000}"/>
+    <cellStyle name="Percentuale 34 4" xfId="2207" xr:uid="{00000000-0005-0000-0000-0000000E0000}"/>
+    <cellStyle name="Percentuale 34 4 2" xfId="2208" xr:uid="{00000000-0005-0000-0000-0000010E0000}"/>
+    <cellStyle name="Percentuale 34 4 2 2" xfId="3960" xr:uid="{00000000-0005-0000-0000-0000020E0000}"/>
+    <cellStyle name="Percentuale 34 4 3" xfId="3959" xr:uid="{00000000-0005-0000-0000-0000030E0000}"/>
+    <cellStyle name="Percentuale 34 5" xfId="2209" xr:uid="{00000000-0005-0000-0000-0000040E0000}"/>
+    <cellStyle name="Percentuale 34 6" xfId="3955" xr:uid="{00000000-0005-0000-0000-0000050E0000}"/>
+    <cellStyle name="Percentuale 35" xfId="2210" xr:uid="{00000000-0005-0000-0000-0000060E0000}"/>
+    <cellStyle name="Percentuale 35 2" xfId="2211" xr:uid="{00000000-0005-0000-0000-0000070E0000}"/>
+    <cellStyle name="Percentuale 35 2 2" xfId="3962" xr:uid="{00000000-0005-0000-0000-0000080E0000}"/>
+    <cellStyle name="Percentuale 35 3" xfId="2212" xr:uid="{00000000-0005-0000-0000-0000090E0000}"/>
+    <cellStyle name="Percentuale 35 3 2" xfId="2213" xr:uid="{00000000-0005-0000-0000-00000A0E0000}"/>
+    <cellStyle name="Percentuale 35 3 2 2" xfId="2214" xr:uid="{00000000-0005-0000-0000-00000B0E0000}"/>
+    <cellStyle name="Percentuale 35 3 2 3" xfId="3964" xr:uid="{00000000-0005-0000-0000-00000C0E0000}"/>
+    <cellStyle name="Percentuale 35 3 3" xfId="3963" xr:uid="{00000000-0005-0000-0000-00000D0E0000}"/>
+    <cellStyle name="Percentuale 35 4" xfId="2215" xr:uid="{00000000-0005-0000-0000-00000E0E0000}"/>
+    <cellStyle name="Percentuale 35 4 2" xfId="2216" xr:uid="{00000000-0005-0000-0000-00000F0E0000}"/>
+    <cellStyle name="Percentuale 35 4 2 2" xfId="3966" xr:uid="{00000000-0005-0000-0000-0000100E0000}"/>
+    <cellStyle name="Percentuale 35 4 3" xfId="3965" xr:uid="{00000000-0005-0000-0000-0000110E0000}"/>
+    <cellStyle name="Percentuale 35 5" xfId="2217" xr:uid="{00000000-0005-0000-0000-0000120E0000}"/>
+    <cellStyle name="Percentuale 35 6" xfId="3961" xr:uid="{00000000-0005-0000-0000-0000130E0000}"/>
+    <cellStyle name="Percentuale 36" xfId="2218" xr:uid="{00000000-0005-0000-0000-0000140E0000}"/>
+    <cellStyle name="Percentuale 36 2" xfId="2219" xr:uid="{00000000-0005-0000-0000-0000150E0000}"/>
+    <cellStyle name="Percentuale 36 2 2" xfId="3968" xr:uid="{00000000-0005-0000-0000-0000160E0000}"/>
+    <cellStyle name="Percentuale 36 3" xfId="2220" xr:uid="{00000000-0005-0000-0000-0000170E0000}"/>
+    <cellStyle name="Percentuale 36 3 2" xfId="2221" xr:uid="{00000000-0005-0000-0000-0000180E0000}"/>
+    <cellStyle name="Percentuale 36 3 2 2" xfId="2222" xr:uid="{00000000-0005-0000-0000-0000190E0000}"/>
+    <cellStyle name="Percentuale 36 3 2 3" xfId="3970" xr:uid="{00000000-0005-0000-0000-00001A0E0000}"/>
+    <cellStyle name="Percentuale 36 3 3" xfId="3969" xr:uid="{00000000-0005-0000-0000-00001B0E0000}"/>
+    <cellStyle name="Percentuale 36 4" xfId="2223" xr:uid="{00000000-0005-0000-0000-00001C0E0000}"/>
+    <cellStyle name="Percentuale 36 4 2" xfId="2224" xr:uid="{00000000-0005-0000-0000-00001D0E0000}"/>
+    <cellStyle name="Percentuale 36 4 2 2" xfId="3972" xr:uid="{00000000-0005-0000-0000-00001E0E0000}"/>
+    <cellStyle name="Percentuale 36 4 3" xfId="3971" xr:uid="{00000000-0005-0000-0000-00001F0E0000}"/>
+    <cellStyle name="Percentuale 36 5" xfId="2225" xr:uid="{00000000-0005-0000-0000-0000200E0000}"/>
+    <cellStyle name="Percentuale 36 6" xfId="3967" xr:uid="{00000000-0005-0000-0000-0000210E0000}"/>
+    <cellStyle name="Percentuale 37" xfId="2226" xr:uid="{00000000-0005-0000-0000-0000220E0000}"/>
+    <cellStyle name="Percentuale 37 2" xfId="2227" xr:uid="{00000000-0005-0000-0000-0000230E0000}"/>
+    <cellStyle name="Percentuale 37 2 2" xfId="3974" xr:uid="{00000000-0005-0000-0000-0000240E0000}"/>
+    <cellStyle name="Percentuale 37 3" xfId="2228" xr:uid="{00000000-0005-0000-0000-0000250E0000}"/>
+    <cellStyle name="Percentuale 37 3 2" xfId="2229" xr:uid="{00000000-0005-0000-0000-0000260E0000}"/>
+    <cellStyle name="Percentuale 37 3 2 2" xfId="2230" xr:uid="{00000000-0005-0000-0000-0000270E0000}"/>
+    <cellStyle name="Percentuale 37 3 2 3" xfId="3976" xr:uid="{00000000-0005-0000-0000-0000280E0000}"/>
+    <cellStyle name="Percentuale 37 3 3" xfId="3975" xr:uid="{00000000-0005-0000-0000-0000290E0000}"/>
+    <cellStyle name="Percentuale 37 4" xfId="2231" xr:uid="{00000000-0005-0000-0000-00002A0E0000}"/>
+    <cellStyle name="Percentuale 37 4 2" xfId="2232" xr:uid="{00000000-0005-0000-0000-00002B0E0000}"/>
+    <cellStyle name="Percentuale 37 4 2 2" xfId="3978" xr:uid="{00000000-0005-0000-0000-00002C0E0000}"/>
+    <cellStyle name="Percentuale 37 4 3" xfId="3977" xr:uid="{00000000-0005-0000-0000-00002D0E0000}"/>
+    <cellStyle name="Percentuale 37 5" xfId="2233" xr:uid="{00000000-0005-0000-0000-00002E0E0000}"/>
+    <cellStyle name="Percentuale 37 6" xfId="3973" xr:uid="{00000000-0005-0000-0000-00002F0E0000}"/>
+    <cellStyle name="Percentuale 38" xfId="2234" xr:uid="{00000000-0005-0000-0000-0000300E0000}"/>
+    <cellStyle name="Percentuale 38 2" xfId="2235" xr:uid="{00000000-0005-0000-0000-0000310E0000}"/>
+    <cellStyle name="Percentuale 38 2 2" xfId="3980" xr:uid="{00000000-0005-0000-0000-0000320E0000}"/>
+    <cellStyle name="Percentuale 38 3" xfId="2236" xr:uid="{00000000-0005-0000-0000-0000330E0000}"/>
+    <cellStyle name="Percentuale 38 3 2" xfId="2237" xr:uid="{00000000-0005-0000-0000-0000340E0000}"/>
+    <cellStyle name="Percentuale 38 3 2 2" xfId="2238" xr:uid="{00000000-0005-0000-0000-0000350E0000}"/>
+    <cellStyle name="Percentuale 38 3 2 3" xfId="3982" xr:uid="{00000000-0005-0000-0000-0000360E0000}"/>
+    <cellStyle name="Percentuale 38 3 3" xfId="3981" xr:uid="{00000000-0005-0000-0000-0000370E0000}"/>
+    <cellStyle name="Percentuale 38 4" xfId="2239" xr:uid="{00000000-0005-0000-0000-0000380E0000}"/>
+    <cellStyle name="Percentuale 38 4 2" xfId="2240" xr:uid="{00000000-0005-0000-0000-0000390E0000}"/>
+    <cellStyle name="Percentuale 38 4 2 2" xfId="3984" xr:uid="{00000000-0005-0000-0000-00003A0E0000}"/>
+    <cellStyle name="Percentuale 38 4 3" xfId="3983" xr:uid="{00000000-0005-0000-0000-00003B0E0000}"/>
+    <cellStyle name="Percentuale 38 5" xfId="2241" xr:uid="{00000000-0005-0000-0000-00003C0E0000}"/>
+    <cellStyle name="Percentuale 38 6" xfId="3979" xr:uid="{00000000-0005-0000-0000-00003D0E0000}"/>
+    <cellStyle name="Percentuale 39" xfId="2242" xr:uid="{00000000-0005-0000-0000-00003E0E0000}"/>
+    <cellStyle name="Percentuale 39 2" xfId="2243" xr:uid="{00000000-0005-0000-0000-00003F0E0000}"/>
+    <cellStyle name="Percentuale 39 2 2" xfId="3986" xr:uid="{00000000-0005-0000-0000-0000400E0000}"/>
+    <cellStyle name="Percentuale 39 3" xfId="2244" xr:uid="{00000000-0005-0000-0000-0000410E0000}"/>
+    <cellStyle name="Percentuale 39 3 2" xfId="2245" xr:uid="{00000000-0005-0000-0000-0000420E0000}"/>
+    <cellStyle name="Percentuale 39 3 2 2" xfId="2246" xr:uid="{00000000-0005-0000-0000-0000430E0000}"/>
+    <cellStyle name="Percentuale 39 3 2 3" xfId="3988" xr:uid="{00000000-0005-0000-0000-0000440E0000}"/>
+    <cellStyle name="Percentuale 39 3 3" xfId="3987" xr:uid="{00000000-0005-0000-0000-0000450E0000}"/>
+    <cellStyle name="Percentuale 39 4" xfId="2247" xr:uid="{00000000-0005-0000-0000-0000460E0000}"/>
+    <cellStyle name="Percentuale 39 4 2" xfId="2248" xr:uid="{00000000-0005-0000-0000-0000470E0000}"/>
+    <cellStyle name="Percentuale 39 4 2 2" xfId="3990" xr:uid="{00000000-0005-0000-0000-0000480E0000}"/>
+    <cellStyle name="Percentuale 39 4 3" xfId="3989" xr:uid="{00000000-0005-0000-0000-0000490E0000}"/>
+    <cellStyle name="Percentuale 39 5" xfId="2249" xr:uid="{00000000-0005-0000-0000-00004A0E0000}"/>
+    <cellStyle name="Percentuale 39 6" xfId="3985" xr:uid="{00000000-0005-0000-0000-00004B0E0000}"/>
+    <cellStyle name="Percentuale 4" xfId="2250" xr:uid="{00000000-0005-0000-0000-00004C0E0000}"/>
+    <cellStyle name="Percentuale 4 2" xfId="2251" xr:uid="{00000000-0005-0000-0000-00004D0E0000}"/>
+    <cellStyle name="Percentuale 4 2 2" xfId="3992" xr:uid="{00000000-0005-0000-0000-00004E0E0000}"/>
+    <cellStyle name="Percentuale 4 3" xfId="2252" xr:uid="{00000000-0005-0000-0000-00004F0E0000}"/>
+    <cellStyle name="Percentuale 4 3 2" xfId="2253" xr:uid="{00000000-0005-0000-0000-0000500E0000}"/>
+    <cellStyle name="Percentuale 4 3 2 2" xfId="2254" xr:uid="{00000000-0005-0000-0000-0000510E0000}"/>
+    <cellStyle name="Percentuale 4 3 2 3" xfId="3994" xr:uid="{00000000-0005-0000-0000-0000520E0000}"/>
+    <cellStyle name="Percentuale 4 3 3" xfId="3993" xr:uid="{00000000-0005-0000-0000-0000530E0000}"/>
+    <cellStyle name="Percentuale 4 4" xfId="2255" xr:uid="{00000000-0005-0000-0000-0000540E0000}"/>
+    <cellStyle name="Percentuale 4 4 2" xfId="2256" xr:uid="{00000000-0005-0000-0000-0000550E0000}"/>
+    <cellStyle name="Percentuale 4 4 2 2" xfId="3996" xr:uid="{00000000-0005-0000-0000-0000560E0000}"/>
+    <cellStyle name="Percentuale 4 4 3" xfId="3995" xr:uid="{00000000-0005-0000-0000-0000570E0000}"/>
+    <cellStyle name="Percentuale 4 5" xfId="2257" xr:uid="{00000000-0005-0000-0000-0000580E0000}"/>
+    <cellStyle name="Percentuale 4 6" xfId="3991" xr:uid="{00000000-0005-0000-0000-0000590E0000}"/>
+    <cellStyle name="Percentuale 40" xfId="2258" xr:uid="{00000000-0005-0000-0000-00005A0E0000}"/>
+    <cellStyle name="Percentuale 40 2" xfId="2259" xr:uid="{00000000-0005-0000-0000-00005B0E0000}"/>
+    <cellStyle name="Percentuale 40 2 2" xfId="3998" xr:uid="{00000000-0005-0000-0000-00005C0E0000}"/>
+    <cellStyle name="Percentuale 40 3" xfId="2260" xr:uid="{00000000-0005-0000-0000-00005D0E0000}"/>
+    <cellStyle name="Percentuale 40 3 2" xfId="2261" xr:uid="{00000000-0005-0000-0000-00005E0E0000}"/>
+    <cellStyle name="Percentuale 40 3 2 2" xfId="2262" xr:uid="{00000000-0005-0000-0000-00005F0E0000}"/>
+    <cellStyle name="Percentuale 40 3 2 3" xfId="4000" xr:uid="{00000000-0005-0000-0000-0000600E0000}"/>
+    <cellStyle name="Percentuale 40 3 3" xfId="3999" xr:uid="{00000000-0005-0000-0000-0000610E0000}"/>
+    <cellStyle name="Percentuale 40 4" xfId="2263" xr:uid="{00000000-0005-0000-0000-0000620E0000}"/>
+    <cellStyle name="Percentuale 40 4 2" xfId="2264" xr:uid="{00000000-0005-0000-0000-0000630E0000}"/>
+    <cellStyle name="Percentuale 40 4 2 2" xfId="4002" xr:uid="{00000000-0005-0000-0000-0000640E0000}"/>
+    <cellStyle name="Percentuale 40 4 3" xfId="4001" xr:uid="{00000000-0005-0000-0000-0000650E0000}"/>
+    <cellStyle name="Percentuale 40 5" xfId="2265" xr:uid="{00000000-0005-0000-0000-0000660E0000}"/>
+    <cellStyle name="Percentuale 40 6" xfId="3997" xr:uid="{00000000-0005-0000-0000-0000670E0000}"/>
+    <cellStyle name="Percentuale 41" xfId="2266" xr:uid="{00000000-0005-0000-0000-0000680E0000}"/>
+    <cellStyle name="Percentuale 41 2" xfId="2267" xr:uid="{00000000-0005-0000-0000-0000690E0000}"/>
+    <cellStyle name="Percentuale 41 2 2" xfId="4004" xr:uid="{00000000-0005-0000-0000-00006A0E0000}"/>
+    <cellStyle name="Percentuale 41 3" xfId="2268" xr:uid="{00000000-0005-0000-0000-00006B0E0000}"/>
+    <cellStyle name="Percentuale 41 3 2" xfId="2269" xr:uid="{00000000-0005-0000-0000-00006C0E0000}"/>
+    <cellStyle name="Percentuale 41 3 2 2" xfId="2270" xr:uid="{00000000-0005-0000-0000-00006D0E0000}"/>
+    <cellStyle name="Percentuale 41 3 2 3" xfId="4006" xr:uid="{00000000-0005-0000-0000-00006E0E0000}"/>
+    <cellStyle name="Percentuale 41 3 3" xfId="4005" xr:uid="{00000000-0005-0000-0000-00006F0E0000}"/>
+    <cellStyle name="Percentuale 41 4" xfId="2271" xr:uid="{00000000-0005-0000-0000-0000700E0000}"/>
+    <cellStyle name="Percentuale 41 4 2" xfId="2272" xr:uid="{00000000-0005-0000-0000-0000710E0000}"/>
+    <cellStyle name="Percentuale 41 4 2 2" xfId="4008" xr:uid="{00000000-0005-0000-0000-0000720E0000}"/>
+    <cellStyle name="Percentuale 41 4 3" xfId="4007" xr:uid="{00000000-0005-0000-0000-0000730E0000}"/>
+    <cellStyle name="Percentuale 41 5" xfId="2273" xr:uid="{00000000-0005-0000-0000-0000740E0000}"/>
+    <cellStyle name="Percentuale 41 6" xfId="4003" xr:uid="{00000000-0005-0000-0000-0000750E0000}"/>
+    <cellStyle name="Percentuale 42" xfId="2274" xr:uid="{00000000-0005-0000-0000-0000760E0000}"/>
+    <cellStyle name="Percentuale 42 2" xfId="2275" xr:uid="{00000000-0005-0000-0000-0000770E0000}"/>
+    <cellStyle name="Percentuale 42 2 2" xfId="4010" xr:uid="{00000000-0005-0000-0000-0000780E0000}"/>
+    <cellStyle name="Percentuale 42 3" xfId="2276" xr:uid="{00000000-0005-0000-0000-0000790E0000}"/>
+    <cellStyle name="Percentuale 42 3 2" xfId="2277" xr:uid="{00000000-0005-0000-0000-00007A0E0000}"/>
+    <cellStyle name="Percentuale 42 3 2 2" xfId="2278" xr:uid="{00000000-0005-0000-0000-00007B0E0000}"/>
+    <cellStyle name="Percentuale 42 3 2 3" xfId="4012" xr:uid="{00000000-0005-0000-0000-00007C0E0000}"/>
+    <cellStyle name="Percentuale 42 3 3" xfId="4011" xr:uid="{00000000-0005-0000-0000-00007D0E0000}"/>
+    <cellStyle name="Percentuale 42 4" xfId="2279" xr:uid="{00000000-0005-0000-0000-00007E0E0000}"/>
+    <cellStyle name="Percentuale 42 4 2" xfId="2280" xr:uid="{00000000-0005-0000-0000-00007F0E0000}"/>
+    <cellStyle name="Percentuale 42 4 2 2" xfId="4014" xr:uid="{00000000-0005-0000-0000-0000800E0000}"/>
+    <cellStyle name="Percentuale 42 4 3" xfId="4013" xr:uid="{00000000-0005-0000-0000-0000810E0000}"/>
+    <cellStyle name="Percentuale 42 5" xfId="2281" xr:uid="{00000000-0005-0000-0000-0000820E0000}"/>
+    <cellStyle name="Percentuale 42 6" xfId="4009" xr:uid="{00000000-0005-0000-0000-0000830E0000}"/>
+    <cellStyle name="Percentuale 43" xfId="2282" xr:uid="{00000000-0005-0000-0000-0000840E0000}"/>
+    <cellStyle name="Percentuale 43 2" xfId="2283" xr:uid="{00000000-0005-0000-0000-0000850E0000}"/>
+    <cellStyle name="Percentuale 43 2 2" xfId="4016" xr:uid="{00000000-0005-0000-0000-0000860E0000}"/>
+    <cellStyle name="Percentuale 43 3" xfId="2284" xr:uid="{00000000-0005-0000-0000-0000870E0000}"/>
+    <cellStyle name="Percentuale 43 3 2" xfId="2285" xr:uid="{00000000-0005-0000-0000-0000880E0000}"/>
+    <cellStyle name="Percentuale 43 3 2 2" xfId="2286" xr:uid="{00000000-0005-0000-0000-0000890E0000}"/>
+    <cellStyle name="Percentuale 43 3 2 3" xfId="4018" xr:uid="{00000000-0005-0000-0000-00008A0E0000}"/>
+    <cellStyle name="Percentuale 43 3 3" xfId="4017" xr:uid="{00000000-0005-0000-0000-00008B0E0000}"/>
+    <cellStyle name="Percentuale 43 4" xfId="2287" xr:uid="{00000000-0005-0000-0000-00008C0E0000}"/>
+    <cellStyle name="Percentuale 43 4 2" xfId="2288" xr:uid="{00000000-0005-0000-0000-00008D0E0000}"/>
+    <cellStyle name="Percentuale 43 4 2 2" xfId="4020" xr:uid="{00000000-0005-0000-0000-00008E0E0000}"/>
+    <cellStyle name="Percentuale 43 4 3" xfId="4019" xr:uid="{00000000-0005-0000-0000-00008F0E0000}"/>
+    <cellStyle name="Percentuale 43 5" xfId="2289" xr:uid="{00000000-0005-0000-0000-0000900E0000}"/>
+    <cellStyle name="Percentuale 43 6" xfId="4015" xr:uid="{00000000-0005-0000-0000-0000910E0000}"/>
+    <cellStyle name="Percentuale 44" xfId="2290" xr:uid="{00000000-0005-0000-0000-0000920E0000}"/>
+    <cellStyle name="Percentuale 44 2" xfId="2291" xr:uid="{00000000-0005-0000-0000-0000930E0000}"/>
+    <cellStyle name="Percentuale 44 2 2" xfId="4022" xr:uid="{00000000-0005-0000-0000-0000940E0000}"/>
+    <cellStyle name="Percentuale 44 3" xfId="2292" xr:uid="{00000000-0005-0000-0000-0000950E0000}"/>
+    <cellStyle name="Percentuale 44 3 2" xfId="2293" xr:uid="{00000000-0005-0000-0000-0000960E0000}"/>
+    <cellStyle name="Percentuale 44 3 2 2" xfId="2294" xr:uid="{00000000-0005-0000-0000-0000970E0000}"/>
+    <cellStyle name="Percentuale 44 3 2 3" xfId="4024" xr:uid="{00000000-0005-0000-0000-0000980E0000}"/>
+    <cellStyle name="Percentuale 44 3 3" xfId="4023" xr:uid="{00000000-0005-0000-0000-0000990E0000}"/>
+    <cellStyle name="Percentuale 44 4" xfId="2295" xr:uid="{00000000-0005-0000-0000-00009A0E0000}"/>
+    <cellStyle name="Percentuale 44 4 2" xfId="2296" xr:uid="{00000000-0005-0000-0000-00009B0E0000}"/>
+    <cellStyle name="Percentuale 44 4 2 2" xfId="4026" xr:uid="{00000000-0005-0000-0000-00009C0E0000}"/>
+    <cellStyle name="Percentuale 44 4 3" xfId="4025" xr:uid="{00000000-0005-0000-0000-00009D0E0000}"/>
+    <cellStyle name="Percentuale 44 5" xfId="2297" xr:uid="{00000000-0005-0000-0000-00009E0E0000}"/>
+    <cellStyle name="Percentuale 44 6" xfId="4021" xr:uid="{00000000-0005-0000-0000-00009F0E0000}"/>
+    <cellStyle name="Percentuale 45" xfId="2298" xr:uid="{00000000-0005-0000-0000-0000A00E0000}"/>
+    <cellStyle name="Percentuale 45 2" xfId="2299" xr:uid="{00000000-0005-0000-0000-0000A10E0000}"/>
+    <cellStyle name="Percentuale 45 2 2" xfId="4028" xr:uid="{00000000-0005-0000-0000-0000A20E0000}"/>
+    <cellStyle name="Percentuale 45 3" xfId="2300" xr:uid="{00000000-0005-0000-0000-0000A30E0000}"/>
+    <cellStyle name="Percentuale 45 3 2" xfId="2301" xr:uid="{00000000-0005-0000-0000-0000A40E0000}"/>
+    <cellStyle name="Percentuale 45 3 2 2" xfId="2302" xr:uid="{00000000-0005-0000-0000-0000A50E0000}"/>
+    <cellStyle name="Percentuale 45 3 2 3" xfId="4030" xr:uid="{00000000-0005-0000-0000-0000A60E0000}"/>
+    <cellStyle name="Percentuale 45 3 3" xfId="4029" xr:uid="{00000000-0005-0000-0000-0000A70E0000}"/>
+    <cellStyle name="Percentuale 45 4" xfId="2303" xr:uid="{00000000-0005-0000-0000-0000A80E0000}"/>
+    <cellStyle name="Percentuale 45 4 2" xfId="2304" xr:uid="{00000000-0005-0000-0000-0000A90E0000}"/>
+    <cellStyle name="Percentuale 45 4 2 2" xfId="4032" xr:uid="{00000000-0005-0000-0000-0000AA0E0000}"/>
+    <cellStyle name="Percentuale 45 4 3" xfId="4031" xr:uid="{00000000-0005-0000-0000-0000AB0E0000}"/>
+    <cellStyle name="Percentuale 45 5" xfId="2305" xr:uid="{00000000-0005-0000-0000-0000AC0E0000}"/>
+    <cellStyle name="Percentuale 45 6" xfId="4027" xr:uid="{00000000-0005-0000-0000-0000AD0E0000}"/>
+    <cellStyle name="Percentuale 46" xfId="2306" xr:uid="{00000000-0005-0000-0000-0000AE0E0000}"/>
+    <cellStyle name="Percentuale 46 2" xfId="2307" xr:uid="{00000000-0005-0000-0000-0000AF0E0000}"/>
+    <cellStyle name="Percentuale 46 2 2" xfId="4034" xr:uid="{00000000-0005-0000-0000-0000B00E0000}"/>
+    <cellStyle name="Percentuale 46 3" xfId="2308" xr:uid="{00000000-0005-0000-0000-0000B10E0000}"/>
+    <cellStyle name="Percentuale 46 3 2" xfId="2309" xr:uid="{00000000-0005-0000-0000-0000B20E0000}"/>
+    <cellStyle name="Percentuale 46 3 2 2" xfId="2310" xr:uid="{00000000-0005-0000-0000-0000B30E0000}"/>
+    <cellStyle name="Percentuale 46 3 2 3" xfId="4036" xr:uid="{00000000-0005-0000-0000-0000B40E0000}"/>
+    <cellStyle name="Percentuale 46 3 3" xfId="4035" xr:uid="{00000000-0005-0000-0000-0000B50E0000}"/>
+    <cellStyle name="Percentuale 46 4" xfId="2311" xr:uid="{00000000-0005-0000-0000-0000B60E0000}"/>
+    <cellStyle name="Percentuale 46 4 2" xfId="2312" xr:uid="{00000000-0005-0000-0000-0000B70E0000}"/>
+    <cellStyle name="Percentuale 46 4 2 2" xfId="4038" xr:uid="{00000000-0005-0000-0000-0000B80E0000}"/>
+    <cellStyle name="Percentuale 46 4 3" xfId="4037" xr:uid="{00000000-0005-0000-0000-0000B90E0000}"/>
+    <cellStyle name="Percentuale 46 5" xfId="2313" xr:uid="{00000000-0005-0000-0000-0000BA0E0000}"/>
+    <cellStyle name="Percentuale 46 6" xfId="4033" xr:uid="{00000000-0005-0000-0000-0000BB0E0000}"/>
+    <cellStyle name="Percentuale 47" xfId="2314" xr:uid="{00000000-0005-0000-0000-0000BC0E0000}"/>
+    <cellStyle name="Percentuale 47 2" xfId="2315" xr:uid="{00000000-0005-0000-0000-0000BD0E0000}"/>
+    <cellStyle name="Percentuale 47 2 2" xfId="4040" xr:uid="{00000000-0005-0000-0000-0000BE0E0000}"/>
+    <cellStyle name="Percentuale 47 3" xfId="2316" xr:uid="{00000000-0005-0000-0000-0000BF0E0000}"/>
+    <cellStyle name="Percentuale 47 3 2" xfId="2317" xr:uid="{00000000-0005-0000-0000-0000C00E0000}"/>
+    <cellStyle name="Percentuale 47 3 2 2" xfId="2318" xr:uid="{00000000-0005-0000-0000-0000C10E0000}"/>
+    <cellStyle name="Percentuale 47 3 2 3" xfId="4042" xr:uid="{00000000-0005-0000-0000-0000C20E0000}"/>
+    <cellStyle name="Percentuale 47 3 3" xfId="4041" xr:uid="{00000000-0005-0000-0000-0000C30E0000}"/>
+    <cellStyle name="Percentuale 47 4" xfId="2319" xr:uid="{00000000-0005-0000-0000-0000C40E0000}"/>
+    <cellStyle name="Percentuale 47 4 2" xfId="2320" xr:uid="{00000000-0005-0000-0000-0000C50E0000}"/>
+    <cellStyle name="Percentuale 47 4 2 2" xfId="4044" xr:uid="{00000000-0005-0000-0000-0000C60E0000}"/>
+    <cellStyle name="Percentuale 47 4 3" xfId="4043" xr:uid="{00000000-0005-0000-0000-0000C70E0000}"/>
+    <cellStyle name="Percentuale 47 5" xfId="2321" xr:uid="{00000000-0005-0000-0000-0000C80E0000}"/>
+    <cellStyle name="Percentuale 47 6" xfId="4039" xr:uid="{00000000-0005-0000-0000-0000C90E0000}"/>
+    <cellStyle name="Percentuale 48" xfId="2322" xr:uid="{00000000-0005-0000-0000-0000CA0E0000}"/>
+    <cellStyle name="Percentuale 48 2" xfId="2323" xr:uid="{00000000-0005-0000-0000-0000CB0E0000}"/>
+    <cellStyle name="Percentuale 48 2 2" xfId="4046" xr:uid="{00000000-0005-0000-0000-0000CC0E0000}"/>
+    <cellStyle name="Percentuale 48 3" xfId="2324" xr:uid="{00000000-0005-0000-0000-0000CD0E0000}"/>
+    <cellStyle name="Percentuale 48 3 2" xfId="2325" xr:uid="{00000000-0005-0000-0000-0000CE0E0000}"/>
+    <cellStyle name="Percentuale 48 3 2 2" xfId="2326" xr:uid="{00000000-0005-0000-0000-0000CF0E0000}"/>
+    <cellStyle name="Percentuale 48 3 2 3" xfId="4048" xr:uid="{00000000-0005-0000-0000-0000D00E0000}"/>
+    <cellStyle name="Percentuale 48 3 3" xfId="4047" xr:uid="{00000000-0005-0000-0000-0000D10E0000}"/>
+    <cellStyle name="Percentuale 48 4" xfId="2327" xr:uid="{00000000-0005-0000-0000-0000D20E0000}"/>
+    <cellStyle name="Percentuale 48 4 2" xfId="2328" xr:uid="{00000000-0005-0000-0000-0000D30E0000}"/>
+    <cellStyle name="Percentuale 48 4 2 2" xfId="4050" xr:uid="{00000000-0005-0000-0000-0000D40E0000}"/>
+    <cellStyle name="Percentuale 48 4 3" xfId="4049" xr:uid="{00000000-0005-0000-0000-0000D50E0000}"/>
+    <cellStyle name="Percentuale 48 5" xfId="2329" xr:uid="{00000000-0005-0000-0000-0000D60E0000}"/>
+    <cellStyle name="Percentuale 48 6" xfId="4045" xr:uid="{00000000-0005-0000-0000-0000D70E0000}"/>
+    <cellStyle name="Percentuale 49" xfId="2330" xr:uid="{00000000-0005-0000-0000-0000D80E0000}"/>
+    <cellStyle name="Percentuale 49 2" xfId="2331" xr:uid="{00000000-0005-0000-0000-0000D90E0000}"/>
+    <cellStyle name="Percentuale 49 2 2" xfId="4052" xr:uid="{00000000-0005-0000-0000-0000DA0E0000}"/>
+    <cellStyle name="Percentuale 49 3" xfId="2332" xr:uid="{00000000-0005-0000-0000-0000DB0E0000}"/>
+    <cellStyle name="Percentuale 49 3 2" xfId="2333" xr:uid="{00000000-0005-0000-0000-0000DC0E0000}"/>
+    <cellStyle name="Percentuale 49 3 2 2" xfId="2334" xr:uid="{00000000-0005-0000-0000-0000DD0E0000}"/>
+    <cellStyle name="Percentuale 49 3 2 3" xfId="4054" xr:uid="{00000000-0005-0000-0000-0000DE0E0000}"/>
+    <cellStyle name="Percentuale 49 3 3" xfId="4053" xr:uid="{00000000-0005-0000-0000-0000DF0E0000}"/>
+    <cellStyle name="Percentuale 49 4" xfId="2335" xr:uid="{00000000-0005-0000-0000-0000E00E0000}"/>
+    <cellStyle name="Percentuale 49 4 2" xfId="2336" xr:uid="{00000000-0005-0000-0000-0000E10E0000}"/>
+    <cellStyle name="Percentuale 49 4 2 2" xfId="4056" xr:uid="{00000000-0005-0000-0000-0000E20E0000}"/>
+    <cellStyle name="Percentuale 49 4 3" xfId="4055" xr:uid="{00000000-0005-0000-0000-0000E30E0000}"/>
+    <cellStyle name="Percentuale 49 5" xfId="2337" xr:uid="{00000000-0005-0000-0000-0000E40E0000}"/>
+    <cellStyle name="Percentuale 49 6" xfId="4051" xr:uid="{00000000-0005-0000-0000-0000E50E0000}"/>
+    <cellStyle name="Percentuale 5" xfId="2338" xr:uid="{00000000-0005-0000-0000-0000E60E0000}"/>
+    <cellStyle name="Percentuale 5 2" xfId="2339" xr:uid="{00000000-0005-0000-0000-0000E70E0000}"/>
+    <cellStyle name="Percentuale 5 2 2" xfId="4058" xr:uid="{00000000-0005-0000-0000-0000E80E0000}"/>
+    <cellStyle name="Percentuale 5 3" xfId="2340" xr:uid="{00000000-0005-0000-0000-0000E90E0000}"/>
+    <cellStyle name="Percentuale 5 3 2" xfId="2341" xr:uid="{00000000-0005-0000-0000-0000EA0E0000}"/>
+    <cellStyle name="Percentuale 5 3 2 2" xfId="2342" xr:uid="{00000000-0005-0000-0000-0000EB0E0000}"/>
+    <cellStyle name="Percentuale 5 3 2 3" xfId="4060" xr:uid="{00000000-0005-0000-0000-0000EC0E0000}"/>
+    <cellStyle name="Percentuale 5 3 3" xfId="4059" xr:uid="{00000000-0005-0000-0000-0000ED0E0000}"/>
+    <cellStyle name="Percentuale 5 4" xfId="2343" xr:uid="{00000000-0005-0000-0000-0000EE0E0000}"/>
+    <cellStyle name="Percentuale 5 4 2" xfId="2344" xr:uid="{00000000-0005-0000-0000-0000EF0E0000}"/>
+    <cellStyle name="Percentuale 5 4 2 2" xfId="4062" xr:uid="{00000000-0005-0000-0000-0000F00E0000}"/>
+    <cellStyle name="Percentuale 5 4 3" xfId="4061" xr:uid="{00000000-0005-0000-0000-0000F10E0000}"/>
+    <cellStyle name="Percentuale 5 5" xfId="2345" xr:uid="{00000000-0005-0000-0000-0000F20E0000}"/>
+    <cellStyle name="Percentuale 5 6" xfId="4057" xr:uid="{00000000-0005-0000-0000-0000F30E0000}"/>
+    <cellStyle name="Percentuale 50" xfId="2346" xr:uid="{00000000-0005-0000-0000-0000F40E0000}"/>
+    <cellStyle name="Percentuale 50 2" xfId="2347" xr:uid="{00000000-0005-0000-0000-0000F50E0000}"/>
+    <cellStyle name="Percentuale 50 2 2" xfId="4064" xr:uid="{00000000-0005-0000-0000-0000F60E0000}"/>
+    <cellStyle name="Percentuale 50 3" xfId="2348" xr:uid="{00000000-0005-0000-0000-0000F70E0000}"/>
+    <cellStyle name="Percentuale 50 3 2" xfId="2349" xr:uid="{00000000-0005-0000-0000-0000F80E0000}"/>
+    <cellStyle name="Percentuale 50 3 2 2" xfId="2350" xr:uid="{00000000-0005-0000-0000-0000F90E0000}"/>
+    <cellStyle name="Percentuale 50 3 2 3" xfId="4066" xr:uid="{00000000-0005-0000-0000-0000FA0E0000}"/>
+    <cellStyle name="Percentuale 50 3 3" xfId="4065" xr:uid="{00000000-0005-0000-0000-0000FB0E0000}"/>
+    <cellStyle name="Percentuale 50 4" xfId="2351" xr:uid="{00000000-0005-0000-0000-0000FC0E0000}"/>
+    <cellStyle name="Percentuale 50 4 2" xfId="2352" xr:uid="{00000000-0005-0000-0000-0000FD0E0000}"/>
+    <cellStyle name="Percentuale 50 4 2 2" xfId="4068" xr:uid="{00000000-0005-0000-0000-0000FE0E0000}"/>
+    <cellStyle name="Percentuale 50 4 3" xfId="4067" xr:uid="{00000000-0005-0000-0000-0000FF0E0000}"/>
+    <cellStyle name="Percentuale 50 5" xfId="2353" xr:uid="{00000000-0005-0000-0000-0000000F0000}"/>
+    <cellStyle name="Percentuale 50 6" xfId="4063" xr:uid="{00000000-0005-0000-0000-0000010F0000}"/>
+    <cellStyle name="Percentuale 51" xfId="2354" xr:uid="{00000000-0005-0000-0000-0000020F0000}"/>
+    <cellStyle name="Percentuale 51 2" xfId="2355" xr:uid="{00000000-0005-0000-0000-0000030F0000}"/>
+    <cellStyle name="Percentuale 51 2 2" xfId="4070" xr:uid="{00000000-0005-0000-0000-0000040F0000}"/>
+    <cellStyle name="Percentuale 51 3" xfId="2356" xr:uid="{00000000-0005-0000-0000-0000050F0000}"/>
+    <cellStyle name="Percentuale 51 3 2" xfId="2357" xr:uid="{00000000-0005-0000-0000-0000060F0000}"/>
+    <cellStyle name="Percentuale 51 3 2 2" xfId="2358" xr:uid="{00000000-0005-0000-0000-0000070F0000}"/>
+    <cellStyle name="Percentuale 51 3 2 3" xfId="4072" xr:uid="{00000000-0005-0000-0000-0000080F0000}"/>
+    <cellStyle name="Percentuale 51 3 3" xfId="4071" xr:uid="{00000000-0005-0000-0000-0000090F0000}"/>
+    <cellStyle name="Percentuale 51 4" xfId="2359" xr:uid="{00000000-0005-0000-0000-00000A0F0000}"/>
+    <cellStyle name="Percentuale 51 4 2" xfId="2360" xr:uid="{00000000-0005-0000-0000-00000B0F0000}"/>
+    <cellStyle name="Percentuale 51 4 2 2" xfId="4074" xr:uid="{00000000-0005-0000-0000-00000C0F0000}"/>
+    <cellStyle name="Percentuale 51 4 3" xfId="4073" xr:uid="{00000000-0005-0000-0000-00000D0F0000}"/>
+    <cellStyle name="Percentuale 51 5" xfId="2361" xr:uid="{00000000-0005-0000-0000-00000E0F0000}"/>
+    <cellStyle name="Percentuale 51 6" xfId="4069" xr:uid="{00000000-0005-0000-0000-00000F0F0000}"/>
+    <cellStyle name="Percentuale 52" xfId="2362" xr:uid="{00000000-0005-0000-0000-0000100F0000}"/>
+    <cellStyle name="Percentuale 52 2" xfId="2363" xr:uid="{00000000-0005-0000-0000-0000110F0000}"/>
+    <cellStyle name="Percentuale 52 2 2" xfId="4076" xr:uid="{00000000-0005-0000-0000-0000120F0000}"/>
+    <cellStyle name="Percentuale 52 3" xfId="2364" xr:uid="{00000000-0005-0000-0000-0000130F0000}"/>
+    <cellStyle name="Percentuale 52 3 2" xfId="2365" xr:uid="{00000000-0005-0000-0000-0000140F0000}"/>
+    <cellStyle name="Percentuale 52 3 2 2" xfId="2366" xr:uid="{00000000-0005-0000-0000-0000150F0000}"/>
+    <cellStyle name="Percentuale 52 3 2 3" xfId="4078" xr:uid="{00000000-0005-0000-0000-0000160F0000}"/>
+    <cellStyle name="Percentuale 52 3 3" xfId="4077" xr:uid="{00000000-0005-0000-0000-0000170F0000}"/>
+    <cellStyle name="Percentuale 52 4" xfId="2367" xr:uid="{00000000-0005-0000-0000-0000180F0000}"/>
+    <cellStyle name="Percentuale 52 4 2" xfId="2368" xr:uid="{00000000-0005-0000-0000-0000190F0000}"/>
+    <cellStyle name="Percentuale 52 4 2 2" xfId="4080" xr:uid="{00000000-0005-0000-0000-00001A0F0000}"/>
+    <cellStyle name="Percentuale 52 4 3" xfId="4079" xr:uid="{00000000-0005-0000-0000-00001B0F0000}"/>
+    <cellStyle name="Percentuale 52 5" xfId="2369" xr:uid="{00000000-0005-0000-0000-00001C0F0000}"/>
+    <cellStyle name="Percentuale 52 6" xfId="4075" xr:uid="{00000000-0005-0000-0000-00001D0F0000}"/>
+    <cellStyle name="Percentuale 53" xfId="2370" xr:uid="{00000000-0005-0000-0000-00001E0F0000}"/>
+    <cellStyle name="Percentuale 53 2" xfId="2371" xr:uid="{00000000-0005-0000-0000-00001F0F0000}"/>
+    <cellStyle name="Percentuale 53 2 2" xfId="4082" xr:uid="{00000000-0005-0000-0000-0000200F0000}"/>
+    <cellStyle name="Percentuale 53 3" xfId="2372" xr:uid="{00000000-0005-0000-0000-0000210F0000}"/>
+    <cellStyle name="Percentuale 53 3 2" xfId="2373" xr:uid="{00000000-0005-0000-0000-0000220F0000}"/>
+    <cellStyle name="Percentuale 53 3 2 2" xfId="2374" xr:uid="{00000000-0005-0000-0000-0000230F0000}"/>
+    <cellStyle name="Percentuale 53 3 2 3" xfId="4084" xr:uid="{00000000-0005-0000-0000-0000240F0000}"/>
+    <cellStyle name="Percentuale 53 3 3" xfId="4083" xr:uid="{00000000-0005-0000-0000-0000250F0000}"/>
+    <cellStyle name="Percentuale 53 4" xfId="2375" xr:uid="{00000000-0005-0000-0000-0000260F0000}"/>
+    <cellStyle name="Percentuale 53 4 2" xfId="2376" xr:uid="{00000000-0005-0000-0000-0000270F0000}"/>
+    <cellStyle name="Percentuale 53 4 2 2" xfId="4086" xr:uid="{00000000-0005-0000-0000-0000280F0000}"/>
+    <cellStyle name="Percentuale 53 4 3" xfId="4085" xr:uid="{00000000-0005-0000-0000-0000290F0000}"/>
+    <cellStyle name="Percentuale 53 5" xfId="2377" xr:uid="{00000000-0005-0000-0000-00002A0F0000}"/>
+    <cellStyle name="Percentuale 53 6" xfId="4081" xr:uid="{00000000-0005-0000-0000-00002B0F0000}"/>
+    <cellStyle name="Percentuale 54" xfId="2378" xr:uid="{00000000-0005-0000-0000-00002C0F0000}"/>
+    <cellStyle name="Percentuale 54 2" xfId="2379" xr:uid="{00000000-0005-0000-0000-00002D0F0000}"/>
+    <cellStyle name="Percentuale 54 2 2" xfId="4088" xr:uid="{00000000-0005-0000-0000-00002E0F0000}"/>
+    <cellStyle name="Percentuale 54 3" xfId="2380" xr:uid="{00000000-0005-0000-0000-00002F0F0000}"/>
+    <cellStyle name="Percentuale 54 3 2" xfId="2381" xr:uid="{00000000-0005-0000-0000-0000300F0000}"/>
+    <cellStyle name="Percentuale 54 3 2 2" xfId="2382" xr:uid="{00000000-0005-0000-0000-0000310F0000}"/>
+    <cellStyle name="Percentuale 54 3 2 3" xfId="4090" xr:uid="{00000000-0005-0000-0000-0000320F0000}"/>
+    <cellStyle name="Percentuale 54 3 3" xfId="4089" xr:uid="{00000000-0005-0000-0000-0000330F0000}"/>
+    <cellStyle name="Percentuale 54 4" xfId="2383" xr:uid="{00000000-0005-0000-0000-0000340F0000}"/>
+    <cellStyle name="Percentuale 54 4 2" xfId="2384" xr:uid="{00000000-0005-0000-0000-0000350F0000}"/>
+    <cellStyle name="Percentuale 54 4 2 2" xfId="4092" xr:uid="{00000000-0005-0000-0000-0000360F0000}"/>
+    <cellStyle name="Percentuale 54 4 3" xfId="4091" xr:uid="{00000000-0005-0000-0000-0000370F0000}"/>
+    <cellStyle name="Percentuale 54 5" xfId="2385" xr:uid="{00000000-0005-0000-0000-0000380F0000}"/>
+    <cellStyle name="Percentuale 54 6" xfId="4087" xr:uid="{00000000-0005-0000-0000-0000390F0000}"/>
+    <cellStyle name="Percentuale 55" xfId="2386" xr:uid="{00000000-0005-0000-0000-00003A0F0000}"/>
+    <cellStyle name="Percentuale 55 2" xfId="2387" xr:uid="{00000000-0005-0000-0000-00003B0F0000}"/>
+    <cellStyle name="Percentuale 55 2 2" xfId="4094" xr:uid="{00000000-0005-0000-0000-00003C0F0000}"/>
+    <cellStyle name="Percentuale 55 3" xfId="2388" xr:uid="{00000000-0005-0000-0000-00003D0F0000}"/>
+    <cellStyle name="Percentuale 55 3 2" xfId="2389" xr:uid="{00000000-0005-0000-0000-00003E0F0000}"/>
+    <cellStyle name="Percentuale 55 3 2 2" xfId="2390" xr:uid="{00000000-0005-0000-0000-00003F0F0000}"/>
+    <cellStyle name="Percentuale 55 3 2 3" xfId="4096" xr:uid="{00000000-0005-0000-0000-0000400F0000}"/>
+    <cellStyle name="Percentuale 55 3 3" xfId="4095" xr:uid="{00000000-0005-0000-0000-0000410F0000}"/>
+    <cellStyle name="Percentuale 55 4" xfId="2391" xr:uid="{00000000-0005-0000-0000-0000420F0000}"/>
+    <cellStyle name="Percentuale 55 4 2" xfId="2392" xr:uid="{00000000-0005-0000-0000-0000430F0000}"/>
+    <cellStyle name="Percentuale 55 4 2 2" xfId="4098" xr:uid="{00000000-0005-0000-0000-0000440F0000}"/>
+    <cellStyle name="Percentuale 55 4 3" xfId="4097" xr:uid="{00000000-0005-0000-0000-0000450F0000}"/>
+    <cellStyle name="Percentuale 55 5" xfId="2393" xr:uid="{00000000-0005-0000-0000-0000460F0000}"/>
+    <cellStyle name="Percentuale 55 6" xfId="4093" xr:uid="{00000000-0005-0000-0000-0000470F0000}"/>
+    <cellStyle name="Percentuale 56" xfId="2394" xr:uid="{00000000-0005-0000-0000-0000480F0000}"/>
+    <cellStyle name="Percentuale 56 2" xfId="2395" xr:uid="{00000000-0005-0000-0000-0000490F0000}"/>
+    <cellStyle name="Percentuale 56 2 2" xfId="4100" xr:uid="{00000000-0005-0000-0000-00004A0F0000}"/>
+    <cellStyle name="Percentuale 56 3" xfId="2396" xr:uid="{00000000-0005-0000-0000-00004B0F0000}"/>
+    <cellStyle name="Percentuale 56 3 2" xfId="2397" xr:uid="{00000000-0005-0000-0000-00004C0F0000}"/>
+    <cellStyle name="Percentuale 56 3 2 2" xfId="2398" xr:uid="{00000000-0005-0000-0000-00004D0F0000}"/>
+    <cellStyle name="Percentuale 56 3 2 3" xfId="4102" xr:uid="{00000000-0005-0000-0000-00004E0F0000}"/>
+    <cellStyle name="Percentuale 56 3 3" xfId="4101" xr:uid="{00000000-0005-0000-0000-00004F0F0000}"/>
+    <cellStyle name="Percentuale 56 4" xfId="2399" xr:uid="{00000000-0005-0000-0000-0000500F0000}"/>
+    <cellStyle name="Percentuale 56 4 2" xfId="2400" xr:uid="{00000000-0005-0000-0000-0000510F0000}"/>
+    <cellStyle name="Percentuale 56 4 2 2" xfId="4104" xr:uid="{00000000-0005-0000-0000-0000520F0000}"/>
+    <cellStyle name="Percentuale 56 4 3" xfId="4103" xr:uid="{00000000-0005-0000-0000-0000530F0000}"/>
+    <cellStyle name="Percentuale 56 5" xfId="2401" xr:uid="{00000000-0005-0000-0000-0000540F0000}"/>
+    <cellStyle name="Percentuale 56 6" xfId="4099" xr:uid="{00000000-0005-0000-0000-0000550F0000}"/>
+    <cellStyle name="Percentuale 57" xfId="2402" xr:uid="{00000000-0005-0000-0000-0000560F0000}"/>
+    <cellStyle name="Percentuale 57 2" xfId="2403" xr:uid="{00000000-0005-0000-0000-0000570F0000}"/>
+    <cellStyle name="Percentuale 57 2 2" xfId="4106" xr:uid="{00000000-0005-0000-0000-0000580F0000}"/>
+    <cellStyle name="Percentuale 57 3" xfId="2404" xr:uid="{00000000-0005-0000-0000-0000590F0000}"/>
+    <cellStyle name="Percentuale 57 3 2" xfId="2405" xr:uid="{00000000-0005-0000-0000-00005A0F0000}"/>
+    <cellStyle name="Percentuale 57 3 2 2" xfId="2406" xr:uid="{00000000-0005-0000-0000-00005B0F0000}"/>
+    <cellStyle name="Percentuale 57 3 2 3" xfId="4108" xr:uid="{00000000-0005-0000-0000-00005C0F0000}"/>
+    <cellStyle name="Percentuale 57 3 3" xfId="4107" xr:uid="{00000000-0005-0000-0000-00005D0F0000}"/>
+    <cellStyle name="Percentuale 57 4" xfId="2407" xr:uid="{00000000-0005-0000-0000-00005E0F0000}"/>
+    <cellStyle name="Percentuale 57 4 2" xfId="2408" xr:uid="{00000000-0005-0000-0000-00005F0F0000}"/>
+    <cellStyle name="Percentuale 57 4 2 2" xfId="4110" xr:uid="{00000000-0005-0000-0000-0000600F0000}"/>
+    <cellStyle name="Percentuale 57 4 3" xfId="4109" xr:uid="{00000000-0005-0000-0000-0000610F0000}"/>
+    <cellStyle name="Percentuale 57 5" xfId="2409" xr:uid="{00000000-0005-0000-0000-0000620F0000}"/>
+    <cellStyle name="Percentuale 57 6" xfId="4105" xr:uid="{00000000-0005-0000-0000-0000630F0000}"/>
+    <cellStyle name="Percentuale 58" xfId="2410" xr:uid="{00000000-0005-0000-0000-0000640F0000}"/>
+    <cellStyle name="Percentuale 58 2" xfId="2411" xr:uid="{00000000-0005-0000-0000-0000650F0000}"/>
+    <cellStyle name="Percentuale 58 2 2" xfId="4112" xr:uid="{00000000-0005-0000-0000-0000660F0000}"/>
+    <cellStyle name="Percentuale 58 3" xfId="2412" xr:uid="{00000000-0005-0000-0000-0000670F0000}"/>
+    <cellStyle name="Percentuale 58 3 2" xfId="2413" xr:uid="{00000000-0005-0000-0000-0000680F0000}"/>
+    <cellStyle name="Percentuale 58 3 2 2" xfId="2414" xr:uid="{00000000-0005-0000-0000-0000690F0000}"/>
+    <cellStyle name="Percentuale 58 3 2 3" xfId="4114" xr:uid="{00000000-0005-0000-0000-00006A0F0000}"/>
+    <cellStyle name="Percentuale 58 3 3" xfId="4113" xr:uid="{00000000-0005-0000-0000-00006B0F0000}"/>
+    <cellStyle name="Percentuale 58 4" xfId="2415" xr:uid="{00000000-0005-0000-0000-00006C0F0000}"/>
+    <cellStyle name="Percentuale 58 4 2" xfId="2416" xr:uid="{00000000-0005-0000-0000-00006D0F0000}"/>
+    <cellStyle name="Percentuale 58 4 2 2" xfId="4116" xr:uid="{00000000-0005-0000-0000-00006E0F0000}"/>
+    <cellStyle name="Percentuale 58 4 3" xfId="4115" xr:uid="{00000000-0005-0000-0000-00006F0F0000}"/>
+    <cellStyle name="Percentuale 58 5" xfId="2417" xr:uid="{00000000-0005-0000-0000-0000700F0000}"/>
+    <cellStyle name="Percentuale 58 6" xfId="4111" xr:uid="{00000000-0005-0000-0000-0000710F0000}"/>
+    <cellStyle name="Percentuale 59" xfId="2418" xr:uid="{00000000-0005-0000-0000-0000720F0000}"/>
+    <cellStyle name="Percentuale 59 2" xfId="2419" xr:uid="{00000000-0005-0000-0000-0000730F0000}"/>
+    <cellStyle name="Percentuale 59 2 2" xfId="4118" xr:uid="{00000000-0005-0000-0000-0000740F0000}"/>
+    <cellStyle name="Percentuale 59 3" xfId="2420" xr:uid="{00000000-0005-0000-0000-0000750F0000}"/>
+    <cellStyle name="Percentuale 59 3 2" xfId="2421" xr:uid="{00000000-0005-0000-0000-0000760F0000}"/>
+    <cellStyle name="Percentuale 59 3 2 2" xfId="2422" xr:uid="{00000000-0005-0000-0000-0000770F0000}"/>
+    <cellStyle name="Percentuale 59 3 2 3" xfId="4120" xr:uid="{00000000-0005-0000-0000-0000780F0000}"/>
+    <cellStyle name="Percentuale 59 3 3" xfId="4119" xr:uid="{00000000-0005-0000-0000-0000790F0000}"/>
+    <cellStyle name="Percentuale 59 4" xfId="2423" xr:uid="{00000000-0005-0000-0000-00007A0F0000}"/>
+    <cellStyle name="Percentuale 59 4 2" xfId="2424" xr:uid="{00000000-0005-0000-0000-00007B0F0000}"/>
+    <cellStyle name="Percentuale 59 4 2 2" xfId="4122" xr:uid="{00000000-0005-0000-0000-00007C0F0000}"/>
+    <cellStyle name="Percentuale 59 4 3" xfId="4121" xr:uid="{00000000-0005-0000-0000-00007D0F0000}"/>
+    <cellStyle name="Percentuale 59 5" xfId="2425" xr:uid="{00000000-0005-0000-0000-00007E0F0000}"/>
+    <cellStyle name="Percentuale 59 6" xfId="4117" xr:uid="{00000000-0005-0000-0000-00007F0F0000}"/>
+    <cellStyle name="Percentuale 6" xfId="2426" xr:uid="{00000000-0005-0000-0000-0000800F0000}"/>
+    <cellStyle name="Percentuale 6 2" xfId="2427" xr:uid="{00000000-0005-0000-0000-0000810F0000}"/>
+    <cellStyle name="Percentuale 6 2 2" xfId="4124" xr:uid="{00000000-0005-0000-0000-0000820F0000}"/>
+    <cellStyle name="Percentuale 6 3" xfId="2428" xr:uid="{00000000-0005-0000-0000-0000830F0000}"/>
+    <cellStyle name="Percentuale 6 3 2" xfId="2429" xr:uid="{00000000-0005-0000-0000-0000840F0000}"/>
+    <cellStyle name="Percentuale 6 3 2 2" xfId="2430" xr:uid="{00000000-0005-0000-0000-0000850F0000}"/>
+    <cellStyle name="Percentuale 6 3 2 3" xfId="4126" xr:uid="{00000000-0005-0000-0000-0000860F0000}"/>
+    <cellStyle name="Percentuale 6 3 3" xfId="4125" xr:uid="{00000000-0005-0000-0000-0000870F0000}"/>
+    <cellStyle name="Percentuale 6 4" xfId="2431" xr:uid="{00000000-0005-0000-0000-0000880F0000}"/>
+    <cellStyle name="Percentuale 6 4 2" xfId="2432" xr:uid="{00000000-0005-0000-0000-0000890F0000}"/>
+    <cellStyle name="Percentuale 6 4 2 2" xfId="4128" xr:uid="{00000000-0005-0000-0000-00008A0F0000}"/>
+    <cellStyle name="Percentuale 6 4 3" xfId="4127" xr:uid="{00000000-0005-0000-0000-00008B0F0000}"/>
+    <cellStyle name="Percentuale 6 5" xfId="2433" xr:uid="{00000000-0005-0000-0000-00008C0F0000}"/>
+    <cellStyle name="Percentuale 6 6" xfId="4123" xr:uid="{00000000-0005-0000-0000-00008D0F0000}"/>
+    <cellStyle name="Percentuale 60" xfId="2434" xr:uid="{00000000-0005-0000-0000-00008E0F0000}"/>
+    <cellStyle name="Percentuale 60 2" xfId="2435" xr:uid="{00000000-0005-0000-0000-00008F0F0000}"/>
+    <cellStyle name="Percentuale 60 2 2" xfId="4130" xr:uid="{00000000-0005-0000-0000-0000900F0000}"/>
+    <cellStyle name="Percentuale 60 3" xfId="2436" xr:uid="{00000000-0005-0000-0000-0000910F0000}"/>
+    <cellStyle name="Percentuale 60 3 2" xfId="2437" xr:uid="{00000000-0005-0000-0000-0000920F0000}"/>
+    <cellStyle name="Percentuale 60 3 2 2" xfId="2438" xr:uid="{00000000-0005-0000-0000-0000930F0000}"/>
+    <cellStyle name="Percentuale 60 3 2 3" xfId="4132" xr:uid="{00000000-0005-0000-0000-0000940F0000}"/>
+    <cellStyle name="Percentuale 60 3 3" xfId="4131" xr:uid="{00000000-0005-0000-0000-0000950F0000}"/>
+    <cellStyle name="Percentuale 60 4" xfId="2439" xr:uid="{00000000-0005-0000-0000-0000960F0000}"/>
+    <cellStyle name="Percentuale 60 4 2" xfId="2440" xr:uid="{00000000-0005-0000-0000-0000970F0000}"/>
+    <cellStyle name="Percentuale 60 4 2 2" xfId="4134" xr:uid="{00000000-0005-0000-0000-0000980F0000}"/>
+    <cellStyle name="Percentuale 60 4 3" xfId="4133" xr:uid="{00000000-0005-0000-0000-0000990F0000}"/>
+    <cellStyle name="Percentuale 60 5" xfId="2441" xr:uid="{00000000-0005-0000-0000-00009A0F0000}"/>
+    <cellStyle name="Percentuale 60 6" xfId="4129" xr:uid="{00000000-0005-0000-0000-00009B0F0000}"/>
+    <cellStyle name="Percentuale 61" xfId="2442" xr:uid="{00000000-0005-0000-0000-00009C0F0000}"/>
+    <cellStyle name="Percentuale 61 2" xfId="2443" xr:uid="{00000000-0005-0000-0000-00009D0F0000}"/>
+    <cellStyle name="Percentuale 61 2 2" xfId="4136" xr:uid="{00000000-0005-0000-0000-00009E0F0000}"/>
+    <cellStyle name="Percentuale 61 3" xfId="2444" xr:uid="{00000000-0005-0000-0000-00009F0F0000}"/>
+    <cellStyle name="Percentuale 61 3 2" xfId="2445" xr:uid="{00000000-0005-0000-0000-0000A00F0000}"/>
+    <cellStyle name="Percentuale 61 3 2 2" xfId="2446" xr:uid="{00000000-0005-0000-0000-0000A10F0000}"/>
+    <cellStyle name="Percentuale 61 3 2 3" xfId="4138" xr:uid="{00000000-0005-0000-0000-0000A20F0000}"/>
+    <cellStyle name="Percentuale 61 3 3" xfId="4137" xr:uid="{00000000-0005-0000-0000-0000A30F0000}"/>
+    <cellStyle name="Percentuale 61 4" xfId="2447" xr:uid="{00000000-0005-0000-0000-0000A40F0000}"/>
+    <cellStyle name="Percentuale 61 4 2" xfId="2448" xr:uid="{00000000-0005-0000-0000-0000A50F0000}"/>
+    <cellStyle name="Percentuale 61 4 2 2" xfId="4140" xr:uid="{00000000-0005-0000-0000-0000A60F0000}"/>
+    <cellStyle name="Percentuale 61 4 3" xfId="4139" xr:uid="{00000000-0005-0000-0000-0000A70F0000}"/>
+    <cellStyle name="Percentuale 61 5" xfId="2449" xr:uid="{00000000-0005-0000-0000-0000A80F0000}"/>
+    <cellStyle name="Percentuale 61 6" xfId="4135" xr:uid="{00000000-0005-0000-0000-0000A90F0000}"/>
+    <cellStyle name="Percentuale 62" xfId="2450" xr:uid="{00000000-0005-0000-0000-0000AA0F0000}"/>
+    <cellStyle name="Percentuale 62 2" xfId="2451" xr:uid="{00000000-0005-0000-0000-0000AB0F0000}"/>
+    <cellStyle name="Percentuale 62 2 2" xfId="4142" xr:uid="{00000000-0005-0000-0000-0000AC0F0000}"/>
+    <cellStyle name="Percentuale 62 3" xfId="4141" xr:uid="{00000000-0005-0000-0000-0000AD0F0000}"/>
+    <cellStyle name="Percentuale 63" xfId="2452" xr:uid="{00000000-0005-0000-0000-0000AE0F0000}"/>
+    <cellStyle name="Percentuale 63 2" xfId="2453" xr:uid="{00000000-0005-0000-0000-0000AF0F0000}"/>
+    <cellStyle name="Percentuale 63 2 2" xfId="4144" xr:uid="{00000000-0005-0000-0000-0000B00F0000}"/>
+    <cellStyle name="Percentuale 63 3" xfId="4143" xr:uid="{00000000-0005-0000-0000-0000B10F0000}"/>
+    <cellStyle name="Percentuale 64" xfId="2454" xr:uid="{00000000-0005-0000-0000-0000B20F0000}"/>
+    <cellStyle name="Percentuale 64 2" xfId="2455" xr:uid="{00000000-0005-0000-0000-0000B30F0000}"/>
+    <cellStyle name="Percentuale 64 2 2" xfId="4146" xr:uid="{00000000-0005-0000-0000-0000B40F0000}"/>
+    <cellStyle name="Percentuale 64 3" xfId="4145" xr:uid="{00000000-0005-0000-0000-0000B50F0000}"/>
+    <cellStyle name="Percentuale 65" xfId="2456" xr:uid="{00000000-0005-0000-0000-0000B60F0000}"/>
+    <cellStyle name="Percentuale 65 2" xfId="2457" xr:uid="{00000000-0005-0000-0000-0000B70F0000}"/>
+    <cellStyle name="Percentuale 65 2 2" xfId="4148" xr:uid="{00000000-0005-0000-0000-0000B80F0000}"/>
+    <cellStyle name="Percentuale 65 3" xfId="4147" xr:uid="{00000000-0005-0000-0000-0000B90F0000}"/>
+    <cellStyle name="Percentuale 66" xfId="2458" xr:uid="{00000000-0005-0000-0000-0000BA0F0000}"/>
+    <cellStyle name="Percentuale 66 2" xfId="2459" xr:uid="{00000000-0005-0000-0000-0000BB0F0000}"/>
+    <cellStyle name="Percentuale 66 2 2" xfId="4150" xr:uid="{00000000-0005-0000-0000-0000BC0F0000}"/>
+    <cellStyle name="Percentuale 66 3" xfId="4149" xr:uid="{00000000-0005-0000-0000-0000BD0F0000}"/>
+    <cellStyle name="Percentuale 67" xfId="2460" xr:uid="{00000000-0005-0000-0000-0000BE0F0000}"/>
+    <cellStyle name="Percentuale 67 2" xfId="2461" xr:uid="{00000000-0005-0000-0000-0000BF0F0000}"/>
+    <cellStyle name="Percentuale 67 2 2" xfId="4152" xr:uid="{00000000-0005-0000-0000-0000C00F0000}"/>
+    <cellStyle name="Percentuale 67 3" xfId="4151" xr:uid="{00000000-0005-0000-0000-0000C10F0000}"/>
+    <cellStyle name="Percentuale 68" xfId="2462" xr:uid="{00000000-0005-0000-0000-0000C20F0000}"/>
+    <cellStyle name="Percentuale 68 2" xfId="2463" xr:uid="{00000000-0005-0000-0000-0000C30F0000}"/>
+    <cellStyle name="Percentuale 68 2 2" xfId="4154" xr:uid="{00000000-0005-0000-0000-0000C40F0000}"/>
+    <cellStyle name="Percentuale 68 3" xfId="2464" xr:uid="{00000000-0005-0000-0000-0000C50F0000}"/>
+    <cellStyle name="Percentuale 68 3 2" xfId="2465" xr:uid="{00000000-0005-0000-0000-0000C60F0000}"/>
+    <cellStyle name="Percentuale 68 3 2 2" xfId="2466" xr:uid="{00000000-0005-0000-0000-0000C70F0000}"/>
+    <cellStyle name="Percentuale 68 3 2 3" xfId="4156" xr:uid="{00000000-0005-0000-0000-0000C80F0000}"/>
+    <cellStyle name="Percentuale 68 3 3" xfId="4155" xr:uid="{00000000-0005-0000-0000-0000C90F0000}"/>
+    <cellStyle name="Percentuale 68 4" xfId="2467" xr:uid="{00000000-0005-0000-0000-0000CA0F0000}"/>
+    <cellStyle name="Percentuale 68 4 2" xfId="2468" xr:uid="{00000000-0005-0000-0000-0000CB0F0000}"/>
+    <cellStyle name="Percentuale 68 4 2 2" xfId="4158" xr:uid="{00000000-0005-0000-0000-0000CC0F0000}"/>
+    <cellStyle name="Percentuale 68 4 3" xfId="4157" xr:uid="{00000000-0005-0000-0000-0000CD0F0000}"/>
+    <cellStyle name="Percentuale 68 5" xfId="2469" xr:uid="{00000000-0005-0000-0000-0000CE0F0000}"/>
+    <cellStyle name="Percentuale 68 6" xfId="4153" xr:uid="{00000000-0005-0000-0000-0000CF0F0000}"/>
+    <cellStyle name="Percentuale 69" xfId="2470" xr:uid="{00000000-0005-0000-0000-0000D00F0000}"/>
+    <cellStyle name="Percentuale 69 2" xfId="2471" xr:uid="{00000000-0005-0000-0000-0000D10F0000}"/>
+    <cellStyle name="Percentuale 69 2 2" xfId="4160" xr:uid="{00000000-0005-0000-0000-0000D20F0000}"/>
+    <cellStyle name="Percentuale 69 3" xfId="2472" xr:uid="{00000000-0005-0000-0000-0000D30F0000}"/>
+    <cellStyle name="Percentuale 69 3 2" xfId="2473" xr:uid="{00000000-0005-0000-0000-0000D40F0000}"/>
+    <cellStyle name="Percentuale 69 3 2 2" xfId="2474" xr:uid="{00000000-0005-0000-0000-0000D50F0000}"/>
+    <cellStyle name="Percentuale 69 3 2 3" xfId="4162" xr:uid="{00000000-0005-0000-0000-0000D60F0000}"/>
+    <cellStyle name="Percentuale 69 3 3" xfId="4161" xr:uid="{00000000-0005-0000-0000-0000D70F0000}"/>
+    <cellStyle name="Percentuale 69 4" xfId="2475" xr:uid="{00000000-0005-0000-0000-0000D80F0000}"/>
+    <cellStyle name="Percentuale 69 4 2" xfId="2476" xr:uid="{00000000-0005-0000-0000-0000D90F0000}"/>
+    <cellStyle name="Percentuale 69 4 2 2" xfId="4164" xr:uid="{00000000-0005-0000-0000-0000DA0F0000}"/>
+    <cellStyle name="Percentuale 69 4 3" xfId="4163" xr:uid="{00000000-0005-0000-0000-0000DB0F0000}"/>
+    <cellStyle name="Percentuale 69 5" xfId="2477" xr:uid="{00000000-0005-0000-0000-0000DC0F0000}"/>
+    <cellStyle name="Percentuale 69 6" xfId="4159" xr:uid="{00000000-0005-0000-0000-0000DD0F0000}"/>
+    <cellStyle name="Percentuale 7" xfId="2478" xr:uid="{00000000-0005-0000-0000-0000DE0F0000}"/>
+    <cellStyle name="Percentuale 7 2" xfId="2479" xr:uid="{00000000-0005-0000-0000-0000DF0F0000}"/>
+    <cellStyle name="Percentuale 7 2 2" xfId="4166" xr:uid="{00000000-0005-0000-0000-0000E00F0000}"/>
+    <cellStyle name="Percentuale 7 3" xfId="2480" xr:uid="{00000000-0005-0000-0000-0000E10F0000}"/>
+    <cellStyle name="Percentuale 7 3 2" xfId="2481" xr:uid="{00000000-0005-0000-0000-0000E20F0000}"/>
+    <cellStyle name="Percentuale 7 3 2 2" xfId="2482" xr:uid="{00000000-0005-0000-0000-0000E30F0000}"/>
+    <cellStyle name="Percentuale 7 3 2 3" xfId="4168" xr:uid="{00000000-0005-0000-0000-0000E40F0000}"/>
+    <cellStyle name="Percentuale 7 3 3" xfId="4167" xr:uid="{00000000-0005-0000-0000-0000E50F0000}"/>
+    <cellStyle name="Percentuale 7 4" xfId="2483" xr:uid="{00000000-0005-0000-0000-0000E60F0000}"/>
+    <cellStyle name="Percentuale 7 4 2" xfId="2484" xr:uid="{00000000-0005-0000-0000-0000E70F0000}"/>
+    <cellStyle name="Percentuale 7 4 2 2" xfId="4170" xr:uid="{00000000-0005-0000-0000-0000E80F0000}"/>
+    <cellStyle name="Percentuale 7 4 3" xfId="4169" xr:uid="{00000000-0005-0000-0000-0000E90F0000}"/>
+    <cellStyle name="Percentuale 7 5" xfId="2485" xr:uid="{00000000-0005-0000-0000-0000EA0F0000}"/>
+    <cellStyle name="Percentuale 7 6" xfId="4165" xr:uid="{00000000-0005-0000-0000-0000EB0F0000}"/>
+    <cellStyle name="Percentuale 8" xfId="2486" xr:uid="{00000000-0005-0000-0000-0000EC0F0000}"/>
+    <cellStyle name="Percentuale 8 2" xfId="2487" xr:uid="{00000000-0005-0000-0000-0000ED0F0000}"/>
+    <cellStyle name="Percentuale 8 2 2" xfId="4172" xr:uid="{00000000-0005-0000-0000-0000EE0F0000}"/>
+    <cellStyle name="Percentuale 8 3" xfId="2488" xr:uid="{00000000-0005-0000-0000-0000EF0F0000}"/>
+    <cellStyle name="Percentuale 8 3 2" xfId="2489" xr:uid="{00000000-0005-0000-0000-0000F00F0000}"/>
+    <cellStyle name="Percentuale 8 3 2 2" xfId="2490" xr:uid="{00000000-0005-0000-0000-0000F10F0000}"/>
+    <cellStyle name="Percentuale 8 3 2 3" xfId="4174" xr:uid="{00000000-0005-0000-0000-0000F20F0000}"/>
+    <cellStyle name="Percentuale 8 3 3" xfId="4173" xr:uid="{00000000-0005-0000-0000-0000F30F0000}"/>
+    <cellStyle name="Percentuale 8 4" xfId="2491" xr:uid="{00000000-0005-0000-0000-0000F40F0000}"/>
+    <cellStyle name="Percentuale 8 4 2" xfId="2492" xr:uid="{00000000-0005-0000-0000-0000F50F0000}"/>
+    <cellStyle name="Percentuale 8 4 2 2" xfId="4176" xr:uid="{00000000-0005-0000-0000-0000F60F0000}"/>
+    <cellStyle name="Percentuale 8 4 3" xfId="4175" xr:uid="{00000000-0005-0000-0000-0000F70F0000}"/>
+    <cellStyle name="Percentuale 8 5" xfId="2493" xr:uid="{00000000-0005-0000-0000-0000F80F0000}"/>
+    <cellStyle name="Percentuale 8 6" xfId="4171" xr:uid="{00000000-0005-0000-0000-0000F90F0000}"/>
+    <cellStyle name="Percentuale 9" xfId="2494" xr:uid="{00000000-0005-0000-0000-0000FA0F0000}"/>
+    <cellStyle name="Percentuale 9 2" xfId="2495" xr:uid="{00000000-0005-0000-0000-0000FB0F0000}"/>
+    <cellStyle name="Percentuale 9 2 2" xfId="4178" xr:uid="{00000000-0005-0000-0000-0000FC0F0000}"/>
+    <cellStyle name="Percentuale 9 3" xfId="2496" xr:uid="{00000000-0005-0000-0000-0000FD0F0000}"/>
+    <cellStyle name="Percentuale 9 3 2" xfId="2497" xr:uid="{00000000-0005-0000-0000-0000FE0F0000}"/>
+    <cellStyle name="Percentuale 9 3 2 2" xfId="2498" xr:uid="{00000000-0005-0000-0000-0000FF0F0000}"/>
+    <cellStyle name="Percentuale 9 3 2 3" xfId="4180" xr:uid="{00000000-0005-0000-0000-000000100000}"/>
+    <cellStyle name="Percentuale 9 3 3" xfId="4179" xr:uid="{00000000-0005-0000-0000-000001100000}"/>
+    <cellStyle name="Percentuale 9 4" xfId="2499" xr:uid="{00000000-0005-0000-0000-000002100000}"/>
+    <cellStyle name="Percentuale 9 4 2" xfId="2500" xr:uid="{00000000-0005-0000-0000-000003100000}"/>
+    <cellStyle name="Percentuale 9 4 2 2" xfId="4182" xr:uid="{00000000-0005-0000-0000-000004100000}"/>
+    <cellStyle name="Percentuale 9 4 3" xfId="4181" xr:uid="{00000000-0005-0000-0000-000005100000}"/>
+    <cellStyle name="Percentuale 9 5" xfId="2501" xr:uid="{00000000-0005-0000-0000-000006100000}"/>
+    <cellStyle name="Percentuale 9 6" xfId="4177" xr:uid="{00000000-0005-0000-0000-000007100000}"/>
+    <cellStyle name="Procent 2" xfId="2502" xr:uid="{00000000-0005-0000-0000-000008100000}"/>
+    <cellStyle name="Procent 2 2" xfId="2503" xr:uid="{00000000-0005-0000-0000-000009100000}"/>
+    <cellStyle name="Procent 2 2 2" xfId="2504" xr:uid="{00000000-0005-0000-0000-00000A100000}"/>
+    <cellStyle name="Procent 2 3" xfId="4183" xr:uid="{00000000-0005-0000-0000-00000B100000}"/>
+    <cellStyle name="Procent 3" xfId="2505" xr:uid="{00000000-0005-0000-0000-00000C100000}"/>
+    <cellStyle name="Procent 3 2" xfId="2506" xr:uid="{00000000-0005-0000-0000-00000D100000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="2507" xr:uid="{00000000-0005-0000-0000-00000E100000}"/>
+    <cellStyle name="Style 155" xfId="2508" xr:uid="{00000000-0005-0000-0000-00000F100000}"/>
+    <cellStyle name="Style 156" xfId="2509" xr:uid="{00000000-0005-0000-0000-000010100000}"/>
+    <cellStyle name="Style 157" xfId="2510" xr:uid="{00000000-0005-0000-0000-000011100000}"/>
+    <cellStyle name="Style 158" xfId="2511" xr:uid="{00000000-0005-0000-0000-000012100000}"/>
+    <cellStyle name="Style 158 2" xfId="4184" xr:uid="{00000000-0005-0000-0000-000013100000}"/>
+    <cellStyle name="Style 159" xfId="2512" xr:uid="{00000000-0005-0000-0000-000014100000}"/>
+    <cellStyle name="Style 161" xfId="2513" xr:uid="{00000000-0005-0000-0000-000015100000}"/>
+    <cellStyle name="Style 161 2" xfId="4185" xr:uid="{00000000-0005-0000-0000-000016100000}"/>
+    <cellStyle name="Style 162" xfId="2514" xr:uid="{00000000-0005-0000-0000-000017100000}"/>
+    <cellStyle name="Style 162 2" xfId="4186" xr:uid="{00000000-0005-0000-0000-000018100000}"/>
+    <cellStyle name="Style 163" xfId="2515" xr:uid="{00000000-0005-0000-0000-000019100000}"/>
+    <cellStyle name="Style 163 2" xfId="4187" xr:uid="{00000000-0005-0000-0000-00001A100000}"/>
+    <cellStyle name="Style 223" xfId="2516" xr:uid="{00000000-0005-0000-0000-00001B100000}"/>
+    <cellStyle name="Style 224" xfId="2517" xr:uid="{00000000-0005-0000-0000-00001C100000}"/>
+    <cellStyle name="Style 225" xfId="2518" xr:uid="{00000000-0005-0000-0000-00001D100000}"/>
+    <cellStyle name="Style 226" xfId="2519" xr:uid="{00000000-0005-0000-0000-00001E100000}"/>
+    <cellStyle name="Style 226 2" xfId="4188" xr:uid="{00000000-0005-0000-0000-00001F100000}"/>
+    <cellStyle name="Style 227" xfId="2520" xr:uid="{00000000-0005-0000-0000-000020100000}"/>
+    <cellStyle name="Style 229" xfId="2521" xr:uid="{00000000-0005-0000-0000-000021100000}"/>
+    <cellStyle name="Style 229 2" xfId="4189" xr:uid="{00000000-0005-0000-0000-000022100000}"/>
+    <cellStyle name="Style 230" xfId="2522" xr:uid="{00000000-0005-0000-0000-000023100000}"/>
+    <cellStyle name="Style 230 2" xfId="4190" xr:uid="{00000000-0005-0000-0000-000024100000}"/>
+    <cellStyle name="Style 231" xfId="2523" xr:uid="{00000000-0005-0000-0000-000025100000}"/>
+    <cellStyle name="Style 231 2" xfId="4191" xr:uid="{00000000-0005-0000-0000-000026100000}"/>
+    <cellStyle name="Style 257" xfId="2524" xr:uid="{00000000-0005-0000-0000-000027100000}"/>
+    <cellStyle name="Style 258" xfId="2525" xr:uid="{00000000-0005-0000-0000-000028100000}"/>
+    <cellStyle name="Style 259" xfId="2526" xr:uid="{00000000-0005-0000-0000-000029100000}"/>
+    <cellStyle name="Style 260" xfId="2527" xr:uid="{00000000-0005-0000-0000-00002A100000}"/>
+    <cellStyle name="Style 260 2" xfId="4192" xr:uid="{00000000-0005-0000-0000-00002B100000}"/>
+    <cellStyle name="Style 261" xfId="2528" xr:uid="{00000000-0005-0000-0000-00002C100000}"/>
+    <cellStyle name="Style 263" xfId="2529" xr:uid="{00000000-0005-0000-0000-00002D100000}"/>
+    <cellStyle name="Style 263 2" xfId="4193" xr:uid="{00000000-0005-0000-0000-00002E100000}"/>
+    <cellStyle name="Style 264" xfId="2530" xr:uid="{00000000-0005-0000-0000-00002F100000}"/>
+    <cellStyle name="Style 264 2" xfId="4194" xr:uid="{00000000-0005-0000-0000-000030100000}"/>
+    <cellStyle name="Style 265" xfId="2531" xr:uid="{00000000-0005-0000-0000-000031100000}"/>
+    <cellStyle name="Style 265 2" xfId="4195" xr:uid="{00000000-0005-0000-0000-000032100000}"/>
+    <cellStyle name="Style 461" xfId="2532" xr:uid="{00000000-0005-0000-0000-000033100000}"/>
+    <cellStyle name="Style 467" xfId="2533" xr:uid="{00000000-0005-0000-0000-000034100000}"/>
+    <cellStyle name="Style 467 2" xfId="4196" xr:uid="{00000000-0005-0000-0000-000035100000}"/>
+    <cellStyle name="Style 468" xfId="2534" xr:uid="{00000000-0005-0000-0000-000036100000}"/>
+    <cellStyle name="Style 468 2" xfId="4197" xr:uid="{00000000-0005-0000-0000-000037100000}"/>
+    <cellStyle name="Style 469" xfId="2535" xr:uid="{00000000-0005-0000-0000-000038100000}"/>
+    <cellStyle name="Style 469 2" xfId="4198" xr:uid="{00000000-0005-0000-0000-000039100000}"/>
+    <cellStyle name="Style 478" xfId="2536" xr:uid="{00000000-0005-0000-0000-00003A100000}"/>
+    <cellStyle name="Style 479" xfId="2537" xr:uid="{00000000-0005-0000-0000-00003B100000}"/>
+    <cellStyle name="Style 480" xfId="2538" xr:uid="{00000000-0005-0000-0000-00003C100000}"/>
+    <cellStyle name="Style 481" xfId="2539" xr:uid="{00000000-0005-0000-0000-00003D100000}"/>
+    <cellStyle name="Style 481 2" xfId="4199" xr:uid="{00000000-0005-0000-0000-00003E100000}"/>
+    <cellStyle name="Style 482" xfId="2540" xr:uid="{00000000-0005-0000-0000-00003F100000}"/>
+    <cellStyle name="Style 484" xfId="2541" xr:uid="{00000000-0005-0000-0000-000040100000}"/>
+    <cellStyle name="Style 484 2" xfId="4200" xr:uid="{00000000-0005-0000-0000-000041100000}"/>
+    <cellStyle name="Style 485" xfId="2542" xr:uid="{00000000-0005-0000-0000-000042100000}"/>
+    <cellStyle name="Style 485 2" xfId="4201" xr:uid="{00000000-0005-0000-0000-000043100000}"/>
+    <cellStyle name="Style 486" xfId="2543" xr:uid="{00000000-0005-0000-0000-000044100000}"/>
+    <cellStyle name="Style 486 2" xfId="4202" xr:uid="{00000000-0005-0000-0000-000045100000}"/>
+    <cellStyle name="Style 495" xfId="2544" xr:uid="{00000000-0005-0000-0000-000046100000}"/>
+    <cellStyle name="Style 496" xfId="2545" xr:uid="{00000000-0005-0000-0000-000047100000}"/>
+    <cellStyle name="Style 497" xfId="2546" xr:uid="{00000000-0005-0000-0000-000048100000}"/>
+    <cellStyle name="Style 498" xfId="2547" xr:uid="{00000000-0005-0000-0000-000049100000}"/>
+    <cellStyle name="Style 498 2" xfId="4203" xr:uid="{00000000-0005-0000-0000-00004A100000}"/>
+    <cellStyle name="Style 499" xfId="2548" xr:uid="{00000000-0005-0000-0000-00004B100000}"/>
+    <cellStyle name="Style 501" xfId="2549" xr:uid="{00000000-0005-0000-0000-00004C100000}"/>
+    <cellStyle name="Style 501 2" xfId="4204" xr:uid="{00000000-0005-0000-0000-00004D100000}"/>
+    <cellStyle name="Style 502" xfId="2550" xr:uid="{00000000-0005-0000-0000-00004E100000}"/>
+    <cellStyle name="Style 502 2" xfId="4205" xr:uid="{00000000-0005-0000-0000-00004F100000}"/>
+    <cellStyle name="Style 503" xfId="2551" xr:uid="{00000000-0005-0000-0000-000050100000}"/>
+    <cellStyle name="Style 503 2" xfId="4206" xr:uid="{00000000-0005-0000-0000-000051100000}"/>
+    <cellStyle name="Style 580" xfId="2552" xr:uid="{00000000-0005-0000-0000-000052100000}"/>
+    <cellStyle name="Style 581" xfId="2553" xr:uid="{00000000-0005-0000-0000-000053100000}"/>
+    <cellStyle name="Style 582" xfId="2554" xr:uid="{00000000-0005-0000-0000-000054100000}"/>
+    <cellStyle name="Style 583" xfId="2555" xr:uid="{00000000-0005-0000-0000-000055100000}"/>
+    <cellStyle name="Style 583 2" xfId="4207" xr:uid="{00000000-0005-0000-0000-000056100000}"/>
+    <cellStyle name="Style 584" xfId="2556" xr:uid="{00000000-0005-0000-0000-000057100000}"/>
+    <cellStyle name="Style 586" xfId="2557" xr:uid="{00000000-0005-0000-0000-000058100000}"/>
+    <cellStyle name="Style 586 2" xfId="4208" xr:uid="{00000000-0005-0000-0000-000059100000}"/>
+    <cellStyle name="Style 587" xfId="2558" xr:uid="{00000000-0005-0000-0000-00005A100000}"/>
+    <cellStyle name="Style 587 2" xfId="4209" xr:uid="{00000000-0005-0000-0000-00005B100000}"/>
+    <cellStyle name="Style 588" xfId="2559" xr:uid="{00000000-0005-0000-0000-00005C100000}"/>
+    <cellStyle name="Style 588 2" xfId="4210" xr:uid="{00000000-0005-0000-0000-00005D100000}"/>
+    <cellStyle name="Testo avviso" xfId="2560" xr:uid="{00000000-0005-0000-0000-00005E100000}"/>
+    <cellStyle name="Testo descrittivo" xfId="2561" xr:uid="{00000000-0005-0000-0000-00005F100000}"/>
+    <cellStyle name="Titolo" xfId="2562" xr:uid="{00000000-0005-0000-0000-000060100000}"/>
+    <cellStyle name="Titolo 1" xfId="2563" xr:uid="{00000000-0005-0000-0000-000061100000}"/>
+    <cellStyle name="Titolo 1 2" xfId="2564" xr:uid="{00000000-0005-0000-0000-000062100000}"/>
+    <cellStyle name="Titolo 2" xfId="2565" xr:uid="{00000000-0005-0000-0000-000063100000}"/>
+    <cellStyle name="Titolo 2 2" xfId="2566" xr:uid="{00000000-0005-0000-0000-000064100000}"/>
+    <cellStyle name="Titolo 3" xfId="2567" xr:uid="{00000000-0005-0000-0000-000065100000}"/>
+    <cellStyle name="Titolo 3 2" xfId="2568" xr:uid="{00000000-0005-0000-0000-000066100000}"/>
+    <cellStyle name="Titolo 4" xfId="2569" xr:uid="{00000000-0005-0000-0000-000067100000}"/>
+    <cellStyle name="Total 2" xfId="2570" xr:uid="{00000000-0005-0000-0000-000068100000}"/>
+    <cellStyle name="Total 2 2" xfId="2571" xr:uid="{00000000-0005-0000-0000-000069100000}"/>
+    <cellStyle name="Totale" xfId="2572" xr:uid="{00000000-0005-0000-0000-00006A100000}"/>
+    <cellStyle name="Totale 2" xfId="2573" xr:uid="{00000000-0005-0000-0000-00006B100000}"/>
+    <cellStyle name="Totale 2 2" xfId="2574" xr:uid="{00000000-0005-0000-0000-00006C100000}"/>
+    <cellStyle name="Totale 3" xfId="2575" xr:uid="{00000000-0005-0000-0000-00006D100000}"/>
+    <cellStyle name="Totale 3 2" xfId="2576" xr:uid="{00000000-0005-0000-0000-00006E100000}"/>
+    <cellStyle name="Totale 4" xfId="2577" xr:uid="{00000000-0005-0000-0000-00006F100000}"/>
+    <cellStyle name="Valore non valido" xfId="2578" xr:uid="{00000000-0005-0000-0000-000070100000}"/>
+    <cellStyle name="Valore valido" xfId="2579" xr:uid="{00000000-0005-0000-0000-000071100000}"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="2580" xr:uid="{00000000-0005-0000-0000-000072100000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10079,7 +10103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -10089,16 +10113,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="60.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -10115,7 +10139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>43130</v>
       </c>
@@ -10133,7 +10157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>42992</v>
       </c>
@@ -10151,7 +10175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>42811</v>
       </c>
@@ -10169,7 +10193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>42538</v>
       </c>
@@ -10184,7 +10208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>42534</v>
       </c>
@@ -10199,7 +10223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>42499</v>
       </c>
@@ -10212,7 +10236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>42478</v>
       </c>
@@ -10230,7 +10254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>42478</v>
       </c>
@@ -10243,7 +10267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>42474</v>
       </c>
@@ -10263,7 +10287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -10273,20 +10297,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.1796875" style="11"/>
     <col min="2" max="2" width="24" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.42578125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="11"/>
+    <col min="3" max="3" width="138.453125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
@@ -10294,7 +10318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
@@ -10302,10 +10326,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
@@ -10313,18 +10337,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
@@ -10332,7 +10356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>57</v>
       </c>
@@ -10346,30 +10370,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:F21"/>
+  <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
@@ -10379,11 +10408,23 @@
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -10393,162 +10434,242 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10558,30 +10679,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
         <v>59</v>
       </c>
@@ -10601,7 +10722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
         <v>51</v>
       </c>
@@ -10615,7 +10736,7 @@
       </c>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>55</v>
       </c>
@@ -10635,7 +10756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -10655,7 +10776,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -10675,7 +10796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>55</v>
       </c>

--- a/SubRES_TMPL/SubRes_ELC_Plants2020_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_Plants2020_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES Modeller\TIMES-TOM\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80596783-A903-4BF4-94C1-482D308993B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B64A81-F7B2-40FC-AD38-B16619C0AB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="FIXWINOFF">'[1]Adjusted O&amp;M waste and WIN '!$K$13</definedName>
     <definedName name="VARWINOFF">'[1]Adjusted O&amp;M waste and WIN '!$L$13</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -235,9 +235,6 @@
     <t>MW</t>
   </si>
   <si>
-    <t>TFM_AVA</t>
-  </si>
-  <si>
     <t>~TFM_INS</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>DKISL3</t>
+  </si>
+  <si>
+    <t>~TFM_AVA</t>
   </si>
 </sst>
 </file>
@@ -10374,10 +10374,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10389,7 +10389,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -10409,16 +10409,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>2</v>
@@ -10452,16 +10452,12 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
@@ -10473,7 +10469,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -10486,7 +10482,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
@@ -10499,7 +10495,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
@@ -10512,7 +10508,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
@@ -10525,36 +10521,36 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="24"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C12" s="1">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C13" s="1">
@@ -10566,7 +10562,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
@@ -10579,7 +10575,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
@@ -10592,7 +10588,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -10605,7 +10601,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.35">
@@ -10618,7 +10614,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.35">
@@ -10631,7 +10627,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.35">
@@ -10644,7 +10640,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.35">
@@ -10657,7 +10653,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.35">
@@ -10670,6 +10666,19 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10698,7 +10707,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -10753,7 +10762,7 @@
         <v>406.7</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -10773,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">

--- a/SubRES_TMPL/SubRes_ELC_Plants2020_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_Plants2020_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES Modeller\TIMES-TOM\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bae57ad8ea7bb4f/OneDrive/GitHub^J Inc/EnergyIsland/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B64A81-F7B2-40FC-AD38-B16619C0AB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E9B64A81-F7B2-40FC-AD38-B16619C0AB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D95A2C46-87D9-4AD2-BF9E-F62577D4134B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>DKE</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>~TFM_AVA</t>
+  </si>
+  <si>
+    <t>MAR</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4211">
+  <cellStyleXfs count="4210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3661,7 +3664,6 @@
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5552,7 +5554,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2582"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2581"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5583,7 +5585,7 @@
     <xf numFmtId="0" fontId="15" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="4211">
+  <cellStyles count="4210">
     <cellStyle name="20 % - Markeringsfarve1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20 % - Markeringsfarve1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20 % - Markeringsfarve2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -5633,7 +5635,7 @@
     <cellStyle name="40% - Colore 6" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="40% - Colore 6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="5x indented GHG Textfiels" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="5x indented GHG Textfiels 2" xfId="2583" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="5x indented GHG Textfiels 2" xfId="2582" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="60 % - Markeringsfarve1" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="60 % - Markeringsfarve2" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="60 % - Markeringsfarve3" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
@@ -5669,646 +5671,646 @@
     <cellStyle name="Comma 2 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
     <cellStyle name="Comma 2 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
     <cellStyle name="Comma 2 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Comma 2 3 2 3" xfId="2585" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Comma 2 3 3" xfId="2584" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Comma 2 3 2 3" xfId="2584" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Comma 2 3 3" xfId="2583" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
     <cellStyle name="Comma 2 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
     <cellStyle name="Comma 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Comma 3 2" xfId="2586" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Comma 3 2" xfId="2585" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
     <cellStyle name="Comma 4" xfId="87" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
     <cellStyle name="Comma 4 2" xfId="88" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Comma 4 2 2" xfId="2588" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Comma 4 3" xfId="2587" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Comma 4 2 2" xfId="2587" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Comma 4 3" xfId="2586" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="Comma 5" xfId="89" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
     <cellStyle name="Comma 6" xfId="90" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Comma 6 2" xfId="2589" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Comma 7" xfId="2581" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Comma 6 2" xfId="2588" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Comma 7" xfId="2580" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
     <cellStyle name="Comma0 - Type3" xfId="91" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
     <cellStyle name="CustomizationCells" xfId="92" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
     <cellStyle name="CustomizationCells 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
     <cellStyle name="Euro" xfId="94" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
     <cellStyle name="Euro 10" xfId="95" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
     <cellStyle name="Euro 10 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Euro 10 2 2" xfId="2592" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Euro 10 2 2" xfId="2591" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
     <cellStyle name="Euro 10 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="Euro 10 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
     <cellStyle name="Euro 10 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Euro 10 3 2 3" xfId="2594" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Euro 10 3 3" xfId="2593" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Euro 10 3 2 3" xfId="2593" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Euro 10 3 3" xfId="2592" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
     <cellStyle name="Euro 10 4" xfId="100" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
     <cellStyle name="Euro 10 4 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Euro 10 4 2 2" xfId="2596" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Euro 10 4 3" xfId="2595" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Euro 10 4 2 2" xfId="2595" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Euro 10 4 3" xfId="2594" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
     <cellStyle name="Euro 10 5" xfId="102" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Euro 10 6" xfId="2591" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Euro 10 6" xfId="2590" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
     <cellStyle name="Euro 11" xfId="103" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
     <cellStyle name="Euro 11 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Euro 11 2 2" xfId="2598" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Euro 11 2 2" xfId="2597" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
     <cellStyle name="Euro 11 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
     <cellStyle name="Euro 11 3 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
     <cellStyle name="Euro 11 3 2 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Euro 11 3 2 3" xfId="2600" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Euro 11 3 3" xfId="2599" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Euro 11 3 2 3" xfId="2599" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Euro 11 3 3" xfId="2598" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
     <cellStyle name="Euro 11 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
     <cellStyle name="Euro 11 4 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Euro 11 4 2 2" xfId="2602" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Euro 11 4 3" xfId="2601" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Euro 11 4 2 2" xfId="2601" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Euro 11 4 3" xfId="2600" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
     <cellStyle name="Euro 11 5" xfId="110" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Euro 11 6" xfId="2597" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Euro 11 6" xfId="2596" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
     <cellStyle name="Euro 12" xfId="111" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
     <cellStyle name="Euro 12 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Euro 12 2 2" xfId="2604" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Euro 12 2 2" xfId="2603" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
     <cellStyle name="Euro 12 3" xfId="113" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
     <cellStyle name="Euro 12 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
     <cellStyle name="Euro 12 3 2 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Euro 12 3 2 3" xfId="2606" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Euro 12 3 3" xfId="2605" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Euro 12 3 2 3" xfId="2605" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Euro 12 3 3" xfId="2604" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
     <cellStyle name="Euro 12 4" xfId="116" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
     <cellStyle name="Euro 12 4 2" xfId="117" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Euro 12 4 2 2" xfId="2608" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Euro 12 4 3" xfId="2607" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Euro 12 4 2 2" xfId="2607" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Euro 12 4 3" xfId="2606" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="Euro 12 5" xfId="118" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Euro 12 6" xfId="2603" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Euro 12 6" xfId="2602" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Euro 13" xfId="119" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
     <cellStyle name="Euro 13 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Euro 13 2 2" xfId="2610" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Euro 13 2 2" xfId="2609" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
     <cellStyle name="Euro 13 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
     <cellStyle name="Euro 13 3 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
     <cellStyle name="Euro 13 3 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Euro 13 3 2 3" xfId="2612" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Euro 13 3 3" xfId="2611" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Euro 13 3 2 3" xfId="2611" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Euro 13 3 3" xfId="2610" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
     <cellStyle name="Euro 13 4" xfId="124" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
     <cellStyle name="Euro 13 4 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Euro 13 4 2 2" xfId="2614" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Euro 13 4 3" xfId="2613" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Euro 13 4 2 2" xfId="2613" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Euro 13 4 3" xfId="2612" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
     <cellStyle name="Euro 13 5" xfId="126" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="Euro 13 6" xfId="2609" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Euro 13 6" xfId="2608" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
     <cellStyle name="Euro 14" xfId="127" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
     <cellStyle name="Euro 14 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Euro 14 2 2" xfId="2616" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Euro 14 2 2" xfId="2615" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
     <cellStyle name="Euro 14 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
     <cellStyle name="Euro 14 3 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
     <cellStyle name="Euro 14 3 2 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Euro 14 3 2 3" xfId="2618" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Euro 14 3 3" xfId="2617" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Euro 14 3 2 3" xfId="2617" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Euro 14 3 3" xfId="2616" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
     <cellStyle name="Euro 14 4" xfId="132" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
     <cellStyle name="Euro 14 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Euro 14 4 2 2" xfId="2620" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Euro 14 4 3" xfId="2619" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Euro 14 4 2 2" xfId="2619" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Euro 14 4 3" xfId="2618" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
     <cellStyle name="Euro 14 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Euro 14 6" xfId="2615" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Euro 14 6" xfId="2614" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
     <cellStyle name="Euro 15" xfId="135" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
     <cellStyle name="Euro 15 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Euro 15 2 2" xfId="2622" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Euro 15 2 2" xfId="2621" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
     <cellStyle name="Euro 15 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
     <cellStyle name="Euro 15 3 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
     <cellStyle name="Euro 15 3 2 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="Euro 15 3 2 3" xfId="2624" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="Euro 15 3 3" xfId="2623" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Euro 15 3 2 3" xfId="2623" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Euro 15 3 3" xfId="2622" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
     <cellStyle name="Euro 15 4" xfId="140" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
     <cellStyle name="Euro 15 4 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="Euro 15 4 2 2" xfId="2626" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Euro 15 4 3" xfId="2625" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Euro 15 4 2 2" xfId="2625" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Euro 15 4 3" xfId="2624" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
     <cellStyle name="Euro 15 5" xfId="142" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="Euro 15 6" xfId="2621" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Euro 15 6" xfId="2620" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="Euro 16" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
     <cellStyle name="Euro 16 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="Euro 16 2 2" xfId="2628" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Euro 16 2 2" xfId="2627" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
     <cellStyle name="Euro 16 3" xfId="145" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Euro 16 3 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="Euro 16 3 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="Euro 16 3 2 3" xfId="2630" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Euro 16 3 3" xfId="2629" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Euro 16 3 2 3" xfId="2629" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Euro 16 3 3" xfId="2628" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
     <cellStyle name="Euro 16 4" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
     <cellStyle name="Euro 16 4 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="Euro 16 4 2 2" xfId="2632" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="Euro 16 4 3" xfId="2631" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Euro 16 4 2 2" xfId="2631" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Euro 16 4 3" xfId="2630" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
     <cellStyle name="Euro 16 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="Euro 16 6" xfId="2627" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Euro 16 6" xfId="2626" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
     <cellStyle name="Euro 17" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
     <cellStyle name="Euro 17 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="Euro 17 2 2" xfId="2634" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Euro 17 2 2" xfId="2633" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
     <cellStyle name="Euro 17 3" xfId="153" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
     <cellStyle name="Euro 17 3 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
     <cellStyle name="Euro 17 3 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="Euro 17 3 2 3" xfId="2636" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="Euro 17 3 3" xfId="2635" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Euro 17 3 2 3" xfId="2635" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Euro 17 3 3" xfId="2634" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
     <cellStyle name="Euro 17 4" xfId="156" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
     <cellStyle name="Euro 17 4 2" xfId="157" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="Euro 17 4 2 2" xfId="2638" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="Euro 17 4 3" xfId="2637" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Euro 17 4 2 2" xfId="2637" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Euro 17 4 3" xfId="2636" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
     <cellStyle name="Euro 17 5" xfId="158" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="Euro 17 6" xfId="2633" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Euro 17 6" xfId="2632" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
     <cellStyle name="Euro 18" xfId="159" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Euro 18 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="Euro 18 2 2" xfId="2640" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Euro 18 2 2" xfId="2639" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
     <cellStyle name="Euro 18 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
     <cellStyle name="Euro 18 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
     <cellStyle name="Euro 18 3 2 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="Euro 18 3 2 3" xfId="2642" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="Euro 18 3 3" xfId="2641" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Euro 18 3 2 3" xfId="2641" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Euro 18 3 3" xfId="2640" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
     <cellStyle name="Euro 18 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
     <cellStyle name="Euro 18 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="Euro 18 4 2 2" xfId="2644" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="Euro 18 4 3" xfId="2643" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Euro 18 4 2 2" xfId="2643" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Euro 18 4 3" xfId="2642" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
     <cellStyle name="Euro 18 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="Euro 18 6" xfId="2639" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Euro 18 6" xfId="2638" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
     <cellStyle name="Euro 19" xfId="167" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
     <cellStyle name="Euro 19 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="Euro 19 2 2" xfId="2646" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Euro 19 2 2" xfId="2645" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="Euro 19 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
     <cellStyle name="Euro 19 3 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
     <cellStyle name="Euro 19 3 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="Euro 19 3 2 3" xfId="2648" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="Euro 19 3 3" xfId="2647" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Euro 19 3 2 3" xfId="2647" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Euro 19 3 3" xfId="2646" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
     <cellStyle name="Euro 19 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
     <cellStyle name="Euro 19 4 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="Euro 19 4 2 2" xfId="2650" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="Euro 19 4 3" xfId="2649" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Euro 19 4 2 2" xfId="2649" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Euro 19 4 3" xfId="2648" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
     <cellStyle name="Euro 19 5" xfId="174" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="Euro 19 6" xfId="2645" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Euro 19 6" xfId="2644" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
     <cellStyle name="Euro 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
     <cellStyle name="Euro 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="Euro 2 2 2" xfId="2652" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Euro 2 2 2" xfId="2651" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
     <cellStyle name="Euro 2 3" xfId="177" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
     <cellStyle name="Euro 2 3 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
     <cellStyle name="Euro 2 3 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="Euro 2 3 2 3" xfId="2654" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="Euro 2 3 3" xfId="2653" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Euro 2 3 2 3" xfId="2653" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Euro 2 3 3" xfId="2652" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
     <cellStyle name="Euro 2 4" xfId="180" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
     <cellStyle name="Euro 2 4 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="Euro 2 4 2 2" xfId="2656" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="Euro 2 4 3" xfId="2655" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Euro 2 4 2 2" xfId="2655" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Euro 2 4 3" xfId="2654" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
     <cellStyle name="Euro 2 5" xfId="182" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="Euro 2 6" xfId="2651" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Euro 2 6" xfId="2650" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Euro 20" xfId="183" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
     <cellStyle name="Euro 20 2" xfId="184" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="Euro 20 2 2" xfId="2658" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Euro 20 2 2" xfId="2657" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
     <cellStyle name="Euro 20 3" xfId="185" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
     <cellStyle name="Euro 20 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
     <cellStyle name="Euro 20 3 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="Euro 20 3 2 3" xfId="2660" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="Euro 20 3 3" xfId="2659" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Euro 20 3 2 3" xfId="2659" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Euro 20 3 3" xfId="2658" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
     <cellStyle name="Euro 20 4" xfId="188" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
     <cellStyle name="Euro 20 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="Euro 20 4 2 2" xfId="2662" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="Euro 20 4 3" xfId="2661" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Euro 20 4 2 2" xfId="2661" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Euro 20 4 3" xfId="2660" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
     <cellStyle name="Euro 20 5" xfId="190" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="Euro 20 6" xfId="2657" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Euro 20 6" xfId="2656" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
     <cellStyle name="Euro 21" xfId="191" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Euro 21 2" xfId="192" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="Euro 21 2 2" xfId="2664" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Euro 21 2 2" xfId="2663" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
     <cellStyle name="Euro 21 3" xfId="193" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Euro 21 3 2" xfId="194" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Euro 21 3 2 2" xfId="195" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="Euro 21 3 2 3" xfId="2666" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Euro 21 3 3" xfId="2665" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Euro 21 3 2 3" xfId="2665" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Euro 21 3 3" xfId="2664" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Euro 21 4" xfId="196" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
     <cellStyle name="Euro 21 4 2" xfId="197" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="Euro 21 4 2 2" xfId="2668" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="Euro 21 4 3" xfId="2667" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Euro 21 4 2 2" xfId="2667" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Euro 21 4 3" xfId="2666" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Euro 21 5" xfId="198" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="Euro 21 6" xfId="2663" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Euro 21 6" xfId="2662" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
     <cellStyle name="Euro 22" xfId="199" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
     <cellStyle name="Euro 22 2" xfId="200" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="Euro 22 2 2" xfId="2670" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Euro 22 2 2" xfId="2669" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
     <cellStyle name="Euro 22 3" xfId="201" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
     <cellStyle name="Euro 22 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
     <cellStyle name="Euro 22 3 2 2" xfId="203" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="Euro 22 3 2 3" xfId="2672" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="Euro 22 3 3" xfId="2671" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Euro 22 3 2 3" xfId="2671" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Euro 22 3 3" xfId="2670" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
     <cellStyle name="Euro 22 4" xfId="204" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
     <cellStyle name="Euro 22 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="Euro 22 4 2 2" xfId="2674" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="Euro 22 4 3" xfId="2673" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Euro 22 4 2 2" xfId="2673" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Euro 22 4 3" xfId="2672" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
     <cellStyle name="Euro 22 5" xfId="206" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Euro 22 6" xfId="2669" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Euro 22 6" xfId="2668" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
     <cellStyle name="Euro 23" xfId="207" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
     <cellStyle name="Euro 23 2" xfId="208" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Euro 23 2 2" xfId="2676" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Euro 23 2 2" xfId="2675" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
     <cellStyle name="Euro 23 3" xfId="209" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
     <cellStyle name="Euro 23 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
     <cellStyle name="Euro 23 3 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Euro 23 3 2 3" xfId="2678" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Euro 23 3 3" xfId="2677" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Euro 23 3 2 3" xfId="2677" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Euro 23 3 3" xfId="2676" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
     <cellStyle name="Euro 23 4" xfId="212" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
     <cellStyle name="Euro 23 4 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Euro 23 4 2 2" xfId="2680" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Euro 23 4 3" xfId="2679" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Euro 23 4 2 2" xfId="2679" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Euro 23 4 3" xfId="2678" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
     <cellStyle name="Euro 23 5" xfId="214" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Euro 23 6" xfId="2675" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Euro 23 6" xfId="2674" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
     <cellStyle name="Euro 24" xfId="215" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
     <cellStyle name="Euro 24 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Euro 24 2 2" xfId="2682" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Euro 24 2 2" xfId="2681" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
     <cellStyle name="Euro 24 3" xfId="217" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
     <cellStyle name="Euro 24 3 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
     <cellStyle name="Euro 24 3 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Euro 24 3 2 3" xfId="2684" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Euro 24 3 3" xfId="2683" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Euro 24 3 2 3" xfId="2683" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Euro 24 3 3" xfId="2682" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
     <cellStyle name="Euro 24 4" xfId="220" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
     <cellStyle name="Euro 24 4 2" xfId="221" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Euro 24 4 2 2" xfId="2686" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Euro 24 4 3" xfId="2685" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Euro 24 4 2 2" xfId="2685" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Euro 24 4 3" xfId="2684" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
     <cellStyle name="Euro 24 5" xfId="222" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Euro 24 6" xfId="2681" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Euro 24 6" xfId="2680" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
     <cellStyle name="Euro 25" xfId="223" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
     <cellStyle name="Euro 25 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Euro 25 2 2" xfId="2688" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Euro 25 2 2" xfId="2687" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
     <cellStyle name="Euro 25 3" xfId="225" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
     <cellStyle name="Euro 25 3 2" xfId="226" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
     <cellStyle name="Euro 25 3 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Euro 25 3 2 3" xfId="2690" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Euro 25 3 3" xfId="2689" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Euro 25 3 2 3" xfId="2689" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Euro 25 3 3" xfId="2688" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
     <cellStyle name="Euro 25 4" xfId="228" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
     <cellStyle name="Euro 25 4 2" xfId="229" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Euro 25 4 2 2" xfId="2692" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Euro 25 4 3" xfId="2691" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Euro 25 4 2 2" xfId="2691" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Euro 25 4 3" xfId="2690" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
     <cellStyle name="Euro 25 5" xfId="230" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="Euro 25 6" xfId="2687" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Euro 25 6" xfId="2686" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
     <cellStyle name="Euro 26" xfId="231" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
     <cellStyle name="Euro 26 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="Euro 26 2 2" xfId="2694" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Euro 26 2 2" xfId="2693" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
     <cellStyle name="Euro 26 3" xfId="233" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
     <cellStyle name="Euro 26 3 2" xfId="234" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
     <cellStyle name="Euro 26 3 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="Euro 26 3 2 3" xfId="2696" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="Euro 26 3 3" xfId="2695" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Euro 26 3 2 3" xfId="2695" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Euro 26 3 3" xfId="2694" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
     <cellStyle name="Euro 26 4" xfId="236" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
     <cellStyle name="Euro 26 4 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="Euro 26 4 2 2" xfId="2698" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="Euro 26 4 3" xfId="2697" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Euro 26 4 2 2" xfId="2697" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Euro 26 4 3" xfId="2696" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
     <cellStyle name="Euro 26 5" xfId="238" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="Euro 26 6" xfId="2693" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Euro 26 6" xfId="2692" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
     <cellStyle name="Euro 27" xfId="239" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
     <cellStyle name="Euro 27 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="Euro 27 2 2" xfId="2700" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Euro 27 2 2" xfId="2699" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
     <cellStyle name="Euro 27 3" xfId="241" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
     <cellStyle name="Euro 27 3 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
     <cellStyle name="Euro 27 3 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="Euro 27 3 2 3" xfId="2702" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="Euro 27 3 3" xfId="2701" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Euro 27 3 2 3" xfId="2701" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Euro 27 3 3" xfId="2700" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
     <cellStyle name="Euro 27 4" xfId="244" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
     <cellStyle name="Euro 27 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
-    <cellStyle name="Euro 27 4 2 2" xfId="2704" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
-    <cellStyle name="Euro 27 4 3" xfId="2703" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Euro 27 4 2 2" xfId="2703" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Euro 27 4 3" xfId="2702" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
     <cellStyle name="Euro 27 5" xfId="246" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
-    <cellStyle name="Euro 27 6" xfId="2699" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Euro 27 6" xfId="2698" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
     <cellStyle name="Euro 28" xfId="247" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
     <cellStyle name="Euro 28 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
-    <cellStyle name="Euro 28 2 2" xfId="2706" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Euro 28 2 2" xfId="2705" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
     <cellStyle name="Euro 28 3" xfId="249" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
     <cellStyle name="Euro 28 3 2" xfId="250" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
     <cellStyle name="Euro 28 3 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
-    <cellStyle name="Euro 28 3 2 3" xfId="2708" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
-    <cellStyle name="Euro 28 3 3" xfId="2707" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Euro 28 3 2 3" xfId="2707" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Euro 28 3 3" xfId="2706" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
     <cellStyle name="Euro 28 4" xfId="252" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
     <cellStyle name="Euro 28 4 2" xfId="253" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
-    <cellStyle name="Euro 28 4 2 2" xfId="2710" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
-    <cellStyle name="Euro 28 4 3" xfId="2709" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Euro 28 4 2 2" xfId="2709" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Euro 28 4 3" xfId="2708" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
     <cellStyle name="Euro 28 5" xfId="254" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
-    <cellStyle name="Euro 28 6" xfId="2705" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Euro 28 6" xfId="2704" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
     <cellStyle name="Euro 29" xfId="255" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
     <cellStyle name="Euro 29 2" xfId="256" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
-    <cellStyle name="Euro 29 2 2" xfId="2712" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Euro 29 2 2" xfId="2711" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
     <cellStyle name="Euro 29 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
     <cellStyle name="Euro 29 3 2" xfId="258" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
     <cellStyle name="Euro 29 3 2 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
-    <cellStyle name="Euro 29 3 2 3" xfId="2714" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
-    <cellStyle name="Euro 29 3 3" xfId="2713" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Euro 29 3 2 3" xfId="2713" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Euro 29 3 3" xfId="2712" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
     <cellStyle name="Euro 29 4" xfId="260" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
     <cellStyle name="Euro 29 4 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
-    <cellStyle name="Euro 29 4 2 2" xfId="2716" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
-    <cellStyle name="Euro 29 4 3" xfId="2715" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Euro 29 4 2 2" xfId="2715" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Euro 29 4 3" xfId="2714" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
     <cellStyle name="Euro 29 5" xfId="262" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
-    <cellStyle name="Euro 29 6" xfId="2711" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Euro 29 6" xfId="2710" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
     <cellStyle name="Euro 3" xfId="263" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
     <cellStyle name="Euro 3 2" xfId="264" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
-    <cellStyle name="Euro 3 2 2" xfId="2718" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Euro 3 2 2" xfId="2717" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
     <cellStyle name="Euro 3 3" xfId="265" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
     <cellStyle name="Euro 3 3 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
     <cellStyle name="Euro 3 3 2 2" xfId="267" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
-    <cellStyle name="Euro 3 3 2 3" xfId="2720" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
-    <cellStyle name="Euro 3 3 3" xfId="2719" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Euro 3 3 2 3" xfId="2719" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Euro 3 3 3" xfId="2718" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
     <cellStyle name="Euro 3 4" xfId="268" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
     <cellStyle name="Euro 3 4 2" xfId="269" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
-    <cellStyle name="Euro 3 4 2 2" xfId="2722" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
-    <cellStyle name="Euro 3 4 3" xfId="2721" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Euro 3 4 2 2" xfId="2721" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Euro 3 4 3" xfId="2720" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
     <cellStyle name="Euro 3 5" xfId="270" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
-    <cellStyle name="Euro 3 6" xfId="2717" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Euro 3 6" xfId="2716" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
     <cellStyle name="Euro 30" xfId="271" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
     <cellStyle name="Euro 30 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
-    <cellStyle name="Euro 30 2 2" xfId="2724" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Euro 30 2 2" xfId="2723" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
     <cellStyle name="Euro 30 3" xfId="273" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
     <cellStyle name="Euro 30 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
     <cellStyle name="Euro 30 3 2 2" xfId="275" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
-    <cellStyle name="Euro 30 3 2 3" xfId="2726" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
-    <cellStyle name="Euro 30 3 3" xfId="2725" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Euro 30 3 2 3" xfId="2725" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Euro 30 3 3" xfId="2724" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
     <cellStyle name="Euro 30 4" xfId="276" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
     <cellStyle name="Euro 30 4 2" xfId="277" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
-    <cellStyle name="Euro 30 4 2 2" xfId="2728" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
-    <cellStyle name="Euro 30 4 3" xfId="2727" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Euro 30 4 2 2" xfId="2727" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Euro 30 4 3" xfId="2726" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
     <cellStyle name="Euro 30 5" xfId="278" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
-    <cellStyle name="Euro 30 6" xfId="2723" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Euro 30 6" xfId="2722" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
     <cellStyle name="Euro 31" xfId="279" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
     <cellStyle name="Euro 31 2" xfId="280" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
-    <cellStyle name="Euro 31 2 2" xfId="2730" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Euro 31 2 2" xfId="2729" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
     <cellStyle name="Euro 31 3" xfId="281" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
     <cellStyle name="Euro 31 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
     <cellStyle name="Euro 31 3 2 2" xfId="283" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
-    <cellStyle name="Euro 31 3 2 3" xfId="2732" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
-    <cellStyle name="Euro 31 3 3" xfId="2731" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="Euro 31 3 2 3" xfId="2731" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Euro 31 3 3" xfId="2730" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
     <cellStyle name="Euro 31 4" xfId="284" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
     <cellStyle name="Euro 31 4 2" xfId="285" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
-    <cellStyle name="Euro 31 4 2 2" xfId="2734" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
-    <cellStyle name="Euro 31 4 3" xfId="2733" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Euro 31 4 2 2" xfId="2733" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Euro 31 4 3" xfId="2732" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
     <cellStyle name="Euro 31 5" xfId="286" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
-    <cellStyle name="Euro 31 6" xfId="2729" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Euro 31 6" xfId="2728" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
     <cellStyle name="Euro 32" xfId="287" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
     <cellStyle name="Euro 32 2" xfId="288" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
-    <cellStyle name="Euro 32 2 2" xfId="2736" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Euro 32 2 2" xfId="2735" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
     <cellStyle name="Euro 32 3" xfId="289" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
     <cellStyle name="Euro 32 3 2" xfId="290" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
     <cellStyle name="Euro 32 3 2 2" xfId="291" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
-    <cellStyle name="Euro 32 3 2 3" xfId="2738" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
-    <cellStyle name="Euro 32 3 3" xfId="2737" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Euro 32 3 2 3" xfId="2737" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Euro 32 3 3" xfId="2736" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
     <cellStyle name="Euro 32 4" xfId="292" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
     <cellStyle name="Euro 32 4 2" xfId="293" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
-    <cellStyle name="Euro 32 4 2 2" xfId="2740" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
-    <cellStyle name="Euro 32 4 3" xfId="2739" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Euro 32 4 2 2" xfId="2739" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Euro 32 4 3" xfId="2738" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
     <cellStyle name="Euro 32 5" xfId="294" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
-    <cellStyle name="Euro 32 6" xfId="2735" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Euro 32 6" xfId="2734" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
     <cellStyle name="Euro 33" xfId="295" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
     <cellStyle name="Euro 33 2" xfId="296" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
-    <cellStyle name="Euro 33 2 2" xfId="2742" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Euro 33 2 2" xfId="2741" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
     <cellStyle name="Euro 33 3" xfId="297" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
     <cellStyle name="Euro 33 3 2" xfId="298" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
     <cellStyle name="Euro 33 3 2 2" xfId="299" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
-    <cellStyle name="Euro 33 3 2 3" xfId="2744" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
-    <cellStyle name="Euro 33 3 3" xfId="2743" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Euro 33 3 2 3" xfId="2743" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Euro 33 3 3" xfId="2742" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
     <cellStyle name="Euro 33 4" xfId="300" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
     <cellStyle name="Euro 33 4 2" xfId="301" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
-    <cellStyle name="Euro 33 4 2 2" xfId="2746" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
-    <cellStyle name="Euro 33 4 3" xfId="2745" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Euro 33 4 2 2" xfId="2745" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Euro 33 4 3" xfId="2744" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
     <cellStyle name="Euro 33 5" xfId="302" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
-    <cellStyle name="Euro 33 6" xfId="2741" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Euro 33 6" xfId="2740" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
     <cellStyle name="Euro 34" xfId="303" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
     <cellStyle name="Euro 34 2" xfId="304" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
-    <cellStyle name="Euro 34 2 2" xfId="2748" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Euro 34 2 2" xfId="2747" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
     <cellStyle name="Euro 34 3" xfId="305" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
     <cellStyle name="Euro 34 3 2" xfId="306" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
     <cellStyle name="Euro 34 3 2 2" xfId="307" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
-    <cellStyle name="Euro 34 3 2 3" xfId="2750" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
-    <cellStyle name="Euro 34 3 3" xfId="2749" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Euro 34 3 2 3" xfId="2749" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Euro 34 3 3" xfId="2748" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
     <cellStyle name="Euro 34 4" xfId="308" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
     <cellStyle name="Euro 34 4 2" xfId="309" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
-    <cellStyle name="Euro 34 4 2 2" xfId="2752" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
-    <cellStyle name="Euro 34 4 3" xfId="2751" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Euro 34 4 2 2" xfId="2751" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Euro 34 4 3" xfId="2750" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
     <cellStyle name="Euro 34 5" xfId="310" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
-    <cellStyle name="Euro 34 6" xfId="2747" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Euro 34 6" xfId="2746" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
     <cellStyle name="Euro 35" xfId="311" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
     <cellStyle name="Euro 35 2" xfId="312" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
-    <cellStyle name="Euro 35 2 2" xfId="2754" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Euro 35 2 2" xfId="2753" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
     <cellStyle name="Euro 35 3" xfId="313" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
     <cellStyle name="Euro 35 3 2" xfId="314" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
     <cellStyle name="Euro 35 3 2 2" xfId="315" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
-    <cellStyle name="Euro 35 3 2 3" xfId="2756" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
-    <cellStyle name="Euro 35 3 3" xfId="2755" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Euro 35 3 2 3" xfId="2755" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Euro 35 3 3" xfId="2754" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
     <cellStyle name="Euro 35 4" xfId="316" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
     <cellStyle name="Euro 35 4 2" xfId="317" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
-    <cellStyle name="Euro 35 4 2 2" xfId="2758" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
-    <cellStyle name="Euro 35 4 3" xfId="2757" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Euro 35 4 2 2" xfId="2757" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Euro 35 4 3" xfId="2756" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
     <cellStyle name="Euro 35 5" xfId="318" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
-    <cellStyle name="Euro 35 6" xfId="2753" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Euro 35 6" xfId="2752" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
     <cellStyle name="Euro 36" xfId="319" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
     <cellStyle name="Euro 36 2" xfId="320" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
-    <cellStyle name="Euro 36 2 2" xfId="2760" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Euro 36 2 2" xfId="2759" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
     <cellStyle name="Euro 36 3" xfId="321" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
     <cellStyle name="Euro 36 3 2" xfId="322" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
     <cellStyle name="Euro 36 3 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
-    <cellStyle name="Euro 36 3 2 3" xfId="2762" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
-    <cellStyle name="Euro 36 3 3" xfId="2761" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Euro 36 3 2 3" xfId="2761" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Euro 36 3 3" xfId="2760" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
     <cellStyle name="Euro 36 4" xfId="324" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
     <cellStyle name="Euro 36 4 2" xfId="325" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
-    <cellStyle name="Euro 36 4 2 2" xfId="2764" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
-    <cellStyle name="Euro 36 4 3" xfId="2763" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Euro 36 4 2 2" xfId="2763" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Euro 36 4 3" xfId="2762" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
     <cellStyle name="Euro 36 5" xfId="326" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
-    <cellStyle name="Euro 36 6" xfId="2759" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Euro 36 6" xfId="2758" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
     <cellStyle name="Euro 37" xfId="327" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
     <cellStyle name="Euro 37 2" xfId="328" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
-    <cellStyle name="Euro 37 2 2" xfId="2766" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Euro 37 2 2" xfId="2765" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
     <cellStyle name="Euro 37 3" xfId="329" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
     <cellStyle name="Euro 37 3 2" xfId="330" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
     <cellStyle name="Euro 37 3 2 2" xfId="331" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
-    <cellStyle name="Euro 37 3 2 3" xfId="2768" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
-    <cellStyle name="Euro 37 3 3" xfId="2767" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Euro 37 3 2 3" xfId="2767" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Euro 37 3 3" xfId="2766" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
     <cellStyle name="Euro 37 4" xfId="332" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
     <cellStyle name="Euro 37 4 2" xfId="333" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
-    <cellStyle name="Euro 37 4 2 2" xfId="2770" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
-    <cellStyle name="Euro 37 4 3" xfId="2769" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Euro 37 4 2 2" xfId="2769" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Euro 37 4 3" xfId="2768" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
     <cellStyle name="Euro 37 5" xfId="334" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
-    <cellStyle name="Euro 37 6" xfId="2765" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Euro 37 6" xfId="2764" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
     <cellStyle name="Euro 38" xfId="335" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
     <cellStyle name="Euro 38 2" xfId="336" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
-    <cellStyle name="Euro 38 2 2" xfId="2772" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Euro 38 2 2" xfId="2771" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
     <cellStyle name="Euro 38 3" xfId="337" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
     <cellStyle name="Euro 38 3 2" xfId="338" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
     <cellStyle name="Euro 38 3 2 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
-    <cellStyle name="Euro 38 3 2 3" xfId="2774" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
-    <cellStyle name="Euro 38 3 3" xfId="2773" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Euro 38 3 2 3" xfId="2773" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Euro 38 3 3" xfId="2772" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
     <cellStyle name="Euro 38 4" xfId="340" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
     <cellStyle name="Euro 38 4 2" xfId="341" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
-    <cellStyle name="Euro 38 4 2 2" xfId="2776" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
-    <cellStyle name="Euro 38 4 3" xfId="2775" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Euro 38 4 2 2" xfId="2775" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Euro 38 4 3" xfId="2774" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
     <cellStyle name="Euro 38 5" xfId="342" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
-    <cellStyle name="Euro 38 6" xfId="2771" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Euro 38 6" xfId="2770" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
     <cellStyle name="Euro 39" xfId="343" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
     <cellStyle name="Euro 39 2" xfId="344" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
-    <cellStyle name="Euro 39 2 2" xfId="2778" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Euro 39 2 2" xfId="2777" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
     <cellStyle name="Euro 39 3" xfId="345" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
     <cellStyle name="Euro 39 3 2" xfId="346" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
     <cellStyle name="Euro 39 3 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
-    <cellStyle name="Euro 39 3 2 3" xfId="2780" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
-    <cellStyle name="Euro 39 3 3" xfId="2779" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Euro 39 3 2 3" xfId="2779" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Euro 39 3 3" xfId="2778" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
     <cellStyle name="Euro 39 4" xfId="348" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
     <cellStyle name="Euro 39 4 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
-    <cellStyle name="Euro 39 4 2 2" xfId="2782" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
-    <cellStyle name="Euro 39 4 3" xfId="2781" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Euro 39 4 2 2" xfId="2781" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Euro 39 4 3" xfId="2780" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
     <cellStyle name="Euro 39 5" xfId="350" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
-    <cellStyle name="Euro 39 6" xfId="2777" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Euro 39 6" xfId="2776" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
     <cellStyle name="Euro 4" xfId="351" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
     <cellStyle name="Euro 4 2" xfId="352" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
-    <cellStyle name="Euro 4 2 2" xfId="2784" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Euro 4 2 2" xfId="2783" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
     <cellStyle name="Euro 4 3" xfId="353" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
     <cellStyle name="Euro 4 3 2" xfId="354" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
     <cellStyle name="Euro 4 3 2 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
-    <cellStyle name="Euro 4 3 2 3" xfId="2786" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
-    <cellStyle name="Euro 4 3 3" xfId="2785" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Euro 4 3 2 3" xfId="2785" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Euro 4 3 3" xfId="2784" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
     <cellStyle name="Euro 4 4" xfId="356" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
     <cellStyle name="Euro 4 4 2" xfId="357" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
-    <cellStyle name="Euro 4 4 2 2" xfId="2788" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
-    <cellStyle name="Euro 4 4 3" xfId="2787" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Euro 4 4 2 2" xfId="2787" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Euro 4 4 3" xfId="2786" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
     <cellStyle name="Euro 4 5" xfId="358" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
-    <cellStyle name="Euro 4 6" xfId="2783" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Euro 4 6" xfId="2782" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
     <cellStyle name="Euro 40" xfId="359" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
     <cellStyle name="Euro 40 2" xfId="360" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
-    <cellStyle name="Euro 40 2 2" xfId="2790" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Euro 40 2 2" xfId="2789" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
     <cellStyle name="Euro 40 3" xfId="361" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
     <cellStyle name="Euro 40 3 2" xfId="362" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
     <cellStyle name="Euro 40 3 2 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
-    <cellStyle name="Euro 40 3 2 3" xfId="2792" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
-    <cellStyle name="Euro 40 3 3" xfId="2791" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="Euro 40 3 2 3" xfId="2791" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Euro 40 3 3" xfId="2790" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
     <cellStyle name="Euro 40 4" xfId="364" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
     <cellStyle name="Euro 40 4 2" xfId="365" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
-    <cellStyle name="Euro 40 4 2 2" xfId="2794" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
-    <cellStyle name="Euro 40 4 3" xfId="2793" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Euro 40 4 2 2" xfId="2793" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Euro 40 4 3" xfId="2792" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
     <cellStyle name="Euro 40 5" xfId="366" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
-    <cellStyle name="Euro 40 6" xfId="2789" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Euro 40 6" xfId="2788" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
     <cellStyle name="Euro 41" xfId="367" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
     <cellStyle name="Euro 41 2" xfId="368" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
-    <cellStyle name="Euro 41 2 2" xfId="2796" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Euro 41 2 2" xfId="2795" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
     <cellStyle name="Euro 41 3" xfId="369" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
     <cellStyle name="Euro 41 3 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
     <cellStyle name="Euro 41 3 2 2" xfId="371" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
-    <cellStyle name="Euro 41 3 2 3" xfId="2798" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
-    <cellStyle name="Euro 41 3 3" xfId="2797" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Euro 41 3 2 3" xfId="2797" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Euro 41 3 3" xfId="2796" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
     <cellStyle name="Euro 41 4" xfId="372" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
     <cellStyle name="Euro 41 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
-    <cellStyle name="Euro 41 4 2 2" xfId="2800" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
-    <cellStyle name="Euro 41 4 3" xfId="2799" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Euro 41 4 2 2" xfId="2799" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Euro 41 4 3" xfId="2798" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
     <cellStyle name="Euro 41 5" xfId="374" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
-    <cellStyle name="Euro 41 6" xfId="2795" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Euro 41 6" xfId="2794" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
     <cellStyle name="Euro 42" xfId="375" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
     <cellStyle name="Euro 42 2" xfId="376" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
-    <cellStyle name="Euro 42 2 2" xfId="2802" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Euro 42 2 2" xfId="2801" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
     <cellStyle name="Euro 42 3" xfId="377" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
     <cellStyle name="Euro 42 3 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
     <cellStyle name="Euro 42 3 2 2" xfId="379" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
-    <cellStyle name="Euro 42 3 2 3" xfId="2804" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
-    <cellStyle name="Euro 42 3 3" xfId="2803" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Euro 42 3 2 3" xfId="2803" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="Euro 42 3 3" xfId="2802" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
     <cellStyle name="Euro 42 4" xfId="380" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
     <cellStyle name="Euro 42 4 2" xfId="381" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
-    <cellStyle name="Euro 42 4 2 2" xfId="2806" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
-    <cellStyle name="Euro 42 4 3" xfId="2805" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Euro 42 4 2 2" xfId="2805" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Euro 42 4 3" xfId="2804" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
     <cellStyle name="Euro 42 5" xfId="382" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
-    <cellStyle name="Euro 42 6" xfId="2801" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Euro 42 6" xfId="2800" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
     <cellStyle name="Euro 43" xfId="383" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
     <cellStyle name="Euro 43 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
-    <cellStyle name="Euro 43 2 2" xfId="2808" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Euro 43 2 2" xfId="2807" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
     <cellStyle name="Euro 43 3" xfId="385" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
     <cellStyle name="Euro 43 3 2" xfId="386" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
     <cellStyle name="Euro 43 3 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
-    <cellStyle name="Euro 43 3 2 3" xfId="2810" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
-    <cellStyle name="Euro 43 3 3" xfId="2809" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Euro 43 3 2 3" xfId="2809" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Euro 43 3 3" xfId="2808" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
     <cellStyle name="Euro 43 4" xfId="388" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
     <cellStyle name="Euro 43 4 2" xfId="389" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
-    <cellStyle name="Euro 43 4 2 2" xfId="2812" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
-    <cellStyle name="Euro 43 4 3" xfId="2811" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Euro 43 4 2 2" xfId="2811" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Euro 43 4 3" xfId="2810" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
     <cellStyle name="Euro 43 5" xfId="390" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
-    <cellStyle name="Euro 43 6" xfId="2807" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Euro 43 6" xfId="2806" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
     <cellStyle name="Euro 44" xfId="391" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
     <cellStyle name="Euro 44 2" xfId="392" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
-    <cellStyle name="Euro 44 2 2" xfId="2814" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Euro 44 2 2" xfId="2813" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
     <cellStyle name="Euro 44 3" xfId="393" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
     <cellStyle name="Euro 44 3 2" xfId="394" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
     <cellStyle name="Euro 44 3 2 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
-    <cellStyle name="Euro 44 3 2 3" xfId="2816" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
-    <cellStyle name="Euro 44 3 3" xfId="2815" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Euro 44 3 2 3" xfId="2815" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Euro 44 3 3" xfId="2814" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
     <cellStyle name="Euro 44 4" xfId="396" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
     <cellStyle name="Euro 44 4 2" xfId="397" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
-    <cellStyle name="Euro 44 4 2 2" xfId="2818" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
-    <cellStyle name="Euro 44 4 3" xfId="2817" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Euro 44 4 2 2" xfId="2817" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Euro 44 4 3" xfId="2816" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
     <cellStyle name="Euro 44 5" xfId="398" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
-    <cellStyle name="Euro 44 6" xfId="2813" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Euro 44 6" xfId="2812" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
     <cellStyle name="Euro 45" xfId="399" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
     <cellStyle name="Euro 45 2" xfId="400" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
-    <cellStyle name="Euro 45 2 2" xfId="2820" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
-    <cellStyle name="Euro 45 3" xfId="2819" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Euro 45 2 2" xfId="2819" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Euro 45 3" xfId="2818" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
     <cellStyle name="Euro 46" xfId="401" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
     <cellStyle name="Euro 46 2" xfId="402" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
-    <cellStyle name="Euro 46 2 2" xfId="2822" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
-    <cellStyle name="Euro 46 3" xfId="2821" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Euro 46 2 2" xfId="2821" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Euro 46 3" xfId="2820" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
     <cellStyle name="Euro 47" xfId="403" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
     <cellStyle name="Euro 47 2" xfId="404" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
     <cellStyle name="Euro 47 2 2" xfId="405" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
-    <cellStyle name="Euro 47 2 3" xfId="2824" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
-    <cellStyle name="Euro 47 3" xfId="2823" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="Euro 47 2 3" xfId="2823" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Euro 47 3" xfId="2822" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
     <cellStyle name="Euro 48" xfId="406" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="Euro 48 2" xfId="2825" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Euro 48 2" xfId="2824" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
     <cellStyle name="Euro 49" xfId="407" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
     <cellStyle name="Euro 49 2" xfId="408" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="Euro 49 2 2" xfId="2827" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="Euro 49 3" xfId="2826" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Euro 49 2 2" xfId="2826" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Euro 49 3" xfId="2825" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
     <cellStyle name="Euro 5" xfId="409" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
     <cellStyle name="Euro 5 2" xfId="410" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
-    <cellStyle name="Euro 5 2 2" xfId="2829" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Euro 5 2 2" xfId="2828" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
     <cellStyle name="Euro 5 3" xfId="411" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
     <cellStyle name="Euro 5 3 2" xfId="412" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
     <cellStyle name="Euro 5 3 2 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
-    <cellStyle name="Euro 5 3 2 3" xfId="2831" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
-    <cellStyle name="Euro 5 3 3" xfId="2830" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Euro 5 3 2 3" xfId="2830" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Euro 5 3 3" xfId="2829" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
     <cellStyle name="Euro 5 4" xfId="414" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
     <cellStyle name="Euro 5 4 2" xfId="415" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
-    <cellStyle name="Euro 5 4 2 2" xfId="2833" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
-    <cellStyle name="Euro 5 4 3" xfId="2832" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Euro 5 4 2 2" xfId="2832" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Euro 5 4 3" xfId="2831" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
     <cellStyle name="Euro 5 5" xfId="416" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
-    <cellStyle name="Euro 5 6" xfId="2828" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Euro 5 6" xfId="2827" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
     <cellStyle name="Euro 50" xfId="417" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
-    <cellStyle name="Euro 51" xfId="2590" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Euro 51" xfId="2589" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
     <cellStyle name="Euro 6" xfId="418" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
     <cellStyle name="Euro 6 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
-    <cellStyle name="Euro 6 2 2" xfId="2835" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Euro 6 2 2" xfId="2834" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
     <cellStyle name="Euro 6 3" xfId="420" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
     <cellStyle name="Euro 6 3 2" xfId="421" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
     <cellStyle name="Euro 6 3 2 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
-    <cellStyle name="Euro 6 3 2 3" xfId="2837" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
-    <cellStyle name="Euro 6 3 3" xfId="2836" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Euro 6 3 2 3" xfId="2836" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Euro 6 3 3" xfId="2835" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
     <cellStyle name="Euro 6 4" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
     <cellStyle name="Euro 6 4 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
-    <cellStyle name="Euro 6 4 2 2" xfId="2839" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
-    <cellStyle name="Euro 6 4 3" xfId="2838" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Euro 6 4 2 2" xfId="2838" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Euro 6 4 3" xfId="2837" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
     <cellStyle name="Euro 6 5" xfId="425" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
-    <cellStyle name="Euro 6 6" xfId="2834" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Euro 6 6" xfId="2833" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
     <cellStyle name="Euro 7" xfId="426" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
     <cellStyle name="Euro 7 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
-    <cellStyle name="Euro 7 2 2" xfId="2841" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Euro 7 2 2" xfId="2840" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
     <cellStyle name="Euro 7 3" xfId="428" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
     <cellStyle name="Euro 7 3 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
     <cellStyle name="Euro 7 3 2 2" xfId="430" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
-    <cellStyle name="Euro 7 3 2 3" xfId="2843" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
-    <cellStyle name="Euro 7 3 3" xfId="2842" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Euro 7 3 2 3" xfId="2842" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Euro 7 3 3" xfId="2841" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
     <cellStyle name="Euro 7 4" xfId="431" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
     <cellStyle name="Euro 7 4 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
-    <cellStyle name="Euro 7 4 2 2" xfId="2845" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
-    <cellStyle name="Euro 7 4 3" xfId="2844" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Euro 7 4 2 2" xfId="2844" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Euro 7 4 3" xfId="2843" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
     <cellStyle name="Euro 7 5" xfId="433" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
-    <cellStyle name="Euro 7 6" xfId="2840" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Euro 7 6" xfId="2839" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
     <cellStyle name="Euro 8" xfId="434" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
     <cellStyle name="Euro 8 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
-    <cellStyle name="Euro 8 2 2" xfId="2847" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Euro 8 2 2" xfId="2846" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
     <cellStyle name="Euro 8 3" xfId="436" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
     <cellStyle name="Euro 8 3 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
     <cellStyle name="Euro 8 3 2 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
-    <cellStyle name="Euro 8 3 2 3" xfId="2849" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
-    <cellStyle name="Euro 8 3 3" xfId="2848" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Euro 8 3 2 3" xfId="2848" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Euro 8 3 3" xfId="2847" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
     <cellStyle name="Euro 8 4" xfId="439" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
     <cellStyle name="Euro 8 4 2" xfId="440" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
-    <cellStyle name="Euro 8 4 2 2" xfId="2851" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
-    <cellStyle name="Euro 8 4 3" xfId="2850" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Euro 8 4 2 2" xfId="2850" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Euro 8 4 3" xfId="2849" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
     <cellStyle name="Euro 8 5" xfId="441" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
-    <cellStyle name="Euro 8 6" xfId="2846" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Euro 8 6" xfId="2845" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
     <cellStyle name="Euro 9" xfId="442" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
     <cellStyle name="Euro 9 2" xfId="443" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
-    <cellStyle name="Euro 9 2 2" xfId="2853" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Euro 9 2 2" xfId="2852" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
     <cellStyle name="Euro 9 3" xfId="444" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
     <cellStyle name="Euro 9 3 2" xfId="445" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
     <cellStyle name="Euro 9 3 2 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
-    <cellStyle name="Euro 9 3 2 3" xfId="2855" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
-    <cellStyle name="Euro 9 3 3" xfId="2854" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Euro 9 3 2 3" xfId="2854" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Euro 9 3 3" xfId="2853" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
     <cellStyle name="Euro 9 4" xfId="447" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
     <cellStyle name="Euro 9 4 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
-    <cellStyle name="Euro 9 4 2 2" xfId="2857" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
-    <cellStyle name="Euro 9 4 3" xfId="2856" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Euro 9 4 2 2" xfId="2856" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Euro 9 4 3" xfId="2855" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
     <cellStyle name="Euro 9 5" xfId="449" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
-    <cellStyle name="Euro 9 6" xfId="2852" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Euro 9 6" xfId="2851" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
     <cellStyle name="Fixed2 - Type2" xfId="450" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
     <cellStyle name="Good 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
     <cellStyle name="Hyperlink 2" xfId="452" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
@@ -6562,1008 +6564,1007 @@
     <cellStyle name="Migliaia 10" xfId="700" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
     <cellStyle name="Migliaia 10 2" xfId="701" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
     <cellStyle name="Migliaia 10 2 2" xfId="702" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
-    <cellStyle name="Migliaia 10 2 2 2" xfId="2860" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
-    <cellStyle name="Migliaia 10 2 3" xfId="2859" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Migliaia 10 2 2 2" xfId="2859" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Migliaia 10 2 3" xfId="2858" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
     <cellStyle name="Migliaia 10 3" xfId="703" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
     <cellStyle name="Migliaia 10 3 2" xfId="704" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
     <cellStyle name="Migliaia 10 3 2 2" xfId="705" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
-    <cellStyle name="Migliaia 10 3 2 3" xfId="2862" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
-    <cellStyle name="Migliaia 10 3 3" xfId="2861" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Migliaia 10 3 2 3" xfId="2861" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Migliaia 10 3 3" xfId="2860" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
     <cellStyle name="Migliaia 10 4" xfId="706" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
     <cellStyle name="Migliaia 10 4 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
-    <cellStyle name="Migliaia 10 4 2 2" xfId="2864" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
-    <cellStyle name="Migliaia 10 4 3" xfId="2863" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Migliaia 10 4 2 2" xfId="2863" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Migliaia 10 4 3" xfId="2862" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
     <cellStyle name="Migliaia 10 5" xfId="708" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
-    <cellStyle name="Migliaia 10 6" xfId="2858" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Migliaia 10 6" xfId="2857" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
     <cellStyle name="Migliaia 11" xfId="709" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
     <cellStyle name="Migliaia 11 2" xfId="710" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
     <cellStyle name="Migliaia 11 2 2" xfId="711" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
-    <cellStyle name="Migliaia 11 2 2 2" xfId="2867" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
-    <cellStyle name="Migliaia 11 2 3" xfId="2866" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Migliaia 11 2 2 2" xfId="2866" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Migliaia 11 2 3" xfId="2865" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
     <cellStyle name="Migliaia 11 3" xfId="712" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
     <cellStyle name="Migliaia 11 3 2" xfId="713" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
     <cellStyle name="Migliaia 11 3 2 2" xfId="714" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
-    <cellStyle name="Migliaia 11 3 2 3" xfId="2869" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
-    <cellStyle name="Migliaia 11 3 3" xfId="2868" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Migliaia 11 3 2 3" xfId="2868" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Migliaia 11 3 3" xfId="2867" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
     <cellStyle name="Migliaia 11 4" xfId="715" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
     <cellStyle name="Migliaia 11 4 2" xfId="716" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
-    <cellStyle name="Migliaia 11 4 2 2" xfId="2871" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
-    <cellStyle name="Migliaia 11 4 3" xfId="2870" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Migliaia 11 4 2 2" xfId="2870" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Migliaia 11 4 3" xfId="2869" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
     <cellStyle name="Migliaia 11 5" xfId="717" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
-    <cellStyle name="Migliaia 11 6" xfId="2865" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Migliaia 11 6" xfId="2864" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
     <cellStyle name="Migliaia 12" xfId="718" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
     <cellStyle name="Migliaia 12 2" xfId="719" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
     <cellStyle name="Migliaia 12 2 2" xfId="720" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
-    <cellStyle name="Migliaia 12 2 2 2" xfId="2874" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
-    <cellStyle name="Migliaia 12 2 3" xfId="2873" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Migliaia 12 2 2 2" xfId="2873" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Migliaia 12 2 3" xfId="2872" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
     <cellStyle name="Migliaia 12 3" xfId="721" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
     <cellStyle name="Migliaia 12 3 2" xfId="722" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
     <cellStyle name="Migliaia 12 3 2 2" xfId="723" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
-    <cellStyle name="Migliaia 12 3 2 3" xfId="2876" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
-    <cellStyle name="Migliaia 12 3 3" xfId="2875" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Migliaia 12 3 2 3" xfId="2875" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Migliaia 12 3 3" xfId="2874" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
     <cellStyle name="Migliaia 12 4" xfId="724" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
     <cellStyle name="Migliaia 12 4 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
-    <cellStyle name="Migliaia 12 4 2 2" xfId="2878" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
-    <cellStyle name="Migliaia 12 4 3" xfId="2877" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Migliaia 12 4 2 2" xfId="2877" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Migliaia 12 4 3" xfId="2876" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
     <cellStyle name="Migliaia 12 5" xfId="726" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
-    <cellStyle name="Migliaia 12 6" xfId="2872" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Migliaia 12 6" xfId="2871" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
     <cellStyle name="Migliaia 13" xfId="727" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
     <cellStyle name="Migliaia 13 2" xfId="728" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
     <cellStyle name="Migliaia 13 2 2" xfId="729" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
-    <cellStyle name="Migliaia 13 2 2 2" xfId="2881" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
-    <cellStyle name="Migliaia 13 2 3" xfId="2880" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Migliaia 13 2 2 2" xfId="2880" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Migliaia 13 2 3" xfId="2879" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
     <cellStyle name="Migliaia 13 3" xfId="730" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
     <cellStyle name="Migliaia 13 3 2" xfId="731" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
     <cellStyle name="Migliaia 13 3 2 2" xfId="732" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
-    <cellStyle name="Migliaia 13 3 2 3" xfId="2883" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
-    <cellStyle name="Migliaia 13 3 3" xfId="2882" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Migliaia 13 3 2 3" xfId="2882" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Migliaia 13 3 3" xfId="2881" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
     <cellStyle name="Migliaia 13 4" xfId="733" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
     <cellStyle name="Migliaia 13 4 2" xfId="734" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
-    <cellStyle name="Migliaia 13 4 2 2" xfId="2885" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
-    <cellStyle name="Migliaia 13 4 3" xfId="2884" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Migliaia 13 4 2 2" xfId="2884" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Migliaia 13 4 3" xfId="2883" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
     <cellStyle name="Migliaia 13 5" xfId="735" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
-    <cellStyle name="Migliaia 13 6" xfId="2879" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Migliaia 13 6" xfId="2878" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
     <cellStyle name="Migliaia 14" xfId="736" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
     <cellStyle name="Migliaia 14 2" xfId="737" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
     <cellStyle name="Migliaia 14 2 2" xfId="738" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
-    <cellStyle name="Migliaia 14 2 2 2" xfId="2888" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
-    <cellStyle name="Migliaia 14 2 3" xfId="2887" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Migliaia 14 2 2 2" xfId="2887" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Migliaia 14 2 3" xfId="2886" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
     <cellStyle name="Migliaia 14 3" xfId="739" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
     <cellStyle name="Migliaia 14 3 2" xfId="740" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
     <cellStyle name="Migliaia 14 3 2 2" xfId="741" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
-    <cellStyle name="Migliaia 14 3 2 3" xfId="2890" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
-    <cellStyle name="Migliaia 14 3 3" xfId="2889" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Migliaia 14 3 2 3" xfId="2889" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Migliaia 14 3 3" xfId="2888" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
     <cellStyle name="Migliaia 14 4" xfId="742" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
     <cellStyle name="Migliaia 14 4 2" xfId="743" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
-    <cellStyle name="Migliaia 14 4 2 2" xfId="2892" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
-    <cellStyle name="Migliaia 14 4 3" xfId="2891" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Migliaia 14 4 2 2" xfId="2891" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Migliaia 14 4 3" xfId="2890" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
     <cellStyle name="Migliaia 14 5" xfId="744" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
-    <cellStyle name="Migliaia 14 6" xfId="2886" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Migliaia 14 6" xfId="2885" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
     <cellStyle name="Migliaia 15" xfId="745" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
     <cellStyle name="Migliaia 15 2" xfId="746" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
     <cellStyle name="Migliaia 15 2 2" xfId="747" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
-    <cellStyle name="Migliaia 15 2 2 2" xfId="2895" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
-    <cellStyle name="Migliaia 15 2 3" xfId="2894" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Migliaia 15 2 2 2" xfId="2894" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Migliaia 15 2 3" xfId="2893" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
     <cellStyle name="Migliaia 15 3" xfId="748" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
     <cellStyle name="Migliaia 15 3 2" xfId="749" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
     <cellStyle name="Migliaia 15 3 2 2" xfId="750" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
-    <cellStyle name="Migliaia 15 3 2 3" xfId="2897" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
-    <cellStyle name="Migliaia 15 3 3" xfId="2896" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Migliaia 15 3 2 3" xfId="2896" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Migliaia 15 3 3" xfId="2895" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
     <cellStyle name="Migliaia 15 4" xfId="751" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
     <cellStyle name="Migliaia 15 4 2" xfId="752" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
-    <cellStyle name="Migliaia 15 4 2 2" xfId="2899" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
-    <cellStyle name="Migliaia 15 4 3" xfId="2898" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Migliaia 15 4 2 2" xfId="2898" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Migliaia 15 4 3" xfId="2897" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
     <cellStyle name="Migliaia 15 5" xfId="753" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
-    <cellStyle name="Migliaia 15 6" xfId="2893" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Migliaia 15 6" xfId="2892" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
     <cellStyle name="Migliaia 16" xfId="754" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
     <cellStyle name="Migliaia 16 2" xfId="755" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
     <cellStyle name="Migliaia 16 2 2" xfId="756" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
-    <cellStyle name="Migliaia 16 2 2 2" xfId="2902" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
-    <cellStyle name="Migliaia 16 2 3" xfId="2901" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Migliaia 16 2 2 2" xfId="2901" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Migliaia 16 2 3" xfId="2900" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
     <cellStyle name="Migliaia 16 3" xfId="757" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
     <cellStyle name="Migliaia 16 3 2" xfId="758" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
     <cellStyle name="Migliaia 16 3 2 2" xfId="759" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
-    <cellStyle name="Migliaia 16 3 2 3" xfId="2904" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
-    <cellStyle name="Migliaia 16 3 3" xfId="2903" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Migliaia 16 3 2 3" xfId="2903" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Migliaia 16 3 3" xfId="2902" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
     <cellStyle name="Migliaia 16 4" xfId="760" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
     <cellStyle name="Migliaia 16 4 2" xfId="761" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
-    <cellStyle name="Migliaia 16 4 2 2" xfId="2906" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
-    <cellStyle name="Migliaia 16 4 3" xfId="2905" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Migliaia 16 4 2 2" xfId="2905" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Migliaia 16 4 3" xfId="2904" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
     <cellStyle name="Migliaia 16 5" xfId="762" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
-    <cellStyle name="Migliaia 16 6" xfId="2900" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Migliaia 16 6" xfId="2899" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
     <cellStyle name="Migliaia 17" xfId="763" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
     <cellStyle name="Migliaia 17 2" xfId="764" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
     <cellStyle name="Migliaia 17 2 2" xfId="765" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
-    <cellStyle name="Migliaia 17 2 2 2" xfId="2909" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
-    <cellStyle name="Migliaia 17 2 3" xfId="2908" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Migliaia 17 2 2 2" xfId="2908" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Migliaia 17 2 3" xfId="2907" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
     <cellStyle name="Migliaia 17 3" xfId="766" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
     <cellStyle name="Migliaia 17 3 2" xfId="767" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
     <cellStyle name="Migliaia 17 3 2 2" xfId="768" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
-    <cellStyle name="Migliaia 17 3 2 3" xfId="2911" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
-    <cellStyle name="Migliaia 17 3 3" xfId="2910" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Migliaia 17 3 2 3" xfId="2910" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Migliaia 17 3 3" xfId="2909" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
     <cellStyle name="Migliaia 17 4" xfId="769" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
     <cellStyle name="Migliaia 17 4 2" xfId="770" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
-    <cellStyle name="Migliaia 17 4 2 2" xfId="2913" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
-    <cellStyle name="Migliaia 17 4 3" xfId="2912" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Migliaia 17 4 2 2" xfId="2912" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Migliaia 17 4 3" xfId="2911" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
     <cellStyle name="Migliaia 17 5" xfId="771" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
-    <cellStyle name="Migliaia 17 6" xfId="2907" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Migliaia 17 6" xfId="2906" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
     <cellStyle name="Migliaia 18" xfId="772" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
     <cellStyle name="Migliaia 18 2" xfId="773" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
     <cellStyle name="Migliaia 18 2 2" xfId="774" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
-    <cellStyle name="Migliaia 18 2 2 2" xfId="2916" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
-    <cellStyle name="Migliaia 18 2 3" xfId="2915" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Migliaia 18 2 2 2" xfId="2915" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Migliaia 18 2 3" xfId="2914" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
     <cellStyle name="Migliaia 18 3" xfId="775" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
     <cellStyle name="Migliaia 18 3 2" xfId="776" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
     <cellStyle name="Migliaia 18 3 2 2" xfId="777" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
-    <cellStyle name="Migliaia 18 3 2 3" xfId="2918" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
-    <cellStyle name="Migliaia 18 3 3" xfId="2917" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Migliaia 18 3 2 3" xfId="2917" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Migliaia 18 3 3" xfId="2916" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
     <cellStyle name="Migliaia 18 4" xfId="778" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
     <cellStyle name="Migliaia 18 4 2" xfId="779" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
-    <cellStyle name="Migliaia 18 4 2 2" xfId="2920" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
-    <cellStyle name="Migliaia 18 4 3" xfId="2919" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Migliaia 18 4 2 2" xfId="2919" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Migliaia 18 4 3" xfId="2918" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
     <cellStyle name="Migliaia 18 5" xfId="780" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
-    <cellStyle name="Migliaia 18 6" xfId="2914" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Migliaia 18 6" xfId="2913" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
     <cellStyle name="Migliaia 19" xfId="781" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
     <cellStyle name="Migliaia 19 2" xfId="782" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
     <cellStyle name="Migliaia 19 2 2" xfId="783" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
-    <cellStyle name="Migliaia 19 2 2 2" xfId="2923" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
-    <cellStyle name="Migliaia 19 2 3" xfId="2922" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Migliaia 19 2 2 2" xfId="2922" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Migliaia 19 2 3" xfId="2921" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
     <cellStyle name="Migliaia 19 3" xfId="784" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
     <cellStyle name="Migliaia 19 3 2" xfId="785" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
     <cellStyle name="Migliaia 19 3 2 2" xfId="786" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
-    <cellStyle name="Migliaia 19 3 2 3" xfId="2925" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
-    <cellStyle name="Migliaia 19 3 3" xfId="2924" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Migliaia 19 3 2 3" xfId="2924" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Migliaia 19 3 3" xfId="2923" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
     <cellStyle name="Migliaia 19 4" xfId="787" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
     <cellStyle name="Migliaia 19 4 2" xfId="788" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
-    <cellStyle name="Migliaia 19 4 2 2" xfId="2927" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
-    <cellStyle name="Migliaia 19 4 3" xfId="2926" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Migliaia 19 4 2 2" xfId="2926" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Migliaia 19 4 3" xfId="2925" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
     <cellStyle name="Migliaia 19 5" xfId="789" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
-    <cellStyle name="Migliaia 19 6" xfId="2921" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Migliaia 19 6" xfId="2920" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
     <cellStyle name="Migliaia 2" xfId="790" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
     <cellStyle name="Migliaia 2 2" xfId="791" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
     <cellStyle name="Migliaia 2 2 2" xfId="792" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
     <cellStyle name="Migliaia 2 2 2 2" xfId="793" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
-    <cellStyle name="Migliaia 2 2 2 2 2" xfId="2931" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
-    <cellStyle name="Migliaia 2 2 2 3" xfId="2930" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Migliaia 2 2 2 2 2" xfId="2930" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Migliaia 2 2 2 3" xfId="2929" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
     <cellStyle name="Migliaia 2 2 3" xfId="794" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
-    <cellStyle name="Migliaia 2 2 3 2" xfId="2932" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
-    <cellStyle name="Migliaia 2 2 4" xfId="2929" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Migliaia 2 2 3 2" xfId="2931" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Migliaia 2 2 4" xfId="2928" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
     <cellStyle name="Migliaia 2 3" xfId="795" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
     <cellStyle name="Migliaia 2 3 2" xfId="796" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
     <cellStyle name="Migliaia 2 3 2 2" xfId="797" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
-    <cellStyle name="Migliaia 2 3 2 2 2" xfId="2935" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
-    <cellStyle name="Migliaia 2 3 2 3" xfId="2934" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Migliaia 2 3 2 2 2" xfId="2934" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Migliaia 2 3 2 3" xfId="2933" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
     <cellStyle name="Migliaia 2 3 3" xfId="798" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
-    <cellStyle name="Migliaia 2 3 3 2" xfId="2936" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
-    <cellStyle name="Migliaia 2 3 4" xfId="2933" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Migliaia 2 3 3 2" xfId="2935" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Migliaia 2 3 4" xfId="2932" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
     <cellStyle name="Migliaia 2 4" xfId="799" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
     <cellStyle name="Migliaia 2 4 2" xfId="800" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
     <cellStyle name="Migliaia 2 4 2 2" xfId="801" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
-    <cellStyle name="Migliaia 2 4 2 3" xfId="2938" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
-    <cellStyle name="Migliaia 2 4 3" xfId="2937" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Migliaia 2 4 2 3" xfId="2937" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Migliaia 2 4 3" xfId="2936" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
     <cellStyle name="Migliaia 2 5" xfId="802" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
     <cellStyle name="Migliaia 2 5 2" xfId="803" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
-    <cellStyle name="Migliaia 2 5 2 2" xfId="2940" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
-    <cellStyle name="Migliaia 2 5 3" xfId="2939" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Migliaia 2 5 2 2" xfId="2939" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Migliaia 2 5 3" xfId="2938" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
     <cellStyle name="Migliaia 2 6" xfId="804" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
-    <cellStyle name="Migliaia 2 7" xfId="2928" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Migliaia 2 7" xfId="2927" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
     <cellStyle name="Migliaia 2_Domestico_reg&amp;naz" xfId="805" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
     <cellStyle name="Migliaia 20" xfId="806" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
     <cellStyle name="Migliaia 20 2" xfId="807" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
     <cellStyle name="Migliaia 20 2 2" xfId="808" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
-    <cellStyle name="Migliaia 20 2 2 2" xfId="2943" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
-    <cellStyle name="Migliaia 20 2 3" xfId="2942" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Migliaia 20 2 2 2" xfId="2942" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Migliaia 20 2 3" xfId="2941" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
     <cellStyle name="Migliaia 20 3" xfId="809" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
     <cellStyle name="Migliaia 20 3 2" xfId="810" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
     <cellStyle name="Migliaia 20 3 2 2" xfId="811" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
-    <cellStyle name="Migliaia 20 3 2 3" xfId="2945" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
-    <cellStyle name="Migliaia 20 3 3" xfId="2944" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Migliaia 20 3 2 3" xfId="2944" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Migliaia 20 3 3" xfId="2943" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
     <cellStyle name="Migliaia 20 4" xfId="812" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
     <cellStyle name="Migliaia 20 4 2" xfId="813" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
-    <cellStyle name="Migliaia 20 4 2 2" xfId="2947" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
-    <cellStyle name="Migliaia 20 4 3" xfId="2946" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Migliaia 20 4 2 2" xfId="2946" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Migliaia 20 4 3" xfId="2945" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
     <cellStyle name="Migliaia 20 5" xfId="814" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
-    <cellStyle name="Migliaia 20 6" xfId="2941" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Migliaia 20 6" xfId="2940" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
     <cellStyle name="Migliaia 21" xfId="815" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
     <cellStyle name="Migliaia 21 2" xfId="816" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
     <cellStyle name="Migliaia 21 2 2" xfId="817" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
-    <cellStyle name="Migliaia 21 2 2 2" xfId="2950" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
-    <cellStyle name="Migliaia 21 2 3" xfId="2949" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Migliaia 21 2 2 2" xfId="2949" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Migliaia 21 2 3" xfId="2948" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
     <cellStyle name="Migliaia 21 3" xfId="818" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
     <cellStyle name="Migliaia 21 3 2" xfId="819" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
     <cellStyle name="Migliaia 21 3 2 2" xfId="820" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
-    <cellStyle name="Migliaia 21 3 2 3" xfId="2952" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
-    <cellStyle name="Migliaia 21 3 3" xfId="2951" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Migliaia 21 3 2 3" xfId="2951" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Migliaia 21 3 3" xfId="2950" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
     <cellStyle name="Migliaia 21 4" xfId="821" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
     <cellStyle name="Migliaia 21 4 2" xfId="822" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
-    <cellStyle name="Migliaia 21 4 2 2" xfId="2954" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
-    <cellStyle name="Migliaia 21 4 3" xfId="2953" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Migliaia 21 4 2 2" xfId="2953" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Migliaia 21 4 3" xfId="2952" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
     <cellStyle name="Migliaia 21 5" xfId="823" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
-    <cellStyle name="Migliaia 21 6" xfId="2948" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Migliaia 21 6" xfId="2947" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
     <cellStyle name="Migliaia 22" xfId="824" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
     <cellStyle name="Migliaia 22 2" xfId="825" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
     <cellStyle name="Migliaia 22 2 2" xfId="826" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
-    <cellStyle name="Migliaia 22 2 2 2" xfId="2957" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
-    <cellStyle name="Migliaia 22 2 3" xfId="2956" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Migliaia 22 2 2 2" xfId="2956" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Migliaia 22 2 3" xfId="2955" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
     <cellStyle name="Migliaia 22 3" xfId="827" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
     <cellStyle name="Migliaia 22 3 2" xfId="828" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
     <cellStyle name="Migliaia 22 3 2 2" xfId="829" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
-    <cellStyle name="Migliaia 22 3 2 3" xfId="2959" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
-    <cellStyle name="Migliaia 22 3 3" xfId="2958" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Migliaia 22 3 2 3" xfId="2958" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Migliaia 22 3 3" xfId="2957" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
     <cellStyle name="Migliaia 22 4" xfId="830" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
     <cellStyle name="Migliaia 22 4 2" xfId="831" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
-    <cellStyle name="Migliaia 22 4 2 2" xfId="2961" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
-    <cellStyle name="Migliaia 22 4 3" xfId="2960" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Migliaia 22 4 2 2" xfId="2960" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Migliaia 22 4 3" xfId="2959" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
     <cellStyle name="Migliaia 22 5" xfId="832" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
-    <cellStyle name="Migliaia 22 6" xfId="2955" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Migliaia 22 6" xfId="2954" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
     <cellStyle name="Migliaia 23" xfId="833" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
     <cellStyle name="Migliaia 23 2" xfId="834" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
     <cellStyle name="Migliaia 23 2 2" xfId="835" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
-    <cellStyle name="Migliaia 23 2 2 2" xfId="2964" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
-    <cellStyle name="Migliaia 23 2 3" xfId="2963" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Migliaia 23 2 2 2" xfId="2963" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Migliaia 23 2 3" xfId="2962" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
     <cellStyle name="Migliaia 23 3" xfId="836" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
     <cellStyle name="Migliaia 23 3 2" xfId="837" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
     <cellStyle name="Migliaia 23 3 2 2" xfId="838" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
-    <cellStyle name="Migliaia 23 3 2 3" xfId="2966" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
-    <cellStyle name="Migliaia 23 3 3" xfId="2965" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Migliaia 23 3 2 3" xfId="2965" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Migliaia 23 3 3" xfId="2964" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
     <cellStyle name="Migliaia 23 4" xfId="839" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
     <cellStyle name="Migliaia 23 4 2" xfId="840" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
-    <cellStyle name="Migliaia 23 4 2 2" xfId="2968" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
-    <cellStyle name="Migliaia 23 4 3" xfId="2967" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Migliaia 23 4 2 2" xfId="2967" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Migliaia 23 4 3" xfId="2966" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
     <cellStyle name="Migliaia 23 5" xfId="841" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
-    <cellStyle name="Migliaia 23 6" xfId="2962" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Migliaia 23 6" xfId="2961" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
     <cellStyle name="Migliaia 24" xfId="842" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
     <cellStyle name="Migliaia 24 2" xfId="843" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
     <cellStyle name="Migliaia 24 2 2" xfId="844" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
-    <cellStyle name="Migliaia 24 2 2 2" xfId="2971" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
-    <cellStyle name="Migliaia 24 2 3" xfId="2970" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Migliaia 24 2 2 2" xfId="2970" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Migliaia 24 2 3" xfId="2969" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
     <cellStyle name="Migliaia 24 3" xfId="845" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
     <cellStyle name="Migliaia 24 3 2" xfId="846" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
     <cellStyle name="Migliaia 24 3 2 2" xfId="847" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
-    <cellStyle name="Migliaia 24 3 2 3" xfId="2973" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
-    <cellStyle name="Migliaia 24 3 3" xfId="2972" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Migliaia 24 3 2 3" xfId="2972" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Migliaia 24 3 3" xfId="2971" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
     <cellStyle name="Migliaia 24 4" xfId="848" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
     <cellStyle name="Migliaia 24 4 2" xfId="849" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
-    <cellStyle name="Migliaia 24 4 2 2" xfId="2975" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
-    <cellStyle name="Migliaia 24 4 3" xfId="2974" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Migliaia 24 4 2 2" xfId="2974" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Migliaia 24 4 3" xfId="2973" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
     <cellStyle name="Migliaia 24 5" xfId="850" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
-    <cellStyle name="Migliaia 24 6" xfId="2969" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Migliaia 24 6" xfId="2968" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
     <cellStyle name="Migliaia 25" xfId="851" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
     <cellStyle name="Migliaia 25 2" xfId="852" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
     <cellStyle name="Migliaia 25 2 2" xfId="853" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
-    <cellStyle name="Migliaia 25 2 2 2" xfId="2978" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
-    <cellStyle name="Migliaia 25 2 3" xfId="2977" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="Migliaia 25 2 2 2" xfId="2977" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="Migliaia 25 2 3" xfId="2976" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
     <cellStyle name="Migliaia 25 3" xfId="854" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
     <cellStyle name="Migliaia 25 3 2" xfId="855" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
     <cellStyle name="Migliaia 25 3 2 2" xfId="856" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
-    <cellStyle name="Migliaia 25 3 2 3" xfId="2980" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
-    <cellStyle name="Migliaia 25 3 3" xfId="2979" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Migliaia 25 3 2 3" xfId="2979" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Migliaia 25 3 3" xfId="2978" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
     <cellStyle name="Migliaia 25 4" xfId="857" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
     <cellStyle name="Migliaia 25 4 2" xfId="858" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
-    <cellStyle name="Migliaia 25 4 2 2" xfId="2982" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
-    <cellStyle name="Migliaia 25 4 3" xfId="2981" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Migliaia 25 4 2 2" xfId="2981" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Migliaia 25 4 3" xfId="2980" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
     <cellStyle name="Migliaia 25 5" xfId="859" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
-    <cellStyle name="Migliaia 25 6" xfId="2976" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Migliaia 25 6" xfId="2975" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
     <cellStyle name="Migliaia 26" xfId="860" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
     <cellStyle name="Migliaia 26 2" xfId="861" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
     <cellStyle name="Migliaia 26 2 2" xfId="862" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
-    <cellStyle name="Migliaia 26 2 2 2" xfId="2985" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
-    <cellStyle name="Migliaia 26 2 3" xfId="2984" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Migliaia 26 2 2 2" xfId="2984" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Migliaia 26 2 3" xfId="2983" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
     <cellStyle name="Migliaia 26 3" xfId="863" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
     <cellStyle name="Migliaia 26 3 2" xfId="864" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
     <cellStyle name="Migliaia 26 3 2 2" xfId="865" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
-    <cellStyle name="Migliaia 26 3 2 3" xfId="2987" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
-    <cellStyle name="Migliaia 26 3 3" xfId="2986" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Migliaia 26 3 2 3" xfId="2986" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Migliaia 26 3 3" xfId="2985" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
     <cellStyle name="Migliaia 26 4" xfId="866" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
     <cellStyle name="Migliaia 26 4 2" xfId="867" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
-    <cellStyle name="Migliaia 26 4 2 2" xfId="2989" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
-    <cellStyle name="Migliaia 26 4 3" xfId="2988" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Migliaia 26 4 2 2" xfId="2988" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Migliaia 26 4 3" xfId="2987" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
     <cellStyle name="Migliaia 26 5" xfId="868" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
-    <cellStyle name="Migliaia 26 6" xfId="2983" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Migliaia 26 6" xfId="2982" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
     <cellStyle name="Migliaia 27" xfId="869" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
     <cellStyle name="Migliaia 27 2" xfId="870" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
     <cellStyle name="Migliaia 27 2 2" xfId="871" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
-    <cellStyle name="Migliaia 27 2 2 2" xfId="2992" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
-    <cellStyle name="Migliaia 27 2 3" xfId="2991" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Migliaia 27 2 2 2" xfId="2991" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Migliaia 27 2 3" xfId="2990" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
     <cellStyle name="Migliaia 27 3" xfId="872" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
     <cellStyle name="Migliaia 27 3 2" xfId="873" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
     <cellStyle name="Migliaia 27 3 2 2" xfId="874" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
-    <cellStyle name="Migliaia 27 3 2 3" xfId="2994" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
-    <cellStyle name="Migliaia 27 3 3" xfId="2993" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Migliaia 27 3 2 3" xfId="2993" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Migliaia 27 3 3" xfId="2992" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
     <cellStyle name="Migliaia 27 4" xfId="875" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
     <cellStyle name="Migliaia 27 4 2" xfId="876" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
-    <cellStyle name="Migliaia 27 4 2 2" xfId="2996" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
-    <cellStyle name="Migliaia 27 4 3" xfId="2995" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Migliaia 27 4 2 2" xfId="2995" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Migliaia 27 4 3" xfId="2994" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
     <cellStyle name="Migliaia 27 5" xfId="877" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
-    <cellStyle name="Migliaia 27 6" xfId="2990" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Migliaia 27 6" xfId="2989" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
     <cellStyle name="Migliaia 28" xfId="878" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
     <cellStyle name="Migliaia 28 2" xfId="879" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
     <cellStyle name="Migliaia 28 2 2" xfId="880" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
-    <cellStyle name="Migliaia 28 2 2 2" xfId="2999" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
-    <cellStyle name="Migliaia 28 2 3" xfId="2998" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Migliaia 28 2 2 2" xfId="2998" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Migliaia 28 2 3" xfId="2997" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
     <cellStyle name="Migliaia 28 3" xfId="881" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
     <cellStyle name="Migliaia 28 3 2" xfId="882" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
     <cellStyle name="Migliaia 28 3 2 2" xfId="883" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
-    <cellStyle name="Migliaia 28 3 2 3" xfId="3001" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
-    <cellStyle name="Migliaia 28 3 3" xfId="3000" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Migliaia 28 3 2 3" xfId="3000" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Migliaia 28 3 3" xfId="2999" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
     <cellStyle name="Migliaia 28 4" xfId="884" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
     <cellStyle name="Migliaia 28 4 2" xfId="885" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
-    <cellStyle name="Migliaia 28 4 2 2" xfId="3003" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
-    <cellStyle name="Migliaia 28 4 3" xfId="3002" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Migliaia 28 4 2 2" xfId="3002" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Migliaia 28 4 3" xfId="3001" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
     <cellStyle name="Migliaia 28 5" xfId="886" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
-    <cellStyle name="Migliaia 28 6" xfId="2997" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Migliaia 28 6" xfId="2996" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
     <cellStyle name="Migliaia 29" xfId="887" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
     <cellStyle name="Migliaia 29 2" xfId="888" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
     <cellStyle name="Migliaia 29 2 2" xfId="889" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
-    <cellStyle name="Migliaia 29 2 2 2" xfId="3006" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
-    <cellStyle name="Migliaia 29 2 3" xfId="3005" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Migliaia 29 2 2 2" xfId="3005" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Migliaia 29 2 3" xfId="3004" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
     <cellStyle name="Migliaia 29 3" xfId="890" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
     <cellStyle name="Migliaia 29 3 2" xfId="891" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
     <cellStyle name="Migliaia 29 3 2 2" xfId="892" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
-    <cellStyle name="Migliaia 29 3 2 3" xfId="3008" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
-    <cellStyle name="Migliaia 29 3 3" xfId="3007" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Migliaia 29 3 2 3" xfId="3007" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Migliaia 29 3 3" xfId="3006" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
     <cellStyle name="Migliaia 29 4" xfId="893" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
     <cellStyle name="Migliaia 29 4 2" xfId="894" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
-    <cellStyle name="Migliaia 29 4 2 2" xfId="3010" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
-    <cellStyle name="Migliaia 29 4 3" xfId="3009" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Migliaia 29 4 2 2" xfId="3009" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Migliaia 29 4 3" xfId="3008" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
     <cellStyle name="Migliaia 29 5" xfId="895" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
-    <cellStyle name="Migliaia 29 6" xfId="3004" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Migliaia 29 6" xfId="3003" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
     <cellStyle name="Migliaia 3" xfId="896" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
     <cellStyle name="Migliaia 3 2" xfId="897" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
     <cellStyle name="Migliaia 3 2 2" xfId="898" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
-    <cellStyle name="Migliaia 3 2 2 2" xfId="3013" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
-    <cellStyle name="Migliaia 3 2 3" xfId="3012" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Migliaia 3 2 2 2" xfId="3012" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Migliaia 3 2 3" xfId="3011" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
     <cellStyle name="Migliaia 3 3" xfId="899" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
     <cellStyle name="Migliaia 3 3 2" xfId="900" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
     <cellStyle name="Migliaia 3 3 2 2" xfId="901" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
-    <cellStyle name="Migliaia 3 3 2 3" xfId="3015" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
-    <cellStyle name="Migliaia 3 3 3" xfId="3014" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Migliaia 3 3 2 3" xfId="3014" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Migliaia 3 3 3" xfId="3013" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
     <cellStyle name="Migliaia 3 4" xfId="902" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
     <cellStyle name="Migliaia 3 4 2" xfId="903" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
-    <cellStyle name="Migliaia 3 4 2 2" xfId="3017" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
-    <cellStyle name="Migliaia 3 4 3" xfId="3016" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Migliaia 3 4 2 2" xfId="3016" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Migliaia 3 4 3" xfId="3015" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
     <cellStyle name="Migliaia 3 5" xfId="904" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
-    <cellStyle name="Migliaia 3 6" xfId="3011" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
+    <cellStyle name="Migliaia 3 6" xfId="3010" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
     <cellStyle name="Migliaia 30" xfId="905" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
     <cellStyle name="Migliaia 30 2" xfId="906" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
     <cellStyle name="Migliaia 30 2 2" xfId="907" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
-    <cellStyle name="Migliaia 30 2 2 2" xfId="3020" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
-    <cellStyle name="Migliaia 30 2 3" xfId="3019" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Migliaia 30 2 2 2" xfId="3019" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Migliaia 30 2 3" xfId="3018" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
     <cellStyle name="Migliaia 30 3" xfId="908" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
     <cellStyle name="Migliaia 30 3 2" xfId="909" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
     <cellStyle name="Migliaia 30 3 2 2" xfId="910" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
-    <cellStyle name="Migliaia 30 3 2 3" xfId="3022" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
-    <cellStyle name="Migliaia 30 3 3" xfId="3021" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Migliaia 30 3 2 3" xfId="3021" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Migliaia 30 3 3" xfId="3020" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
     <cellStyle name="Migliaia 30 4" xfId="911" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
     <cellStyle name="Migliaia 30 4 2" xfId="912" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
-    <cellStyle name="Migliaia 30 4 2 2" xfId="3024" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
-    <cellStyle name="Migliaia 30 4 3" xfId="3023" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Migliaia 30 4 2 2" xfId="3023" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Migliaia 30 4 3" xfId="3022" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
     <cellStyle name="Migliaia 30 5" xfId="913" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
-    <cellStyle name="Migliaia 30 6" xfId="3018" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Migliaia 30 6" xfId="3017" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
     <cellStyle name="Migliaia 31" xfId="914" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
     <cellStyle name="Migliaia 31 2" xfId="915" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
     <cellStyle name="Migliaia 31 2 2" xfId="916" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
-    <cellStyle name="Migliaia 31 2 2 2" xfId="3027" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
-    <cellStyle name="Migliaia 31 2 3" xfId="3026" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Migliaia 31 2 2 2" xfId="3026" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Migliaia 31 2 3" xfId="3025" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
     <cellStyle name="Migliaia 31 3" xfId="917" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
     <cellStyle name="Migliaia 31 3 2" xfId="918" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
     <cellStyle name="Migliaia 31 3 2 2" xfId="919" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
-    <cellStyle name="Migliaia 31 3 2 3" xfId="3029" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
-    <cellStyle name="Migliaia 31 3 3" xfId="3028" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Migliaia 31 3 2 3" xfId="3028" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Migliaia 31 3 3" xfId="3027" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
     <cellStyle name="Migliaia 31 4" xfId="920" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
     <cellStyle name="Migliaia 31 4 2" xfId="921" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
-    <cellStyle name="Migliaia 31 4 2 2" xfId="3031" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
-    <cellStyle name="Migliaia 31 4 3" xfId="3030" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Migliaia 31 4 2 2" xfId="3030" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Migliaia 31 4 3" xfId="3029" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
     <cellStyle name="Migliaia 31 5" xfId="922" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
-    <cellStyle name="Migliaia 31 6" xfId="3025" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Migliaia 31 6" xfId="3024" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
     <cellStyle name="Migliaia 32" xfId="923" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
     <cellStyle name="Migliaia 32 2" xfId="924" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
     <cellStyle name="Migliaia 32 2 2" xfId="925" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
-    <cellStyle name="Migliaia 32 2 2 2" xfId="3034" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
-    <cellStyle name="Migliaia 32 2 3" xfId="3033" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
+    <cellStyle name="Migliaia 32 2 2 2" xfId="3033" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Migliaia 32 2 3" xfId="3032" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
     <cellStyle name="Migliaia 32 3" xfId="926" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
     <cellStyle name="Migliaia 32 3 2" xfId="927" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
     <cellStyle name="Migliaia 32 3 2 2" xfId="928" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
-    <cellStyle name="Migliaia 32 3 2 3" xfId="3036" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
-    <cellStyle name="Migliaia 32 3 3" xfId="3035" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Migliaia 32 3 2 3" xfId="3035" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Migliaia 32 3 3" xfId="3034" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
     <cellStyle name="Migliaia 32 4" xfId="929" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
     <cellStyle name="Migliaia 32 4 2" xfId="930" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
-    <cellStyle name="Migliaia 32 4 2 2" xfId="3038" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
-    <cellStyle name="Migliaia 32 4 3" xfId="3037" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Migliaia 32 4 2 2" xfId="3037" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Migliaia 32 4 3" xfId="3036" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
     <cellStyle name="Migliaia 32 5" xfId="931" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
-    <cellStyle name="Migliaia 32 6" xfId="3032" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Migliaia 32 6" xfId="3031" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
     <cellStyle name="Migliaia 33" xfId="932" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
     <cellStyle name="Migliaia 33 2" xfId="933" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
     <cellStyle name="Migliaia 33 2 2" xfId="934" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
-    <cellStyle name="Migliaia 33 2 2 2" xfId="3041" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
-    <cellStyle name="Migliaia 33 2 3" xfId="3040" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
+    <cellStyle name="Migliaia 33 2 2 2" xfId="3040" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Migliaia 33 2 3" xfId="3039" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
     <cellStyle name="Migliaia 33 3" xfId="935" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
     <cellStyle name="Migliaia 33 3 2" xfId="936" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
     <cellStyle name="Migliaia 33 3 2 2" xfId="937" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
-    <cellStyle name="Migliaia 33 3 2 3" xfId="3043" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
-    <cellStyle name="Migliaia 33 3 3" xfId="3042" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
+    <cellStyle name="Migliaia 33 3 2 3" xfId="3042" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
+    <cellStyle name="Migliaia 33 3 3" xfId="3041" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
     <cellStyle name="Migliaia 33 4" xfId="938" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
     <cellStyle name="Migliaia 33 4 2" xfId="939" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
-    <cellStyle name="Migliaia 33 4 2 2" xfId="3045" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
-    <cellStyle name="Migliaia 33 4 3" xfId="3044" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Migliaia 33 4 2 2" xfId="3044" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
+    <cellStyle name="Migliaia 33 4 3" xfId="3043" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
     <cellStyle name="Migliaia 33 5" xfId="940" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
-    <cellStyle name="Migliaia 33 6" xfId="3039" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
+    <cellStyle name="Migliaia 33 6" xfId="3038" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
     <cellStyle name="Migliaia 34" xfId="941" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
     <cellStyle name="Migliaia 34 2" xfId="942" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
     <cellStyle name="Migliaia 34 2 2" xfId="943" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
-    <cellStyle name="Migliaia 34 2 2 2" xfId="3048" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
-    <cellStyle name="Migliaia 34 2 3" xfId="3047" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Migliaia 34 2 2 2" xfId="3047" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
+    <cellStyle name="Migliaia 34 2 3" xfId="3046" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
     <cellStyle name="Migliaia 34 3" xfId="944" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
     <cellStyle name="Migliaia 34 3 2" xfId="945" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
     <cellStyle name="Migliaia 34 3 2 2" xfId="946" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
-    <cellStyle name="Migliaia 34 3 2 3" xfId="3050" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
-    <cellStyle name="Migliaia 34 3 3" xfId="3049" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Migliaia 34 3 2 3" xfId="3049" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
+    <cellStyle name="Migliaia 34 3 3" xfId="3048" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
     <cellStyle name="Migliaia 34 4" xfId="947" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
     <cellStyle name="Migliaia 34 4 2" xfId="948" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
-    <cellStyle name="Migliaia 34 4 2 2" xfId="3052" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
-    <cellStyle name="Migliaia 34 4 3" xfId="3051" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
+    <cellStyle name="Migliaia 34 4 2 2" xfId="3051" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Migliaia 34 4 3" xfId="3050" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
     <cellStyle name="Migliaia 34 5" xfId="949" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
-    <cellStyle name="Migliaia 34 6" xfId="3046" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
+    <cellStyle name="Migliaia 34 6" xfId="3045" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
     <cellStyle name="Migliaia 35" xfId="950" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
     <cellStyle name="Migliaia 35 2" xfId="951" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
     <cellStyle name="Migliaia 35 2 2" xfId="952" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
-    <cellStyle name="Migliaia 35 2 2 2" xfId="3055" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
-    <cellStyle name="Migliaia 35 2 3" xfId="3054" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
+    <cellStyle name="Migliaia 35 2 2 2" xfId="3054" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Migliaia 35 2 3" xfId="3053" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
     <cellStyle name="Migliaia 35 3" xfId="953" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
     <cellStyle name="Migliaia 35 3 2" xfId="954" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
     <cellStyle name="Migliaia 35 3 2 2" xfId="955" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
-    <cellStyle name="Migliaia 35 3 2 3" xfId="3057" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
-    <cellStyle name="Migliaia 35 3 3" xfId="3056" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Migliaia 35 3 2 3" xfId="3056" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
+    <cellStyle name="Migliaia 35 3 3" xfId="3055" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
     <cellStyle name="Migliaia 35 4" xfId="956" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
     <cellStyle name="Migliaia 35 4 2" xfId="957" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
-    <cellStyle name="Migliaia 35 4 2 2" xfId="3059" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
-    <cellStyle name="Migliaia 35 4 3" xfId="3058" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
+    <cellStyle name="Migliaia 35 4 2 2" xfId="3058" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
+    <cellStyle name="Migliaia 35 4 3" xfId="3057" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
     <cellStyle name="Migliaia 35 5" xfId="958" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
-    <cellStyle name="Migliaia 35 6" xfId="3053" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
+    <cellStyle name="Migliaia 35 6" xfId="3052" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
     <cellStyle name="Migliaia 36" xfId="959" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
     <cellStyle name="Migliaia 36 2" xfId="960" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
     <cellStyle name="Migliaia 36 2 2" xfId="961" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
-    <cellStyle name="Migliaia 36 2 2 2" xfId="3062" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
-    <cellStyle name="Migliaia 36 2 3" xfId="3061" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Migliaia 36 2 2 2" xfId="3061" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
+    <cellStyle name="Migliaia 36 2 3" xfId="3060" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
     <cellStyle name="Migliaia 36 3" xfId="962" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
     <cellStyle name="Migliaia 36 3 2" xfId="963" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
     <cellStyle name="Migliaia 36 3 2 2" xfId="964" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
-    <cellStyle name="Migliaia 36 3 2 3" xfId="3064" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
-    <cellStyle name="Migliaia 36 3 3" xfId="3063" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
+    <cellStyle name="Migliaia 36 3 2 3" xfId="3063" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
+    <cellStyle name="Migliaia 36 3 3" xfId="3062" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
     <cellStyle name="Migliaia 36 4" xfId="965" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
     <cellStyle name="Migliaia 36 4 2" xfId="966" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
-    <cellStyle name="Migliaia 36 4 2 2" xfId="3066" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
-    <cellStyle name="Migliaia 36 4 3" xfId="3065" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Migliaia 36 4 2 2" xfId="3065" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
+    <cellStyle name="Migliaia 36 4 3" xfId="3064" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
     <cellStyle name="Migliaia 36 5" xfId="967" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
-    <cellStyle name="Migliaia 36 6" xfId="3060" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
+    <cellStyle name="Migliaia 36 6" xfId="3059" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
     <cellStyle name="Migliaia 37" xfId="968" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
     <cellStyle name="Migliaia 37 2" xfId="969" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
     <cellStyle name="Migliaia 37 2 2" xfId="970" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
-    <cellStyle name="Migliaia 37 2 2 2" xfId="3069" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
-    <cellStyle name="Migliaia 37 2 3" xfId="3068" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
+    <cellStyle name="Migliaia 37 2 2 2" xfId="3068" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Migliaia 37 2 3" xfId="3067" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
     <cellStyle name="Migliaia 37 3" xfId="971" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
     <cellStyle name="Migliaia 37 3 2" xfId="972" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
     <cellStyle name="Migliaia 37 3 2 2" xfId="973" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
-    <cellStyle name="Migliaia 37 3 2 3" xfId="3071" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
-    <cellStyle name="Migliaia 37 3 3" xfId="3070" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Migliaia 37 3 2 3" xfId="3070" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
+    <cellStyle name="Migliaia 37 3 3" xfId="3069" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
     <cellStyle name="Migliaia 37 4" xfId="974" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
     <cellStyle name="Migliaia 37 4 2" xfId="975" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
-    <cellStyle name="Migliaia 37 4 2 2" xfId="3073" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
-    <cellStyle name="Migliaia 37 4 3" xfId="3072" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Migliaia 37 4 2 2" xfId="3072" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
+    <cellStyle name="Migliaia 37 4 3" xfId="3071" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
     <cellStyle name="Migliaia 37 5" xfId="976" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
-    <cellStyle name="Migliaia 37 6" xfId="3067" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Migliaia 37 6" xfId="3066" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
     <cellStyle name="Migliaia 38" xfId="977" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
     <cellStyle name="Migliaia 38 2" xfId="978" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
     <cellStyle name="Migliaia 38 2 2" xfId="979" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
-    <cellStyle name="Migliaia 38 2 2 2" xfId="3076" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
-    <cellStyle name="Migliaia 38 2 3" xfId="3075" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
+    <cellStyle name="Migliaia 38 2 2 2" xfId="3075" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Migliaia 38 2 3" xfId="3074" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
     <cellStyle name="Migliaia 38 3" xfId="980" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
     <cellStyle name="Migliaia 38 3 2" xfId="981" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
     <cellStyle name="Migliaia 38 3 2 2" xfId="982" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
-    <cellStyle name="Migliaia 38 3 2 3" xfId="3078" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
-    <cellStyle name="Migliaia 38 3 3" xfId="3077" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Migliaia 38 3 2 3" xfId="3077" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Migliaia 38 3 3" xfId="3076" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
     <cellStyle name="Migliaia 38 4" xfId="983" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
     <cellStyle name="Migliaia 38 4 2" xfId="984" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
-    <cellStyle name="Migliaia 38 4 2 2" xfId="3080" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
-    <cellStyle name="Migliaia 38 4 3" xfId="3079" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
+    <cellStyle name="Migliaia 38 4 2 2" xfId="3079" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Migliaia 38 4 3" xfId="3078" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
     <cellStyle name="Migliaia 38 5" xfId="985" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
-    <cellStyle name="Migliaia 38 6" xfId="3074" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
+    <cellStyle name="Migliaia 38 6" xfId="3073" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
     <cellStyle name="Migliaia 39" xfId="986" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
     <cellStyle name="Migliaia 39 2" xfId="987" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
     <cellStyle name="Migliaia 39 2 2" xfId="988" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
-    <cellStyle name="Migliaia 39 2 2 2" xfId="3083" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
-    <cellStyle name="Migliaia 39 2 3" xfId="3082" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Migliaia 39 2 2 2" xfId="3082" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
+    <cellStyle name="Migliaia 39 2 3" xfId="3081" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
     <cellStyle name="Migliaia 39 3" xfId="989" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
     <cellStyle name="Migliaia 39 3 2" xfId="990" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
     <cellStyle name="Migliaia 39 3 2 2" xfId="991" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
-    <cellStyle name="Migliaia 39 3 2 3" xfId="3085" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
-    <cellStyle name="Migliaia 39 3 3" xfId="3084" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
+    <cellStyle name="Migliaia 39 3 2 3" xfId="3084" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
+    <cellStyle name="Migliaia 39 3 3" xfId="3083" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
     <cellStyle name="Migliaia 39 4" xfId="992" xr:uid="{00000000-0005-0000-0000-0000D6050000}"/>
     <cellStyle name="Migliaia 39 4 2" xfId="993" xr:uid="{00000000-0005-0000-0000-0000D7050000}"/>
-    <cellStyle name="Migliaia 39 4 2 2" xfId="3087" xr:uid="{00000000-0005-0000-0000-0000D8050000}"/>
-    <cellStyle name="Migliaia 39 4 3" xfId="3086" xr:uid="{00000000-0005-0000-0000-0000D9050000}"/>
+    <cellStyle name="Migliaia 39 4 2 2" xfId="3086" xr:uid="{00000000-0005-0000-0000-0000D8050000}"/>
+    <cellStyle name="Migliaia 39 4 3" xfId="3085" xr:uid="{00000000-0005-0000-0000-0000D9050000}"/>
     <cellStyle name="Migliaia 39 5" xfId="994" xr:uid="{00000000-0005-0000-0000-0000DA050000}"/>
-    <cellStyle name="Migliaia 39 6" xfId="3081" xr:uid="{00000000-0005-0000-0000-0000DB050000}"/>
+    <cellStyle name="Migliaia 39 6" xfId="3080" xr:uid="{00000000-0005-0000-0000-0000DB050000}"/>
     <cellStyle name="Migliaia 4" xfId="995" xr:uid="{00000000-0005-0000-0000-0000DC050000}"/>
     <cellStyle name="Migliaia 4 2" xfId="996" xr:uid="{00000000-0005-0000-0000-0000DD050000}"/>
     <cellStyle name="Migliaia 4 2 2" xfId="997" xr:uid="{00000000-0005-0000-0000-0000DE050000}"/>
-    <cellStyle name="Migliaia 4 2 2 2" xfId="3090" xr:uid="{00000000-0005-0000-0000-0000DF050000}"/>
-    <cellStyle name="Migliaia 4 2 3" xfId="3089" xr:uid="{00000000-0005-0000-0000-0000E0050000}"/>
+    <cellStyle name="Migliaia 4 2 2 2" xfId="3089" xr:uid="{00000000-0005-0000-0000-0000DF050000}"/>
+    <cellStyle name="Migliaia 4 2 3" xfId="3088" xr:uid="{00000000-0005-0000-0000-0000E0050000}"/>
     <cellStyle name="Migliaia 4 3" xfId="998" xr:uid="{00000000-0005-0000-0000-0000E1050000}"/>
     <cellStyle name="Migliaia 4 3 2" xfId="999" xr:uid="{00000000-0005-0000-0000-0000E2050000}"/>
     <cellStyle name="Migliaia 4 3 2 2" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000E3050000}"/>
-    <cellStyle name="Migliaia 4 3 2 3" xfId="3092" xr:uid="{00000000-0005-0000-0000-0000E4050000}"/>
-    <cellStyle name="Migliaia 4 3 3" xfId="3091" xr:uid="{00000000-0005-0000-0000-0000E5050000}"/>
+    <cellStyle name="Migliaia 4 3 2 3" xfId="3091" xr:uid="{00000000-0005-0000-0000-0000E4050000}"/>
+    <cellStyle name="Migliaia 4 3 3" xfId="3090" xr:uid="{00000000-0005-0000-0000-0000E5050000}"/>
     <cellStyle name="Migliaia 4 4" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000E6050000}"/>
     <cellStyle name="Migliaia 4 4 2" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000E7050000}"/>
-    <cellStyle name="Migliaia 4 4 2 2" xfId="3094" xr:uid="{00000000-0005-0000-0000-0000E8050000}"/>
-    <cellStyle name="Migliaia 4 4 3" xfId="3093" xr:uid="{00000000-0005-0000-0000-0000E9050000}"/>
+    <cellStyle name="Migliaia 4 4 2 2" xfId="3093" xr:uid="{00000000-0005-0000-0000-0000E8050000}"/>
+    <cellStyle name="Migliaia 4 4 3" xfId="3092" xr:uid="{00000000-0005-0000-0000-0000E9050000}"/>
     <cellStyle name="Migliaia 4 5" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000EA050000}"/>
-    <cellStyle name="Migliaia 4 6" xfId="3088" xr:uid="{00000000-0005-0000-0000-0000EB050000}"/>
+    <cellStyle name="Migliaia 4 6" xfId="3087" xr:uid="{00000000-0005-0000-0000-0000EB050000}"/>
     <cellStyle name="Migliaia 40" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000EC050000}"/>
     <cellStyle name="Migliaia 40 2" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000ED050000}"/>
     <cellStyle name="Migliaia 40 2 2" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000EE050000}"/>
-    <cellStyle name="Migliaia 40 2 2 2" xfId="3097" xr:uid="{00000000-0005-0000-0000-0000EF050000}"/>
-    <cellStyle name="Migliaia 40 2 3" xfId="3096" xr:uid="{00000000-0005-0000-0000-0000F0050000}"/>
+    <cellStyle name="Migliaia 40 2 2 2" xfId="3096" xr:uid="{00000000-0005-0000-0000-0000EF050000}"/>
+    <cellStyle name="Migliaia 40 2 3" xfId="3095" xr:uid="{00000000-0005-0000-0000-0000F0050000}"/>
     <cellStyle name="Migliaia 40 3" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000F1050000}"/>
     <cellStyle name="Migliaia 40 3 2" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000F2050000}"/>
     <cellStyle name="Migliaia 40 3 2 2" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000F3050000}"/>
-    <cellStyle name="Migliaia 40 3 2 3" xfId="3099" xr:uid="{00000000-0005-0000-0000-0000F4050000}"/>
-    <cellStyle name="Migliaia 40 3 3" xfId="3098" xr:uid="{00000000-0005-0000-0000-0000F5050000}"/>
+    <cellStyle name="Migliaia 40 3 2 3" xfId="3098" xr:uid="{00000000-0005-0000-0000-0000F4050000}"/>
+    <cellStyle name="Migliaia 40 3 3" xfId="3097" xr:uid="{00000000-0005-0000-0000-0000F5050000}"/>
     <cellStyle name="Migliaia 40 4" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000F6050000}"/>
     <cellStyle name="Migliaia 40 4 2" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000F7050000}"/>
-    <cellStyle name="Migliaia 40 4 2 2" xfId="3101" xr:uid="{00000000-0005-0000-0000-0000F8050000}"/>
-    <cellStyle name="Migliaia 40 4 3" xfId="3100" xr:uid="{00000000-0005-0000-0000-0000F9050000}"/>
+    <cellStyle name="Migliaia 40 4 2 2" xfId="3100" xr:uid="{00000000-0005-0000-0000-0000F8050000}"/>
+    <cellStyle name="Migliaia 40 4 3" xfId="3099" xr:uid="{00000000-0005-0000-0000-0000F9050000}"/>
     <cellStyle name="Migliaia 40 5" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000FA050000}"/>
-    <cellStyle name="Migliaia 40 6" xfId="3095" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
+    <cellStyle name="Migliaia 40 6" xfId="3094" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
     <cellStyle name="Migliaia 41" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000FC050000}"/>
     <cellStyle name="Migliaia 41 2" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000FD050000}"/>
     <cellStyle name="Migliaia 41 2 2" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000FE050000}"/>
-    <cellStyle name="Migliaia 41 2 2 2" xfId="3104" xr:uid="{00000000-0005-0000-0000-0000FF050000}"/>
-    <cellStyle name="Migliaia 41 2 3" xfId="3103" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
+    <cellStyle name="Migliaia 41 2 2 2" xfId="3103" xr:uid="{00000000-0005-0000-0000-0000FF050000}"/>
+    <cellStyle name="Migliaia 41 2 3" xfId="3102" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
     <cellStyle name="Migliaia 41 3" xfId="1016" xr:uid="{00000000-0005-0000-0000-000001060000}"/>
     <cellStyle name="Migliaia 41 3 2" xfId="1017" xr:uid="{00000000-0005-0000-0000-000002060000}"/>
     <cellStyle name="Migliaia 41 3 2 2" xfId="1018" xr:uid="{00000000-0005-0000-0000-000003060000}"/>
-    <cellStyle name="Migliaia 41 3 2 3" xfId="3106" xr:uid="{00000000-0005-0000-0000-000004060000}"/>
-    <cellStyle name="Migliaia 41 3 3" xfId="3105" xr:uid="{00000000-0005-0000-0000-000005060000}"/>
+    <cellStyle name="Migliaia 41 3 2 3" xfId="3105" xr:uid="{00000000-0005-0000-0000-000004060000}"/>
+    <cellStyle name="Migliaia 41 3 3" xfId="3104" xr:uid="{00000000-0005-0000-0000-000005060000}"/>
     <cellStyle name="Migliaia 41 4" xfId="1019" xr:uid="{00000000-0005-0000-0000-000006060000}"/>
     <cellStyle name="Migliaia 41 4 2" xfId="1020" xr:uid="{00000000-0005-0000-0000-000007060000}"/>
-    <cellStyle name="Migliaia 41 4 2 2" xfId="3108" xr:uid="{00000000-0005-0000-0000-000008060000}"/>
-    <cellStyle name="Migliaia 41 4 3" xfId="3107" xr:uid="{00000000-0005-0000-0000-000009060000}"/>
+    <cellStyle name="Migliaia 41 4 2 2" xfId="3107" xr:uid="{00000000-0005-0000-0000-000008060000}"/>
+    <cellStyle name="Migliaia 41 4 3" xfId="3106" xr:uid="{00000000-0005-0000-0000-000009060000}"/>
     <cellStyle name="Migliaia 41 5" xfId="1021" xr:uid="{00000000-0005-0000-0000-00000A060000}"/>
-    <cellStyle name="Migliaia 41 6" xfId="3102" xr:uid="{00000000-0005-0000-0000-00000B060000}"/>
+    <cellStyle name="Migliaia 41 6" xfId="3101" xr:uid="{00000000-0005-0000-0000-00000B060000}"/>
     <cellStyle name="Migliaia 42" xfId="1022" xr:uid="{00000000-0005-0000-0000-00000C060000}"/>
     <cellStyle name="Migliaia 42 2" xfId="1023" xr:uid="{00000000-0005-0000-0000-00000D060000}"/>
     <cellStyle name="Migliaia 42 2 2" xfId="1024" xr:uid="{00000000-0005-0000-0000-00000E060000}"/>
-    <cellStyle name="Migliaia 42 2 2 2" xfId="3111" xr:uid="{00000000-0005-0000-0000-00000F060000}"/>
-    <cellStyle name="Migliaia 42 2 3" xfId="3110" xr:uid="{00000000-0005-0000-0000-000010060000}"/>
+    <cellStyle name="Migliaia 42 2 2 2" xfId="3110" xr:uid="{00000000-0005-0000-0000-00000F060000}"/>
+    <cellStyle name="Migliaia 42 2 3" xfId="3109" xr:uid="{00000000-0005-0000-0000-000010060000}"/>
     <cellStyle name="Migliaia 42 3" xfId="1025" xr:uid="{00000000-0005-0000-0000-000011060000}"/>
     <cellStyle name="Migliaia 42 3 2" xfId="1026" xr:uid="{00000000-0005-0000-0000-000012060000}"/>
     <cellStyle name="Migliaia 42 3 2 2" xfId="1027" xr:uid="{00000000-0005-0000-0000-000013060000}"/>
-    <cellStyle name="Migliaia 42 3 2 3" xfId="3113" xr:uid="{00000000-0005-0000-0000-000014060000}"/>
-    <cellStyle name="Migliaia 42 3 3" xfId="3112" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
+    <cellStyle name="Migliaia 42 3 2 3" xfId="3112" xr:uid="{00000000-0005-0000-0000-000014060000}"/>
+    <cellStyle name="Migliaia 42 3 3" xfId="3111" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
     <cellStyle name="Migliaia 42 4" xfId="1028" xr:uid="{00000000-0005-0000-0000-000016060000}"/>
     <cellStyle name="Migliaia 42 4 2" xfId="1029" xr:uid="{00000000-0005-0000-0000-000017060000}"/>
-    <cellStyle name="Migliaia 42 4 2 2" xfId="3115" xr:uid="{00000000-0005-0000-0000-000018060000}"/>
-    <cellStyle name="Migliaia 42 4 3" xfId="3114" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
+    <cellStyle name="Migliaia 42 4 2 2" xfId="3114" xr:uid="{00000000-0005-0000-0000-000018060000}"/>
+    <cellStyle name="Migliaia 42 4 3" xfId="3113" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
     <cellStyle name="Migliaia 42 5" xfId="1030" xr:uid="{00000000-0005-0000-0000-00001A060000}"/>
-    <cellStyle name="Migliaia 42 6" xfId="3109" xr:uid="{00000000-0005-0000-0000-00001B060000}"/>
+    <cellStyle name="Migliaia 42 6" xfId="3108" xr:uid="{00000000-0005-0000-0000-00001B060000}"/>
     <cellStyle name="Migliaia 43" xfId="1031" xr:uid="{00000000-0005-0000-0000-00001C060000}"/>
     <cellStyle name="Migliaia 43 2" xfId="1032" xr:uid="{00000000-0005-0000-0000-00001D060000}"/>
     <cellStyle name="Migliaia 43 2 2" xfId="1033" xr:uid="{00000000-0005-0000-0000-00001E060000}"/>
-    <cellStyle name="Migliaia 43 2 2 2" xfId="3118" xr:uid="{00000000-0005-0000-0000-00001F060000}"/>
-    <cellStyle name="Migliaia 43 2 3" xfId="3117" xr:uid="{00000000-0005-0000-0000-000020060000}"/>
+    <cellStyle name="Migliaia 43 2 2 2" xfId="3117" xr:uid="{00000000-0005-0000-0000-00001F060000}"/>
+    <cellStyle name="Migliaia 43 2 3" xfId="3116" xr:uid="{00000000-0005-0000-0000-000020060000}"/>
     <cellStyle name="Migliaia 43 3" xfId="1034" xr:uid="{00000000-0005-0000-0000-000021060000}"/>
     <cellStyle name="Migliaia 43 3 2" xfId="1035" xr:uid="{00000000-0005-0000-0000-000022060000}"/>
     <cellStyle name="Migliaia 43 3 2 2" xfId="1036" xr:uid="{00000000-0005-0000-0000-000023060000}"/>
-    <cellStyle name="Migliaia 43 3 2 3" xfId="3120" xr:uid="{00000000-0005-0000-0000-000024060000}"/>
-    <cellStyle name="Migliaia 43 3 3" xfId="3119" xr:uid="{00000000-0005-0000-0000-000025060000}"/>
+    <cellStyle name="Migliaia 43 3 2 3" xfId="3119" xr:uid="{00000000-0005-0000-0000-000024060000}"/>
+    <cellStyle name="Migliaia 43 3 3" xfId="3118" xr:uid="{00000000-0005-0000-0000-000025060000}"/>
     <cellStyle name="Migliaia 43 4" xfId="1037" xr:uid="{00000000-0005-0000-0000-000026060000}"/>
     <cellStyle name="Migliaia 43 4 2" xfId="1038" xr:uid="{00000000-0005-0000-0000-000027060000}"/>
-    <cellStyle name="Migliaia 43 4 2 2" xfId="3122" xr:uid="{00000000-0005-0000-0000-000028060000}"/>
-    <cellStyle name="Migliaia 43 4 3" xfId="3121" xr:uid="{00000000-0005-0000-0000-000029060000}"/>
+    <cellStyle name="Migliaia 43 4 2 2" xfId="3121" xr:uid="{00000000-0005-0000-0000-000028060000}"/>
+    <cellStyle name="Migliaia 43 4 3" xfId="3120" xr:uid="{00000000-0005-0000-0000-000029060000}"/>
     <cellStyle name="Migliaia 43 5" xfId="1039" xr:uid="{00000000-0005-0000-0000-00002A060000}"/>
-    <cellStyle name="Migliaia 43 6" xfId="3116" xr:uid="{00000000-0005-0000-0000-00002B060000}"/>
+    <cellStyle name="Migliaia 43 6" xfId="3115" xr:uid="{00000000-0005-0000-0000-00002B060000}"/>
     <cellStyle name="Migliaia 44" xfId="1040" xr:uid="{00000000-0005-0000-0000-00002C060000}"/>
     <cellStyle name="Migliaia 44 2" xfId="1041" xr:uid="{00000000-0005-0000-0000-00002D060000}"/>
     <cellStyle name="Migliaia 44 2 2" xfId="1042" xr:uid="{00000000-0005-0000-0000-00002E060000}"/>
-    <cellStyle name="Migliaia 44 2 2 2" xfId="3125" xr:uid="{00000000-0005-0000-0000-00002F060000}"/>
-    <cellStyle name="Migliaia 44 2 3" xfId="3124" xr:uid="{00000000-0005-0000-0000-000030060000}"/>
+    <cellStyle name="Migliaia 44 2 2 2" xfId="3124" xr:uid="{00000000-0005-0000-0000-00002F060000}"/>
+    <cellStyle name="Migliaia 44 2 3" xfId="3123" xr:uid="{00000000-0005-0000-0000-000030060000}"/>
     <cellStyle name="Migliaia 44 3" xfId="1043" xr:uid="{00000000-0005-0000-0000-000031060000}"/>
     <cellStyle name="Migliaia 44 3 2" xfId="1044" xr:uid="{00000000-0005-0000-0000-000032060000}"/>
     <cellStyle name="Migliaia 44 3 2 2" xfId="1045" xr:uid="{00000000-0005-0000-0000-000033060000}"/>
-    <cellStyle name="Migliaia 44 3 2 3" xfId="3127" xr:uid="{00000000-0005-0000-0000-000034060000}"/>
-    <cellStyle name="Migliaia 44 3 3" xfId="3126" xr:uid="{00000000-0005-0000-0000-000035060000}"/>
+    <cellStyle name="Migliaia 44 3 2 3" xfId="3126" xr:uid="{00000000-0005-0000-0000-000034060000}"/>
+    <cellStyle name="Migliaia 44 3 3" xfId="3125" xr:uid="{00000000-0005-0000-0000-000035060000}"/>
     <cellStyle name="Migliaia 44 4" xfId="1046" xr:uid="{00000000-0005-0000-0000-000036060000}"/>
     <cellStyle name="Migliaia 44 4 2" xfId="1047" xr:uid="{00000000-0005-0000-0000-000037060000}"/>
-    <cellStyle name="Migliaia 44 4 2 2" xfId="3129" xr:uid="{00000000-0005-0000-0000-000038060000}"/>
-    <cellStyle name="Migliaia 44 4 3" xfId="3128" xr:uid="{00000000-0005-0000-0000-000039060000}"/>
+    <cellStyle name="Migliaia 44 4 2 2" xfId="3128" xr:uid="{00000000-0005-0000-0000-000038060000}"/>
+    <cellStyle name="Migliaia 44 4 3" xfId="3127" xr:uid="{00000000-0005-0000-0000-000039060000}"/>
     <cellStyle name="Migliaia 44 5" xfId="1048" xr:uid="{00000000-0005-0000-0000-00003A060000}"/>
-    <cellStyle name="Migliaia 44 6" xfId="3123" xr:uid="{00000000-0005-0000-0000-00003B060000}"/>
+    <cellStyle name="Migliaia 44 6" xfId="3122" xr:uid="{00000000-0005-0000-0000-00003B060000}"/>
     <cellStyle name="Migliaia 45" xfId="1049" xr:uid="{00000000-0005-0000-0000-00003C060000}"/>
     <cellStyle name="Migliaia 45 2" xfId="1050" xr:uid="{00000000-0005-0000-0000-00003D060000}"/>
     <cellStyle name="Migliaia 45 2 2" xfId="1051" xr:uid="{00000000-0005-0000-0000-00003E060000}"/>
-    <cellStyle name="Migliaia 45 2 2 2" xfId="3132" xr:uid="{00000000-0005-0000-0000-00003F060000}"/>
-    <cellStyle name="Migliaia 45 2 3" xfId="3131" xr:uid="{00000000-0005-0000-0000-000040060000}"/>
+    <cellStyle name="Migliaia 45 2 2 2" xfId="3131" xr:uid="{00000000-0005-0000-0000-00003F060000}"/>
+    <cellStyle name="Migliaia 45 2 3" xfId="3130" xr:uid="{00000000-0005-0000-0000-000040060000}"/>
     <cellStyle name="Migliaia 45 3" xfId="1052" xr:uid="{00000000-0005-0000-0000-000041060000}"/>
     <cellStyle name="Migliaia 45 3 2" xfId="1053" xr:uid="{00000000-0005-0000-0000-000042060000}"/>
     <cellStyle name="Migliaia 45 3 2 2" xfId="1054" xr:uid="{00000000-0005-0000-0000-000043060000}"/>
-    <cellStyle name="Migliaia 45 3 2 3" xfId="3134" xr:uid="{00000000-0005-0000-0000-000044060000}"/>
-    <cellStyle name="Migliaia 45 3 3" xfId="3133" xr:uid="{00000000-0005-0000-0000-000045060000}"/>
+    <cellStyle name="Migliaia 45 3 2 3" xfId="3133" xr:uid="{00000000-0005-0000-0000-000044060000}"/>
+    <cellStyle name="Migliaia 45 3 3" xfId="3132" xr:uid="{00000000-0005-0000-0000-000045060000}"/>
     <cellStyle name="Migliaia 45 4" xfId="1055" xr:uid="{00000000-0005-0000-0000-000046060000}"/>
     <cellStyle name="Migliaia 45 4 2" xfId="1056" xr:uid="{00000000-0005-0000-0000-000047060000}"/>
-    <cellStyle name="Migliaia 45 4 2 2" xfId="3136" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
-    <cellStyle name="Migliaia 45 4 3" xfId="3135" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
+    <cellStyle name="Migliaia 45 4 2 2" xfId="3135" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
+    <cellStyle name="Migliaia 45 4 3" xfId="3134" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
     <cellStyle name="Migliaia 45 5" xfId="1057" xr:uid="{00000000-0005-0000-0000-00004A060000}"/>
-    <cellStyle name="Migliaia 45 6" xfId="3130" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
+    <cellStyle name="Migliaia 45 6" xfId="3129" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
     <cellStyle name="Migliaia 46" xfId="1058" xr:uid="{00000000-0005-0000-0000-00004C060000}"/>
     <cellStyle name="Migliaia 46 2" xfId="1059" xr:uid="{00000000-0005-0000-0000-00004D060000}"/>
     <cellStyle name="Migliaia 46 2 2" xfId="1060" xr:uid="{00000000-0005-0000-0000-00004E060000}"/>
-    <cellStyle name="Migliaia 46 2 2 2" xfId="3139" xr:uid="{00000000-0005-0000-0000-00004F060000}"/>
-    <cellStyle name="Migliaia 46 2 3" xfId="3138" xr:uid="{00000000-0005-0000-0000-000050060000}"/>
+    <cellStyle name="Migliaia 46 2 2 2" xfId="3138" xr:uid="{00000000-0005-0000-0000-00004F060000}"/>
+    <cellStyle name="Migliaia 46 2 3" xfId="3137" xr:uid="{00000000-0005-0000-0000-000050060000}"/>
     <cellStyle name="Migliaia 46 3" xfId="1061" xr:uid="{00000000-0005-0000-0000-000051060000}"/>
     <cellStyle name="Migliaia 46 3 2" xfId="1062" xr:uid="{00000000-0005-0000-0000-000052060000}"/>
     <cellStyle name="Migliaia 46 3 2 2" xfId="1063" xr:uid="{00000000-0005-0000-0000-000053060000}"/>
-    <cellStyle name="Migliaia 46 3 2 3" xfId="3141" xr:uid="{00000000-0005-0000-0000-000054060000}"/>
-    <cellStyle name="Migliaia 46 3 3" xfId="3140" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
+    <cellStyle name="Migliaia 46 3 2 3" xfId="3140" xr:uid="{00000000-0005-0000-0000-000054060000}"/>
+    <cellStyle name="Migliaia 46 3 3" xfId="3139" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
     <cellStyle name="Migliaia 46 4" xfId="1064" xr:uid="{00000000-0005-0000-0000-000056060000}"/>
     <cellStyle name="Migliaia 46 4 2" xfId="1065" xr:uid="{00000000-0005-0000-0000-000057060000}"/>
-    <cellStyle name="Migliaia 46 4 2 2" xfId="3143" xr:uid="{00000000-0005-0000-0000-000058060000}"/>
-    <cellStyle name="Migliaia 46 4 3" xfId="3142" xr:uid="{00000000-0005-0000-0000-000059060000}"/>
+    <cellStyle name="Migliaia 46 4 2 2" xfId="3142" xr:uid="{00000000-0005-0000-0000-000058060000}"/>
+    <cellStyle name="Migliaia 46 4 3" xfId="3141" xr:uid="{00000000-0005-0000-0000-000059060000}"/>
     <cellStyle name="Migliaia 46 5" xfId="1066" xr:uid="{00000000-0005-0000-0000-00005A060000}"/>
-    <cellStyle name="Migliaia 46 6" xfId="3137" xr:uid="{00000000-0005-0000-0000-00005B060000}"/>
+    <cellStyle name="Migliaia 46 6" xfId="3136" xr:uid="{00000000-0005-0000-0000-00005B060000}"/>
     <cellStyle name="Migliaia 47" xfId="1067" xr:uid="{00000000-0005-0000-0000-00005C060000}"/>
     <cellStyle name="Migliaia 47 2" xfId="1068" xr:uid="{00000000-0005-0000-0000-00005D060000}"/>
     <cellStyle name="Migliaia 47 2 2" xfId="1069" xr:uid="{00000000-0005-0000-0000-00005E060000}"/>
-    <cellStyle name="Migliaia 47 2 2 2" xfId="3146" xr:uid="{00000000-0005-0000-0000-00005F060000}"/>
-    <cellStyle name="Migliaia 47 2 3" xfId="3145" xr:uid="{00000000-0005-0000-0000-000060060000}"/>
+    <cellStyle name="Migliaia 47 2 2 2" xfId="3145" xr:uid="{00000000-0005-0000-0000-00005F060000}"/>
+    <cellStyle name="Migliaia 47 2 3" xfId="3144" xr:uid="{00000000-0005-0000-0000-000060060000}"/>
     <cellStyle name="Migliaia 47 3" xfId="1070" xr:uid="{00000000-0005-0000-0000-000061060000}"/>
     <cellStyle name="Migliaia 47 3 2" xfId="1071" xr:uid="{00000000-0005-0000-0000-000062060000}"/>
     <cellStyle name="Migliaia 47 3 2 2" xfId="1072" xr:uid="{00000000-0005-0000-0000-000063060000}"/>
-    <cellStyle name="Migliaia 47 3 2 3" xfId="3148" xr:uid="{00000000-0005-0000-0000-000064060000}"/>
-    <cellStyle name="Migliaia 47 3 3" xfId="3147" xr:uid="{00000000-0005-0000-0000-000065060000}"/>
+    <cellStyle name="Migliaia 47 3 2 3" xfId="3147" xr:uid="{00000000-0005-0000-0000-000064060000}"/>
+    <cellStyle name="Migliaia 47 3 3" xfId="3146" xr:uid="{00000000-0005-0000-0000-000065060000}"/>
     <cellStyle name="Migliaia 47 4" xfId="1073" xr:uid="{00000000-0005-0000-0000-000066060000}"/>
     <cellStyle name="Migliaia 47 4 2" xfId="1074" xr:uid="{00000000-0005-0000-0000-000067060000}"/>
-    <cellStyle name="Migliaia 47 4 2 2" xfId="3150" xr:uid="{00000000-0005-0000-0000-000068060000}"/>
-    <cellStyle name="Migliaia 47 4 3" xfId="3149" xr:uid="{00000000-0005-0000-0000-000069060000}"/>
+    <cellStyle name="Migliaia 47 4 2 2" xfId="3149" xr:uid="{00000000-0005-0000-0000-000068060000}"/>
+    <cellStyle name="Migliaia 47 4 3" xfId="3148" xr:uid="{00000000-0005-0000-0000-000069060000}"/>
     <cellStyle name="Migliaia 47 5" xfId="1075" xr:uid="{00000000-0005-0000-0000-00006A060000}"/>
-    <cellStyle name="Migliaia 47 6" xfId="3144" xr:uid="{00000000-0005-0000-0000-00006B060000}"/>
+    <cellStyle name="Migliaia 47 6" xfId="3143" xr:uid="{00000000-0005-0000-0000-00006B060000}"/>
     <cellStyle name="Migliaia 48" xfId="1076" xr:uid="{00000000-0005-0000-0000-00006C060000}"/>
     <cellStyle name="Migliaia 48 2" xfId="1077" xr:uid="{00000000-0005-0000-0000-00006D060000}"/>
     <cellStyle name="Migliaia 48 2 2" xfId="1078" xr:uid="{00000000-0005-0000-0000-00006E060000}"/>
-    <cellStyle name="Migliaia 48 2 2 2" xfId="3153" xr:uid="{00000000-0005-0000-0000-00006F060000}"/>
-    <cellStyle name="Migliaia 48 2 3" xfId="3152" xr:uid="{00000000-0005-0000-0000-000070060000}"/>
+    <cellStyle name="Migliaia 48 2 2 2" xfId="3152" xr:uid="{00000000-0005-0000-0000-00006F060000}"/>
+    <cellStyle name="Migliaia 48 2 3" xfId="3151" xr:uid="{00000000-0005-0000-0000-000070060000}"/>
     <cellStyle name="Migliaia 48 3" xfId="1079" xr:uid="{00000000-0005-0000-0000-000071060000}"/>
     <cellStyle name="Migliaia 48 3 2" xfId="1080" xr:uid="{00000000-0005-0000-0000-000072060000}"/>
     <cellStyle name="Migliaia 48 3 2 2" xfId="1081" xr:uid="{00000000-0005-0000-0000-000073060000}"/>
-    <cellStyle name="Migliaia 48 3 2 3" xfId="3155" xr:uid="{00000000-0005-0000-0000-000074060000}"/>
-    <cellStyle name="Migliaia 48 3 3" xfId="3154" xr:uid="{00000000-0005-0000-0000-000075060000}"/>
+    <cellStyle name="Migliaia 48 3 2 3" xfId="3154" xr:uid="{00000000-0005-0000-0000-000074060000}"/>
+    <cellStyle name="Migliaia 48 3 3" xfId="3153" xr:uid="{00000000-0005-0000-0000-000075060000}"/>
     <cellStyle name="Migliaia 48 4" xfId="1082" xr:uid="{00000000-0005-0000-0000-000076060000}"/>
     <cellStyle name="Migliaia 48 4 2" xfId="1083" xr:uid="{00000000-0005-0000-0000-000077060000}"/>
-    <cellStyle name="Migliaia 48 4 2 2" xfId="3157" xr:uid="{00000000-0005-0000-0000-000078060000}"/>
-    <cellStyle name="Migliaia 48 4 3" xfId="3156" xr:uid="{00000000-0005-0000-0000-000079060000}"/>
+    <cellStyle name="Migliaia 48 4 2 2" xfId="3156" xr:uid="{00000000-0005-0000-0000-000078060000}"/>
+    <cellStyle name="Migliaia 48 4 3" xfId="3155" xr:uid="{00000000-0005-0000-0000-000079060000}"/>
     <cellStyle name="Migliaia 48 5" xfId="1084" xr:uid="{00000000-0005-0000-0000-00007A060000}"/>
-    <cellStyle name="Migliaia 48 6" xfId="3151" xr:uid="{00000000-0005-0000-0000-00007B060000}"/>
+    <cellStyle name="Migliaia 48 6" xfId="3150" xr:uid="{00000000-0005-0000-0000-00007B060000}"/>
     <cellStyle name="Migliaia 49" xfId="1085" xr:uid="{00000000-0005-0000-0000-00007C060000}"/>
     <cellStyle name="Migliaia 49 2" xfId="1086" xr:uid="{00000000-0005-0000-0000-00007D060000}"/>
     <cellStyle name="Migliaia 49 2 2" xfId="1087" xr:uid="{00000000-0005-0000-0000-00007E060000}"/>
-    <cellStyle name="Migliaia 49 2 2 2" xfId="3160" xr:uid="{00000000-0005-0000-0000-00007F060000}"/>
-    <cellStyle name="Migliaia 49 2 3" xfId="3159" xr:uid="{00000000-0005-0000-0000-000080060000}"/>
+    <cellStyle name="Migliaia 49 2 2 2" xfId="3159" xr:uid="{00000000-0005-0000-0000-00007F060000}"/>
+    <cellStyle name="Migliaia 49 2 3" xfId="3158" xr:uid="{00000000-0005-0000-0000-000080060000}"/>
     <cellStyle name="Migliaia 49 3" xfId="1088" xr:uid="{00000000-0005-0000-0000-000081060000}"/>
     <cellStyle name="Migliaia 49 3 2" xfId="1089" xr:uid="{00000000-0005-0000-0000-000082060000}"/>
     <cellStyle name="Migliaia 49 3 2 2" xfId="1090" xr:uid="{00000000-0005-0000-0000-000083060000}"/>
-    <cellStyle name="Migliaia 49 3 2 3" xfId="3162" xr:uid="{00000000-0005-0000-0000-000084060000}"/>
-    <cellStyle name="Migliaia 49 3 3" xfId="3161" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
+    <cellStyle name="Migliaia 49 3 2 3" xfId="3161" xr:uid="{00000000-0005-0000-0000-000084060000}"/>
+    <cellStyle name="Migliaia 49 3 3" xfId="3160" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
     <cellStyle name="Migliaia 49 4" xfId="1091" xr:uid="{00000000-0005-0000-0000-000086060000}"/>
     <cellStyle name="Migliaia 49 4 2" xfId="1092" xr:uid="{00000000-0005-0000-0000-000087060000}"/>
-    <cellStyle name="Migliaia 49 4 2 2" xfId="3164" xr:uid="{00000000-0005-0000-0000-000088060000}"/>
-    <cellStyle name="Migliaia 49 4 3" xfId="3163" xr:uid="{00000000-0005-0000-0000-000089060000}"/>
+    <cellStyle name="Migliaia 49 4 2 2" xfId="3163" xr:uid="{00000000-0005-0000-0000-000088060000}"/>
+    <cellStyle name="Migliaia 49 4 3" xfId="3162" xr:uid="{00000000-0005-0000-0000-000089060000}"/>
     <cellStyle name="Migliaia 49 5" xfId="1093" xr:uid="{00000000-0005-0000-0000-00008A060000}"/>
-    <cellStyle name="Migliaia 49 6" xfId="3158" xr:uid="{00000000-0005-0000-0000-00008B060000}"/>
+    <cellStyle name="Migliaia 49 6" xfId="3157" xr:uid="{00000000-0005-0000-0000-00008B060000}"/>
     <cellStyle name="Migliaia 5" xfId="1094" xr:uid="{00000000-0005-0000-0000-00008C060000}"/>
     <cellStyle name="Migliaia 5 2" xfId="1095" xr:uid="{00000000-0005-0000-0000-00008D060000}"/>
     <cellStyle name="Migliaia 5 2 2" xfId="1096" xr:uid="{00000000-0005-0000-0000-00008E060000}"/>
-    <cellStyle name="Migliaia 5 2 2 2" xfId="3167" xr:uid="{00000000-0005-0000-0000-00008F060000}"/>
-    <cellStyle name="Migliaia 5 2 3" xfId="3166" xr:uid="{00000000-0005-0000-0000-000090060000}"/>
+    <cellStyle name="Migliaia 5 2 2 2" xfId="3166" xr:uid="{00000000-0005-0000-0000-00008F060000}"/>
+    <cellStyle name="Migliaia 5 2 3" xfId="3165" xr:uid="{00000000-0005-0000-0000-000090060000}"/>
     <cellStyle name="Migliaia 5 3" xfId="1097" xr:uid="{00000000-0005-0000-0000-000091060000}"/>
     <cellStyle name="Migliaia 5 3 2" xfId="1098" xr:uid="{00000000-0005-0000-0000-000092060000}"/>
     <cellStyle name="Migliaia 5 3 2 2" xfId="1099" xr:uid="{00000000-0005-0000-0000-000093060000}"/>
-    <cellStyle name="Migliaia 5 3 2 3" xfId="3169" xr:uid="{00000000-0005-0000-0000-000094060000}"/>
-    <cellStyle name="Migliaia 5 3 3" xfId="3168" xr:uid="{00000000-0005-0000-0000-000095060000}"/>
+    <cellStyle name="Migliaia 5 3 2 3" xfId="3168" xr:uid="{00000000-0005-0000-0000-000094060000}"/>
+    <cellStyle name="Migliaia 5 3 3" xfId="3167" xr:uid="{00000000-0005-0000-0000-000095060000}"/>
     <cellStyle name="Migliaia 5 4" xfId="1100" xr:uid="{00000000-0005-0000-0000-000096060000}"/>
     <cellStyle name="Migliaia 5 4 2" xfId="1101" xr:uid="{00000000-0005-0000-0000-000097060000}"/>
-    <cellStyle name="Migliaia 5 4 2 2" xfId="3171" xr:uid="{00000000-0005-0000-0000-000098060000}"/>
-    <cellStyle name="Migliaia 5 4 3" xfId="3170" xr:uid="{00000000-0005-0000-0000-000099060000}"/>
+    <cellStyle name="Migliaia 5 4 2 2" xfId="3170" xr:uid="{00000000-0005-0000-0000-000098060000}"/>
+    <cellStyle name="Migliaia 5 4 3" xfId="3169" xr:uid="{00000000-0005-0000-0000-000099060000}"/>
     <cellStyle name="Migliaia 5 5" xfId="1102" xr:uid="{00000000-0005-0000-0000-00009A060000}"/>
-    <cellStyle name="Migliaia 5 6" xfId="3165" xr:uid="{00000000-0005-0000-0000-00009B060000}"/>
+    <cellStyle name="Migliaia 5 6" xfId="3164" xr:uid="{00000000-0005-0000-0000-00009B060000}"/>
     <cellStyle name="Migliaia 50" xfId="1103" xr:uid="{00000000-0005-0000-0000-00009C060000}"/>
     <cellStyle name="Migliaia 50 2" xfId="1104" xr:uid="{00000000-0005-0000-0000-00009D060000}"/>
     <cellStyle name="Migliaia 50 2 2" xfId="1105" xr:uid="{00000000-0005-0000-0000-00009E060000}"/>
-    <cellStyle name="Migliaia 50 2 2 2" xfId="3174" xr:uid="{00000000-0005-0000-0000-00009F060000}"/>
-    <cellStyle name="Migliaia 50 2 3" xfId="3173" xr:uid="{00000000-0005-0000-0000-0000A0060000}"/>
+    <cellStyle name="Migliaia 50 2 2 2" xfId="3173" xr:uid="{00000000-0005-0000-0000-00009F060000}"/>
+    <cellStyle name="Migliaia 50 2 3" xfId="3172" xr:uid="{00000000-0005-0000-0000-0000A0060000}"/>
     <cellStyle name="Migliaia 50 3" xfId="1106" xr:uid="{00000000-0005-0000-0000-0000A1060000}"/>
     <cellStyle name="Migliaia 50 3 2" xfId="1107" xr:uid="{00000000-0005-0000-0000-0000A2060000}"/>
     <cellStyle name="Migliaia 50 3 2 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-0000A3060000}"/>
-    <cellStyle name="Migliaia 50 3 2 3" xfId="3176" xr:uid="{00000000-0005-0000-0000-0000A4060000}"/>
-    <cellStyle name="Migliaia 50 3 3" xfId="3175" xr:uid="{00000000-0005-0000-0000-0000A5060000}"/>
+    <cellStyle name="Migliaia 50 3 2 3" xfId="3175" xr:uid="{00000000-0005-0000-0000-0000A4060000}"/>
+    <cellStyle name="Migliaia 50 3 3" xfId="3174" xr:uid="{00000000-0005-0000-0000-0000A5060000}"/>
     <cellStyle name="Migliaia 50 4" xfId="1109" xr:uid="{00000000-0005-0000-0000-0000A6060000}"/>
     <cellStyle name="Migliaia 50 4 2" xfId="1110" xr:uid="{00000000-0005-0000-0000-0000A7060000}"/>
-    <cellStyle name="Migliaia 50 4 2 2" xfId="3178" xr:uid="{00000000-0005-0000-0000-0000A8060000}"/>
-    <cellStyle name="Migliaia 50 4 3" xfId="3177" xr:uid="{00000000-0005-0000-0000-0000A9060000}"/>
+    <cellStyle name="Migliaia 50 4 2 2" xfId="3177" xr:uid="{00000000-0005-0000-0000-0000A8060000}"/>
+    <cellStyle name="Migliaia 50 4 3" xfId="3176" xr:uid="{00000000-0005-0000-0000-0000A9060000}"/>
     <cellStyle name="Migliaia 50 5" xfId="1111" xr:uid="{00000000-0005-0000-0000-0000AA060000}"/>
-    <cellStyle name="Migliaia 50 6" xfId="3172" xr:uid="{00000000-0005-0000-0000-0000AB060000}"/>
+    <cellStyle name="Migliaia 50 6" xfId="3171" xr:uid="{00000000-0005-0000-0000-0000AB060000}"/>
     <cellStyle name="Migliaia 51" xfId="1112" xr:uid="{00000000-0005-0000-0000-0000AC060000}"/>
     <cellStyle name="Migliaia 51 2" xfId="1113" xr:uid="{00000000-0005-0000-0000-0000AD060000}"/>
     <cellStyle name="Migliaia 51 2 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-0000AE060000}"/>
-    <cellStyle name="Migliaia 51 2 2 2" xfId="3181" xr:uid="{00000000-0005-0000-0000-0000AF060000}"/>
-    <cellStyle name="Migliaia 51 2 3" xfId="3180" xr:uid="{00000000-0005-0000-0000-0000B0060000}"/>
+    <cellStyle name="Migliaia 51 2 2 2" xfId="3180" xr:uid="{00000000-0005-0000-0000-0000AF060000}"/>
+    <cellStyle name="Migliaia 51 2 3" xfId="3179" xr:uid="{00000000-0005-0000-0000-0000B0060000}"/>
     <cellStyle name="Migliaia 51 3" xfId="1115" xr:uid="{00000000-0005-0000-0000-0000B1060000}"/>
     <cellStyle name="Migliaia 51 3 2" xfId="1116" xr:uid="{00000000-0005-0000-0000-0000B2060000}"/>
     <cellStyle name="Migliaia 51 3 2 2" xfId="1117" xr:uid="{00000000-0005-0000-0000-0000B3060000}"/>
-    <cellStyle name="Migliaia 51 3 2 3" xfId="3183" xr:uid="{00000000-0005-0000-0000-0000B4060000}"/>
-    <cellStyle name="Migliaia 51 3 3" xfId="3182" xr:uid="{00000000-0005-0000-0000-0000B5060000}"/>
+    <cellStyle name="Migliaia 51 3 2 3" xfId="3182" xr:uid="{00000000-0005-0000-0000-0000B4060000}"/>
+    <cellStyle name="Migliaia 51 3 3" xfId="3181" xr:uid="{00000000-0005-0000-0000-0000B5060000}"/>
     <cellStyle name="Migliaia 51 4" xfId="1118" xr:uid="{00000000-0005-0000-0000-0000B6060000}"/>
     <cellStyle name="Migliaia 51 4 2" xfId="1119" xr:uid="{00000000-0005-0000-0000-0000B7060000}"/>
-    <cellStyle name="Migliaia 51 4 2 2" xfId="3185" xr:uid="{00000000-0005-0000-0000-0000B8060000}"/>
-    <cellStyle name="Migliaia 51 4 3" xfId="3184" xr:uid="{00000000-0005-0000-0000-0000B9060000}"/>
+    <cellStyle name="Migliaia 51 4 2 2" xfId="3184" xr:uid="{00000000-0005-0000-0000-0000B8060000}"/>
+    <cellStyle name="Migliaia 51 4 3" xfId="3183" xr:uid="{00000000-0005-0000-0000-0000B9060000}"/>
     <cellStyle name="Migliaia 51 5" xfId="1120" xr:uid="{00000000-0005-0000-0000-0000BA060000}"/>
-    <cellStyle name="Migliaia 51 6" xfId="3179" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
+    <cellStyle name="Migliaia 51 6" xfId="3178" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
     <cellStyle name="Migliaia 52" xfId="1121" xr:uid="{00000000-0005-0000-0000-0000BC060000}"/>
     <cellStyle name="Migliaia 52 2" xfId="1122" xr:uid="{00000000-0005-0000-0000-0000BD060000}"/>
     <cellStyle name="Migliaia 52 2 2" xfId="1123" xr:uid="{00000000-0005-0000-0000-0000BE060000}"/>
-    <cellStyle name="Migliaia 52 2 2 2" xfId="3188" xr:uid="{00000000-0005-0000-0000-0000BF060000}"/>
-    <cellStyle name="Migliaia 52 2 3" xfId="3187" xr:uid="{00000000-0005-0000-0000-0000C0060000}"/>
+    <cellStyle name="Migliaia 52 2 2 2" xfId="3187" xr:uid="{00000000-0005-0000-0000-0000BF060000}"/>
+    <cellStyle name="Migliaia 52 2 3" xfId="3186" xr:uid="{00000000-0005-0000-0000-0000C0060000}"/>
     <cellStyle name="Migliaia 52 3" xfId="1124" xr:uid="{00000000-0005-0000-0000-0000C1060000}"/>
     <cellStyle name="Migliaia 52 3 2" xfId="1125" xr:uid="{00000000-0005-0000-0000-0000C2060000}"/>
     <cellStyle name="Migliaia 52 3 2 2" xfId="1126" xr:uid="{00000000-0005-0000-0000-0000C3060000}"/>
-    <cellStyle name="Migliaia 52 3 2 3" xfId="3190" xr:uid="{00000000-0005-0000-0000-0000C4060000}"/>
-    <cellStyle name="Migliaia 52 3 3" xfId="3189" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
+    <cellStyle name="Migliaia 52 3 2 3" xfId="3189" xr:uid="{00000000-0005-0000-0000-0000C4060000}"/>
+    <cellStyle name="Migliaia 52 3 3" xfId="3188" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
     <cellStyle name="Migliaia 52 4" xfId="1127" xr:uid="{00000000-0005-0000-0000-0000C6060000}"/>
     <cellStyle name="Migliaia 52 4 2" xfId="1128" xr:uid="{00000000-0005-0000-0000-0000C7060000}"/>
-    <cellStyle name="Migliaia 52 4 2 2" xfId="3192" xr:uid="{00000000-0005-0000-0000-0000C8060000}"/>
-    <cellStyle name="Migliaia 52 4 3" xfId="3191" xr:uid="{00000000-0005-0000-0000-0000C9060000}"/>
+    <cellStyle name="Migliaia 52 4 2 2" xfId="3191" xr:uid="{00000000-0005-0000-0000-0000C8060000}"/>
+    <cellStyle name="Migliaia 52 4 3" xfId="3190" xr:uid="{00000000-0005-0000-0000-0000C9060000}"/>
     <cellStyle name="Migliaia 52 5" xfId="1129" xr:uid="{00000000-0005-0000-0000-0000CA060000}"/>
-    <cellStyle name="Migliaia 52 6" xfId="3186" xr:uid="{00000000-0005-0000-0000-0000CB060000}"/>
+    <cellStyle name="Migliaia 52 6" xfId="3185" xr:uid="{00000000-0005-0000-0000-0000CB060000}"/>
     <cellStyle name="Migliaia 53" xfId="1130" xr:uid="{00000000-0005-0000-0000-0000CC060000}"/>
     <cellStyle name="Migliaia 53 2" xfId="1131" xr:uid="{00000000-0005-0000-0000-0000CD060000}"/>
     <cellStyle name="Migliaia 53 2 2" xfId="1132" xr:uid="{00000000-0005-0000-0000-0000CE060000}"/>
-    <cellStyle name="Migliaia 53 2 2 2" xfId="3195" xr:uid="{00000000-0005-0000-0000-0000CF060000}"/>
-    <cellStyle name="Migliaia 53 2 3" xfId="3194" xr:uid="{00000000-0005-0000-0000-0000D0060000}"/>
+    <cellStyle name="Migliaia 53 2 2 2" xfId="3194" xr:uid="{00000000-0005-0000-0000-0000CF060000}"/>
+    <cellStyle name="Migliaia 53 2 3" xfId="3193" xr:uid="{00000000-0005-0000-0000-0000D0060000}"/>
     <cellStyle name="Migliaia 53 3" xfId="1133" xr:uid="{00000000-0005-0000-0000-0000D1060000}"/>
     <cellStyle name="Migliaia 53 3 2" xfId="1134" xr:uid="{00000000-0005-0000-0000-0000D2060000}"/>
     <cellStyle name="Migliaia 53 3 2 2" xfId="1135" xr:uid="{00000000-0005-0000-0000-0000D3060000}"/>
-    <cellStyle name="Migliaia 53 3 2 3" xfId="3197" xr:uid="{00000000-0005-0000-0000-0000D4060000}"/>
-    <cellStyle name="Migliaia 53 3 3" xfId="3196" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
+    <cellStyle name="Migliaia 53 3 2 3" xfId="3196" xr:uid="{00000000-0005-0000-0000-0000D4060000}"/>
+    <cellStyle name="Migliaia 53 3 3" xfId="3195" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
     <cellStyle name="Migliaia 53 4" xfId="1136" xr:uid="{00000000-0005-0000-0000-0000D6060000}"/>
     <cellStyle name="Migliaia 53 4 2" xfId="1137" xr:uid="{00000000-0005-0000-0000-0000D7060000}"/>
-    <cellStyle name="Migliaia 53 4 2 2" xfId="3199" xr:uid="{00000000-0005-0000-0000-0000D8060000}"/>
-    <cellStyle name="Migliaia 53 4 3" xfId="3198" xr:uid="{00000000-0005-0000-0000-0000D9060000}"/>
+    <cellStyle name="Migliaia 53 4 2 2" xfId="3198" xr:uid="{00000000-0005-0000-0000-0000D8060000}"/>
+    <cellStyle name="Migliaia 53 4 3" xfId="3197" xr:uid="{00000000-0005-0000-0000-0000D9060000}"/>
     <cellStyle name="Migliaia 53 5" xfId="1138" xr:uid="{00000000-0005-0000-0000-0000DA060000}"/>
-    <cellStyle name="Migliaia 53 6" xfId="3193" xr:uid="{00000000-0005-0000-0000-0000DB060000}"/>
+    <cellStyle name="Migliaia 53 6" xfId="3192" xr:uid="{00000000-0005-0000-0000-0000DB060000}"/>
     <cellStyle name="Migliaia 54" xfId="1139" xr:uid="{00000000-0005-0000-0000-0000DC060000}"/>
     <cellStyle name="Migliaia 54 2" xfId="1140" xr:uid="{00000000-0005-0000-0000-0000DD060000}"/>
     <cellStyle name="Migliaia 54 2 2" xfId="1141" xr:uid="{00000000-0005-0000-0000-0000DE060000}"/>
-    <cellStyle name="Migliaia 54 2 2 2" xfId="3202" xr:uid="{00000000-0005-0000-0000-0000DF060000}"/>
-    <cellStyle name="Migliaia 54 2 3" xfId="3201" xr:uid="{00000000-0005-0000-0000-0000E0060000}"/>
+    <cellStyle name="Migliaia 54 2 2 2" xfId="3201" xr:uid="{00000000-0005-0000-0000-0000DF060000}"/>
+    <cellStyle name="Migliaia 54 2 3" xfId="3200" xr:uid="{00000000-0005-0000-0000-0000E0060000}"/>
     <cellStyle name="Migliaia 54 3" xfId="1142" xr:uid="{00000000-0005-0000-0000-0000E1060000}"/>
     <cellStyle name="Migliaia 54 3 2" xfId="1143" xr:uid="{00000000-0005-0000-0000-0000E2060000}"/>
     <cellStyle name="Migliaia 54 3 2 2" xfId="1144" xr:uid="{00000000-0005-0000-0000-0000E3060000}"/>
-    <cellStyle name="Migliaia 54 3 2 3" xfId="3204" xr:uid="{00000000-0005-0000-0000-0000E4060000}"/>
-    <cellStyle name="Migliaia 54 3 3" xfId="3203" xr:uid="{00000000-0005-0000-0000-0000E5060000}"/>
+    <cellStyle name="Migliaia 54 3 2 3" xfId="3203" xr:uid="{00000000-0005-0000-0000-0000E4060000}"/>
+    <cellStyle name="Migliaia 54 3 3" xfId="3202" xr:uid="{00000000-0005-0000-0000-0000E5060000}"/>
     <cellStyle name="Migliaia 54 4" xfId="1145" xr:uid="{00000000-0005-0000-0000-0000E6060000}"/>
     <cellStyle name="Migliaia 54 4 2" xfId="1146" xr:uid="{00000000-0005-0000-0000-0000E7060000}"/>
-    <cellStyle name="Migliaia 54 4 2 2" xfId="3206" xr:uid="{00000000-0005-0000-0000-0000E8060000}"/>
-    <cellStyle name="Migliaia 54 4 3" xfId="3205" xr:uid="{00000000-0005-0000-0000-0000E9060000}"/>
+    <cellStyle name="Migliaia 54 4 2 2" xfId="3205" xr:uid="{00000000-0005-0000-0000-0000E8060000}"/>
+    <cellStyle name="Migliaia 54 4 3" xfId="3204" xr:uid="{00000000-0005-0000-0000-0000E9060000}"/>
     <cellStyle name="Migliaia 54 5" xfId="1147" xr:uid="{00000000-0005-0000-0000-0000EA060000}"/>
-    <cellStyle name="Migliaia 54 6" xfId="3200" xr:uid="{00000000-0005-0000-0000-0000EB060000}"/>
+    <cellStyle name="Migliaia 54 6" xfId="3199" xr:uid="{00000000-0005-0000-0000-0000EB060000}"/>
     <cellStyle name="Migliaia 55" xfId="1148" xr:uid="{00000000-0005-0000-0000-0000EC060000}"/>
     <cellStyle name="Migliaia 55 2" xfId="1149" xr:uid="{00000000-0005-0000-0000-0000ED060000}"/>
     <cellStyle name="Migliaia 55 2 2" xfId="1150" xr:uid="{00000000-0005-0000-0000-0000EE060000}"/>
-    <cellStyle name="Migliaia 55 2 2 2" xfId="3209" xr:uid="{00000000-0005-0000-0000-0000EF060000}"/>
-    <cellStyle name="Migliaia 55 2 3" xfId="3208" xr:uid="{00000000-0005-0000-0000-0000F0060000}"/>
+    <cellStyle name="Migliaia 55 2 2 2" xfId="3208" xr:uid="{00000000-0005-0000-0000-0000EF060000}"/>
+    <cellStyle name="Migliaia 55 2 3" xfId="3207" xr:uid="{00000000-0005-0000-0000-0000F0060000}"/>
     <cellStyle name="Migliaia 55 3" xfId="1151" xr:uid="{00000000-0005-0000-0000-0000F1060000}"/>
     <cellStyle name="Migliaia 55 3 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-0000F2060000}"/>
     <cellStyle name="Migliaia 55 3 2 2" xfId="1153" xr:uid="{00000000-0005-0000-0000-0000F3060000}"/>
-    <cellStyle name="Migliaia 55 3 2 3" xfId="3211" xr:uid="{00000000-0005-0000-0000-0000F4060000}"/>
-    <cellStyle name="Migliaia 55 3 3" xfId="3210" xr:uid="{00000000-0005-0000-0000-0000F5060000}"/>
+    <cellStyle name="Migliaia 55 3 2 3" xfId="3210" xr:uid="{00000000-0005-0000-0000-0000F4060000}"/>
+    <cellStyle name="Migliaia 55 3 3" xfId="3209" xr:uid="{00000000-0005-0000-0000-0000F5060000}"/>
     <cellStyle name="Migliaia 55 4" xfId="1154" xr:uid="{00000000-0005-0000-0000-0000F6060000}"/>
     <cellStyle name="Migliaia 55 4 2" xfId="1155" xr:uid="{00000000-0005-0000-0000-0000F7060000}"/>
-    <cellStyle name="Migliaia 55 4 2 2" xfId="3213" xr:uid="{00000000-0005-0000-0000-0000F8060000}"/>
-    <cellStyle name="Migliaia 55 4 3" xfId="3212" xr:uid="{00000000-0005-0000-0000-0000F9060000}"/>
+    <cellStyle name="Migliaia 55 4 2 2" xfId="3212" xr:uid="{00000000-0005-0000-0000-0000F8060000}"/>
+    <cellStyle name="Migliaia 55 4 3" xfId="3211" xr:uid="{00000000-0005-0000-0000-0000F9060000}"/>
     <cellStyle name="Migliaia 55 5" xfId="1156" xr:uid="{00000000-0005-0000-0000-0000FA060000}"/>
-    <cellStyle name="Migliaia 55 6" xfId="3207" xr:uid="{00000000-0005-0000-0000-0000FB060000}"/>
+    <cellStyle name="Migliaia 55 6" xfId="3206" xr:uid="{00000000-0005-0000-0000-0000FB060000}"/>
     <cellStyle name="Migliaia 56" xfId="1157" xr:uid="{00000000-0005-0000-0000-0000FC060000}"/>
     <cellStyle name="Migliaia 56 2" xfId="1158" xr:uid="{00000000-0005-0000-0000-0000FD060000}"/>
     <cellStyle name="Migliaia 56 2 2" xfId="1159" xr:uid="{00000000-0005-0000-0000-0000FE060000}"/>
-    <cellStyle name="Migliaia 56 2 2 2" xfId="3216" xr:uid="{00000000-0005-0000-0000-0000FF060000}"/>
-    <cellStyle name="Migliaia 56 2 3" xfId="3215" xr:uid="{00000000-0005-0000-0000-000000070000}"/>
+    <cellStyle name="Migliaia 56 2 2 2" xfId="3215" xr:uid="{00000000-0005-0000-0000-0000FF060000}"/>
+    <cellStyle name="Migliaia 56 2 3" xfId="3214" xr:uid="{00000000-0005-0000-0000-000000070000}"/>
     <cellStyle name="Migliaia 56 3" xfId="1160" xr:uid="{00000000-0005-0000-0000-000001070000}"/>
     <cellStyle name="Migliaia 56 3 2" xfId="1161" xr:uid="{00000000-0005-0000-0000-000002070000}"/>
     <cellStyle name="Migliaia 56 3 2 2" xfId="1162" xr:uid="{00000000-0005-0000-0000-000003070000}"/>
-    <cellStyle name="Migliaia 56 3 2 3" xfId="3218" xr:uid="{00000000-0005-0000-0000-000004070000}"/>
-    <cellStyle name="Migliaia 56 3 3" xfId="3217" xr:uid="{00000000-0005-0000-0000-000005070000}"/>
+    <cellStyle name="Migliaia 56 3 2 3" xfId="3217" xr:uid="{00000000-0005-0000-0000-000004070000}"/>
+    <cellStyle name="Migliaia 56 3 3" xfId="3216" xr:uid="{00000000-0005-0000-0000-000005070000}"/>
     <cellStyle name="Migliaia 56 4" xfId="1163" xr:uid="{00000000-0005-0000-0000-000006070000}"/>
     <cellStyle name="Migliaia 56 4 2" xfId="1164" xr:uid="{00000000-0005-0000-0000-000007070000}"/>
-    <cellStyle name="Migliaia 56 4 2 2" xfId="3220" xr:uid="{00000000-0005-0000-0000-000008070000}"/>
-    <cellStyle name="Migliaia 56 4 3" xfId="3219" xr:uid="{00000000-0005-0000-0000-000009070000}"/>
+    <cellStyle name="Migliaia 56 4 2 2" xfId="3219" xr:uid="{00000000-0005-0000-0000-000008070000}"/>
+    <cellStyle name="Migliaia 56 4 3" xfId="3218" xr:uid="{00000000-0005-0000-0000-000009070000}"/>
     <cellStyle name="Migliaia 56 5" xfId="1165" xr:uid="{00000000-0005-0000-0000-00000A070000}"/>
-    <cellStyle name="Migliaia 56 6" xfId="3214" xr:uid="{00000000-0005-0000-0000-00000B070000}"/>
+    <cellStyle name="Migliaia 56 6" xfId="3213" xr:uid="{00000000-0005-0000-0000-00000B070000}"/>
     <cellStyle name="Migliaia 57" xfId="1166" xr:uid="{00000000-0005-0000-0000-00000C070000}"/>
     <cellStyle name="Migliaia 57 2" xfId="1167" xr:uid="{00000000-0005-0000-0000-00000D070000}"/>
     <cellStyle name="Migliaia 57 2 2" xfId="1168" xr:uid="{00000000-0005-0000-0000-00000E070000}"/>
-    <cellStyle name="Migliaia 57 2 2 2" xfId="3223" xr:uid="{00000000-0005-0000-0000-00000F070000}"/>
-    <cellStyle name="Migliaia 57 2 3" xfId="3222" xr:uid="{00000000-0005-0000-0000-000010070000}"/>
+    <cellStyle name="Migliaia 57 2 2 2" xfId="3222" xr:uid="{00000000-0005-0000-0000-00000F070000}"/>
+    <cellStyle name="Migliaia 57 2 3" xfId="3221" xr:uid="{00000000-0005-0000-0000-000010070000}"/>
     <cellStyle name="Migliaia 57 3" xfId="1169" xr:uid="{00000000-0005-0000-0000-000011070000}"/>
     <cellStyle name="Migliaia 57 3 2" xfId="1170" xr:uid="{00000000-0005-0000-0000-000012070000}"/>
     <cellStyle name="Migliaia 57 3 2 2" xfId="1171" xr:uid="{00000000-0005-0000-0000-000013070000}"/>
-    <cellStyle name="Migliaia 57 3 2 3" xfId="3225" xr:uid="{00000000-0005-0000-0000-000014070000}"/>
-    <cellStyle name="Migliaia 57 3 3" xfId="3224" xr:uid="{00000000-0005-0000-0000-000015070000}"/>
+    <cellStyle name="Migliaia 57 3 2 3" xfId="3224" xr:uid="{00000000-0005-0000-0000-000014070000}"/>
+    <cellStyle name="Migliaia 57 3 3" xfId="3223" xr:uid="{00000000-0005-0000-0000-000015070000}"/>
     <cellStyle name="Migliaia 57 4" xfId="1172" xr:uid="{00000000-0005-0000-0000-000016070000}"/>
     <cellStyle name="Migliaia 57 4 2" xfId="1173" xr:uid="{00000000-0005-0000-0000-000017070000}"/>
-    <cellStyle name="Migliaia 57 4 2 2" xfId="3227" xr:uid="{00000000-0005-0000-0000-000018070000}"/>
-    <cellStyle name="Migliaia 57 4 3" xfId="3226" xr:uid="{00000000-0005-0000-0000-000019070000}"/>
+    <cellStyle name="Migliaia 57 4 2 2" xfId="3226" xr:uid="{00000000-0005-0000-0000-000018070000}"/>
+    <cellStyle name="Migliaia 57 4 3" xfId="3225" xr:uid="{00000000-0005-0000-0000-000019070000}"/>
     <cellStyle name="Migliaia 57 5" xfId="1174" xr:uid="{00000000-0005-0000-0000-00001A070000}"/>
-    <cellStyle name="Migliaia 57 6" xfId="3221" xr:uid="{00000000-0005-0000-0000-00001B070000}"/>
+    <cellStyle name="Migliaia 57 6" xfId="3220" xr:uid="{00000000-0005-0000-0000-00001B070000}"/>
     <cellStyle name="Migliaia 58" xfId="1175" xr:uid="{00000000-0005-0000-0000-00001C070000}"/>
     <cellStyle name="Migliaia 58 2" xfId="1176" xr:uid="{00000000-0005-0000-0000-00001D070000}"/>
     <cellStyle name="Migliaia 58 2 2" xfId="1177" xr:uid="{00000000-0005-0000-0000-00001E070000}"/>
-    <cellStyle name="Migliaia 58 2 2 2" xfId="3230" xr:uid="{00000000-0005-0000-0000-00001F070000}"/>
-    <cellStyle name="Migliaia 58 2 3" xfId="3229" xr:uid="{00000000-0005-0000-0000-000020070000}"/>
+    <cellStyle name="Migliaia 58 2 2 2" xfId="3229" xr:uid="{00000000-0005-0000-0000-00001F070000}"/>
+    <cellStyle name="Migliaia 58 2 3" xfId="3228" xr:uid="{00000000-0005-0000-0000-000020070000}"/>
     <cellStyle name="Migliaia 58 3" xfId="1178" xr:uid="{00000000-0005-0000-0000-000021070000}"/>
     <cellStyle name="Migliaia 58 3 2" xfId="1179" xr:uid="{00000000-0005-0000-0000-000022070000}"/>
     <cellStyle name="Migliaia 58 3 2 2" xfId="1180" xr:uid="{00000000-0005-0000-0000-000023070000}"/>
-    <cellStyle name="Migliaia 58 3 2 3" xfId="3232" xr:uid="{00000000-0005-0000-0000-000024070000}"/>
-    <cellStyle name="Migliaia 58 3 3" xfId="3231" xr:uid="{00000000-0005-0000-0000-000025070000}"/>
+    <cellStyle name="Migliaia 58 3 2 3" xfId="3231" xr:uid="{00000000-0005-0000-0000-000024070000}"/>
+    <cellStyle name="Migliaia 58 3 3" xfId="3230" xr:uid="{00000000-0005-0000-0000-000025070000}"/>
     <cellStyle name="Migliaia 58 4" xfId="1181" xr:uid="{00000000-0005-0000-0000-000026070000}"/>
     <cellStyle name="Migliaia 58 4 2" xfId="1182" xr:uid="{00000000-0005-0000-0000-000027070000}"/>
-    <cellStyle name="Migliaia 58 4 2 2" xfId="3234" xr:uid="{00000000-0005-0000-0000-000028070000}"/>
-    <cellStyle name="Migliaia 58 4 3" xfId="3233" xr:uid="{00000000-0005-0000-0000-000029070000}"/>
+    <cellStyle name="Migliaia 58 4 2 2" xfId="3233" xr:uid="{00000000-0005-0000-0000-000028070000}"/>
+    <cellStyle name="Migliaia 58 4 3" xfId="3232" xr:uid="{00000000-0005-0000-0000-000029070000}"/>
     <cellStyle name="Migliaia 58 5" xfId="1183" xr:uid="{00000000-0005-0000-0000-00002A070000}"/>
-    <cellStyle name="Migliaia 58 6" xfId="3228" xr:uid="{00000000-0005-0000-0000-00002B070000}"/>
+    <cellStyle name="Migliaia 58 6" xfId="3227" xr:uid="{00000000-0005-0000-0000-00002B070000}"/>
     <cellStyle name="Migliaia 59" xfId="1184" xr:uid="{00000000-0005-0000-0000-00002C070000}"/>
     <cellStyle name="Migliaia 59 2" xfId="1185" xr:uid="{00000000-0005-0000-0000-00002D070000}"/>
     <cellStyle name="Migliaia 59 2 2" xfId="1186" xr:uid="{00000000-0005-0000-0000-00002E070000}"/>
-    <cellStyle name="Migliaia 59 2 2 2" xfId="3237" xr:uid="{00000000-0005-0000-0000-00002F070000}"/>
-    <cellStyle name="Migliaia 59 2 3" xfId="3236" xr:uid="{00000000-0005-0000-0000-000030070000}"/>
+    <cellStyle name="Migliaia 59 2 2 2" xfId="3236" xr:uid="{00000000-0005-0000-0000-00002F070000}"/>
+    <cellStyle name="Migliaia 59 2 3" xfId="3235" xr:uid="{00000000-0005-0000-0000-000030070000}"/>
     <cellStyle name="Migliaia 59 3" xfId="1187" xr:uid="{00000000-0005-0000-0000-000031070000}"/>
     <cellStyle name="Migliaia 59 3 2" xfId="1188" xr:uid="{00000000-0005-0000-0000-000032070000}"/>
     <cellStyle name="Migliaia 59 3 2 2" xfId="1189" xr:uid="{00000000-0005-0000-0000-000033070000}"/>
-    <cellStyle name="Migliaia 59 3 2 3" xfId="3239" xr:uid="{00000000-0005-0000-0000-000034070000}"/>
-    <cellStyle name="Migliaia 59 3 3" xfId="3238" xr:uid="{00000000-0005-0000-0000-000035070000}"/>
+    <cellStyle name="Migliaia 59 3 2 3" xfId="3238" xr:uid="{00000000-0005-0000-0000-000034070000}"/>
+    <cellStyle name="Migliaia 59 3 3" xfId="3237" xr:uid="{00000000-0005-0000-0000-000035070000}"/>
     <cellStyle name="Migliaia 59 4" xfId="1190" xr:uid="{00000000-0005-0000-0000-000036070000}"/>
     <cellStyle name="Migliaia 59 4 2" xfId="1191" xr:uid="{00000000-0005-0000-0000-000037070000}"/>
-    <cellStyle name="Migliaia 59 4 2 2" xfId="3241" xr:uid="{00000000-0005-0000-0000-000038070000}"/>
-    <cellStyle name="Migliaia 59 4 3" xfId="3240" xr:uid="{00000000-0005-0000-0000-000039070000}"/>
+    <cellStyle name="Migliaia 59 4 2 2" xfId="3240" xr:uid="{00000000-0005-0000-0000-000038070000}"/>
+    <cellStyle name="Migliaia 59 4 3" xfId="3239" xr:uid="{00000000-0005-0000-0000-000039070000}"/>
     <cellStyle name="Migliaia 59 5" xfId="1192" xr:uid="{00000000-0005-0000-0000-00003A070000}"/>
-    <cellStyle name="Migliaia 59 6" xfId="3235" xr:uid="{00000000-0005-0000-0000-00003B070000}"/>
+    <cellStyle name="Migliaia 59 6" xfId="3234" xr:uid="{00000000-0005-0000-0000-00003B070000}"/>
     <cellStyle name="Migliaia 6" xfId="1193" xr:uid="{00000000-0005-0000-0000-00003C070000}"/>
     <cellStyle name="Migliaia 6 2" xfId="1194" xr:uid="{00000000-0005-0000-0000-00003D070000}"/>
     <cellStyle name="Migliaia 6 2 2" xfId="1195" xr:uid="{00000000-0005-0000-0000-00003E070000}"/>
-    <cellStyle name="Migliaia 6 2 2 2" xfId="3244" xr:uid="{00000000-0005-0000-0000-00003F070000}"/>
-    <cellStyle name="Migliaia 6 2 3" xfId="3243" xr:uid="{00000000-0005-0000-0000-000040070000}"/>
+    <cellStyle name="Migliaia 6 2 2 2" xfId="3243" xr:uid="{00000000-0005-0000-0000-00003F070000}"/>
+    <cellStyle name="Migliaia 6 2 3" xfId="3242" xr:uid="{00000000-0005-0000-0000-000040070000}"/>
     <cellStyle name="Migliaia 6 3" xfId="1196" xr:uid="{00000000-0005-0000-0000-000041070000}"/>
     <cellStyle name="Migliaia 6 3 2" xfId="1197" xr:uid="{00000000-0005-0000-0000-000042070000}"/>
     <cellStyle name="Migliaia 6 3 2 2" xfId="1198" xr:uid="{00000000-0005-0000-0000-000043070000}"/>
-    <cellStyle name="Migliaia 6 3 2 3" xfId="3246" xr:uid="{00000000-0005-0000-0000-000044070000}"/>
-    <cellStyle name="Migliaia 6 3 3" xfId="3245" xr:uid="{00000000-0005-0000-0000-000045070000}"/>
+    <cellStyle name="Migliaia 6 3 2 3" xfId="3245" xr:uid="{00000000-0005-0000-0000-000044070000}"/>
+    <cellStyle name="Migliaia 6 3 3" xfId="3244" xr:uid="{00000000-0005-0000-0000-000045070000}"/>
     <cellStyle name="Migliaia 6 4" xfId="1199" xr:uid="{00000000-0005-0000-0000-000046070000}"/>
     <cellStyle name="Migliaia 6 4 2" xfId="1200" xr:uid="{00000000-0005-0000-0000-000047070000}"/>
-    <cellStyle name="Migliaia 6 4 2 2" xfId="3248" xr:uid="{00000000-0005-0000-0000-000048070000}"/>
-    <cellStyle name="Migliaia 6 4 3" xfId="3247" xr:uid="{00000000-0005-0000-0000-000049070000}"/>
+    <cellStyle name="Migliaia 6 4 2 2" xfId="3247" xr:uid="{00000000-0005-0000-0000-000048070000}"/>
+    <cellStyle name="Migliaia 6 4 3" xfId="3246" xr:uid="{00000000-0005-0000-0000-000049070000}"/>
     <cellStyle name="Migliaia 6 5" xfId="1201" xr:uid="{00000000-0005-0000-0000-00004A070000}"/>
-    <cellStyle name="Migliaia 6 6" xfId="3242" xr:uid="{00000000-0005-0000-0000-00004B070000}"/>
+    <cellStyle name="Migliaia 6 6" xfId="3241" xr:uid="{00000000-0005-0000-0000-00004B070000}"/>
     <cellStyle name="Migliaia 60" xfId="1202" xr:uid="{00000000-0005-0000-0000-00004C070000}"/>
     <cellStyle name="Migliaia 60 2" xfId="1203" xr:uid="{00000000-0005-0000-0000-00004D070000}"/>
     <cellStyle name="Migliaia 60 2 2" xfId="1204" xr:uid="{00000000-0005-0000-0000-00004E070000}"/>
-    <cellStyle name="Migliaia 60 2 2 2" xfId="3251" xr:uid="{00000000-0005-0000-0000-00004F070000}"/>
-    <cellStyle name="Migliaia 60 2 3" xfId="3250" xr:uid="{00000000-0005-0000-0000-000050070000}"/>
+    <cellStyle name="Migliaia 60 2 2 2" xfId="3250" xr:uid="{00000000-0005-0000-0000-00004F070000}"/>
+    <cellStyle name="Migliaia 60 2 3" xfId="3249" xr:uid="{00000000-0005-0000-0000-000050070000}"/>
     <cellStyle name="Migliaia 60 3" xfId="1205" xr:uid="{00000000-0005-0000-0000-000051070000}"/>
     <cellStyle name="Migliaia 60 3 2" xfId="1206" xr:uid="{00000000-0005-0000-0000-000052070000}"/>
     <cellStyle name="Migliaia 60 3 2 2" xfId="1207" xr:uid="{00000000-0005-0000-0000-000053070000}"/>
-    <cellStyle name="Migliaia 60 3 2 3" xfId="3253" xr:uid="{00000000-0005-0000-0000-000054070000}"/>
-    <cellStyle name="Migliaia 60 3 3" xfId="3252" xr:uid="{00000000-0005-0000-0000-000055070000}"/>
+    <cellStyle name="Migliaia 60 3 2 3" xfId="3252" xr:uid="{00000000-0005-0000-0000-000054070000}"/>
+    <cellStyle name="Migliaia 60 3 3" xfId="3251" xr:uid="{00000000-0005-0000-0000-000055070000}"/>
     <cellStyle name="Migliaia 60 4" xfId="1208" xr:uid="{00000000-0005-0000-0000-000056070000}"/>
     <cellStyle name="Migliaia 60 4 2" xfId="1209" xr:uid="{00000000-0005-0000-0000-000057070000}"/>
-    <cellStyle name="Migliaia 60 4 2 2" xfId="3255" xr:uid="{00000000-0005-0000-0000-000058070000}"/>
-    <cellStyle name="Migliaia 60 4 3" xfId="3254" xr:uid="{00000000-0005-0000-0000-000059070000}"/>
+    <cellStyle name="Migliaia 60 4 2 2" xfId="3254" xr:uid="{00000000-0005-0000-0000-000058070000}"/>
+    <cellStyle name="Migliaia 60 4 3" xfId="3253" xr:uid="{00000000-0005-0000-0000-000059070000}"/>
     <cellStyle name="Migliaia 60 5" xfId="1210" xr:uid="{00000000-0005-0000-0000-00005A070000}"/>
-    <cellStyle name="Migliaia 60 6" xfId="3249" xr:uid="{00000000-0005-0000-0000-00005B070000}"/>
+    <cellStyle name="Migliaia 60 6" xfId="3248" xr:uid="{00000000-0005-0000-0000-00005B070000}"/>
     <cellStyle name="Migliaia 61" xfId="1211" xr:uid="{00000000-0005-0000-0000-00005C070000}"/>
     <cellStyle name="Migliaia 61 2" xfId="1212" xr:uid="{00000000-0005-0000-0000-00005D070000}"/>
     <cellStyle name="Migliaia 61 2 2" xfId="1213" xr:uid="{00000000-0005-0000-0000-00005E070000}"/>
-    <cellStyle name="Migliaia 61 2 2 2" xfId="3258" xr:uid="{00000000-0005-0000-0000-00005F070000}"/>
-    <cellStyle name="Migliaia 61 2 3" xfId="3257" xr:uid="{00000000-0005-0000-0000-000060070000}"/>
+    <cellStyle name="Migliaia 61 2 2 2" xfId="3257" xr:uid="{00000000-0005-0000-0000-00005F070000}"/>
+    <cellStyle name="Migliaia 61 2 3" xfId="3256" xr:uid="{00000000-0005-0000-0000-000060070000}"/>
     <cellStyle name="Migliaia 61 3" xfId="1214" xr:uid="{00000000-0005-0000-0000-000061070000}"/>
     <cellStyle name="Migliaia 61 3 2" xfId="1215" xr:uid="{00000000-0005-0000-0000-000062070000}"/>
     <cellStyle name="Migliaia 61 3 2 2" xfId="1216" xr:uid="{00000000-0005-0000-0000-000063070000}"/>
-    <cellStyle name="Migliaia 61 3 2 3" xfId="3260" xr:uid="{00000000-0005-0000-0000-000064070000}"/>
-    <cellStyle name="Migliaia 61 3 3" xfId="3259" xr:uid="{00000000-0005-0000-0000-000065070000}"/>
+    <cellStyle name="Migliaia 61 3 2 3" xfId="3259" xr:uid="{00000000-0005-0000-0000-000064070000}"/>
+    <cellStyle name="Migliaia 61 3 3" xfId="3258" xr:uid="{00000000-0005-0000-0000-000065070000}"/>
     <cellStyle name="Migliaia 61 4" xfId="1217" xr:uid="{00000000-0005-0000-0000-000066070000}"/>
     <cellStyle name="Migliaia 61 4 2" xfId="1218" xr:uid="{00000000-0005-0000-0000-000067070000}"/>
-    <cellStyle name="Migliaia 61 4 2 2" xfId="3262" xr:uid="{00000000-0005-0000-0000-000068070000}"/>
-    <cellStyle name="Migliaia 61 4 3" xfId="3261" xr:uid="{00000000-0005-0000-0000-000069070000}"/>
+    <cellStyle name="Migliaia 61 4 2 2" xfId="3261" xr:uid="{00000000-0005-0000-0000-000068070000}"/>
+    <cellStyle name="Migliaia 61 4 3" xfId="3260" xr:uid="{00000000-0005-0000-0000-000069070000}"/>
     <cellStyle name="Migliaia 61 5" xfId="1219" xr:uid="{00000000-0005-0000-0000-00006A070000}"/>
-    <cellStyle name="Migliaia 61 6" xfId="3256" xr:uid="{00000000-0005-0000-0000-00006B070000}"/>
+    <cellStyle name="Migliaia 61 6" xfId="3255" xr:uid="{00000000-0005-0000-0000-00006B070000}"/>
     <cellStyle name="Migliaia 7" xfId="1220" xr:uid="{00000000-0005-0000-0000-00006C070000}"/>
     <cellStyle name="Migliaia 7 2" xfId="1221" xr:uid="{00000000-0005-0000-0000-00006D070000}"/>
     <cellStyle name="Migliaia 7 2 2" xfId="1222" xr:uid="{00000000-0005-0000-0000-00006E070000}"/>
-    <cellStyle name="Migliaia 7 2 2 2" xfId="3265" xr:uid="{00000000-0005-0000-0000-00006F070000}"/>
-    <cellStyle name="Migliaia 7 2 3" xfId="3264" xr:uid="{00000000-0005-0000-0000-000070070000}"/>
+    <cellStyle name="Migliaia 7 2 2 2" xfId="3264" xr:uid="{00000000-0005-0000-0000-00006F070000}"/>
+    <cellStyle name="Migliaia 7 2 3" xfId="3263" xr:uid="{00000000-0005-0000-0000-000070070000}"/>
     <cellStyle name="Migliaia 7 3" xfId="1223" xr:uid="{00000000-0005-0000-0000-000071070000}"/>
     <cellStyle name="Migliaia 7 3 2" xfId="1224" xr:uid="{00000000-0005-0000-0000-000072070000}"/>
     <cellStyle name="Migliaia 7 3 2 2" xfId="1225" xr:uid="{00000000-0005-0000-0000-000073070000}"/>
-    <cellStyle name="Migliaia 7 3 2 3" xfId="3267" xr:uid="{00000000-0005-0000-0000-000074070000}"/>
-    <cellStyle name="Migliaia 7 3 3" xfId="3266" xr:uid="{00000000-0005-0000-0000-000075070000}"/>
+    <cellStyle name="Migliaia 7 3 2 3" xfId="3266" xr:uid="{00000000-0005-0000-0000-000074070000}"/>
+    <cellStyle name="Migliaia 7 3 3" xfId="3265" xr:uid="{00000000-0005-0000-0000-000075070000}"/>
     <cellStyle name="Migliaia 7 4" xfId="1226" xr:uid="{00000000-0005-0000-0000-000076070000}"/>
     <cellStyle name="Migliaia 7 4 2" xfId="1227" xr:uid="{00000000-0005-0000-0000-000077070000}"/>
-    <cellStyle name="Migliaia 7 4 2 2" xfId="3269" xr:uid="{00000000-0005-0000-0000-000078070000}"/>
-    <cellStyle name="Migliaia 7 4 3" xfId="3268" xr:uid="{00000000-0005-0000-0000-000079070000}"/>
+    <cellStyle name="Migliaia 7 4 2 2" xfId="3268" xr:uid="{00000000-0005-0000-0000-000078070000}"/>
+    <cellStyle name="Migliaia 7 4 3" xfId="3267" xr:uid="{00000000-0005-0000-0000-000079070000}"/>
     <cellStyle name="Migliaia 7 5" xfId="1228" xr:uid="{00000000-0005-0000-0000-00007A070000}"/>
-    <cellStyle name="Migliaia 7 6" xfId="3263" xr:uid="{00000000-0005-0000-0000-00007B070000}"/>
+    <cellStyle name="Migliaia 7 6" xfId="3262" xr:uid="{00000000-0005-0000-0000-00007B070000}"/>
     <cellStyle name="Migliaia 8" xfId="1229" xr:uid="{00000000-0005-0000-0000-00007C070000}"/>
     <cellStyle name="Migliaia 8 2" xfId="1230" xr:uid="{00000000-0005-0000-0000-00007D070000}"/>
     <cellStyle name="Migliaia 8 2 2" xfId="1231" xr:uid="{00000000-0005-0000-0000-00007E070000}"/>
-    <cellStyle name="Migliaia 8 2 2 2" xfId="3272" xr:uid="{00000000-0005-0000-0000-00007F070000}"/>
-    <cellStyle name="Migliaia 8 2 3" xfId="3271" xr:uid="{00000000-0005-0000-0000-000080070000}"/>
+    <cellStyle name="Migliaia 8 2 2 2" xfId="3271" xr:uid="{00000000-0005-0000-0000-00007F070000}"/>
+    <cellStyle name="Migliaia 8 2 3" xfId="3270" xr:uid="{00000000-0005-0000-0000-000080070000}"/>
     <cellStyle name="Migliaia 8 3" xfId="1232" xr:uid="{00000000-0005-0000-0000-000081070000}"/>
     <cellStyle name="Migliaia 8 3 2" xfId="1233" xr:uid="{00000000-0005-0000-0000-000082070000}"/>
     <cellStyle name="Migliaia 8 3 2 2" xfId="1234" xr:uid="{00000000-0005-0000-0000-000083070000}"/>
-    <cellStyle name="Migliaia 8 3 2 3" xfId="3274" xr:uid="{00000000-0005-0000-0000-000084070000}"/>
-    <cellStyle name="Migliaia 8 3 3" xfId="3273" xr:uid="{00000000-0005-0000-0000-000085070000}"/>
+    <cellStyle name="Migliaia 8 3 2 3" xfId="3273" xr:uid="{00000000-0005-0000-0000-000084070000}"/>
+    <cellStyle name="Migliaia 8 3 3" xfId="3272" xr:uid="{00000000-0005-0000-0000-000085070000}"/>
     <cellStyle name="Migliaia 8 4" xfId="1235" xr:uid="{00000000-0005-0000-0000-000086070000}"/>
     <cellStyle name="Migliaia 8 4 2" xfId="1236" xr:uid="{00000000-0005-0000-0000-000087070000}"/>
-    <cellStyle name="Migliaia 8 4 2 2" xfId="3276" xr:uid="{00000000-0005-0000-0000-000088070000}"/>
-    <cellStyle name="Migliaia 8 4 3" xfId="3275" xr:uid="{00000000-0005-0000-0000-000089070000}"/>
+    <cellStyle name="Migliaia 8 4 2 2" xfId="3275" xr:uid="{00000000-0005-0000-0000-000088070000}"/>
+    <cellStyle name="Migliaia 8 4 3" xfId="3274" xr:uid="{00000000-0005-0000-0000-000089070000}"/>
     <cellStyle name="Migliaia 8 5" xfId="1237" xr:uid="{00000000-0005-0000-0000-00008A070000}"/>
-    <cellStyle name="Migliaia 8 6" xfId="3270" xr:uid="{00000000-0005-0000-0000-00008B070000}"/>
+    <cellStyle name="Migliaia 8 6" xfId="3269" xr:uid="{00000000-0005-0000-0000-00008B070000}"/>
     <cellStyle name="Migliaia 9" xfId="1238" xr:uid="{00000000-0005-0000-0000-00008C070000}"/>
     <cellStyle name="Migliaia 9 2" xfId="1239" xr:uid="{00000000-0005-0000-0000-00008D070000}"/>
     <cellStyle name="Migliaia 9 2 2" xfId="1240" xr:uid="{00000000-0005-0000-0000-00008E070000}"/>
-    <cellStyle name="Migliaia 9 2 2 2" xfId="3279" xr:uid="{00000000-0005-0000-0000-00008F070000}"/>
-    <cellStyle name="Migliaia 9 2 3" xfId="3278" xr:uid="{00000000-0005-0000-0000-000090070000}"/>
+    <cellStyle name="Migliaia 9 2 2 2" xfId="3278" xr:uid="{00000000-0005-0000-0000-00008F070000}"/>
+    <cellStyle name="Migliaia 9 2 3" xfId="3277" xr:uid="{00000000-0005-0000-0000-000090070000}"/>
     <cellStyle name="Migliaia 9 3" xfId="1241" xr:uid="{00000000-0005-0000-0000-000091070000}"/>
     <cellStyle name="Migliaia 9 3 2" xfId="1242" xr:uid="{00000000-0005-0000-0000-000092070000}"/>
     <cellStyle name="Migliaia 9 3 2 2" xfId="1243" xr:uid="{00000000-0005-0000-0000-000093070000}"/>
-    <cellStyle name="Migliaia 9 3 2 3" xfId="3281" xr:uid="{00000000-0005-0000-0000-000094070000}"/>
-    <cellStyle name="Migliaia 9 3 3" xfId="3280" xr:uid="{00000000-0005-0000-0000-000095070000}"/>
+    <cellStyle name="Migliaia 9 3 2 3" xfId="3280" xr:uid="{00000000-0005-0000-0000-000094070000}"/>
+    <cellStyle name="Migliaia 9 3 3" xfId="3279" xr:uid="{00000000-0005-0000-0000-000095070000}"/>
     <cellStyle name="Migliaia 9 4" xfId="1244" xr:uid="{00000000-0005-0000-0000-000096070000}"/>
     <cellStyle name="Migliaia 9 4 2" xfId="1245" xr:uid="{00000000-0005-0000-0000-000097070000}"/>
-    <cellStyle name="Migliaia 9 4 2 2" xfId="3283" xr:uid="{00000000-0005-0000-0000-000098070000}"/>
-    <cellStyle name="Migliaia 9 4 3" xfId="3282" xr:uid="{00000000-0005-0000-0000-000099070000}"/>
+    <cellStyle name="Migliaia 9 4 2 2" xfId="3282" xr:uid="{00000000-0005-0000-0000-000098070000}"/>
+    <cellStyle name="Migliaia 9 4 3" xfId="3281" xr:uid="{00000000-0005-0000-0000-000099070000}"/>
     <cellStyle name="Migliaia 9 5" xfId="1246" xr:uid="{00000000-0005-0000-0000-00009A070000}"/>
-    <cellStyle name="Migliaia 9 6" xfId="3277" xr:uid="{00000000-0005-0000-0000-00009B070000}"/>
+    <cellStyle name="Migliaia 9 6" xfId="3276" xr:uid="{00000000-0005-0000-0000-00009B070000}"/>
     <cellStyle name="Neutral 2" xfId="1247" xr:uid="{00000000-0005-0000-0000-00009C070000}"/>
     <cellStyle name="Neutrale" xfId="1248" xr:uid="{00000000-0005-0000-0000-00009D070000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1249" xr:uid="{00000000-0005-0000-0000-00009F070000}"/>
     <cellStyle name="Normal 10 2" xfId="1250" xr:uid="{00000000-0005-0000-0000-0000A0070000}"/>
-    <cellStyle name="Normal 10 2 2" xfId="3285" xr:uid="{00000000-0005-0000-0000-0000A1070000}"/>
-    <cellStyle name="Normal 10 3" xfId="3284" xr:uid="{00000000-0005-0000-0000-0000A2070000}"/>
+    <cellStyle name="Normal 10 2 2" xfId="3284" xr:uid="{00000000-0005-0000-0000-0000A1070000}"/>
+    <cellStyle name="Normal 10 3" xfId="3283" xr:uid="{00000000-0005-0000-0000-0000A2070000}"/>
     <cellStyle name="Normal 11" xfId="1251" xr:uid="{00000000-0005-0000-0000-0000A3070000}"/>
-    <cellStyle name="Normal 11 3" xfId="2582" xr:uid="{00000000-0005-0000-0000-0000A4070000}"/>
+    <cellStyle name="Normal 11 3" xfId="2581" xr:uid="{00000000-0005-0000-0000-0000A4070000}"/>
     <cellStyle name="Normal 12" xfId="1252" xr:uid="{00000000-0005-0000-0000-0000A5070000}"/>
     <cellStyle name="Normal 12 2" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000A6070000}"/>
     <cellStyle name="Normal 13" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000A7070000}"/>
-    <cellStyle name="Normal 13 2" xfId="3286" xr:uid="{00000000-0005-0000-0000-0000A8070000}"/>
+    <cellStyle name="Normal 13 2" xfId="3285" xr:uid="{00000000-0005-0000-0000-0000A8070000}"/>
     <cellStyle name="Normal 14" xfId="1255" xr:uid="{00000000-0005-0000-0000-0000A9070000}"/>
-    <cellStyle name="Normal 14 2" xfId="3287" xr:uid="{00000000-0005-0000-0000-0000AA070000}"/>
+    <cellStyle name="Normal 14 2" xfId="3286" xr:uid="{00000000-0005-0000-0000-0000AA070000}"/>
     <cellStyle name="Normal 15" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000AB070000}"/>
-    <cellStyle name="Normal 15 2" xfId="3288" xr:uid="{00000000-0005-0000-0000-0000AC070000}"/>
+    <cellStyle name="Normal 15 2" xfId="3287" xr:uid="{00000000-0005-0000-0000-0000AC070000}"/>
     <cellStyle name="Normal 16" xfId="1257" xr:uid="{00000000-0005-0000-0000-0000AD070000}"/>
     <cellStyle name="Normal 16 2" xfId="1258" xr:uid="{00000000-0005-0000-0000-0000AE070000}"/>
-    <cellStyle name="Normal 16 2 2" xfId="3289" xr:uid="{00000000-0005-0000-0000-0000AF070000}"/>
+    <cellStyle name="Normal 16 2 2" xfId="3288" xr:uid="{00000000-0005-0000-0000-0000AF070000}"/>
     <cellStyle name="Normal 16 3" xfId="1259" xr:uid="{00000000-0005-0000-0000-0000B0070000}"/>
     <cellStyle name="Normal 17" xfId="1260" xr:uid="{00000000-0005-0000-0000-0000B1070000}"/>
     <cellStyle name="Normal 17 2" xfId="1261" xr:uid="{00000000-0005-0000-0000-0000B2070000}"/>
-    <cellStyle name="Normal 17 2 2" xfId="3291" xr:uid="{00000000-0005-0000-0000-0000B3070000}"/>
-    <cellStyle name="Normal 17 3" xfId="3290" xr:uid="{00000000-0005-0000-0000-0000B4070000}"/>
+    <cellStyle name="Normal 17 2 2" xfId="3290" xr:uid="{00000000-0005-0000-0000-0000B3070000}"/>
+    <cellStyle name="Normal 17 3" xfId="3289" xr:uid="{00000000-0005-0000-0000-0000B4070000}"/>
     <cellStyle name="Normal 18" xfId="1262" xr:uid="{00000000-0005-0000-0000-0000B5070000}"/>
     <cellStyle name="Normal 18 2" xfId="1263" xr:uid="{00000000-0005-0000-0000-0000B6070000}"/>
-    <cellStyle name="Normal 18 2 2" xfId="3293" xr:uid="{00000000-0005-0000-0000-0000B7070000}"/>
-    <cellStyle name="Normal 18 3" xfId="3292" xr:uid="{00000000-0005-0000-0000-0000B8070000}"/>
+    <cellStyle name="Normal 18 2 2" xfId="3292" xr:uid="{00000000-0005-0000-0000-0000B7070000}"/>
+    <cellStyle name="Normal 18 3" xfId="3291" xr:uid="{00000000-0005-0000-0000-0000B8070000}"/>
     <cellStyle name="Normal 19" xfId="1264" xr:uid="{00000000-0005-0000-0000-0000B9070000}"/>
     <cellStyle name="Normal 19 2" xfId="1265" xr:uid="{00000000-0005-0000-0000-0000BA070000}"/>
-    <cellStyle name="Normal 19 2 2" xfId="3294" xr:uid="{00000000-0005-0000-0000-0000BB070000}"/>
+    <cellStyle name="Normal 19 2 2" xfId="3293" xr:uid="{00000000-0005-0000-0000-0000BB070000}"/>
     <cellStyle name="Normal 19 3" xfId="1266" xr:uid="{00000000-0005-0000-0000-0000BC070000}"/>
     <cellStyle name="Normal 2" xfId="1267" xr:uid="{00000000-0005-0000-0000-0000BD070000}"/>
     <cellStyle name="Normal 2 2" xfId="1268" xr:uid="{00000000-0005-0000-0000-0000BE070000}"/>
@@ -7585,46 +7586,46 @@
     <cellStyle name="Normal 2 4 2 2" xfId="1284" xr:uid="{00000000-0005-0000-0000-0000CE070000}"/>
     <cellStyle name="Normal 2 4 3" xfId="1285" xr:uid="{00000000-0005-0000-0000-0000CF070000}"/>
     <cellStyle name="Normal 2 5" xfId="1286" xr:uid="{00000000-0005-0000-0000-0000D0070000}"/>
-    <cellStyle name="Normal 2 5 2" xfId="3295" xr:uid="{00000000-0005-0000-0000-0000D1070000}"/>
+    <cellStyle name="Normal 2 5 2" xfId="3294" xr:uid="{00000000-0005-0000-0000-0000D1070000}"/>
     <cellStyle name="Normal 2_Plants" xfId="1287" xr:uid="{00000000-0005-0000-0000-0000D2070000}"/>
     <cellStyle name="Normal 20" xfId="1288" xr:uid="{00000000-0005-0000-0000-0000D3070000}"/>
-    <cellStyle name="Normal 20 2" xfId="3296" xr:uid="{00000000-0005-0000-0000-0000D4070000}"/>
+    <cellStyle name="Normal 20 2" xfId="3295" xr:uid="{00000000-0005-0000-0000-0000D4070000}"/>
     <cellStyle name="Normal 21" xfId="1289" xr:uid="{00000000-0005-0000-0000-0000D5070000}"/>
-    <cellStyle name="Normal 21 2" xfId="3297" xr:uid="{00000000-0005-0000-0000-0000D6070000}"/>
+    <cellStyle name="Normal 21 2" xfId="3296" xr:uid="{00000000-0005-0000-0000-0000D6070000}"/>
     <cellStyle name="Normal 22" xfId="1290" xr:uid="{00000000-0005-0000-0000-0000D7070000}"/>
-    <cellStyle name="Normal 22 2" xfId="3298" xr:uid="{00000000-0005-0000-0000-0000D8070000}"/>
+    <cellStyle name="Normal 22 2" xfId="3297" xr:uid="{00000000-0005-0000-0000-0000D8070000}"/>
     <cellStyle name="Normal 23" xfId="1291" xr:uid="{00000000-0005-0000-0000-0000D9070000}"/>
-    <cellStyle name="Normal 23 2" xfId="3299" xr:uid="{00000000-0005-0000-0000-0000DA070000}"/>
+    <cellStyle name="Normal 23 2" xfId="3298" xr:uid="{00000000-0005-0000-0000-0000DA070000}"/>
     <cellStyle name="Normal 24" xfId="1292" xr:uid="{00000000-0005-0000-0000-0000DB070000}"/>
-    <cellStyle name="Normal 24 2" xfId="3300" xr:uid="{00000000-0005-0000-0000-0000DC070000}"/>
+    <cellStyle name="Normal 24 2" xfId="3299" xr:uid="{00000000-0005-0000-0000-0000DC070000}"/>
     <cellStyle name="Normal 25" xfId="1293" xr:uid="{00000000-0005-0000-0000-0000DD070000}"/>
-    <cellStyle name="Normal 25 2" xfId="3301" xr:uid="{00000000-0005-0000-0000-0000DE070000}"/>
+    <cellStyle name="Normal 25 2" xfId="3300" xr:uid="{00000000-0005-0000-0000-0000DE070000}"/>
     <cellStyle name="Normal 26" xfId="1294" xr:uid="{00000000-0005-0000-0000-0000DF070000}"/>
-    <cellStyle name="Normal 26 2" xfId="3302" xr:uid="{00000000-0005-0000-0000-0000E0070000}"/>
+    <cellStyle name="Normal 26 2" xfId="3301" xr:uid="{00000000-0005-0000-0000-0000E0070000}"/>
     <cellStyle name="Normal 27" xfId="1295" xr:uid="{00000000-0005-0000-0000-0000E1070000}"/>
-    <cellStyle name="Normal 27 2" xfId="3303" xr:uid="{00000000-0005-0000-0000-0000E2070000}"/>
+    <cellStyle name="Normal 27 2" xfId="3302" xr:uid="{00000000-0005-0000-0000-0000E2070000}"/>
     <cellStyle name="Normal 28" xfId="1296" xr:uid="{00000000-0005-0000-0000-0000E3070000}"/>
-    <cellStyle name="Normal 28 2" xfId="3304" xr:uid="{00000000-0005-0000-0000-0000E4070000}"/>
+    <cellStyle name="Normal 28 2" xfId="3303" xr:uid="{00000000-0005-0000-0000-0000E4070000}"/>
     <cellStyle name="Normal 29" xfId="1297" xr:uid="{00000000-0005-0000-0000-0000E5070000}"/>
     <cellStyle name="Normal 29 2" xfId="1298" xr:uid="{00000000-0005-0000-0000-0000E6070000}"/>
     <cellStyle name="Normal 3" xfId="1299" xr:uid="{00000000-0005-0000-0000-0000E7070000}"/>
     <cellStyle name="Normal 3 10" xfId="1300" xr:uid="{00000000-0005-0000-0000-0000E8070000}"/>
-    <cellStyle name="Normal 3 10 2" xfId="3305" xr:uid="{00000000-0005-0000-0000-0000E9070000}"/>
+    <cellStyle name="Normal 3 10 2" xfId="3304" xr:uid="{00000000-0005-0000-0000-0000E9070000}"/>
     <cellStyle name="Normal 3 11" xfId="1301" xr:uid="{00000000-0005-0000-0000-0000EA070000}"/>
-    <cellStyle name="Normal 3 11 2" xfId="3306" xr:uid="{00000000-0005-0000-0000-0000EB070000}"/>
+    <cellStyle name="Normal 3 11 2" xfId="3305" xr:uid="{00000000-0005-0000-0000-0000EB070000}"/>
     <cellStyle name="Normal 3 12" xfId="1302" xr:uid="{00000000-0005-0000-0000-0000EC070000}"/>
-    <cellStyle name="Normal 3 12 2" xfId="3307" xr:uid="{00000000-0005-0000-0000-0000ED070000}"/>
+    <cellStyle name="Normal 3 12 2" xfId="3306" xr:uid="{00000000-0005-0000-0000-0000ED070000}"/>
     <cellStyle name="Normal 3 13" xfId="1303" xr:uid="{00000000-0005-0000-0000-0000EE070000}"/>
-    <cellStyle name="Normal 3 13 2" xfId="3308" xr:uid="{00000000-0005-0000-0000-0000EF070000}"/>
+    <cellStyle name="Normal 3 13 2" xfId="3307" xr:uid="{00000000-0005-0000-0000-0000EF070000}"/>
     <cellStyle name="Normal 3 14" xfId="1304" xr:uid="{00000000-0005-0000-0000-0000F0070000}"/>
-    <cellStyle name="Normal 3 14 2" xfId="3309" xr:uid="{00000000-0005-0000-0000-0000F1070000}"/>
+    <cellStyle name="Normal 3 14 2" xfId="3308" xr:uid="{00000000-0005-0000-0000-0000F1070000}"/>
     <cellStyle name="Normal 3 15" xfId="1305" xr:uid="{00000000-0005-0000-0000-0000F2070000}"/>
-    <cellStyle name="Normal 3 15 2" xfId="3310" xr:uid="{00000000-0005-0000-0000-0000F3070000}"/>
+    <cellStyle name="Normal 3 15 2" xfId="3309" xr:uid="{00000000-0005-0000-0000-0000F3070000}"/>
     <cellStyle name="Normal 3 16" xfId="1306" xr:uid="{00000000-0005-0000-0000-0000F4070000}"/>
     <cellStyle name="Normal 3 2" xfId="1307" xr:uid="{00000000-0005-0000-0000-0000F5070000}"/>
     <cellStyle name="Normal 3 2 2" xfId="1308" xr:uid="{00000000-0005-0000-0000-0000F6070000}"/>
     <cellStyle name="Normal 3 2 2 2" xfId="1309" xr:uid="{00000000-0005-0000-0000-0000F7070000}"/>
-    <cellStyle name="Normal 3 2 2 2 2" xfId="3311" xr:uid="{00000000-0005-0000-0000-0000F8070000}"/>
+    <cellStyle name="Normal 3 2 2 2 2" xfId="3310" xr:uid="{00000000-0005-0000-0000-0000F8070000}"/>
     <cellStyle name="Normal 3 2 2 3" xfId="1310" xr:uid="{00000000-0005-0000-0000-0000F9070000}"/>
     <cellStyle name="Normal 3 2 2 3 2" xfId="1311" xr:uid="{00000000-0005-0000-0000-0000FA070000}"/>
     <cellStyle name="Normal 3 2 2 4" xfId="1312" xr:uid="{00000000-0005-0000-0000-0000FB070000}"/>
@@ -7645,54 +7646,54 @@
     <cellStyle name="Normal 3 3 4" xfId="1327" xr:uid="{00000000-0005-0000-0000-00000A080000}"/>
     <cellStyle name="Normal 3 4" xfId="1328" xr:uid="{00000000-0005-0000-0000-00000B080000}"/>
     <cellStyle name="Normal 3 4 2" xfId="1329" xr:uid="{00000000-0005-0000-0000-00000C080000}"/>
-    <cellStyle name="Normal 3 4 2 2" xfId="3312" xr:uid="{00000000-0005-0000-0000-00000D080000}"/>
+    <cellStyle name="Normal 3 4 2 2" xfId="3311" xr:uid="{00000000-0005-0000-0000-00000D080000}"/>
     <cellStyle name="Normal 3 5" xfId="1330" xr:uid="{00000000-0005-0000-0000-00000E080000}"/>
     <cellStyle name="Normal 3 6" xfId="1331" xr:uid="{00000000-0005-0000-0000-00000F080000}"/>
     <cellStyle name="Normal 3 6 2" xfId="1332" xr:uid="{00000000-0005-0000-0000-000010080000}"/>
     <cellStyle name="Normal 3 7" xfId="1333" xr:uid="{00000000-0005-0000-0000-000011080000}"/>
-    <cellStyle name="Normal 3 7 2" xfId="3313" xr:uid="{00000000-0005-0000-0000-000012080000}"/>
+    <cellStyle name="Normal 3 7 2" xfId="3312" xr:uid="{00000000-0005-0000-0000-000012080000}"/>
     <cellStyle name="Normal 3 8" xfId="1334" xr:uid="{00000000-0005-0000-0000-000013080000}"/>
-    <cellStyle name="Normal 3 8 2" xfId="3314" xr:uid="{00000000-0005-0000-0000-000014080000}"/>
+    <cellStyle name="Normal 3 8 2" xfId="3313" xr:uid="{00000000-0005-0000-0000-000014080000}"/>
     <cellStyle name="Normal 3 9" xfId="1335" xr:uid="{00000000-0005-0000-0000-000015080000}"/>
-    <cellStyle name="Normal 3 9 2" xfId="3315" xr:uid="{00000000-0005-0000-0000-000016080000}"/>
+    <cellStyle name="Normal 3 9 2" xfId="3314" xr:uid="{00000000-0005-0000-0000-000016080000}"/>
     <cellStyle name="Normal 30" xfId="1336" xr:uid="{00000000-0005-0000-0000-000017080000}"/>
     <cellStyle name="Normal 31" xfId="1337" xr:uid="{00000000-0005-0000-0000-000018080000}"/>
-    <cellStyle name="Normal 31 2" xfId="3316" xr:uid="{00000000-0005-0000-0000-000019080000}"/>
+    <cellStyle name="Normal 31 2" xfId="3315" xr:uid="{00000000-0005-0000-0000-000019080000}"/>
     <cellStyle name="Normal 32" xfId="1338" xr:uid="{00000000-0005-0000-0000-00001A080000}"/>
-    <cellStyle name="Normal 32 2" xfId="3317" xr:uid="{00000000-0005-0000-0000-00001B080000}"/>
+    <cellStyle name="Normal 32 2" xfId="3316" xr:uid="{00000000-0005-0000-0000-00001B080000}"/>
     <cellStyle name="Normal 33" xfId="1339" xr:uid="{00000000-0005-0000-0000-00001C080000}"/>
-    <cellStyle name="Normal 33 2" xfId="3318" xr:uid="{00000000-0005-0000-0000-00001D080000}"/>
+    <cellStyle name="Normal 33 2" xfId="3317" xr:uid="{00000000-0005-0000-0000-00001D080000}"/>
     <cellStyle name="Normal 34" xfId="1340" xr:uid="{00000000-0005-0000-0000-00001E080000}"/>
-    <cellStyle name="Normal 34 2" xfId="3319" xr:uid="{00000000-0005-0000-0000-00001F080000}"/>
+    <cellStyle name="Normal 34 2" xfId="3318" xr:uid="{00000000-0005-0000-0000-00001F080000}"/>
     <cellStyle name="Normal 35" xfId="1341" xr:uid="{00000000-0005-0000-0000-000020080000}"/>
     <cellStyle name="Normal 4" xfId="1342" xr:uid="{00000000-0005-0000-0000-000021080000}"/>
     <cellStyle name="Normal 4 10" xfId="1343" xr:uid="{00000000-0005-0000-0000-000022080000}"/>
-    <cellStyle name="Normal 4 10 2" xfId="3320" xr:uid="{00000000-0005-0000-0000-000023080000}"/>
+    <cellStyle name="Normal 4 10 2" xfId="3319" xr:uid="{00000000-0005-0000-0000-000023080000}"/>
     <cellStyle name="Normal 4 11" xfId="1344" xr:uid="{00000000-0005-0000-0000-000024080000}"/>
-    <cellStyle name="Normal 4 11 2" xfId="3321" xr:uid="{00000000-0005-0000-0000-000025080000}"/>
+    <cellStyle name="Normal 4 11 2" xfId="3320" xr:uid="{00000000-0005-0000-0000-000025080000}"/>
     <cellStyle name="Normal 4 12" xfId="1345" xr:uid="{00000000-0005-0000-0000-000026080000}"/>
-    <cellStyle name="Normal 4 12 2" xfId="3322" xr:uid="{00000000-0005-0000-0000-000027080000}"/>
+    <cellStyle name="Normal 4 12 2" xfId="3321" xr:uid="{00000000-0005-0000-0000-000027080000}"/>
     <cellStyle name="Normal 4 13" xfId="1346" xr:uid="{00000000-0005-0000-0000-000028080000}"/>
-    <cellStyle name="Normal 4 13 2" xfId="3323" xr:uid="{00000000-0005-0000-0000-000029080000}"/>
+    <cellStyle name="Normal 4 13 2" xfId="3322" xr:uid="{00000000-0005-0000-0000-000029080000}"/>
     <cellStyle name="Normal 4 14" xfId="1347" xr:uid="{00000000-0005-0000-0000-00002A080000}"/>
-    <cellStyle name="Normal 4 14 2" xfId="3324" xr:uid="{00000000-0005-0000-0000-00002B080000}"/>
+    <cellStyle name="Normal 4 14 2" xfId="3323" xr:uid="{00000000-0005-0000-0000-00002B080000}"/>
     <cellStyle name="Normal 4 15" xfId="1348" xr:uid="{00000000-0005-0000-0000-00002C080000}"/>
-    <cellStyle name="Normal 4 15 2" xfId="3325" xr:uid="{00000000-0005-0000-0000-00002D080000}"/>
+    <cellStyle name="Normal 4 15 2" xfId="3324" xr:uid="{00000000-0005-0000-0000-00002D080000}"/>
     <cellStyle name="Normal 4 2" xfId="1349" xr:uid="{00000000-0005-0000-0000-00002E080000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="3326" xr:uid="{00000000-0005-0000-0000-00002F080000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="3325" xr:uid="{00000000-0005-0000-0000-00002F080000}"/>
     <cellStyle name="Normal 4 3" xfId="1350" xr:uid="{00000000-0005-0000-0000-000030080000}"/>
     <cellStyle name="Normal 4 4" xfId="1351" xr:uid="{00000000-0005-0000-0000-000031080000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="3327" xr:uid="{00000000-0005-0000-0000-000032080000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="3326" xr:uid="{00000000-0005-0000-0000-000032080000}"/>
     <cellStyle name="Normal 4 5" xfId="1352" xr:uid="{00000000-0005-0000-0000-000033080000}"/>
-    <cellStyle name="Normal 4 5 2" xfId="3328" xr:uid="{00000000-0005-0000-0000-000034080000}"/>
+    <cellStyle name="Normal 4 5 2" xfId="3327" xr:uid="{00000000-0005-0000-0000-000034080000}"/>
     <cellStyle name="Normal 4 6" xfId="1353" xr:uid="{00000000-0005-0000-0000-000035080000}"/>
-    <cellStyle name="Normal 4 6 2" xfId="3329" xr:uid="{00000000-0005-0000-0000-000036080000}"/>
+    <cellStyle name="Normal 4 6 2" xfId="3328" xr:uid="{00000000-0005-0000-0000-000036080000}"/>
     <cellStyle name="Normal 4 7" xfId="1354" xr:uid="{00000000-0005-0000-0000-000037080000}"/>
-    <cellStyle name="Normal 4 7 2" xfId="3330" xr:uid="{00000000-0005-0000-0000-000038080000}"/>
+    <cellStyle name="Normal 4 7 2" xfId="3329" xr:uid="{00000000-0005-0000-0000-000038080000}"/>
     <cellStyle name="Normal 4 8" xfId="1355" xr:uid="{00000000-0005-0000-0000-000039080000}"/>
-    <cellStyle name="Normal 4 8 2" xfId="3331" xr:uid="{00000000-0005-0000-0000-00003A080000}"/>
+    <cellStyle name="Normal 4 8 2" xfId="3330" xr:uid="{00000000-0005-0000-0000-00003A080000}"/>
     <cellStyle name="Normal 4 9" xfId="1356" xr:uid="{00000000-0005-0000-0000-00003B080000}"/>
-    <cellStyle name="Normal 4 9 2" xfId="3332" xr:uid="{00000000-0005-0000-0000-00003C080000}"/>
+    <cellStyle name="Normal 4 9 2" xfId="3331" xr:uid="{00000000-0005-0000-0000-00003C080000}"/>
     <cellStyle name="Normal 5" xfId="1357" xr:uid="{00000000-0005-0000-0000-00003D080000}"/>
     <cellStyle name="Normal 5 2" xfId="1358" xr:uid="{00000000-0005-0000-0000-00003E080000}"/>
     <cellStyle name="Normal 5 2 2" xfId="1359" xr:uid="{00000000-0005-0000-0000-00003F080000}"/>
@@ -7704,7 +7705,7 @@
     <cellStyle name="Normal 6" xfId="1365" xr:uid="{00000000-0005-0000-0000-000045080000}"/>
     <cellStyle name="Normal 6 2" xfId="1366" xr:uid="{00000000-0005-0000-0000-000046080000}"/>
     <cellStyle name="Normal 6 2 2" xfId="1367" xr:uid="{00000000-0005-0000-0000-000047080000}"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="3333" xr:uid="{00000000-0005-0000-0000-000048080000}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="3332" xr:uid="{00000000-0005-0000-0000-000048080000}"/>
     <cellStyle name="Normal 6 2 3" xfId="1368" xr:uid="{00000000-0005-0000-0000-000049080000}"/>
     <cellStyle name="Normal 6 2 3 2" xfId="1369" xr:uid="{00000000-0005-0000-0000-00004A080000}"/>
     <cellStyle name="Normal 6 2 4" xfId="1370" xr:uid="{00000000-0005-0000-0000-00004B080000}"/>
@@ -7713,7 +7714,7 @@
     <cellStyle name="Normal 6 3 2 2" xfId="1373" xr:uid="{00000000-0005-0000-0000-00004E080000}"/>
     <cellStyle name="Normal 6 3 2 2 2" xfId="1374" xr:uid="{00000000-0005-0000-0000-00004F080000}"/>
     <cellStyle name="Normal 6 3 2 3" xfId="1375" xr:uid="{00000000-0005-0000-0000-000050080000}"/>
-    <cellStyle name="Normal 6 3 3" xfId="3334" xr:uid="{00000000-0005-0000-0000-000051080000}"/>
+    <cellStyle name="Normal 6 3 3" xfId="3333" xr:uid="{00000000-0005-0000-0000-000051080000}"/>
     <cellStyle name="Normal 6 4" xfId="1376" xr:uid="{00000000-0005-0000-0000-000052080000}"/>
     <cellStyle name="Normal 6 4 2" xfId="1377" xr:uid="{00000000-0005-0000-0000-000053080000}"/>
     <cellStyle name="Normal 6 5" xfId="1378" xr:uid="{00000000-0005-0000-0000-000054080000}"/>
@@ -7729,9 +7730,9 @@
     <cellStyle name="Normal 8 2 2 2" xfId="1388" xr:uid="{00000000-0005-0000-0000-00005E080000}"/>
     <cellStyle name="Normal 8 2 2 2 2" xfId="1389" xr:uid="{00000000-0005-0000-0000-00005F080000}"/>
     <cellStyle name="Normal 8 2 2 3" xfId="1390" xr:uid="{00000000-0005-0000-0000-000060080000}"/>
-    <cellStyle name="Normal 8 2 3" xfId="3336" xr:uid="{00000000-0005-0000-0000-000061080000}"/>
+    <cellStyle name="Normal 8 2 3" xfId="3335" xr:uid="{00000000-0005-0000-0000-000061080000}"/>
     <cellStyle name="Normal 8 3" xfId="1391" xr:uid="{00000000-0005-0000-0000-000062080000}"/>
-    <cellStyle name="Normal 8 4" xfId="3335" xr:uid="{00000000-0005-0000-0000-000063080000}"/>
+    <cellStyle name="Normal 8 4" xfId="3334" xr:uid="{00000000-0005-0000-0000-000063080000}"/>
     <cellStyle name="Normal 9" xfId="1392" xr:uid="{00000000-0005-0000-0000-000064080000}"/>
     <cellStyle name="Normal 9 2" xfId="1393" xr:uid="{00000000-0005-0000-0000-000065080000}"/>
     <cellStyle name="Normal 9 2 2" xfId="1394" xr:uid="{00000000-0005-0000-0000-000066080000}"/>
@@ -7740,93 +7741,93 @@
     <cellStyle name="Normal GHG Numbers (0.00) 3" xfId="1397" xr:uid="{00000000-0005-0000-0000-000069080000}"/>
     <cellStyle name="Normal GHG Textfiels Bold" xfId="1398" xr:uid="{00000000-0005-0000-0000-00006A080000}"/>
     <cellStyle name="Normal GHG-Shade" xfId="1399" xr:uid="{00000000-0005-0000-0000-00006B080000}"/>
-    <cellStyle name="Normal GHG-Shade 2" xfId="3337" xr:uid="{00000000-0005-0000-0000-00006C080000}"/>
+    <cellStyle name="Normal GHG-Shade 2" xfId="3336" xr:uid="{00000000-0005-0000-0000-00006C080000}"/>
     <cellStyle name="Normale 10" xfId="1400" xr:uid="{00000000-0005-0000-0000-00006D080000}"/>
     <cellStyle name="Normale 10 2" xfId="1401" xr:uid="{00000000-0005-0000-0000-00006E080000}"/>
     <cellStyle name="Normale 10 2 2" xfId="1402" xr:uid="{00000000-0005-0000-0000-00006F080000}"/>
-    <cellStyle name="Normale 10 2 2 2" xfId="3340" xr:uid="{00000000-0005-0000-0000-000070080000}"/>
-    <cellStyle name="Normale 10 2 3" xfId="3339" xr:uid="{00000000-0005-0000-0000-000071080000}"/>
+    <cellStyle name="Normale 10 2 2 2" xfId="3339" xr:uid="{00000000-0005-0000-0000-000070080000}"/>
+    <cellStyle name="Normale 10 2 3" xfId="3338" xr:uid="{00000000-0005-0000-0000-000071080000}"/>
     <cellStyle name="Normale 10 3" xfId="1403" xr:uid="{00000000-0005-0000-0000-000072080000}"/>
     <cellStyle name="Normale 10 3 2" xfId="1404" xr:uid="{00000000-0005-0000-0000-000073080000}"/>
-    <cellStyle name="Normale 10 3 2 2" xfId="3342" xr:uid="{00000000-0005-0000-0000-000074080000}"/>
-    <cellStyle name="Normale 10 3 3" xfId="3341" xr:uid="{00000000-0005-0000-0000-000075080000}"/>
+    <cellStyle name="Normale 10 3 2 2" xfId="3341" xr:uid="{00000000-0005-0000-0000-000074080000}"/>
+    <cellStyle name="Normale 10 3 3" xfId="3340" xr:uid="{00000000-0005-0000-0000-000075080000}"/>
     <cellStyle name="Normale 10 4" xfId="1405" xr:uid="{00000000-0005-0000-0000-000076080000}"/>
-    <cellStyle name="Normale 10 4 2" xfId="3343" xr:uid="{00000000-0005-0000-0000-000077080000}"/>
-    <cellStyle name="Normale 10 5" xfId="3338" xr:uid="{00000000-0005-0000-0000-000078080000}"/>
+    <cellStyle name="Normale 10 4 2" xfId="3342" xr:uid="{00000000-0005-0000-0000-000077080000}"/>
+    <cellStyle name="Normale 10 5" xfId="3337" xr:uid="{00000000-0005-0000-0000-000078080000}"/>
     <cellStyle name="Normale 10_EDEN industria 2008 rev" xfId="1406" xr:uid="{00000000-0005-0000-0000-000079080000}"/>
     <cellStyle name="Normale 11" xfId="1407" xr:uid="{00000000-0005-0000-0000-00007A080000}"/>
     <cellStyle name="Normale 11 2" xfId="1408" xr:uid="{00000000-0005-0000-0000-00007B080000}"/>
     <cellStyle name="Normale 11 2 2" xfId="1409" xr:uid="{00000000-0005-0000-0000-00007C080000}"/>
-    <cellStyle name="Normale 11 2 2 2" xfId="3346" xr:uid="{00000000-0005-0000-0000-00007D080000}"/>
-    <cellStyle name="Normale 11 2 3" xfId="3345" xr:uid="{00000000-0005-0000-0000-00007E080000}"/>
+    <cellStyle name="Normale 11 2 2 2" xfId="3345" xr:uid="{00000000-0005-0000-0000-00007D080000}"/>
+    <cellStyle name="Normale 11 2 3" xfId="3344" xr:uid="{00000000-0005-0000-0000-00007E080000}"/>
     <cellStyle name="Normale 11 3" xfId="1410" xr:uid="{00000000-0005-0000-0000-00007F080000}"/>
     <cellStyle name="Normale 11 3 2" xfId="1411" xr:uid="{00000000-0005-0000-0000-000080080000}"/>
-    <cellStyle name="Normale 11 3 2 2" xfId="3348" xr:uid="{00000000-0005-0000-0000-000081080000}"/>
-    <cellStyle name="Normale 11 3 3" xfId="3347" xr:uid="{00000000-0005-0000-0000-000082080000}"/>
+    <cellStyle name="Normale 11 3 2 2" xfId="3347" xr:uid="{00000000-0005-0000-0000-000081080000}"/>
+    <cellStyle name="Normale 11 3 3" xfId="3346" xr:uid="{00000000-0005-0000-0000-000082080000}"/>
     <cellStyle name="Normale 11 4" xfId="1412" xr:uid="{00000000-0005-0000-0000-000083080000}"/>
-    <cellStyle name="Normale 11 4 2" xfId="3349" xr:uid="{00000000-0005-0000-0000-000084080000}"/>
-    <cellStyle name="Normale 11 5" xfId="3344" xr:uid="{00000000-0005-0000-0000-000085080000}"/>
+    <cellStyle name="Normale 11 4 2" xfId="3348" xr:uid="{00000000-0005-0000-0000-000084080000}"/>
+    <cellStyle name="Normale 11 5" xfId="3343" xr:uid="{00000000-0005-0000-0000-000085080000}"/>
     <cellStyle name="Normale 11_EDEN industria 2008 rev" xfId="1413" xr:uid="{00000000-0005-0000-0000-000086080000}"/>
     <cellStyle name="Normale 12" xfId="1414" xr:uid="{00000000-0005-0000-0000-000087080000}"/>
     <cellStyle name="Normale 12 2" xfId="1415" xr:uid="{00000000-0005-0000-0000-000088080000}"/>
     <cellStyle name="Normale 12 2 2" xfId="1416" xr:uid="{00000000-0005-0000-0000-000089080000}"/>
-    <cellStyle name="Normale 12 2 2 2" xfId="3352" xr:uid="{00000000-0005-0000-0000-00008A080000}"/>
-    <cellStyle name="Normale 12 2 3" xfId="3351" xr:uid="{00000000-0005-0000-0000-00008B080000}"/>
+    <cellStyle name="Normale 12 2 2 2" xfId="3351" xr:uid="{00000000-0005-0000-0000-00008A080000}"/>
+    <cellStyle name="Normale 12 2 3" xfId="3350" xr:uid="{00000000-0005-0000-0000-00008B080000}"/>
     <cellStyle name="Normale 12 3" xfId="1417" xr:uid="{00000000-0005-0000-0000-00008C080000}"/>
     <cellStyle name="Normale 12 3 2" xfId="1418" xr:uid="{00000000-0005-0000-0000-00008D080000}"/>
-    <cellStyle name="Normale 12 3 2 2" xfId="3354" xr:uid="{00000000-0005-0000-0000-00008E080000}"/>
-    <cellStyle name="Normale 12 3 3" xfId="3353" xr:uid="{00000000-0005-0000-0000-00008F080000}"/>
+    <cellStyle name="Normale 12 3 2 2" xfId="3353" xr:uid="{00000000-0005-0000-0000-00008E080000}"/>
+    <cellStyle name="Normale 12 3 3" xfId="3352" xr:uid="{00000000-0005-0000-0000-00008F080000}"/>
     <cellStyle name="Normale 12 4" xfId="1419" xr:uid="{00000000-0005-0000-0000-000090080000}"/>
-    <cellStyle name="Normale 12 4 2" xfId="3355" xr:uid="{00000000-0005-0000-0000-000091080000}"/>
-    <cellStyle name="Normale 12 5" xfId="3350" xr:uid="{00000000-0005-0000-0000-000092080000}"/>
+    <cellStyle name="Normale 12 4 2" xfId="3354" xr:uid="{00000000-0005-0000-0000-000091080000}"/>
+    <cellStyle name="Normale 12 5" xfId="3349" xr:uid="{00000000-0005-0000-0000-000092080000}"/>
     <cellStyle name="Normale 12_EDEN industria 2008 rev" xfId="1420" xr:uid="{00000000-0005-0000-0000-000093080000}"/>
     <cellStyle name="Normale 13" xfId="1421" xr:uid="{00000000-0005-0000-0000-000094080000}"/>
     <cellStyle name="Normale 13 2" xfId="1422" xr:uid="{00000000-0005-0000-0000-000095080000}"/>
     <cellStyle name="Normale 13 2 2" xfId="1423" xr:uid="{00000000-0005-0000-0000-000096080000}"/>
-    <cellStyle name="Normale 13 2 2 2" xfId="3358" xr:uid="{00000000-0005-0000-0000-000097080000}"/>
-    <cellStyle name="Normale 13 2 3" xfId="3357" xr:uid="{00000000-0005-0000-0000-000098080000}"/>
+    <cellStyle name="Normale 13 2 2 2" xfId="3357" xr:uid="{00000000-0005-0000-0000-000097080000}"/>
+    <cellStyle name="Normale 13 2 3" xfId="3356" xr:uid="{00000000-0005-0000-0000-000098080000}"/>
     <cellStyle name="Normale 13 3" xfId="1424" xr:uid="{00000000-0005-0000-0000-000099080000}"/>
     <cellStyle name="Normale 13 3 2" xfId="1425" xr:uid="{00000000-0005-0000-0000-00009A080000}"/>
-    <cellStyle name="Normale 13 3 2 2" xfId="3360" xr:uid="{00000000-0005-0000-0000-00009B080000}"/>
-    <cellStyle name="Normale 13 3 3" xfId="3359" xr:uid="{00000000-0005-0000-0000-00009C080000}"/>
+    <cellStyle name="Normale 13 3 2 2" xfId="3359" xr:uid="{00000000-0005-0000-0000-00009B080000}"/>
+    <cellStyle name="Normale 13 3 3" xfId="3358" xr:uid="{00000000-0005-0000-0000-00009C080000}"/>
     <cellStyle name="Normale 13 4" xfId="1426" xr:uid="{00000000-0005-0000-0000-00009D080000}"/>
-    <cellStyle name="Normale 13 4 2" xfId="3361" xr:uid="{00000000-0005-0000-0000-00009E080000}"/>
-    <cellStyle name="Normale 13 5" xfId="3356" xr:uid="{00000000-0005-0000-0000-00009F080000}"/>
+    <cellStyle name="Normale 13 4 2" xfId="3360" xr:uid="{00000000-0005-0000-0000-00009E080000}"/>
+    <cellStyle name="Normale 13 5" xfId="3355" xr:uid="{00000000-0005-0000-0000-00009F080000}"/>
     <cellStyle name="Normale 13_EDEN industria 2008 rev" xfId="1427" xr:uid="{00000000-0005-0000-0000-0000A0080000}"/>
     <cellStyle name="Normale 14" xfId="1428" xr:uid="{00000000-0005-0000-0000-0000A1080000}"/>
     <cellStyle name="Normale 14 2" xfId="1429" xr:uid="{00000000-0005-0000-0000-0000A2080000}"/>
     <cellStyle name="Normale 14 2 2" xfId="1430" xr:uid="{00000000-0005-0000-0000-0000A3080000}"/>
-    <cellStyle name="Normale 14 2 2 2" xfId="3364" xr:uid="{00000000-0005-0000-0000-0000A4080000}"/>
-    <cellStyle name="Normale 14 2 3" xfId="3363" xr:uid="{00000000-0005-0000-0000-0000A5080000}"/>
+    <cellStyle name="Normale 14 2 2 2" xfId="3363" xr:uid="{00000000-0005-0000-0000-0000A4080000}"/>
+    <cellStyle name="Normale 14 2 3" xfId="3362" xr:uid="{00000000-0005-0000-0000-0000A5080000}"/>
     <cellStyle name="Normale 14 3" xfId="1431" xr:uid="{00000000-0005-0000-0000-0000A6080000}"/>
     <cellStyle name="Normale 14 3 2" xfId="1432" xr:uid="{00000000-0005-0000-0000-0000A7080000}"/>
-    <cellStyle name="Normale 14 3 2 2" xfId="3366" xr:uid="{00000000-0005-0000-0000-0000A8080000}"/>
-    <cellStyle name="Normale 14 3 3" xfId="3365" xr:uid="{00000000-0005-0000-0000-0000A9080000}"/>
+    <cellStyle name="Normale 14 3 2 2" xfId="3365" xr:uid="{00000000-0005-0000-0000-0000A8080000}"/>
+    <cellStyle name="Normale 14 3 3" xfId="3364" xr:uid="{00000000-0005-0000-0000-0000A9080000}"/>
     <cellStyle name="Normale 14 4" xfId="1433" xr:uid="{00000000-0005-0000-0000-0000AA080000}"/>
-    <cellStyle name="Normale 14 4 2" xfId="3367" xr:uid="{00000000-0005-0000-0000-0000AB080000}"/>
-    <cellStyle name="Normale 14 5" xfId="3362" xr:uid="{00000000-0005-0000-0000-0000AC080000}"/>
+    <cellStyle name="Normale 14 4 2" xfId="3366" xr:uid="{00000000-0005-0000-0000-0000AB080000}"/>
+    <cellStyle name="Normale 14 5" xfId="3361" xr:uid="{00000000-0005-0000-0000-0000AC080000}"/>
     <cellStyle name="Normale 14_EDEN industria 2008 rev" xfId="1434" xr:uid="{00000000-0005-0000-0000-0000AD080000}"/>
     <cellStyle name="Normale 15" xfId="1435" xr:uid="{00000000-0005-0000-0000-0000AE080000}"/>
     <cellStyle name="Normale 15 2" xfId="1436" xr:uid="{00000000-0005-0000-0000-0000AF080000}"/>
     <cellStyle name="Normale 15 2 2" xfId="1437" xr:uid="{00000000-0005-0000-0000-0000B0080000}"/>
-    <cellStyle name="Normale 15 2 2 2" xfId="3370" xr:uid="{00000000-0005-0000-0000-0000B1080000}"/>
-    <cellStyle name="Normale 15 2 3" xfId="3369" xr:uid="{00000000-0005-0000-0000-0000B2080000}"/>
+    <cellStyle name="Normale 15 2 2 2" xfId="3369" xr:uid="{00000000-0005-0000-0000-0000B1080000}"/>
+    <cellStyle name="Normale 15 2 3" xfId="3368" xr:uid="{00000000-0005-0000-0000-0000B2080000}"/>
     <cellStyle name="Normale 15 3" xfId="1438" xr:uid="{00000000-0005-0000-0000-0000B3080000}"/>
     <cellStyle name="Normale 15 3 2" xfId="1439" xr:uid="{00000000-0005-0000-0000-0000B4080000}"/>
-    <cellStyle name="Normale 15 3 2 2" xfId="3372" xr:uid="{00000000-0005-0000-0000-0000B5080000}"/>
-    <cellStyle name="Normale 15 3 3" xfId="3371" xr:uid="{00000000-0005-0000-0000-0000B6080000}"/>
+    <cellStyle name="Normale 15 3 2 2" xfId="3371" xr:uid="{00000000-0005-0000-0000-0000B5080000}"/>
+    <cellStyle name="Normale 15 3 3" xfId="3370" xr:uid="{00000000-0005-0000-0000-0000B6080000}"/>
     <cellStyle name="Normale 15 4" xfId="1440" xr:uid="{00000000-0005-0000-0000-0000B7080000}"/>
-    <cellStyle name="Normale 15 4 2" xfId="3373" xr:uid="{00000000-0005-0000-0000-0000B8080000}"/>
-    <cellStyle name="Normale 15 5" xfId="3368" xr:uid="{00000000-0005-0000-0000-0000B9080000}"/>
+    <cellStyle name="Normale 15 4 2" xfId="3372" xr:uid="{00000000-0005-0000-0000-0000B8080000}"/>
+    <cellStyle name="Normale 15 5" xfId="3367" xr:uid="{00000000-0005-0000-0000-0000B9080000}"/>
     <cellStyle name="Normale 15_EDEN industria 2008 rev" xfId="1441" xr:uid="{00000000-0005-0000-0000-0000BA080000}"/>
     <cellStyle name="Normale 16" xfId="1442" xr:uid="{00000000-0005-0000-0000-0000BB080000}"/>
     <cellStyle name="Normale 16 2" xfId="1443" xr:uid="{00000000-0005-0000-0000-0000BC080000}"/>
-    <cellStyle name="Normale 16 2 2" xfId="3375" xr:uid="{00000000-0005-0000-0000-0000BD080000}"/>
-    <cellStyle name="Normale 16 3" xfId="3374" xr:uid="{00000000-0005-0000-0000-0000BE080000}"/>
+    <cellStyle name="Normale 16 2 2" xfId="3374" xr:uid="{00000000-0005-0000-0000-0000BD080000}"/>
+    <cellStyle name="Normale 16 3" xfId="3373" xr:uid="{00000000-0005-0000-0000-0000BE080000}"/>
     <cellStyle name="Normale 17" xfId="1444" xr:uid="{00000000-0005-0000-0000-0000BF080000}"/>
     <cellStyle name="Normale 17 2" xfId="1445" xr:uid="{00000000-0005-0000-0000-0000C0080000}"/>
-    <cellStyle name="Normale 17 2 2" xfId="3377" xr:uid="{00000000-0005-0000-0000-0000C1080000}"/>
-    <cellStyle name="Normale 17 3" xfId="3376" xr:uid="{00000000-0005-0000-0000-0000C2080000}"/>
+    <cellStyle name="Normale 17 2 2" xfId="3376" xr:uid="{00000000-0005-0000-0000-0000C1080000}"/>
+    <cellStyle name="Normale 17 3" xfId="3375" xr:uid="{00000000-0005-0000-0000-0000C2080000}"/>
     <cellStyle name="Normale 18" xfId="1446" xr:uid="{00000000-0005-0000-0000-0000C3080000}"/>
     <cellStyle name="Normale 18 2" xfId="1447" xr:uid="{00000000-0005-0000-0000-0000C4080000}"/>
     <cellStyle name="Normale 19" xfId="1448" xr:uid="{00000000-0005-0000-0000-0000C5080000}"/>
@@ -7834,316 +7835,316 @@
     <cellStyle name="Normale 2" xfId="1450" xr:uid="{00000000-0005-0000-0000-0000C7080000}"/>
     <cellStyle name="Normale 2 2" xfId="1451" xr:uid="{00000000-0005-0000-0000-0000C8080000}"/>
     <cellStyle name="Normale 2 2 2" xfId="1452" xr:uid="{00000000-0005-0000-0000-0000C9080000}"/>
-    <cellStyle name="Normale 2 2 2 2" xfId="3380" xr:uid="{00000000-0005-0000-0000-0000CA080000}"/>
-    <cellStyle name="Normale 2 2 3" xfId="3379" xr:uid="{00000000-0005-0000-0000-0000CB080000}"/>
+    <cellStyle name="Normale 2 2 2 2" xfId="3379" xr:uid="{00000000-0005-0000-0000-0000CA080000}"/>
+    <cellStyle name="Normale 2 2 3" xfId="3378" xr:uid="{00000000-0005-0000-0000-0000CB080000}"/>
     <cellStyle name="Normale 2 3" xfId="1453" xr:uid="{00000000-0005-0000-0000-0000CC080000}"/>
-    <cellStyle name="Normale 2 3 2" xfId="3381" xr:uid="{00000000-0005-0000-0000-0000CD080000}"/>
-    <cellStyle name="Normale 2 4" xfId="3378" xr:uid="{00000000-0005-0000-0000-0000CE080000}"/>
+    <cellStyle name="Normale 2 3 2" xfId="3380" xr:uid="{00000000-0005-0000-0000-0000CD080000}"/>
+    <cellStyle name="Normale 2 4" xfId="3377" xr:uid="{00000000-0005-0000-0000-0000CE080000}"/>
     <cellStyle name="Normale 2_EDEN industria 2008 rev" xfId="1454" xr:uid="{00000000-0005-0000-0000-0000CF080000}"/>
     <cellStyle name="Normale 20" xfId="1455" xr:uid="{00000000-0005-0000-0000-0000D0080000}"/>
     <cellStyle name="Normale 20 2" xfId="1456" xr:uid="{00000000-0005-0000-0000-0000D1080000}"/>
-    <cellStyle name="Normale 20 2 2" xfId="3383" xr:uid="{00000000-0005-0000-0000-0000D2080000}"/>
-    <cellStyle name="Normale 20 3" xfId="3382" xr:uid="{00000000-0005-0000-0000-0000D3080000}"/>
+    <cellStyle name="Normale 20 2 2" xfId="3382" xr:uid="{00000000-0005-0000-0000-0000D2080000}"/>
+    <cellStyle name="Normale 20 3" xfId="3381" xr:uid="{00000000-0005-0000-0000-0000D3080000}"/>
     <cellStyle name="Normale 21" xfId="1457" xr:uid="{00000000-0005-0000-0000-0000D4080000}"/>
     <cellStyle name="Normale 21 2" xfId="1458" xr:uid="{00000000-0005-0000-0000-0000D5080000}"/>
-    <cellStyle name="Normale 21 2 2" xfId="3385" xr:uid="{00000000-0005-0000-0000-0000D6080000}"/>
-    <cellStyle name="Normale 21 3" xfId="3384" xr:uid="{00000000-0005-0000-0000-0000D7080000}"/>
+    <cellStyle name="Normale 21 2 2" xfId="3384" xr:uid="{00000000-0005-0000-0000-0000D6080000}"/>
+    <cellStyle name="Normale 21 3" xfId="3383" xr:uid="{00000000-0005-0000-0000-0000D7080000}"/>
     <cellStyle name="Normale 22" xfId="1459" xr:uid="{00000000-0005-0000-0000-0000D8080000}"/>
     <cellStyle name="Normale 22 2" xfId="1460" xr:uid="{00000000-0005-0000-0000-0000D9080000}"/>
-    <cellStyle name="Normale 22 2 2" xfId="3387" xr:uid="{00000000-0005-0000-0000-0000DA080000}"/>
-    <cellStyle name="Normale 22 3" xfId="3386" xr:uid="{00000000-0005-0000-0000-0000DB080000}"/>
+    <cellStyle name="Normale 22 2 2" xfId="3386" xr:uid="{00000000-0005-0000-0000-0000DA080000}"/>
+    <cellStyle name="Normale 22 3" xfId="3385" xr:uid="{00000000-0005-0000-0000-0000DB080000}"/>
     <cellStyle name="Normale 23" xfId="1461" xr:uid="{00000000-0005-0000-0000-0000DC080000}"/>
     <cellStyle name="Normale 23 2" xfId="1462" xr:uid="{00000000-0005-0000-0000-0000DD080000}"/>
-    <cellStyle name="Normale 23 2 2" xfId="3389" xr:uid="{00000000-0005-0000-0000-0000DE080000}"/>
-    <cellStyle name="Normale 23 3" xfId="3388" xr:uid="{00000000-0005-0000-0000-0000DF080000}"/>
+    <cellStyle name="Normale 23 2 2" xfId="3388" xr:uid="{00000000-0005-0000-0000-0000DE080000}"/>
+    <cellStyle name="Normale 23 3" xfId="3387" xr:uid="{00000000-0005-0000-0000-0000DF080000}"/>
     <cellStyle name="Normale 24" xfId="1463" xr:uid="{00000000-0005-0000-0000-0000E0080000}"/>
     <cellStyle name="Normale 24 2" xfId="1464" xr:uid="{00000000-0005-0000-0000-0000E1080000}"/>
-    <cellStyle name="Normale 24 2 2" xfId="3391" xr:uid="{00000000-0005-0000-0000-0000E2080000}"/>
-    <cellStyle name="Normale 24 3" xfId="3390" xr:uid="{00000000-0005-0000-0000-0000E3080000}"/>
+    <cellStyle name="Normale 24 2 2" xfId="3390" xr:uid="{00000000-0005-0000-0000-0000E2080000}"/>
+    <cellStyle name="Normale 24 3" xfId="3389" xr:uid="{00000000-0005-0000-0000-0000E3080000}"/>
     <cellStyle name="Normale 25" xfId="1465" xr:uid="{00000000-0005-0000-0000-0000E4080000}"/>
     <cellStyle name="Normale 25 2" xfId="1466" xr:uid="{00000000-0005-0000-0000-0000E5080000}"/>
-    <cellStyle name="Normale 25 2 2" xfId="3393" xr:uid="{00000000-0005-0000-0000-0000E6080000}"/>
-    <cellStyle name="Normale 25 3" xfId="3392" xr:uid="{00000000-0005-0000-0000-0000E7080000}"/>
+    <cellStyle name="Normale 25 2 2" xfId="3392" xr:uid="{00000000-0005-0000-0000-0000E6080000}"/>
+    <cellStyle name="Normale 25 3" xfId="3391" xr:uid="{00000000-0005-0000-0000-0000E7080000}"/>
     <cellStyle name="Normale 26" xfId="1467" xr:uid="{00000000-0005-0000-0000-0000E8080000}"/>
     <cellStyle name="Normale 26 2" xfId="1468" xr:uid="{00000000-0005-0000-0000-0000E9080000}"/>
-    <cellStyle name="Normale 26 2 2" xfId="3395" xr:uid="{00000000-0005-0000-0000-0000EA080000}"/>
-    <cellStyle name="Normale 26 3" xfId="3394" xr:uid="{00000000-0005-0000-0000-0000EB080000}"/>
+    <cellStyle name="Normale 26 2 2" xfId="3394" xr:uid="{00000000-0005-0000-0000-0000EA080000}"/>
+    <cellStyle name="Normale 26 3" xfId="3393" xr:uid="{00000000-0005-0000-0000-0000EB080000}"/>
     <cellStyle name="Normale 27" xfId="1469" xr:uid="{00000000-0005-0000-0000-0000EC080000}"/>
     <cellStyle name="Normale 27 2" xfId="1470" xr:uid="{00000000-0005-0000-0000-0000ED080000}"/>
-    <cellStyle name="Normale 27 2 2" xfId="3397" xr:uid="{00000000-0005-0000-0000-0000EE080000}"/>
-    <cellStyle name="Normale 27 3" xfId="3396" xr:uid="{00000000-0005-0000-0000-0000EF080000}"/>
+    <cellStyle name="Normale 27 2 2" xfId="3396" xr:uid="{00000000-0005-0000-0000-0000EE080000}"/>
+    <cellStyle name="Normale 27 3" xfId="3395" xr:uid="{00000000-0005-0000-0000-0000EF080000}"/>
     <cellStyle name="Normale 28" xfId="1471" xr:uid="{00000000-0005-0000-0000-0000F0080000}"/>
     <cellStyle name="Normale 28 2" xfId="1472" xr:uid="{00000000-0005-0000-0000-0000F1080000}"/>
-    <cellStyle name="Normale 28 2 2" xfId="3399" xr:uid="{00000000-0005-0000-0000-0000F2080000}"/>
-    <cellStyle name="Normale 28 3" xfId="3398" xr:uid="{00000000-0005-0000-0000-0000F3080000}"/>
+    <cellStyle name="Normale 28 2 2" xfId="3398" xr:uid="{00000000-0005-0000-0000-0000F2080000}"/>
+    <cellStyle name="Normale 28 3" xfId="3397" xr:uid="{00000000-0005-0000-0000-0000F3080000}"/>
     <cellStyle name="Normale 29" xfId="1473" xr:uid="{00000000-0005-0000-0000-0000F4080000}"/>
     <cellStyle name="Normale 29 2" xfId="1474" xr:uid="{00000000-0005-0000-0000-0000F5080000}"/>
-    <cellStyle name="Normale 29 2 2" xfId="3401" xr:uid="{00000000-0005-0000-0000-0000F6080000}"/>
-    <cellStyle name="Normale 29 3" xfId="3400" xr:uid="{00000000-0005-0000-0000-0000F7080000}"/>
+    <cellStyle name="Normale 29 2 2" xfId="3400" xr:uid="{00000000-0005-0000-0000-0000F6080000}"/>
+    <cellStyle name="Normale 29 3" xfId="3399" xr:uid="{00000000-0005-0000-0000-0000F7080000}"/>
     <cellStyle name="Normale 3" xfId="1475" xr:uid="{00000000-0005-0000-0000-0000F8080000}"/>
     <cellStyle name="Normale 3 2" xfId="1476" xr:uid="{00000000-0005-0000-0000-0000F9080000}"/>
     <cellStyle name="Normale 3 2 2" xfId="1477" xr:uid="{00000000-0005-0000-0000-0000FA080000}"/>
-    <cellStyle name="Normale 3 2 2 2" xfId="3404" xr:uid="{00000000-0005-0000-0000-0000FB080000}"/>
-    <cellStyle name="Normale 3 2 3" xfId="3403" xr:uid="{00000000-0005-0000-0000-0000FC080000}"/>
+    <cellStyle name="Normale 3 2 2 2" xfId="3403" xr:uid="{00000000-0005-0000-0000-0000FB080000}"/>
+    <cellStyle name="Normale 3 2 3" xfId="3402" xr:uid="{00000000-0005-0000-0000-0000FC080000}"/>
     <cellStyle name="Normale 3 3" xfId="1478" xr:uid="{00000000-0005-0000-0000-0000FD080000}"/>
     <cellStyle name="Normale 3 3 2" xfId="1479" xr:uid="{00000000-0005-0000-0000-0000FE080000}"/>
-    <cellStyle name="Normale 3 3 2 2" xfId="3406" xr:uid="{00000000-0005-0000-0000-0000FF080000}"/>
-    <cellStyle name="Normale 3 3 3" xfId="3405" xr:uid="{00000000-0005-0000-0000-000000090000}"/>
+    <cellStyle name="Normale 3 3 2 2" xfId="3405" xr:uid="{00000000-0005-0000-0000-0000FF080000}"/>
+    <cellStyle name="Normale 3 3 3" xfId="3404" xr:uid="{00000000-0005-0000-0000-000000090000}"/>
     <cellStyle name="Normale 3 4" xfId="1480" xr:uid="{00000000-0005-0000-0000-000001090000}"/>
-    <cellStyle name="Normale 3 4 2" xfId="3407" xr:uid="{00000000-0005-0000-0000-000002090000}"/>
-    <cellStyle name="Normale 3 5" xfId="3402" xr:uid="{00000000-0005-0000-0000-000003090000}"/>
+    <cellStyle name="Normale 3 4 2" xfId="3406" xr:uid="{00000000-0005-0000-0000-000002090000}"/>
+    <cellStyle name="Normale 3 5" xfId="3401" xr:uid="{00000000-0005-0000-0000-000003090000}"/>
     <cellStyle name="Normale 3_EDEN industria 2008 rev" xfId="1481" xr:uid="{00000000-0005-0000-0000-000004090000}"/>
     <cellStyle name="Normale 30" xfId="1482" xr:uid="{00000000-0005-0000-0000-000005090000}"/>
     <cellStyle name="Normale 30 2" xfId="1483" xr:uid="{00000000-0005-0000-0000-000006090000}"/>
-    <cellStyle name="Normale 30 2 2" xfId="3409" xr:uid="{00000000-0005-0000-0000-000007090000}"/>
-    <cellStyle name="Normale 30 3" xfId="3408" xr:uid="{00000000-0005-0000-0000-000008090000}"/>
+    <cellStyle name="Normale 30 2 2" xfId="3408" xr:uid="{00000000-0005-0000-0000-000007090000}"/>
+    <cellStyle name="Normale 30 3" xfId="3407" xr:uid="{00000000-0005-0000-0000-000008090000}"/>
     <cellStyle name="Normale 31" xfId="1484" xr:uid="{00000000-0005-0000-0000-000009090000}"/>
     <cellStyle name="Normale 31 2" xfId="1485" xr:uid="{00000000-0005-0000-0000-00000A090000}"/>
-    <cellStyle name="Normale 31 2 2" xfId="3411" xr:uid="{00000000-0005-0000-0000-00000B090000}"/>
-    <cellStyle name="Normale 31 3" xfId="3410" xr:uid="{00000000-0005-0000-0000-00000C090000}"/>
+    <cellStyle name="Normale 31 2 2" xfId="3410" xr:uid="{00000000-0005-0000-0000-00000B090000}"/>
+    <cellStyle name="Normale 31 3" xfId="3409" xr:uid="{00000000-0005-0000-0000-00000C090000}"/>
     <cellStyle name="Normale 32" xfId="1486" xr:uid="{00000000-0005-0000-0000-00000D090000}"/>
     <cellStyle name="Normale 32 2" xfId="1487" xr:uid="{00000000-0005-0000-0000-00000E090000}"/>
-    <cellStyle name="Normale 32 2 2" xfId="3413" xr:uid="{00000000-0005-0000-0000-00000F090000}"/>
-    <cellStyle name="Normale 32 3" xfId="3412" xr:uid="{00000000-0005-0000-0000-000010090000}"/>
+    <cellStyle name="Normale 32 2 2" xfId="3412" xr:uid="{00000000-0005-0000-0000-00000F090000}"/>
+    <cellStyle name="Normale 32 3" xfId="3411" xr:uid="{00000000-0005-0000-0000-000010090000}"/>
     <cellStyle name="Normale 33" xfId="1488" xr:uid="{00000000-0005-0000-0000-000011090000}"/>
     <cellStyle name="Normale 33 2" xfId="1489" xr:uid="{00000000-0005-0000-0000-000012090000}"/>
-    <cellStyle name="Normale 33 2 2" xfId="3415" xr:uid="{00000000-0005-0000-0000-000013090000}"/>
-    <cellStyle name="Normale 33 3" xfId="3414" xr:uid="{00000000-0005-0000-0000-000014090000}"/>
+    <cellStyle name="Normale 33 2 2" xfId="3414" xr:uid="{00000000-0005-0000-0000-000013090000}"/>
+    <cellStyle name="Normale 33 3" xfId="3413" xr:uid="{00000000-0005-0000-0000-000014090000}"/>
     <cellStyle name="Normale 34" xfId="1490" xr:uid="{00000000-0005-0000-0000-000015090000}"/>
     <cellStyle name="Normale 34 2" xfId="1491" xr:uid="{00000000-0005-0000-0000-000016090000}"/>
-    <cellStyle name="Normale 34 2 2" xfId="3417" xr:uid="{00000000-0005-0000-0000-000017090000}"/>
-    <cellStyle name="Normale 34 3" xfId="3416" xr:uid="{00000000-0005-0000-0000-000018090000}"/>
+    <cellStyle name="Normale 34 2 2" xfId="3416" xr:uid="{00000000-0005-0000-0000-000017090000}"/>
+    <cellStyle name="Normale 34 3" xfId="3415" xr:uid="{00000000-0005-0000-0000-000018090000}"/>
     <cellStyle name="Normale 35" xfId="1492" xr:uid="{00000000-0005-0000-0000-000019090000}"/>
     <cellStyle name="Normale 35 2" xfId="1493" xr:uid="{00000000-0005-0000-0000-00001A090000}"/>
-    <cellStyle name="Normale 35 2 2" xfId="3419" xr:uid="{00000000-0005-0000-0000-00001B090000}"/>
-    <cellStyle name="Normale 35 3" xfId="3418" xr:uid="{00000000-0005-0000-0000-00001C090000}"/>
+    <cellStyle name="Normale 35 2 2" xfId="3418" xr:uid="{00000000-0005-0000-0000-00001B090000}"/>
+    <cellStyle name="Normale 35 3" xfId="3417" xr:uid="{00000000-0005-0000-0000-00001C090000}"/>
     <cellStyle name="Normale 36" xfId="1494" xr:uid="{00000000-0005-0000-0000-00001D090000}"/>
     <cellStyle name="Normale 36 2" xfId="1495" xr:uid="{00000000-0005-0000-0000-00001E090000}"/>
-    <cellStyle name="Normale 36 2 2" xfId="3421" xr:uid="{00000000-0005-0000-0000-00001F090000}"/>
-    <cellStyle name="Normale 36 3" xfId="3420" xr:uid="{00000000-0005-0000-0000-000020090000}"/>
+    <cellStyle name="Normale 36 2 2" xfId="3420" xr:uid="{00000000-0005-0000-0000-00001F090000}"/>
+    <cellStyle name="Normale 36 3" xfId="3419" xr:uid="{00000000-0005-0000-0000-000020090000}"/>
     <cellStyle name="Normale 37" xfId="1496" xr:uid="{00000000-0005-0000-0000-000021090000}"/>
     <cellStyle name="Normale 37 2" xfId="1497" xr:uid="{00000000-0005-0000-0000-000022090000}"/>
-    <cellStyle name="Normale 37 2 2" xfId="3423" xr:uid="{00000000-0005-0000-0000-000023090000}"/>
-    <cellStyle name="Normale 37 3" xfId="3422" xr:uid="{00000000-0005-0000-0000-000024090000}"/>
+    <cellStyle name="Normale 37 2 2" xfId="3422" xr:uid="{00000000-0005-0000-0000-000023090000}"/>
+    <cellStyle name="Normale 37 3" xfId="3421" xr:uid="{00000000-0005-0000-0000-000024090000}"/>
     <cellStyle name="Normale 38" xfId="1498" xr:uid="{00000000-0005-0000-0000-000025090000}"/>
     <cellStyle name="Normale 38 2" xfId="1499" xr:uid="{00000000-0005-0000-0000-000026090000}"/>
-    <cellStyle name="Normale 38 2 2" xfId="3425" xr:uid="{00000000-0005-0000-0000-000027090000}"/>
-    <cellStyle name="Normale 38 3" xfId="3424" xr:uid="{00000000-0005-0000-0000-000028090000}"/>
+    <cellStyle name="Normale 38 2 2" xfId="3424" xr:uid="{00000000-0005-0000-0000-000027090000}"/>
+    <cellStyle name="Normale 38 3" xfId="3423" xr:uid="{00000000-0005-0000-0000-000028090000}"/>
     <cellStyle name="Normale 39" xfId="1500" xr:uid="{00000000-0005-0000-0000-000029090000}"/>
     <cellStyle name="Normale 39 2" xfId="1501" xr:uid="{00000000-0005-0000-0000-00002A090000}"/>
-    <cellStyle name="Normale 39 2 2" xfId="3427" xr:uid="{00000000-0005-0000-0000-00002B090000}"/>
-    <cellStyle name="Normale 39 3" xfId="3426" xr:uid="{00000000-0005-0000-0000-00002C090000}"/>
+    <cellStyle name="Normale 39 2 2" xfId="3426" xr:uid="{00000000-0005-0000-0000-00002B090000}"/>
+    <cellStyle name="Normale 39 3" xfId="3425" xr:uid="{00000000-0005-0000-0000-00002C090000}"/>
     <cellStyle name="Normale 4" xfId="1502" xr:uid="{00000000-0005-0000-0000-00002D090000}"/>
     <cellStyle name="Normale 4 2" xfId="1503" xr:uid="{00000000-0005-0000-0000-00002E090000}"/>
     <cellStyle name="Normale 4 2 2" xfId="1504" xr:uid="{00000000-0005-0000-0000-00002F090000}"/>
-    <cellStyle name="Normale 4 2 2 2" xfId="3430" xr:uid="{00000000-0005-0000-0000-000030090000}"/>
-    <cellStyle name="Normale 4 2 3" xfId="3429" xr:uid="{00000000-0005-0000-0000-000031090000}"/>
+    <cellStyle name="Normale 4 2 2 2" xfId="3429" xr:uid="{00000000-0005-0000-0000-000030090000}"/>
+    <cellStyle name="Normale 4 2 3" xfId="3428" xr:uid="{00000000-0005-0000-0000-000031090000}"/>
     <cellStyle name="Normale 4 3" xfId="1505" xr:uid="{00000000-0005-0000-0000-000032090000}"/>
     <cellStyle name="Normale 4 3 2" xfId="1506" xr:uid="{00000000-0005-0000-0000-000033090000}"/>
-    <cellStyle name="Normale 4 3 2 2" xfId="3432" xr:uid="{00000000-0005-0000-0000-000034090000}"/>
-    <cellStyle name="Normale 4 3 3" xfId="3431" xr:uid="{00000000-0005-0000-0000-000035090000}"/>
+    <cellStyle name="Normale 4 3 2 2" xfId="3431" xr:uid="{00000000-0005-0000-0000-000034090000}"/>
+    <cellStyle name="Normale 4 3 3" xfId="3430" xr:uid="{00000000-0005-0000-0000-000035090000}"/>
     <cellStyle name="Normale 4 4" xfId="1507" xr:uid="{00000000-0005-0000-0000-000036090000}"/>
-    <cellStyle name="Normale 4 4 2" xfId="3433" xr:uid="{00000000-0005-0000-0000-000037090000}"/>
-    <cellStyle name="Normale 4 5" xfId="3428" xr:uid="{00000000-0005-0000-0000-000038090000}"/>
+    <cellStyle name="Normale 4 4 2" xfId="3432" xr:uid="{00000000-0005-0000-0000-000037090000}"/>
+    <cellStyle name="Normale 4 5" xfId="3427" xr:uid="{00000000-0005-0000-0000-000038090000}"/>
     <cellStyle name="Normale 4_EDEN industria 2008 rev" xfId="1508" xr:uid="{00000000-0005-0000-0000-000039090000}"/>
     <cellStyle name="Normale 40" xfId="1509" xr:uid="{00000000-0005-0000-0000-00003A090000}"/>
     <cellStyle name="Normale 40 2" xfId="1510" xr:uid="{00000000-0005-0000-0000-00003B090000}"/>
-    <cellStyle name="Normale 40 2 2" xfId="3435" xr:uid="{00000000-0005-0000-0000-00003C090000}"/>
-    <cellStyle name="Normale 40 3" xfId="3434" xr:uid="{00000000-0005-0000-0000-00003D090000}"/>
+    <cellStyle name="Normale 40 2 2" xfId="3434" xr:uid="{00000000-0005-0000-0000-00003C090000}"/>
+    <cellStyle name="Normale 40 3" xfId="3433" xr:uid="{00000000-0005-0000-0000-00003D090000}"/>
     <cellStyle name="Normale 41" xfId="1511" xr:uid="{00000000-0005-0000-0000-00003E090000}"/>
     <cellStyle name="Normale 41 2" xfId="1512" xr:uid="{00000000-0005-0000-0000-00003F090000}"/>
-    <cellStyle name="Normale 41 2 2" xfId="3437" xr:uid="{00000000-0005-0000-0000-000040090000}"/>
-    <cellStyle name="Normale 41 3" xfId="3436" xr:uid="{00000000-0005-0000-0000-000041090000}"/>
+    <cellStyle name="Normale 41 2 2" xfId="3436" xr:uid="{00000000-0005-0000-0000-000040090000}"/>
+    <cellStyle name="Normale 41 3" xfId="3435" xr:uid="{00000000-0005-0000-0000-000041090000}"/>
     <cellStyle name="Normale 42" xfId="1513" xr:uid="{00000000-0005-0000-0000-000042090000}"/>
     <cellStyle name="Normale 42 2" xfId="1514" xr:uid="{00000000-0005-0000-0000-000043090000}"/>
-    <cellStyle name="Normale 42 2 2" xfId="3439" xr:uid="{00000000-0005-0000-0000-000044090000}"/>
-    <cellStyle name="Normale 42 3" xfId="3438" xr:uid="{00000000-0005-0000-0000-000045090000}"/>
+    <cellStyle name="Normale 42 2 2" xfId="3438" xr:uid="{00000000-0005-0000-0000-000044090000}"/>
+    <cellStyle name="Normale 42 3" xfId="3437" xr:uid="{00000000-0005-0000-0000-000045090000}"/>
     <cellStyle name="Normale 43" xfId="1515" xr:uid="{00000000-0005-0000-0000-000046090000}"/>
     <cellStyle name="Normale 43 2" xfId="1516" xr:uid="{00000000-0005-0000-0000-000047090000}"/>
-    <cellStyle name="Normale 43 2 2" xfId="3441" xr:uid="{00000000-0005-0000-0000-000048090000}"/>
-    <cellStyle name="Normale 43 3" xfId="3440" xr:uid="{00000000-0005-0000-0000-000049090000}"/>
+    <cellStyle name="Normale 43 2 2" xfId="3440" xr:uid="{00000000-0005-0000-0000-000048090000}"/>
+    <cellStyle name="Normale 43 3" xfId="3439" xr:uid="{00000000-0005-0000-0000-000049090000}"/>
     <cellStyle name="Normale 44" xfId="1517" xr:uid="{00000000-0005-0000-0000-00004A090000}"/>
     <cellStyle name="Normale 44 2" xfId="1518" xr:uid="{00000000-0005-0000-0000-00004B090000}"/>
-    <cellStyle name="Normale 44 2 2" xfId="3443" xr:uid="{00000000-0005-0000-0000-00004C090000}"/>
-    <cellStyle name="Normale 44 3" xfId="3442" xr:uid="{00000000-0005-0000-0000-00004D090000}"/>
+    <cellStyle name="Normale 44 2 2" xfId="3442" xr:uid="{00000000-0005-0000-0000-00004C090000}"/>
+    <cellStyle name="Normale 44 3" xfId="3441" xr:uid="{00000000-0005-0000-0000-00004D090000}"/>
     <cellStyle name="Normale 45" xfId="1519" xr:uid="{00000000-0005-0000-0000-00004E090000}"/>
     <cellStyle name="Normale 45 2" xfId="1520" xr:uid="{00000000-0005-0000-0000-00004F090000}"/>
-    <cellStyle name="Normale 45 2 2" xfId="3445" xr:uid="{00000000-0005-0000-0000-000050090000}"/>
-    <cellStyle name="Normale 45 3" xfId="3444" xr:uid="{00000000-0005-0000-0000-000051090000}"/>
+    <cellStyle name="Normale 45 2 2" xfId="3444" xr:uid="{00000000-0005-0000-0000-000050090000}"/>
+    <cellStyle name="Normale 45 3" xfId="3443" xr:uid="{00000000-0005-0000-0000-000051090000}"/>
     <cellStyle name="Normale 46" xfId="1521" xr:uid="{00000000-0005-0000-0000-000052090000}"/>
     <cellStyle name="Normale 46 2" xfId="1522" xr:uid="{00000000-0005-0000-0000-000053090000}"/>
-    <cellStyle name="Normale 46 2 2" xfId="3447" xr:uid="{00000000-0005-0000-0000-000054090000}"/>
-    <cellStyle name="Normale 46 3" xfId="3446" xr:uid="{00000000-0005-0000-0000-000055090000}"/>
+    <cellStyle name="Normale 46 2 2" xfId="3446" xr:uid="{00000000-0005-0000-0000-000054090000}"/>
+    <cellStyle name="Normale 46 3" xfId="3445" xr:uid="{00000000-0005-0000-0000-000055090000}"/>
     <cellStyle name="Normale 47" xfId="1523" xr:uid="{00000000-0005-0000-0000-000056090000}"/>
     <cellStyle name="Normale 47 2" xfId="1524" xr:uid="{00000000-0005-0000-0000-000057090000}"/>
-    <cellStyle name="Normale 47 2 2" xfId="3449" xr:uid="{00000000-0005-0000-0000-000058090000}"/>
-    <cellStyle name="Normale 47 3" xfId="3448" xr:uid="{00000000-0005-0000-0000-000059090000}"/>
+    <cellStyle name="Normale 47 2 2" xfId="3448" xr:uid="{00000000-0005-0000-0000-000058090000}"/>
+    <cellStyle name="Normale 47 3" xfId="3447" xr:uid="{00000000-0005-0000-0000-000059090000}"/>
     <cellStyle name="Normale 48" xfId="1525" xr:uid="{00000000-0005-0000-0000-00005A090000}"/>
     <cellStyle name="Normale 48 2" xfId="1526" xr:uid="{00000000-0005-0000-0000-00005B090000}"/>
-    <cellStyle name="Normale 48 2 2" xfId="3451" xr:uid="{00000000-0005-0000-0000-00005C090000}"/>
-    <cellStyle name="Normale 48 3" xfId="3450" xr:uid="{00000000-0005-0000-0000-00005D090000}"/>
+    <cellStyle name="Normale 48 2 2" xfId="3450" xr:uid="{00000000-0005-0000-0000-00005C090000}"/>
+    <cellStyle name="Normale 48 3" xfId="3449" xr:uid="{00000000-0005-0000-0000-00005D090000}"/>
     <cellStyle name="Normale 49" xfId="1527" xr:uid="{00000000-0005-0000-0000-00005E090000}"/>
     <cellStyle name="Normale 49 2" xfId="1528" xr:uid="{00000000-0005-0000-0000-00005F090000}"/>
-    <cellStyle name="Normale 49 2 2" xfId="3453" xr:uid="{00000000-0005-0000-0000-000060090000}"/>
-    <cellStyle name="Normale 49 3" xfId="3452" xr:uid="{00000000-0005-0000-0000-000061090000}"/>
+    <cellStyle name="Normale 49 2 2" xfId="3452" xr:uid="{00000000-0005-0000-0000-000060090000}"/>
+    <cellStyle name="Normale 49 3" xfId="3451" xr:uid="{00000000-0005-0000-0000-000061090000}"/>
     <cellStyle name="Normale 5" xfId="1529" xr:uid="{00000000-0005-0000-0000-000062090000}"/>
     <cellStyle name="Normale 5 2" xfId="1530" xr:uid="{00000000-0005-0000-0000-000063090000}"/>
     <cellStyle name="Normale 5 2 2" xfId="1531" xr:uid="{00000000-0005-0000-0000-000064090000}"/>
-    <cellStyle name="Normale 5 2 2 2" xfId="3456" xr:uid="{00000000-0005-0000-0000-000065090000}"/>
-    <cellStyle name="Normale 5 2 3" xfId="3455" xr:uid="{00000000-0005-0000-0000-000066090000}"/>
+    <cellStyle name="Normale 5 2 2 2" xfId="3455" xr:uid="{00000000-0005-0000-0000-000065090000}"/>
+    <cellStyle name="Normale 5 2 3" xfId="3454" xr:uid="{00000000-0005-0000-0000-000066090000}"/>
     <cellStyle name="Normale 5 3" xfId="1532" xr:uid="{00000000-0005-0000-0000-000067090000}"/>
     <cellStyle name="Normale 5 3 2" xfId="1533" xr:uid="{00000000-0005-0000-0000-000068090000}"/>
-    <cellStyle name="Normale 5 3 2 2" xfId="3458" xr:uid="{00000000-0005-0000-0000-000069090000}"/>
-    <cellStyle name="Normale 5 3 3" xfId="3457" xr:uid="{00000000-0005-0000-0000-00006A090000}"/>
+    <cellStyle name="Normale 5 3 2 2" xfId="3457" xr:uid="{00000000-0005-0000-0000-000069090000}"/>
+    <cellStyle name="Normale 5 3 3" xfId="3456" xr:uid="{00000000-0005-0000-0000-00006A090000}"/>
     <cellStyle name="Normale 5 4" xfId="1534" xr:uid="{00000000-0005-0000-0000-00006B090000}"/>
-    <cellStyle name="Normale 5 4 2" xfId="3459" xr:uid="{00000000-0005-0000-0000-00006C090000}"/>
-    <cellStyle name="Normale 5 5" xfId="3454" xr:uid="{00000000-0005-0000-0000-00006D090000}"/>
+    <cellStyle name="Normale 5 4 2" xfId="3458" xr:uid="{00000000-0005-0000-0000-00006C090000}"/>
+    <cellStyle name="Normale 5 5" xfId="3453" xr:uid="{00000000-0005-0000-0000-00006D090000}"/>
     <cellStyle name="Normale 5_EDEN industria 2008 rev" xfId="1535" xr:uid="{00000000-0005-0000-0000-00006E090000}"/>
     <cellStyle name="Normale 50" xfId="1536" xr:uid="{00000000-0005-0000-0000-00006F090000}"/>
     <cellStyle name="Normale 50 2" xfId="1537" xr:uid="{00000000-0005-0000-0000-000070090000}"/>
-    <cellStyle name="Normale 50 2 2" xfId="3461" xr:uid="{00000000-0005-0000-0000-000071090000}"/>
-    <cellStyle name="Normale 50 3" xfId="3460" xr:uid="{00000000-0005-0000-0000-000072090000}"/>
+    <cellStyle name="Normale 50 2 2" xfId="3460" xr:uid="{00000000-0005-0000-0000-000071090000}"/>
+    <cellStyle name="Normale 50 3" xfId="3459" xr:uid="{00000000-0005-0000-0000-000072090000}"/>
     <cellStyle name="Normale 51" xfId="1538" xr:uid="{00000000-0005-0000-0000-000073090000}"/>
     <cellStyle name="Normale 51 2" xfId="1539" xr:uid="{00000000-0005-0000-0000-000074090000}"/>
-    <cellStyle name="Normale 51 2 2" xfId="3463" xr:uid="{00000000-0005-0000-0000-000075090000}"/>
-    <cellStyle name="Normale 51 3" xfId="3462" xr:uid="{00000000-0005-0000-0000-000076090000}"/>
+    <cellStyle name="Normale 51 2 2" xfId="3462" xr:uid="{00000000-0005-0000-0000-000075090000}"/>
+    <cellStyle name="Normale 51 3" xfId="3461" xr:uid="{00000000-0005-0000-0000-000076090000}"/>
     <cellStyle name="Normale 52" xfId="1540" xr:uid="{00000000-0005-0000-0000-000077090000}"/>
     <cellStyle name="Normale 52 2" xfId="1541" xr:uid="{00000000-0005-0000-0000-000078090000}"/>
-    <cellStyle name="Normale 52 2 2" xfId="3465" xr:uid="{00000000-0005-0000-0000-000079090000}"/>
-    <cellStyle name="Normale 52 3" xfId="3464" xr:uid="{00000000-0005-0000-0000-00007A090000}"/>
+    <cellStyle name="Normale 52 2 2" xfId="3464" xr:uid="{00000000-0005-0000-0000-000079090000}"/>
+    <cellStyle name="Normale 52 3" xfId="3463" xr:uid="{00000000-0005-0000-0000-00007A090000}"/>
     <cellStyle name="Normale 53" xfId="1542" xr:uid="{00000000-0005-0000-0000-00007B090000}"/>
     <cellStyle name="Normale 53 2" xfId="1543" xr:uid="{00000000-0005-0000-0000-00007C090000}"/>
-    <cellStyle name="Normale 53 2 2" xfId="3467" xr:uid="{00000000-0005-0000-0000-00007D090000}"/>
-    <cellStyle name="Normale 53 3" xfId="3466" xr:uid="{00000000-0005-0000-0000-00007E090000}"/>
+    <cellStyle name="Normale 53 2 2" xfId="3466" xr:uid="{00000000-0005-0000-0000-00007D090000}"/>
+    <cellStyle name="Normale 53 3" xfId="3465" xr:uid="{00000000-0005-0000-0000-00007E090000}"/>
     <cellStyle name="Normale 54" xfId="1544" xr:uid="{00000000-0005-0000-0000-00007F090000}"/>
     <cellStyle name="Normale 54 2" xfId="1545" xr:uid="{00000000-0005-0000-0000-000080090000}"/>
-    <cellStyle name="Normale 54 2 2" xfId="3469" xr:uid="{00000000-0005-0000-0000-000081090000}"/>
-    <cellStyle name="Normale 54 3" xfId="3468" xr:uid="{00000000-0005-0000-0000-000082090000}"/>
+    <cellStyle name="Normale 54 2 2" xfId="3468" xr:uid="{00000000-0005-0000-0000-000081090000}"/>
+    <cellStyle name="Normale 54 3" xfId="3467" xr:uid="{00000000-0005-0000-0000-000082090000}"/>
     <cellStyle name="Normale 55" xfId="1546" xr:uid="{00000000-0005-0000-0000-000083090000}"/>
     <cellStyle name="Normale 55 2" xfId="1547" xr:uid="{00000000-0005-0000-0000-000084090000}"/>
-    <cellStyle name="Normale 55 2 2" xfId="3471" xr:uid="{00000000-0005-0000-0000-000085090000}"/>
-    <cellStyle name="Normale 55 3" xfId="3470" xr:uid="{00000000-0005-0000-0000-000086090000}"/>
+    <cellStyle name="Normale 55 2 2" xfId="3470" xr:uid="{00000000-0005-0000-0000-000085090000}"/>
+    <cellStyle name="Normale 55 3" xfId="3469" xr:uid="{00000000-0005-0000-0000-000086090000}"/>
     <cellStyle name="Normale 56" xfId="1548" xr:uid="{00000000-0005-0000-0000-000087090000}"/>
     <cellStyle name="Normale 56 2" xfId="1549" xr:uid="{00000000-0005-0000-0000-000088090000}"/>
-    <cellStyle name="Normale 56 2 2" xfId="3473" xr:uid="{00000000-0005-0000-0000-000089090000}"/>
-    <cellStyle name="Normale 56 3" xfId="3472" xr:uid="{00000000-0005-0000-0000-00008A090000}"/>
+    <cellStyle name="Normale 56 2 2" xfId="3472" xr:uid="{00000000-0005-0000-0000-000089090000}"/>
+    <cellStyle name="Normale 56 3" xfId="3471" xr:uid="{00000000-0005-0000-0000-00008A090000}"/>
     <cellStyle name="Normale 57" xfId="1550" xr:uid="{00000000-0005-0000-0000-00008B090000}"/>
     <cellStyle name="Normale 57 2" xfId="1551" xr:uid="{00000000-0005-0000-0000-00008C090000}"/>
-    <cellStyle name="Normale 57 2 2" xfId="3475" xr:uid="{00000000-0005-0000-0000-00008D090000}"/>
-    <cellStyle name="Normale 57 3" xfId="3474" xr:uid="{00000000-0005-0000-0000-00008E090000}"/>
+    <cellStyle name="Normale 57 2 2" xfId="3474" xr:uid="{00000000-0005-0000-0000-00008D090000}"/>
+    <cellStyle name="Normale 57 3" xfId="3473" xr:uid="{00000000-0005-0000-0000-00008E090000}"/>
     <cellStyle name="Normale 58" xfId="1552" xr:uid="{00000000-0005-0000-0000-00008F090000}"/>
     <cellStyle name="Normale 58 2" xfId="1553" xr:uid="{00000000-0005-0000-0000-000090090000}"/>
-    <cellStyle name="Normale 58 2 2" xfId="3477" xr:uid="{00000000-0005-0000-0000-000091090000}"/>
-    <cellStyle name="Normale 58 3" xfId="3476" xr:uid="{00000000-0005-0000-0000-000092090000}"/>
+    <cellStyle name="Normale 58 2 2" xfId="3476" xr:uid="{00000000-0005-0000-0000-000091090000}"/>
+    <cellStyle name="Normale 58 3" xfId="3475" xr:uid="{00000000-0005-0000-0000-000092090000}"/>
     <cellStyle name="Normale 59" xfId="1554" xr:uid="{00000000-0005-0000-0000-000093090000}"/>
     <cellStyle name="Normale 59 2" xfId="1555" xr:uid="{00000000-0005-0000-0000-000094090000}"/>
-    <cellStyle name="Normale 59 2 2" xfId="3479" xr:uid="{00000000-0005-0000-0000-000095090000}"/>
-    <cellStyle name="Normale 59 3" xfId="3478" xr:uid="{00000000-0005-0000-0000-000096090000}"/>
+    <cellStyle name="Normale 59 2 2" xfId="3478" xr:uid="{00000000-0005-0000-0000-000095090000}"/>
+    <cellStyle name="Normale 59 3" xfId="3477" xr:uid="{00000000-0005-0000-0000-000096090000}"/>
     <cellStyle name="Normale 6" xfId="1556" xr:uid="{00000000-0005-0000-0000-000097090000}"/>
     <cellStyle name="Normale 6 2" xfId="1557" xr:uid="{00000000-0005-0000-0000-000098090000}"/>
     <cellStyle name="Normale 6 2 2" xfId="1558" xr:uid="{00000000-0005-0000-0000-000099090000}"/>
-    <cellStyle name="Normale 6 2 2 2" xfId="3482" xr:uid="{00000000-0005-0000-0000-00009A090000}"/>
-    <cellStyle name="Normale 6 2 3" xfId="3481" xr:uid="{00000000-0005-0000-0000-00009B090000}"/>
+    <cellStyle name="Normale 6 2 2 2" xfId="3481" xr:uid="{00000000-0005-0000-0000-00009A090000}"/>
+    <cellStyle name="Normale 6 2 3" xfId="3480" xr:uid="{00000000-0005-0000-0000-00009B090000}"/>
     <cellStyle name="Normale 6 3" xfId="1559" xr:uid="{00000000-0005-0000-0000-00009C090000}"/>
     <cellStyle name="Normale 6 3 2" xfId="1560" xr:uid="{00000000-0005-0000-0000-00009D090000}"/>
-    <cellStyle name="Normale 6 3 2 2" xfId="3484" xr:uid="{00000000-0005-0000-0000-00009E090000}"/>
-    <cellStyle name="Normale 6 3 3" xfId="3483" xr:uid="{00000000-0005-0000-0000-00009F090000}"/>
+    <cellStyle name="Normale 6 3 2 2" xfId="3483" xr:uid="{00000000-0005-0000-0000-00009E090000}"/>
+    <cellStyle name="Normale 6 3 3" xfId="3482" xr:uid="{00000000-0005-0000-0000-00009F090000}"/>
     <cellStyle name="Normale 6 4" xfId="1561" xr:uid="{00000000-0005-0000-0000-0000A0090000}"/>
-    <cellStyle name="Normale 6 4 2" xfId="3485" xr:uid="{00000000-0005-0000-0000-0000A1090000}"/>
-    <cellStyle name="Normale 6 5" xfId="3480" xr:uid="{00000000-0005-0000-0000-0000A2090000}"/>
+    <cellStyle name="Normale 6 4 2" xfId="3484" xr:uid="{00000000-0005-0000-0000-0000A1090000}"/>
+    <cellStyle name="Normale 6 5" xfId="3479" xr:uid="{00000000-0005-0000-0000-0000A2090000}"/>
     <cellStyle name="Normale 6_EDEN industria 2008 rev" xfId="1562" xr:uid="{00000000-0005-0000-0000-0000A3090000}"/>
     <cellStyle name="Normale 60" xfId="1563" xr:uid="{00000000-0005-0000-0000-0000A4090000}"/>
     <cellStyle name="Normale 60 2" xfId="1564" xr:uid="{00000000-0005-0000-0000-0000A5090000}"/>
-    <cellStyle name="Normale 60 2 2" xfId="3487" xr:uid="{00000000-0005-0000-0000-0000A6090000}"/>
-    <cellStyle name="Normale 60 3" xfId="3486" xr:uid="{00000000-0005-0000-0000-0000A7090000}"/>
+    <cellStyle name="Normale 60 2 2" xfId="3486" xr:uid="{00000000-0005-0000-0000-0000A6090000}"/>
+    <cellStyle name="Normale 60 3" xfId="3485" xr:uid="{00000000-0005-0000-0000-0000A7090000}"/>
     <cellStyle name="Normale 61" xfId="1565" xr:uid="{00000000-0005-0000-0000-0000A8090000}"/>
     <cellStyle name="Normale 61 2" xfId="1566" xr:uid="{00000000-0005-0000-0000-0000A9090000}"/>
-    <cellStyle name="Normale 61 2 2" xfId="3489" xr:uid="{00000000-0005-0000-0000-0000AA090000}"/>
-    <cellStyle name="Normale 61 3" xfId="3488" xr:uid="{00000000-0005-0000-0000-0000AB090000}"/>
+    <cellStyle name="Normale 61 2 2" xfId="3488" xr:uid="{00000000-0005-0000-0000-0000AA090000}"/>
+    <cellStyle name="Normale 61 3" xfId="3487" xr:uid="{00000000-0005-0000-0000-0000AB090000}"/>
     <cellStyle name="Normale 62" xfId="1567" xr:uid="{00000000-0005-0000-0000-0000AC090000}"/>
     <cellStyle name="Normale 62 2" xfId="1568" xr:uid="{00000000-0005-0000-0000-0000AD090000}"/>
-    <cellStyle name="Normale 62 2 2" xfId="3491" xr:uid="{00000000-0005-0000-0000-0000AE090000}"/>
-    <cellStyle name="Normale 62 3" xfId="3490" xr:uid="{00000000-0005-0000-0000-0000AF090000}"/>
+    <cellStyle name="Normale 62 2 2" xfId="3490" xr:uid="{00000000-0005-0000-0000-0000AE090000}"/>
+    <cellStyle name="Normale 62 3" xfId="3489" xr:uid="{00000000-0005-0000-0000-0000AF090000}"/>
     <cellStyle name="Normale 63" xfId="1569" xr:uid="{00000000-0005-0000-0000-0000B0090000}"/>
     <cellStyle name="Normale 63 2" xfId="1570" xr:uid="{00000000-0005-0000-0000-0000B1090000}"/>
-    <cellStyle name="Normale 63 2 2" xfId="3493" xr:uid="{00000000-0005-0000-0000-0000B2090000}"/>
-    <cellStyle name="Normale 63 3" xfId="3492" xr:uid="{00000000-0005-0000-0000-0000B3090000}"/>
+    <cellStyle name="Normale 63 2 2" xfId="3492" xr:uid="{00000000-0005-0000-0000-0000B2090000}"/>
+    <cellStyle name="Normale 63 3" xfId="3491" xr:uid="{00000000-0005-0000-0000-0000B3090000}"/>
     <cellStyle name="Normale 64" xfId="1571" xr:uid="{00000000-0005-0000-0000-0000B4090000}"/>
     <cellStyle name="Normale 64 2" xfId="1572" xr:uid="{00000000-0005-0000-0000-0000B5090000}"/>
-    <cellStyle name="Normale 64 2 2" xfId="3495" xr:uid="{00000000-0005-0000-0000-0000B6090000}"/>
-    <cellStyle name="Normale 64 3" xfId="3494" xr:uid="{00000000-0005-0000-0000-0000B7090000}"/>
+    <cellStyle name="Normale 64 2 2" xfId="3494" xr:uid="{00000000-0005-0000-0000-0000B6090000}"/>
+    <cellStyle name="Normale 64 3" xfId="3493" xr:uid="{00000000-0005-0000-0000-0000B7090000}"/>
     <cellStyle name="Normale 65" xfId="1573" xr:uid="{00000000-0005-0000-0000-0000B8090000}"/>
     <cellStyle name="Normale 65 2" xfId="1574" xr:uid="{00000000-0005-0000-0000-0000B9090000}"/>
-    <cellStyle name="Normale 65 2 2" xfId="3497" xr:uid="{00000000-0005-0000-0000-0000BA090000}"/>
-    <cellStyle name="Normale 65 3" xfId="3496" xr:uid="{00000000-0005-0000-0000-0000BB090000}"/>
+    <cellStyle name="Normale 65 2 2" xfId="3496" xr:uid="{00000000-0005-0000-0000-0000BA090000}"/>
+    <cellStyle name="Normale 65 3" xfId="3495" xr:uid="{00000000-0005-0000-0000-0000BB090000}"/>
     <cellStyle name="Normale 7" xfId="1575" xr:uid="{00000000-0005-0000-0000-0000BC090000}"/>
     <cellStyle name="Normale 7 2" xfId="1576" xr:uid="{00000000-0005-0000-0000-0000BD090000}"/>
     <cellStyle name="Normale 7 2 2" xfId="1577" xr:uid="{00000000-0005-0000-0000-0000BE090000}"/>
-    <cellStyle name="Normale 7 2 2 2" xfId="3500" xr:uid="{00000000-0005-0000-0000-0000BF090000}"/>
-    <cellStyle name="Normale 7 2 3" xfId="3499" xr:uid="{00000000-0005-0000-0000-0000C0090000}"/>
+    <cellStyle name="Normale 7 2 2 2" xfId="3499" xr:uid="{00000000-0005-0000-0000-0000BF090000}"/>
+    <cellStyle name="Normale 7 2 3" xfId="3498" xr:uid="{00000000-0005-0000-0000-0000C0090000}"/>
     <cellStyle name="Normale 7 3" xfId="1578" xr:uid="{00000000-0005-0000-0000-0000C1090000}"/>
     <cellStyle name="Normale 7 3 2" xfId="1579" xr:uid="{00000000-0005-0000-0000-0000C2090000}"/>
-    <cellStyle name="Normale 7 3 2 2" xfId="3502" xr:uid="{00000000-0005-0000-0000-0000C3090000}"/>
-    <cellStyle name="Normale 7 3 3" xfId="3501" xr:uid="{00000000-0005-0000-0000-0000C4090000}"/>
+    <cellStyle name="Normale 7 3 2 2" xfId="3501" xr:uid="{00000000-0005-0000-0000-0000C3090000}"/>
+    <cellStyle name="Normale 7 3 3" xfId="3500" xr:uid="{00000000-0005-0000-0000-0000C4090000}"/>
     <cellStyle name="Normale 7 4" xfId="1580" xr:uid="{00000000-0005-0000-0000-0000C5090000}"/>
-    <cellStyle name="Normale 7 4 2" xfId="3503" xr:uid="{00000000-0005-0000-0000-0000C6090000}"/>
-    <cellStyle name="Normale 7 5" xfId="3498" xr:uid="{00000000-0005-0000-0000-0000C7090000}"/>
+    <cellStyle name="Normale 7 4 2" xfId="3502" xr:uid="{00000000-0005-0000-0000-0000C6090000}"/>
+    <cellStyle name="Normale 7 5" xfId="3497" xr:uid="{00000000-0005-0000-0000-0000C7090000}"/>
     <cellStyle name="Normale 7_EDEN industria 2008 rev" xfId="1581" xr:uid="{00000000-0005-0000-0000-0000C8090000}"/>
     <cellStyle name="Normale 8" xfId="1582" xr:uid="{00000000-0005-0000-0000-0000C9090000}"/>
     <cellStyle name="Normale 8 2" xfId="1583" xr:uid="{00000000-0005-0000-0000-0000CA090000}"/>
     <cellStyle name="Normale 8 2 2" xfId="1584" xr:uid="{00000000-0005-0000-0000-0000CB090000}"/>
-    <cellStyle name="Normale 8 2 2 2" xfId="3506" xr:uid="{00000000-0005-0000-0000-0000CC090000}"/>
-    <cellStyle name="Normale 8 2 3" xfId="3505" xr:uid="{00000000-0005-0000-0000-0000CD090000}"/>
+    <cellStyle name="Normale 8 2 2 2" xfId="3505" xr:uid="{00000000-0005-0000-0000-0000CC090000}"/>
+    <cellStyle name="Normale 8 2 3" xfId="3504" xr:uid="{00000000-0005-0000-0000-0000CD090000}"/>
     <cellStyle name="Normale 8 3" xfId="1585" xr:uid="{00000000-0005-0000-0000-0000CE090000}"/>
     <cellStyle name="Normale 8 3 2" xfId="1586" xr:uid="{00000000-0005-0000-0000-0000CF090000}"/>
-    <cellStyle name="Normale 8 3 2 2" xfId="3508" xr:uid="{00000000-0005-0000-0000-0000D0090000}"/>
-    <cellStyle name="Normale 8 3 3" xfId="3507" xr:uid="{00000000-0005-0000-0000-0000D1090000}"/>
+    <cellStyle name="Normale 8 3 2 2" xfId="3507" xr:uid="{00000000-0005-0000-0000-0000D0090000}"/>
+    <cellStyle name="Normale 8 3 3" xfId="3506" xr:uid="{00000000-0005-0000-0000-0000D1090000}"/>
     <cellStyle name="Normale 8 4" xfId="1587" xr:uid="{00000000-0005-0000-0000-0000D2090000}"/>
-    <cellStyle name="Normale 8 4 2" xfId="3509" xr:uid="{00000000-0005-0000-0000-0000D3090000}"/>
-    <cellStyle name="Normale 8 5" xfId="3504" xr:uid="{00000000-0005-0000-0000-0000D4090000}"/>
+    <cellStyle name="Normale 8 4 2" xfId="3508" xr:uid="{00000000-0005-0000-0000-0000D3090000}"/>
+    <cellStyle name="Normale 8 5" xfId="3503" xr:uid="{00000000-0005-0000-0000-0000D4090000}"/>
     <cellStyle name="Normale 8_EDEN industria 2008 rev" xfId="1588" xr:uid="{00000000-0005-0000-0000-0000D5090000}"/>
     <cellStyle name="Normale 9" xfId="1589" xr:uid="{00000000-0005-0000-0000-0000D6090000}"/>
     <cellStyle name="Normale 9 2" xfId="1590" xr:uid="{00000000-0005-0000-0000-0000D7090000}"/>
     <cellStyle name="Normale 9 2 2" xfId="1591" xr:uid="{00000000-0005-0000-0000-0000D8090000}"/>
-    <cellStyle name="Normale 9 2 2 2" xfId="3512" xr:uid="{00000000-0005-0000-0000-0000D9090000}"/>
-    <cellStyle name="Normale 9 2 3" xfId="3511" xr:uid="{00000000-0005-0000-0000-0000DA090000}"/>
+    <cellStyle name="Normale 9 2 2 2" xfId="3511" xr:uid="{00000000-0005-0000-0000-0000D9090000}"/>
+    <cellStyle name="Normale 9 2 3" xfId="3510" xr:uid="{00000000-0005-0000-0000-0000DA090000}"/>
     <cellStyle name="Normale 9 3" xfId="1592" xr:uid="{00000000-0005-0000-0000-0000DB090000}"/>
     <cellStyle name="Normale 9 3 2" xfId="1593" xr:uid="{00000000-0005-0000-0000-0000DC090000}"/>
-    <cellStyle name="Normale 9 3 2 2" xfId="3514" xr:uid="{00000000-0005-0000-0000-0000DD090000}"/>
-    <cellStyle name="Normale 9 3 3" xfId="3513" xr:uid="{00000000-0005-0000-0000-0000DE090000}"/>
+    <cellStyle name="Normale 9 3 2 2" xfId="3513" xr:uid="{00000000-0005-0000-0000-0000DD090000}"/>
+    <cellStyle name="Normale 9 3 3" xfId="3512" xr:uid="{00000000-0005-0000-0000-0000DE090000}"/>
     <cellStyle name="Normale 9 4" xfId="1594" xr:uid="{00000000-0005-0000-0000-0000DF090000}"/>
-    <cellStyle name="Normale 9 4 2" xfId="3515" xr:uid="{00000000-0005-0000-0000-0000E0090000}"/>
-    <cellStyle name="Normale 9 5" xfId="3510" xr:uid="{00000000-0005-0000-0000-0000E1090000}"/>
+    <cellStyle name="Normale 9 4 2" xfId="3514" xr:uid="{00000000-0005-0000-0000-0000E0090000}"/>
+    <cellStyle name="Normale 9 5" xfId="3509" xr:uid="{00000000-0005-0000-0000-0000E1090000}"/>
     <cellStyle name="Normale 9_EDEN industria 2008 rev" xfId="1595" xr:uid="{00000000-0005-0000-0000-0000E2090000}"/>
     <cellStyle name="Normale_B2020" xfId="1596" xr:uid="{00000000-0005-0000-0000-0000E3090000}"/>
     <cellStyle name="Nota" xfId="1597" xr:uid="{00000000-0005-0000-0000-0000E4090000}"/>
     <cellStyle name="Nota 2" xfId="1598" xr:uid="{00000000-0005-0000-0000-0000E5090000}"/>
     <cellStyle name="Nota 2 2" xfId="1599" xr:uid="{00000000-0005-0000-0000-0000E6090000}"/>
-    <cellStyle name="Nota 2 2 2" xfId="3518" xr:uid="{00000000-0005-0000-0000-0000E7090000}"/>
-    <cellStyle name="Nota 2 3" xfId="3517" xr:uid="{00000000-0005-0000-0000-0000E8090000}"/>
+    <cellStyle name="Nota 2 2 2" xfId="3517" xr:uid="{00000000-0005-0000-0000-0000E7090000}"/>
+    <cellStyle name="Nota 2 3" xfId="3516" xr:uid="{00000000-0005-0000-0000-0000E8090000}"/>
     <cellStyle name="Nota 3" xfId="1600" xr:uid="{00000000-0005-0000-0000-0000E9090000}"/>
     <cellStyle name="Nota 3 2" xfId="1601" xr:uid="{00000000-0005-0000-0000-0000EA090000}"/>
     <cellStyle name="Nota 3 2 2" xfId="1602" xr:uid="{00000000-0005-0000-0000-0000EB090000}"/>
     <cellStyle name="Nota 3 2 2 2" xfId="1603" xr:uid="{00000000-0005-0000-0000-0000EC090000}"/>
     <cellStyle name="Nota 3 2 3" xfId="1604" xr:uid="{00000000-0005-0000-0000-0000ED090000}"/>
-    <cellStyle name="Nota 3 2 3 2" xfId="3521" xr:uid="{00000000-0005-0000-0000-0000EE090000}"/>
-    <cellStyle name="Nota 3 2 4" xfId="3520" xr:uid="{00000000-0005-0000-0000-0000EF090000}"/>
+    <cellStyle name="Nota 3 2 3 2" xfId="3520" xr:uid="{00000000-0005-0000-0000-0000EE090000}"/>
+    <cellStyle name="Nota 3 2 4" xfId="3519" xr:uid="{00000000-0005-0000-0000-0000EF090000}"/>
     <cellStyle name="Nota 3 3" xfId="1605" xr:uid="{00000000-0005-0000-0000-0000F0090000}"/>
-    <cellStyle name="Nota 3 3 2" xfId="3522" xr:uid="{00000000-0005-0000-0000-0000F1090000}"/>
-    <cellStyle name="Nota 3 4" xfId="3519" xr:uid="{00000000-0005-0000-0000-0000F2090000}"/>
+    <cellStyle name="Nota 3 3 2" xfId="3521" xr:uid="{00000000-0005-0000-0000-0000F1090000}"/>
+    <cellStyle name="Nota 3 4" xfId="3518" xr:uid="{00000000-0005-0000-0000-0000F2090000}"/>
     <cellStyle name="Nota 4" xfId="1606" xr:uid="{00000000-0005-0000-0000-0000F3090000}"/>
     <cellStyle name="Nota 4 2" xfId="1607" xr:uid="{00000000-0005-0000-0000-0000F4090000}"/>
     <cellStyle name="Nota 4 2 2" xfId="1608" xr:uid="{00000000-0005-0000-0000-0000F5090000}"/>
-    <cellStyle name="Nota 4 2 2 2" xfId="3525" xr:uid="{00000000-0005-0000-0000-0000F6090000}"/>
-    <cellStyle name="Nota 4 2 3" xfId="3524" xr:uid="{00000000-0005-0000-0000-0000F7090000}"/>
+    <cellStyle name="Nota 4 2 2 2" xfId="3524" xr:uid="{00000000-0005-0000-0000-0000F6090000}"/>
+    <cellStyle name="Nota 4 2 3" xfId="3523" xr:uid="{00000000-0005-0000-0000-0000F7090000}"/>
     <cellStyle name="Nota 4 3" xfId="1609" xr:uid="{00000000-0005-0000-0000-0000F8090000}"/>
-    <cellStyle name="Nota 4 3 2" xfId="3526" xr:uid="{00000000-0005-0000-0000-0000F9090000}"/>
-    <cellStyle name="Nota 4 4" xfId="3523" xr:uid="{00000000-0005-0000-0000-0000FA090000}"/>
+    <cellStyle name="Nota 4 3 2" xfId="3525" xr:uid="{00000000-0005-0000-0000-0000F9090000}"/>
+    <cellStyle name="Nota 4 4" xfId="3522" xr:uid="{00000000-0005-0000-0000-0000FA090000}"/>
     <cellStyle name="Nota 5" xfId="1610" xr:uid="{00000000-0005-0000-0000-0000FB090000}"/>
     <cellStyle name="Nota 5 2" xfId="1611" xr:uid="{00000000-0005-0000-0000-0000FC090000}"/>
     <cellStyle name="Nota 6" xfId="1612" xr:uid="{00000000-0005-0000-0000-0000FD090000}"/>
-    <cellStyle name="Nota 6 2" xfId="3527" xr:uid="{00000000-0005-0000-0000-0000FE090000}"/>
-    <cellStyle name="Nota 7" xfId="3516" xr:uid="{00000000-0005-0000-0000-0000FF090000}"/>
+    <cellStyle name="Nota 6 2" xfId="3526" xr:uid="{00000000-0005-0000-0000-0000FE090000}"/>
+    <cellStyle name="Nota 7" xfId="3515" xr:uid="{00000000-0005-0000-0000-0000FF090000}"/>
     <cellStyle name="Note 2" xfId="1613" xr:uid="{00000000-0005-0000-0000-0000000A0000}"/>
     <cellStyle name="Note 2 2" xfId="1614" xr:uid="{00000000-0005-0000-0000-0000010A0000}"/>
     <cellStyle name="Note 2 2 2" xfId="1615" xr:uid="{00000000-0005-0000-0000-0000020A0000}"/>
@@ -8151,619 +8152,619 @@
     <cellStyle name="Nuovo" xfId="1617" xr:uid="{00000000-0005-0000-0000-0000040A0000}"/>
     <cellStyle name="Nuovo 10" xfId="1618" xr:uid="{00000000-0005-0000-0000-0000050A0000}"/>
     <cellStyle name="Nuovo 10 2" xfId="1619" xr:uid="{00000000-0005-0000-0000-0000060A0000}"/>
-    <cellStyle name="Nuovo 10 2 2" xfId="3530" xr:uid="{00000000-0005-0000-0000-0000070A0000}"/>
+    <cellStyle name="Nuovo 10 2 2" xfId="3529" xr:uid="{00000000-0005-0000-0000-0000070A0000}"/>
     <cellStyle name="Nuovo 10 3" xfId="1620" xr:uid="{00000000-0005-0000-0000-0000080A0000}"/>
     <cellStyle name="Nuovo 10 3 2" xfId="1621" xr:uid="{00000000-0005-0000-0000-0000090A0000}"/>
     <cellStyle name="Nuovo 10 3 2 2" xfId="1622" xr:uid="{00000000-0005-0000-0000-00000A0A0000}"/>
-    <cellStyle name="Nuovo 10 3 2 3" xfId="3532" xr:uid="{00000000-0005-0000-0000-00000B0A0000}"/>
-    <cellStyle name="Nuovo 10 3 3" xfId="3531" xr:uid="{00000000-0005-0000-0000-00000C0A0000}"/>
+    <cellStyle name="Nuovo 10 3 2 3" xfId="3531" xr:uid="{00000000-0005-0000-0000-00000B0A0000}"/>
+    <cellStyle name="Nuovo 10 3 3" xfId="3530" xr:uid="{00000000-0005-0000-0000-00000C0A0000}"/>
     <cellStyle name="Nuovo 10 4" xfId="1623" xr:uid="{00000000-0005-0000-0000-00000D0A0000}"/>
     <cellStyle name="Nuovo 10 4 2" xfId="1624" xr:uid="{00000000-0005-0000-0000-00000E0A0000}"/>
-    <cellStyle name="Nuovo 10 4 2 2" xfId="3534" xr:uid="{00000000-0005-0000-0000-00000F0A0000}"/>
-    <cellStyle name="Nuovo 10 4 3" xfId="3533" xr:uid="{00000000-0005-0000-0000-0000100A0000}"/>
+    <cellStyle name="Nuovo 10 4 2 2" xfId="3533" xr:uid="{00000000-0005-0000-0000-00000F0A0000}"/>
+    <cellStyle name="Nuovo 10 4 3" xfId="3532" xr:uid="{00000000-0005-0000-0000-0000100A0000}"/>
     <cellStyle name="Nuovo 10 5" xfId="1625" xr:uid="{00000000-0005-0000-0000-0000110A0000}"/>
-    <cellStyle name="Nuovo 10 6" xfId="3529" xr:uid="{00000000-0005-0000-0000-0000120A0000}"/>
+    <cellStyle name="Nuovo 10 6" xfId="3528" xr:uid="{00000000-0005-0000-0000-0000120A0000}"/>
     <cellStyle name="Nuovo 11" xfId="1626" xr:uid="{00000000-0005-0000-0000-0000130A0000}"/>
     <cellStyle name="Nuovo 11 2" xfId="1627" xr:uid="{00000000-0005-0000-0000-0000140A0000}"/>
-    <cellStyle name="Nuovo 11 2 2" xfId="3536" xr:uid="{00000000-0005-0000-0000-0000150A0000}"/>
+    <cellStyle name="Nuovo 11 2 2" xfId="3535" xr:uid="{00000000-0005-0000-0000-0000150A0000}"/>
     <cellStyle name="Nuovo 11 3" xfId="1628" xr:uid="{00000000-0005-0000-0000-0000160A0000}"/>
     <cellStyle name="Nuovo 11 3 2" xfId="1629" xr:uid="{00000000-0005-0000-0000-0000170A0000}"/>
     <cellStyle name="Nuovo 11 3 2 2" xfId="1630" xr:uid="{00000000-0005-0000-0000-0000180A0000}"/>
-    <cellStyle name="Nuovo 11 3 2 3" xfId="3538" xr:uid="{00000000-0005-0000-0000-0000190A0000}"/>
-    <cellStyle name="Nuovo 11 3 3" xfId="3537" xr:uid="{00000000-0005-0000-0000-00001A0A0000}"/>
+    <cellStyle name="Nuovo 11 3 2 3" xfId="3537" xr:uid="{00000000-0005-0000-0000-0000190A0000}"/>
+    <cellStyle name="Nuovo 11 3 3" xfId="3536" xr:uid="{00000000-0005-0000-0000-00001A0A0000}"/>
     <cellStyle name="Nuovo 11 4" xfId="1631" xr:uid="{00000000-0005-0000-0000-00001B0A0000}"/>
     <cellStyle name="Nuovo 11 4 2" xfId="1632" xr:uid="{00000000-0005-0000-0000-00001C0A0000}"/>
-    <cellStyle name="Nuovo 11 4 2 2" xfId="3540" xr:uid="{00000000-0005-0000-0000-00001D0A0000}"/>
-    <cellStyle name="Nuovo 11 4 3" xfId="3539" xr:uid="{00000000-0005-0000-0000-00001E0A0000}"/>
+    <cellStyle name="Nuovo 11 4 2 2" xfId="3539" xr:uid="{00000000-0005-0000-0000-00001D0A0000}"/>
+    <cellStyle name="Nuovo 11 4 3" xfId="3538" xr:uid="{00000000-0005-0000-0000-00001E0A0000}"/>
     <cellStyle name="Nuovo 11 5" xfId="1633" xr:uid="{00000000-0005-0000-0000-00001F0A0000}"/>
-    <cellStyle name="Nuovo 11 6" xfId="3535" xr:uid="{00000000-0005-0000-0000-0000200A0000}"/>
+    <cellStyle name="Nuovo 11 6" xfId="3534" xr:uid="{00000000-0005-0000-0000-0000200A0000}"/>
     <cellStyle name="Nuovo 12" xfId="1634" xr:uid="{00000000-0005-0000-0000-0000210A0000}"/>
     <cellStyle name="Nuovo 12 2" xfId="1635" xr:uid="{00000000-0005-0000-0000-0000220A0000}"/>
-    <cellStyle name="Nuovo 12 2 2" xfId="3542" xr:uid="{00000000-0005-0000-0000-0000230A0000}"/>
+    <cellStyle name="Nuovo 12 2 2" xfId="3541" xr:uid="{00000000-0005-0000-0000-0000230A0000}"/>
     <cellStyle name="Nuovo 12 3" xfId="1636" xr:uid="{00000000-0005-0000-0000-0000240A0000}"/>
     <cellStyle name="Nuovo 12 3 2" xfId="1637" xr:uid="{00000000-0005-0000-0000-0000250A0000}"/>
     <cellStyle name="Nuovo 12 3 2 2" xfId="1638" xr:uid="{00000000-0005-0000-0000-0000260A0000}"/>
-    <cellStyle name="Nuovo 12 3 2 3" xfId="3544" xr:uid="{00000000-0005-0000-0000-0000270A0000}"/>
-    <cellStyle name="Nuovo 12 3 3" xfId="3543" xr:uid="{00000000-0005-0000-0000-0000280A0000}"/>
+    <cellStyle name="Nuovo 12 3 2 3" xfId="3543" xr:uid="{00000000-0005-0000-0000-0000270A0000}"/>
+    <cellStyle name="Nuovo 12 3 3" xfId="3542" xr:uid="{00000000-0005-0000-0000-0000280A0000}"/>
     <cellStyle name="Nuovo 12 4" xfId="1639" xr:uid="{00000000-0005-0000-0000-0000290A0000}"/>
     <cellStyle name="Nuovo 12 4 2" xfId="1640" xr:uid="{00000000-0005-0000-0000-00002A0A0000}"/>
-    <cellStyle name="Nuovo 12 4 2 2" xfId="3546" xr:uid="{00000000-0005-0000-0000-00002B0A0000}"/>
-    <cellStyle name="Nuovo 12 4 3" xfId="3545" xr:uid="{00000000-0005-0000-0000-00002C0A0000}"/>
+    <cellStyle name="Nuovo 12 4 2 2" xfId="3545" xr:uid="{00000000-0005-0000-0000-00002B0A0000}"/>
+    <cellStyle name="Nuovo 12 4 3" xfId="3544" xr:uid="{00000000-0005-0000-0000-00002C0A0000}"/>
     <cellStyle name="Nuovo 12 5" xfId="1641" xr:uid="{00000000-0005-0000-0000-00002D0A0000}"/>
-    <cellStyle name="Nuovo 12 6" xfId="3541" xr:uid="{00000000-0005-0000-0000-00002E0A0000}"/>
+    <cellStyle name="Nuovo 12 6" xfId="3540" xr:uid="{00000000-0005-0000-0000-00002E0A0000}"/>
     <cellStyle name="Nuovo 13" xfId="1642" xr:uid="{00000000-0005-0000-0000-00002F0A0000}"/>
     <cellStyle name="Nuovo 13 2" xfId="1643" xr:uid="{00000000-0005-0000-0000-0000300A0000}"/>
-    <cellStyle name="Nuovo 13 2 2" xfId="3548" xr:uid="{00000000-0005-0000-0000-0000310A0000}"/>
+    <cellStyle name="Nuovo 13 2 2" xfId="3547" xr:uid="{00000000-0005-0000-0000-0000310A0000}"/>
     <cellStyle name="Nuovo 13 3" xfId="1644" xr:uid="{00000000-0005-0000-0000-0000320A0000}"/>
     <cellStyle name="Nuovo 13 3 2" xfId="1645" xr:uid="{00000000-0005-0000-0000-0000330A0000}"/>
     <cellStyle name="Nuovo 13 3 2 2" xfId="1646" xr:uid="{00000000-0005-0000-0000-0000340A0000}"/>
-    <cellStyle name="Nuovo 13 3 2 3" xfId="3550" xr:uid="{00000000-0005-0000-0000-0000350A0000}"/>
-    <cellStyle name="Nuovo 13 3 3" xfId="3549" xr:uid="{00000000-0005-0000-0000-0000360A0000}"/>
+    <cellStyle name="Nuovo 13 3 2 3" xfId="3549" xr:uid="{00000000-0005-0000-0000-0000350A0000}"/>
+    <cellStyle name="Nuovo 13 3 3" xfId="3548" xr:uid="{00000000-0005-0000-0000-0000360A0000}"/>
     <cellStyle name="Nuovo 13 4" xfId="1647" xr:uid="{00000000-0005-0000-0000-0000370A0000}"/>
     <cellStyle name="Nuovo 13 4 2" xfId="1648" xr:uid="{00000000-0005-0000-0000-0000380A0000}"/>
-    <cellStyle name="Nuovo 13 4 2 2" xfId="3552" xr:uid="{00000000-0005-0000-0000-0000390A0000}"/>
-    <cellStyle name="Nuovo 13 4 3" xfId="3551" xr:uid="{00000000-0005-0000-0000-00003A0A0000}"/>
+    <cellStyle name="Nuovo 13 4 2 2" xfId="3551" xr:uid="{00000000-0005-0000-0000-0000390A0000}"/>
+    <cellStyle name="Nuovo 13 4 3" xfId="3550" xr:uid="{00000000-0005-0000-0000-00003A0A0000}"/>
     <cellStyle name="Nuovo 13 5" xfId="1649" xr:uid="{00000000-0005-0000-0000-00003B0A0000}"/>
-    <cellStyle name="Nuovo 13 6" xfId="3547" xr:uid="{00000000-0005-0000-0000-00003C0A0000}"/>
+    <cellStyle name="Nuovo 13 6" xfId="3546" xr:uid="{00000000-0005-0000-0000-00003C0A0000}"/>
     <cellStyle name="Nuovo 14" xfId="1650" xr:uid="{00000000-0005-0000-0000-00003D0A0000}"/>
     <cellStyle name="Nuovo 14 2" xfId="1651" xr:uid="{00000000-0005-0000-0000-00003E0A0000}"/>
-    <cellStyle name="Nuovo 14 2 2" xfId="3554" xr:uid="{00000000-0005-0000-0000-00003F0A0000}"/>
+    <cellStyle name="Nuovo 14 2 2" xfId="3553" xr:uid="{00000000-0005-0000-0000-00003F0A0000}"/>
     <cellStyle name="Nuovo 14 3" xfId="1652" xr:uid="{00000000-0005-0000-0000-0000400A0000}"/>
     <cellStyle name="Nuovo 14 3 2" xfId="1653" xr:uid="{00000000-0005-0000-0000-0000410A0000}"/>
     <cellStyle name="Nuovo 14 3 2 2" xfId="1654" xr:uid="{00000000-0005-0000-0000-0000420A0000}"/>
-    <cellStyle name="Nuovo 14 3 2 3" xfId="3556" xr:uid="{00000000-0005-0000-0000-0000430A0000}"/>
-    <cellStyle name="Nuovo 14 3 3" xfId="3555" xr:uid="{00000000-0005-0000-0000-0000440A0000}"/>
+    <cellStyle name="Nuovo 14 3 2 3" xfId="3555" xr:uid="{00000000-0005-0000-0000-0000430A0000}"/>
+    <cellStyle name="Nuovo 14 3 3" xfId="3554" xr:uid="{00000000-0005-0000-0000-0000440A0000}"/>
     <cellStyle name="Nuovo 14 4" xfId="1655" xr:uid="{00000000-0005-0000-0000-0000450A0000}"/>
     <cellStyle name="Nuovo 14 4 2" xfId="1656" xr:uid="{00000000-0005-0000-0000-0000460A0000}"/>
-    <cellStyle name="Nuovo 14 4 2 2" xfId="3558" xr:uid="{00000000-0005-0000-0000-0000470A0000}"/>
-    <cellStyle name="Nuovo 14 4 3" xfId="3557" xr:uid="{00000000-0005-0000-0000-0000480A0000}"/>
+    <cellStyle name="Nuovo 14 4 2 2" xfId="3557" xr:uid="{00000000-0005-0000-0000-0000470A0000}"/>
+    <cellStyle name="Nuovo 14 4 3" xfId="3556" xr:uid="{00000000-0005-0000-0000-0000480A0000}"/>
     <cellStyle name="Nuovo 14 5" xfId="1657" xr:uid="{00000000-0005-0000-0000-0000490A0000}"/>
-    <cellStyle name="Nuovo 14 6" xfId="3553" xr:uid="{00000000-0005-0000-0000-00004A0A0000}"/>
+    <cellStyle name="Nuovo 14 6" xfId="3552" xr:uid="{00000000-0005-0000-0000-00004A0A0000}"/>
     <cellStyle name="Nuovo 15" xfId="1658" xr:uid="{00000000-0005-0000-0000-00004B0A0000}"/>
     <cellStyle name="Nuovo 15 2" xfId="1659" xr:uid="{00000000-0005-0000-0000-00004C0A0000}"/>
-    <cellStyle name="Nuovo 15 2 2" xfId="3560" xr:uid="{00000000-0005-0000-0000-00004D0A0000}"/>
+    <cellStyle name="Nuovo 15 2 2" xfId="3559" xr:uid="{00000000-0005-0000-0000-00004D0A0000}"/>
     <cellStyle name="Nuovo 15 3" xfId="1660" xr:uid="{00000000-0005-0000-0000-00004E0A0000}"/>
     <cellStyle name="Nuovo 15 3 2" xfId="1661" xr:uid="{00000000-0005-0000-0000-00004F0A0000}"/>
     <cellStyle name="Nuovo 15 3 2 2" xfId="1662" xr:uid="{00000000-0005-0000-0000-0000500A0000}"/>
-    <cellStyle name="Nuovo 15 3 2 3" xfId="3562" xr:uid="{00000000-0005-0000-0000-0000510A0000}"/>
-    <cellStyle name="Nuovo 15 3 3" xfId="3561" xr:uid="{00000000-0005-0000-0000-0000520A0000}"/>
+    <cellStyle name="Nuovo 15 3 2 3" xfId="3561" xr:uid="{00000000-0005-0000-0000-0000510A0000}"/>
+    <cellStyle name="Nuovo 15 3 3" xfId="3560" xr:uid="{00000000-0005-0000-0000-0000520A0000}"/>
     <cellStyle name="Nuovo 15 4" xfId="1663" xr:uid="{00000000-0005-0000-0000-0000530A0000}"/>
     <cellStyle name="Nuovo 15 4 2" xfId="1664" xr:uid="{00000000-0005-0000-0000-0000540A0000}"/>
-    <cellStyle name="Nuovo 15 4 2 2" xfId="3564" xr:uid="{00000000-0005-0000-0000-0000550A0000}"/>
-    <cellStyle name="Nuovo 15 4 3" xfId="3563" xr:uid="{00000000-0005-0000-0000-0000560A0000}"/>
+    <cellStyle name="Nuovo 15 4 2 2" xfId="3563" xr:uid="{00000000-0005-0000-0000-0000550A0000}"/>
+    <cellStyle name="Nuovo 15 4 3" xfId="3562" xr:uid="{00000000-0005-0000-0000-0000560A0000}"/>
     <cellStyle name="Nuovo 15 5" xfId="1665" xr:uid="{00000000-0005-0000-0000-0000570A0000}"/>
-    <cellStyle name="Nuovo 15 6" xfId="3559" xr:uid="{00000000-0005-0000-0000-0000580A0000}"/>
+    <cellStyle name="Nuovo 15 6" xfId="3558" xr:uid="{00000000-0005-0000-0000-0000580A0000}"/>
     <cellStyle name="Nuovo 16" xfId="1666" xr:uid="{00000000-0005-0000-0000-0000590A0000}"/>
     <cellStyle name="Nuovo 16 2" xfId="1667" xr:uid="{00000000-0005-0000-0000-00005A0A0000}"/>
-    <cellStyle name="Nuovo 16 2 2" xfId="3566" xr:uid="{00000000-0005-0000-0000-00005B0A0000}"/>
+    <cellStyle name="Nuovo 16 2 2" xfId="3565" xr:uid="{00000000-0005-0000-0000-00005B0A0000}"/>
     <cellStyle name="Nuovo 16 3" xfId="1668" xr:uid="{00000000-0005-0000-0000-00005C0A0000}"/>
     <cellStyle name="Nuovo 16 3 2" xfId="1669" xr:uid="{00000000-0005-0000-0000-00005D0A0000}"/>
     <cellStyle name="Nuovo 16 3 2 2" xfId="1670" xr:uid="{00000000-0005-0000-0000-00005E0A0000}"/>
-    <cellStyle name="Nuovo 16 3 2 3" xfId="3568" xr:uid="{00000000-0005-0000-0000-00005F0A0000}"/>
-    <cellStyle name="Nuovo 16 3 3" xfId="3567" xr:uid="{00000000-0005-0000-0000-0000600A0000}"/>
+    <cellStyle name="Nuovo 16 3 2 3" xfId="3567" xr:uid="{00000000-0005-0000-0000-00005F0A0000}"/>
+    <cellStyle name="Nuovo 16 3 3" xfId="3566" xr:uid="{00000000-0005-0000-0000-0000600A0000}"/>
     <cellStyle name="Nuovo 16 4" xfId="1671" xr:uid="{00000000-0005-0000-0000-0000610A0000}"/>
     <cellStyle name="Nuovo 16 4 2" xfId="1672" xr:uid="{00000000-0005-0000-0000-0000620A0000}"/>
-    <cellStyle name="Nuovo 16 4 2 2" xfId="3570" xr:uid="{00000000-0005-0000-0000-0000630A0000}"/>
-    <cellStyle name="Nuovo 16 4 3" xfId="3569" xr:uid="{00000000-0005-0000-0000-0000640A0000}"/>
+    <cellStyle name="Nuovo 16 4 2 2" xfId="3569" xr:uid="{00000000-0005-0000-0000-0000630A0000}"/>
+    <cellStyle name="Nuovo 16 4 3" xfId="3568" xr:uid="{00000000-0005-0000-0000-0000640A0000}"/>
     <cellStyle name="Nuovo 16 5" xfId="1673" xr:uid="{00000000-0005-0000-0000-0000650A0000}"/>
-    <cellStyle name="Nuovo 16 6" xfId="3565" xr:uid="{00000000-0005-0000-0000-0000660A0000}"/>
+    <cellStyle name="Nuovo 16 6" xfId="3564" xr:uid="{00000000-0005-0000-0000-0000660A0000}"/>
     <cellStyle name="Nuovo 17" xfId="1674" xr:uid="{00000000-0005-0000-0000-0000670A0000}"/>
     <cellStyle name="Nuovo 17 2" xfId="1675" xr:uid="{00000000-0005-0000-0000-0000680A0000}"/>
-    <cellStyle name="Nuovo 17 2 2" xfId="3572" xr:uid="{00000000-0005-0000-0000-0000690A0000}"/>
+    <cellStyle name="Nuovo 17 2 2" xfId="3571" xr:uid="{00000000-0005-0000-0000-0000690A0000}"/>
     <cellStyle name="Nuovo 17 3" xfId="1676" xr:uid="{00000000-0005-0000-0000-00006A0A0000}"/>
     <cellStyle name="Nuovo 17 3 2" xfId="1677" xr:uid="{00000000-0005-0000-0000-00006B0A0000}"/>
     <cellStyle name="Nuovo 17 3 2 2" xfId="1678" xr:uid="{00000000-0005-0000-0000-00006C0A0000}"/>
-    <cellStyle name="Nuovo 17 3 2 3" xfId="3574" xr:uid="{00000000-0005-0000-0000-00006D0A0000}"/>
-    <cellStyle name="Nuovo 17 3 3" xfId="3573" xr:uid="{00000000-0005-0000-0000-00006E0A0000}"/>
+    <cellStyle name="Nuovo 17 3 2 3" xfId="3573" xr:uid="{00000000-0005-0000-0000-00006D0A0000}"/>
+    <cellStyle name="Nuovo 17 3 3" xfId="3572" xr:uid="{00000000-0005-0000-0000-00006E0A0000}"/>
     <cellStyle name="Nuovo 17 4" xfId="1679" xr:uid="{00000000-0005-0000-0000-00006F0A0000}"/>
     <cellStyle name="Nuovo 17 4 2" xfId="1680" xr:uid="{00000000-0005-0000-0000-0000700A0000}"/>
-    <cellStyle name="Nuovo 17 4 2 2" xfId="3576" xr:uid="{00000000-0005-0000-0000-0000710A0000}"/>
-    <cellStyle name="Nuovo 17 4 3" xfId="3575" xr:uid="{00000000-0005-0000-0000-0000720A0000}"/>
+    <cellStyle name="Nuovo 17 4 2 2" xfId="3575" xr:uid="{00000000-0005-0000-0000-0000710A0000}"/>
+    <cellStyle name="Nuovo 17 4 3" xfId="3574" xr:uid="{00000000-0005-0000-0000-0000720A0000}"/>
     <cellStyle name="Nuovo 17 5" xfId="1681" xr:uid="{00000000-0005-0000-0000-0000730A0000}"/>
-    <cellStyle name="Nuovo 17 6" xfId="3571" xr:uid="{00000000-0005-0000-0000-0000740A0000}"/>
+    <cellStyle name="Nuovo 17 6" xfId="3570" xr:uid="{00000000-0005-0000-0000-0000740A0000}"/>
     <cellStyle name="Nuovo 18" xfId="1682" xr:uid="{00000000-0005-0000-0000-0000750A0000}"/>
     <cellStyle name="Nuovo 18 2" xfId="1683" xr:uid="{00000000-0005-0000-0000-0000760A0000}"/>
-    <cellStyle name="Nuovo 18 2 2" xfId="3578" xr:uid="{00000000-0005-0000-0000-0000770A0000}"/>
+    <cellStyle name="Nuovo 18 2 2" xfId="3577" xr:uid="{00000000-0005-0000-0000-0000770A0000}"/>
     <cellStyle name="Nuovo 18 3" xfId="1684" xr:uid="{00000000-0005-0000-0000-0000780A0000}"/>
     <cellStyle name="Nuovo 18 3 2" xfId="1685" xr:uid="{00000000-0005-0000-0000-0000790A0000}"/>
     <cellStyle name="Nuovo 18 3 2 2" xfId="1686" xr:uid="{00000000-0005-0000-0000-00007A0A0000}"/>
-    <cellStyle name="Nuovo 18 3 2 3" xfId="3580" xr:uid="{00000000-0005-0000-0000-00007B0A0000}"/>
-    <cellStyle name="Nuovo 18 3 3" xfId="3579" xr:uid="{00000000-0005-0000-0000-00007C0A0000}"/>
+    <cellStyle name="Nuovo 18 3 2 3" xfId="3579" xr:uid="{00000000-0005-0000-0000-00007B0A0000}"/>
+    <cellStyle name="Nuovo 18 3 3" xfId="3578" xr:uid="{00000000-0005-0000-0000-00007C0A0000}"/>
     <cellStyle name="Nuovo 18 4" xfId="1687" xr:uid="{00000000-0005-0000-0000-00007D0A0000}"/>
     <cellStyle name="Nuovo 18 4 2" xfId="1688" xr:uid="{00000000-0005-0000-0000-00007E0A0000}"/>
-    <cellStyle name="Nuovo 18 4 2 2" xfId="3582" xr:uid="{00000000-0005-0000-0000-00007F0A0000}"/>
-    <cellStyle name="Nuovo 18 4 3" xfId="3581" xr:uid="{00000000-0005-0000-0000-0000800A0000}"/>
+    <cellStyle name="Nuovo 18 4 2 2" xfId="3581" xr:uid="{00000000-0005-0000-0000-00007F0A0000}"/>
+    <cellStyle name="Nuovo 18 4 3" xfId="3580" xr:uid="{00000000-0005-0000-0000-0000800A0000}"/>
     <cellStyle name="Nuovo 18 5" xfId="1689" xr:uid="{00000000-0005-0000-0000-0000810A0000}"/>
-    <cellStyle name="Nuovo 18 6" xfId="3577" xr:uid="{00000000-0005-0000-0000-0000820A0000}"/>
+    <cellStyle name="Nuovo 18 6" xfId="3576" xr:uid="{00000000-0005-0000-0000-0000820A0000}"/>
     <cellStyle name="Nuovo 19" xfId="1690" xr:uid="{00000000-0005-0000-0000-0000830A0000}"/>
     <cellStyle name="Nuovo 19 2" xfId="1691" xr:uid="{00000000-0005-0000-0000-0000840A0000}"/>
-    <cellStyle name="Nuovo 19 2 2" xfId="3584" xr:uid="{00000000-0005-0000-0000-0000850A0000}"/>
+    <cellStyle name="Nuovo 19 2 2" xfId="3583" xr:uid="{00000000-0005-0000-0000-0000850A0000}"/>
     <cellStyle name="Nuovo 19 3" xfId="1692" xr:uid="{00000000-0005-0000-0000-0000860A0000}"/>
     <cellStyle name="Nuovo 19 3 2" xfId="1693" xr:uid="{00000000-0005-0000-0000-0000870A0000}"/>
     <cellStyle name="Nuovo 19 3 2 2" xfId="1694" xr:uid="{00000000-0005-0000-0000-0000880A0000}"/>
-    <cellStyle name="Nuovo 19 3 2 3" xfId="3586" xr:uid="{00000000-0005-0000-0000-0000890A0000}"/>
-    <cellStyle name="Nuovo 19 3 3" xfId="3585" xr:uid="{00000000-0005-0000-0000-00008A0A0000}"/>
+    <cellStyle name="Nuovo 19 3 2 3" xfId="3585" xr:uid="{00000000-0005-0000-0000-0000890A0000}"/>
+    <cellStyle name="Nuovo 19 3 3" xfId="3584" xr:uid="{00000000-0005-0000-0000-00008A0A0000}"/>
     <cellStyle name="Nuovo 19 4" xfId="1695" xr:uid="{00000000-0005-0000-0000-00008B0A0000}"/>
     <cellStyle name="Nuovo 19 4 2" xfId="1696" xr:uid="{00000000-0005-0000-0000-00008C0A0000}"/>
-    <cellStyle name="Nuovo 19 4 2 2" xfId="3588" xr:uid="{00000000-0005-0000-0000-00008D0A0000}"/>
-    <cellStyle name="Nuovo 19 4 3" xfId="3587" xr:uid="{00000000-0005-0000-0000-00008E0A0000}"/>
+    <cellStyle name="Nuovo 19 4 2 2" xfId="3587" xr:uid="{00000000-0005-0000-0000-00008D0A0000}"/>
+    <cellStyle name="Nuovo 19 4 3" xfId="3586" xr:uid="{00000000-0005-0000-0000-00008E0A0000}"/>
     <cellStyle name="Nuovo 19 5" xfId="1697" xr:uid="{00000000-0005-0000-0000-00008F0A0000}"/>
-    <cellStyle name="Nuovo 19 6" xfId="3583" xr:uid="{00000000-0005-0000-0000-0000900A0000}"/>
+    <cellStyle name="Nuovo 19 6" xfId="3582" xr:uid="{00000000-0005-0000-0000-0000900A0000}"/>
     <cellStyle name="Nuovo 2" xfId="1698" xr:uid="{00000000-0005-0000-0000-0000910A0000}"/>
     <cellStyle name="Nuovo 2 2" xfId="1699" xr:uid="{00000000-0005-0000-0000-0000920A0000}"/>
-    <cellStyle name="Nuovo 2 2 2" xfId="3590" xr:uid="{00000000-0005-0000-0000-0000930A0000}"/>
+    <cellStyle name="Nuovo 2 2 2" xfId="3589" xr:uid="{00000000-0005-0000-0000-0000930A0000}"/>
     <cellStyle name="Nuovo 2 3" xfId="1700" xr:uid="{00000000-0005-0000-0000-0000940A0000}"/>
     <cellStyle name="Nuovo 2 3 2" xfId="1701" xr:uid="{00000000-0005-0000-0000-0000950A0000}"/>
     <cellStyle name="Nuovo 2 3 2 2" xfId="1702" xr:uid="{00000000-0005-0000-0000-0000960A0000}"/>
-    <cellStyle name="Nuovo 2 3 2 3" xfId="3592" xr:uid="{00000000-0005-0000-0000-0000970A0000}"/>
-    <cellStyle name="Nuovo 2 3 3" xfId="3591" xr:uid="{00000000-0005-0000-0000-0000980A0000}"/>
+    <cellStyle name="Nuovo 2 3 2 3" xfId="3591" xr:uid="{00000000-0005-0000-0000-0000970A0000}"/>
+    <cellStyle name="Nuovo 2 3 3" xfId="3590" xr:uid="{00000000-0005-0000-0000-0000980A0000}"/>
     <cellStyle name="Nuovo 2 4" xfId="1703" xr:uid="{00000000-0005-0000-0000-0000990A0000}"/>
     <cellStyle name="Nuovo 2 4 2" xfId="1704" xr:uid="{00000000-0005-0000-0000-00009A0A0000}"/>
-    <cellStyle name="Nuovo 2 4 2 2" xfId="3594" xr:uid="{00000000-0005-0000-0000-00009B0A0000}"/>
-    <cellStyle name="Nuovo 2 4 3" xfId="3593" xr:uid="{00000000-0005-0000-0000-00009C0A0000}"/>
+    <cellStyle name="Nuovo 2 4 2 2" xfId="3593" xr:uid="{00000000-0005-0000-0000-00009B0A0000}"/>
+    <cellStyle name="Nuovo 2 4 3" xfId="3592" xr:uid="{00000000-0005-0000-0000-00009C0A0000}"/>
     <cellStyle name="Nuovo 2 5" xfId="1705" xr:uid="{00000000-0005-0000-0000-00009D0A0000}"/>
-    <cellStyle name="Nuovo 2 6" xfId="3589" xr:uid="{00000000-0005-0000-0000-00009E0A0000}"/>
+    <cellStyle name="Nuovo 2 6" xfId="3588" xr:uid="{00000000-0005-0000-0000-00009E0A0000}"/>
     <cellStyle name="Nuovo 20" xfId="1706" xr:uid="{00000000-0005-0000-0000-00009F0A0000}"/>
     <cellStyle name="Nuovo 20 2" xfId="1707" xr:uid="{00000000-0005-0000-0000-0000A00A0000}"/>
-    <cellStyle name="Nuovo 20 2 2" xfId="3596" xr:uid="{00000000-0005-0000-0000-0000A10A0000}"/>
+    <cellStyle name="Nuovo 20 2 2" xfId="3595" xr:uid="{00000000-0005-0000-0000-0000A10A0000}"/>
     <cellStyle name="Nuovo 20 3" xfId="1708" xr:uid="{00000000-0005-0000-0000-0000A20A0000}"/>
     <cellStyle name="Nuovo 20 3 2" xfId="1709" xr:uid="{00000000-0005-0000-0000-0000A30A0000}"/>
     <cellStyle name="Nuovo 20 3 2 2" xfId="1710" xr:uid="{00000000-0005-0000-0000-0000A40A0000}"/>
-    <cellStyle name="Nuovo 20 3 2 3" xfId="3598" xr:uid="{00000000-0005-0000-0000-0000A50A0000}"/>
-    <cellStyle name="Nuovo 20 3 3" xfId="3597" xr:uid="{00000000-0005-0000-0000-0000A60A0000}"/>
+    <cellStyle name="Nuovo 20 3 2 3" xfId="3597" xr:uid="{00000000-0005-0000-0000-0000A50A0000}"/>
+    <cellStyle name="Nuovo 20 3 3" xfId="3596" xr:uid="{00000000-0005-0000-0000-0000A60A0000}"/>
     <cellStyle name="Nuovo 20 4" xfId="1711" xr:uid="{00000000-0005-0000-0000-0000A70A0000}"/>
     <cellStyle name="Nuovo 20 4 2" xfId="1712" xr:uid="{00000000-0005-0000-0000-0000A80A0000}"/>
-    <cellStyle name="Nuovo 20 4 2 2" xfId="3600" xr:uid="{00000000-0005-0000-0000-0000A90A0000}"/>
-    <cellStyle name="Nuovo 20 4 3" xfId="3599" xr:uid="{00000000-0005-0000-0000-0000AA0A0000}"/>
+    <cellStyle name="Nuovo 20 4 2 2" xfId="3599" xr:uid="{00000000-0005-0000-0000-0000A90A0000}"/>
+    <cellStyle name="Nuovo 20 4 3" xfId="3598" xr:uid="{00000000-0005-0000-0000-0000AA0A0000}"/>
     <cellStyle name="Nuovo 20 5" xfId="1713" xr:uid="{00000000-0005-0000-0000-0000AB0A0000}"/>
-    <cellStyle name="Nuovo 20 6" xfId="3595" xr:uid="{00000000-0005-0000-0000-0000AC0A0000}"/>
+    <cellStyle name="Nuovo 20 6" xfId="3594" xr:uid="{00000000-0005-0000-0000-0000AC0A0000}"/>
     <cellStyle name="Nuovo 21" xfId="1714" xr:uid="{00000000-0005-0000-0000-0000AD0A0000}"/>
     <cellStyle name="Nuovo 21 2" xfId="1715" xr:uid="{00000000-0005-0000-0000-0000AE0A0000}"/>
-    <cellStyle name="Nuovo 21 2 2" xfId="3602" xr:uid="{00000000-0005-0000-0000-0000AF0A0000}"/>
+    <cellStyle name="Nuovo 21 2 2" xfId="3601" xr:uid="{00000000-0005-0000-0000-0000AF0A0000}"/>
     <cellStyle name="Nuovo 21 3" xfId="1716" xr:uid="{00000000-0005-0000-0000-0000B00A0000}"/>
     <cellStyle name="Nuovo 21 3 2" xfId="1717" xr:uid="{00000000-0005-0000-0000-0000B10A0000}"/>
     <cellStyle name="Nuovo 21 3 2 2" xfId="1718" xr:uid="{00000000-0005-0000-0000-0000B20A0000}"/>
-    <cellStyle name="Nuovo 21 3 2 3" xfId="3604" xr:uid="{00000000-0005-0000-0000-0000B30A0000}"/>
-    <cellStyle name="Nuovo 21 3 3" xfId="3603" xr:uid="{00000000-0005-0000-0000-0000B40A0000}"/>
+    <cellStyle name="Nuovo 21 3 2 3" xfId="3603" xr:uid="{00000000-0005-0000-0000-0000B30A0000}"/>
+    <cellStyle name="Nuovo 21 3 3" xfId="3602" xr:uid="{00000000-0005-0000-0000-0000B40A0000}"/>
     <cellStyle name="Nuovo 21 4" xfId="1719" xr:uid="{00000000-0005-0000-0000-0000B50A0000}"/>
     <cellStyle name="Nuovo 21 4 2" xfId="1720" xr:uid="{00000000-0005-0000-0000-0000B60A0000}"/>
-    <cellStyle name="Nuovo 21 4 2 2" xfId="3606" xr:uid="{00000000-0005-0000-0000-0000B70A0000}"/>
-    <cellStyle name="Nuovo 21 4 3" xfId="3605" xr:uid="{00000000-0005-0000-0000-0000B80A0000}"/>
+    <cellStyle name="Nuovo 21 4 2 2" xfId="3605" xr:uid="{00000000-0005-0000-0000-0000B70A0000}"/>
+    <cellStyle name="Nuovo 21 4 3" xfId="3604" xr:uid="{00000000-0005-0000-0000-0000B80A0000}"/>
     <cellStyle name="Nuovo 21 5" xfId="1721" xr:uid="{00000000-0005-0000-0000-0000B90A0000}"/>
-    <cellStyle name="Nuovo 21 6" xfId="3601" xr:uid="{00000000-0005-0000-0000-0000BA0A0000}"/>
+    <cellStyle name="Nuovo 21 6" xfId="3600" xr:uid="{00000000-0005-0000-0000-0000BA0A0000}"/>
     <cellStyle name="Nuovo 22" xfId="1722" xr:uid="{00000000-0005-0000-0000-0000BB0A0000}"/>
     <cellStyle name="Nuovo 22 2" xfId="1723" xr:uid="{00000000-0005-0000-0000-0000BC0A0000}"/>
-    <cellStyle name="Nuovo 22 2 2" xfId="3608" xr:uid="{00000000-0005-0000-0000-0000BD0A0000}"/>
+    <cellStyle name="Nuovo 22 2 2" xfId="3607" xr:uid="{00000000-0005-0000-0000-0000BD0A0000}"/>
     <cellStyle name="Nuovo 22 3" xfId="1724" xr:uid="{00000000-0005-0000-0000-0000BE0A0000}"/>
     <cellStyle name="Nuovo 22 3 2" xfId="1725" xr:uid="{00000000-0005-0000-0000-0000BF0A0000}"/>
     <cellStyle name="Nuovo 22 3 2 2" xfId="1726" xr:uid="{00000000-0005-0000-0000-0000C00A0000}"/>
-    <cellStyle name="Nuovo 22 3 2 3" xfId="3610" xr:uid="{00000000-0005-0000-0000-0000C10A0000}"/>
-    <cellStyle name="Nuovo 22 3 3" xfId="3609" xr:uid="{00000000-0005-0000-0000-0000C20A0000}"/>
+    <cellStyle name="Nuovo 22 3 2 3" xfId="3609" xr:uid="{00000000-0005-0000-0000-0000C10A0000}"/>
+    <cellStyle name="Nuovo 22 3 3" xfId="3608" xr:uid="{00000000-0005-0000-0000-0000C20A0000}"/>
     <cellStyle name="Nuovo 22 4" xfId="1727" xr:uid="{00000000-0005-0000-0000-0000C30A0000}"/>
     <cellStyle name="Nuovo 22 4 2" xfId="1728" xr:uid="{00000000-0005-0000-0000-0000C40A0000}"/>
-    <cellStyle name="Nuovo 22 4 2 2" xfId="3612" xr:uid="{00000000-0005-0000-0000-0000C50A0000}"/>
-    <cellStyle name="Nuovo 22 4 3" xfId="3611" xr:uid="{00000000-0005-0000-0000-0000C60A0000}"/>
+    <cellStyle name="Nuovo 22 4 2 2" xfId="3611" xr:uid="{00000000-0005-0000-0000-0000C50A0000}"/>
+    <cellStyle name="Nuovo 22 4 3" xfId="3610" xr:uid="{00000000-0005-0000-0000-0000C60A0000}"/>
     <cellStyle name="Nuovo 22 5" xfId="1729" xr:uid="{00000000-0005-0000-0000-0000C70A0000}"/>
-    <cellStyle name="Nuovo 22 6" xfId="3607" xr:uid="{00000000-0005-0000-0000-0000C80A0000}"/>
+    <cellStyle name="Nuovo 22 6" xfId="3606" xr:uid="{00000000-0005-0000-0000-0000C80A0000}"/>
     <cellStyle name="Nuovo 23" xfId="1730" xr:uid="{00000000-0005-0000-0000-0000C90A0000}"/>
     <cellStyle name="Nuovo 23 2" xfId="1731" xr:uid="{00000000-0005-0000-0000-0000CA0A0000}"/>
-    <cellStyle name="Nuovo 23 2 2" xfId="3614" xr:uid="{00000000-0005-0000-0000-0000CB0A0000}"/>
+    <cellStyle name="Nuovo 23 2 2" xfId="3613" xr:uid="{00000000-0005-0000-0000-0000CB0A0000}"/>
     <cellStyle name="Nuovo 23 3" xfId="1732" xr:uid="{00000000-0005-0000-0000-0000CC0A0000}"/>
     <cellStyle name="Nuovo 23 3 2" xfId="1733" xr:uid="{00000000-0005-0000-0000-0000CD0A0000}"/>
     <cellStyle name="Nuovo 23 3 2 2" xfId="1734" xr:uid="{00000000-0005-0000-0000-0000CE0A0000}"/>
-    <cellStyle name="Nuovo 23 3 2 3" xfId="3616" xr:uid="{00000000-0005-0000-0000-0000CF0A0000}"/>
-    <cellStyle name="Nuovo 23 3 3" xfId="3615" xr:uid="{00000000-0005-0000-0000-0000D00A0000}"/>
+    <cellStyle name="Nuovo 23 3 2 3" xfId="3615" xr:uid="{00000000-0005-0000-0000-0000CF0A0000}"/>
+    <cellStyle name="Nuovo 23 3 3" xfId="3614" xr:uid="{00000000-0005-0000-0000-0000D00A0000}"/>
     <cellStyle name="Nuovo 23 4" xfId="1735" xr:uid="{00000000-0005-0000-0000-0000D10A0000}"/>
     <cellStyle name="Nuovo 23 4 2" xfId="1736" xr:uid="{00000000-0005-0000-0000-0000D20A0000}"/>
-    <cellStyle name="Nuovo 23 4 2 2" xfId="3618" xr:uid="{00000000-0005-0000-0000-0000D30A0000}"/>
-    <cellStyle name="Nuovo 23 4 3" xfId="3617" xr:uid="{00000000-0005-0000-0000-0000D40A0000}"/>
+    <cellStyle name="Nuovo 23 4 2 2" xfId="3617" xr:uid="{00000000-0005-0000-0000-0000D30A0000}"/>
+    <cellStyle name="Nuovo 23 4 3" xfId="3616" xr:uid="{00000000-0005-0000-0000-0000D40A0000}"/>
     <cellStyle name="Nuovo 23 5" xfId="1737" xr:uid="{00000000-0005-0000-0000-0000D50A0000}"/>
-    <cellStyle name="Nuovo 23 6" xfId="3613" xr:uid="{00000000-0005-0000-0000-0000D60A0000}"/>
+    <cellStyle name="Nuovo 23 6" xfId="3612" xr:uid="{00000000-0005-0000-0000-0000D60A0000}"/>
     <cellStyle name="Nuovo 24" xfId="1738" xr:uid="{00000000-0005-0000-0000-0000D70A0000}"/>
     <cellStyle name="Nuovo 24 2" xfId="1739" xr:uid="{00000000-0005-0000-0000-0000D80A0000}"/>
-    <cellStyle name="Nuovo 24 2 2" xfId="3620" xr:uid="{00000000-0005-0000-0000-0000D90A0000}"/>
+    <cellStyle name="Nuovo 24 2 2" xfId="3619" xr:uid="{00000000-0005-0000-0000-0000D90A0000}"/>
     <cellStyle name="Nuovo 24 3" xfId="1740" xr:uid="{00000000-0005-0000-0000-0000DA0A0000}"/>
     <cellStyle name="Nuovo 24 3 2" xfId="1741" xr:uid="{00000000-0005-0000-0000-0000DB0A0000}"/>
     <cellStyle name="Nuovo 24 3 2 2" xfId="1742" xr:uid="{00000000-0005-0000-0000-0000DC0A0000}"/>
-    <cellStyle name="Nuovo 24 3 2 3" xfId="3622" xr:uid="{00000000-0005-0000-0000-0000DD0A0000}"/>
-    <cellStyle name="Nuovo 24 3 3" xfId="3621" xr:uid="{00000000-0005-0000-0000-0000DE0A0000}"/>
+    <cellStyle name="Nuovo 24 3 2 3" xfId="3621" xr:uid="{00000000-0005-0000-0000-0000DD0A0000}"/>
+    <cellStyle name="Nuovo 24 3 3" xfId="3620" xr:uid="{00000000-0005-0000-0000-0000DE0A0000}"/>
     <cellStyle name="Nuovo 24 4" xfId="1743" xr:uid="{00000000-0005-0000-0000-0000DF0A0000}"/>
     <cellStyle name="Nuovo 24 4 2" xfId="1744" xr:uid="{00000000-0005-0000-0000-0000E00A0000}"/>
-    <cellStyle name="Nuovo 24 4 2 2" xfId="3624" xr:uid="{00000000-0005-0000-0000-0000E10A0000}"/>
-    <cellStyle name="Nuovo 24 4 3" xfId="3623" xr:uid="{00000000-0005-0000-0000-0000E20A0000}"/>
+    <cellStyle name="Nuovo 24 4 2 2" xfId="3623" xr:uid="{00000000-0005-0000-0000-0000E10A0000}"/>
+    <cellStyle name="Nuovo 24 4 3" xfId="3622" xr:uid="{00000000-0005-0000-0000-0000E20A0000}"/>
     <cellStyle name="Nuovo 24 5" xfId="1745" xr:uid="{00000000-0005-0000-0000-0000E30A0000}"/>
-    <cellStyle name="Nuovo 24 6" xfId="3619" xr:uid="{00000000-0005-0000-0000-0000E40A0000}"/>
+    <cellStyle name="Nuovo 24 6" xfId="3618" xr:uid="{00000000-0005-0000-0000-0000E40A0000}"/>
     <cellStyle name="Nuovo 25" xfId="1746" xr:uid="{00000000-0005-0000-0000-0000E50A0000}"/>
     <cellStyle name="Nuovo 25 2" xfId="1747" xr:uid="{00000000-0005-0000-0000-0000E60A0000}"/>
-    <cellStyle name="Nuovo 25 2 2" xfId="3626" xr:uid="{00000000-0005-0000-0000-0000E70A0000}"/>
+    <cellStyle name="Nuovo 25 2 2" xfId="3625" xr:uid="{00000000-0005-0000-0000-0000E70A0000}"/>
     <cellStyle name="Nuovo 25 3" xfId="1748" xr:uid="{00000000-0005-0000-0000-0000E80A0000}"/>
     <cellStyle name="Nuovo 25 3 2" xfId="1749" xr:uid="{00000000-0005-0000-0000-0000E90A0000}"/>
     <cellStyle name="Nuovo 25 3 2 2" xfId="1750" xr:uid="{00000000-0005-0000-0000-0000EA0A0000}"/>
-    <cellStyle name="Nuovo 25 3 2 3" xfId="3628" xr:uid="{00000000-0005-0000-0000-0000EB0A0000}"/>
-    <cellStyle name="Nuovo 25 3 3" xfId="3627" xr:uid="{00000000-0005-0000-0000-0000EC0A0000}"/>
+    <cellStyle name="Nuovo 25 3 2 3" xfId="3627" xr:uid="{00000000-0005-0000-0000-0000EB0A0000}"/>
+    <cellStyle name="Nuovo 25 3 3" xfId="3626" xr:uid="{00000000-0005-0000-0000-0000EC0A0000}"/>
     <cellStyle name="Nuovo 25 4" xfId="1751" xr:uid="{00000000-0005-0000-0000-0000ED0A0000}"/>
     <cellStyle name="Nuovo 25 4 2" xfId="1752" xr:uid="{00000000-0005-0000-0000-0000EE0A0000}"/>
-    <cellStyle name="Nuovo 25 4 2 2" xfId="3630" xr:uid="{00000000-0005-0000-0000-0000EF0A0000}"/>
-    <cellStyle name="Nuovo 25 4 3" xfId="3629" xr:uid="{00000000-0005-0000-0000-0000F00A0000}"/>
+    <cellStyle name="Nuovo 25 4 2 2" xfId="3629" xr:uid="{00000000-0005-0000-0000-0000EF0A0000}"/>
+    <cellStyle name="Nuovo 25 4 3" xfId="3628" xr:uid="{00000000-0005-0000-0000-0000F00A0000}"/>
     <cellStyle name="Nuovo 25 5" xfId="1753" xr:uid="{00000000-0005-0000-0000-0000F10A0000}"/>
-    <cellStyle name="Nuovo 25 6" xfId="3625" xr:uid="{00000000-0005-0000-0000-0000F20A0000}"/>
+    <cellStyle name="Nuovo 25 6" xfId="3624" xr:uid="{00000000-0005-0000-0000-0000F20A0000}"/>
     <cellStyle name="Nuovo 26" xfId="1754" xr:uid="{00000000-0005-0000-0000-0000F30A0000}"/>
     <cellStyle name="Nuovo 26 2" xfId="1755" xr:uid="{00000000-0005-0000-0000-0000F40A0000}"/>
-    <cellStyle name="Nuovo 26 2 2" xfId="3632" xr:uid="{00000000-0005-0000-0000-0000F50A0000}"/>
+    <cellStyle name="Nuovo 26 2 2" xfId="3631" xr:uid="{00000000-0005-0000-0000-0000F50A0000}"/>
     <cellStyle name="Nuovo 26 3" xfId="1756" xr:uid="{00000000-0005-0000-0000-0000F60A0000}"/>
     <cellStyle name="Nuovo 26 3 2" xfId="1757" xr:uid="{00000000-0005-0000-0000-0000F70A0000}"/>
     <cellStyle name="Nuovo 26 3 2 2" xfId="1758" xr:uid="{00000000-0005-0000-0000-0000F80A0000}"/>
-    <cellStyle name="Nuovo 26 3 2 3" xfId="3634" xr:uid="{00000000-0005-0000-0000-0000F90A0000}"/>
-    <cellStyle name="Nuovo 26 3 3" xfId="3633" xr:uid="{00000000-0005-0000-0000-0000FA0A0000}"/>
+    <cellStyle name="Nuovo 26 3 2 3" xfId="3633" xr:uid="{00000000-0005-0000-0000-0000F90A0000}"/>
+    <cellStyle name="Nuovo 26 3 3" xfId="3632" xr:uid="{00000000-0005-0000-0000-0000FA0A0000}"/>
     <cellStyle name="Nuovo 26 4" xfId="1759" xr:uid="{00000000-0005-0000-0000-0000FB0A0000}"/>
     <cellStyle name="Nuovo 26 4 2" xfId="1760" xr:uid="{00000000-0005-0000-0000-0000FC0A0000}"/>
-    <cellStyle name="Nuovo 26 4 2 2" xfId="3636" xr:uid="{00000000-0005-0000-0000-0000FD0A0000}"/>
-    <cellStyle name="Nuovo 26 4 3" xfId="3635" xr:uid="{00000000-0005-0000-0000-0000FE0A0000}"/>
+    <cellStyle name="Nuovo 26 4 2 2" xfId="3635" xr:uid="{00000000-0005-0000-0000-0000FD0A0000}"/>
+    <cellStyle name="Nuovo 26 4 3" xfId="3634" xr:uid="{00000000-0005-0000-0000-0000FE0A0000}"/>
     <cellStyle name="Nuovo 26 5" xfId="1761" xr:uid="{00000000-0005-0000-0000-0000FF0A0000}"/>
-    <cellStyle name="Nuovo 26 6" xfId="3631" xr:uid="{00000000-0005-0000-0000-0000000B0000}"/>
+    <cellStyle name="Nuovo 26 6" xfId="3630" xr:uid="{00000000-0005-0000-0000-0000000B0000}"/>
     <cellStyle name="Nuovo 27" xfId="1762" xr:uid="{00000000-0005-0000-0000-0000010B0000}"/>
     <cellStyle name="Nuovo 27 2" xfId="1763" xr:uid="{00000000-0005-0000-0000-0000020B0000}"/>
-    <cellStyle name="Nuovo 27 2 2" xfId="3638" xr:uid="{00000000-0005-0000-0000-0000030B0000}"/>
+    <cellStyle name="Nuovo 27 2 2" xfId="3637" xr:uid="{00000000-0005-0000-0000-0000030B0000}"/>
     <cellStyle name="Nuovo 27 3" xfId="1764" xr:uid="{00000000-0005-0000-0000-0000040B0000}"/>
     <cellStyle name="Nuovo 27 3 2" xfId="1765" xr:uid="{00000000-0005-0000-0000-0000050B0000}"/>
     <cellStyle name="Nuovo 27 3 2 2" xfId="1766" xr:uid="{00000000-0005-0000-0000-0000060B0000}"/>
-    <cellStyle name="Nuovo 27 3 2 3" xfId="3640" xr:uid="{00000000-0005-0000-0000-0000070B0000}"/>
-    <cellStyle name="Nuovo 27 3 3" xfId="3639" xr:uid="{00000000-0005-0000-0000-0000080B0000}"/>
+    <cellStyle name="Nuovo 27 3 2 3" xfId="3639" xr:uid="{00000000-0005-0000-0000-0000070B0000}"/>
+    <cellStyle name="Nuovo 27 3 3" xfId="3638" xr:uid="{00000000-0005-0000-0000-0000080B0000}"/>
     <cellStyle name="Nuovo 27 4" xfId="1767" xr:uid="{00000000-0005-0000-0000-0000090B0000}"/>
     <cellStyle name="Nuovo 27 4 2" xfId="1768" xr:uid="{00000000-0005-0000-0000-00000A0B0000}"/>
-    <cellStyle name="Nuovo 27 4 2 2" xfId="3642" xr:uid="{00000000-0005-0000-0000-00000B0B0000}"/>
-    <cellStyle name="Nuovo 27 4 3" xfId="3641" xr:uid="{00000000-0005-0000-0000-00000C0B0000}"/>
+    <cellStyle name="Nuovo 27 4 2 2" xfId="3641" xr:uid="{00000000-0005-0000-0000-00000B0B0000}"/>
+    <cellStyle name="Nuovo 27 4 3" xfId="3640" xr:uid="{00000000-0005-0000-0000-00000C0B0000}"/>
     <cellStyle name="Nuovo 27 5" xfId="1769" xr:uid="{00000000-0005-0000-0000-00000D0B0000}"/>
-    <cellStyle name="Nuovo 27 6" xfId="3637" xr:uid="{00000000-0005-0000-0000-00000E0B0000}"/>
+    <cellStyle name="Nuovo 27 6" xfId="3636" xr:uid="{00000000-0005-0000-0000-00000E0B0000}"/>
     <cellStyle name="Nuovo 28" xfId="1770" xr:uid="{00000000-0005-0000-0000-00000F0B0000}"/>
     <cellStyle name="Nuovo 28 2" xfId="1771" xr:uid="{00000000-0005-0000-0000-0000100B0000}"/>
-    <cellStyle name="Nuovo 28 2 2" xfId="3644" xr:uid="{00000000-0005-0000-0000-0000110B0000}"/>
+    <cellStyle name="Nuovo 28 2 2" xfId="3643" xr:uid="{00000000-0005-0000-0000-0000110B0000}"/>
     <cellStyle name="Nuovo 28 3" xfId="1772" xr:uid="{00000000-0005-0000-0000-0000120B0000}"/>
     <cellStyle name="Nuovo 28 3 2" xfId="1773" xr:uid="{00000000-0005-0000-0000-0000130B0000}"/>
     <cellStyle name="Nuovo 28 3 2 2" xfId="1774" xr:uid="{00000000-0005-0000-0000-0000140B0000}"/>
-    <cellStyle name="Nuovo 28 3 2 3" xfId="3646" xr:uid="{00000000-0005-0000-0000-0000150B0000}"/>
-    <cellStyle name="Nuovo 28 3 3" xfId="3645" xr:uid="{00000000-0005-0000-0000-0000160B0000}"/>
+    <cellStyle name="Nuovo 28 3 2 3" xfId="3645" xr:uid="{00000000-0005-0000-0000-0000150B0000}"/>
+    <cellStyle name="Nuovo 28 3 3" xfId="3644" xr:uid="{00000000-0005-0000-0000-0000160B0000}"/>
     <cellStyle name="Nuovo 28 4" xfId="1775" xr:uid="{00000000-0005-0000-0000-0000170B0000}"/>
     <cellStyle name="Nuovo 28 4 2" xfId="1776" xr:uid="{00000000-0005-0000-0000-0000180B0000}"/>
-    <cellStyle name="Nuovo 28 4 2 2" xfId="3648" xr:uid="{00000000-0005-0000-0000-0000190B0000}"/>
-    <cellStyle name="Nuovo 28 4 3" xfId="3647" xr:uid="{00000000-0005-0000-0000-00001A0B0000}"/>
+    <cellStyle name="Nuovo 28 4 2 2" xfId="3647" xr:uid="{00000000-0005-0000-0000-0000190B0000}"/>
+    <cellStyle name="Nuovo 28 4 3" xfId="3646" xr:uid="{00000000-0005-0000-0000-00001A0B0000}"/>
     <cellStyle name="Nuovo 28 5" xfId="1777" xr:uid="{00000000-0005-0000-0000-00001B0B0000}"/>
-    <cellStyle name="Nuovo 28 6" xfId="3643" xr:uid="{00000000-0005-0000-0000-00001C0B0000}"/>
+    <cellStyle name="Nuovo 28 6" xfId="3642" xr:uid="{00000000-0005-0000-0000-00001C0B0000}"/>
     <cellStyle name="Nuovo 29" xfId="1778" xr:uid="{00000000-0005-0000-0000-00001D0B0000}"/>
     <cellStyle name="Nuovo 29 2" xfId="1779" xr:uid="{00000000-0005-0000-0000-00001E0B0000}"/>
-    <cellStyle name="Nuovo 29 2 2" xfId="3650" xr:uid="{00000000-0005-0000-0000-00001F0B0000}"/>
+    <cellStyle name="Nuovo 29 2 2" xfId="3649" xr:uid="{00000000-0005-0000-0000-00001F0B0000}"/>
     <cellStyle name="Nuovo 29 3" xfId="1780" xr:uid="{00000000-0005-0000-0000-0000200B0000}"/>
     <cellStyle name="Nuovo 29 3 2" xfId="1781" xr:uid="{00000000-0005-0000-0000-0000210B0000}"/>
     <cellStyle name="Nuovo 29 3 2 2" xfId="1782" xr:uid="{00000000-0005-0000-0000-0000220B0000}"/>
-    <cellStyle name="Nuovo 29 3 2 3" xfId="3652" xr:uid="{00000000-0005-0000-0000-0000230B0000}"/>
-    <cellStyle name="Nuovo 29 3 3" xfId="3651" xr:uid="{00000000-0005-0000-0000-0000240B0000}"/>
+    <cellStyle name="Nuovo 29 3 2 3" xfId="3651" xr:uid="{00000000-0005-0000-0000-0000230B0000}"/>
+    <cellStyle name="Nuovo 29 3 3" xfId="3650" xr:uid="{00000000-0005-0000-0000-0000240B0000}"/>
     <cellStyle name="Nuovo 29 4" xfId="1783" xr:uid="{00000000-0005-0000-0000-0000250B0000}"/>
     <cellStyle name="Nuovo 29 4 2" xfId="1784" xr:uid="{00000000-0005-0000-0000-0000260B0000}"/>
-    <cellStyle name="Nuovo 29 4 2 2" xfId="3654" xr:uid="{00000000-0005-0000-0000-0000270B0000}"/>
-    <cellStyle name="Nuovo 29 4 3" xfId="3653" xr:uid="{00000000-0005-0000-0000-0000280B0000}"/>
+    <cellStyle name="Nuovo 29 4 2 2" xfId="3653" xr:uid="{00000000-0005-0000-0000-0000270B0000}"/>
+    <cellStyle name="Nuovo 29 4 3" xfId="3652" xr:uid="{00000000-0005-0000-0000-0000280B0000}"/>
     <cellStyle name="Nuovo 29 5" xfId="1785" xr:uid="{00000000-0005-0000-0000-0000290B0000}"/>
-    <cellStyle name="Nuovo 29 6" xfId="3649" xr:uid="{00000000-0005-0000-0000-00002A0B0000}"/>
+    <cellStyle name="Nuovo 29 6" xfId="3648" xr:uid="{00000000-0005-0000-0000-00002A0B0000}"/>
     <cellStyle name="Nuovo 3" xfId="1786" xr:uid="{00000000-0005-0000-0000-00002B0B0000}"/>
     <cellStyle name="Nuovo 3 2" xfId="1787" xr:uid="{00000000-0005-0000-0000-00002C0B0000}"/>
-    <cellStyle name="Nuovo 3 2 2" xfId="3656" xr:uid="{00000000-0005-0000-0000-00002D0B0000}"/>
+    <cellStyle name="Nuovo 3 2 2" xfId="3655" xr:uid="{00000000-0005-0000-0000-00002D0B0000}"/>
     <cellStyle name="Nuovo 3 3" xfId="1788" xr:uid="{00000000-0005-0000-0000-00002E0B0000}"/>
     <cellStyle name="Nuovo 3 3 2" xfId="1789" xr:uid="{00000000-0005-0000-0000-00002F0B0000}"/>
     <cellStyle name="Nuovo 3 3 2 2" xfId="1790" xr:uid="{00000000-0005-0000-0000-0000300B0000}"/>
-    <cellStyle name="Nuovo 3 3 2 3" xfId="3658" xr:uid="{00000000-0005-0000-0000-0000310B0000}"/>
-    <cellStyle name="Nuovo 3 3 3" xfId="3657" xr:uid="{00000000-0005-0000-0000-0000320B0000}"/>
+    <cellStyle name="Nuovo 3 3 2 3" xfId="3657" xr:uid="{00000000-0005-0000-0000-0000310B0000}"/>
+    <cellStyle name="Nuovo 3 3 3" xfId="3656" xr:uid="{00000000-0005-0000-0000-0000320B0000}"/>
     <cellStyle name="Nuovo 3 4" xfId="1791" xr:uid="{00000000-0005-0000-0000-0000330B0000}"/>
     <cellStyle name="Nuovo 3 4 2" xfId="1792" xr:uid="{00000000-0005-0000-0000-0000340B0000}"/>
-    <cellStyle name="Nuovo 3 4 2 2" xfId="3660" xr:uid="{00000000-0005-0000-0000-0000350B0000}"/>
-    <cellStyle name="Nuovo 3 4 3" xfId="3659" xr:uid="{00000000-0005-0000-0000-0000360B0000}"/>
+    <cellStyle name="Nuovo 3 4 2 2" xfId="3659" xr:uid="{00000000-0005-0000-0000-0000350B0000}"/>
+    <cellStyle name="Nuovo 3 4 3" xfId="3658" xr:uid="{00000000-0005-0000-0000-0000360B0000}"/>
     <cellStyle name="Nuovo 3 5" xfId="1793" xr:uid="{00000000-0005-0000-0000-0000370B0000}"/>
-    <cellStyle name="Nuovo 3 6" xfId="3655" xr:uid="{00000000-0005-0000-0000-0000380B0000}"/>
+    <cellStyle name="Nuovo 3 6" xfId="3654" xr:uid="{00000000-0005-0000-0000-0000380B0000}"/>
     <cellStyle name="Nuovo 30" xfId="1794" xr:uid="{00000000-0005-0000-0000-0000390B0000}"/>
     <cellStyle name="Nuovo 30 2" xfId="1795" xr:uid="{00000000-0005-0000-0000-00003A0B0000}"/>
-    <cellStyle name="Nuovo 30 2 2" xfId="3662" xr:uid="{00000000-0005-0000-0000-00003B0B0000}"/>
+    <cellStyle name="Nuovo 30 2 2" xfId="3661" xr:uid="{00000000-0005-0000-0000-00003B0B0000}"/>
     <cellStyle name="Nuovo 30 3" xfId="1796" xr:uid="{00000000-0005-0000-0000-00003C0B0000}"/>
     <cellStyle name="Nuovo 30 3 2" xfId="1797" xr:uid="{00000000-0005-0000-0000-00003D0B0000}"/>
     <cellStyle name="Nuovo 30 3 2 2" xfId="1798" xr:uid="{00000000-0005-0000-0000-00003E0B0000}"/>
-    <cellStyle name="Nuovo 30 3 2 3" xfId="3664" xr:uid="{00000000-0005-0000-0000-00003F0B0000}"/>
-    <cellStyle name="Nuovo 30 3 3" xfId="3663" xr:uid="{00000000-0005-0000-0000-0000400B0000}"/>
+    <cellStyle name="Nuovo 30 3 2 3" xfId="3663" xr:uid="{00000000-0005-0000-0000-00003F0B0000}"/>
+    <cellStyle name="Nuovo 30 3 3" xfId="3662" xr:uid="{00000000-0005-0000-0000-0000400B0000}"/>
     <cellStyle name="Nuovo 30 4" xfId="1799" xr:uid="{00000000-0005-0000-0000-0000410B0000}"/>
     <cellStyle name="Nuovo 30 4 2" xfId="1800" xr:uid="{00000000-0005-0000-0000-0000420B0000}"/>
-    <cellStyle name="Nuovo 30 4 2 2" xfId="3666" xr:uid="{00000000-0005-0000-0000-0000430B0000}"/>
-    <cellStyle name="Nuovo 30 4 3" xfId="3665" xr:uid="{00000000-0005-0000-0000-0000440B0000}"/>
+    <cellStyle name="Nuovo 30 4 2 2" xfId="3665" xr:uid="{00000000-0005-0000-0000-0000430B0000}"/>
+    <cellStyle name="Nuovo 30 4 3" xfId="3664" xr:uid="{00000000-0005-0000-0000-0000440B0000}"/>
     <cellStyle name="Nuovo 30 5" xfId="1801" xr:uid="{00000000-0005-0000-0000-0000450B0000}"/>
-    <cellStyle name="Nuovo 30 6" xfId="3661" xr:uid="{00000000-0005-0000-0000-0000460B0000}"/>
+    <cellStyle name="Nuovo 30 6" xfId="3660" xr:uid="{00000000-0005-0000-0000-0000460B0000}"/>
     <cellStyle name="Nuovo 31" xfId="1802" xr:uid="{00000000-0005-0000-0000-0000470B0000}"/>
     <cellStyle name="Nuovo 31 2" xfId="1803" xr:uid="{00000000-0005-0000-0000-0000480B0000}"/>
-    <cellStyle name="Nuovo 31 2 2" xfId="3668" xr:uid="{00000000-0005-0000-0000-0000490B0000}"/>
+    <cellStyle name="Nuovo 31 2 2" xfId="3667" xr:uid="{00000000-0005-0000-0000-0000490B0000}"/>
     <cellStyle name="Nuovo 31 3" xfId="1804" xr:uid="{00000000-0005-0000-0000-00004A0B0000}"/>
     <cellStyle name="Nuovo 31 3 2" xfId="1805" xr:uid="{00000000-0005-0000-0000-00004B0B0000}"/>
     <cellStyle name="Nuovo 31 3 2 2" xfId="1806" xr:uid="{00000000-0005-0000-0000-00004C0B0000}"/>
-    <cellStyle name="Nuovo 31 3 2 3" xfId="3670" xr:uid="{00000000-0005-0000-0000-00004D0B0000}"/>
-    <cellStyle name="Nuovo 31 3 3" xfId="3669" xr:uid="{00000000-0005-0000-0000-00004E0B0000}"/>
+    <cellStyle name="Nuovo 31 3 2 3" xfId="3669" xr:uid="{00000000-0005-0000-0000-00004D0B0000}"/>
+    <cellStyle name="Nuovo 31 3 3" xfId="3668" xr:uid="{00000000-0005-0000-0000-00004E0B0000}"/>
     <cellStyle name="Nuovo 31 4" xfId="1807" xr:uid="{00000000-0005-0000-0000-00004F0B0000}"/>
     <cellStyle name="Nuovo 31 4 2" xfId="1808" xr:uid="{00000000-0005-0000-0000-0000500B0000}"/>
-    <cellStyle name="Nuovo 31 4 2 2" xfId="3672" xr:uid="{00000000-0005-0000-0000-0000510B0000}"/>
-    <cellStyle name="Nuovo 31 4 3" xfId="3671" xr:uid="{00000000-0005-0000-0000-0000520B0000}"/>
+    <cellStyle name="Nuovo 31 4 2 2" xfId="3671" xr:uid="{00000000-0005-0000-0000-0000510B0000}"/>
+    <cellStyle name="Nuovo 31 4 3" xfId="3670" xr:uid="{00000000-0005-0000-0000-0000520B0000}"/>
     <cellStyle name="Nuovo 31 5" xfId="1809" xr:uid="{00000000-0005-0000-0000-0000530B0000}"/>
-    <cellStyle name="Nuovo 31 6" xfId="3667" xr:uid="{00000000-0005-0000-0000-0000540B0000}"/>
+    <cellStyle name="Nuovo 31 6" xfId="3666" xr:uid="{00000000-0005-0000-0000-0000540B0000}"/>
     <cellStyle name="Nuovo 32" xfId="1810" xr:uid="{00000000-0005-0000-0000-0000550B0000}"/>
     <cellStyle name="Nuovo 32 2" xfId="1811" xr:uid="{00000000-0005-0000-0000-0000560B0000}"/>
-    <cellStyle name="Nuovo 32 2 2" xfId="3674" xr:uid="{00000000-0005-0000-0000-0000570B0000}"/>
+    <cellStyle name="Nuovo 32 2 2" xfId="3673" xr:uid="{00000000-0005-0000-0000-0000570B0000}"/>
     <cellStyle name="Nuovo 32 3" xfId="1812" xr:uid="{00000000-0005-0000-0000-0000580B0000}"/>
     <cellStyle name="Nuovo 32 3 2" xfId="1813" xr:uid="{00000000-0005-0000-0000-0000590B0000}"/>
     <cellStyle name="Nuovo 32 3 2 2" xfId="1814" xr:uid="{00000000-0005-0000-0000-00005A0B0000}"/>
-    <cellStyle name="Nuovo 32 3 2 3" xfId="3676" xr:uid="{00000000-0005-0000-0000-00005B0B0000}"/>
-    <cellStyle name="Nuovo 32 3 3" xfId="3675" xr:uid="{00000000-0005-0000-0000-00005C0B0000}"/>
+    <cellStyle name="Nuovo 32 3 2 3" xfId="3675" xr:uid="{00000000-0005-0000-0000-00005B0B0000}"/>
+    <cellStyle name="Nuovo 32 3 3" xfId="3674" xr:uid="{00000000-0005-0000-0000-00005C0B0000}"/>
     <cellStyle name="Nuovo 32 4" xfId="1815" xr:uid="{00000000-0005-0000-0000-00005D0B0000}"/>
     <cellStyle name="Nuovo 32 4 2" xfId="1816" xr:uid="{00000000-0005-0000-0000-00005E0B0000}"/>
-    <cellStyle name="Nuovo 32 4 2 2" xfId="3678" xr:uid="{00000000-0005-0000-0000-00005F0B0000}"/>
-    <cellStyle name="Nuovo 32 4 3" xfId="3677" xr:uid="{00000000-0005-0000-0000-0000600B0000}"/>
+    <cellStyle name="Nuovo 32 4 2 2" xfId="3677" xr:uid="{00000000-0005-0000-0000-00005F0B0000}"/>
+    <cellStyle name="Nuovo 32 4 3" xfId="3676" xr:uid="{00000000-0005-0000-0000-0000600B0000}"/>
     <cellStyle name="Nuovo 32 5" xfId="1817" xr:uid="{00000000-0005-0000-0000-0000610B0000}"/>
-    <cellStyle name="Nuovo 32 6" xfId="3673" xr:uid="{00000000-0005-0000-0000-0000620B0000}"/>
+    <cellStyle name="Nuovo 32 6" xfId="3672" xr:uid="{00000000-0005-0000-0000-0000620B0000}"/>
     <cellStyle name="Nuovo 33" xfId="1818" xr:uid="{00000000-0005-0000-0000-0000630B0000}"/>
     <cellStyle name="Nuovo 33 2" xfId="1819" xr:uid="{00000000-0005-0000-0000-0000640B0000}"/>
-    <cellStyle name="Nuovo 33 2 2" xfId="3680" xr:uid="{00000000-0005-0000-0000-0000650B0000}"/>
+    <cellStyle name="Nuovo 33 2 2" xfId="3679" xr:uid="{00000000-0005-0000-0000-0000650B0000}"/>
     <cellStyle name="Nuovo 33 3" xfId="1820" xr:uid="{00000000-0005-0000-0000-0000660B0000}"/>
     <cellStyle name="Nuovo 33 3 2" xfId="1821" xr:uid="{00000000-0005-0000-0000-0000670B0000}"/>
     <cellStyle name="Nuovo 33 3 2 2" xfId="1822" xr:uid="{00000000-0005-0000-0000-0000680B0000}"/>
-    <cellStyle name="Nuovo 33 3 2 3" xfId="3682" xr:uid="{00000000-0005-0000-0000-0000690B0000}"/>
-    <cellStyle name="Nuovo 33 3 3" xfId="3681" xr:uid="{00000000-0005-0000-0000-00006A0B0000}"/>
+    <cellStyle name="Nuovo 33 3 2 3" xfId="3681" xr:uid="{00000000-0005-0000-0000-0000690B0000}"/>
+    <cellStyle name="Nuovo 33 3 3" xfId="3680" xr:uid="{00000000-0005-0000-0000-00006A0B0000}"/>
     <cellStyle name="Nuovo 33 4" xfId="1823" xr:uid="{00000000-0005-0000-0000-00006B0B0000}"/>
     <cellStyle name="Nuovo 33 4 2" xfId="1824" xr:uid="{00000000-0005-0000-0000-00006C0B0000}"/>
-    <cellStyle name="Nuovo 33 4 2 2" xfId="3684" xr:uid="{00000000-0005-0000-0000-00006D0B0000}"/>
-    <cellStyle name="Nuovo 33 4 3" xfId="3683" xr:uid="{00000000-0005-0000-0000-00006E0B0000}"/>
+    <cellStyle name="Nuovo 33 4 2 2" xfId="3683" xr:uid="{00000000-0005-0000-0000-00006D0B0000}"/>
+    <cellStyle name="Nuovo 33 4 3" xfId="3682" xr:uid="{00000000-0005-0000-0000-00006E0B0000}"/>
     <cellStyle name="Nuovo 33 5" xfId="1825" xr:uid="{00000000-0005-0000-0000-00006F0B0000}"/>
-    <cellStyle name="Nuovo 33 6" xfId="3679" xr:uid="{00000000-0005-0000-0000-0000700B0000}"/>
+    <cellStyle name="Nuovo 33 6" xfId="3678" xr:uid="{00000000-0005-0000-0000-0000700B0000}"/>
     <cellStyle name="Nuovo 34" xfId="1826" xr:uid="{00000000-0005-0000-0000-0000710B0000}"/>
     <cellStyle name="Nuovo 34 2" xfId="1827" xr:uid="{00000000-0005-0000-0000-0000720B0000}"/>
-    <cellStyle name="Nuovo 34 2 2" xfId="3686" xr:uid="{00000000-0005-0000-0000-0000730B0000}"/>
+    <cellStyle name="Nuovo 34 2 2" xfId="3685" xr:uid="{00000000-0005-0000-0000-0000730B0000}"/>
     <cellStyle name="Nuovo 34 3" xfId="1828" xr:uid="{00000000-0005-0000-0000-0000740B0000}"/>
     <cellStyle name="Nuovo 34 3 2" xfId="1829" xr:uid="{00000000-0005-0000-0000-0000750B0000}"/>
     <cellStyle name="Nuovo 34 3 2 2" xfId="1830" xr:uid="{00000000-0005-0000-0000-0000760B0000}"/>
-    <cellStyle name="Nuovo 34 3 2 3" xfId="3688" xr:uid="{00000000-0005-0000-0000-0000770B0000}"/>
-    <cellStyle name="Nuovo 34 3 3" xfId="3687" xr:uid="{00000000-0005-0000-0000-0000780B0000}"/>
+    <cellStyle name="Nuovo 34 3 2 3" xfId="3687" xr:uid="{00000000-0005-0000-0000-0000770B0000}"/>
+    <cellStyle name="Nuovo 34 3 3" xfId="3686" xr:uid="{00000000-0005-0000-0000-0000780B0000}"/>
     <cellStyle name="Nuovo 34 4" xfId="1831" xr:uid="{00000000-0005-0000-0000-0000790B0000}"/>
     <cellStyle name="Nuovo 34 4 2" xfId="1832" xr:uid="{00000000-0005-0000-0000-00007A0B0000}"/>
-    <cellStyle name="Nuovo 34 4 2 2" xfId="3690" xr:uid="{00000000-0005-0000-0000-00007B0B0000}"/>
-    <cellStyle name="Nuovo 34 4 3" xfId="3689" xr:uid="{00000000-0005-0000-0000-00007C0B0000}"/>
+    <cellStyle name="Nuovo 34 4 2 2" xfId="3689" xr:uid="{00000000-0005-0000-0000-00007B0B0000}"/>
+    <cellStyle name="Nuovo 34 4 3" xfId="3688" xr:uid="{00000000-0005-0000-0000-00007C0B0000}"/>
     <cellStyle name="Nuovo 34 5" xfId="1833" xr:uid="{00000000-0005-0000-0000-00007D0B0000}"/>
-    <cellStyle name="Nuovo 34 6" xfId="3685" xr:uid="{00000000-0005-0000-0000-00007E0B0000}"/>
+    <cellStyle name="Nuovo 34 6" xfId="3684" xr:uid="{00000000-0005-0000-0000-00007E0B0000}"/>
     <cellStyle name="Nuovo 35" xfId="1834" xr:uid="{00000000-0005-0000-0000-00007F0B0000}"/>
     <cellStyle name="Nuovo 35 2" xfId="1835" xr:uid="{00000000-0005-0000-0000-0000800B0000}"/>
-    <cellStyle name="Nuovo 35 2 2" xfId="3692" xr:uid="{00000000-0005-0000-0000-0000810B0000}"/>
+    <cellStyle name="Nuovo 35 2 2" xfId="3691" xr:uid="{00000000-0005-0000-0000-0000810B0000}"/>
     <cellStyle name="Nuovo 35 3" xfId="1836" xr:uid="{00000000-0005-0000-0000-0000820B0000}"/>
     <cellStyle name="Nuovo 35 3 2" xfId="1837" xr:uid="{00000000-0005-0000-0000-0000830B0000}"/>
     <cellStyle name="Nuovo 35 3 2 2" xfId="1838" xr:uid="{00000000-0005-0000-0000-0000840B0000}"/>
-    <cellStyle name="Nuovo 35 3 2 3" xfId="3694" xr:uid="{00000000-0005-0000-0000-0000850B0000}"/>
-    <cellStyle name="Nuovo 35 3 3" xfId="3693" xr:uid="{00000000-0005-0000-0000-0000860B0000}"/>
+    <cellStyle name="Nuovo 35 3 2 3" xfId="3693" xr:uid="{00000000-0005-0000-0000-0000850B0000}"/>
+    <cellStyle name="Nuovo 35 3 3" xfId="3692" xr:uid="{00000000-0005-0000-0000-0000860B0000}"/>
     <cellStyle name="Nuovo 35 4" xfId="1839" xr:uid="{00000000-0005-0000-0000-0000870B0000}"/>
     <cellStyle name="Nuovo 35 4 2" xfId="1840" xr:uid="{00000000-0005-0000-0000-0000880B0000}"/>
-    <cellStyle name="Nuovo 35 4 2 2" xfId="3696" xr:uid="{00000000-0005-0000-0000-0000890B0000}"/>
-    <cellStyle name="Nuovo 35 4 3" xfId="3695" xr:uid="{00000000-0005-0000-0000-00008A0B0000}"/>
+    <cellStyle name="Nuovo 35 4 2 2" xfId="3695" xr:uid="{00000000-0005-0000-0000-0000890B0000}"/>
+    <cellStyle name="Nuovo 35 4 3" xfId="3694" xr:uid="{00000000-0005-0000-0000-00008A0B0000}"/>
     <cellStyle name="Nuovo 35 5" xfId="1841" xr:uid="{00000000-0005-0000-0000-00008B0B0000}"/>
-    <cellStyle name="Nuovo 35 6" xfId="3691" xr:uid="{00000000-0005-0000-0000-00008C0B0000}"/>
+    <cellStyle name="Nuovo 35 6" xfId="3690" xr:uid="{00000000-0005-0000-0000-00008C0B0000}"/>
     <cellStyle name="Nuovo 36" xfId="1842" xr:uid="{00000000-0005-0000-0000-00008D0B0000}"/>
     <cellStyle name="Nuovo 36 2" xfId="1843" xr:uid="{00000000-0005-0000-0000-00008E0B0000}"/>
-    <cellStyle name="Nuovo 36 2 2" xfId="3698" xr:uid="{00000000-0005-0000-0000-00008F0B0000}"/>
+    <cellStyle name="Nuovo 36 2 2" xfId="3697" xr:uid="{00000000-0005-0000-0000-00008F0B0000}"/>
     <cellStyle name="Nuovo 36 3" xfId="1844" xr:uid="{00000000-0005-0000-0000-0000900B0000}"/>
     <cellStyle name="Nuovo 36 3 2" xfId="1845" xr:uid="{00000000-0005-0000-0000-0000910B0000}"/>
     <cellStyle name="Nuovo 36 3 2 2" xfId="1846" xr:uid="{00000000-0005-0000-0000-0000920B0000}"/>
-    <cellStyle name="Nuovo 36 3 2 3" xfId="3700" xr:uid="{00000000-0005-0000-0000-0000930B0000}"/>
-    <cellStyle name="Nuovo 36 3 3" xfId="3699" xr:uid="{00000000-0005-0000-0000-0000940B0000}"/>
+    <cellStyle name="Nuovo 36 3 2 3" xfId="3699" xr:uid="{00000000-0005-0000-0000-0000930B0000}"/>
+    <cellStyle name="Nuovo 36 3 3" xfId="3698" xr:uid="{00000000-0005-0000-0000-0000940B0000}"/>
     <cellStyle name="Nuovo 36 4" xfId="1847" xr:uid="{00000000-0005-0000-0000-0000950B0000}"/>
     <cellStyle name="Nuovo 36 4 2" xfId="1848" xr:uid="{00000000-0005-0000-0000-0000960B0000}"/>
-    <cellStyle name="Nuovo 36 4 2 2" xfId="3702" xr:uid="{00000000-0005-0000-0000-0000970B0000}"/>
-    <cellStyle name="Nuovo 36 4 3" xfId="3701" xr:uid="{00000000-0005-0000-0000-0000980B0000}"/>
+    <cellStyle name="Nuovo 36 4 2 2" xfId="3701" xr:uid="{00000000-0005-0000-0000-0000970B0000}"/>
+    <cellStyle name="Nuovo 36 4 3" xfId="3700" xr:uid="{00000000-0005-0000-0000-0000980B0000}"/>
     <cellStyle name="Nuovo 36 5" xfId="1849" xr:uid="{00000000-0005-0000-0000-0000990B0000}"/>
-    <cellStyle name="Nuovo 36 6" xfId="3697" xr:uid="{00000000-0005-0000-0000-00009A0B0000}"/>
+    <cellStyle name="Nuovo 36 6" xfId="3696" xr:uid="{00000000-0005-0000-0000-00009A0B0000}"/>
     <cellStyle name="Nuovo 37" xfId="1850" xr:uid="{00000000-0005-0000-0000-00009B0B0000}"/>
     <cellStyle name="Nuovo 37 2" xfId="1851" xr:uid="{00000000-0005-0000-0000-00009C0B0000}"/>
-    <cellStyle name="Nuovo 37 2 2" xfId="3704" xr:uid="{00000000-0005-0000-0000-00009D0B0000}"/>
+    <cellStyle name="Nuovo 37 2 2" xfId="3703" xr:uid="{00000000-0005-0000-0000-00009D0B0000}"/>
     <cellStyle name="Nuovo 37 3" xfId="1852" xr:uid="{00000000-0005-0000-0000-00009E0B0000}"/>
     <cellStyle name="Nuovo 37 3 2" xfId="1853" xr:uid="{00000000-0005-0000-0000-00009F0B0000}"/>
     <cellStyle name="Nuovo 37 3 2 2" xfId="1854" xr:uid="{00000000-0005-0000-0000-0000A00B0000}"/>
-    <cellStyle name="Nuovo 37 3 2 3" xfId="3706" xr:uid="{00000000-0005-0000-0000-0000A10B0000}"/>
-    <cellStyle name="Nuovo 37 3 3" xfId="3705" xr:uid="{00000000-0005-0000-0000-0000A20B0000}"/>
+    <cellStyle name="Nuovo 37 3 2 3" xfId="3705" xr:uid="{00000000-0005-0000-0000-0000A10B0000}"/>
+    <cellStyle name="Nuovo 37 3 3" xfId="3704" xr:uid="{00000000-0005-0000-0000-0000A20B0000}"/>
     <cellStyle name="Nuovo 37 4" xfId="1855" xr:uid="{00000000-0005-0000-0000-0000A30B0000}"/>
     <cellStyle name="Nuovo 37 4 2" xfId="1856" xr:uid="{00000000-0005-0000-0000-0000A40B0000}"/>
-    <cellStyle name="Nuovo 37 4 2 2" xfId="3708" xr:uid="{00000000-0005-0000-0000-0000A50B0000}"/>
-    <cellStyle name="Nuovo 37 4 3" xfId="3707" xr:uid="{00000000-0005-0000-0000-0000A60B0000}"/>
+    <cellStyle name="Nuovo 37 4 2 2" xfId="3707" xr:uid="{00000000-0005-0000-0000-0000A50B0000}"/>
+    <cellStyle name="Nuovo 37 4 3" xfId="3706" xr:uid="{00000000-0005-0000-0000-0000A60B0000}"/>
     <cellStyle name="Nuovo 37 5" xfId="1857" xr:uid="{00000000-0005-0000-0000-0000A70B0000}"/>
-    <cellStyle name="Nuovo 37 6" xfId="3703" xr:uid="{00000000-0005-0000-0000-0000A80B0000}"/>
+    <cellStyle name="Nuovo 37 6" xfId="3702" xr:uid="{00000000-0005-0000-0000-0000A80B0000}"/>
     <cellStyle name="Nuovo 38" xfId="1858" xr:uid="{00000000-0005-0000-0000-0000A90B0000}"/>
     <cellStyle name="Nuovo 38 2" xfId="1859" xr:uid="{00000000-0005-0000-0000-0000AA0B0000}"/>
-    <cellStyle name="Nuovo 38 2 2" xfId="3710" xr:uid="{00000000-0005-0000-0000-0000AB0B0000}"/>
+    <cellStyle name="Nuovo 38 2 2" xfId="3709" xr:uid="{00000000-0005-0000-0000-0000AB0B0000}"/>
     <cellStyle name="Nuovo 38 3" xfId="1860" xr:uid="{00000000-0005-0000-0000-0000AC0B0000}"/>
     <cellStyle name="Nuovo 38 3 2" xfId="1861" xr:uid="{00000000-0005-0000-0000-0000AD0B0000}"/>
     <cellStyle name="Nuovo 38 3 2 2" xfId="1862" xr:uid="{00000000-0005-0000-0000-0000AE0B0000}"/>
-    <cellStyle name="Nuovo 38 3 2 3" xfId="3712" xr:uid="{00000000-0005-0000-0000-0000AF0B0000}"/>
-    <cellStyle name="Nuovo 38 3 3" xfId="3711" xr:uid="{00000000-0005-0000-0000-0000B00B0000}"/>
+    <cellStyle name="Nuovo 38 3 2 3" xfId="3711" xr:uid="{00000000-0005-0000-0000-0000AF0B0000}"/>
+    <cellStyle name="Nuovo 38 3 3" xfId="3710" xr:uid="{00000000-0005-0000-0000-0000B00B0000}"/>
     <cellStyle name="Nuovo 38 4" xfId="1863" xr:uid="{00000000-0005-0000-0000-0000B10B0000}"/>
     <cellStyle name="Nuovo 38 4 2" xfId="1864" xr:uid="{00000000-0005-0000-0000-0000B20B0000}"/>
-    <cellStyle name="Nuovo 38 4 2 2" xfId="3714" xr:uid="{00000000-0005-0000-0000-0000B30B0000}"/>
-    <cellStyle name="Nuovo 38 4 3" xfId="3713" xr:uid="{00000000-0005-0000-0000-0000B40B0000}"/>
+    <cellStyle name="Nuovo 38 4 2 2" xfId="3713" xr:uid="{00000000-0005-0000-0000-0000B30B0000}"/>
+    <cellStyle name="Nuovo 38 4 3" xfId="3712" xr:uid="{00000000-0005-0000-0000-0000B40B0000}"/>
     <cellStyle name="Nuovo 38 5" xfId="1865" xr:uid="{00000000-0005-0000-0000-0000B50B0000}"/>
-    <cellStyle name="Nuovo 38 6" xfId="3709" xr:uid="{00000000-0005-0000-0000-0000B60B0000}"/>
+    <cellStyle name="Nuovo 38 6" xfId="3708" xr:uid="{00000000-0005-0000-0000-0000B60B0000}"/>
     <cellStyle name="Nuovo 39" xfId="1866" xr:uid="{00000000-0005-0000-0000-0000B70B0000}"/>
     <cellStyle name="Nuovo 39 2" xfId="1867" xr:uid="{00000000-0005-0000-0000-0000B80B0000}"/>
-    <cellStyle name="Nuovo 39 2 2" xfId="3716" xr:uid="{00000000-0005-0000-0000-0000B90B0000}"/>
+    <cellStyle name="Nuovo 39 2 2" xfId="3715" xr:uid="{00000000-0005-0000-0000-0000B90B0000}"/>
     <cellStyle name="Nuovo 39 3" xfId="1868" xr:uid="{00000000-0005-0000-0000-0000BA0B0000}"/>
     <cellStyle name="Nuovo 39 3 2" xfId="1869" xr:uid="{00000000-0005-0000-0000-0000BB0B0000}"/>
     <cellStyle name="Nuovo 39 3 2 2" xfId="1870" xr:uid="{00000000-0005-0000-0000-0000BC0B0000}"/>
-    <cellStyle name="Nuovo 39 3 2 3" xfId="3718" xr:uid="{00000000-0005-0000-0000-0000BD0B0000}"/>
-    <cellStyle name="Nuovo 39 3 3" xfId="3717" xr:uid="{00000000-0005-0000-0000-0000BE0B0000}"/>
+    <cellStyle name="Nuovo 39 3 2 3" xfId="3717" xr:uid="{00000000-0005-0000-0000-0000BD0B0000}"/>
+    <cellStyle name="Nuovo 39 3 3" xfId="3716" xr:uid="{00000000-0005-0000-0000-0000BE0B0000}"/>
     <cellStyle name="Nuovo 39 4" xfId="1871" xr:uid="{00000000-0005-0000-0000-0000BF0B0000}"/>
     <cellStyle name="Nuovo 39 4 2" xfId="1872" xr:uid="{00000000-0005-0000-0000-0000C00B0000}"/>
-    <cellStyle name="Nuovo 39 4 2 2" xfId="3720" xr:uid="{00000000-0005-0000-0000-0000C10B0000}"/>
-    <cellStyle name="Nuovo 39 4 3" xfId="3719" xr:uid="{00000000-0005-0000-0000-0000C20B0000}"/>
+    <cellStyle name="Nuovo 39 4 2 2" xfId="3719" xr:uid="{00000000-0005-0000-0000-0000C10B0000}"/>
+    <cellStyle name="Nuovo 39 4 3" xfId="3718" xr:uid="{00000000-0005-0000-0000-0000C20B0000}"/>
     <cellStyle name="Nuovo 39 5" xfId="1873" xr:uid="{00000000-0005-0000-0000-0000C30B0000}"/>
-    <cellStyle name="Nuovo 39 6" xfId="3715" xr:uid="{00000000-0005-0000-0000-0000C40B0000}"/>
+    <cellStyle name="Nuovo 39 6" xfId="3714" xr:uid="{00000000-0005-0000-0000-0000C40B0000}"/>
     <cellStyle name="Nuovo 4" xfId="1874" xr:uid="{00000000-0005-0000-0000-0000C50B0000}"/>
     <cellStyle name="Nuovo 4 2" xfId="1875" xr:uid="{00000000-0005-0000-0000-0000C60B0000}"/>
-    <cellStyle name="Nuovo 4 2 2" xfId="3722" xr:uid="{00000000-0005-0000-0000-0000C70B0000}"/>
+    <cellStyle name="Nuovo 4 2 2" xfId="3721" xr:uid="{00000000-0005-0000-0000-0000C70B0000}"/>
     <cellStyle name="Nuovo 4 3" xfId="1876" xr:uid="{00000000-0005-0000-0000-0000C80B0000}"/>
     <cellStyle name="Nuovo 4 3 2" xfId="1877" xr:uid="{00000000-0005-0000-0000-0000C90B0000}"/>
     <cellStyle name="Nuovo 4 3 2 2" xfId="1878" xr:uid="{00000000-0005-0000-0000-0000CA0B0000}"/>
-    <cellStyle name="Nuovo 4 3 2 3" xfId="3724" xr:uid="{00000000-0005-0000-0000-0000CB0B0000}"/>
-    <cellStyle name="Nuovo 4 3 3" xfId="3723" xr:uid="{00000000-0005-0000-0000-0000CC0B0000}"/>
+    <cellStyle name="Nuovo 4 3 2 3" xfId="3723" xr:uid="{00000000-0005-0000-0000-0000CB0B0000}"/>
+    <cellStyle name="Nuovo 4 3 3" xfId="3722" xr:uid="{00000000-0005-0000-0000-0000CC0B0000}"/>
     <cellStyle name="Nuovo 4 4" xfId="1879" xr:uid="{00000000-0005-0000-0000-0000CD0B0000}"/>
     <cellStyle name="Nuovo 4 4 2" xfId="1880" xr:uid="{00000000-0005-0000-0000-0000CE0B0000}"/>
-    <cellStyle name="Nuovo 4 4 2 2" xfId="3726" xr:uid="{00000000-0005-0000-0000-0000CF0B0000}"/>
-    <cellStyle name="Nuovo 4 4 3" xfId="3725" xr:uid="{00000000-0005-0000-0000-0000D00B0000}"/>
+    <cellStyle name="Nuovo 4 4 2 2" xfId="3725" xr:uid="{00000000-0005-0000-0000-0000CF0B0000}"/>
+    <cellStyle name="Nuovo 4 4 3" xfId="3724" xr:uid="{00000000-0005-0000-0000-0000D00B0000}"/>
     <cellStyle name="Nuovo 4 5" xfId="1881" xr:uid="{00000000-0005-0000-0000-0000D10B0000}"/>
-    <cellStyle name="Nuovo 4 6" xfId="3721" xr:uid="{00000000-0005-0000-0000-0000D20B0000}"/>
+    <cellStyle name="Nuovo 4 6" xfId="3720" xr:uid="{00000000-0005-0000-0000-0000D20B0000}"/>
     <cellStyle name="Nuovo 40" xfId="1882" xr:uid="{00000000-0005-0000-0000-0000D30B0000}"/>
     <cellStyle name="Nuovo 40 2" xfId="1883" xr:uid="{00000000-0005-0000-0000-0000D40B0000}"/>
-    <cellStyle name="Nuovo 40 2 2" xfId="3728" xr:uid="{00000000-0005-0000-0000-0000D50B0000}"/>
+    <cellStyle name="Nuovo 40 2 2" xfId="3727" xr:uid="{00000000-0005-0000-0000-0000D50B0000}"/>
     <cellStyle name="Nuovo 40 3" xfId="1884" xr:uid="{00000000-0005-0000-0000-0000D60B0000}"/>
     <cellStyle name="Nuovo 40 3 2" xfId="1885" xr:uid="{00000000-0005-0000-0000-0000D70B0000}"/>
     <cellStyle name="Nuovo 40 3 2 2" xfId="1886" xr:uid="{00000000-0005-0000-0000-0000D80B0000}"/>
-    <cellStyle name="Nuovo 40 3 2 3" xfId="3730" xr:uid="{00000000-0005-0000-0000-0000D90B0000}"/>
-    <cellStyle name="Nuovo 40 3 3" xfId="3729" xr:uid="{00000000-0005-0000-0000-0000DA0B0000}"/>
+    <cellStyle name="Nuovo 40 3 2 3" xfId="3729" xr:uid="{00000000-0005-0000-0000-0000D90B0000}"/>
+    <cellStyle name="Nuovo 40 3 3" xfId="3728" xr:uid="{00000000-0005-0000-0000-0000DA0B0000}"/>
     <cellStyle name="Nuovo 40 4" xfId="1887" xr:uid="{00000000-0005-0000-0000-0000DB0B0000}"/>
     <cellStyle name="Nuovo 40 4 2" xfId="1888" xr:uid="{00000000-0005-0000-0000-0000DC0B0000}"/>
-    <cellStyle name="Nuovo 40 4 2 2" xfId="3732" xr:uid="{00000000-0005-0000-0000-0000DD0B0000}"/>
-    <cellStyle name="Nuovo 40 4 3" xfId="3731" xr:uid="{00000000-0005-0000-0000-0000DE0B0000}"/>
+    <cellStyle name="Nuovo 40 4 2 2" xfId="3731" xr:uid="{00000000-0005-0000-0000-0000DD0B0000}"/>
+    <cellStyle name="Nuovo 40 4 3" xfId="3730" xr:uid="{00000000-0005-0000-0000-0000DE0B0000}"/>
     <cellStyle name="Nuovo 40 5" xfId="1889" xr:uid="{00000000-0005-0000-0000-0000DF0B0000}"/>
-    <cellStyle name="Nuovo 40 6" xfId="3727" xr:uid="{00000000-0005-0000-0000-0000E00B0000}"/>
+    <cellStyle name="Nuovo 40 6" xfId="3726" xr:uid="{00000000-0005-0000-0000-0000E00B0000}"/>
     <cellStyle name="Nuovo 41" xfId="1890" xr:uid="{00000000-0005-0000-0000-0000E10B0000}"/>
     <cellStyle name="Nuovo 41 2" xfId="1891" xr:uid="{00000000-0005-0000-0000-0000E20B0000}"/>
-    <cellStyle name="Nuovo 41 2 2" xfId="3734" xr:uid="{00000000-0005-0000-0000-0000E30B0000}"/>
+    <cellStyle name="Nuovo 41 2 2" xfId="3733" xr:uid="{00000000-0005-0000-0000-0000E30B0000}"/>
     <cellStyle name="Nuovo 41 3" xfId="1892" xr:uid="{00000000-0005-0000-0000-0000E40B0000}"/>
     <cellStyle name="Nuovo 41 3 2" xfId="1893" xr:uid="{00000000-0005-0000-0000-0000E50B0000}"/>
     <cellStyle name="Nuovo 41 3 2 2" xfId="1894" xr:uid="{00000000-0005-0000-0000-0000E60B0000}"/>
-    <cellStyle name="Nuovo 41 3 2 3" xfId="3736" xr:uid="{00000000-0005-0000-0000-0000E70B0000}"/>
-    <cellStyle name="Nuovo 41 3 3" xfId="3735" xr:uid="{00000000-0005-0000-0000-0000E80B0000}"/>
+    <cellStyle name="Nuovo 41 3 2 3" xfId="3735" xr:uid="{00000000-0005-0000-0000-0000E70B0000}"/>
+    <cellStyle name="Nuovo 41 3 3" xfId="3734" xr:uid="{00000000-0005-0000-0000-0000E80B0000}"/>
     <cellStyle name="Nuovo 41 4" xfId="1895" xr:uid="{00000000-0005-0000-0000-0000E90B0000}"/>
     <cellStyle name="Nuovo 41 4 2" xfId="1896" xr:uid="{00000000-0005-0000-0000-0000EA0B0000}"/>
-    <cellStyle name="Nuovo 41 4 2 2" xfId="3738" xr:uid="{00000000-0005-0000-0000-0000EB0B0000}"/>
-    <cellStyle name="Nuovo 41 4 3" xfId="3737" xr:uid="{00000000-0005-0000-0000-0000EC0B0000}"/>
+    <cellStyle name="Nuovo 41 4 2 2" xfId="3737" xr:uid="{00000000-0005-0000-0000-0000EB0B0000}"/>
+    <cellStyle name="Nuovo 41 4 3" xfId="3736" xr:uid="{00000000-0005-0000-0000-0000EC0B0000}"/>
     <cellStyle name="Nuovo 41 5" xfId="1897" xr:uid="{00000000-0005-0000-0000-0000ED0B0000}"/>
-    <cellStyle name="Nuovo 41 6" xfId="3733" xr:uid="{00000000-0005-0000-0000-0000EE0B0000}"/>
+    <cellStyle name="Nuovo 41 6" xfId="3732" xr:uid="{00000000-0005-0000-0000-0000EE0B0000}"/>
     <cellStyle name="Nuovo 42" xfId="1898" xr:uid="{00000000-0005-0000-0000-0000EF0B0000}"/>
     <cellStyle name="Nuovo 42 2" xfId="1899" xr:uid="{00000000-0005-0000-0000-0000F00B0000}"/>
-    <cellStyle name="Nuovo 42 2 2" xfId="3740" xr:uid="{00000000-0005-0000-0000-0000F10B0000}"/>
+    <cellStyle name="Nuovo 42 2 2" xfId="3739" xr:uid="{00000000-0005-0000-0000-0000F10B0000}"/>
     <cellStyle name="Nuovo 42 3" xfId="1900" xr:uid="{00000000-0005-0000-0000-0000F20B0000}"/>
     <cellStyle name="Nuovo 42 3 2" xfId="1901" xr:uid="{00000000-0005-0000-0000-0000F30B0000}"/>
     <cellStyle name="Nuovo 42 3 2 2" xfId="1902" xr:uid="{00000000-0005-0000-0000-0000F40B0000}"/>
-    <cellStyle name="Nuovo 42 3 2 3" xfId="3742" xr:uid="{00000000-0005-0000-0000-0000F50B0000}"/>
-    <cellStyle name="Nuovo 42 3 3" xfId="3741" xr:uid="{00000000-0005-0000-0000-0000F60B0000}"/>
+    <cellStyle name="Nuovo 42 3 2 3" xfId="3741" xr:uid="{00000000-0005-0000-0000-0000F50B0000}"/>
+    <cellStyle name="Nuovo 42 3 3" xfId="3740" xr:uid="{00000000-0005-0000-0000-0000F60B0000}"/>
     <cellStyle name="Nuovo 42 4" xfId="1903" xr:uid="{00000000-0005-0000-0000-0000F70B0000}"/>
     <cellStyle name="Nuovo 42 4 2" xfId="1904" xr:uid="{00000000-0005-0000-0000-0000F80B0000}"/>
-    <cellStyle name="Nuovo 42 4 2 2" xfId="3744" xr:uid="{00000000-0005-0000-0000-0000F90B0000}"/>
-    <cellStyle name="Nuovo 42 4 3" xfId="3743" xr:uid="{00000000-0005-0000-0000-0000FA0B0000}"/>
+    <cellStyle name="Nuovo 42 4 2 2" xfId="3743" xr:uid="{00000000-0005-0000-0000-0000F90B0000}"/>
+    <cellStyle name="Nuovo 42 4 3" xfId="3742" xr:uid="{00000000-0005-0000-0000-0000FA0B0000}"/>
     <cellStyle name="Nuovo 42 5" xfId="1905" xr:uid="{00000000-0005-0000-0000-0000FB0B0000}"/>
-    <cellStyle name="Nuovo 42 6" xfId="3739" xr:uid="{00000000-0005-0000-0000-0000FC0B0000}"/>
+    <cellStyle name="Nuovo 42 6" xfId="3738" xr:uid="{00000000-0005-0000-0000-0000FC0B0000}"/>
     <cellStyle name="Nuovo 43" xfId="1906" xr:uid="{00000000-0005-0000-0000-0000FD0B0000}"/>
     <cellStyle name="Nuovo 43 2" xfId="1907" xr:uid="{00000000-0005-0000-0000-0000FE0B0000}"/>
-    <cellStyle name="Nuovo 43 2 2" xfId="3746" xr:uid="{00000000-0005-0000-0000-0000FF0B0000}"/>
+    <cellStyle name="Nuovo 43 2 2" xfId="3745" xr:uid="{00000000-0005-0000-0000-0000FF0B0000}"/>
     <cellStyle name="Nuovo 43 3" xfId="1908" xr:uid="{00000000-0005-0000-0000-0000000C0000}"/>
     <cellStyle name="Nuovo 43 3 2" xfId="1909" xr:uid="{00000000-0005-0000-0000-0000010C0000}"/>
     <cellStyle name="Nuovo 43 3 2 2" xfId="1910" xr:uid="{00000000-0005-0000-0000-0000020C0000}"/>
-    <cellStyle name="Nuovo 43 3 2 3" xfId="3748" xr:uid="{00000000-0005-0000-0000-0000030C0000}"/>
-    <cellStyle name="Nuovo 43 3 3" xfId="3747" xr:uid="{00000000-0005-0000-0000-0000040C0000}"/>
+    <cellStyle name="Nuovo 43 3 2 3" xfId="3747" xr:uid="{00000000-0005-0000-0000-0000030C0000}"/>
+    <cellStyle name="Nuovo 43 3 3" xfId="3746" xr:uid="{00000000-0005-0000-0000-0000040C0000}"/>
     <cellStyle name="Nuovo 43 4" xfId="1911" xr:uid="{00000000-0005-0000-0000-0000050C0000}"/>
     <cellStyle name="Nuovo 43 4 2" xfId="1912" xr:uid="{00000000-0005-0000-0000-0000060C0000}"/>
-    <cellStyle name="Nuovo 43 4 2 2" xfId="3750" xr:uid="{00000000-0005-0000-0000-0000070C0000}"/>
-    <cellStyle name="Nuovo 43 4 3" xfId="3749" xr:uid="{00000000-0005-0000-0000-0000080C0000}"/>
+    <cellStyle name="Nuovo 43 4 2 2" xfId="3749" xr:uid="{00000000-0005-0000-0000-0000070C0000}"/>
+    <cellStyle name="Nuovo 43 4 3" xfId="3748" xr:uid="{00000000-0005-0000-0000-0000080C0000}"/>
     <cellStyle name="Nuovo 43 5" xfId="1913" xr:uid="{00000000-0005-0000-0000-0000090C0000}"/>
-    <cellStyle name="Nuovo 43 6" xfId="3745" xr:uid="{00000000-0005-0000-0000-00000A0C0000}"/>
+    <cellStyle name="Nuovo 43 6" xfId="3744" xr:uid="{00000000-0005-0000-0000-00000A0C0000}"/>
     <cellStyle name="Nuovo 44" xfId="1914" xr:uid="{00000000-0005-0000-0000-00000B0C0000}"/>
     <cellStyle name="Nuovo 44 2" xfId="1915" xr:uid="{00000000-0005-0000-0000-00000C0C0000}"/>
-    <cellStyle name="Nuovo 44 2 2" xfId="3752" xr:uid="{00000000-0005-0000-0000-00000D0C0000}"/>
+    <cellStyle name="Nuovo 44 2 2" xfId="3751" xr:uid="{00000000-0005-0000-0000-00000D0C0000}"/>
     <cellStyle name="Nuovo 44 3" xfId="1916" xr:uid="{00000000-0005-0000-0000-00000E0C0000}"/>
     <cellStyle name="Nuovo 44 3 2" xfId="1917" xr:uid="{00000000-0005-0000-0000-00000F0C0000}"/>
     <cellStyle name="Nuovo 44 3 2 2" xfId="1918" xr:uid="{00000000-0005-0000-0000-0000100C0000}"/>
-    <cellStyle name="Nuovo 44 3 2 3" xfId="3754" xr:uid="{00000000-0005-0000-0000-0000110C0000}"/>
-    <cellStyle name="Nuovo 44 3 3" xfId="3753" xr:uid="{00000000-0005-0000-0000-0000120C0000}"/>
+    <cellStyle name="Nuovo 44 3 2 3" xfId="3753" xr:uid="{00000000-0005-0000-0000-0000110C0000}"/>
+    <cellStyle name="Nuovo 44 3 3" xfId="3752" xr:uid="{00000000-0005-0000-0000-0000120C0000}"/>
     <cellStyle name="Nuovo 44 4" xfId="1919" xr:uid="{00000000-0005-0000-0000-0000130C0000}"/>
     <cellStyle name="Nuovo 44 4 2" xfId="1920" xr:uid="{00000000-0005-0000-0000-0000140C0000}"/>
-    <cellStyle name="Nuovo 44 4 2 2" xfId="3756" xr:uid="{00000000-0005-0000-0000-0000150C0000}"/>
-    <cellStyle name="Nuovo 44 4 3" xfId="3755" xr:uid="{00000000-0005-0000-0000-0000160C0000}"/>
+    <cellStyle name="Nuovo 44 4 2 2" xfId="3755" xr:uid="{00000000-0005-0000-0000-0000150C0000}"/>
+    <cellStyle name="Nuovo 44 4 3" xfId="3754" xr:uid="{00000000-0005-0000-0000-0000160C0000}"/>
     <cellStyle name="Nuovo 44 5" xfId="1921" xr:uid="{00000000-0005-0000-0000-0000170C0000}"/>
-    <cellStyle name="Nuovo 44 6" xfId="3751" xr:uid="{00000000-0005-0000-0000-0000180C0000}"/>
+    <cellStyle name="Nuovo 44 6" xfId="3750" xr:uid="{00000000-0005-0000-0000-0000180C0000}"/>
     <cellStyle name="Nuovo 45" xfId="1922" xr:uid="{00000000-0005-0000-0000-0000190C0000}"/>
-    <cellStyle name="Nuovo 45 2" xfId="3757" xr:uid="{00000000-0005-0000-0000-00001A0C0000}"/>
+    <cellStyle name="Nuovo 45 2" xfId="3756" xr:uid="{00000000-0005-0000-0000-00001A0C0000}"/>
     <cellStyle name="Nuovo 46" xfId="1923" xr:uid="{00000000-0005-0000-0000-00001B0C0000}"/>
     <cellStyle name="Nuovo 46 2" xfId="1924" xr:uid="{00000000-0005-0000-0000-00001C0C0000}"/>
     <cellStyle name="Nuovo 46 2 2" xfId="1925" xr:uid="{00000000-0005-0000-0000-00001D0C0000}"/>
-    <cellStyle name="Nuovo 46 2 3" xfId="3759" xr:uid="{00000000-0005-0000-0000-00001E0C0000}"/>
-    <cellStyle name="Nuovo 46 3" xfId="3758" xr:uid="{00000000-0005-0000-0000-00001F0C0000}"/>
+    <cellStyle name="Nuovo 46 2 3" xfId="3758" xr:uid="{00000000-0005-0000-0000-00001E0C0000}"/>
+    <cellStyle name="Nuovo 46 3" xfId="3757" xr:uid="{00000000-0005-0000-0000-00001F0C0000}"/>
     <cellStyle name="Nuovo 47" xfId="1926" xr:uid="{00000000-0005-0000-0000-0000200C0000}"/>
     <cellStyle name="Nuovo 47 2" xfId="1927" xr:uid="{00000000-0005-0000-0000-0000210C0000}"/>
-    <cellStyle name="Nuovo 47 2 2" xfId="3761" xr:uid="{00000000-0005-0000-0000-0000220C0000}"/>
-    <cellStyle name="Nuovo 47 3" xfId="3760" xr:uid="{00000000-0005-0000-0000-0000230C0000}"/>
+    <cellStyle name="Nuovo 47 2 2" xfId="3760" xr:uid="{00000000-0005-0000-0000-0000220C0000}"/>
+    <cellStyle name="Nuovo 47 3" xfId="3759" xr:uid="{00000000-0005-0000-0000-0000230C0000}"/>
     <cellStyle name="Nuovo 48" xfId="1928" xr:uid="{00000000-0005-0000-0000-0000240C0000}"/>
-    <cellStyle name="Nuovo 49" xfId="3528" xr:uid="{00000000-0005-0000-0000-0000250C0000}"/>
+    <cellStyle name="Nuovo 49" xfId="3527" xr:uid="{00000000-0005-0000-0000-0000250C0000}"/>
     <cellStyle name="Nuovo 5" xfId="1929" xr:uid="{00000000-0005-0000-0000-0000260C0000}"/>
     <cellStyle name="Nuovo 5 2" xfId="1930" xr:uid="{00000000-0005-0000-0000-0000270C0000}"/>
-    <cellStyle name="Nuovo 5 2 2" xfId="3763" xr:uid="{00000000-0005-0000-0000-0000280C0000}"/>
+    <cellStyle name="Nuovo 5 2 2" xfId="3762" xr:uid="{00000000-0005-0000-0000-0000280C0000}"/>
     <cellStyle name="Nuovo 5 3" xfId="1931" xr:uid="{00000000-0005-0000-0000-0000290C0000}"/>
     <cellStyle name="Nuovo 5 3 2" xfId="1932" xr:uid="{00000000-0005-0000-0000-00002A0C0000}"/>
     <cellStyle name="Nuovo 5 3 2 2" xfId="1933" xr:uid="{00000000-0005-0000-0000-00002B0C0000}"/>
-    <cellStyle name="Nuovo 5 3 2 3" xfId="3765" xr:uid="{00000000-0005-0000-0000-00002C0C0000}"/>
-    <cellStyle name="Nuovo 5 3 3" xfId="3764" xr:uid="{00000000-0005-0000-0000-00002D0C0000}"/>
+    <cellStyle name="Nuovo 5 3 2 3" xfId="3764" xr:uid="{00000000-0005-0000-0000-00002C0C0000}"/>
+    <cellStyle name="Nuovo 5 3 3" xfId="3763" xr:uid="{00000000-0005-0000-0000-00002D0C0000}"/>
     <cellStyle name="Nuovo 5 4" xfId="1934" xr:uid="{00000000-0005-0000-0000-00002E0C0000}"/>
     <cellStyle name="Nuovo 5 4 2" xfId="1935" xr:uid="{00000000-0005-0000-0000-00002F0C0000}"/>
-    <cellStyle name="Nuovo 5 4 2 2" xfId="3767" xr:uid="{00000000-0005-0000-0000-0000300C0000}"/>
-    <cellStyle name="Nuovo 5 4 3" xfId="3766" xr:uid="{00000000-0005-0000-0000-0000310C0000}"/>
+    <cellStyle name="Nuovo 5 4 2 2" xfId="3766" xr:uid="{00000000-0005-0000-0000-0000300C0000}"/>
+    <cellStyle name="Nuovo 5 4 3" xfId="3765" xr:uid="{00000000-0005-0000-0000-0000310C0000}"/>
     <cellStyle name="Nuovo 5 5" xfId="1936" xr:uid="{00000000-0005-0000-0000-0000320C0000}"/>
-    <cellStyle name="Nuovo 5 6" xfId="3762" xr:uid="{00000000-0005-0000-0000-0000330C0000}"/>
+    <cellStyle name="Nuovo 5 6" xfId="3761" xr:uid="{00000000-0005-0000-0000-0000330C0000}"/>
     <cellStyle name="Nuovo 6" xfId="1937" xr:uid="{00000000-0005-0000-0000-0000340C0000}"/>
     <cellStyle name="Nuovo 6 2" xfId="1938" xr:uid="{00000000-0005-0000-0000-0000350C0000}"/>
-    <cellStyle name="Nuovo 6 2 2" xfId="3769" xr:uid="{00000000-0005-0000-0000-0000360C0000}"/>
+    <cellStyle name="Nuovo 6 2 2" xfId="3768" xr:uid="{00000000-0005-0000-0000-0000360C0000}"/>
     <cellStyle name="Nuovo 6 3" xfId="1939" xr:uid="{00000000-0005-0000-0000-0000370C0000}"/>
     <cellStyle name="Nuovo 6 3 2" xfId="1940" xr:uid="{00000000-0005-0000-0000-0000380C0000}"/>
     <cellStyle name="Nuovo 6 3 2 2" xfId="1941" xr:uid="{00000000-0005-0000-0000-0000390C0000}"/>
-    <cellStyle name="Nuovo 6 3 2 3" xfId="3771" xr:uid="{00000000-0005-0000-0000-00003A0C0000}"/>
-    <cellStyle name="Nuovo 6 3 3" xfId="3770" xr:uid="{00000000-0005-0000-0000-00003B0C0000}"/>
+    <cellStyle name="Nuovo 6 3 2 3" xfId="3770" xr:uid="{00000000-0005-0000-0000-00003A0C0000}"/>
+    <cellStyle name="Nuovo 6 3 3" xfId="3769" xr:uid="{00000000-0005-0000-0000-00003B0C0000}"/>
     <cellStyle name="Nuovo 6 4" xfId="1942" xr:uid="{00000000-0005-0000-0000-00003C0C0000}"/>
     <cellStyle name="Nuovo 6 4 2" xfId="1943" xr:uid="{00000000-0005-0000-0000-00003D0C0000}"/>
-    <cellStyle name="Nuovo 6 4 2 2" xfId="3773" xr:uid="{00000000-0005-0000-0000-00003E0C0000}"/>
-    <cellStyle name="Nuovo 6 4 3" xfId="3772" xr:uid="{00000000-0005-0000-0000-00003F0C0000}"/>
+    <cellStyle name="Nuovo 6 4 2 2" xfId="3772" xr:uid="{00000000-0005-0000-0000-00003E0C0000}"/>
+    <cellStyle name="Nuovo 6 4 3" xfId="3771" xr:uid="{00000000-0005-0000-0000-00003F0C0000}"/>
     <cellStyle name="Nuovo 6 5" xfId="1944" xr:uid="{00000000-0005-0000-0000-0000400C0000}"/>
-    <cellStyle name="Nuovo 6 6" xfId="3768" xr:uid="{00000000-0005-0000-0000-0000410C0000}"/>
+    <cellStyle name="Nuovo 6 6" xfId="3767" xr:uid="{00000000-0005-0000-0000-0000410C0000}"/>
     <cellStyle name="Nuovo 7" xfId="1945" xr:uid="{00000000-0005-0000-0000-0000420C0000}"/>
     <cellStyle name="Nuovo 7 2" xfId="1946" xr:uid="{00000000-0005-0000-0000-0000430C0000}"/>
-    <cellStyle name="Nuovo 7 2 2" xfId="3775" xr:uid="{00000000-0005-0000-0000-0000440C0000}"/>
+    <cellStyle name="Nuovo 7 2 2" xfId="3774" xr:uid="{00000000-0005-0000-0000-0000440C0000}"/>
     <cellStyle name="Nuovo 7 3" xfId="1947" xr:uid="{00000000-0005-0000-0000-0000450C0000}"/>
     <cellStyle name="Nuovo 7 3 2" xfId="1948" xr:uid="{00000000-0005-0000-0000-0000460C0000}"/>
     <cellStyle name="Nuovo 7 3 2 2" xfId="1949" xr:uid="{00000000-0005-0000-0000-0000470C0000}"/>
-    <cellStyle name="Nuovo 7 3 2 3" xfId="3777" xr:uid="{00000000-0005-0000-0000-0000480C0000}"/>
-    <cellStyle name="Nuovo 7 3 3" xfId="3776" xr:uid="{00000000-0005-0000-0000-0000490C0000}"/>
+    <cellStyle name="Nuovo 7 3 2 3" xfId="3776" xr:uid="{00000000-0005-0000-0000-0000480C0000}"/>
+    <cellStyle name="Nuovo 7 3 3" xfId="3775" xr:uid="{00000000-0005-0000-0000-0000490C0000}"/>
     <cellStyle name="Nuovo 7 4" xfId="1950" xr:uid="{00000000-0005-0000-0000-00004A0C0000}"/>
     <cellStyle name="Nuovo 7 4 2" xfId="1951" xr:uid="{00000000-0005-0000-0000-00004B0C0000}"/>
-    <cellStyle name="Nuovo 7 4 2 2" xfId="3779" xr:uid="{00000000-0005-0000-0000-00004C0C0000}"/>
-    <cellStyle name="Nuovo 7 4 3" xfId="3778" xr:uid="{00000000-0005-0000-0000-00004D0C0000}"/>
+    <cellStyle name="Nuovo 7 4 2 2" xfId="3778" xr:uid="{00000000-0005-0000-0000-00004C0C0000}"/>
+    <cellStyle name="Nuovo 7 4 3" xfId="3777" xr:uid="{00000000-0005-0000-0000-00004D0C0000}"/>
     <cellStyle name="Nuovo 7 5" xfId="1952" xr:uid="{00000000-0005-0000-0000-00004E0C0000}"/>
-    <cellStyle name="Nuovo 7 6" xfId="3774" xr:uid="{00000000-0005-0000-0000-00004F0C0000}"/>
+    <cellStyle name="Nuovo 7 6" xfId="3773" xr:uid="{00000000-0005-0000-0000-00004F0C0000}"/>
     <cellStyle name="Nuovo 8" xfId="1953" xr:uid="{00000000-0005-0000-0000-0000500C0000}"/>
     <cellStyle name="Nuovo 8 2" xfId="1954" xr:uid="{00000000-0005-0000-0000-0000510C0000}"/>
-    <cellStyle name="Nuovo 8 2 2" xfId="3781" xr:uid="{00000000-0005-0000-0000-0000520C0000}"/>
+    <cellStyle name="Nuovo 8 2 2" xfId="3780" xr:uid="{00000000-0005-0000-0000-0000520C0000}"/>
     <cellStyle name="Nuovo 8 3" xfId="1955" xr:uid="{00000000-0005-0000-0000-0000530C0000}"/>
     <cellStyle name="Nuovo 8 3 2" xfId="1956" xr:uid="{00000000-0005-0000-0000-0000540C0000}"/>
     <cellStyle name="Nuovo 8 3 2 2" xfId="1957" xr:uid="{00000000-0005-0000-0000-0000550C0000}"/>
-    <cellStyle name="Nuovo 8 3 2 3" xfId="3783" xr:uid="{00000000-0005-0000-0000-0000560C0000}"/>
-    <cellStyle name="Nuovo 8 3 3" xfId="3782" xr:uid="{00000000-0005-0000-0000-0000570C0000}"/>
+    <cellStyle name="Nuovo 8 3 2 3" xfId="3782" xr:uid="{00000000-0005-0000-0000-0000560C0000}"/>
+    <cellStyle name="Nuovo 8 3 3" xfId="3781" xr:uid="{00000000-0005-0000-0000-0000570C0000}"/>
     <cellStyle name="Nuovo 8 4" xfId="1958" xr:uid="{00000000-0005-0000-0000-0000580C0000}"/>
     <cellStyle name="Nuovo 8 4 2" xfId="1959" xr:uid="{00000000-0005-0000-0000-0000590C0000}"/>
-    <cellStyle name="Nuovo 8 4 2 2" xfId="3785" xr:uid="{00000000-0005-0000-0000-00005A0C0000}"/>
-    <cellStyle name="Nuovo 8 4 3" xfId="3784" xr:uid="{00000000-0005-0000-0000-00005B0C0000}"/>
+    <cellStyle name="Nuovo 8 4 2 2" xfId="3784" xr:uid="{00000000-0005-0000-0000-00005A0C0000}"/>
+    <cellStyle name="Nuovo 8 4 3" xfId="3783" xr:uid="{00000000-0005-0000-0000-00005B0C0000}"/>
     <cellStyle name="Nuovo 8 5" xfId="1960" xr:uid="{00000000-0005-0000-0000-00005C0C0000}"/>
-    <cellStyle name="Nuovo 8 6" xfId="3780" xr:uid="{00000000-0005-0000-0000-00005D0C0000}"/>
+    <cellStyle name="Nuovo 8 6" xfId="3779" xr:uid="{00000000-0005-0000-0000-00005D0C0000}"/>
     <cellStyle name="Nuovo 9" xfId="1961" xr:uid="{00000000-0005-0000-0000-00005E0C0000}"/>
     <cellStyle name="Nuovo 9 2" xfId="1962" xr:uid="{00000000-0005-0000-0000-00005F0C0000}"/>
-    <cellStyle name="Nuovo 9 2 2" xfId="3787" xr:uid="{00000000-0005-0000-0000-0000600C0000}"/>
+    <cellStyle name="Nuovo 9 2 2" xfId="3786" xr:uid="{00000000-0005-0000-0000-0000600C0000}"/>
     <cellStyle name="Nuovo 9 3" xfId="1963" xr:uid="{00000000-0005-0000-0000-0000610C0000}"/>
     <cellStyle name="Nuovo 9 3 2" xfId="1964" xr:uid="{00000000-0005-0000-0000-0000620C0000}"/>
     <cellStyle name="Nuovo 9 3 2 2" xfId="1965" xr:uid="{00000000-0005-0000-0000-0000630C0000}"/>
-    <cellStyle name="Nuovo 9 3 2 3" xfId="3789" xr:uid="{00000000-0005-0000-0000-0000640C0000}"/>
-    <cellStyle name="Nuovo 9 3 3" xfId="3788" xr:uid="{00000000-0005-0000-0000-0000650C0000}"/>
+    <cellStyle name="Nuovo 9 3 2 3" xfId="3788" xr:uid="{00000000-0005-0000-0000-0000640C0000}"/>
+    <cellStyle name="Nuovo 9 3 3" xfId="3787" xr:uid="{00000000-0005-0000-0000-0000650C0000}"/>
     <cellStyle name="Nuovo 9 4" xfId="1966" xr:uid="{00000000-0005-0000-0000-0000660C0000}"/>
     <cellStyle name="Nuovo 9 4 2" xfId="1967" xr:uid="{00000000-0005-0000-0000-0000670C0000}"/>
-    <cellStyle name="Nuovo 9 4 2 2" xfId="3791" xr:uid="{00000000-0005-0000-0000-0000680C0000}"/>
-    <cellStyle name="Nuovo 9 4 3" xfId="3790" xr:uid="{00000000-0005-0000-0000-0000690C0000}"/>
+    <cellStyle name="Nuovo 9 4 2 2" xfId="3790" xr:uid="{00000000-0005-0000-0000-0000680C0000}"/>
+    <cellStyle name="Nuovo 9 4 3" xfId="3789" xr:uid="{00000000-0005-0000-0000-0000690C0000}"/>
     <cellStyle name="Nuovo 9 5" xfId="1968" xr:uid="{00000000-0005-0000-0000-00006A0C0000}"/>
-    <cellStyle name="Nuovo 9 6" xfId="3786" xr:uid="{00000000-0005-0000-0000-00006B0C0000}"/>
+    <cellStyle name="Nuovo 9 6" xfId="3785" xr:uid="{00000000-0005-0000-0000-00006B0C0000}"/>
     <cellStyle name="Output 2" xfId="1969" xr:uid="{00000000-0005-0000-0000-00006C0C0000}"/>
     <cellStyle name="Output 2 2" xfId="1970" xr:uid="{00000000-0005-0000-0000-00006D0C0000}"/>
     <cellStyle name="Output 2 2 2" xfId="1971" xr:uid="{00000000-0005-0000-0000-00006E0C0000}"/>
@@ -8774,1027 +8775,1027 @@
     <cellStyle name="Percent 2" xfId="1976" xr:uid="{00000000-0005-0000-0000-0000730C0000}"/>
     <cellStyle name="Percent 2 2" xfId="1977" xr:uid="{00000000-0005-0000-0000-0000740C0000}"/>
     <cellStyle name="Percent 2 2 2" xfId="1978" xr:uid="{00000000-0005-0000-0000-0000750C0000}"/>
-    <cellStyle name="Percent 2 2 2 2" xfId="3793" xr:uid="{00000000-0005-0000-0000-0000760C0000}"/>
+    <cellStyle name="Percent 2 2 2 2" xfId="3792" xr:uid="{00000000-0005-0000-0000-0000760C0000}"/>
     <cellStyle name="Percent 2 2 3" xfId="1979" xr:uid="{00000000-0005-0000-0000-0000770C0000}"/>
     <cellStyle name="Percent 2 2 3 2" xfId="1980" xr:uid="{00000000-0005-0000-0000-0000780C0000}"/>
     <cellStyle name="Percent 2 2 4" xfId="1981" xr:uid="{00000000-0005-0000-0000-0000790C0000}"/>
     <cellStyle name="Percent 2 3" xfId="1982" xr:uid="{00000000-0005-0000-0000-00007A0C0000}"/>
     <cellStyle name="Percent 2 3 2" xfId="1983" xr:uid="{00000000-0005-0000-0000-00007B0C0000}"/>
-    <cellStyle name="Percent 2 4" xfId="3792" xr:uid="{00000000-0005-0000-0000-00007C0C0000}"/>
+    <cellStyle name="Percent 2 4" xfId="3791" xr:uid="{00000000-0005-0000-0000-00007C0C0000}"/>
     <cellStyle name="Percent 3" xfId="1984" xr:uid="{00000000-0005-0000-0000-00007D0C0000}"/>
     <cellStyle name="Percent 3 2" xfId="1985" xr:uid="{00000000-0005-0000-0000-00007E0C0000}"/>
     <cellStyle name="Percent 3 3" xfId="1986" xr:uid="{00000000-0005-0000-0000-00007F0C0000}"/>
     <cellStyle name="Percent 3 3 2" xfId="1987" xr:uid="{00000000-0005-0000-0000-0000800C0000}"/>
     <cellStyle name="Percent 3 3 2 2" xfId="1988" xr:uid="{00000000-0005-0000-0000-0000810C0000}"/>
-    <cellStyle name="Percent 3 3 2 3" xfId="3796" xr:uid="{00000000-0005-0000-0000-0000820C0000}"/>
-    <cellStyle name="Percent 3 3 3" xfId="3795" xr:uid="{00000000-0005-0000-0000-0000830C0000}"/>
+    <cellStyle name="Percent 3 3 2 3" xfId="3795" xr:uid="{00000000-0005-0000-0000-0000820C0000}"/>
+    <cellStyle name="Percent 3 3 3" xfId="3794" xr:uid="{00000000-0005-0000-0000-0000830C0000}"/>
     <cellStyle name="Percent 3 4" xfId="1989" xr:uid="{00000000-0005-0000-0000-0000840C0000}"/>
     <cellStyle name="Percent 3 4 2" xfId="1990" xr:uid="{00000000-0005-0000-0000-0000850C0000}"/>
-    <cellStyle name="Percent 3 4 3" xfId="3797" xr:uid="{00000000-0005-0000-0000-0000860C0000}"/>
-    <cellStyle name="Percent 3 5" xfId="3794" xr:uid="{00000000-0005-0000-0000-0000870C0000}"/>
+    <cellStyle name="Percent 3 4 3" xfId="3796" xr:uid="{00000000-0005-0000-0000-0000860C0000}"/>
+    <cellStyle name="Percent 3 5" xfId="3793" xr:uid="{00000000-0005-0000-0000-0000870C0000}"/>
     <cellStyle name="Percent 4" xfId="1991" xr:uid="{00000000-0005-0000-0000-0000880C0000}"/>
-    <cellStyle name="Percent 4 2" xfId="3798" xr:uid="{00000000-0005-0000-0000-0000890C0000}"/>
+    <cellStyle name="Percent 4 2" xfId="3797" xr:uid="{00000000-0005-0000-0000-0000890C0000}"/>
     <cellStyle name="Percent 5" xfId="1992" xr:uid="{00000000-0005-0000-0000-00008A0C0000}"/>
     <cellStyle name="Percent 6" xfId="1993" xr:uid="{00000000-0005-0000-0000-00008B0C0000}"/>
     <cellStyle name="Percentuale 10" xfId="1994" xr:uid="{00000000-0005-0000-0000-00008C0C0000}"/>
     <cellStyle name="Percentuale 10 2" xfId="1995" xr:uid="{00000000-0005-0000-0000-00008D0C0000}"/>
-    <cellStyle name="Percentuale 10 2 2" xfId="3800" xr:uid="{00000000-0005-0000-0000-00008E0C0000}"/>
+    <cellStyle name="Percentuale 10 2 2" xfId="3799" xr:uid="{00000000-0005-0000-0000-00008E0C0000}"/>
     <cellStyle name="Percentuale 10 3" xfId="1996" xr:uid="{00000000-0005-0000-0000-00008F0C0000}"/>
     <cellStyle name="Percentuale 10 3 2" xfId="1997" xr:uid="{00000000-0005-0000-0000-0000900C0000}"/>
     <cellStyle name="Percentuale 10 3 2 2" xfId="1998" xr:uid="{00000000-0005-0000-0000-0000910C0000}"/>
-    <cellStyle name="Percentuale 10 3 2 3" xfId="3802" xr:uid="{00000000-0005-0000-0000-0000920C0000}"/>
-    <cellStyle name="Percentuale 10 3 3" xfId="3801" xr:uid="{00000000-0005-0000-0000-0000930C0000}"/>
+    <cellStyle name="Percentuale 10 3 2 3" xfId="3801" xr:uid="{00000000-0005-0000-0000-0000920C0000}"/>
+    <cellStyle name="Percentuale 10 3 3" xfId="3800" xr:uid="{00000000-0005-0000-0000-0000930C0000}"/>
     <cellStyle name="Percentuale 10 4" xfId="1999" xr:uid="{00000000-0005-0000-0000-0000940C0000}"/>
     <cellStyle name="Percentuale 10 4 2" xfId="2000" xr:uid="{00000000-0005-0000-0000-0000950C0000}"/>
-    <cellStyle name="Percentuale 10 4 2 2" xfId="3804" xr:uid="{00000000-0005-0000-0000-0000960C0000}"/>
-    <cellStyle name="Percentuale 10 4 3" xfId="3803" xr:uid="{00000000-0005-0000-0000-0000970C0000}"/>
+    <cellStyle name="Percentuale 10 4 2 2" xfId="3803" xr:uid="{00000000-0005-0000-0000-0000960C0000}"/>
+    <cellStyle name="Percentuale 10 4 3" xfId="3802" xr:uid="{00000000-0005-0000-0000-0000970C0000}"/>
     <cellStyle name="Percentuale 10 5" xfId="2001" xr:uid="{00000000-0005-0000-0000-0000980C0000}"/>
-    <cellStyle name="Percentuale 10 6" xfId="3799" xr:uid="{00000000-0005-0000-0000-0000990C0000}"/>
+    <cellStyle name="Percentuale 10 6" xfId="3798" xr:uid="{00000000-0005-0000-0000-0000990C0000}"/>
     <cellStyle name="Percentuale 11" xfId="2002" xr:uid="{00000000-0005-0000-0000-00009A0C0000}"/>
     <cellStyle name="Percentuale 11 2" xfId="2003" xr:uid="{00000000-0005-0000-0000-00009B0C0000}"/>
-    <cellStyle name="Percentuale 11 2 2" xfId="3806" xr:uid="{00000000-0005-0000-0000-00009C0C0000}"/>
+    <cellStyle name="Percentuale 11 2 2" xfId="3805" xr:uid="{00000000-0005-0000-0000-00009C0C0000}"/>
     <cellStyle name="Percentuale 11 3" xfId="2004" xr:uid="{00000000-0005-0000-0000-00009D0C0000}"/>
     <cellStyle name="Percentuale 11 3 2" xfId="2005" xr:uid="{00000000-0005-0000-0000-00009E0C0000}"/>
     <cellStyle name="Percentuale 11 3 2 2" xfId="2006" xr:uid="{00000000-0005-0000-0000-00009F0C0000}"/>
-    <cellStyle name="Percentuale 11 3 2 3" xfId="3808" xr:uid="{00000000-0005-0000-0000-0000A00C0000}"/>
-    <cellStyle name="Percentuale 11 3 3" xfId="3807" xr:uid="{00000000-0005-0000-0000-0000A10C0000}"/>
+    <cellStyle name="Percentuale 11 3 2 3" xfId="3807" xr:uid="{00000000-0005-0000-0000-0000A00C0000}"/>
+    <cellStyle name="Percentuale 11 3 3" xfId="3806" xr:uid="{00000000-0005-0000-0000-0000A10C0000}"/>
     <cellStyle name="Percentuale 11 4" xfId="2007" xr:uid="{00000000-0005-0000-0000-0000A20C0000}"/>
     <cellStyle name="Percentuale 11 4 2" xfId="2008" xr:uid="{00000000-0005-0000-0000-0000A30C0000}"/>
-    <cellStyle name="Percentuale 11 4 2 2" xfId="3810" xr:uid="{00000000-0005-0000-0000-0000A40C0000}"/>
-    <cellStyle name="Percentuale 11 4 3" xfId="3809" xr:uid="{00000000-0005-0000-0000-0000A50C0000}"/>
+    <cellStyle name="Percentuale 11 4 2 2" xfId="3809" xr:uid="{00000000-0005-0000-0000-0000A40C0000}"/>
+    <cellStyle name="Percentuale 11 4 3" xfId="3808" xr:uid="{00000000-0005-0000-0000-0000A50C0000}"/>
     <cellStyle name="Percentuale 11 5" xfId="2009" xr:uid="{00000000-0005-0000-0000-0000A60C0000}"/>
-    <cellStyle name="Percentuale 11 6" xfId="3805" xr:uid="{00000000-0005-0000-0000-0000A70C0000}"/>
+    <cellStyle name="Percentuale 11 6" xfId="3804" xr:uid="{00000000-0005-0000-0000-0000A70C0000}"/>
     <cellStyle name="Percentuale 12" xfId="2010" xr:uid="{00000000-0005-0000-0000-0000A80C0000}"/>
     <cellStyle name="Percentuale 12 2" xfId="2011" xr:uid="{00000000-0005-0000-0000-0000A90C0000}"/>
-    <cellStyle name="Percentuale 12 2 2" xfId="3812" xr:uid="{00000000-0005-0000-0000-0000AA0C0000}"/>
+    <cellStyle name="Percentuale 12 2 2" xfId="3811" xr:uid="{00000000-0005-0000-0000-0000AA0C0000}"/>
     <cellStyle name="Percentuale 12 3" xfId="2012" xr:uid="{00000000-0005-0000-0000-0000AB0C0000}"/>
     <cellStyle name="Percentuale 12 3 2" xfId="2013" xr:uid="{00000000-0005-0000-0000-0000AC0C0000}"/>
     <cellStyle name="Percentuale 12 3 2 2" xfId="2014" xr:uid="{00000000-0005-0000-0000-0000AD0C0000}"/>
-    <cellStyle name="Percentuale 12 3 2 3" xfId="3814" xr:uid="{00000000-0005-0000-0000-0000AE0C0000}"/>
-    <cellStyle name="Percentuale 12 3 3" xfId="3813" xr:uid="{00000000-0005-0000-0000-0000AF0C0000}"/>
+    <cellStyle name="Percentuale 12 3 2 3" xfId="3813" xr:uid="{00000000-0005-0000-0000-0000AE0C0000}"/>
+    <cellStyle name="Percentuale 12 3 3" xfId="3812" xr:uid="{00000000-0005-0000-0000-0000AF0C0000}"/>
     <cellStyle name="Percentuale 12 4" xfId="2015" xr:uid="{00000000-0005-0000-0000-0000B00C0000}"/>
     <cellStyle name="Percentuale 12 4 2" xfId="2016" xr:uid="{00000000-0005-0000-0000-0000B10C0000}"/>
-    <cellStyle name="Percentuale 12 4 2 2" xfId="3816" xr:uid="{00000000-0005-0000-0000-0000B20C0000}"/>
-    <cellStyle name="Percentuale 12 4 3" xfId="3815" xr:uid="{00000000-0005-0000-0000-0000B30C0000}"/>
+    <cellStyle name="Percentuale 12 4 2 2" xfId="3815" xr:uid="{00000000-0005-0000-0000-0000B20C0000}"/>
+    <cellStyle name="Percentuale 12 4 3" xfId="3814" xr:uid="{00000000-0005-0000-0000-0000B30C0000}"/>
     <cellStyle name="Percentuale 12 5" xfId="2017" xr:uid="{00000000-0005-0000-0000-0000B40C0000}"/>
-    <cellStyle name="Percentuale 12 6" xfId="3811" xr:uid="{00000000-0005-0000-0000-0000B50C0000}"/>
+    <cellStyle name="Percentuale 12 6" xfId="3810" xr:uid="{00000000-0005-0000-0000-0000B50C0000}"/>
     <cellStyle name="Percentuale 13" xfId="2018" xr:uid="{00000000-0005-0000-0000-0000B60C0000}"/>
     <cellStyle name="Percentuale 13 2" xfId="2019" xr:uid="{00000000-0005-0000-0000-0000B70C0000}"/>
-    <cellStyle name="Percentuale 13 2 2" xfId="3818" xr:uid="{00000000-0005-0000-0000-0000B80C0000}"/>
+    <cellStyle name="Percentuale 13 2 2" xfId="3817" xr:uid="{00000000-0005-0000-0000-0000B80C0000}"/>
     <cellStyle name="Percentuale 13 3" xfId="2020" xr:uid="{00000000-0005-0000-0000-0000B90C0000}"/>
     <cellStyle name="Percentuale 13 3 2" xfId="2021" xr:uid="{00000000-0005-0000-0000-0000BA0C0000}"/>
     <cellStyle name="Percentuale 13 3 2 2" xfId="2022" xr:uid="{00000000-0005-0000-0000-0000BB0C0000}"/>
-    <cellStyle name="Percentuale 13 3 2 3" xfId="3820" xr:uid="{00000000-0005-0000-0000-0000BC0C0000}"/>
-    <cellStyle name="Percentuale 13 3 3" xfId="3819" xr:uid="{00000000-0005-0000-0000-0000BD0C0000}"/>
+    <cellStyle name="Percentuale 13 3 2 3" xfId="3819" xr:uid="{00000000-0005-0000-0000-0000BC0C0000}"/>
+    <cellStyle name="Percentuale 13 3 3" xfId="3818" xr:uid="{00000000-0005-0000-0000-0000BD0C0000}"/>
     <cellStyle name="Percentuale 13 4" xfId="2023" xr:uid="{00000000-0005-0000-0000-0000BE0C0000}"/>
     <cellStyle name="Percentuale 13 4 2" xfId="2024" xr:uid="{00000000-0005-0000-0000-0000BF0C0000}"/>
-    <cellStyle name="Percentuale 13 4 2 2" xfId="3822" xr:uid="{00000000-0005-0000-0000-0000C00C0000}"/>
-    <cellStyle name="Percentuale 13 4 3" xfId="3821" xr:uid="{00000000-0005-0000-0000-0000C10C0000}"/>
+    <cellStyle name="Percentuale 13 4 2 2" xfId="3821" xr:uid="{00000000-0005-0000-0000-0000C00C0000}"/>
+    <cellStyle name="Percentuale 13 4 3" xfId="3820" xr:uid="{00000000-0005-0000-0000-0000C10C0000}"/>
     <cellStyle name="Percentuale 13 5" xfId="2025" xr:uid="{00000000-0005-0000-0000-0000C20C0000}"/>
-    <cellStyle name="Percentuale 13 6" xfId="3817" xr:uid="{00000000-0005-0000-0000-0000C30C0000}"/>
+    <cellStyle name="Percentuale 13 6" xfId="3816" xr:uid="{00000000-0005-0000-0000-0000C30C0000}"/>
     <cellStyle name="Percentuale 14" xfId="2026" xr:uid="{00000000-0005-0000-0000-0000C40C0000}"/>
     <cellStyle name="Percentuale 14 2" xfId="2027" xr:uid="{00000000-0005-0000-0000-0000C50C0000}"/>
-    <cellStyle name="Percentuale 14 2 2" xfId="3824" xr:uid="{00000000-0005-0000-0000-0000C60C0000}"/>
+    <cellStyle name="Percentuale 14 2 2" xfId="3823" xr:uid="{00000000-0005-0000-0000-0000C60C0000}"/>
     <cellStyle name="Percentuale 14 3" xfId="2028" xr:uid="{00000000-0005-0000-0000-0000C70C0000}"/>
     <cellStyle name="Percentuale 14 3 2" xfId="2029" xr:uid="{00000000-0005-0000-0000-0000C80C0000}"/>
     <cellStyle name="Percentuale 14 3 2 2" xfId="2030" xr:uid="{00000000-0005-0000-0000-0000C90C0000}"/>
-    <cellStyle name="Percentuale 14 3 2 3" xfId="3826" xr:uid="{00000000-0005-0000-0000-0000CA0C0000}"/>
-    <cellStyle name="Percentuale 14 3 3" xfId="3825" xr:uid="{00000000-0005-0000-0000-0000CB0C0000}"/>
+    <cellStyle name="Percentuale 14 3 2 3" xfId="3825" xr:uid="{00000000-0005-0000-0000-0000CA0C0000}"/>
+    <cellStyle name="Percentuale 14 3 3" xfId="3824" xr:uid="{00000000-0005-0000-0000-0000CB0C0000}"/>
     <cellStyle name="Percentuale 14 4" xfId="2031" xr:uid="{00000000-0005-0000-0000-0000CC0C0000}"/>
     <cellStyle name="Percentuale 14 4 2" xfId="2032" xr:uid="{00000000-0005-0000-0000-0000CD0C0000}"/>
-    <cellStyle name="Percentuale 14 4 2 2" xfId="3828" xr:uid="{00000000-0005-0000-0000-0000CE0C0000}"/>
-    <cellStyle name="Percentuale 14 4 3" xfId="3827" xr:uid="{00000000-0005-0000-0000-0000CF0C0000}"/>
+    <cellStyle name="Percentuale 14 4 2 2" xfId="3827" xr:uid="{00000000-0005-0000-0000-0000CE0C0000}"/>
+    <cellStyle name="Percentuale 14 4 3" xfId="3826" xr:uid="{00000000-0005-0000-0000-0000CF0C0000}"/>
     <cellStyle name="Percentuale 14 5" xfId="2033" xr:uid="{00000000-0005-0000-0000-0000D00C0000}"/>
-    <cellStyle name="Percentuale 14 6" xfId="3823" xr:uid="{00000000-0005-0000-0000-0000D10C0000}"/>
+    <cellStyle name="Percentuale 14 6" xfId="3822" xr:uid="{00000000-0005-0000-0000-0000D10C0000}"/>
     <cellStyle name="Percentuale 15" xfId="2034" xr:uid="{00000000-0005-0000-0000-0000D20C0000}"/>
     <cellStyle name="Percentuale 15 2" xfId="2035" xr:uid="{00000000-0005-0000-0000-0000D30C0000}"/>
-    <cellStyle name="Percentuale 15 2 2" xfId="3830" xr:uid="{00000000-0005-0000-0000-0000D40C0000}"/>
+    <cellStyle name="Percentuale 15 2 2" xfId="3829" xr:uid="{00000000-0005-0000-0000-0000D40C0000}"/>
     <cellStyle name="Percentuale 15 3" xfId="2036" xr:uid="{00000000-0005-0000-0000-0000D50C0000}"/>
     <cellStyle name="Percentuale 15 3 2" xfId="2037" xr:uid="{00000000-0005-0000-0000-0000D60C0000}"/>
     <cellStyle name="Percentuale 15 3 2 2" xfId="2038" xr:uid="{00000000-0005-0000-0000-0000D70C0000}"/>
-    <cellStyle name="Percentuale 15 3 2 3" xfId="3832" xr:uid="{00000000-0005-0000-0000-0000D80C0000}"/>
-    <cellStyle name="Percentuale 15 3 3" xfId="3831" xr:uid="{00000000-0005-0000-0000-0000D90C0000}"/>
+    <cellStyle name="Percentuale 15 3 2 3" xfId="3831" xr:uid="{00000000-0005-0000-0000-0000D80C0000}"/>
+    <cellStyle name="Percentuale 15 3 3" xfId="3830" xr:uid="{00000000-0005-0000-0000-0000D90C0000}"/>
     <cellStyle name="Percentuale 15 4" xfId="2039" xr:uid="{00000000-0005-0000-0000-0000DA0C0000}"/>
     <cellStyle name="Percentuale 15 4 2" xfId="2040" xr:uid="{00000000-0005-0000-0000-0000DB0C0000}"/>
-    <cellStyle name="Percentuale 15 4 2 2" xfId="3834" xr:uid="{00000000-0005-0000-0000-0000DC0C0000}"/>
-    <cellStyle name="Percentuale 15 4 3" xfId="3833" xr:uid="{00000000-0005-0000-0000-0000DD0C0000}"/>
+    <cellStyle name="Percentuale 15 4 2 2" xfId="3833" xr:uid="{00000000-0005-0000-0000-0000DC0C0000}"/>
+    <cellStyle name="Percentuale 15 4 3" xfId="3832" xr:uid="{00000000-0005-0000-0000-0000DD0C0000}"/>
     <cellStyle name="Percentuale 15 5" xfId="2041" xr:uid="{00000000-0005-0000-0000-0000DE0C0000}"/>
-    <cellStyle name="Percentuale 15 6" xfId="3829" xr:uid="{00000000-0005-0000-0000-0000DF0C0000}"/>
+    <cellStyle name="Percentuale 15 6" xfId="3828" xr:uid="{00000000-0005-0000-0000-0000DF0C0000}"/>
     <cellStyle name="Percentuale 16" xfId="2042" xr:uid="{00000000-0005-0000-0000-0000E00C0000}"/>
     <cellStyle name="Percentuale 16 2" xfId="2043" xr:uid="{00000000-0005-0000-0000-0000E10C0000}"/>
-    <cellStyle name="Percentuale 16 2 2" xfId="3836" xr:uid="{00000000-0005-0000-0000-0000E20C0000}"/>
+    <cellStyle name="Percentuale 16 2 2" xfId="3835" xr:uid="{00000000-0005-0000-0000-0000E20C0000}"/>
     <cellStyle name="Percentuale 16 3" xfId="2044" xr:uid="{00000000-0005-0000-0000-0000E30C0000}"/>
     <cellStyle name="Percentuale 16 3 2" xfId="2045" xr:uid="{00000000-0005-0000-0000-0000E40C0000}"/>
     <cellStyle name="Percentuale 16 3 2 2" xfId="2046" xr:uid="{00000000-0005-0000-0000-0000E50C0000}"/>
-    <cellStyle name="Percentuale 16 3 2 3" xfId="3838" xr:uid="{00000000-0005-0000-0000-0000E60C0000}"/>
-    <cellStyle name="Percentuale 16 3 3" xfId="3837" xr:uid="{00000000-0005-0000-0000-0000E70C0000}"/>
+    <cellStyle name="Percentuale 16 3 2 3" xfId="3837" xr:uid="{00000000-0005-0000-0000-0000E60C0000}"/>
+    <cellStyle name="Percentuale 16 3 3" xfId="3836" xr:uid="{00000000-0005-0000-0000-0000E70C0000}"/>
     <cellStyle name="Percentuale 16 4" xfId="2047" xr:uid="{00000000-0005-0000-0000-0000E80C0000}"/>
     <cellStyle name="Percentuale 16 4 2" xfId="2048" xr:uid="{00000000-0005-0000-0000-0000E90C0000}"/>
-    <cellStyle name="Percentuale 16 4 2 2" xfId="3840" xr:uid="{00000000-0005-0000-0000-0000EA0C0000}"/>
-    <cellStyle name="Percentuale 16 4 3" xfId="3839" xr:uid="{00000000-0005-0000-0000-0000EB0C0000}"/>
+    <cellStyle name="Percentuale 16 4 2 2" xfId="3839" xr:uid="{00000000-0005-0000-0000-0000EA0C0000}"/>
+    <cellStyle name="Percentuale 16 4 3" xfId="3838" xr:uid="{00000000-0005-0000-0000-0000EB0C0000}"/>
     <cellStyle name="Percentuale 16 5" xfId="2049" xr:uid="{00000000-0005-0000-0000-0000EC0C0000}"/>
-    <cellStyle name="Percentuale 16 6" xfId="3835" xr:uid="{00000000-0005-0000-0000-0000ED0C0000}"/>
+    <cellStyle name="Percentuale 16 6" xfId="3834" xr:uid="{00000000-0005-0000-0000-0000ED0C0000}"/>
     <cellStyle name="Percentuale 17" xfId="2050" xr:uid="{00000000-0005-0000-0000-0000EE0C0000}"/>
     <cellStyle name="Percentuale 17 2" xfId="2051" xr:uid="{00000000-0005-0000-0000-0000EF0C0000}"/>
-    <cellStyle name="Percentuale 17 2 2" xfId="3842" xr:uid="{00000000-0005-0000-0000-0000F00C0000}"/>
+    <cellStyle name="Percentuale 17 2 2" xfId="3841" xr:uid="{00000000-0005-0000-0000-0000F00C0000}"/>
     <cellStyle name="Percentuale 17 3" xfId="2052" xr:uid="{00000000-0005-0000-0000-0000F10C0000}"/>
     <cellStyle name="Percentuale 17 3 2" xfId="2053" xr:uid="{00000000-0005-0000-0000-0000F20C0000}"/>
     <cellStyle name="Percentuale 17 3 2 2" xfId="2054" xr:uid="{00000000-0005-0000-0000-0000F30C0000}"/>
-    <cellStyle name="Percentuale 17 3 2 3" xfId="3844" xr:uid="{00000000-0005-0000-0000-0000F40C0000}"/>
-    <cellStyle name="Percentuale 17 3 3" xfId="3843" xr:uid="{00000000-0005-0000-0000-0000F50C0000}"/>
+    <cellStyle name="Percentuale 17 3 2 3" xfId="3843" xr:uid="{00000000-0005-0000-0000-0000F40C0000}"/>
+    <cellStyle name="Percentuale 17 3 3" xfId="3842" xr:uid="{00000000-0005-0000-0000-0000F50C0000}"/>
     <cellStyle name="Percentuale 17 4" xfId="2055" xr:uid="{00000000-0005-0000-0000-0000F60C0000}"/>
     <cellStyle name="Percentuale 17 4 2" xfId="2056" xr:uid="{00000000-0005-0000-0000-0000F70C0000}"/>
-    <cellStyle name="Percentuale 17 4 2 2" xfId="3846" xr:uid="{00000000-0005-0000-0000-0000F80C0000}"/>
-    <cellStyle name="Percentuale 17 4 3" xfId="3845" xr:uid="{00000000-0005-0000-0000-0000F90C0000}"/>
+    <cellStyle name="Percentuale 17 4 2 2" xfId="3845" xr:uid="{00000000-0005-0000-0000-0000F80C0000}"/>
+    <cellStyle name="Percentuale 17 4 3" xfId="3844" xr:uid="{00000000-0005-0000-0000-0000F90C0000}"/>
     <cellStyle name="Percentuale 17 5" xfId="2057" xr:uid="{00000000-0005-0000-0000-0000FA0C0000}"/>
-    <cellStyle name="Percentuale 17 6" xfId="3841" xr:uid="{00000000-0005-0000-0000-0000FB0C0000}"/>
+    <cellStyle name="Percentuale 17 6" xfId="3840" xr:uid="{00000000-0005-0000-0000-0000FB0C0000}"/>
     <cellStyle name="Percentuale 18" xfId="2058" xr:uid="{00000000-0005-0000-0000-0000FC0C0000}"/>
     <cellStyle name="Percentuale 18 2" xfId="2059" xr:uid="{00000000-0005-0000-0000-0000FD0C0000}"/>
-    <cellStyle name="Percentuale 18 2 2" xfId="3848" xr:uid="{00000000-0005-0000-0000-0000FE0C0000}"/>
+    <cellStyle name="Percentuale 18 2 2" xfId="3847" xr:uid="{00000000-0005-0000-0000-0000FE0C0000}"/>
     <cellStyle name="Percentuale 18 3" xfId="2060" xr:uid="{00000000-0005-0000-0000-0000FF0C0000}"/>
     <cellStyle name="Percentuale 18 3 2" xfId="2061" xr:uid="{00000000-0005-0000-0000-0000000D0000}"/>
     <cellStyle name="Percentuale 18 3 2 2" xfId="2062" xr:uid="{00000000-0005-0000-0000-0000010D0000}"/>
-    <cellStyle name="Percentuale 18 3 2 3" xfId="3850" xr:uid="{00000000-0005-0000-0000-0000020D0000}"/>
-    <cellStyle name="Percentuale 18 3 3" xfId="3849" xr:uid="{00000000-0005-0000-0000-0000030D0000}"/>
+    <cellStyle name="Percentuale 18 3 2 3" xfId="3849" xr:uid="{00000000-0005-0000-0000-0000020D0000}"/>
+    <cellStyle name="Percentuale 18 3 3" xfId="3848" xr:uid="{00000000-0005-0000-0000-0000030D0000}"/>
     <cellStyle name="Percentuale 18 4" xfId="2063" xr:uid="{00000000-0005-0000-0000-0000040D0000}"/>
     <cellStyle name="Percentuale 18 4 2" xfId="2064" xr:uid="{00000000-0005-0000-0000-0000050D0000}"/>
-    <cellStyle name="Percentuale 18 4 2 2" xfId="3852" xr:uid="{00000000-0005-0000-0000-0000060D0000}"/>
-    <cellStyle name="Percentuale 18 4 3" xfId="3851" xr:uid="{00000000-0005-0000-0000-0000070D0000}"/>
+    <cellStyle name="Percentuale 18 4 2 2" xfId="3851" xr:uid="{00000000-0005-0000-0000-0000060D0000}"/>
+    <cellStyle name="Percentuale 18 4 3" xfId="3850" xr:uid="{00000000-0005-0000-0000-0000070D0000}"/>
     <cellStyle name="Percentuale 18 5" xfId="2065" xr:uid="{00000000-0005-0000-0000-0000080D0000}"/>
-    <cellStyle name="Percentuale 18 6" xfId="3847" xr:uid="{00000000-0005-0000-0000-0000090D0000}"/>
+    <cellStyle name="Percentuale 18 6" xfId="3846" xr:uid="{00000000-0005-0000-0000-0000090D0000}"/>
     <cellStyle name="Percentuale 19" xfId="2066" xr:uid="{00000000-0005-0000-0000-00000A0D0000}"/>
     <cellStyle name="Percentuale 19 2" xfId="2067" xr:uid="{00000000-0005-0000-0000-00000B0D0000}"/>
-    <cellStyle name="Percentuale 19 2 2" xfId="3854" xr:uid="{00000000-0005-0000-0000-00000C0D0000}"/>
+    <cellStyle name="Percentuale 19 2 2" xfId="3853" xr:uid="{00000000-0005-0000-0000-00000C0D0000}"/>
     <cellStyle name="Percentuale 19 3" xfId="2068" xr:uid="{00000000-0005-0000-0000-00000D0D0000}"/>
     <cellStyle name="Percentuale 19 3 2" xfId="2069" xr:uid="{00000000-0005-0000-0000-00000E0D0000}"/>
     <cellStyle name="Percentuale 19 3 2 2" xfId="2070" xr:uid="{00000000-0005-0000-0000-00000F0D0000}"/>
-    <cellStyle name="Percentuale 19 3 2 3" xfId="3856" xr:uid="{00000000-0005-0000-0000-0000100D0000}"/>
-    <cellStyle name="Percentuale 19 3 3" xfId="3855" xr:uid="{00000000-0005-0000-0000-0000110D0000}"/>
+    <cellStyle name="Percentuale 19 3 2 3" xfId="3855" xr:uid="{00000000-0005-0000-0000-0000100D0000}"/>
+    <cellStyle name="Percentuale 19 3 3" xfId="3854" xr:uid="{00000000-0005-0000-0000-0000110D0000}"/>
     <cellStyle name="Percentuale 19 4" xfId="2071" xr:uid="{00000000-0005-0000-0000-0000120D0000}"/>
     <cellStyle name="Percentuale 19 4 2" xfId="2072" xr:uid="{00000000-0005-0000-0000-0000130D0000}"/>
-    <cellStyle name="Percentuale 19 4 2 2" xfId="3858" xr:uid="{00000000-0005-0000-0000-0000140D0000}"/>
-    <cellStyle name="Percentuale 19 4 3" xfId="3857" xr:uid="{00000000-0005-0000-0000-0000150D0000}"/>
+    <cellStyle name="Percentuale 19 4 2 2" xfId="3857" xr:uid="{00000000-0005-0000-0000-0000140D0000}"/>
+    <cellStyle name="Percentuale 19 4 3" xfId="3856" xr:uid="{00000000-0005-0000-0000-0000150D0000}"/>
     <cellStyle name="Percentuale 19 5" xfId="2073" xr:uid="{00000000-0005-0000-0000-0000160D0000}"/>
-    <cellStyle name="Percentuale 19 6" xfId="3853" xr:uid="{00000000-0005-0000-0000-0000170D0000}"/>
+    <cellStyle name="Percentuale 19 6" xfId="3852" xr:uid="{00000000-0005-0000-0000-0000170D0000}"/>
     <cellStyle name="Percentuale 2" xfId="2074" xr:uid="{00000000-0005-0000-0000-0000180D0000}"/>
     <cellStyle name="Percentuale 2 2" xfId="2075" xr:uid="{00000000-0005-0000-0000-0000190D0000}"/>
-    <cellStyle name="Percentuale 2 2 2" xfId="3860" xr:uid="{00000000-0005-0000-0000-00001A0D0000}"/>
+    <cellStyle name="Percentuale 2 2 2" xfId="3859" xr:uid="{00000000-0005-0000-0000-00001A0D0000}"/>
     <cellStyle name="Percentuale 2 3" xfId="2076" xr:uid="{00000000-0005-0000-0000-00001B0D0000}"/>
     <cellStyle name="Percentuale 2 3 2" xfId="2077" xr:uid="{00000000-0005-0000-0000-00001C0D0000}"/>
     <cellStyle name="Percentuale 2 3 2 2" xfId="2078" xr:uid="{00000000-0005-0000-0000-00001D0D0000}"/>
-    <cellStyle name="Percentuale 2 3 2 3" xfId="3862" xr:uid="{00000000-0005-0000-0000-00001E0D0000}"/>
-    <cellStyle name="Percentuale 2 3 3" xfId="3861" xr:uid="{00000000-0005-0000-0000-00001F0D0000}"/>
+    <cellStyle name="Percentuale 2 3 2 3" xfId="3861" xr:uid="{00000000-0005-0000-0000-00001E0D0000}"/>
+    <cellStyle name="Percentuale 2 3 3" xfId="3860" xr:uid="{00000000-0005-0000-0000-00001F0D0000}"/>
     <cellStyle name="Percentuale 2 4" xfId="2079" xr:uid="{00000000-0005-0000-0000-0000200D0000}"/>
     <cellStyle name="Percentuale 2 4 2" xfId="2080" xr:uid="{00000000-0005-0000-0000-0000210D0000}"/>
-    <cellStyle name="Percentuale 2 4 2 2" xfId="3864" xr:uid="{00000000-0005-0000-0000-0000220D0000}"/>
-    <cellStyle name="Percentuale 2 4 3" xfId="3863" xr:uid="{00000000-0005-0000-0000-0000230D0000}"/>
+    <cellStyle name="Percentuale 2 4 2 2" xfId="3863" xr:uid="{00000000-0005-0000-0000-0000220D0000}"/>
+    <cellStyle name="Percentuale 2 4 3" xfId="3862" xr:uid="{00000000-0005-0000-0000-0000230D0000}"/>
     <cellStyle name="Percentuale 2 5" xfId="2081" xr:uid="{00000000-0005-0000-0000-0000240D0000}"/>
-    <cellStyle name="Percentuale 2 6" xfId="3859" xr:uid="{00000000-0005-0000-0000-0000250D0000}"/>
+    <cellStyle name="Percentuale 2 6" xfId="3858" xr:uid="{00000000-0005-0000-0000-0000250D0000}"/>
     <cellStyle name="Percentuale 20" xfId="2082" xr:uid="{00000000-0005-0000-0000-0000260D0000}"/>
     <cellStyle name="Percentuale 20 2" xfId="2083" xr:uid="{00000000-0005-0000-0000-0000270D0000}"/>
-    <cellStyle name="Percentuale 20 2 2" xfId="3866" xr:uid="{00000000-0005-0000-0000-0000280D0000}"/>
+    <cellStyle name="Percentuale 20 2 2" xfId="3865" xr:uid="{00000000-0005-0000-0000-0000280D0000}"/>
     <cellStyle name="Percentuale 20 3" xfId="2084" xr:uid="{00000000-0005-0000-0000-0000290D0000}"/>
     <cellStyle name="Percentuale 20 3 2" xfId="2085" xr:uid="{00000000-0005-0000-0000-00002A0D0000}"/>
     <cellStyle name="Percentuale 20 3 2 2" xfId="2086" xr:uid="{00000000-0005-0000-0000-00002B0D0000}"/>
-    <cellStyle name="Percentuale 20 3 2 3" xfId="3868" xr:uid="{00000000-0005-0000-0000-00002C0D0000}"/>
-    <cellStyle name="Percentuale 20 3 3" xfId="3867" xr:uid="{00000000-0005-0000-0000-00002D0D0000}"/>
+    <cellStyle name="Percentuale 20 3 2 3" xfId="3867" xr:uid="{00000000-0005-0000-0000-00002C0D0000}"/>
+    <cellStyle name="Percentuale 20 3 3" xfId="3866" xr:uid="{00000000-0005-0000-0000-00002D0D0000}"/>
     <cellStyle name="Percentuale 20 4" xfId="2087" xr:uid="{00000000-0005-0000-0000-00002E0D0000}"/>
     <cellStyle name="Percentuale 20 4 2" xfId="2088" xr:uid="{00000000-0005-0000-0000-00002F0D0000}"/>
-    <cellStyle name="Percentuale 20 4 2 2" xfId="3870" xr:uid="{00000000-0005-0000-0000-0000300D0000}"/>
-    <cellStyle name="Percentuale 20 4 3" xfId="3869" xr:uid="{00000000-0005-0000-0000-0000310D0000}"/>
+    <cellStyle name="Percentuale 20 4 2 2" xfId="3869" xr:uid="{00000000-0005-0000-0000-0000300D0000}"/>
+    <cellStyle name="Percentuale 20 4 3" xfId="3868" xr:uid="{00000000-0005-0000-0000-0000310D0000}"/>
     <cellStyle name="Percentuale 20 5" xfId="2089" xr:uid="{00000000-0005-0000-0000-0000320D0000}"/>
-    <cellStyle name="Percentuale 20 6" xfId="3865" xr:uid="{00000000-0005-0000-0000-0000330D0000}"/>
+    <cellStyle name="Percentuale 20 6" xfId="3864" xr:uid="{00000000-0005-0000-0000-0000330D0000}"/>
     <cellStyle name="Percentuale 21" xfId="2090" xr:uid="{00000000-0005-0000-0000-0000340D0000}"/>
     <cellStyle name="Percentuale 21 2" xfId="2091" xr:uid="{00000000-0005-0000-0000-0000350D0000}"/>
-    <cellStyle name="Percentuale 21 2 2" xfId="3872" xr:uid="{00000000-0005-0000-0000-0000360D0000}"/>
+    <cellStyle name="Percentuale 21 2 2" xfId="3871" xr:uid="{00000000-0005-0000-0000-0000360D0000}"/>
     <cellStyle name="Percentuale 21 3" xfId="2092" xr:uid="{00000000-0005-0000-0000-0000370D0000}"/>
     <cellStyle name="Percentuale 21 3 2" xfId="2093" xr:uid="{00000000-0005-0000-0000-0000380D0000}"/>
     <cellStyle name="Percentuale 21 3 2 2" xfId="2094" xr:uid="{00000000-0005-0000-0000-0000390D0000}"/>
-    <cellStyle name="Percentuale 21 3 2 3" xfId="3874" xr:uid="{00000000-0005-0000-0000-00003A0D0000}"/>
-    <cellStyle name="Percentuale 21 3 3" xfId="3873" xr:uid="{00000000-0005-0000-0000-00003B0D0000}"/>
+    <cellStyle name="Percentuale 21 3 2 3" xfId="3873" xr:uid="{00000000-0005-0000-0000-00003A0D0000}"/>
+    <cellStyle name="Percentuale 21 3 3" xfId="3872" xr:uid="{00000000-0005-0000-0000-00003B0D0000}"/>
     <cellStyle name="Percentuale 21 4" xfId="2095" xr:uid="{00000000-0005-0000-0000-00003C0D0000}"/>
     <cellStyle name="Percentuale 21 4 2" xfId="2096" xr:uid="{00000000-0005-0000-0000-00003D0D0000}"/>
-    <cellStyle name="Percentuale 21 4 2 2" xfId="3876" xr:uid="{00000000-0005-0000-0000-00003E0D0000}"/>
-    <cellStyle name="Percentuale 21 4 3" xfId="3875" xr:uid="{00000000-0005-0000-0000-00003F0D0000}"/>
+    <cellStyle name="Percentuale 21 4 2 2" xfId="3875" xr:uid="{00000000-0005-0000-0000-00003E0D0000}"/>
+    <cellStyle name="Percentuale 21 4 3" xfId="3874" xr:uid="{00000000-0005-0000-0000-00003F0D0000}"/>
     <cellStyle name="Percentuale 21 5" xfId="2097" xr:uid="{00000000-0005-0000-0000-0000400D0000}"/>
-    <cellStyle name="Percentuale 21 6" xfId="3871" xr:uid="{00000000-0005-0000-0000-0000410D0000}"/>
+    <cellStyle name="Percentuale 21 6" xfId="3870" xr:uid="{00000000-0005-0000-0000-0000410D0000}"/>
     <cellStyle name="Percentuale 22" xfId="2098" xr:uid="{00000000-0005-0000-0000-0000420D0000}"/>
     <cellStyle name="Percentuale 22 2" xfId="2099" xr:uid="{00000000-0005-0000-0000-0000430D0000}"/>
-    <cellStyle name="Percentuale 22 2 2" xfId="3878" xr:uid="{00000000-0005-0000-0000-0000440D0000}"/>
+    <cellStyle name="Percentuale 22 2 2" xfId="3877" xr:uid="{00000000-0005-0000-0000-0000440D0000}"/>
     <cellStyle name="Percentuale 22 3" xfId="2100" xr:uid="{00000000-0005-0000-0000-0000450D0000}"/>
     <cellStyle name="Percentuale 22 3 2" xfId="2101" xr:uid="{00000000-0005-0000-0000-0000460D0000}"/>
     <cellStyle name="Percentuale 22 3 2 2" xfId="2102" xr:uid="{00000000-0005-0000-0000-0000470D0000}"/>
-    <cellStyle name="Percentuale 22 3 2 3" xfId="3880" xr:uid="{00000000-0005-0000-0000-0000480D0000}"/>
-    <cellStyle name="Percentuale 22 3 3" xfId="3879" xr:uid="{00000000-0005-0000-0000-0000490D0000}"/>
+    <cellStyle name="Percentuale 22 3 2 3" xfId="3879" xr:uid="{00000000-0005-0000-0000-0000480D0000}"/>
+    <cellStyle name="Percentuale 22 3 3" xfId="3878" xr:uid="{00000000-0005-0000-0000-0000490D0000}"/>
     <cellStyle name="Percentuale 22 4" xfId="2103" xr:uid="{00000000-0005-0000-0000-00004A0D0000}"/>
     <cellStyle name="Percentuale 22 4 2" xfId="2104" xr:uid="{00000000-0005-0000-0000-00004B0D0000}"/>
-    <cellStyle name="Percentuale 22 4 2 2" xfId="3882" xr:uid="{00000000-0005-0000-0000-00004C0D0000}"/>
-    <cellStyle name="Percentuale 22 4 3" xfId="3881" xr:uid="{00000000-0005-0000-0000-00004D0D0000}"/>
+    <cellStyle name="Percentuale 22 4 2 2" xfId="3881" xr:uid="{00000000-0005-0000-0000-00004C0D0000}"/>
+    <cellStyle name="Percentuale 22 4 3" xfId="3880" xr:uid="{00000000-0005-0000-0000-00004D0D0000}"/>
     <cellStyle name="Percentuale 22 5" xfId="2105" xr:uid="{00000000-0005-0000-0000-00004E0D0000}"/>
-    <cellStyle name="Percentuale 22 6" xfId="3877" xr:uid="{00000000-0005-0000-0000-00004F0D0000}"/>
+    <cellStyle name="Percentuale 22 6" xfId="3876" xr:uid="{00000000-0005-0000-0000-00004F0D0000}"/>
     <cellStyle name="Percentuale 23" xfId="2106" xr:uid="{00000000-0005-0000-0000-0000500D0000}"/>
     <cellStyle name="Percentuale 23 2" xfId="2107" xr:uid="{00000000-0005-0000-0000-0000510D0000}"/>
-    <cellStyle name="Percentuale 23 2 2" xfId="3884" xr:uid="{00000000-0005-0000-0000-0000520D0000}"/>
+    <cellStyle name="Percentuale 23 2 2" xfId="3883" xr:uid="{00000000-0005-0000-0000-0000520D0000}"/>
     <cellStyle name="Percentuale 23 3" xfId="2108" xr:uid="{00000000-0005-0000-0000-0000530D0000}"/>
     <cellStyle name="Percentuale 23 3 2" xfId="2109" xr:uid="{00000000-0005-0000-0000-0000540D0000}"/>
     <cellStyle name="Percentuale 23 3 2 2" xfId="2110" xr:uid="{00000000-0005-0000-0000-0000550D0000}"/>
-    <cellStyle name="Percentuale 23 3 2 3" xfId="3886" xr:uid="{00000000-0005-0000-0000-0000560D0000}"/>
-    <cellStyle name="Percentuale 23 3 3" xfId="3885" xr:uid="{00000000-0005-0000-0000-0000570D0000}"/>
+    <cellStyle name="Percentuale 23 3 2 3" xfId="3885" xr:uid="{00000000-0005-0000-0000-0000560D0000}"/>
+    <cellStyle name="Percentuale 23 3 3" xfId="3884" xr:uid="{00000000-0005-0000-0000-0000570D0000}"/>
     <cellStyle name="Percentuale 23 4" xfId="2111" xr:uid="{00000000-0005-0000-0000-0000580D0000}"/>
     <cellStyle name="Percentuale 23 4 2" xfId="2112" xr:uid="{00000000-0005-0000-0000-0000590D0000}"/>
-    <cellStyle name="Percentuale 23 4 2 2" xfId="3888" xr:uid="{00000000-0005-0000-0000-00005A0D0000}"/>
-    <cellStyle name="Percentuale 23 4 3" xfId="3887" xr:uid="{00000000-0005-0000-0000-00005B0D0000}"/>
+    <cellStyle name="Percentuale 23 4 2 2" xfId="3887" xr:uid="{00000000-0005-0000-0000-00005A0D0000}"/>
+    <cellStyle name="Percentuale 23 4 3" xfId="3886" xr:uid="{00000000-0005-0000-0000-00005B0D0000}"/>
     <cellStyle name="Percentuale 23 5" xfId="2113" xr:uid="{00000000-0005-0000-0000-00005C0D0000}"/>
-    <cellStyle name="Percentuale 23 6" xfId="3883" xr:uid="{00000000-0005-0000-0000-00005D0D0000}"/>
+    <cellStyle name="Percentuale 23 6" xfId="3882" xr:uid="{00000000-0005-0000-0000-00005D0D0000}"/>
     <cellStyle name="Percentuale 24" xfId="2114" xr:uid="{00000000-0005-0000-0000-00005E0D0000}"/>
     <cellStyle name="Percentuale 24 2" xfId="2115" xr:uid="{00000000-0005-0000-0000-00005F0D0000}"/>
-    <cellStyle name="Percentuale 24 2 2" xfId="3890" xr:uid="{00000000-0005-0000-0000-0000600D0000}"/>
+    <cellStyle name="Percentuale 24 2 2" xfId="3889" xr:uid="{00000000-0005-0000-0000-0000600D0000}"/>
     <cellStyle name="Percentuale 24 3" xfId="2116" xr:uid="{00000000-0005-0000-0000-0000610D0000}"/>
     <cellStyle name="Percentuale 24 3 2" xfId="2117" xr:uid="{00000000-0005-0000-0000-0000620D0000}"/>
     <cellStyle name="Percentuale 24 3 2 2" xfId="2118" xr:uid="{00000000-0005-0000-0000-0000630D0000}"/>
-    <cellStyle name="Percentuale 24 3 2 3" xfId="3892" xr:uid="{00000000-0005-0000-0000-0000640D0000}"/>
-    <cellStyle name="Percentuale 24 3 3" xfId="3891" xr:uid="{00000000-0005-0000-0000-0000650D0000}"/>
+    <cellStyle name="Percentuale 24 3 2 3" xfId="3891" xr:uid="{00000000-0005-0000-0000-0000640D0000}"/>
+    <cellStyle name="Percentuale 24 3 3" xfId="3890" xr:uid="{00000000-0005-0000-0000-0000650D0000}"/>
     <cellStyle name="Percentuale 24 4" xfId="2119" xr:uid="{00000000-0005-0000-0000-0000660D0000}"/>
     <cellStyle name="Percentuale 24 4 2" xfId="2120" xr:uid="{00000000-0005-0000-0000-0000670D0000}"/>
-    <cellStyle name="Percentuale 24 4 2 2" xfId="3894" xr:uid="{00000000-0005-0000-0000-0000680D0000}"/>
-    <cellStyle name="Percentuale 24 4 3" xfId="3893" xr:uid="{00000000-0005-0000-0000-0000690D0000}"/>
+    <cellStyle name="Percentuale 24 4 2 2" xfId="3893" xr:uid="{00000000-0005-0000-0000-0000680D0000}"/>
+    <cellStyle name="Percentuale 24 4 3" xfId="3892" xr:uid="{00000000-0005-0000-0000-0000690D0000}"/>
     <cellStyle name="Percentuale 24 5" xfId="2121" xr:uid="{00000000-0005-0000-0000-00006A0D0000}"/>
-    <cellStyle name="Percentuale 24 6" xfId="3889" xr:uid="{00000000-0005-0000-0000-00006B0D0000}"/>
+    <cellStyle name="Percentuale 24 6" xfId="3888" xr:uid="{00000000-0005-0000-0000-00006B0D0000}"/>
     <cellStyle name="Percentuale 25" xfId="2122" xr:uid="{00000000-0005-0000-0000-00006C0D0000}"/>
     <cellStyle name="Percentuale 25 2" xfId="2123" xr:uid="{00000000-0005-0000-0000-00006D0D0000}"/>
-    <cellStyle name="Percentuale 25 2 2" xfId="3896" xr:uid="{00000000-0005-0000-0000-00006E0D0000}"/>
+    <cellStyle name="Percentuale 25 2 2" xfId="3895" xr:uid="{00000000-0005-0000-0000-00006E0D0000}"/>
     <cellStyle name="Percentuale 25 3" xfId="2124" xr:uid="{00000000-0005-0000-0000-00006F0D0000}"/>
     <cellStyle name="Percentuale 25 3 2" xfId="2125" xr:uid="{00000000-0005-0000-0000-0000700D0000}"/>
     <cellStyle name="Percentuale 25 3 2 2" xfId="2126" xr:uid="{00000000-0005-0000-0000-0000710D0000}"/>
-    <cellStyle name="Percentuale 25 3 2 3" xfId="3898" xr:uid="{00000000-0005-0000-0000-0000720D0000}"/>
-    <cellStyle name="Percentuale 25 3 3" xfId="3897" xr:uid="{00000000-0005-0000-0000-0000730D0000}"/>
+    <cellStyle name="Percentuale 25 3 2 3" xfId="3897" xr:uid="{00000000-0005-0000-0000-0000720D0000}"/>
+    <cellStyle name="Percentuale 25 3 3" xfId="3896" xr:uid="{00000000-0005-0000-0000-0000730D0000}"/>
     <cellStyle name="Percentuale 25 4" xfId="2127" xr:uid="{00000000-0005-0000-0000-0000740D0000}"/>
     <cellStyle name="Percentuale 25 4 2" xfId="2128" xr:uid="{00000000-0005-0000-0000-0000750D0000}"/>
-    <cellStyle name="Percentuale 25 4 2 2" xfId="3900" xr:uid="{00000000-0005-0000-0000-0000760D0000}"/>
-    <cellStyle name="Percentuale 25 4 3" xfId="3899" xr:uid="{00000000-0005-0000-0000-0000770D0000}"/>
+    <cellStyle name="Percentuale 25 4 2 2" xfId="3899" xr:uid="{00000000-0005-0000-0000-0000760D0000}"/>
+    <cellStyle name="Percentuale 25 4 3" xfId="3898" xr:uid="{00000000-0005-0000-0000-0000770D0000}"/>
     <cellStyle name="Percentuale 25 5" xfId="2129" xr:uid="{00000000-0005-0000-0000-0000780D0000}"/>
-    <cellStyle name="Percentuale 25 6" xfId="3895" xr:uid="{00000000-0005-0000-0000-0000790D0000}"/>
+    <cellStyle name="Percentuale 25 6" xfId="3894" xr:uid="{00000000-0005-0000-0000-0000790D0000}"/>
     <cellStyle name="Percentuale 26" xfId="2130" xr:uid="{00000000-0005-0000-0000-00007A0D0000}"/>
     <cellStyle name="Percentuale 26 2" xfId="2131" xr:uid="{00000000-0005-0000-0000-00007B0D0000}"/>
-    <cellStyle name="Percentuale 26 2 2" xfId="3902" xr:uid="{00000000-0005-0000-0000-00007C0D0000}"/>
+    <cellStyle name="Percentuale 26 2 2" xfId="3901" xr:uid="{00000000-0005-0000-0000-00007C0D0000}"/>
     <cellStyle name="Percentuale 26 3" xfId="2132" xr:uid="{00000000-0005-0000-0000-00007D0D0000}"/>
     <cellStyle name="Percentuale 26 3 2" xfId="2133" xr:uid="{00000000-0005-0000-0000-00007E0D0000}"/>
     <cellStyle name="Percentuale 26 3 2 2" xfId="2134" xr:uid="{00000000-0005-0000-0000-00007F0D0000}"/>
-    <cellStyle name="Percentuale 26 3 2 3" xfId="3904" xr:uid="{00000000-0005-0000-0000-0000800D0000}"/>
-    <cellStyle name="Percentuale 26 3 3" xfId="3903" xr:uid="{00000000-0005-0000-0000-0000810D0000}"/>
+    <cellStyle name="Percentuale 26 3 2 3" xfId="3903" xr:uid="{00000000-0005-0000-0000-0000800D0000}"/>
+    <cellStyle name="Percentuale 26 3 3" xfId="3902" xr:uid="{00000000-0005-0000-0000-0000810D0000}"/>
     <cellStyle name="Percentuale 26 4" xfId="2135" xr:uid="{00000000-0005-0000-0000-0000820D0000}"/>
     <cellStyle name="Percentuale 26 4 2" xfId="2136" xr:uid="{00000000-0005-0000-0000-0000830D0000}"/>
-    <cellStyle name="Percentuale 26 4 2 2" xfId="3906" xr:uid="{00000000-0005-0000-0000-0000840D0000}"/>
-    <cellStyle name="Percentuale 26 4 3" xfId="3905" xr:uid="{00000000-0005-0000-0000-0000850D0000}"/>
+    <cellStyle name="Percentuale 26 4 2 2" xfId="3905" xr:uid="{00000000-0005-0000-0000-0000840D0000}"/>
+    <cellStyle name="Percentuale 26 4 3" xfId="3904" xr:uid="{00000000-0005-0000-0000-0000850D0000}"/>
     <cellStyle name="Percentuale 26 5" xfId="2137" xr:uid="{00000000-0005-0000-0000-0000860D0000}"/>
-    <cellStyle name="Percentuale 26 6" xfId="3901" xr:uid="{00000000-0005-0000-0000-0000870D0000}"/>
+    <cellStyle name="Percentuale 26 6" xfId="3900" xr:uid="{00000000-0005-0000-0000-0000870D0000}"/>
     <cellStyle name="Percentuale 27" xfId="2138" xr:uid="{00000000-0005-0000-0000-0000880D0000}"/>
     <cellStyle name="Percentuale 27 2" xfId="2139" xr:uid="{00000000-0005-0000-0000-0000890D0000}"/>
-    <cellStyle name="Percentuale 27 2 2" xfId="3908" xr:uid="{00000000-0005-0000-0000-00008A0D0000}"/>
+    <cellStyle name="Percentuale 27 2 2" xfId="3907" xr:uid="{00000000-0005-0000-0000-00008A0D0000}"/>
     <cellStyle name="Percentuale 27 3" xfId="2140" xr:uid="{00000000-0005-0000-0000-00008B0D0000}"/>
     <cellStyle name="Percentuale 27 3 2" xfId="2141" xr:uid="{00000000-0005-0000-0000-00008C0D0000}"/>
     <cellStyle name="Percentuale 27 3 2 2" xfId="2142" xr:uid="{00000000-0005-0000-0000-00008D0D0000}"/>
-    <cellStyle name="Percentuale 27 3 2 3" xfId="3910" xr:uid="{00000000-0005-0000-0000-00008E0D0000}"/>
-    <cellStyle name="Percentuale 27 3 3" xfId="3909" xr:uid="{00000000-0005-0000-0000-00008F0D0000}"/>
+    <cellStyle name="Percentuale 27 3 2 3" xfId="3909" xr:uid="{00000000-0005-0000-0000-00008E0D0000}"/>
+    <cellStyle name="Percentuale 27 3 3" xfId="3908" xr:uid="{00000000-0005-0000-0000-00008F0D0000}"/>
     <cellStyle name="Percentuale 27 4" xfId="2143" xr:uid="{00000000-0005-0000-0000-0000900D0000}"/>
     <cellStyle name="Percentuale 27 4 2" xfId="2144" xr:uid="{00000000-0005-0000-0000-0000910D0000}"/>
-    <cellStyle name="Percentuale 27 4 2 2" xfId="3912" xr:uid="{00000000-0005-0000-0000-0000920D0000}"/>
-    <cellStyle name="Percentuale 27 4 3" xfId="3911" xr:uid="{00000000-0005-0000-0000-0000930D0000}"/>
+    <cellStyle name="Percentuale 27 4 2 2" xfId="3911" xr:uid="{00000000-0005-0000-0000-0000920D0000}"/>
+    <cellStyle name="Percentuale 27 4 3" xfId="3910" xr:uid="{00000000-0005-0000-0000-0000930D0000}"/>
     <cellStyle name="Percentuale 27 5" xfId="2145" xr:uid="{00000000-0005-0000-0000-0000940D0000}"/>
-    <cellStyle name="Percentuale 27 6" xfId="3907" xr:uid="{00000000-0005-0000-0000-0000950D0000}"/>
+    <cellStyle name="Percentuale 27 6" xfId="3906" xr:uid="{00000000-0005-0000-0000-0000950D0000}"/>
     <cellStyle name="Percentuale 28" xfId="2146" xr:uid="{00000000-0005-0000-0000-0000960D0000}"/>
     <cellStyle name="Percentuale 28 2" xfId="2147" xr:uid="{00000000-0005-0000-0000-0000970D0000}"/>
-    <cellStyle name="Percentuale 28 2 2" xfId="3914" xr:uid="{00000000-0005-0000-0000-0000980D0000}"/>
+    <cellStyle name="Percentuale 28 2 2" xfId="3913" xr:uid="{00000000-0005-0000-0000-0000980D0000}"/>
     <cellStyle name="Percentuale 28 3" xfId="2148" xr:uid="{00000000-0005-0000-0000-0000990D0000}"/>
     <cellStyle name="Percentuale 28 3 2" xfId="2149" xr:uid="{00000000-0005-0000-0000-00009A0D0000}"/>
     <cellStyle name="Percentuale 28 3 2 2" xfId="2150" xr:uid="{00000000-0005-0000-0000-00009B0D0000}"/>
-    <cellStyle name="Percentuale 28 3 2 3" xfId="3916" xr:uid="{00000000-0005-0000-0000-00009C0D0000}"/>
-    <cellStyle name="Percentuale 28 3 3" xfId="3915" xr:uid="{00000000-0005-0000-0000-00009D0D0000}"/>
+    <cellStyle name="Percentuale 28 3 2 3" xfId="3915" xr:uid="{00000000-0005-0000-0000-00009C0D0000}"/>
+    <cellStyle name="Percentuale 28 3 3" xfId="3914" xr:uid="{00000000-0005-0000-0000-00009D0D0000}"/>
     <cellStyle name="Percentuale 28 4" xfId="2151" xr:uid="{00000000-0005-0000-0000-00009E0D0000}"/>
     <cellStyle name="Percentuale 28 4 2" xfId="2152" xr:uid="{00000000-0005-0000-0000-00009F0D0000}"/>
-    <cellStyle name="Percentuale 28 4 2 2" xfId="3918" xr:uid="{00000000-0005-0000-0000-0000A00D0000}"/>
-    <cellStyle name="Percentuale 28 4 3" xfId="3917" xr:uid="{00000000-0005-0000-0000-0000A10D0000}"/>
+    <cellStyle name="Percentuale 28 4 2 2" xfId="3917" xr:uid="{00000000-0005-0000-0000-0000A00D0000}"/>
+    <cellStyle name="Percentuale 28 4 3" xfId="3916" xr:uid="{00000000-0005-0000-0000-0000A10D0000}"/>
     <cellStyle name="Percentuale 28 5" xfId="2153" xr:uid="{00000000-0005-0000-0000-0000A20D0000}"/>
-    <cellStyle name="Percentuale 28 6" xfId="3913" xr:uid="{00000000-0005-0000-0000-0000A30D0000}"/>
+    <cellStyle name="Percentuale 28 6" xfId="3912" xr:uid="{00000000-0005-0000-0000-0000A30D0000}"/>
     <cellStyle name="Percentuale 29" xfId="2154" xr:uid="{00000000-0005-0000-0000-0000A40D0000}"/>
     <cellStyle name="Percentuale 29 2" xfId="2155" xr:uid="{00000000-0005-0000-0000-0000A50D0000}"/>
-    <cellStyle name="Percentuale 29 2 2" xfId="3920" xr:uid="{00000000-0005-0000-0000-0000A60D0000}"/>
+    <cellStyle name="Percentuale 29 2 2" xfId="3919" xr:uid="{00000000-0005-0000-0000-0000A60D0000}"/>
     <cellStyle name="Percentuale 29 3" xfId="2156" xr:uid="{00000000-0005-0000-0000-0000A70D0000}"/>
     <cellStyle name="Percentuale 29 3 2" xfId="2157" xr:uid="{00000000-0005-0000-0000-0000A80D0000}"/>
     <cellStyle name="Percentuale 29 3 2 2" xfId="2158" xr:uid="{00000000-0005-0000-0000-0000A90D0000}"/>
-    <cellStyle name="Percentuale 29 3 2 3" xfId="3922" xr:uid="{00000000-0005-0000-0000-0000AA0D0000}"/>
-    <cellStyle name="Percentuale 29 3 3" xfId="3921" xr:uid="{00000000-0005-0000-0000-0000AB0D0000}"/>
+    <cellStyle name="Percentuale 29 3 2 3" xfId="3921" xr:uid="{00000000-0005-0000-0000-0000AA0D0000}"/>
+    <cellStyle name="Percentuale 29 3 3" xfId="3920" xr:uid="{00000000-0005-0000-0000-0000AB0D0000}"/>
     <cellStyle name="Percentuale 29 4" xfId="2159" xr:uid="{00000000-0005-0000-0000-0000AC0D0000}"/>
     <cellStyle name="Percentuale 29 4 2" xfId="2160" xr:uid="{00000000-0005-0000-0000-0000AD0D0000}"/>
-    <cellStyle name="Percentuale 29 4 2 2" xfId="3924" xr:uid="{00000000-0005-0000-0000-0000AE0D0000}"/>
-    <cellStyle name="Percentuale 29 4 3" xfId="3923" xr:uid="{00000000-0005-0000-0000-0000AF0D0000}"/>
+    <cellStyle name="Percentuale 29 4 2 2" xfId="3923" xr:uid="{00000000-0005-0000-0000-0000AE0D0000}"/>
+    <cellStyle name="Percentuale 29 4 3" xfId="3922" xr:uid="{00000000-0005-0000-0000-0000AF0D0000}"/>
     <cellStyle name="Percentuale 29 5" xfId="2161" xr:uid="{00000000-0005-0000-0000-0000B00D0000}"/>
-    <cellStyle name="Percentuale 29 6" xfId="3919" xr:uid="{00000000-0005-0000-0000-0000B10D0000}"/>
+    <cellStyle name="Percentuale 29 6" xfId="3918" xr:uid="{00000000-0005-0000-0000-0000B10D0000}"/>
     <cellStyle name="Percentuale 3" xfId="2162" xr:uid="{00000000-0005-0000-0000-0000B20D0000}"/>
     <cellStyle name="Percentuale 3 2" xfId="2163" xr:uid="{00000000-0005-0000-0000-0000B30D0000}"/>
-    <cellStyle name="Percentuale 3 2 2" xfId="3926" xr:uid="{00000000-0005-0000-0000-0000B40D0000}"/>
+    <cellStyle name="Percentuale 3 2 2" xfId="3925" xr:uid="{00000000-0005-0000-0000-0000B40D0000}"/>
     <cellStyle name="Percentuale 3 3" xfId="2164" xr:uid="{00000000-0005-0000-0000-0000B50D0000}"/>
     <cellStyle name="Percentuale 3 3 2" xfId="2165" xr:uid="{00000000-0005-0000-0000-0000B60D0000}"/>
     <cellStyle name="Percentuale 3 3 2 2" xfId="2166" xr:uid="{00000000-0005-0000-0000-0000B70D0000}"/>
-    <cellStyle name="Percentuale 3 3 2 3" xfId="3928" xr:uid="{00000000-0005-0000-0000-0000B80D0000}"/>
-    <cellStyle name="Percentuale 3 3 3" xfId="3927" xr:uid="{00000000-0005-0000-0000-0000B90D0000}"/>
+    <cellStyle name="Percentuale 3 3 2 3" xfId="3927" xr:uid="{00000000-0005-0000-0000-0000B80D0000}"/>
+    <cellStyle name="Percentuale 3 3 3" xfId="3926" xr:uid="{00000000-0005-0000-0000-0000B90D0000}"/>
     <cellStyle name="Percentuale 3 4" xfId="2167" xr:uid="{00000000-0005-0000-0000-0000BA0D0000}"/>
     <cellStyle name="Percentuale 3 4 2" xfId="2168" xr:uid="{00000000-0005-0000-0000-0000BB0D0000}"/>
-    <cellStyle name="Percentuale 3 4 2 2" xfId="3930" xr:uid="{00000000-0005-0000-0000-0000BC0D0000}"/>
-    <cellStyle name="Percentuale 3 4 3" xfId="3929" xr:uid="{00000000-0005-0000-0000-0000BD0D0000}"/>
+    <cellStyle name="Percentuale 3 4 2 2" xfId="3929" xr:uid="{00000000-0005-0000-0000-0000BC0D0000}"/>
+    <cellStyle name="Percentuale 3 4 3" xfId="3928" xr:uid="{00000000-0005-0000-0000-0000BD0D0000}"/>
     <cellStyle name="Percentuale 3 5" xfId="2169" xr:uid="{00000000-0005-0000-0000-0000BE0D0000}"/>
-    <cellStyle name="Percentuale 3 6" xfId="3925" xr:uid="{00000000-0005-0000-0000-0000BF0D0000}"/>
+    <cellStyle name="Percentuale 3 6" xfId="3924" xr:uid="{00000000-0005-0000-0000-0000BF0D0000}"/>
     <cellStyle name="Percentuale 30" xfId="2170" xr:uid="{00000000-0005-0000-0000-0000C00D0000}"/>
     <cellStyle name="Percentuale 30 2" xfId="2171" xr:uid="{00000000-0005-0000-0000-0000C10D0000}"/>
-    <cellStyle name="Percentuale 30 2 2" xfId="3932" xr:uid="{00000000-0005-0000-0000-0000C20D0000}"/>
+    <cellStyle name="Percentuale 30 2 2" xfId="3931" xr:uid="{00000000-0005-0000-0000-0000C20D0000}"/>
     <cellStyle name="Percentuale 30 3" xfId="2172" xr:uid="{00000000-0005-0000-0000-0000C30D0000}"/>
     <cellStyle name="Percentuale 30 3 2" xfId="2173" xr:uid="{00000000-0005-0000-0000-0000C40D0000}"/>
     <cellStyle name="Percentuale 30 3 2 2" xfId="2174" xr:uid="{00000000-0005-0000-0000-0000C50D0000}"/>
-    <cellStyle name="Percentuale 30 3 2 3" xfId="3934" xr:uid="{00000000-0005-0000-0000-0000C60D0000}"/>
-    <cellStyle name="Percentuale 30 3 3" xfId="3933" xr:uid="{00000000-0005-0000-0000-0000C70D0000}"/>
+    <cellStyle name="Percentuale 30 3 2 3" xfId="3933" xr:uid="{00000000-0005-0000-0000-0000C60D0000}"/>
+    <cellStyle name="Percentuale 30 3 3" xfId="3932" xr:uid="{00000000-0005-0000-0000-0000C70D0000}"/>
     <cellStyle name="Percentuale 30 4" xfId="2175" xr:uid="{00000000-0005-0000-0000-0000C80D0000}"/>
     <cellStyle name="Percentuale 30 4 2" xfId="2176" xr:uid="{00000000-0005-0000-0000-0000C90D0000}"/>
-    <cellStyle name="Percentuale 30 4 2 2" xfId="3936" xr:uid="{00000000-0005-0000-0000-0000CA0D0000}"/>
-    <cellStyle name="Percentuale 30 4 3" xfId="3935" xr:uid="{00000000-0005-0000-0000-0000CB0D0000}"/>
+    <cellStyle name="Percentuale 30 4 2 2" xfId="3935" xr:uid="{00000000-0005-0000-0000-0000CA0D0000}"/>
+    <cellStyle name="Percentuale 30 4 3" xfId="3934" xr:uid="{00000000-0005-0000-0000-0000CB0D0000}"/>
     <cellStyle name="Percentuale 30 5" xfId="2177" xr:uid="{00000000-0005-0000-0000-0000CC0D0000}"/>
-    <cellStyle name="Percentuale 30 6" xfId="3931" xr:uid="{00000000-0005-0000-0000-0000CD0D0000}"/>
+    <cellStyle name="Percentuale 30 6" xfId="3930" xr:uid="{00000000-0005-0000-0000-0000CD0D0000}"/>
     <cellStyle name="Percentuale 31" xfId="2178" xr:uid="{00000000-0005-0000-0000-0000CE0D0000}"/>
     <cellStyle name="Percentuale 31 2" xfId="2179" xr:uid="{00000000-0005-0000-0000-0000CF0D0000}"/>
-    <cellStyle name="Percentuale 31 2 2" xfId="3938" xr:uid="{00000000-0005-0000-0000-0000D00D0000}"/>
+    <cellStyle name="Percentuale 31 2 2" xfId="3937" xr:uid="{00000000-0005-0000-0000-0000D00D0000}"/>
     <cellStyle name="Percentuale 31 3" xfId="2180" xr:uid="{00000000-0005-0000-0000-0000D10D0000}"/>
     <cellStyle name="Percentuale 31 3 2" xfId="2181" xr:uid="{00000000-0005-0000-0000-0000D20D0000}"/>
     <cellStyle name="Percentuale 31 3 2 2" xfId="2182" xr:uid="{00000000-0005-0000-0000-0000D30D0000}"/>
-    <cellStyle name="Percentuale 31 3 2 3" xfId="3940" xr:uid="{00000000-0005-0000-0000-0000D40D0000}"/>
-    <cellStyle name="Percentuale 31 3 3" xfId="3939" xr:uid="{00000000-0005-0000-0000-0000D50D0000}"/>
+    <cellStyle name="Percentuale 31 3 2 3" xfId="3939" xr:uid="{00000000-0005-0000-0000-0000D40D0000}"/>
+    <cellStyle name="Percentuale 31 3 3" xfId="3938" xr:uid="{00000000-0005-0000-0000-0000D50D0000}"/>
     <cellStyle name="Percentuale 31 4" xfId="2183" xr:uid="{00000000-0005-0000-0000-0000D60D0000}"/>
     <cellStyle name="Percentuale 31 4 2" xfId="2184" xr:uid="{00000000-0005-0000-0000-0000D70D0000}"/>
-    <cellStyle name="Percentuale 31 4 2 2" xfId="3942" xr:uid="{00000000-0005-0000-0000-0000D80D0000}"/>
-    <cellStyle name="Percentuale 31 4 3" xfId="3941" xr:uid="{00000000-0005-0000-0000-0000D90D0000}"/>
+    <cellStyle name="Percentuale 31 4 2 2" xfId="3941" xr:uid="{00000000-0005-0000-0000-0000D80D0000}"/>
+    <cellStyle name="Percentuale 31 4 3" xfId="3940" xr:uid="{00000000-0005-0000-0000-0000D90D0000}"/>
     <cellStyle name="Percentuale 31 5" xfId="2185" xr:uid="{00000000-0005-0000-0000-0000DA0D0000}"/>
-    <cellStyle name="Percentuale 31 6" xfId="3937" xr:uid="{00000000-0005-0000-0000-0000DB0D0000}"/>
+    <cellStyle name="Percentuale 31 6" xfId="3936" xr:uid="{00000000-0005-0000-0000-0000DB0D0000}"/>
     <cellStyle name="Percentuale 32" xfId="2186" xr:uid="{00000000-0005-0000-0000-0000DC0D0000}"/>
     <cellStyle name="Percentuale 32 2" xfId="2187" xr:uid="{00000000-0005-0000-0000-0000DD0D0000}"/>
-    <cellStyle name="Percentuale 32 2 2" xfId="3944" xr:uid="{00000000-0005-0000-0000-0000DE0D0000}"/>
+    <cellStyle name="Percentuale 32 2 2" xfId="3943" xr:uid="{00000000-0005-0000-0000-0000DE0D0000}"/>
     <cellStyle name="Percentuale 32 3" xfId="2188" xr:uid="{00000000-0005-0000-0000-0000DF0D0000}"/>
     <cellStyle name="Percentuale 32 3 2" xfId="2189" xr:uid="{00000000-0005-0000-0000-0000E00D0000}"/>
     <cellStyle name="Percentuale 32 3 2 2" xfId="2190" xr:uid="{00000000-0005-0000-0000-0000E10D0000}"/>
-    <cellStyle name="Percentuale 32 3 2 3" xfId="3946" xr:uid="{00000000-0005-0000-0000-0000E20D0000}"/>
-    <cellStyle name="Percentuale 32 3 3" xfId="3945" xr:uid="{00000000-0005-0000-0000-0000E30D0000}"/>
+    <cellStyle name="Percentuale 32 3 2 3" xfId="3945" xr:uid="{00000000-0005-0000-0000-0000E20D0000}"/>
+    <cellStyle name="Percentuale 32 3 3" xfId="3944" xr:uid="{00000000-0005-0000-0000-0000E30D0000}"/>
     <cellStyle name="Percentuale 32 4" xfId="2191" xr:uid="{00000000-0005-0000-0000-0000E40D0000}"/>
     <cellStyle name="Percentuale 32 4 2" xfId="2192" xr:uid="{00000000-0005-0000-0000-0000E50D0000}"/>
-    <cellStyle name="Percentuale 32 4 2 2" xfId="3948" xr:uid="{00000000-0005-0000-0000-0000E60D0000}"/>
-    <cellStyle name="Percentuale 32 4 3" xfId="3947" xr:uid="{00000000-0005-0000-0000-0000E70D0000}"/>
+    <cellStyle name="Percentuale 32 4 2 2" xfId="3947" xr:uid="{00000000-0005-0000-0000-0000E60D0000}"/>
+    <cellStyle name="Percentuale 32 4 3" xfId="3946" xr:uid="{00000000-0005-0000-0000-0000E70D0000}"/>
     <cellStyle name="Percentuale 32 5" xfId="2193" xr:uid="{00000000-0005-0000-0000-0000E80D0000}"/>
-    <cellStyle name="Percentuale 32 6" xfId="3943" xr:uid="{00000000-0005-0000-0000-0000E90D0000}"/>
+    <cellStyle name="Percentuale 32 6" xfId="3942" xr:uid="{00000000-0005-0000-0000-0000E90D0000}"/>
     <cellStyle name="Percentuale 33" xfId="2194" xr:uid="{00000000-0005-0000-0000-0000EA0D0000}"/>
     <cellStyle name="Percentuale 33 2" xfId="2195" xr:uid="{00000000-0005-0000-0000-0000EB0D0000}"/>
-    <cellStyle name="Percentuale 33 2 2" xfId="3950" xr:uid="{00000000-0005-0000-0000-0000EC0D0000}"/>
+    <cellStyle name="Percentuale 33 2 2" xfId="3949" xr:uid="{00000000-0005-0000-0000-0000EC0D0000}"/>
     <cellStyle name="Percentuale 33 3" xfId="2196" xr:uid="{00000000-0005-0000-0000-0000ED0D0000}"/>
     <cellStyle name="Percentuale 33 3 2" xfId="2197" xr:uid="{00000000-0005-0000-0000-0000EE0D0000}"/>
     <cellStyle name="Percentuale 33 3 2 2" xfId="2198" xr:uid="{00000000-0005-0000-0000-0000EF0D0000}"/>
-    <cellStyle name="Percentuale 33 3 2 3" xfId="3952" xr:uid="{00000000-0005-0000-0000-0000F00D0000}"/>
-    <cellStyle name="Percentuale 33 3 3" xfId="3951" xr:uid="{00000000-0005-0000-0000-0000F10D0000}"/>
+    <cellStyle name="Percentuale 33 3 2 3" xfId="3951" xr:uid="{00000000-0005-0000-0000-0000F00D0000}"/>
+    <cellStyle name="Percentuale 33 3 3" xfId="3950" xr:uid="{00000000-0005-0000-0000-0000F10D0000}"/>
     <cellStyle name="Percentuale 33 4" xfId="2199" xr:uid="{00000000-0005-0000-0000-0000F20D0000}"/>
     <cellStyle name="Percentuale 33 4 2" xfId="2200" xr:uid="{00000000-0005-0000-0000-0000F30D0000}"/>
-    <cellStyle name="Percentuale 33 4 2 2" xfId="3954" xr:uid="{00000000-0005-0000-0000-0000F40D0000}"/>
-    <cellStyle name="Percentuale 33 4 3" xfId="3953" xr:uid="{00000000-0005-0000-0000-0000F50D0000}"/>
+    <cellStyle name="Percentuale 33 4 2 2" xfId="3953" xr:uid="{00000000-0005-0000-0000-0000F40D0000}"/>
+    <cellStyle name="Percentuale 33 4 3" xfId="3952" xr:uid="{00000000-0005-0000-0000-0000F50D0000}"/>
     <cellStyle name="Percentuale 33 5" xfId="2201" xr:uid="{00000000-0005-0000-0000-0000F60D0000}"/>
-    <cellStyle name="Percentuale 33 6" xfId="3949" xr:uid="{00000000-0005-0000-0000-0000F70D0000}"/>
+    <cellStyle name="Percentuale 33 6" xfId="3948" xr:uid="{00000000-0005-0000-0000-0000F70D0000}"/>
     <cellStyle name="Percentuale 34" xfId="2202" xr:uid="{00000000-0005-0000-0000-0000F80D0000}"/>
     <cellStyle name="Percentuale 34 2" xfId="2203" xr:uid="{00000000-0005-0000-0000-0000F90D0000}"/>
-    <cellStyle name="Percentuale 34 2 2" xfId="3956" xr:uid="{00000000-0005-0000-0000-0000FA0D0000}"/>
+    <cellStyle name="Percentuale 34 2 2" xfId="3955" xr:uid="{00000000-0005-0000-0000-0000FA0D0000}"/>
     <cellStyle name="Percentuale 34 3" xfId="2204" xr:uid="{00000000-0005-0000-0000-0000FB0D0000}"/>
     <cellStyle name="Percentuale 34 3 2" xfId="2205" xr:uid="{00000000-0005-0000-0000-0000FC0D0000}"/>
     <cellStyle name="Percentuale 34 3 2 2" xfId="2206" xr:uid="{00000000-0005-0000-0000-0000FD0D0000}"/>
-    <cellStyle name="Percentuale 34 3 2 3" xfId="3958" xr:uid="{00000000-0005-0000-0000-0000FE0D0000}"/>
-    <cellStyle name="Percentuale 34 3 3" xfId="3957" xr:uid="{00000000-0005-0000-0000-0000FF0D0000}"/>
+    <cellStyle name="Percentuale 34 3 2 3" xfId="3957" xr:uid="{00000000-0005-0000-0000-0000FE0D0000}"/>
+    <cellStyle name="Percentuale 34 3 3" xfId="3956" xr:uid="{00000000-0005-0000-0000-0000FF0D0000}"/>
     <cellStyle name="Percentuale 34 4" xfId="2207" xr:uid="{00000000-0005-0000-0000-0000000E0000}"/>
     <cellStyle name="Percentuale 34 4 2" xfId="2208" xr:uid="{00000000-0005-0000-0000-0000010E0000}"/>
-    <cellStyle name="Percentuale 34 4 2 2" xfId="3960" xr:uid="{00000000-0005-0000-0000-0000020E0000}"/>
-    <cellStyle name="Percentuale 34 4 3" xfId="3959" xr:uid="{00000000-0005-0000-0000-0000030E0000}"/>
+    <cellStyle name="Percentuale 34 4 2 2" xfId="3959" xr:uid="{00000000-0005-0000-0000-0000020E0000}"/>
+    <cellStyle name="Percentuale 34 4 3" xfId="3958" xr:uid="{00000000-0005-0000-0000-0000030E0000}"/>
     <cellStyle name="Percentuale 34 5" xfId="2209" xr:uid="{00000000-0005-0000-0000-0000040E0000}"/>
-    <cellStyle name="Percentuale 34 6" xfId="3955" xr:uid="{00000000-0005-0000-0000-0000050E0000}"/>
+    <cellStyle name="Percentuale 34 6" xfId="3954" xr:uid="{00000000-0005-0000-0000-0000050E0000}"/>
     <cellStyle name="Percentuale 35" xfId="2210" xr:uid="{00000000-0005-0000-0000-0000060E0000}"/>
     <cellStyle name="Percentuale 35 2" xfId="2211" xr:uid="{00000000-0005-0000-0000-0000070E0000}"/>
-    <cellStyle name="Percentuale 35 2 2" xfId="3962" xr:uid="{00000000-0005-0000-0000-0000080E0000}"/>
+    <cellStyle name="Percentuale 35 2 2" xfId="3961" xr:uid="{00000000-0005-0000-0000-0000080E0000}"/>
     <cellStyle name="Percentuale 35 3" xfId="2212" xr:uid="{00000000-0005-0000-0000-0000090E0000}"/>
     <cellStyle name="Percentuale 35 3 2" xfId="2213" xr:uid="{00000000-0005-0000-0000-00000A0E0000}"/>
     <cellStyle name="Percentuale 35 3 2 2" xfId="2214" xr:uid="{00000000-0005-0000-0000-00000B0E0000}"/>
-    <cellStyle name="Percentuale 35 3 2 3" xfId="3964" xr:uid="{00000000-0005-0000-0000-00000C0E0000}"/>
-    <cellStyle name="Percentuale 35 3 3" xfId="3963" xr:uid="{00000000-0005-0000-0000-00000D0E0000}"/>
+    <cellStyle name="Percentuale 35 3 2 3" xfId="3963" xr:uid="{00000000-0005-0000-0000-00000C0E0000}"/>
+    <cellStyle name="Percentuale 35 3 3" xfId="3962" xr:uid="{00000000-0005-0000-0000-00000D0E0000}"/>
     <cellStyle name="Percentuale 35 4" xfId="2215" xr:uid="{00000000-0005-0000-0000-00000E0E0000}"/>
     <cellStyle name="Percentuale 35 4 2" xfId="2216" xr:uid="{00000000-0005-0000-0000-00000F0E0000}"/>
-    <cellStyle name="Percentuale 35 4 2 2" xfId="3966" xr:uid="{00000000-0005-0000-0000-0000100E0000}"/>
-    <cellStyle name="Percentuale 35 4 3" xfId="3965" xr:uid="{00000000-0005-0000-0000-0000110E0000}"/>
+    <cellStyle name="Percentuale 35 4 2 2" xfId="3965" xr:uid="{00000000-0005-0000-0000-0000100E0000}"/>
+    <cellStyle name="Percentuale 35 4 3" xfId="3964" xr:uid="{00000000-0005-0000-0000-0000110E0000}"/>
     <cellStyle name="Percentuale 35 5" xfId="2217" xr:uid="{00000000-0005-0000-0000-0000120E0000}"/>
-    <cellStyle name="Percentuale 35 6" xfId="3961" xr:uid="{00000000-0005-0000-0000-0000130E0000}"/>
+    <cellStyle name="Percentuale 35 6" xfId="3960" xr:uid="{00000000-0005-0000-0000-0000130E0000}"/>
     <cellStyle name="Percentuale 36" xfId="2218" xr:uid="{00000000-0005-0000-0000-0000140E0000}"/>
     <cellStyle name="Percentuale 36 2" xfId="2219" xr:uid="{00000000-0005-0000-0000-0000150E0000}"/>
-    <cellStyle name="Percentuale 36 2 2" xfId="3968" xr:uid="{00000000-0005-0000-0000-0000160E0000}"/>
+    <cellStyle name="Percentuale 36 2 2" xfId="3967" xr:uid="{00000000-0005-0000-0000-0000160E0000}"/>
     <cellStyle name="Percentuale 36 3" xfId="2220" xr:uid="{00000000-0005-0000-0000-0000170E0000}"/>
     <cellStyle name="Percentuale 36 3 2" xfId="2221" xr:uid="{00000000-0005-0000-0000-0000180E0000}"/>
     <cellStyle name="Percentuale 36 3 2 2" xfId="2222" xr:uid="{00000000-0005-0000-0000-0000190E0000}"/>
-    <cellStyle name="Percentuale 36 3 2 3" xfId="3970" xr:uid="{00000000-0005-0000-0000-00001A0E0000}"/>
-    <cellStyle name="Percentuale 36 3 3" xfId="3969" xr:uid="{00000000-0005-0000-0000-00001B0E0000}"/>
+    <cellStyle name="Percentuale 36 3 2 3" xfId="3969" xr:uid="{00000000-0005-0000-0000-00001A0E0000}"/>
+    <cellStyle name="Percentuale 36 3 3" xfId="3968" xr:uid="{00000000-0005-0000-0000-00001B0E0000}"/>
     <cellStyle name="Percentuale 36 4" xfId="2223" xr:uid="{00000000-0005-0000-0000-00001C0E0000}"/>
     <cellStyle name="Percentuale 36 4 2" xfId="2224" xr:uid="{00000000-0005-0000-0000-00001D0E0000}"/>
-    <cellStyle name="Percentuale 36 4 2 2" xfId="3972" xr:uid="{00000000-0005-0000-0000-00001E0E0000}"/>
-    <cellStyle name="Percentuale 36 4 3" xfId="3971" xr:uid="{00000000-0005-0000-0000-00001F0E0000}"/>
+    <cellStyle name="Percentuale 36 4 2 2" xfId="3971" xr:uid="{00000000-0005-0000-0000-00001E0E0000}"/>
+    <cellStyle name="Percentuale 36 4 3" xfId="3970" xr:uid="{00000000-0005-0000-0000-00001F0E0000}"/>
     <cellStyle name="Percentuale 36 5" xfId="2225" xr:uid="{00000000-0005-0000-0000-0000200E0000}"/>
-    <cellStyle name="Percentuale 36 6" xfId="3967" xr:uid="{00000000-0005-0000-0000-0000210E0000}"/>
+    <cellStyle name="Percentuale 36 6" xfId="3966" xr:uid="{00000000-0005-0000-0000-0000210E0000}"/>
     <cellStyle name="Percentuale 37" xfId="2226" xr:uid="{00000000-0005-0000-0000-0000220E0000}"/>
     <cellStyle name="Percentuale 37 2" xfId="2227" xr:uid="{00000000-0005-0000-0000-0000230E0000}"/>
-    <cellStyle name="Percentuale 37 2 2" xfId="3974" xr:uid="{00000000-0005-0000-0000-0000240E0000}"/>
+    <cellStyle name="Percentuale 37 2 2" xfId="3973" xr:uid="{00000000-0005-0000-0000-0000240E0000}"/>
     <cellStyle name="Percentuale 37 3" xfId="2228" xr:uid="{00000000-0005-0000-0000-0000250E0000}"/>
     <cellStyle name="Percentuale 37 3 2" xfId="2229" xr:uid="{00000000-0005-0000-0000-0000260E0000}"/>
     <cellStyle name="Percentuale 37 3 2 2" xfId="2230" xr:uid="{00000000-0005-0000-0000-0000270E0000}"/>
-    <cellStyle name="Percentuale 37 3 2 3" xfId="3976" xr:uid="{00000000-0005-0000-0000-0000280E0000}"/>
-    <cellStyle name="Percentuale 37 3 3" xfId="3975" xr:uid="{00000000-0005-0000-0000-0000290E0000}"/>
+    <cellStyle name="Percentuale 37 3 2 3" xfId="3975" xr:uid="{00000000-0005-0000-0000-0000280E0000}"/>
+    <cellStyle name="Percentuale 37 3 3" xfId="3974" xr:uid="{00000000-0005-0000-0000-0000290E0000}"/>
     <cellStyle name="Percentuale 37 4" xfId="2231" xr:uid="{00000000-0005-0000-0000-00002A0E0000}"/>
     <cellStyle name="Percentuale 37 4 2" xfId="2232" xr:uid="{00000000-0005-0000-0000-00002B0E0000}"/>
-    <cellStyle name="Percentuale 37 4 2 2" xfId="3978" xr:uid="{00000000-0005-0000-0000-00002C0E0000}"/>
-    <cellStyle name="Percentuale 37 4 3" xfId="3977" xr:uid="{00000000-0005-0000-0000-00002D0E0000}"/>
+    <cellStyle name="Percentuale 37 4 2 2" xfId="3977" xr:uid="{00000000-0005-0000-0000-00002C0E0000}"/>
+    <cellStyle name="Percentuale 37 4 3" xfId="3976" xr:uid="{00000000-0005-0000-0000-00002D0E0000}"/>
     <cellStyle name="Percentuale 37 5" xfId="2233" xr:uid="{00000000-0005-0000-0000-00002E0E0000}"/>
-    <cellStyle name="Percentuale 37 6" xfId="3973" xr:uid="{00000000-0005-0000-0000-00002F0E0000}"/>
+    <cellStyle name="Percentuale 37 6" xfId="3972" xr:uid="{00000000-0005-0000-0000-00002F0E0000}"/>
     <cellStyle name="Percentuale 38" xfId="2234" xr:uid="{00000000-0005-0000-0000-0000300E0000}"/>
     <cellStyle name="Percentuale 38 2" xfId="2235" xr:uid="{00000000-0005-0000-0000-0000310E0000}"/>
-    <cellStyle name="Percentuale 38 2 2" xfId="3980" xr:uid="{00000000-0005-0000-0000-0000320E0000}"/>
+    <cellStyle name="Percentuale 38 2 2" xfId="3979" xr:uid="{00000000-0005-0000-0000-0000320E0000}"/>
     <cellStyle name="Percentuale 38 3" xfId="2236" xr:uid="{00000000-0005-0000-0000-0000330E0000}"/>
     <cellStyle name="Percentuale 38 3 2" xfId="2237" xr:uid="{00000000-0005-0000-0000-0000340E0000}"/>
     <cellStyle name="Percentuale 38 3 2 2" xfId="2238" xr:uid="{00000000-0005-0000-0000-0000350E0000}"/>
-    <cellStyle name="Percentuale 38 3 2 3" xfId="3982" xr:uid="{00000000-0005-0000-0000-0000360E0000}"/>
-    <cellStyle name="Percentuale 38 3 3" xfId="3981" xr:uid="{00000000-0005-0000-0000-0000370E0000}"/>
+    <cellStyle name="Percentuale 38 3 2 3" xfId="3981" xr:uid="{00000000-0005-0000-0000-0000360E0000}"/>
+    <cellStyle name="Percentuale 38 3 3" xfId="3980" xr:uid="{00000000-0005-0000-0000-0000370E0000}"/>
     <cellStyle name="Percentuale 38 4" xfId="2239" xr:uid="{00000000-0005-0000-0000-0000380E0000}"/>
     <cellStyle name="Percentuale 38 4 2" xfId="2240" xr:uid="{00000000-0005-0000-0000-0000390E0000}"/>
-    <cellStyle name="Percentuale 38 4 2 2" xfId="3984" xr:uid="{00000000-0005-0000-0000-00003A0E0000}"/>
-    <cellStyle name="Percentuale 38 4 3" xfId="3983" xr:uid="{00000000-0005-0000-0000-00003B0E0000}"/>
+    <cellStyle name="Percentuale 38 4 2 2" xfId="3983" xr:uid="{00000000-0005-0000-0000-00003A0E0000}"/>
+    <cellStyle name="Percentuale 38 4 3" xfId="3982" xr:uid="{00000000-0005-0000-0000-00003B0E0000}"/>
     <cellStyle name="Percentuale 38 5" xfId="2241" xr:uid="{00000000-0005-0000-0000-00003C0E0000}"/>
-    <cellStyle name="Percentuale 38 6" xfId="3979" xr:uid="{00000000-0005-0000-0000-00003D0E0000}"/>
+    <cellStyle name="Percentuale 38 6" xfId="3978" xr:uid="{00000000-0005-0000-0000-00003D0E0000}"/>
     <cellStyle name="Percentuale 39" xfId="2242" xr:uid="{00000000-0005-0000-0000-00003E0E0000}"/>
     <cellStyle name="Percentuale 39 2" xfId="2243" xr:uid="{00000000-0005-0000-0000-00003F0E0000}"/>
-    <cellStyle name="Percentuale 39 2 2" xfId="3986" xr:uid="{00000000-0005-0000-0000-0000400E0000}"/>
+    <cellStyle name="Percentuale 39 2 2" xfId="3985" xr:uid="{00000000-0005-0000-0000-0000400E0000}"/>
     <cellStyle name="Percentuale 39 3" xfId="2244" xr:uid="{00000000-0005-0000-0000-0000410E0000}"/>
     <cellStyle name="Percentuale 39 3 2" xfId="2245" xr:uid="{00000000-0005-0000-0000-0000420E0000}"/>
     <cellStyle name="Percentuale 39 3 2 2" xfId="2246" xr:uid="{00000000-0005-0000-0000-0000430E0000}"/>
-    <cellStyle name="Percentuale 39 3 2 3" xfId="3988" xr:uid="{00000000-0005-0000-0000-0000440E0000}"/>
-    <cellStyle name="Percentuale 39 3 3" xfId="3987" xr:uid="{00000000-0005-0000-0000-0000450E0000}"/>
+    <cellStyle name="Percentuale 39 3 2 3" xfId="3987" xr:uid="{00000000-0005-0000-0000-0000440E0000}"/>
+    <cellStyle name="Percentuale 39 3 3" xfId="3986" xr:uid="{00000000-0005-0000-0000-0000450E0000}"/>
     <cellStyle name="Percentuale 39 4" xfId="2247" xr:uid="{00000000-0005-0000-0000-0000460E0000}"/>
     <cellStyle name="Percentuale 39 4 2" xfId="2248" xr:uid="{00000000-0005-0000-0000-0000470E0000}"/>
-    <cellStyle name="Percentuale 39 4 2 2" xfId="3990" xr:uid="{00000000-0005-0000-0000-0000480E0000}"/>
-    <cellStyle name="Percentuale 39 4 3" xfId="3989" xr:uid="{00000000-0005-0000-0000-0000490E0000}"/>
+    <cellStyle name="Percentuale 39 4 2 2" xfId="3989" xr:uid="{00000000-0005-0000-0000-0000480E0000}"/>
+    <cellStyle name="Percentuale 39 4 3" xfId="3988" xr:uid="{00000000-0005-0000-0000-0000490E0000}"/>
     <cellStyle name="Percentuale 39 5" xfId="2249" xr:uid="{00000000-0005-0000-0000-00004A0E0000}"/>
-    <cellStyle name="Percentuale 39 6" xfId="3985" xr:uid="{00000000-0005-0000-0000-00004B0E0000}"/>
+    <cellStyle name="Percentuale 39 6" xfId="3984" xr:uid="{00000000-0005-0000-0000-00004B0E0000}"/>
     <cellStyle name="Percentuale 4" xfId="2250" xr:uid="{00000000-0005-0000-0000-00004C0E0000}"/>
     <cellStyle name="Percentuale 4 2" xfId="2251" xr:uid="{00000000-0005-0000-0000-00004D0E0000}"/>
-    <cellStyle name="Percentuale 4 2 2" xfId="3992" xr:uid="{00000000-0005-0000-0000-00004E0E0000}"/>
+    <cellStyle name="Percentuale 4 2 2" xfId="3991" xr:uid="{00000000-0005-0000-0000-00004E0E0000}"/>
     <cellStyle name="Percentuale 4 3" xfId="2252" xr:uid="{00000000-0005-0000-0000-00004F0E0000}"/>
     <cellStyle name="Percentuale 4 3 2" xfId="2253" xr:uid="{00000000-0005-0000-0000-0000500E0000}"/>
     <cellStyle name="Percentuale 4 3 2 2" xfId="2254" xr:uid="{00000000-0005-0000-0000-0000510E0000}"/>
-    <cellStyle name="Percentuale 4 3 2 3" xfId="3994" xr:uid="{00000000-0005-0000-0000-0000520E0000}"/>
-    <cellStyle name="Percentuale 4 3 3" xfId="3993" xr:uid="{00000000-0005-0000-0000-0000530E0000}"/>
+    <cellStyle name="Percentuale 4 3 2 3" xfId="3993" xr:uid="{00000000-0005-0000-0000-0000520E0000}"/>
+    <cellStyle name="Percentuale 4 3 3" xfId="3992" xr:uid="{00000000-0005-0000-0000-0000530E0000}"/>
     <cellStyle name="Percentuale 4 4" xfId="2255" xr:uid="{00000000-0005-0000-0000-0000540E0000}"/>
     <cellStyle name="Percentuale 4 4 2" xfId="2256" xr:uid="{00000000-0005-0000-0000-0000550E0000}"/>
-    <cellStyle name="Percentuale 4 4 2 2" xfId="3996" xr:uid="{00000000-0005-0000-0000-0000560E0000}"/>
-    <cellStyle name="Percentuale 4 4 3" xfId="3995" xr:uid="{00000000-0005-0000-0000-0000570E0000}"/>
+    <cellStyle name="Percentuale 4 4 2 2" xfId="3995" xr:uid="{00000000-0005-0000-0000-0000560E0000}"/>
+    <cellStyle name="Percentuale 4 4 3" xfId="3994" xr:uid="{00000000-0005-0000-0000-0000570E0000}"/>
     <cellStyle name="Percentuale 4 5" xfId="2257" xr:uid="{00000000-0005-0000-0000-0000580E0000}"/>
-    <cellStyle name="Percentuale 4 6" xfId="3991" xr:uid="{00000000-0005-0000-0000-0000590E0000}"/>
+    <cellStyle name="Percentuale 4 6" xfId="3990" xr:uid="{00000000-0005-0000-0000-0000590E0000}"/>
     <cellStyle name="Percentuale 40" xfId="2258" xr:uid="{00000000-0005-0000-0000-00005A0E0000}"/>
     <cellStyle name="Percentuale 40 2" xfId="2259" xr:uid="{00000000-0005-0000-0000-00005B0E0000}"/>
-    <cellStyle name="Percentuale 40 2 2" xfId="3998" xr:uid="{00000000-0005-0000-0000-00005C0E0000}"/>
+    <cellStyle name="Percentuale 40 2 2" xfId="3997" xr:uid="{00000000-0005-0000-0000-00005C0E0000}"/>
     <cellStyle name="Percentuale 40 3" xfId="2260" xr:uid="{00000000-0005-0000-0000-00005D0E0000}"/>
     <cellStyle name="Percentuale 40 3 2" xfId="2261" xr:uid="{00000000-0005-0000-0000-00005E0E0000}"/>
     <cellStyle name="Percentuale 40 3 2 2" xfId="2262" xr:uid="{00000000-0005-0000-0000-00005F0E0000}"/>
-    <cellStyle name="Percentuale 40 3 2 3" xfId="4000" xr:uid="{00000000-0005-0000-0000-0000600E0000}"/>
-    <cellStyle name="Percentuale 40 3 3" xfId="3999" xr:uid="{00000000-0005-0000-0000-0000610E0000}"/>
+    <cellStyle name="Percentuale 40 3 2 3" xfId="3999" xr:uid="{00000000-0005-0000-0000-0000600E0000}"/>
+    <cellStyle name="Percentuale 40 3 3" xfId="3998" xr:uid="{00000000-0005-0000-0000-0000610E0000}"/>
     <cellStyle name="Percentuale 40 4" xfId="2263" xr:uid="{00000000-0005-0000-0000-0000620E0000}"/>
     <cellStyle name="Percentuale 40 4 2" xfId="2264" xr:uid="{00000000-0005-0000-0000-0000630E0000}"/>
-    <cellStyle name="Percentuale 40 4 2 2" xfId="4002" xr:uid="{00000000-0005-0000-0000-0000640E0000}"/>
-    <cellStyle name="Percentuale 40 4 3" xfId="4001" xr:uid="{00000000-0005-0000-0000-0000650E0000}"/>
+    <cellStyle name="Percentuale 40 4 2 2" xfId="4001" xr:uid="{00000000-0005-0000-0000-0000640E0000}"/>
+    <cellStyle name="Percentuale 40 4 3" xfId="4000" xr:uid="{00000000-0005-0000-0000-0000650E0000}"/>
     <cellStyle name="Percentuale 40 5" xfId="2265" xr:uid="{00000000-0005-0000-0000-0000660E0000}"/>
-    <cellStyle name="Percentuale 40 6" xfId="3997" xr:uid="{00000000-0005-0000-0000-0000670E0000}"/>
+    <cellStyle name="Percentuale 40 6" xfId="3996" xr:uid="{00000000-0005-0000-0000-0000670E0000}"/>
     <cellStyle name="Percentuale 41" xfId="2266" xr:uid="{00000000-0005-0000-0000-0000680E0000}"/>
     <cellStyle name="Percentuale 41 2" xfId="2267" xr:uid="{00000000-0005-0000-0000-0000690E0000}"/>
-    <cellStyle name="Percentuale 41 2 2" xfId="4004" xr:uid="{00000000-0005-0000-0000-00006A0E0000}"/>
+    <cellStyle name="Percentuale 41 2 2" xfId="4003" xr:uid="{00000000-0005-0000-0000-00006A0E0000}"/>
     <cellStyle name="Percentuale 41 3" xfId="2268" xr:uid="{00000000-0005-0000-0000-00006B0E0000}"/>
     <cellStyle name="Percentuale 41 3 2" xfId="2269" xr:uid="{00000000-0005-0000-0000-00006C0E0000}"/>
     <cellStyle name="Percentuale 41 3 2 2" xfId="2270" xr:uid="{00000000-0005-0000-0000-00006D0E0000}"/>
-    <cellStyle name="Percentuale 41 3 2 3" xfId="4006" xr:uid="{00000000-0005-0000-0000-00006E0E0000}"/>
-    <cellStyle name="Percentuale 41 3 3" xfId="4005" xr:uid="{00000000-0005-0000-0000-00006F0E0000}"/>
+    <cellStyle name="Percentuale 41 3 2 3" xfId="4005" xr:uid="{00000000-0005-0000-0000-00006E0E0000}"/>
+    <cellStyle name="Percentuale 41 3 3" xfId="4004" xr:uid="{00000000-0005-0000-0000-00006F0E0000}"/>
     <cellStyle name="Percentuale 41 4" xfId="2271" xr:uid="{00000000-0005-0000-0000-0000700E0000}"/>
     <cellStyle name="Percentuale 41 4 2" xfId="2272" xr:uid="{00000000-0005-0000-0000-0000710E0000}"/>
-    <cellStyle name="Percentuale 41 4 2 2" xfId="4008" xr:uid="{00000000-0005-0000-0000-0000720E0000}"/>
-    <cellStyle name="Percentuale 41 4 3" xfId="4007" xr:uid="{00000000-0005-0000-0000-0000730E0000}"/>
+    <cellStyle name="Percentuale 41 4 2 2" xfId="4007" xr:uid="{00000000-0005-0000-0000-0000720E0000}"/>
+    <cellStyle name="Percentuale 41 4 3" xfId="4006" xr:uid="{00000000-0005-0000-0000-0000730E0000}"/>
     <cellStyle name="Percentuale 41 5" xfId="2273" xr:uid="{00000000-0005-0000-0000-0000740E0000}"/>
-    <cellStyle name="Percentuale 41 6" xfId="4003" xr:uid="{00000000-0005-0000-0000-0000750E0000}"/>
+    <cellStyle name="Percentuale 41 6" xfId="4002" xr:uid="{00000000-0005-0000-0000-0000750E0000}"/>
     <cellStyle name="Percentuale 42" xfId="2274" xr:uid="{00000000-0005-0000-0000-0000760E0000}"/>
     <cellStyle name="Percentuale 42 2" xfId="2275" xr:uid="{00000000-0005-0000-0000-0000770E0000}"/>
-    <cellStyle name="Percentuale 42 2 2" xfId="4010" xr:uid="{00000000-0005-0000-0000-0000780E0000}"/>
+    <cellStyle name="Percentuale 42 2 2" xfId="4009" xr:uid="{00000000-0005-0000-0000-0000780E0000}"/>
     <cellStyle name="Percentuale 42 3" xfId="2276" xr:uid="{00000000-0005-0000-0000-0000790E0000}"/>
     <cellStyle name="Percentuale 42 3 2" xfId="2277" xr:uid="{00000000-0005-0000-0000-00007A0E0000}"/>
     <cellStyle name="Percentuale 42 3 2 2" xfId="2278" xr:uid="{00000000-0005-0000-0000-00007B0E0000}"/>
-    <cellStyle name="Percentuale 42 3 2 3" xfId="4012" xr:uid="{00000000-0005-0000-0000-00007C0E0000}"/>
-    <cellStyle name="Percentuale 42 3 3" xfId="4011" xr:uid="{00000000-0005-0000-0000-00007D0E0000}"/>
+    <cellStyle name="Percentuale 42 3 2 3" xfId="4011" xr:uid="{00000000-0005-0000-0000-00007C0E0000}"/>
+    <cellStyle name="Percentuale 42 3 3" xfId="4010" xr:uid="{00000000-0005-0000-0000-00007D0E0000}"/>
     <cellStyle name="Percentuale 42 4" xfId="2279" xr:uid="{00000000-0005-0000-0000-00007E0E0000}"/>
     <cellStyle name="Percentuale 42 4 2" xfId="2280" xr:uid="{00000000-0005-0000-0000-00007F0E0000}"/>
-    <cellStyle name="Percentuale 42 4 2 2" xfId="4014" xr:uid="{00000000-0005-0000-0000-0000800E0000}"/>
-    <cellStyle name="Percentuale 42 4 3" xfId="4013" xr:uid="{00000000-0005-0000-0000-0000810E0000}"/>
+    <cellStyle name="Percentuale 42 4 2 2" xfId="4013" xr:uid="{00000000-0005-0000-0000-0000800E0000}"/>
+    <cellStyle name="Percentuale 42 4 3" xfId="4012" xr:uid="{00000000-0005-0000-0000-0000810E0000}"/>
     <cellStyle name="Percentuale 42 5" xfId="2281" xr:uid="{00000000-0005-0000-0000-0000820E0000}"/>
-    <cellStyle name="Percentuale 42 6" xfId="4009" xr:uid="{00000000-0005-0000-0000-0000830E0000}"/>
+    <cellStyle name="Percentuale 42 6" xfId="4008" xr:uid="{00000000-0005-0000-0000-0000830E0000}"/>
     <cellStyle name="Percentuale 43" xfId="2282" xr:uid="{00000000-0005-0000-0000-0000840E0000}"/>
     <cellStyle name="Percentuale 43 2" xfId="2283" xr:uid="{00000000-0005-0000-0000-0000850E0000}"/>
-    <cellStyle name="Percentuale 43 2 2" xfId="4016" xr:uid="{00000000-0005-0000-0000-0000860E0000}"/>
+    <cellStyle name="Percentuale 43 2 2" xfId="4015" xr:uid="{00000000-0005-0000-0000-0000860E0000}"/>
     <cellStyle name="Percentuale 43 3" xfId="2284" xr:uid="{00000000-0005-0000-0000-0000870E0000}"/>
     <cellStyle name="Percentuale 43 3 2" xfId="2285" xr:uid="{00000000-0005-0000-0000-0000880E0000}"/>
     <cellStyle name="Percentuale 43 3 2 2" xfId="2286" xr:uid="{00000000-0005-0000-0000-0000890E0000}"/>
-    <cellStyle name="Percentuale 43 3 2 3" xfId="4018" xr:uid="{00000000-0005-0000-0000-00008A0E0000}"/>
-    <cellStyle name="Percentuale 43 3 3" xfId="4017" xr:uid="{00000000-0005-0000-0000-00008B0E0000}"/>
+    <cellStyle name="Percentuale 43 3 2 3" xfId="4017" xr:uid="{00000000-0005-0000-0000-00008A0E0000}"/>
+    <cellStyle name="Percentuale 43 3 3" xfId="4016" xr:uid="{00000000-0005-0000-0000-00008B0E0000}"/>
     <cellStyle name="Percentuale 43 4" xfId="2287" xr:uid="{00000000-0005-0000-0000-00008C0E0000}"/>
     <cellStyle name="Percentuale 43 4 2" xfId="2288" xr:uid="{00000000-0005-0000-0000-00008D0E0000}"/>
-    <cellStyle name="Percentuale 43 4 2 2" xfId="4020" xr:uid="{00000000-0005-0000-0000-00008E0E0000}"/>
-    <cellStyle name="Percentuale 43 4 3" xfId="4019" xr:uid="{00000000-0005-0000-0000-00008F0E0000}"/>
+    <cellStyle name="Percentuale 43 4 2 2" xfId="4019" xr:uid="{00000000-0005-0000-0000-00008E0E0000}"/>
+    <cellStyle name="Percentuale 43 4 3" xfId="4018" xr:uid="{00000000-0005-0000-0000-00008F0E0000}"/>
     <cellStyle name="Percentuale 43 5" xfId="2289" xr:uid="{00000000-0005-0000-0000-0000900E0000}"/>
-    <cellStyle name="Percentuale 43 6" xfId="4015" xr:uid="{00000000-0005-0000-0000-0000910E0000}"/>
+    <cellStyle name="Percentuale 43 6" xfId="4014" xr:uid="{00000000-0005-0000-0000-0000910E0000}"/>
     <cellStyle name="Percentuale 44" xfId="2290" xr:uid="{00000000-0005-0000-0000-0000920E0000}"/>
     <cellStyle name="Percentuale 44 2" xfId="2291" xr:uid="{00000000-0005-0000-0000-0000930E0000}"/>
-    <cellStyle name="Percentuale 44 2 2" xfId="4022" xr:uid="{00000000-0005-0000-0000-0000940E0000}"/>
+    <cellStyle name="Percentuale 44 2 2" xfId="4021" xr:uid="{00000000-0005-0000-0000-0000940E0000}"/>
     <cellStyle name="Percentuale 44 3" xfId="2292" xr:uid="{00000000-0005-0000-0000-0000950E0000}"/>
     <cellStyle name="Percentuale 44 3 2" xfId="2293" xr:uid="{00000000-0005-0000-0000-0000960E0000}"/>
     <cellStyle name="Percentuale 44 3 2 2" xfId="2294" xr:uid="{00000000-0005-0000-0000-0000970E0000}"/>
-    <cellStyle name="Percentuale 44 3 2 3" xfId="4024" xr:uid="{00000000-0005-0000-0000-0000980E0000}"/>
-    <cellStyle name="Percentuale 44 3 3" xfId="4023" xr:uid="{00000000-0005-0000-0000-0000990E0000}"/>
+    <cellStyle name="Percentuale 44 3 2 3" xfId="4023" xr:uid="{00000000-0005-0000-0000-0000980E0000}"/>
+    <cellStyle name="Percentuale 44 3 3" xfId="4022" xr:uid="{00000000-0005-0000-0000-0000990E0000}"/>
     <cellStyle name="Percentuale 44 4" xfId="2295" xr:uid="{00000000-0005-0000-0000-00009A0E0000}"/>
     <cellStyle name="Percentuale 44 4 2" xfId="2296" xr:uid="{00000000-0005-0000-0000-00009B0E0000}"/>
-    <cellStyle name="Percentuale 44 4 2 2" xfId="4026" xr:uid="{00000000-0005-0000-0000-00009C0E0000}"/>
-    <cellStyle name="Percentuale 44 4 3" xfId="4025" xr:uid="{00000000-0005-0000-0000-00009D0E0000}"/>
+    <cellStyle name="Percentuale 44 4 2 2" xfId="4025" xr:uid="{00000000-0005-0000-0000-00009C0E0000}"/>
+    <cellStyle name="Percentuale 44 4 3" xfId="4024" xr:uid="{00000000-0005-0000-0000-00009D0E0000}"/>
     <cellStyle name="Percentuale 44 5" xfId="2297" xr:uid="{00000000-0005-0000-0000-00009E0E0000}"/>
-    <cellStyle name="Percentuale 44 6" xfId="4021" xr:uid="{00000000-0005-0000-0000-00009F0E0000}"/>
+    <cellStyle name="Percentuale 44 6" xfId="4020" xr:uid="{00000000-0005-0000-0000-00009F0E0000}"/>
     <cellStyle name="Percentuale 45" xfId="2298" xr:uid="{00000000-0005-0000-0000-0000A00E0000}"/>
     <cellStyle name="Percentuale 45 2" xfId="2299" xr:uid="{00000000-0005-0000-0000-0000A10E0000}"/>
-    <cellStyle name="Percentuale 45 2 2" xfId="4028" xr:uid="{00000000-0005-0000-0000-0000A20E0000}"/>
+    <cellStyle name="Percentuale 45 2 2" xfId="4027" xr:uid="{00000000-0005-0000-0000-0000A20E0000}"/>
     <cellStyle name="Percentuale 45 3" xfId="2300" xr:uid="{00000000-0005-0000-0000-0000A30E0000}"/>
     <cellStyle name="Percentuale 45 3 2" xfId="2301" xr:uid="{00000000-0005-0000-0000-0000A40E0000}"/>
     <cellStyle name="Percentuale 45 3 2 2" xfId="2302" xr:uid="{00000000-0005-0000-0000-0000A50E0000}"/>
-    <cellStyle name="Percentuale 45 3 2 3" xfId="4030" xr:uid="{00000000-0005-0000-0000-0000A60E0000}"/>
-    <cellStyle name="Percentuale 45 3 3" xfId="4029" xr:uid="{00000000-0005-0000-0000-0000A70E0000}"/>
+    <cellStyle name="Percentuale 45 3 2 3" xfId="4029" xr:uid="{00000000-0005-0000-0000-0000A60E0000}"/>
+    <cellStyle name="Percentuale 45 3 3" xfId="4028" xr:uid="{00000000-0005-0000-0000-0000A70E0000}"/>
     <cellStyle name="Percentuale 45 4" xfId="2303" xr:uid="{00000000-0005-0000-0000-0000A80E0000}"/>
     <cellStyle name="Percentuale 45 4 2" xfId="2304" xr:uid="{00000000-0005-0000-0000-0000A90E0000}"/>
-    <cellStyle name="Percentuale 45 4 2 2" xfId="4032" xr:uid="{00000000-0005-0000-0000-0000AA0E0000}"/>
-    <cellStyle name="Percentuale 45 4 3" xfId="4031" xr:uid="{00000000-0005-0000-0000-0000AB0E0000}"/>
+    <cellStyle name="Percentuale 45 4 2 2" xfId="4031" xr:uid="{00000000-0005-0000-0000-0000AA0E0000}"/>
+    <cellStyle name="Percentuale 45 4 3" xfId="4030" xr:uid="{00000000-0005-0000-0000-0000AB0E0000}"/>
     <cellStyle name="Percentuale 45 5" xfId="2305" xr:uid="{00000000-0005-0000-0000-0000AC0E0000}"/>
-    <cellStyle name="Percentuale 45 6" xfId="4027" xr:uid="{00000000-0005-0000-0000-0000AD0E0000}"/>
+    <cellStyle name="Percentuale 45 6" xfId="4026" xr:uid="{00000000-0005-0000-0000-0000AD0E0000}"/>
     <cellStyle name="Percentuale 46" xfId="2306" xr:uid="{00000000-0005-0000-0000-0000AE0E0000}"/>
     <cellStyle name="Percentuale 46 2" xfId="2307" xr:uid="{00000000-0005-0000-0000-0000AF0E0000}"/>
-    <cellStyle name="Percentuale 46 2 2" xfId="4034" xr:uid="{00000000-0005-0000-0000-0000B00E0000}"/>
+    <cellStyle name="Percentuale 46 2 2" xfId="4033" xr:uid="{00000000-0005-0000-0000-0000B00E0000}"/>
     <cellStyle name="Percentuale 46 3" xfId="2308" xr:uid="{00000000-0005-0000-0000-0000B10E0000}"/>
     <cellStyle name="Percentuale 46 3 2" xfId="2309" xr:uid="{00000000-0005-0000-0000-0000B20E0000}"/>
     <cellStyle name="Percentuale 46 3 2 2" xfId="2310" xr:uid="{00000000-0005-0000-0000-0000B30E0000}"/>
-    <cellStyle name="Percentuale 46 3 2 3" xfId="4036" xr:uid="{00000000-0005-0000-0000-0000B40E0000}"/>
-    <cellStyle name="Percentuale 46 3 3" xfId="4035" xr:uid="{00000000-0005-0000-0000-0000B50E0000}"/>
+    <cellStyle name="Percentuale 46 3 2 3" xfId="4035" xr:uid="{00000000-0005-0000-0000-0000B40E0000}"/>
+    <cellStyle name="Percentuale 46 3 3" xfId="4034" xr:uid="{00000000-0005-0000-0000-0000B50E0000}"/>
     <cellStyle name="Percentuale 46 4" xfId="2311" xr:uid="{00000000-0005-0000-0000-0000B60E0000}"/>
     <cellStyle name="Percentuale 46 4 2" xfId="2312" xr:uid="{00000000-0005-0000-0000-0000B70E0000}"/>
-    <cellStyle name="Percentuale 46 4 2 2" xfId="4038" xr:uid="{00000000-0005-0000-0000-0000B80E0000}"/>
-    <cellStyle name="Percentuale 46 4 3" xfId="4037" xr:uid="{00000000-0005-0000-0000-0000B90E0000}"/>
+    <cellStyle name="Percentuale 46 4 2 2" xfId="4037" xr:uid="{00000000-0005-0000-0000-0000B80E0000}"/>
+    <cellStyle name="Percentuale 46 4 3" xfId="4036" xr:uid="{00000000-0005-0000-0000-0000B90E0000}"/>
     <cellStyle name="Percentuale 46 5" xfId="2313" xr:uid="{00000000-0005-0000-0000-0000BA0E0000}"/>
-    <cellStyle name="Percentuale 46 6" xfId="4033" xr:uid="{00000000-0005-0000-0000-0000BB0E0000}"/>
+    <cellStyle name="Percentuale 46 6" xfId="4032" xr:uid="{00000000-0005-0000-0000-0000BB0E0000}"/>
     <cellStyle name="Percentuale 47" xfId="2314" xr:uid="{00000000-0005-0000-0000-0000BC0E0000}"/>
     <cellStyle name="Percentuale 47 2" xfId="2315" xr:uid="{00000000-0005-0000-0000-0000BD0E0000}"/>
-    <cellStyle name="Percentuale 47 2 2" xfId="4040" xr:uid="{00000000-0005-0000-0000-0000BE0E0000}"/>
+    <cellStyle name="Percentuale 47 2 2" xfId="4039" xr:uid="{00000000-0005-0000-0000-0000BE0E0000}"/>
     <cellStyle name="Percentuale 47 3" xfId="2316" xr:uid="{00000000-0005-0000-0000-0000BF0E0000}"/>
     <cellStyle name="Percentuale 47 3 2" xfId="2317" xr:uid="{00000000-0005-0000-0000-0000C00E0000}"/>
     <cellStyle name="Percentuale 47 3 2 2" xfId="2318" xr:uid="{00000000-0005-0000-0000-0000C10E0000}"/>
-    <cellStyle name="Percentuale 47 3 2 3" xfId="4042" xr:uid="{00000000-0005-0000-0000-0000C20E0000}"/>
-    <cellStyle name="Percentuale 47 3 3" xfId="4041" xr:uid="{00000000-0005-0000-0000-0000C30E0000}"/>
+    <cellStyle name="Percentuale 47 3 2 3" xfId="4041" xr:uid="{00000000-0005-0000-0000-0000C20E0000}"/>
+    <cellStyle name="Percentuale 47 3 3" xfId="4040" xr:uid="{00000000-0005-0000-0000-0000C30E0000}"/>
     <cellStyle name="Percentuale 47 4" xfId="2319" xr:uid="{00000000-0005-0000-0000-0000C40E0000}"/>
     <cellStyle name="Percentuale 47 4 2" xfId="2320" xr:uid="{00000000-0005-0000-0000-0000C50E0000}"/>
-    <cellStyle name="Percentuale 47 4 2 2" xfId="4044" xr:uid="{00000000-0005-0000-0000-0000C60E0000}"/>
-    <cellStyle name="Percentuale 47 4 3" xfId="4043" xr:uid="{00000000-0005-0000-0000-0000C70E0000}"/>
+    <cellStyle name="Percentuale 47 4 2 2" xfId="4043" xr:uid="{00000000-0005-0000-0000-0000C60E0000}"/>
+    <cellStyle name="Percentuale 47 4 3" xfId="4042" xr:uid="{00000000-0005-0000-0000-0000C70E0000}"/>
     <cellStyle name="Percentuale 47 5" xfId="2321" xr:uid="{00000000-0005-0000-0000-0000C80E0000}"/>
-    <cellStyle name="Percentuale 47 6" xfId="4039" xr:uid="{00000000-0005-0000-0000-0000C90E0000}"/>
+    <cellStyle name="Percentuale 47 6" xfId="4038" xr:uid="{00000000-0005-0000-0000-0000C90E0000}"/>
     <cellStyle name="Percentuale 48" xfId="2322" xr:uid="{00000000-0005-0000-0000-0000CA0E0000}"/>
     <cellStyle name="Percentuale 48 2" xfId="2323" xr:uid="{00000000-0005-0000-0000-0000CB0E0000}"/>
-    <cellStyle name="Percentuale 48 2 2" xfId="4046" xr:uid="{00000000-0005-0000-0000-0000CC0E0000}"/>
+    <cellStyle name="Percentuale 48 2 2" xfId="4045" xr:uid="{00000000-0005-0000-0000-0000CC0E0000}"/>
     <cellStyle name="Percentuale 48 3" xfId="2324" xr:uid="{00000000-0005-0000-0000-0000CD0E0000}"/>
     <cellStyle name="Percentuale 48 3 2" xfId="2325" xr:uid="{00000000-0005-0000-0000-0000CE0E0000}"/>
     <cellStyle name="Percentuale 48 3 2 2" xfId="2326" xr:uid="{00000000-0005-0000-0000-0000CF0E0000}"/>
-    <cellStyle name="Percentuale 48 3 2 3" xfId="4048" xr:uid="{00000000-0005-0000-0000-0000D00E0000}"/>
-    <cellStyle name="Percentuale 48 3 3" xfId="4047" xr:uid="{00000000-0005-0000-0000-0000D10E0000}"/>
+    <cellStyle name="Percentuale 48 3 2 3" xfId="4047" xr:uid="{00000000-0005-0000-0000-0000D00E0000}"/>
+    <cellStyle name="Percentuale 48 3 3" xfId="4046" xr:uid="{00000000-0005-0000-0000-0000D10E0000}"/>
     <cellStyle name="Percentuale 48 4" xfId="2327" xr:uid="{00000000-0005-0000-0000-0000D20E0000}"/>
     <cellStyle name="Percentuale 48 4 2" xfId="2328" xr:uid="{00000000-0005-0000-0000-0000D30E0000}"/>
-    <cellStyle name="Percentuale 48 4 2 2" xfId="4050" xr:uid="{00000000-0005-0000-0000-0000D40E0000}"/>
-    <cellStyle name="Percentuale 48 4 3" xfId="4049" xr:uid="{00000000-0005-0000-0000-0000D50E0000}"/>
+    <cellStyle name="Percentuale 48 4 2 2" xfId="4049" xr:uid="{00000000-0005-0000-0000-0000D40E0000}"/>
+    <cellStyle name="Percentuale 48 4 3" xfId="4048" xr:uid="{00000000-0005-0000-0000-0000D50E0000}"/>
     <cellStyle name="Percentuale 48 5" xfId="2329" xr:uid="{00000000-0005-0000-0000-0000D60E0000}"/>
-    <cellStyle name="Percentuale 48 6" xfId="4045" xr:uid="{00000000-0005-0000-0000-0000D70E0000}"/>
+    <cellStyle name="Percentuale 48 6" xfId="4044" xr:uid="{00000000-0005-0000-0000-0000D70E0000}"/>
     <cellStyle name="Percentuale 49" xfId="2330" xr:uid="{00000000-0005-0000-0000-0000D80E0000}"/>
     <cellStyle name="Percentuale 49 2" xfId="2331" xr:uid="{00000000-0005-0000-0000-0000D90E0000}"/>
-    <cellStyle name="Percentuale 49 2 2" xfId="4052" xr:uid="{00000000-0005-0000-0000-0000DA0E0000}"/>
+    <cellStyle name="Percentuale 49 2 2" xfId="4051" xr:uid="{00000000-0005-0000-0000-0000DA0E0000}"/>
     <cellStyle name="Percentuale 49 3" xfId="2332" xr:uid="{00000000-0005-0000-0000-0000DB0E0000}"/>
     <cellStyle name="Percentuale 49 3 2" xfId="2333" xr:uid="{00000000-0005-0000-0000-0000DC0E0000}"/>
     <cellStyle name="Percentuale 49 3 2 2" xfId="2334" xr:uid="{00000000-0005-0000-0000-0000DD0E0000}"/>
-    <cellStyle name="Percentuale 49 3 2 3" xfId="4054" xr:uid="{00000000-0005-0000-0000-0000DE0E0000}"/>
-    <cellStyle name="Percentuale 49 3 3" xfId="4053" xr:uid="{00000000-0005-0000-0000-0000DF0E0000}"/>
+    <cellStyle name="Percentuale 49 3 2 3" xfId="4053" xr:uid="{00000000-0005-0000-0000-0000DE0E0000}"/>
+    <cellStyle name="Percentuale 49 3 3" xfId="4052" xr:uid="{00000000-0005-0000-0000-0000DF0E0000}"/>
     <cellStyle name="Percentuale 49 4" xfId="2335" xr:uid="{00000000-0005-0000-0000-0000E00E0000}"/>
     <cellStyle name="Percentuale 49 4 2" xfId="2336" xr:uid="{00000000-0005-0000-0000-0000E10E0000}"/>
-    <cellStyle name="Percentuale 49 4 2 2" xfId="4056" xr:uid="{00000000-0005-0000-0000-0000E20E0000}"/>
-    <cellStyle name="Percentuale 49 4 3" xfId="4055" xr:uid="{00000000-0005-0000-0000-0000E30E0000}"/>
+    <cellStyle name="Percentuale 49 4 2 2" xfId="4055" xr:uid="{00000000-0005-0000-0000-0000E20E0000}"/>
+    <cellStyle name="Percentuale 49 4 3" xfId="4054" xr:uid="{00000000-0005-0000-0000-0000E30E0000}"/>
     <cellStyle name="Percentuale 49 5" xfId="2337" xr:uid="{00000000-0005-0000-0000-0000E40E0000}"/>
-    <cellStyle name="Percentuale 49 6" xfId="4051" xr:uid="{00000000-0005-0000-0000-0000E50E0000}"/>
+    <cellStyle name="Percentuale 49 6" xfId="4050" xr:uid="{00000000-0005-0000-0000-0000E50E0000}"/>
     <cellStyle name="Percentuale 5" xfId="2338" xr:uid="{00000000-0005-0000-0000-0000E60E0000}"/>
     <cellStyle name="Percentuale 5 2" xfId="2339" xr:uid="{00000000-0005-0000-0000-0000E70E0000}"/>
-    <cellStyle name="Percentuale 5 2 2" xfId="4058" xr:uid="{00000000-0005-0000-0000-0000E80E0000}"/>
+    <cellStyle name="Percentuale 5 2 2" xfId="4057" xr:uid="{00000000-0005-0000-0000-0000E80E0000}"/>
     <cellStyle name="Percentuale 5 3" xfId="2340" xr:uid="{00000000-0005-0000-0000-0000E90E0000}"/>
     <cellStyle name="Percentuale 5 3 2" xfId="2341" xr:uid="{00000000-0005-0000-0000-0000EA0E0000}"/>
     <cellStyle name="Percentuale 5 3 2 2" xfId="2342" xr:uid="{00000000-0005-0000-0000-0000EB0E0000}"/>
-    <cellStyle name="Percentuale 5 3 2 3" xfId="4060" xr:uid="{00000000-0005-0000-0000-0000EC0E0000}"/>
-    <cellStyle name="Percentuale 5 3 3" xfId="4059" xr:uid="{00000000-0005-0000-0000-0000ED0E0000}"/>
+    <cellStyle name="Percentuale 5 3 2 3" xfId="4059" xr:uid="{00000000-0005-0000-0000-0000EC0E0000}"/>
+    <cellStyle name="Percentuale 5 3 3" xfId="4058" xr:uid="{00000000-0005-0000-0000-0000ED0E0000}"/>
     <cellStyle name="Percentuale 5 4" xfId="2343" xr:uid="{00000000-0005-0000-0000-0000EE0E0000}"/>
     <cellStyle name="Percentuale 5 4 2" xfId="2344" xr:uid="{00000000-0005-0000-0000-0000EF0E0000}"/>
-    <cellStyle name="Percentuale 5 4 2 2" xfId="4062" xr:uid="{00000000-0005-0000-0000-0000F00E0000}"/>
-    <cellStyle name="Percentuale 5 4 3" xfId="4061" xr:uid="{00000000-0005-0000-0000-0000F10E0000}"/>
+    <cellStyle name="Percentuale 5 4 2 2" xfId="4061" xr:uid="{00000000-0005-0000-0000-0000F00E0000}"/>
+    <cellStyle name="Percentuale 5 4 3" xfId="4060" xr:uid="{00000000-0005-0000-0000-0000F10E0000}"/>
     <cellStyle name="Percentuale 5 5" xfId="2345" xr:uid="{00000000-0005-0000-0000-0000F20E0000}"/>
-    <cellStyle name="Percentuale 5 6" xfId="4057" xr:uid="{00000000-0005-0000-0000-0000F30E0000}"/>
+    <cellStyle name="Percentuale 5 6" xfId="4056" xr:uid="{00000000-0005-0000-0000-0000F30E0000}"/>
     <cellStyle name="Percentuale 50" xfId="2346" xr:uid="{00000000-0005-0000-0000-0000F40E0000}"/>
     <cellStyle name="Percentuale 50 2" xfId="2347" xr:uid="{00000000-0005-0000-0000-0000F50E0000}"/>
-    <cellStyle name="Percentuale 50 2 2" xfId="4064" xr:uid="{00000000-0005-0000-0000-0000F60E0000}"/>
+    <cellStyle name="Percentuale 50 2 2" xfId="4063" xr:uid="{00000000-0005-0000-0000-0000F60E0000}"/>
     <cellStyle name="Percentuale 50 3" xfId="2348" xr:uid="{00000000-0005-0000-0000-0000F70E0000}"/>
     <cellStyle name="Percentuale 50 3 2" xfId="2349" xr:uid="{00000000-0005-0000-0000-0000F80E0000}"/>
     <cellStyle name="Percentuale 50 3 2 2" xfId="2350" xr:uid="{00000000-0005-0000-0000-0000F90E0000}"/>
-    <cellStyle name="Percentuale 50 3 2 3" xfId="4066" xr:uid="{00000000-0005-0000-0000-0000FA0E0000}"/>
-    <cellStyle name="Percentuale 50 3 3" xfId="4065" xr:uid="{00000000-0005-0000-0000-0000FB0E0000}"/>
+    <cellStyle name="Percentuale 50 3 2 3" xfId="4065" xr:uid="{00000000-0005-0000-0000-0000FA0E0000}"/>
+    <cellStyle name="Percentuale 50 3 3" xfId="4064" xr:uid="{00000000-0005-0000-0000-0000FB0E0000}"/>
     <cellStyle name="Percentuale 50 4" xfId="2351" xr:uid="{00000000-0005-0000-0000-0000FC0E0000}"/>
     <cellStyle name="Percentuale 50 4 2" xfId="2352" xr:uid="{00000000-0005-0000-0000-0000FD0E0000}"/>
-    <cellStyle name="Percentuale 50 4 2 2" xfId="4068" xr:uid="{00000000-0005-0000-0000-0000FE0E0000}"/>
-    <cellStyle name="Percentuale 50 4 3" xfId="4067" xr:uid="{00000000-0005-0000-0000-0000FF0E0000}"/>
+    <cellStyle name="Percentuale 50 4 2 2" xfId="4067" xr:uid="{00000000-0005-0000-0000-0000FE0E0000}"/>
+    <cellStyle name="Percentuale 50 4 3" xfId="4066" xr:uid="{00000000-0005-0000-0000-0000FF0E0000}"/>
     <cellStyle name="Percentuale 50 5" xfId="2353" xr:uid="{00000000-0005-0000-0000-0000000F0000}"/>
-    <cellStyle name="Percentuale 50 6" xfId="4063" xr:uid="{00000000-0005-0000-0000-0000010F0000}"/>
+    <cellStyle name="Percentuale 50 6" xfId="4062" xr:uid="{00000000-0005-0000-0000-0000010F0000}"/>
     <cellStyle name="Percentuale 51" xfId="2354" xr:uid="{00000000-0005-0000-0000-0000020F0000}"/>
     <cellStyle name="Percentuale 51 2" xfId="2355" xr:uid="{00000000-0005-0000-0000-0000030F0000}"/>
-    <cellStyle name="Percentuale 51 2 2" xfId="4070" xr:uid="{00000000-0005-0000-0000-0000040F0000}"/>
+    <cellStyle name="Percentuale 51 2 2" xfId="4069" xr:uid="{00000000-0005-0000-0000-0000040F0000}"/>
     <cellStyle name="Percentuale 51 3" xfId="2356" xr:uid="{00000000-0005-0000-0000-0000050F0000}"/>
     <cellStyle name="Percentuale 51 3 2" xfId="2357" xr:uid="{00000000-0005-0000-0000-0000060F0000}"/>
     <cellStyle name="Percentuale 51 3 2 2" xfId="2358" xr:uid="{00000000-0005-0000-0000-0000070F0000}"/>
-    <cellStyle name="Percentuale 51 3 2 3" xfId="4072" xr:uid="{00000000-0005-0000-0000-0000080F0000}"/>
-    <cellStyle name="Percentuale 51 3 3" xfId="4071" xr:uid="{00000000-0005-0000-0000-0000090F0000}"/>
+    <cellStyle name="Percentuale 51 3 2 3" xfId="4071" xr:uid="{00000000-0005-0000-0000-0000080F0000}"/>
+    <cellStyle name="Percentuale 51 3 3" xfId="4070" xr:uid="{00000000-0005-0000-0000-0000090F0000}"/>
     <cellStyle name="Percentuale 51 4" xfId="2359" xr:uid="{00000000-0005-0000-0000-00000A0F0000}"/>
     <cellStyle name="Percentuale 51 4 2" xfId="2360" xr:uid="{00000000-0005-0000-0000-00000B0F0000}"/>
-    <cellStyle name="Percentuale 51 4 2 2" xfId="4074" xr:uid="{00000000-0005-0000-0000-00000C0F0000}"/>
-    <cellStyle name="Percentuale 51 4 3" xfId="4073" xr:uid="{00000000-0005-0000-0000-00000D0F0000}"/>
+    <cellStyle name="Percentuale 51 4 2 2" xfId="4073" xr:uid="{00000000-0005-0000-0000-00000C0F0000}"/>
+    <cellStyle name="Percentuale 51 4 3" xfId="4072" xr:uid="{00000000-0005-0000-0000-00000D0F0000}"/>
     <cellStyle name="Percentuale 51 5" xfId="2361" xr:uid="{00000000-0005-0000-0000-00000E0F0000}"/>
-    <cellStyle name="Percentuale 51 6" xfId="4069" xr:uid="{00000000-0005-0000-0000-00000F0F0000}"/>
+    <cellStyle name="Percentuale 51 6" xfId="4068" xr:uid="{00000000-0005-0000-0000-00000F0F0000}"/>
     <cellStyle name="Percentuale 52" xfId="2362" xr:uid="{00000000-0005-0000-0000-0000100F0000}"/>
     <cellStyle name="Percentuale 52 2" xfId="2363" xr:uid="{00000000-0005-0000-0000-0000110F0000}"/>
-    <cellStyle name="Percentuale 52 2 2" xfId="4076" xr:uid="{00000000-0005-0000-0000-0000120F0000}"/>
+    <cellStyle name="Percentuale 52 2 2" xfId="4075" xr:uid="{00000000-0005-0000-0000-0000120F0000}"/>
     <cellStyle name="Percentuale 52 3" xfId="2364" xr:uid="{00000000-0005-0000-0000-0000130F0000}"/>
     <cellStyle name="Percentuale 52 3 2" xfId="2365" xr:uid="{00000000-0005-0000-0000-0000140F0000}"/>
     <cellStyle name="Percentuale 52 3 2 2" xfId="2366" xr:uid="{00000000-0005-0000-0000-0000150F0000}"/>
-    <cellStyle name="Percentuale 52 3 2 3" xfId="4078" xr:uid="{00000000-0005-0000-0000-0000160F0000}"/>
-    <cellStyle name="Percentuale 52 3 3" xfId="4077" xr:uid="{00000000-0005-0000-0000-0000170F0000}"/>
+    <cellStyle name="Percentuale 52 3 2 3" xfId="4077" xr:uid="{00000000-0005-0000-0000-0000160F0000}"/>
+    <cellStyle name="Percentuale 52 3 3" xfId="4076" xr:uid="{00000000-0005-0000-0000-0000170F0000}"/>
     <cellStyle name="Percentuale 52 4" xfId="2367" xr:uid="{00000000-0005-0000-0000-0000180F0000}"/>
     <cellStyle name="Percentuale 52 4 2" xfId="2368" xr:uid="{00000000-0005-0000-0000-0000190F0000}"/>
-    <cellStyle name="Percentuale 52 4 2 2" xfId="4080" xr:uid="{00000000-0005-0000-0000-00001A0F0000}"/>
-    <cellStyle name="Percentuale 52 4 3" xfId="4079" xr:uid="{00000000-0005-0000-0000-00001B0F0000}"/>
+    <cellStyle name="Percentuale 52 4 2 2" xfId="4079" xr:uid="{00000000-0005-0000-0000-00001A0F0000}"/>
+    <cellStyle name="Percentuale 52 4 3" xfId="4078" xr:uid="{00000000-0005-0000-0000-00001B0F0000}"/>
     <cellStyle name="Percentuale 52 5" xfId="2369" xr:uid="{00000000-0005-0000-0000-00001C0F0000}"/>
-    <cellStyle name="Percentuale 52 6" xfId="4075" xr:uid="{00000000-0005-0000-0000-00001D0F0000}"/>
+    <cellStyle name="Percentuale 52 6" xfId="4074" xr:uid="{00000000-0005-0000-0000-00001D0F0000}"/>
     <cellStyle name="Percentuale 53" xfId="2370" xr:uid="{00000000-0005-0000-0000-00001E0F0000}"/>
     <cellStyle name="Percentuale 53 2" xfId="2371" xr:uid="{00000000-0005-0000-0000-00001F0F0000}"/>
-    <cellStyle name="Percentuale 53 2 2" xfId="4082" xr:uid="{00000000-0005-0000-0000-0000200F0000}"/>
+    <cellStyle name="Percentuale 53 2 2" xfId="4081" xr:uid="{00000000-0005-0000-0000-0000200F0000}"/>
     <cellStyle name="Percentuale 53 3" xfId="2372" xr:uid="{00000000-0005-0000-0000-0000210F0000}"/>
     <cellStyle name="Percentuale 53 3 2" xfId="2373" xr:uid="{00000000-0005-0000-0000-0000220F0000}"/>
     <cellStyle name="Percentuale 53 3 2 2" xfId="2374" xr:uid="{00000000-0005-0000-0000-0000230F0000}"/>
-    <cellStyle name="Percentuale 53 3 2 3" xfId="4084" xr:uid="{00000000-0005-0000-0000-0000240F0000}"/>
-    <cellStyle name="Percentuale 53 3 3" xfId="4083" xr:uid="{00000000-0005-0000-0000-0000250F0000}"/>
+    <cellStyle name="Percentuale 53 3 2 3" xfId="4083" xr:uid="{00000000-0005-0000-0000-0000240F0000}"/>
+    <cellStyle name="Percentuale 53 3 3" xfId="4082" xr:uid="{00000000-0005-0000-0000-0000250F0000}"/>
     <cellStyle name="Percentuale 53 4" xfId="2375" xr:uid="{00000000-0005-0000-0000-0000260F0000}"/>
     <cellStyle name="Percentuale 53 4 2" xfId="2376" xr:uid="{00000000-0005-0000-0000-0000270F0000}"/>
-    <cellStyle name="Percentuale 53 4 2 2" xfId="4086" xr:uid="{00000000-0005-0000-0000-0000280F0000}"/>
-    <cellStyle name="Percentuale 53 4 3" xfId="4085" xr:uid="{00000000-0005-0000-0000-0000290F0000}"/>
+    <cellStyle name="Percentuale 53 4 2 2" xfId="4085" xr:uid="{00000000-0005-0000-0000-0000280F0000}"/>
+    <cellStyle name="Percentuale 53 4 3" xfId="4084" xr:uid="{00000000-0005-0000-0000-0000290F0000}"/>
     <cellStyle name="Percentuale 53 5" xfId="2377" xr:uid="{00000000-0005-0000-0000-00002A0F0000}"/>
-    <cellStyle name="Percentuale 53 6" xfId="4081" xr:uid="{00000000-0005-0000-0000-00002B0F0000}"/>
+    <cellStyle name="Percentuale 53 6" xfId="4080" xr:uid="{00000000-0005-0000-0000-00002B0F0000}"/>
     <cellStyle name="Percentuale 54" xfId="2378" xr:uid="{00000000-0005-0000-0000-00002C0F0000}"/>
     <cellStyle name="Percentuale 54 2" xfId="2379" xr:uid="{00000000-0005-0000-0000-00002D0F0000}"/>
-    <cellStyle name="Percentuale 54 2 2" xfId="4088" xr:uid="{00000000-0005-0000-0000-00002E0F0000}"/>
+    <cellStyle name="Percentuale 54 2 2" xfId="4087" xr:uid="{00000000-0005-0000-0000-00002E0F0000}"/>
     <cellStyle name="Percentuale 54 3" xfId="2380" xr:uid="{00000000-0005-0000-0000-00002F0F0000}"/>
     <cellStyle name="Percentuale 54 3 2" xfId="2381" xr:uid="{00000000-0005-0000-0000-0000300F0000}"/>
     <cellStyle name="Percentuale 54 3 2 2" xfId="2382" xr:uid="{00000000-0005-0000-0000-0000310F0000}"/>
-    <cellStyle name="Percentuale 54 3 2 3" xfId="4090" xr:uid="{00000000-0005-0000-0000-0000320F0000}"/>
-    <cellStyle name="Percentuale 54 3 3" xfId="4089" xr:uid="{00000000-0005-0000-0000-0000330F0000}"/>
+    <cellStyle name="Percentuale 54 3 2 3" xfId="4089" xr:uid="{00000000-0005-0000-0000-0000320F0000}"/>
+    <cellStyle name="Percentuale 54 3 3" xfId="4088" xr:uid="{00000000-0005-0000-0000-0000330F0000}"/>
     <cellStyle name="Percentuale 54 4" xfId="2383" xr:uid="{00000000-0005-0000-0000-0000340F0000}"/>
     <cellStyle name="Percentuale 54 4 2" xfId="2384" xr:uid="{00000000-0005-0000-0000-0000350F0000}"/>
-    <cellStyle name="Percentuale 54 4 2 2" xfId="4092" xr:uid="{00000000-0005-0000-0000-0000360F0000}"/>
-    <cellStyle name="Percentuale 54 4 3" xfId="4091" xr:uid="{00000000-0005-0000-0000-0000370F0000}"/>
+    <cellStyle name="Percentuale 54 4 2 2" xfId="4091" xr:uid="{00000000-0005-0000-0000-0000360F0000}"/>
+    <cellStyle name="Percentuale 54 4 3" xfId="4090" xr:uid="{00000000-0005-0000-0000-0000370F0000}"/>
     <cellStyle name="Percentuale 54 5" xfId="2385" xr:uid="{00000000-0005-0000-0000-0000380F0000}"/>
-    <cellStyle name="Percentuale 54 6" xfId="4087" xr:uid="{00000000-0005-0000-0000-0000390F0000}"/>
+    <cellStyle name="Percentuale 54 6" xfId="4086" xr:uid="{00000000-0005-0000-0000-0000390F0000}"/>
     <cellStyle name="Percentuale 55" xfId="2386" xr:uid="{00000000-0005-0000-0000-00003A0F0000}"/>
     <cellStyle name="Percentuale 55 2" xfId="2387" xr:uid="{00000000-0005-0000-0000-00003B0F0000}"/>
-    <cellStyle name="Percentuale 55 2 2" xfId="4094" xr:uid="{00000000-0005-0000-0000-00003C0F0000}"/>
+    <cellStyle name="Percentuale 55 2 2" xfId="4093" xr:uid="{00000000-0005-0000-0000-00003C0F0000}"/>
     <cellStyle name="Percentuale 55 3" xfId="2388" xr:uid="{00000000-0005-0000-0000-00003D0F0000}"/>
     <cellStyle name="Percentuale 55 3 2" xfId="2389" xr:uid="{00000000-0005-0000-0000-00003E0F0000}"/>
     <cellStyle name="Percentuale 55 3 2 2" xfId="2390" xr:uid="{00000000-0005-0000-0000-00003F0F0000}"/>
-    <cellStyle name="Percentuale 55 3 2 3" xfId="4096" xr:uid="{00000000-0005-0000-0000-0000400F0000}"/>
-    <cellStyle name="Percentuale 55 3 3" xfId="4095" xr:uid="{00000000-0005-0000-0000-0000410F0000}"/>
+    <cellStyle name="Percentuale 55 3 2 3" xfId="4095" xr:uid="{00000000-0005-0000-0000-0000400F0000}"/>
+    <cellStyle name="Percentuale 55 3 3" xfId="4094" xr:uid="{00000000-0005-0000-0000-0000410F0000}"/>
     <cellStyle name="Percentuale 55 4" xfId="2391" xr:uid="{00000000-0005-0000-0000-0000420F0000}"/>
     <cellStyle name="Percentuale 55 4 2" xfId="2392" xr:uid="{00000000-0005-0000-0000-0000430F0000}"/>
-    <cellStyle name="Percentuale 55 4 2 2" xfId="4098" xr:uid="{00000000-0005-0000-0000-0000440F0000}"/>
-    <cellStyle name="Percentuale 55 4 3" xfId="4097" xr:uid="{00000000-0005-0000-0000-0000450F0000}"/>
+    <cellStyle name="Percentuale 55 4 2 2" xfId="4097" xr:uid="{00000000-0005-0000-0000-0000440F0000}"/>
+    <cellStyle name="Percentuale 55 4 3" xfId="4096" xr:uid="{00000000-0005-0000-0000-0000450F0000}"/>
     <cellStyle name="Percentuale 55 5" xfId="2393" xr:uid="{00000000-0005-0000-0000-0000460F0000}"/>
-    <cellStyle name="Percentuale 55 6" xfId="4093" xr:uid="{00000000-0005-0000-0000-0000470F0000}"/>
+    <cellStyle name="Percentuale 55 6" xfId="4092" xr:uid="{00000000-0005-0000-0000-0000470F0000}"/>
     <cellStyle name="Percentuale 56" xfId="2394" xr:uid="{00000000-0005-0000-0000-0000480F0000}"/>
     <cellStyle name="Percentuale 56 2" xfId="2395" xr:uid="{00000000-0005-0000-0000-0000490F0000}"/>
-    <cellStyle name="Percentuale 56 2 2" xfId="4100" xr:uid="{00000000-0005-0000-0000-00004A0F0000}"/>
+    <cellStyle name="Percentuale 56 2 2" xfId="4099" xr:uid="{00000000-0005-0000-0000-00004A0F0000}"/>
     <cellStyle name="Percentuale 56 3" xfId="2396" xr:uid="{00000000-0005-0000-0000-00004B0F0000}"/>
     <cellStyle name="Percentuale 56 3 2" xfId="2397" xr:uid="{00000000-0005-0000-0000-00004C0F0000}"/>
     <cellStyle name="Percentuale 56 3 2 2" xfId="2398" xr:uid="{00000000-0005-0000-0000-00004D0F0000}"/>
-    <cellStyle name="Percentuale 56 3 2 3" xfId="4102" xr:uid="{00000000-0005-0000-0000-00004E0F0000}"/>
-    <cellStyle name="Percentuale 56 3 3" xfId="4101" xr:uid="{00000000-0005-0000-0000-00004F0F0000}"/>
+    <cellStyle name="Percentuale 56 3 2 3" xfId="4101" xr:uid="{00000000-0005-0000-0000-00004E0F0000}"/>
+    <cellStyle name="Percentuale 56 3 3" xfId="4100" xr:uid="{00000000-0005-0000-0000-00004F0F0000}"/>
     <cellStyle name="Percentuale 56 4" xfId="2399" xr:uid="{00000000-0005-0000-0000-0000500F0000}"/>
     <cellStyle name="Percentuale 56 4 2" xfId="2400" xr:uid="{00000000-0005-0000-0000-0000510F0000}"/>
-    <cellStyle name="Percentuale 56 4 2 2" xfId="4104" xr:uid="{00000000-0005-0000-0000-0000520F0000}"/>
-    <cellStyle name="Percentuale 56 4 3" xfId="4103" xr:uid="{00000000-0005-0000-0000-0000530F0000}"/>
+    <cellStyle name="Percentuale 56 4 2 2" xfId="4103" xr:uid="{00000000-0005-0000-0000-0000520F0000}"/>
+    <cellStyle name="Percentuale 56 4 3" xfId="4102" xr:uid="{00000000-0005-0000-0000-0000530F0000}"/>
     <cellStyle name="Percentuale 56 5" xfId="2401" xr:uid="{00000000-0005-0000-0000-0000540F0000}"/>
-    <cellStyle name="Percentuale 56 6" xfId="4099" xr:uid="{00000000-0005-0000-0000-0000550F0000}"/>
+    <cellStyle name="Percentuale 56 6" xfId="4098" xr:uid="{00000000-0005-0000-0000-0000550F0000}"/>
     <cellStyle name="Percentuale 57" xfId="2402" xr:uid="{00000000-0005-0000-0000-0000560F0000}"/>
     <cellStyle name="Percentuale 57 2" xfId="2403" xr:uid="{00000000-0005-0000-0000-0000570F0000}"/>
-    <cellStyle name="Percentuale 57 2 2" xfId="4106" xr:uid="{00000000-0005-0000-0000-0000580F0000}"/>
+    <cellStyle name="Percentuale 57 2 2" xfId="4105" xr:uid="{00000000-0005-0000-0000-0000580F0000}"/>
     <cellStyle name="Percentuale 57 3" xfId="2404" xr:uid="{00000000-0005-0000-0000-0000590F0000}"/>
     <cellStyle name="Percentuale 57 3 2" xfId="2405" xr:uid="{00000000-0005-0000-0000-00005A0F0000}"/>
     <cellStyle name="Percentuale 57 3 2 2" xfId="2406" xr:uid="{00000000-0005-0000-0000-00005B0F0000}"/>
-    <cellStyle name="Percentuale 57 3 2 3" xfId="4108" xr:uid="{00000000-0005-0000-0000-00005C0F0000}"/>
-    <cellStyle name="Percentuale 57 3 3" xfId="4107" xr:uid="{00000000-0005-0000-0000-00005D0F0000}"/>
+    <cellStyle name="Percentuale 57 3 2 3" xfId="4107" xr:uid="{00000000-0005-0000-0000-00005C0F0000}"/>
+    <cellStyle name="Percentuale 57 3 3" xfId="4106" xr:uid="{00000000-0005-0000-0000-00005D0F0000}"/>
     <cellStyle name="Percentuale 57 4" xfId="2407" xr:uid="{00000000-0005-0000-0000-00005E0F0000}"/>
     <cellStyle name="Percentuale 57 4 2" xfId="2408" xr:uid="{00000000-0005-0000-0000-00005F0F0000}"/>
-    <cellStyle name="Percentuale 57 4 2 2" xfId="4110" xr:uid="{00000000-0005-0000-0000-0000600F0000}"/>
-    <cellStyle name="Percentuale 57 4 3" xfId="4109" xr:uid="{00000000-0005-0000-0000-0000610F0000}"/>
+    <cellStyle name="Percentuale 57 4 2 2" xfId="4109" xr:uid="{00000000-0005-0000-0000-0000600F0000}"/>
+    <cellStyle name="Percentuale 57 4 3" xfId="4108" xr:uid="{00000000-0005-0000-0000-0000610F0000}"/>
     <cellStyle name="Percentuale 57 5" xfId="2409" xr:uid="{00000000-0005-0000-0000-0000620F0000}"/>
-    <cellStyle name="Percentuale 57 6" xfId="4105" xr:uid="{00000000-0005-0000-0000-0000630F0000}"/>
+    <cellStyle name="Percentuale 57 6" xfId="4104" xr:uid="{00000000-0005-0000-0000-0000630F0000}"/>
     <cellStyle name="Percentuale 58" xfId="2410" xr:uid="{00000000-0005-0000-0000-0000640F0000}"/>
     <cellStyle name="Percentuale 58 2" xfId="2411" xr:uid="{00000000-0005-0000-0000-0000650F0000}"/>
-    <cellStyle name="Percentuale 58 2 2" xfId="4112" xr:uid="{00000000-0005-0000-0000-0000660F0000}"/>
+    <cellStyle name="Percentuale 58 2 2" xfId="4111" xr:uid="{00000000-0005-0000-0000-0000660F0000}"/>
     <cellStyle name="Percentuale 58 3" xfId="2412" xr:uid="{00000000-0005-0000-0000-0000670F0000}"/>
     <cellStyle name="Percentuale 58 3 2" xfId="2413" xr:uid="{00000000-0005-0000-0000-0000680F0000}"/>
     <cellStyle name="Percentuale 58 3 2 2" xfId="2414" xr:uid="{00000000-0005-0000-0000-0000690F0000}"/>
-    <cellStyle name="Percentuale 58 3 2 3" xfId="4114" xr:uid="{00000000-0005-0000-0000-00006A0F0000}"/>
-    <cellStyle name="Percentuale 58 3 3" xfId="4113" xr:uid="{00000000-0005-0000-0000-00006B0F0000}"/>
+    <cellStyle name="Percentuale 58 3 2 3" xfId="4113" xr:uid="{00000000-0005-0000-0000-00006A0F0000}"/>
+    <cellStyle name="Percentuale 58 3 3" xfId="4112" xr:uid="{00000000-0005-0000-0000-00006B0F0000}"/>
     <cellStyle name="Percentuale 58 4" xfId="2415" xr:uid="{00000000-0005-0000-0000-00006C0F0000}"/>
     <cellStyle name="Percentuale 58 4 2" xfId="2416" xr:uid="{00000000-0005-0000-0000-00006D0F0000}"/>
-    <cellStyle name="Percentuale 58 4 2 2" xfId="4116" xr:uid="{00000000-0005-0000-0000-00006E0F0000}"/>
-    <cellStyle name="Percentuale 58 4 3" xfId="4115" xr:uid="{00000000-0005-0000-0000-00006F0F0000}"/>
+    <cellStyle name="Percentuale 58 4 2 2" xfId="4115" xr:uid="{00000000-0005-0000-0000-00006E0F0000}"/>
+    <cellStyle name="Percentuale 58 4 3" xfId="4114" xr:uid="{00000000-0005-0000-0000-00006F0F0000}"/>
     <cellStyle name="Percentuale 58 5" xfId="2417" xr:uid="{00000000-0005-0000-0000-0000700F0000}"/>
-    <cellStyle name="Percentuale 58 6" xfId="4111" xr:uid="{00000000-0005-0000-0000-0000710F0000}"/>
+    <cellStyle name="Percentuale 58 6" xfId="4110" xr:uid="{00000000-0005-0000-0000-0000710F0000}"/>
     <cellStyle name="Percentuale 59" xfId="2418" xr:uid="{00000000-0005-0000-0000-0000720F0000}"/>
     <cellStyle name="Percentuale 59 2" xfId="2419" xr:uid="{00000000-0005-0000-0000-0000730F0000}"/>
-    <cellStyle name="Percentuale 59 2 2" xfId="4118" xr:uid="{00000000-0005-0000-0000-0000740F0000}"/>
+    <cellStyle name="Percentuale 59 2 2" xfId="4117" xr:uid="{00000000-0005-0000-0000-0000740F0000}"/>
     <cellStyle name="Percentuale 59 3" xfId="2420" xr:uid="{00000000-0005-0000-0000-0000750F0000}"/>
     <cellStyle name="Percentuale 59 3 2" xfId="2421" xr:uid="{00000000-0005-0000-0000-0000760F0000}"/>
     <cellStyle name="Percentuale 59 3 2 2" xfId="2422" xr:uid="{00000000-0005-0000-0000-0000770F0000}"/>
-    <cellStyle name="Percentuale 59 3 2 3" xfId="4120" xr:uid="{00000000-0005-0000-0000-0000780F0000}"/>
-    <cellStyle name="Percentuale 59 3 3" xfId="4119" xr:uid="{00000000-0005-0000-0000-0000790F0000}"/>
+    <cellStyle name="Percentuale 59 3 2 3" xfId="4119" xr:uid="{00000000-0005-0000-0000-0000780F0000}"/>
+    <cellStyle name="Percentuale 59 3 3" xfId="4118" xr:uid="{00000000-0005-0000-0000-0000790F0000}"/>
     <cellStyle name="Percentuale 59 4" xfId="2423" xr:uid="{00000000-0005-0000-0000-00007A0F0000}"/>
     <cellStyle name="Percentuale 59 4 2" xfId="2424" xr:uid="{00000000-0005-0000-0000-00007B0F0000}"/>
-    <cellStyle name="Percentuale 59 4 2 2" xfId="4122" xr:uid="{00000000-0005-0000-0000-00007C0F0000}"/>
-    <cellStyle name="Percentuale 59 4 3" xfId="4121" xr:uid="{00000000-0005-0000-0000-00007D0F0000}"/>
+    <cellStyle name="Percentuale 59 4 2 2" xfId="4121" xr:uid="{00000000-0005-0000-0000-00007C0F0000}"/>
+    <cellStyle name="Percentuale 59 4 3" xfId="4120" xr:uid="{00000000-0005-0000-0000-00007D0F0000}"/>
     <cellStyle name="Percentuale 59 5" xfId="2425" xr:uid="{00000000-0005-0000-0000-00007E0F0000}"/>
-    <cellStyle name="Percentuale 59 6" xfId="4117" xr:uid="{00000000-0005-0000-0000-00007F0F0000}"/>
+    <cellStyle name="Percentuale 59 6" xfId="4116" xr:uid="{00000000-0005-0000-0000-00007F0F0000}"/>
     <cellStyle name="Percentuale 6" xfId="2426" xr:uid="{00000000-0005-0000-0000-0000800F0000}"/>
     <cellStyle name="Percentuale 6 2" xfId="2427" xr:uid="{00000000-0005-0000-0000-0000810F0000}"/>
-    <cellStyle name="Percentuale 6 2 2" xfId="4124" xr:uid="{00000000-0005-0000-0000-0000820F0000}"/>
+    <cellStyle name="Percentuale 6 2 2" xfId="4123" xr:uid="{00000000-0005-0000-0000-0000820F0000}"/>
     <cellStyle name="Percentuale 6 3" xfId="2428" xr:uid="{00000000-0005-0000-0000-0000830F0000}"/>
     <cellStyle name="Percentuale 6 3 2" xfId="2429" xr:uid="{00000000-0005-0000-0000-0000840F0000}"/>
     <cellStyle name="Percentuale 6 3 2 2" xfId="2430" xr:uid="{00000000-0005-0000-0000-0000850F0000}"/>
-    <cellStyle name="Percentuale 6 3 2 3" xfId="4126" xr:uid="{00000000-0005-0000-0000-0000860F0000}"/>
-    <cellStyle name="Percentuale 6 3 3" xfId="4125" xr:uid="{00000000-0005-0000-0000-0000870F0000}"/>
+    <cellStyle name="Percentuale 6 3 2 3" xfId="4125" xr:uid="{00000000-0005-0000-0000-0000860F0000}"/>
+    <cellStyle name="Percentuale 6 3 3" xfId="4124" xr:uid="{00000000-0005-0000-0000-0000870F0000}"/>
     <cellStyle name="Percentuale 6 4" xfId="2431" xr:uid="{00000000-0005-0000-0000-0000880F0000}"/>
     <cellStyle name="Percentuale 6 4 2" xfId="2432" xr:uid="{00000000-0005-0000-0000-0000890F0000}"/>
-    <cellStyle name="Percentuale 6 4 2 2" xfId="4128" xr:uid="{00000000-0005-0000-0000-00008A0F0000}"/>
-    <cellStyle name="Percentuale 6 4 3" xfId="4127" xr:uid="{00000000-0005-0000-0000-00008B0F0000}"/>
+    <cellStyle name="Percentuale 6 4 2 2" xfId="4127" xr:uid="{00000000-0005-0000-0000-00008A0F0000}"/>
+    <cellStyle name="Percentuale 6 4 3" xfId="4126" xr:uid="{00000000-0005-0000-0000-00008B0F0000}"/>
     <cellStyle name="Percentuale 6 5" xfId="2433" xr:uid="{00000000-0005-0000-0000-00008C0F0000}"/>
-    <cellStyle name="Percentuale 6 6" xfId="4123" xr:uid="{00000000-0005-0000-0000-00008D0F0000}"/>
+    <cellStyle name="Percentuale 6 6" xfId="4122" xr:uid="{00000000-0005-0000-0000-00008D0F0000}"/>
     <cellStyle name="Percentuale 60" xfId="2434" xr:uid="{00000000-0005-0000-0000-00008E0F0000}"/>
     <cellStyle name="Percentuale 60 2" xfId="2435" xr:uid="{00000000-0005-0000-0000-00008F0F0000}"/>
-    <cellStyle name="Percentuale 60 2 2" xfId="4130" xr:uid="{00000000-0005-0000-0000-0000900F0000}"/>
+    <cellStyle name="Percentuale 60 2 2" xfId="4129" xr:uid="{00000000-0005-0000-0000-0000900F0000}"/>
     <cellStyle name="Percentuale 60 3" xfId="2436" xr:uid="{00000000-0005-0000-0000-0000910F0000}"/>
     <cellStyle name="Percentuale 60 3 2" xfId="2437" xr:uid="{00000000-0005-0000-0000-0000920F0000}"/>
     <cellStyle name="Percentuale 60 3 2 2" xfId="2438" xr:uid="{00000000-0005-0000-0000-0000930F0000}"/>
-    <cellStyle name="Percentuale 60 3 2 3" xfId="4132" xr:uid="{00000000-0005-0000-0000-0000940F0000}"/>
-    <cellStyle name="Percentuale 60 3 3" xfId="4131" xr:uid="{00000000-0005-0000-0000-0000950F0000}"/>
+    <cellStyle name="Percentuale 60 3 2 3" xfId="4131" xr:uid="{00000000-0005-0000-0000-0000940F0000}"/>
+    <cellStyle name="Percentuale 60 3 3" xfId="4130" xr:uid="{00000000-0005-0000-0000-0000950F0000}"/>
     <cellStyle name="Percentuale 60 4" xfId="2439" xr:uid="{00000000-0005-0000-0000-0000960F0000}"/>
     <cellStyle name="Percentuale 60 4 2" xfId="2440" xr:uid="{00000000-0005-0000-0000-0000970F0000}"/>
-    <cellStyle name="Percentuale 60 4 2 2" xfId="4134" xr:uid="{00000000-0005-0000-0000-0000980F0000}"/>
-    <cellStyle name="Percentuale 60 4 3" xfId="4133" xr:uid="{00000000-0005-0000-0000-0000990F0000}"/>
+    <cellStyle name="Percentuale 60 4 2 2" xfId="4133" xr:uid="{00000000-0005-0000-0000-0000980F0000}"/>
+    <cellStyle name="Percentuale 60 4 3" xfId="4132" xr:uid="{00000000-0005-0000-0000-0000990F0000}"/>
     <cellStyle name="Percentuale 60 5" xfId="2441" xr:uid="{00000000-0005-0000-0000-00009A0F0000}"/>
-    <cellStyle name="Percentuale 60 6" xfId="4129" xr:uid="{00000000-0005-0000-0000-00009B0F0000}"/>
+    <cellStyle name="Percentuale 60 6" xfId="4128" xr:uid="{00000000-0005-0000-0000-00009B0F0000}"/>
     <cellStyle name="Percentuale 61" xfId="2442" xr:uid="{00000000-0005-0000-0000-00009C0F0000}"/>
     <cellStyle name="Percentuale 61 2" xfId="2443" xr:uid="{00000000-0005-0000-0000-00009D0F0000}"/>
-    <cellStyle name="Percentuale 61 2 2" xfId="4136" xr:uid="{00000000-0005-0000-0000-00009E0F0000}"/>
+    <cellStyle name="Percentuale 61 2 2" xfId="4135" xr:uid="{00000000-0005-0000-0000-00009E0F0000}"/>
     <cellStyle name="Percentuale 61 3" xfId="2444" xr:uid="{00000000-0005-0000-0000-00009F0F0000}"/>
     <cellStyle name="Percentuale 61 3 2" xfId="2445" xr:uid="{00000000-0005-0000-0000-0000A00F0000}"/>
     <cellStyle name="Percentuale 61 3 2 2" xfId="2446" xr:uid="{00000000-0005-0000-0000-0000A10F0000}"/>
-    <cellStyle name="Percentuale 61 3 2 3" xfId="4138" xr:uid="{00000000-0005-0000-0000-0000A20F0000}"/>
-    <cellStyle name="Percentuale 61 3 3" xfId="4137" xr:uid="{00000000-0005-0000-0000-0000A30F0000}"/>
+    <cellStyle name="Percentuale 61 3 2 3" xfId="4137" xr:uid="{00000000-0005-0000-0000-0000A20F0000}"/>
+    <cellStyle name="Percentuale 61 3 3" xfId="4136" xr:uid="{00000000-0005-0000-0000-0000A30F0000}"/>
     <cellStyle name="Percentuale 61 4" xfId="2447" xr:uid="{00000000-0005-0000-0000-0000A40F0000}"/>
     <cellStyle name="Percentuale 61 4 2" xfId="2448" xr:uid="{00000000-0005-0000-0000-0000A50F0000}"/>
-    <cellStyle name="Percentuale 61 4 2 2" xfId="4140" xr:uid="{00000000-0005-0000-0000-0000A60F0000}"/>
-    <cellStyle name="Percentuale 61 4 3" xfId="4139" xr:uid="{00000000-0005-0000-0000-0000A70F0000}"/>
+    <cellStyle name="Percentuale 61 4 2 2" xfId="4139" xr:uid="{00000000-0005-0000-0000-0000A60F0000}"/>
+    <cellStyle name="Percentuale 61 4 3" xfId="4138" xr:uid="{00000000-0005-0000-0000-0000A70F0000}"/>
     <cellStyle name="Percentuale 61 5" xfId="2449" xr:uid="{00000000-0005-0000-0000-0000A80F0000}"/>
-    <cellStyle name="Percentuale 61 6" xfId="4135" xr:uid="{00000000-0005-0000-0000-0000A90F0000}"/>
+    <cellStyle name="Percentuale 61 6" xfId="4134" xr:uid="{00000000-0005-0000-0000-0000A90F0000}"/>
     <cellStyle name="Percentuale 62" xfId="2450" xr:uid="{00000000-0005-0000-0000-0000AA0F0000}"/>
     <cellStyle name="Percentuale 62 2" xfId="2451" xr:uid="{00000000-0005-0000-0000-0000AB0F0000}"/>
-    <cellStyle name="Percentuale 62 2 2" xfId="4142" xr:uid="{00000000-0005-0000-0000-0000AC0F0000}"/>
-    <cellStyle name="Percentuale 62 3" xfId="4141" xr:uid="{00000000-0005-0000-0000-0000AD0F0000}"/>
+    <cellStyle name="Percentuale 62 2 2" xfId="4141" xr:uid="{00000000-0005-0000-0000-0000AC0F0000}"/>
+    <cellStyle name="Percentuale 62 3" xfId="4140" xr:uid="{00000000-0005-0000-0000-0000AD0F0000}"/>
     <cellStyle name="Percentuale 63" xfId="2452" xr:uid="{00000000-0005-0000-0000-0000AE0F0000}"/>
     <cellStyle name="Percentuale 63 2" xfId="2453" xr:uid="{00000000-0005-0000-0000-0000AF0F0000}"/>
-    <cellStyle name="Percentuale 63 2 2" xfId="4144" xr:uid="{00000000-0005-0000-0000-0000B00F0000}"/>
-    <cellStyle name="Percentuale 63 3" xfId="4143" xr:uid="{00000000-0005-0000-0000-0000B10F0000}"/>
+    <cellStyle name="Percentuale 63 2 2" xfId="4143" xr:uid="{00000000-0005-0000-0000-0000B00F0000}"/>
+    <cellStyle name="Percentuale 63 3" xfId="4142" xr:uid="{00000000-0005-0000-0000-0000B10F0000}"/>
     <cellStyle name="Percentuale 64" xfId="2454" xr:uid="{00000000-0005-0000-0000-0000B20F0000}"/>
     <cellStyle name="Percentuale 64 2" xfId="2455" xr:uid="{00000000-0005-0000-0000-0000B30F0000}"/>
-    <cellStyle name="Percentuale 64 2 2" xfId="4146" xr:uid="{00000000-0005-0000-0000-0000B40F0000}"/>
-    <cellStyle name="Percentuale 64 3" xfId="4145" xr:uid="{00000000-0005-0000-0000-0000B50F0000}"/>
+    <cellStyle name="Percentuale 64 2 2" xfId="4145" xr:uid="{00000000-0005-0000-0000-0000B40F0000}"/>
+    <cellStyle name="Percentuale 64 3" xfId="4144" xr:uid="{00000000-0005-0000-0000-0000B50F0000}"/>
     <cellStyle name="Percentuale 65" xfId="2456" xr:uid="{00000000-0005-0000-0000-0000B60F0000}"/>
     <cellStyle name="Percentuale 65 2" xfId="2457" xr:uid="{00000000-0005-0000-0000-0000B70F0000}"/>
-    <cellStyle name="Percentuale 65 2 2" xfId="4148" xr:uid="{00000000-0005-0000-0000-0000B80F0000}"/>
-    <cellStyle name="Percentuale 65 3" xfId="4147" xr:uid="{00000000-0005-0000-0000-0000B90F0000}"/>
+    <cellStyle name="Percentuale 65 2 2" xfId="4147" xr:uid="{00000000-0005-0000-0000-0000B80F0000}"/>
+    <cellStyle name="Percentuale 65 3" xfId="4146" xr:uid="{00000000-0005-0000-0000-0000B90F0000}"/>
     <cellStyle name="Percentuale 66" xfId="2458" xr:uid="{00000000-0005-0000-0000-0000BA0F0000}"/>
     <cellStyle name="Percentuale 66 2" xfId="2459" xr:uid="{00000000-0005-0000-0000-0000BB0F0000}"/>
-    <cellStyle name="Percentuale 66 2 2" xfId="4150" xr:uid="{00000000-0005-0000-0000-0000BC0F0000}"/>
-    <cellStyle name="Percentuale 66 3" xfId="4149" xr:uid="{00000000-0005-0000-0000-0000BD0F0000}"/>
+    <cellStyle name="Percentuale 66 2 2" xfId="4149" xr:uid="{00000000-0005-0000-0000-0000BC0F0000}"/>
+    <cellStyle name="Percentuale 66 3" xfId="4148" xr:uid="{00000000-0005-0000-0000-0000BD0F0000}"/>
     <cellStyle name="Percentuale 67" xfId="2460" xr:uid="{00000000-0005-0000-0000-0000BE0F0000}"/>
     <cellStyle name="Percentuale 67 2" xfId="2461" xr:uid="{00000000-0005-0000-0000-0000BF0F0000}"/>
-    <cellStyle name="Percentuale 67 2 2" xfId="4152" xr:uid="{00000000-0005-0000-0000-0000C00F0000}"/>
-    <cellStyle name="Percentuale 67 3" xfId="4151" xr:uid="{00000000-0005-0000-0000-0000C10F0000}"/>
+    <cellStyle name="Percentuale 67 2 2" xfId="4151" xr:uid="{00000000-0005-0000-0000-0000C00F0000}"/>
+    <cellStyle name="Percentuale 67 3" xfId="4150" xr:uid="{00000000-0005-0000-0000-0000C10F0000}"/>
     <cellStyle name="Percentuale 68" xfId="2462" xr:uid="{00000000-0005-0000-0000-0000C20F0000}"/>
     <cellStyle name="Percentuale 68 2" xfId="2463" xr:uid="{00000000-0005-0000-0000-0000C30F0000}"/>
-    <cellStyle name="Percentuale 68 2 2" xfId="4154" xr:uid="{00000000-0005-0000-0000-0000C40F0000}"/>
+    <cellStyle name="Percentuale 68 2 2" xfId="4153" xr:uid="{00000000-0005-0000-0000-0000C40F0000}"/>
     <cellStyle name="Percentuale 68 3" xfId="2464" xr:uid="{00000000-0005-0000-0000-0000C50F0000}"/>
     <cellStyle name="Percentuale 68 3 2" xfId="2465" xr:uid="{00000000-0005-0000-0000-0000C60F0000}"/>
     <cellStyle name="Percentuale 68 3 2 2" xfId="2466" xr:uid="{00000000-0005-0000-0000-0000C70F0000}"/>
-    <cellStyle name="Percentuale 68 3 2 3" xfId="4156" xr:uid="{00000000-0005-0000-0000-0000C80F0000}"/>
-    <cellStyle name="Percentuale 68 3 3" xfId="4155" xr:uid="{00000000-0005-0000-0000-0000C90F0000}"/>
+    <cellStyle name="Percentuale 68 3 2 3" xfId="4155" xr:uid="{00000000-0005-0000-0000-0000C80F0000}"/>
+    <cellStyle name="Percentuale 68 3 3" xfId="4154" xr:uid="{00000000-0005-0000-0000-0000C90F0000}"/>
     <cellStyle name="Percentuale 68 4" xfId="2467" xr:uid="{00000000-0005-0000-0000-0000CA0F0000}"/>
     <cellStyle name="Percentuale 68 4 2" xfId="2468" xr:uid="{00000000-0005-0000-0000-0000CB0F0000}"/>
-    <cellStyle name="Percentuale 68 4 2 2" xfId="4158" xr:uid="{00000000-0005-0000-0000-0000CC0F0000}"/>
-    <cellStyle name="Percentuale 68 4 3" xfId="4157" xr:uid="{00000000-0005-0000-0000-0000CD0F0000}"/>
+    <cellStyle name="Percentuale 68 4 2 2" xfId="4157" xr:uid="{00000000-0005-0000-0000-0000CC0F0000}"/>
+    <cellStyle name="Percentuale 68 4 3" xfId="4156" xr:uid="{00000000-0005-0000-0000-0000CD0F0000}"/>
     <cellStyle name="Percentuale 68 5" xfId="2469" xr:uid="{00000000-0005-0000-0000-0000CE0F0000}"/>
-    <cellStyle name="Percentuale 68 6" xfId="4153" xr:uid="{00000000-0005-0000-0000-0000CF0F0000}"/>
+    <cellStyle name="Percentuale 68 6" xfId="4152" xr:uid="{00000000-0005-0000-0000-0000CF0F0000}"/>
     <cellStyle name="Percentuale 69" xfId="2470" xr:uid="{00000000-0005-0000-0000-0000D00F0000}"/>
     <cellStyle name="Percentuale 69 2" xfId="2471" xr:uid="{00000000-0005-0000-0000-0000D10F0000}"/>
-    <cellStyle name="Percentuale 69 2 2" xfId="4160" xr:uid="{00000000-0005-0000-0000-0000D20F0000}"/>
+    <cellStyle name="Percentuale 69 2 2" xfId="4159" xr:uid="{00000000-0005-0000-0000-0000D20F0000}"/>
     <cellStyle name="Percentuale 69 3" xfId="2472" xr:uid="{00000000-0005-0000-0000-0000D30F0000}"/>
     <cellStyle name="Percentuale 69 3 2" xfId="2473" xr:uid="{00000000-0005-0000-0000-0000D40F0000}"/>
     <cellStyle name="Percentuale 69 3 2 2" xfId="2474" xr:uid="{00000000-0005-0000-0000-0000D50F0000}"/>
-    <cellStyle name="Percentuale 69 3 2 3" xfId="4162" xr:uid="{00000000-0005-0000-0000-0000D60F0000}"/>
-    <cellStyle name="Percentuale 69 3 3" xfId="4161" xr:uid="{00000000-0005-0000-0000-0000D70F0000}"/>
+    <cellStyle name="Percentuale 69 3 2 3" xfId="4161" xr:uid="{00000000-0005-0000-0000-0000D60F0000}"/>
+    <cellStyle name="Percentuale 69 3 3" xfId="4160" xr:uid="{00000000-0005-0000-0000-0000D70F0000}"/>
     <cellStyle name="Percentuale 69 4" xfId="2475" xr:uid="{00000000-0005-0000-0000-0000D80F0000}"/>
     <cellStyle name="Percentuale 69 4 2" xfId="2476" xr:uid="{00000000-0005-0000-0000-0000D90F0000}"/>
-    <cellStyle name="Percentuale 69 4 2 2" xfId="4164" xr:uid="{00000000-0005-0000-0000-0000DA0F0000}"/>
-    <cellStyle name="Percentuale 69 4 3" xfId="4163" xr:uid="{00000000-0005-0000-0000-0000DB0F0000}"/>
+    <cellStyle name="Percentuale 69 4 2 2" xfId="4163" xr:uid="{00000000-0005-0000-0000-0000DA0F0000}"/>
+    <cellStyle name="Percentuale 69 4 3" xfId="4162" xr:uid="{00000000-0005-0000-0000-0000DB0F0000}"/>
     <cellStyle name="Percentuale 69 5" xfId="2477" xr:uid="{00000000-0005-0000-0000-0000DC0F0000}"/>
-    <cellStyle name="Percentuale 69 6" xfId="4159" xr:uid="{00000000-0005-0000-0000-0000DD0F0000}"/>
+    <cellStyle name="Percentuale 69 6" xfId="4158" xr:uid="{00000000-0005-0000-0000-0000DD0F0000}"/>
     <cellStyle name="Percentuale 7" xfId="2478" xr:uid="{00000000-0005-0000-0000-0000DE0F0000}"/>
     <cellStyle name="Percentuale 7 2" xfId="2479" xr:uid="{00000000-0005-0000-0000-0000DF0F0000}"/>
-    <cellStyle name="Percentuale 7 2 2" xfId="4166" xr:uid="{00000000-0005-0000-0000-0000E00F0000}"/>
+    <cellStyle name="Percentuale 7 2 2" xfId="4165" xr:uid="{00000000-0005-0000-0000-0000E00F0000}"/>
     <cellStyle name="Percentuale 7 3" xfId="2480" xr:uid="{00000000-0005-0000-0000-0000E10F0000}"/>
     <cellStyle name="Percentuale 7 3 2" xfId="2481" xr:uid="{00000000-0005-0000-0000-0000E20F0000}"/>
     <cellStyle name="Percentuale 7 3 2 2" xfId="2482" xr:uid="{00000000-0005-0000-0000-0000E30F0000}"/>
-    <cellStyle name="Percentuale 7 3 2 3" xfId="4168" xr:uid="{00000000-0005-0000-0000-0000E40F0000}"/>
-    <cellStyle name="Percentuale 7 3 3" xfId="4167" xr:uid="{00000000-0005-0000-0000-0000E50F0000}"/>
+    <cellStyle name="Percentuale 7 3 2 3" xfId="4167" xr:uid="{00000000-0005-0000-0000-0000E40F0000}"/>
+    <cellStyle name="Percentuale 7 3 3" xfId="4166" xr:uid="{00000000-0005-0000-0000-0000E50F0000}"/>
     <cellStyle name="Percentuale 7 4" xfId="2483" xr:uid="{00000000-0005-0000-0000-0000E60F0000}"/>
     <cellStyle name="Percentuale 7 4 2" xfId="2484" xr:uid="{00000000-0005-0000-0000-0000E70F0000}"/>
-    <cellStyle name="Percentuale 7 4 2 2" xfId="4170" xr:uid="{00000000-0005-0000-0000-0000E80F0000}"/>
-    <cellStyle name="Percentuale 7 4 3" xfId="4169" xr:uid="{00000000-0005-0000-0000-0000E90F0000}"/>
+    <cellStyle name="Percentuale 7 4 2 2" xfId="4169" xr:uid="{00000000-0005-0000-0000-0000E80F0000}"/>
+    <cellStyle name="Percentuale 7 4 3" xfId="4168" xr:uid="{00000000-0005-0000-0000-0000E90F0000}"/>
     <cellStyle name="Percentuale 7 5" xfId="2485" xr:uid="{00000000-0005-0000-0000-0000EA0F0000}"/>
-    <cellStyle name="Percentuale 7 6" xfId="4165" xr:uid="{00000000-0005-0000-0000-0000EB0F0000}"/>
+    <cellStyle name="Percentuale 7 6" xfId="4164" xr:uid="{00000000-0005-0000-0000-0000EB0F0000}"/>
     <cellStyle name="Percentuale 8" xfId="2486" xr:uid="{00000000-0005-0000-0000-0000EC0F0000}"/>
     <cellStyle name="Percentuale 8 2" xfId="2487" xr:uid="{00000000-0005-0000-0000-0000ED0F0000}"/>
-    <cellStyle name="Percentuale 8 2 2" xfId="4172" xr:uid="{00000000-0005-0000-0000-0000EE0F0000}"/>
+    <cellStyle name="Percentuale 8 2 2" xfId="4171" xr:uid="{00000000-0005-0000-0000-0000EE0F0000}"/>
     <cellStyle name="Percentuale 8 3" xfId="2488" xr:uid="{00000000-0005-0000-0000-0000EF0F0000}"/>
     <cellStyle name="Percentuale 8 3 2" xfId="2489" xr:uid="{00000000-0005-0000-0000-0000F00F0000}"/>
     <cellStyle name="Percentuale 8 3 2 2" xfId="2490" xr:uid="{00000000-0005-0000-0000-0000F10F0000}"/>
-    <cellStyle name="Percentuale 8 3 2 3" xfId="4174" xr:uid="{00000000-0005-0000-0000-0000F20F0000}"/>
-    <cellStyle name="Percentuale 8 3 3" xfId="4173" xr:uid="{00000000-0005-0000-0000-0000F30F0000}"/>
+    <cellStyle name="Percentuale 8 3 2 3" xfId="4173" xr:uid="{00000000-0005-0000-0000-0000F20F0000}"/>
+    <cellStyle name="Percentuale 8 3 3" xfId="4172" xr:uid="{00000000-0005-0000-0000-0000F30F0000}"/>
     <cellStyle name="Percentuale 8 4" xfId="2491" xr:uid="{00000000-0005-0000-0000-0000F40F0000}"/>
     <cellStyle name="Percentuale 8 4 2" xfId="2492" xr:uid="{00000000-0005-0000-0000-0000F50F0000}"/>
-    <cellStyle name="Percentuale 8 4 2 2" xfId="4176" xr:uid="{00000000-0005-0000-0000-0000F60F0000}"/>
-    <cellStyle name="Percentuale 8 4 3" xfId="4175" xr:uid="{00000000-0005-0000-0000-0000F70F0000}"/>
+    <cellStyle name="Percentuale 8 4 2 2" xfId="4175" xr:uid="{00000000-0005-0000-0000-0000F60F0000}"/>
+    <cellStyle name="Percentuale 8 4 3" xfId="4174" xr:uid="{00000000-0005-0000-0000-0000F70F0000}"/>
     <cellStyle name="Percentuale 8 5" xfId="2493" xr:uid="{00000000-0005-0000-0000-0000F80F0000}"/>
-    <cellStyle name="Percentuale 8 6" xfId="4171" xr:uid="{00000000-0005-0000-0000-0000F90F0000}"/>
+    <cellStyle name="Percentuale 8 6" xfId="4170" xr:uid="{00000000-0005-0000-0000-0000F90F0000}"/>
     <cellStyle name="Percentuale 9" xfId="2494" xr:uid="{00000000-0005-0000-0000-0000FA0F0000}"/>
     <cellStyle name="Percentuale 9 2" xfId="2495" xr:uid="{00000000-0005-0000-0000-0000FB0F0000}"/>
-    <cellStyle name="Percentuale 9 2 2" xfId="4178" xr:uid="{00000000-0005-0000-0000-0000FC0F0000}"/>
+    <cellStyle name="Percentuale 9 2 2" xfId="4177" xr:uid="{00000000-0005-0000-0000-0000FC0F0000}"/>
     <cellStyle name="Percentuale 9 3" xfId="2496" xr:uid="{00000000-0005-0000-0000-0000FD0F0000}"/>
     <cellStyle name="Percentuale 9 3 2" xfId="2497" xr:uid="{00000000-0005-0000-0000-0000FE0F0000}"/>
     <cellStyle name="Percentuale 9 3 2 2" xfId="2498" xr:uid="{00000000-0005-0000-0000-0000FF0F0000}"/>
-    <cellStyle name="Percentuale 9 3 2 3" xfId="4180" xr:uid="{00000000-0005-0000-0000-000000100000}"/>
-    <cellStyle name="Percentuale 9 3 3" xfId="4179" xr:uid="{00000000-0005-0000-0000-000001100000}"/>
+    <cellStyle name="Percentuale 9 3 2 3" xfId="4179" xr:uid="{00000000-0005-0000-0000-000000100000}"/>
+    <cellStyle name="Percentuale 9 3 3" xfId="4178" xr:uid="{00000000-0005-0000-0000-000001100000}"/>
     <cellStyle name="Percentuale 9 4" xfId="2499" xr:uid="{00000000-0005-0000-0000-000002100000}"/>
     <cellStyle name="Percentuale 9 4 2" xfId="2500" xr:uid="{00000000-0005-0000-0000-000003100000}"/>
-    <cellStyle name="Percentuale 9 4 2 2" xfId="4182" xr:uid="{00000000-0005-0000-0000-000004100000}"/>
-    <cellStyle name="Percentuale 9 4 3" xfId="4181" xr:uid="{00000000-0005-0000-0000-000005100000}"/>
+    <cellStyle name="Percentuale 9 4 2 2" xfId="4181" xr:uid="{00000000-0005-0000-0000-000004100000}"/>
+    <cellStyle name="Percentuale 9 4 3" xfId="4180" xr:uid="{00000000-0005-0000-0000-000005100000}"/>
     <cellStyle name="Percentuale 9 5" xfId="2501" xr:uid="{00000000-0005-0000-0000-000006100000}"/>
-    <cellStyle name="Percentuale 9 6" xfId="4177" xr:uid="{00000000-0005-0000-0000-000007100000}"/>
+    <cellStyle name="Percentuale 9 6" xfId="4176" xr:uid="{00000000-0005-0000-0000-000007100000}"/>
     <cellStyle name="Procent 2" xfId="2502" xr:uid="{00000000-0005-0000-0000-000008100000}"/>
     <cellStyle name="Procent 2 2" xfId="2503" xr:uid="{00000000-0005-0000-0000-000009100000}"/>
     <cellStyle name="Procent 2 2 2" xfId="2504" xr:uid="{00000000-0005-0000-0000-00000A100000}"/>
-    <cellStyle name="Procent 2 3" xfId="4183" xr:uid="{00000000-0005-0000-0000-00000B100000}"/>
+    <cellStyle name="Procent 2 3" xfId="4182" xr:uid="{00000000-0005-0000-0000-00000B100000}"/>
     <cellStyle name="Procent 3" xfId="2505" xr:uid="{00000000-0005-0000-0000-00000C100000}"/>
     <cellStyle name="Procent 3 2" xfId="2506" xr:uid="{00000000-0005-0000-0000-00000D100000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="2507" xr:uid="{00000000-0005-0000-0000-00000E100000}"/>
-    <cellStyle name="Style 155" xfId="2508" xr:uid="{00000000-0005-0000-0000-00000F100000}"/>
-    <cellStyle name="Style 156" xfId="2509" xr:uid="{00000000-0005-0000-0000-000010100000}"/>
-    <cellStyle name="Style 157" xfId="2510" xr:uid="{00000000-0005-0000-0000-000011100000}"/>
-    <cellStyle name="Style 158" xfId="2511" xr:uid="{00000000-0005-0000-0000-000012100000}"/>
-    <cellStyle name="Style 158 2" xfId="4184" xr:uid="{00000000-0005-0000-0000-000013100000}"/>
-    <cellStyle name="Style 159" xfId="2512" xr:uid="{00000000-0005-0000-0000-000014100000}"/>
-    <cellStyle name="Style 161" xfId="2513" xr:uid="{00000000-0005-0000-0000-000015100000}"/>
-    <cellStyle name="Style 161 2" xfId="4185" xr:uid="{00000000-0005-0000-0000-000016100000}"/>
-    <cellStyle name="Style 162" xfId="2514" xr:uid="{00000000-0005-0000-0000-000017100000}"/>
-    <cellStyle name="Style 162 2" xfId="4186" xr:uid="{00000000-0005-0000-0000-000018100000}"/>
-    <cellStyle name="Style 163" xfId="2515" xr:uid="{00000000-0005-0000-0000-000019100000}"/>
-    <cellStyle name="Style 163 2" xfId="4187" xr:uid="{00000000-0005-0000-0000-00001A100000}"/>
-    <cellStyle name="Style 223" xfId="2516" xr:uid="{00000000-0005-0000-0000-00001B100000}"/>
-    <cellStyle name="Style 224" xfId="2517" xr:uid="{00000000-0005-0000-0000-00001C100000}"/>
-    <cellStyle name="Style 225" xfId="2518" xr:uid="{00000000-0005-0000-0000-00001D100000}"/>
-    <cellStyle name="Style 226" xfId="2519" xr:uid="{00000000-0005-0000-0000-00001E100000}"/>
-    <cellStyle name="Style 226 2" xfId="4188" xr:uid="{00000000-0005-0000-0000-00001F100000}"/>
-    <cellStyle name="Style 227" xfId="2520" xr:uid="{00000000-0005-0000-0000-000020100000}"/>
-    <cellStyle name="Style 229" xfId="2521" xr:uid="{00000000-0005-0000-0000-000021100000}"/>
-    <cellStyle name="Style 229 2" xfId="4189" xr:uid="{00000000-0005-0000-0000-000022100000}"/>
-    <cellStyle name="Style 230" xfId="2522" xr:uid="{00000000-0005-0000-0000-000023100000}"/>
-    <cellStyle name="Style 230 2" xfId="4190" xr:uid="{00000000-0005-0000-0000-000024100000}"/>
-    <cellStyle name="Style 231" xfId="2523" xr:uid="{00000000-0005-0000-0000-000025100000}"/>
-    <cellStyle name="Style 231 2" xfId="4191" xr:uid="{00000000-0005-0000-0000-000026100000}"/>
-    <cellStyle name="Style 257" xfId="2524" xr:uid="{00000000-0005-0000-0000-000027100000}"/>
-    <cellStyle name="Style 258" xfId="2525" xr:uid="{00000000-0005-0000-0000-000028100000}"/>
-    <cellStyle name="Style 259" xfId="2526" xr:uid="{00000000-0005-0000-0000-000029100000}"/>
-    <cellStyle name="Style 260" xfId="2527" xr:uid="{00000000-0005-0000-0000-00002A100000}"/>
-    <cellStyle name="Style 260 2" xfId="4192" xr:uid="{00000000-0005-0000-0000-00002B100000}"/>
-    <cellStyle name="Style 261" xfId="2528" xr:uid="{00000000-0005-0000-0000-00002C100000}"/>
-    <cellStyle name="Style 263" xfId="2529" xr:uid="{00000000-0005-0000-0000-00002D100000}"/>
-    <cellStyle name="Style 263 2" xfId="4193" xr:uid="{00000000-0005-0000-0000-00002E100000}"/>
-    <cellStyle name="Style 264" xfId="2530" xr:uid="{00000000-0005-0000-0000-00002F100000}"/>
-    <cellStyle name="Style 264 2" xfId="4194" xr:uid="{00000000-0005-0000-0000-000030100000}"/>
-    <cellStyle name="Style 265" xfId="2531" xr:uid="{00000000-0005-0000-0000-000031100000}"/>
-    <cellStyle name="Style 265 2" xfId="4195" xr:uid="{00000000-0005-0000-0000-000032100000}"/>
-    <cellStyle name="Style 461" xfId="2532" xr:uid="{00000000-0005-0000-0000-000033100000}"/>
-    <cellStyle name="Style 467" xfId="2533" xr:uid="{00000000-0005-0000-0000-000034100000}"/>
-    <cellStyle name="Style 467 2" xfId="4196" xr:uid="{00000000-0005-0000-0000-000035100000}"/>
-    <cellStyle name="Style 468" xfId="2534" xr:uid="{00000000-0005-0000-0000-000036100000}"/>
-    <cellStyle name="Style 468 2" xfId="4197" xr:uid="{00000000-0005-0000-0000-000037100000}"/>
-    <cellStyle name="Style 469" xfId="2535" xr:uid="{00000000-0005-0000-0000-000038100000}"/>
-    <cellStyle name="Style 469 2" xfId="4198" xr:uid="{00000000-0005-0000-0000-000039100000}"/>
-    <cellStyle name="Style 478" xfId="2536" xr:uid="{00000000-0005-0000-0000-00003A100000}"/>
-    <cellStyle name="Style 479" xfId="2537" xr:uid="{00000000-0005-0000-0000-00003B100000}"/>
-    <cellStyle name="Style 480" xfId="2538" xr:uid="{00000000-0005-0000-0000-00003C100000}"/>
-    <cellStyle name="Style 481" xfId="2539" xr:uid="{00000000-0005-0000-0000-00003D100000}"/>
-    <cellStyle name="Style 481 2" xfId="4199" xr:uid="{00000000-0005-0000-0000-00003E100000}"/>
-    <cellStyle name="Style 482" xfId="2540" xr:uid="{00000000-0005-0000-0000-00003F100000}"/>
-    <cellStyle name="Style 484" xfId="2541" xr:uid="{00000000-0005-0000-0000-000040100000}"/>
-    <cellStyle name="Style 484 2" xfId="4200" xr:uid="{00000000-0005-0000-0000-000041100000}"/>
-    <cellStyle name="Style 485" xfId="2542" xr:uid="{00000000-0005-0000-0000-000042100000}"/>
-    <cellStyle name="Style 485 2" xfId="4201" xr:uid="{00000000-0005-0000-0000-000043100000}"/>
-    <cellStyle name="Style 486" xfId="2543" xr:uid="{00000000-0005-0000-0000-000044100000}"/>
-    <cellStyle name="Style 486 2" xfId="4202" xr:uid="{00000000-0005-0000-0000-000045100000}"/>
-    <cellStyle name="Style 495" xfId="2544" xr:uid="{00000000-0005-0000-0000-000046100000}"/>
-    <cellStyle name="Style 496" xfId="2545" xr:uid="{00000000-0005-0000-0000-000047100000}"/>
-    <cellStyle name="Style 497" xfId="2546" xr:uid="{00000000-0005-0000-0000-000048100000}"/>
-    <cellStyle name="Style 498" xfId="2547" xr:uid="{00000000-0005-0000-0000-000049100000}"/>
-    <cellStyle name="Style 498 2" xfId="4203" xr:uid="{00000000-0005-0000-0000-00004A100000}"/>
-    <cellStyle name="Style 499" xfId="2548" xr:uid="{00000000-0005-0000-0000-00004B100000}"/>
-    <cellStyle name="Style 501" xfId="2549" xr:uid="{00000000-0005-0000-0000-00004C100000}"/>
-    <cellStyle name="Style 501 2" xfId="4204" xr:uid="{00000000-0005-0000-0000-00004D100000}"/>
-    <cellStyle name="Style 502" xfId="2550" xr:uid="{00000000-0005-0000-0000-00004E100000}"/>
-    <cellStyle name="Style 502 2" xfId="4205" xr:uid="{00000000-0005-0000-0000-00004F100000}"/>
-    <cellStyle name="Style 503" xfId="2551" xr:uid="{00000000-0005-0000-0000-000050100000}"/>
-    <cellStyle name="Style 503 2" xfId="4206" xr:uid="{00000000-0005-0000-0000-000051100000}"/>
-    <cellStyle name="Style 580" xfId="2552" xr:uid="{00000000-0005-0000-0000-000052100000}"/>
-    <cellStyle name="Style 581" xfId="2553" xr:uid="{00000000-0005-0000-0000-000053100000}"/>
-    <cellStyle name="Style 582" xfId="2554" xr:uid="{00000000-0005-0000-0000-000054100000}"/>
-    <cellStyle name="Style 583" xfId="2555" xr:uid="{00000000-0005-0000-0000-000055100000}"/>
-    <cellStyle name="Style 583 2" xfId="4207" xr:uid="{00000000-0005-0000-0000-000056100000}"/>
-    <cellStyle name="Style 584" xfId="2556" xr:uid="{00000000-0005-0000-0000-000057100000}"/>
-    <cellStyle name="Style 586" xfId="2557" xr:uid="{00000000-0005-0000-0000-000058100000}"/>
-    <cellStyle name="Style 586 2" xfId="4208" xr:uid="{00000000-0005-0000-0000-000059100000}"/>
-    <cellStyle name="Style 587" xfId="2558" xr:uid="{00000000-0005-0000-0000-00005A100000}"/>
-    <cellStyle name="Style 587 2" xfId="4209" xr:uid="{00000000-0005-0000-0000-00005B100000}"/>
-    <cellStyle name="Style 588" xfId="2559" xr:uid="{00000000-0005-0000-0000-00005C100000}"/>
-    <cellStyle name="Style 588 2" xfId="4210" xr:uid="{00000000-0005-0000-0000-00005D100000}"/>
-    <cellStyle name="Testo avviso" xfId="2560" xr:uid="{00000000-0005-0000-0000-00005E100000}"/>
-    <cellStyle name="Testo descrittivo" xfId="2561" xr:uid="{00000000-0005-0000-0000-00005F100000}"/>
-    <cellStyle name="Titolo" xfId="2562" xr:uid="{00000000-0005-0000-0000-000060100000}"/>
-    <cellStyle name="Titolo 1" xfId="2563" xr:uid="{00000000-0005-0000-0000-000061100000}"/>
-    <cellStyle name="Titolo 1 2" xfId="2564" xr:uid="{00000000-0005-0000-0000-000062100000}"/>
-    <cellStyle name="Titolo 2" xfId="2565" xr:uid="{00000000-0005-0000-0000-000063100000}"/>
-    <cellStyle name="Titolo 2 2" xfId="2566" xr:uid="{00000000-0005-0000-0000-000064100000}"/>
-    <cellStyle name="Titolo 3" xfId="2567" xr:uid="{00000000-0005-0000-0000-000065100000}"/>
-    <cellStyle name="Titolo 3 2" xfId="2568" xr:uid="{00000000-0005-0000-0000-000066100000}"/>
-    <cellStyle name="Titolo 4" xfId="2569" xr:uid="{00000000-0005-0000-0000-000067100000}"/>
-    <cellStyle name="Total 2" xfId="2570" xr:uid="{00000000-0005-0000-0000-000068100000}"/>
-    <cellStyle name="Total 2 2" xfId="2571" xr:uid="{00000000-0005-0000-0000-000069100000}"/>
-    <cellStyle name="Totale" xfId="2572" xr:uid="{00000000-0005-0000-0000-00006A100000}"/>
-    <cellStyle name="Totale 2" xfId="2573" xr:uid="{00000000-0005-0000-0000-00006B100000}"/>
-    <cellStyle name="Totale 2 2" xfId="2574" xr:uid="{00000000-0005-0000-0000-00006C100000}"/>
-    <cellStyle name="Totale 3" xfId="2575" xr:uid="{00000000-0005-0000-0000-00006D100000}"/>
-    <cellStyle name="Totale 3 2" xfId="2576" xr:uid="{00000000-0005-0000-0000-00006E100000}"/>
-    <cellStyle name="Totale 4" xfId="2577" xr:uid="{00000000-0005-0000-0000-00006F100000}"/>
-    <cellStyle name="Valore non valido" xfId="2578" xr:uid="{00000000-0005-0000-0000-000070100000}"/>
-    <cellStyle name="Valore valido" xfId="2579" xr:uid="{00000000-0005-0000-0000-000071100000}"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="2580" xr:uid="{00000000-0005-0000-0000-000072100000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 155" xfId="2507" xr:uid="{00000000-0005-0000-0000-00000F100000}"/>
+    <cellStyle name="Style 156" xfId="2508" xr:uid="{00000000-0005-0000-0000-000010100000}"/>
+    <cellStyle name="Style 157" xfId="2509" xr:uid="{00000000-0005-0000-0000-000011100000}"/>
+    <cellStyle name="Style 158" xfId="2510" xr:uid="{00000000-0005-0000-0000-000012100000}"/>
+    <cellStyle name="Style 158 2" xfId="4183" xr:uid="{00000000-0005-0000-0000-000013100000}"/>
+    <cellStyle name="Style 159" xfId="2511" xr:uid="{00000000-0005-0000-0000-000014100000}"/>
+    <cellStyle name="Style 161" xfId="2512" xr:uid="{00000000-0005-0000-0000-000015100000}"/>
+    <cellStyle name="Style 161 2" xfId="4184" xr:uid="{00000000-0005-0000-0000-000016100000}"/>
+    <cellStyle name="Style 162" xfId="2513" xr:uid="{00000000-0005-0000-0000-000017100000}"/>
+    <cellStyle name="Style 162 2" xfId="4185" xr:uid="{00000000-0005-0000-0000-000018100000}"/>
+    <cellStyle name="Style 163" xfId="2514" xr:uid="{00000000-0005-0000-0000-000019100000}"/>
+    <cellStyle name="Style 163 2" xfId="4186" xr:uid="{00000000-0005-0000-0000-00001A100000}"/>
+    <cellStyle name="Style 223" xfId="2515" xr:uid="{00000000-0005-0000-0000-00001B100000}"/>
+    <cellStyle name="Style 224" xfId="2516" xr:uid="{00000000-0005-0000-0000-00001C100000}"/>
+    <cellStyle name="Style 225" xfId="2517" xr:uid="{00000000-0005-0000-0000-00001D100000}"/>
+    <cellStyle name="Style 226" xfId="2518" xr:uid="{00000000-0005-0000-0000-00001E100000}"/>
+    <cellStyle name="Style 226 2" xfId="4187" xr:uid="{00000000-0005-0000-0000-00001F100000}"/>
+    <cellStyle name="Style 227" xfId="2519" xr:uid="{00000000-0005-0000-0000-000020100000}"/>
+    <cellStyle name="Style 229" xfId="2520" xr:uid="{00000000-0005-0000-0000-000021100000}"/>
+    <cellStyle name="Style 229 2" xfId="4188" xr:uid="{00000000-0005-0000-0000-000022100000}"/>
+    <cellStyle name="Style 230" xfId="2521" xr:uid="{00000000-0005-0000-0000-000023100000}"/>
+    <cellStyle name="Style 230 2" xfId="4189" xr:uid="{00000000-0005-0000-0000-000024100000}"/>
+    <cellStyle name="Style 231" xfId="2522" xr:uid="{00000000-0005-0000-0000-000025100000}"/>
+    <cellStyle name="Style 231 2" xfId="4190" xr:uid="{00000000-0005-0000-0000-000026100000}"/>
+    <cellStyle name="Style 257" xfId="2523" xr:uid="{00000000-0005-0000-0000-000027100000}"/>
+    <cellStyle name="Style 258" xfId="2524" xr:uid="{00000000-0005-0000-0000-000028100000}"/>
+    <cellStyle name="Style 259" xfId="2525" xr:uid="{00000000-0005-0000-0000-000029100000}"/>
+    <cellStyle name="Style 260" xfId="2526" xr:uid="{00000000-0005-0000-0000-00002A100000}"/>
+    <cellStyle name="Style 260 2" xfId="4191" xr:uid="{00000000-0005-0000-0000-00002B100000}"/>
+    <cellStyle name="Style 261" xfId="2527" xr:uid="{00000000-0005-0000-0000-00002C100000}"/>
+    <cellStyle name="Style 263" xfId="2528" xr:uid="{00000000-0005-0000-0000-00002D100000}"/>
+    <cellStyle name="Style 263 2" xfId="4192" xr:uid="{00000000-0005-0000-0000-00002E100000}"/>
+    <cellStyle name="Style 264" xfId="2529" xr:uid="{00000000-0005-0000-0000-00002F100000}"/>
+    <cellStyle name="Style 264 2" xfId="4193" xr:uid="{00000000-0005-0000-0000-000030100000}"/>
+    <cellStyle name="Style 265" xfId="2530" xr:uid="{00000000-0005-0000-0000-000031100000}"/>
+    <cellStyle name="Style 265 2" xfId="4194" xr:uid="{00000000-0005-0000-0000-000032100000}"/>
+    <cellStyle name="Style 461" xfId="2531" xr:uid="{00000000-0005-0000-0000-000033100000}"/>
+    <cellStyle name="Style 467" xfId="2532" xr:uid="{00000000-0005-0000-0000-000034100000}"/>
+    <cellStyle name="Style 467 2" xfId="4195" xr:uid="{00000000-0005-0000-0000-000035100000}"/>
+    <cellStyle name="Style 468" xfId="2533" xr:uid="{00000000-0005-0000-0000-000036100000}"/>
+    <cellStyle name="Style 468 2" xfId="4196" xr:uid="{00000000-0005-0000-0000-000037100000}"/>
+    <cellStyle name="Style 469" xfId="2534" xr:uid="{00000000-0005-0000-0000-000038100000}"/>
+    <cellStyle name="Style 469 2" xfId="4197" xr:uid="{00000000-0005-0000-0000-000039100000}"/>
+    <cellStyle name="Style 478" xfId="2535" xr:uid="{00000000-0005-0000-0000-00003A100000}"/>
+    <cellStyle name="Style 479" xfId="2536" xr:uid="{00000000-0005-0000-0000-00003B100000}"/>
+    <cellStyle name="Style 480" xfId="2537" xr:uid="{00000000-0005-0000-0000-00003C100000}"/>
+    <cellStyle name="Style 481" xfId="2538" xr:uid="{00000000-0005-0000-0000-00003D100000}"/>
+    <cellStyle name="Style 481 2" xfId="4198" xr:uid="{00000000-0005-0000-0000-00003E100000}"/>
+    <cellStyle name="Style 482" xfId="2539" xr:uid="{00000000-0005-0000-0000-00003F100000}"/>
+    <cellStyle name="Style 484" xfId="2540" xr:uid="{00000000-0005-0000-0000-000040100000}"/>
+    <cellStyle name="Style 484 2" xfId="4199" xr:uid="{00000000-0005-0000-0000-000041100000}"/>
+    <cellStyle name="Style 485" xfId="2541" xr:uid="{00000000-0005-0000-0000-000042100000}"/>
+    <cellStyle name="Style 485 2" xfId="4200" xr:uid="{00000000-0005-0000-0000-000043100000}"/>
+    <cellStyle name="Style 486" xfId="2542" xr:uid="{00000000-0005-0000-0000-000044100000}"/>
+    <cellStyle name="Style 486 2" xfId="4201" xr:uid="{00000000-0005-0000-0000-000045100000}"/>
+    <cellStyle name="Style 495" xfId="2543" xr:uid="{00000000-0005-0000-0000-000046100000}"/>
+    <cellStyle name="Style 496" xfId="2544" xr:uid="{00000000-0005-0000-0000-000047100000}"/>
+    <cellStyle name="Style 497" xfId="2545" xr:uid="{00000000-0005-0000-0000-000048100000}"/>
+    <cellStyle name="Style 498" xfId="2546" xr:uid="{00000000-0005-0000-0000-000049100000}"/>
+    <cellStyle name="Style 498 2" xfId="4202" xr:uid="{00000000-0005-0000-0000-00004A100000}"/>
+    <cellStyle name="Style 499" xfId="2547" xr:uid="{00000000-0005-0000-0000-00004B100000}"/>
+    <cellStyle name="Style 501" xfId="2548" xr:uid="{00000000-0005-0000-0000-00004C100000}"/>
+    <cellStyle name="Style 501 2" xfId="4203" xr:uid="{00000000-0005-0000-0000-00004D100000}"/>
+    <cellStyle name="Style 502" xfId="2549" xr:uid="{00000000-0005-0000-0000-00004E100000}"/>
+    <cellStyle name="Style 502 2" xfId="4204" xr:uid="{00000000-0005-0000-0000-00004F100000}"/>
+    <cellStyle name="Style 503" xfId="2550" xr:uid="{00000000-0005-0000-0000-000050100000}"/>
+    <cellStyle name="Style 503 2" xfId="4205" xr:uid="{00000000-0005-0000-0000-000051100000}"/>
+    <cellStyle name="Style 580" xfId="2551" xr:uid="{00000000-0005-0000-0000-000052100000}"/>
+    <cellStyle name="Style 581" xfId="2552" xr:uid="{00000000-0005-0000-0000-000053100000}"/>
+    <cellStyle name="Style 582" xfId="2553" xr:uid="{00000000-0005-0000-0000-000054100000}"/>
+    <cellStyle name="Style 583" xfId="2554" xr:uid="{00000000-0005-0000-0000-000055100000}"/>
+    <cellStyle name="Style 583 2" xfId="4206" xr:uid="{00000000-0005-0000-0000-000056100000}"/>
+    <cellStyle name="Style 584" xfId="2555" xr:uid="{00000000-0005-0000-0000-000057100000}"/>
+    <cellStyle name="Style 586" xfId="2556" xr:uid="{00000000-0005-0000-0000-000058100000}"/>
+    <cellStyle name="Style 586 2" xfId="4207" xr:uid="{00000000-0005-0000-0000-000059100000}"/>
+    <cellStyle name="Style 587" xfId="2557" xr:uid="{00000000-0005-0000-0000-00005A100000}"/>
+    <cellStyle name="Style 587 2" xfId="4208" xr:uid="{00000000-0005-0000-0000-00005B100000}"/>
+    <cellStyle name="Style 588" xfId="2558" xr:uid="{00000000-0005-0000-0000-00005C100000}"/>
+    <cellStyle name="Style 588 2" xfId="4209" xr:uid="{00000000-0005-0000-0000-00005D100000}"/>
+    <cellStyle name="Testo avviso" xfId="2559" xr:uid="{00000000-0005-0000-0000-00005E100000}"/>
+    <cellStyle name="Testo descrittivo" xfId="2560" xr:uid="{00000000-0005-0000-0000-00005F100000}"/>
+    <cellStyle name="Titolo" xfId="2561" xr:uid="{00000000-0005-0000-0000-000060100000}"/>
+    <cellStyle name="Titolo 1" xfId="2562" xr:uid="{00000000-0005-0000-0000-000061100000}"/>
+    <cellStyle name="Titolo 1 2" xfId="2563" xr:uid="{00000000-0005-0000-0000-000062100000}"/>
+    <cellStyle name="Titolo 2" xfId="2564" xr:uid="{00000000-0005-0000-0000-000063100000}"/>
+    <cellStyle name="Titolo 2 2" xfId="2565" xr:uid="{00000000-0005-0000-0000-000064100000}"/>
+    <cellStyle name="Titolo 3" xfId="2566" xr:uid="{00000000-0005-0000-0000-000065100000}"/>
+    <cellStyle name="Titolo 3 2" xfId="2567" xr:uid="{00000000-0005-0000-0000-000066100000}"/>
+    <cellStyle name="Titolo 4" xfId="2568" xr:uid="{00000000-0005-0000-0000-000067100000}"/>
+    <cellStyle name="Total 2" xfId="2569" xr:uid="{00000000-0005-0000-0000-000068100000}"/>
+    <cellStyle name="Total 2 2" xfId="2570" xr:uid="{00000000-0005-0000-0000-000069100000}"/>
+    <cellStyle name="Totale" xfId="2571" xr:uid="{00000000-0005-0000-0000-00006A100000}"/>
+    <cellStyle name="Totale 2" xfId="2572" xr:uid="{00000000-0005-0000-0000-00006B100000}"/>
+    <cellStyle name="Totale 2 2" xfId="2573" xr:uid="{00000000-0005-0000-0000-00006C100000}"/>
+    <cellStyle name="Totale 3" xfId="2574" xr:uid="{00000000-0005-0000-0000-00006D100000}"/>
+    <cellStyle name="Totale 3 2" xfId="2575" xr:uid="{00000000-0005-0000-0000-00006E100000}"/>
+    <cellStyle name="Totale 4" xfId="2576" xr:uid="{00000000-0005-0000-0000-00006F100000}"/>
+    <cellStyle name="Valore non valido" xfId="2577" xr:uid="{00000000-0005-0000-0000-000070100000}"/>
+    <cellStyle name="Valore valido" xfId="2578" xr:uid="{00000000-0005-0000-0000-000071100000}"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="2579" xr:uid="{00000000-0005-0000-0000-000072100000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10113,16 +10114,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="60.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="60.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23">
         <v>43130</v>
       </c>
@@ -10157,7 +10158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="23">
         <v>42992</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="20">
         <v>42811</v>
       </c>
@@ -10193,7 +10194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="20">
         <v>42538</v>
       </c>
@@ -10208,7 +10209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>42534</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="20">
         <v>42499</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="15" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>42478</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="20">
         <v>42478</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="20">
         <v>42474</v>
       </c>
@@ -10297,20 +10298,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="11"/>
+    <col min="1" max="1" width="9.19921875" style="11"/>
     <col min="2" max="2" width="24" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.453125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="11"/>
+    <col min="3" max="3" width="138.46484375" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
@@ -10326,10 +10327,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
@@ -10337,18 +10338,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
@@ -10356,7 +10357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
         <v>57</v>
       </c>
@@ -10374,20 +10375,20 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="17.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>69</v>
       </c>
@@ -10397,8 +10398,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
@@ -10420,11 +10422,14 @@
       <c r="H3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>0</v>
       </c>
@@ -10446,20 +10451,24 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>0</v>
@@ -10468,11 +10477,12 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>0</v>
@@ -10481,11 +10491,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>0</v>
@@ -10494,11 +10505,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>0</v>
@@ -10507,11 +10519,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>0</v>
@@ -10520,11 +10533,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>0</v>
@@ -10533,11 +10547,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25">
@@ -10547,12 +10562,13 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <v>0</v>
       </c>
@@ -10561,11 +10577,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -10574,11 +10591,12 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="1"/>
+      <c r="J14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <v>0</v>
       </c>
@@ -10587,11 +10605,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <v>0</v>
       </c>
@@ -10600,11 +10619,12 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
         <v>0</v>
       </c>
@@ -10613,11 +10633,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="1"/>
+      <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
         <v>0</v>
       </c>
@@ -10626,11 +10647,12 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="1"/>
+      <c r="J18" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <v>0</v>
       </c>
@@ -10639,11 +10661,12 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <v>0</v>
       </c>
@@ -10652,11 +10675,12 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="1"/>
+      <c r="J20" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
         <v>0</v>
       </c>
@@ -10665,11 +10689,12 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="1"/>
+      <c r="J21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
         <v>0</v>
       </c>
@@ -10678,7 +10703,8 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="1"/>
+      <c r="J22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10698,20 +10724,20 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="26" t="s">
         <v>63</v>
       </c>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="28" t="s">
         <v>59</v>
       </c>
@@ -10731,7 +10757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="32" t="s">
         <v>51</v>
       </c>
@@ -10745,7 +10771,7 @@
       </c>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>55</v>
       </c>
@@ -10765,7 +10791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -10785,7 +10811,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -10805,7 +10831,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>55</v>
       </c>
